--- a/MUSCMammoStereotactic.xlsx
+++ b/MUSCMammoStereotactic.xlsx
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="507">
   <si>
     <t xml:space="preserve">MEDICAL PHYSICIST'S STEREOTACTIC UNIT </t>
   </si>
@@ -1301,16 +1301,10 @@
     <t>Meter:</t>
   </si>
   <si>
-    <t>Barracuda</t>
-  </si>
-  <si>
     <t>Calibration Date:</t>
   </si>
   <si>
     <t>Serial #:</t>
-  </si>
-  <si>
-    <t>BC1-05100117</t>
   </si>
   <si>
     <t>Calibration Due:</t>
@@ -4638,6 +4632,75 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="174" fontId="10" fillId="0" borderId="91" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4647,42 +4710,6 @@
     <xf numFmtId="174" fontId="10" fillId="0" borderId="90" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4701,7 +4728,34 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4714,32 +4768,11 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4748,45 +4781,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4801,7 +4795,7 @@
     <cellStyle name="Result" xfId="1"/>
     <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
-  <dxfs count="157">
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5019,1336 +5013,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7061,38 +5725,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="417" t="s">
+      <c r="A1" s="430" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="417"/>
-      <c r="C1" s="417"/>
-      <c r="D1" s="417"/>
-      <c r="E1" s="417"/>
-      <c r="F1" s="417"/>
-      <c r="G1" s="417"/>
-      <c r="H1" s="417"/>
-      <c r="I1" s="417"/>
-      <c r="J1" s="417"/>
-      <c r="K1" s="417"/>
-      <c r="L1" s="417"/>
-      <c r="M1" s="417"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
+      <c r="H1" s="430"/>
+      <c r="I1" s="430"/>
+      <c r="J1" s="430"/>
+      <c r="K1" s="430"/>
+      <c r="L1" s="430"/>
+      <c r="M1" s="430"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="417" t="s">
+      <c r="A2" s="430" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="417"/>
-      <c r="C2" s="417"/>
-      <c r="D2" s="417"/>
-      <c r="E2" s="417"/>
-      <c r="F2" s="417"/>
-      <c r="G2" s="417"/>
-      <c r="H2" s="417"/>
-      <c r="I2" s="417"/>
-      <c r="J2" s="417"/>
-      <c r="K2" s="417"/>
-      <c r="L2" s="417"/>
-      <c r="M2" s="417"/>
+      <c r="B2" s="430"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="430"/>
+      <c r="J2" s="430"/>
+      <c r="K2" s="430"/>
+      <c r="L2" s="430"/>
+      <c r="M2" s="430"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="372"/>
@@ -7114,44 +5778,44 @@
         <v>2</v>
       </c>
       <c r="B4" s="373"/>
-      <c r="C4" s="414" t="str">
+      <c r="C4" s="420" t="str">
         <f>Sheet1!R10&amp;" "&amp;Sheet1!R11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D4" s="415"/>
-      <c r="E4" s="415"/>
-      <c r="F4" s="415"/>
-      <c r="G4" s="415"/>
-      <c r="H4" s="416"/>
+      <c r="D4" s="421"/>
+      <c r="E4" s="421"/>
+      <c r="F4" s="421"/>
+      <c r="G4" s="421"/>
+      <c r="H4" s="422"/>
       <c r="I4" s="374"/>
       <c r="J4" s="375" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="408"/>
-      <c r="L4" s="409"/>
-      <c r="M4" s="410"/>
+      <c r="K4" s="431"/>
+      <c r="L4" s="432"/>
+      <c r="M4" s="433"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="373" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="373"/>
-      <c r="C5" s="414"/>
-      <c r="D5" s="415"/>
-      <c r="E5" s="415"/>
-      <c r="F5" s="415"/>
-      <c r="G5" s="415"/>
-      <c r="H5" s="416"/>
+      <c r="C5" s="420"/>
+      <c r="D5" s="421"/>
+      <c r="E5" s="421"/>
+      <c r="F5" s="421"/>
+      <c r="G5" s="421"/>
+      <c r="H5" s="422"/>
       <c r="I5" s="374"/>
       <c r="J5" s="375" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="408">
+      <c r="K5" s="431">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="409"/>
-      <c r="M5" s="410"/>
+      <c r="L5" s="432"/>
+      <c r="M5" s="433"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="373" t="s">
@@ -7159,24 +5823,24 @@
       </c>
       <c r="B6" s="373"/>
       <c r="C6" s="373"/>
-      <c r="D6" s="414" t="str">
+      <c r="D6" s="420" t="str">
         <f>Sheet1!F16</f>
         <v/>
       </c>
-      <c r="E6" s="415"/>
-      <c r="F6" s="415"/>
-      <c r="G6" s="415"/>
-      <c r="H6" s="416"/>
+      <c r="E6" s="421"/>
+      <c r="F6" s="421"/>
+      <c r="G6" s="421"/>
+      <c r="H6" s="422"/>
       <c r="I6" s="374"/>
       <c r="J6" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="414" t="str">
+      <c r="K6" s="420" t="str">
         <f>Sheet1!F17</f>
         <v/>
       </c>
-      <c r="L6" s="415"/>
-      <c r="M6" s="416"/>
+      <c r="L6" s="421"/>
+      <c r="M6" s="422"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="373" t="s">
@@ -7184,24 +5848,24 @@
       </c>
       <c r="B7" s="373"/>
       <c r="C7" s="373"/>
-      <c r="D7" s="411" t="str">
+      <c r="D7" s="427" t="str">
         <f>Sheet1!V12</f>
         <v/>
       </c>
-      <c r="E7" s="412"/>
-      <c r="F7" s="412"/>
-      <c r="G7" s="412"/>
-      <c r="H7" s="413"/>
+      <c r="E7" s="428"/>
+      <c r="F7" s="428"/>
+      <c r="G7" s="428"/>
+      <c r="H7" s="429"/>
       <c r="I7" s="374"/>
       <c r="J7" s="375" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="414" t="str">
+      <c r="K7" s="420" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="L7" s="415"/>
-      <c r="M7" s="416"/>
+      <c r="L7" s="421"/>
+      <c r="M7" s="422"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="373" t="s">
@@ -7209,18 +5873,18 @@
       </c>
       <c r="B8" s="373"/>
       <c r="C8" s="373"/>
-      <c r="D8" s="411"/>
-      <c r="E8" s="412"/>
-      <c r="F8" s="412"/>
-      <c r="G8" s="412"/>
-      <c r="H8" s="413"/>
+      <c r="D8" s="427"/>
+      <c r="E8" s="428"/>
+      <c r="F8" s="428"/>
+      <c r="G8" s="428"/>
+      <c r="H8" s="429"/>
       <c r="I8" s="374"/>
       <c r="J8" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="414"/>
-      <c r="L8" s="415"/>
-      <c r="M8" s="416"/>
+      <c r="K8" s="420"/>
+      <c r="L8" s="421"/>
+      <c r="M8" s="422"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="373" t="s">
@@ -7228,18 +5892,18 @@
       </c>
       <c r="B9" s="373"/>
       <c r="C9" s="373"/>
-      <c r="D9" s="411"/>
-      <c r="E9" s="412"/>
-      <c r="F9" s="412"/>
-      <c r="G9" s="412"/>
-      <c r="H9" s="413"/>
+      <c r="D9" s="427"/>
+      <c r="E9" s="428"/>
+      <c r="F9" s="428"/>
+      <c r="G9" s="428"/>
+      <c r="H9" s="429"/>
       <c r="I9" s="374"/>
       <c r="J9" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="414"/>
-      <c r="L9" s="415"/>
-      <c r="M9" s="416"/>
+      <c r="K9" s="420"/>
+      <c r="L9" s="421"/>
+      <c r="M9" s="422"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="373" t="s">
@@ -7247,21 +5911,21 @@
       </c>
       <c r="B10" s="373"/>
       <c r="C10" s="373"/>
-      <c r="D10" s="411" t="str">
+      <c r="D10" s="427" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="E10" s="412"/>
-      <c r="F10" s="412"/>
-      <c r="G10" s="412"/>
-      <c r="H10" s="413"/>
+      <c r="E10" s="428"/>
+      <c r="F10" s="428"/>
+      <c r="G10" s="428"/>
+      <c r="H10" s="429"/>
       <c r="I10" s="374"/>
       <c r="J10" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="414"/>
-      <c r="L10" s="415"/>
-      <c r="M10" s="416"/>
+      <c r="K10" s="420"/>
+      <c r="L10" s="421"/>
+      <c r="M10" s="422"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="373" t="s">
@@ -7269,20 +5933,20 @@
       </c>
       <c r="B11" s="373"/>
       <c r="C11" s="373"/>
-      <c r="D11" s="411" t="s">
+      <c r="D11" s="427" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="412"/>
-      <c r="F11" s="412"/>
-      <c r="G11" s="412"/>
-      <c r="H11" s="413"/>
+      <c r="E11" s="428"/>
+      <c r="F11" s="428"/>
+      <c r="G11" s="428"/>
+      <c r="H11" s="429"/>
       <c r="I11" s="374"/>
       <c r="J11" s="375" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="414"/>
-      <c r="L11" s="415"/>
-      <c r="M11" s="416"/>
+      <c r="K11" s="420"/>
+      <c r="L11" s="421"/>
+      <c r="M11" s="422"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="373"/>
@@ -7301,21 +5965,21 @@
       <c r="N12" s="379"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="422" t="s">
+      <c r="A13" s="426" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="422"/>
-      <c r="C13" s="422"/>
-      <c r="D13" s="422"/>
-      <c r="E13" s="422"/>
-      <c r="F13" s="422"/>
-      <c r="G13" s="422"/>
-      <c r="H13" s="422"/>
-      <c r="I13" s="422"/>
-      <c r="J13" s="422"/>
-      <c r="K13" s="422"/>
-      <c r="L13" s="422"/>
-      <c r="M13" s="422"/>
+      <c r="B13" s="426"/>
+      <c r="C13" s="426"/>
+      <c r="D13" s="426"/>
+      <c r="E13" s="426"/>
+      <c r="F13" s="426"/>
+      <c r="G13" s="426"/>
+      <c r="H13" s="426"/>
+      <c r="I13" s="426"/>
+      <c r="J13" s="426"/>
+      <c r="K13" s="426"/>
+      <c r="L13" s="426"/>
+      <c r="M13" s="426"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M14" s="380" t="s">
@@ -7377,7 +6041,7 @@
       <c r="A18" s="381"/>
       <c r="B18" s="381"/>
       <c r="C18" s="384" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D18" s="381"/>
       <c r="E18" s="381"/>
@@ -7412,7 +6076,7 @@
       <c r="A20" s="381"/>
       <c r="B20" s="381"/>
       <c r="C20" s="384" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D20" s="381"/>
       <c r="E20" s="381"/>
@@ -7429,7 +6093,7 @@
       <c r="A21" s="381"/>
       <c r="B21" s="381"/>
       <c r="C21" s="384" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D21" s="381"/>
       <c r="E21" s="381"/>
@@ -7628,7 +6292,7 @@
       <c r="C33" s="384" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="450" t="e">
+      <c r="K33" s="411" t="e">
         <f>MGD</f>
         <v>#N/A</v>
       </c>
@@ -7764,19 +6428,19 @@
     <row r="41" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="373"/>
       <c r="B41" s="373"/>
-      <c r="C41" s="419" t="s">
+      <c r="C41" s="423" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="420"/>
-      <c r="E41" s="420"/>
-      <c r="F41" s="420"/>
-      <c r="G41" s="420"/>
-      <c r="H41" s="420"/>
-      <c r="I41" s="420"/>
-      <c r="J41" s="420"/>
-      <c r="K41" s="420"/>
-      <c r="L41" s="420"/>
-      <c r="M41" s="421"/>
+      <c r="D41" s="424"/>
+      <c r="E41" s="424"/>
+      <c r="F41" s="424"/>
+      <c r="G41" s="424"/>
+      <c r="H41" s="424"/>
+      <c r="I41" s="424"/>
+      <c r="J41" s="424"/>
+      <c r="K41" s="424"/>
+      <c r="L41" s="424"/>
+      <c r="M41" s="425"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="373" t="s">
@@ -7814,24 +6478,31 @@
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="418" t="s">
-        <v>507</v>
-      </c>
-      <c r="B45" s="418"/>
-      <c r="C45" s="418"/>
-      <c r="D45" s="418"/>
-      <c r="E45" s="418"/>
-      <c r="F45" s="418"/>
-      <c r="G45" s="418"/>
-      <c r="H45" s="418"/>
-      <c r="I45" s="418"/>
-      <c r="J45" s="418"/>
-      <c r="K45" s="418"/>
-      <c r="L45" s="418"/>
-      <c r="M45" s="418"/>
+      <c r="A45" s="419" t="s">
+        <v>505</v>
+      </c>
+      <c r="B45" s="419"/>
+      <c r="C45" s="419"/>
+      <c r="D45" s="419"/>
+      <c r="E45" s="419"/>
+      <c r="F45" s="419"/>
+      <c r="G45" s="419"/>
+      <c r="H45" s="419"/>
+      <c r="I45" s="419"/>
+      <c r="J45" s="419"/>
+      <c r="K45" s="419"/>
+      <c r="L45" s="419"/>
+      <c r="M45" s="419"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="A45:M45"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
@@ -7842,13 +6513,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="D10:H10"/>
@@ -7959,32 +6623,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="423" t="s">
+      <c r="A1" s="434" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="423"/>
-      <c r="C1" s="423"/>
-      <c r="D1" s="423"/>
-      <c r="E1" s="423"/>
-      <c r="F1" s="423"/>
-      <c r="G1" s="423"/>
-      <c r="H1" s="423"/>
-      <c r="I1" s="423"/>
-      <c r="J1" s="423"/>
+      <c r="B1" s="434"/>
+      <c r="C1" s="434"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
     </row>
     <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="424" t="s">
-        <v>497</v>
-      </c>
-      <c r="B2" s="425"/>
-      <c r="C2" s="425"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="425"/>
-      <c r="F2" s="425"/>
-      <c r="G2" s="425"/>
-      <c r="H2" s="425"/>
-      <c r="I2" s="425"/>
-      <c r="J2" s="425"/>
+      <c r="A2" s="435" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="436"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="436"/>
+      <c r="E2" s="436"/>
+      <c r="F2" s="436"/>
+      <c r="G2" s="436"/>
+      <c r="H2" s="436"/>
+      <c r="I2" s="436"/>
+      <c r="J2" s="436"/>
     </row>
     <row r="5" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="395" t="s">
@@ -8030,13 +6694,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="401" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H9" s="402" t="s">
         <v>53</v>
       </c>
       <c r="J9" s="403" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8044,13 +6708,13 @@
         <v>55</v>
       </c>
       <c r="B10" s="401" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H10" s="402" t="s">
         <v>53</v>
       </c>
       <c r="J10" s="403" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8070,13 +6734,13 @@
         <v>59</v>
       </c>
       <c r="B12" s="401" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H12" s="402" t="s">
         <v>58</v>
       </c>
       <c r="J12" s="403" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8084,13 +6748,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="401" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H13" s="402" t="s">
         <v>58</v>
       </c>
       <c r="J13" s="403" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8098,13 +6762,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="405" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H14" s="402" t="s">
         <v>62</v>
       </c>
       <c r="J14" s="403" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8124,13 +6788,13 @@
         <v>65</v>
       </c>
       <c r="B16" s="401" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H16" s="402" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="403" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8163,13 +6827,13 @@
         <v>72</v>
       </c>
       <c r="B19" s="401" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H19" s="406" t="s">
         <v>69</v>
       </c>
       <c r="J19" s="403" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8177,13 +6841,13 @@
         <v>73</v>
       </c>
       <c r="B20" s="401" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H20" s="402" t="s">
         <v>69</v>
       </c>
       <c r="J20" s="403" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8191,7 +6855,7 @@
         <v>74</v>
       </c>
       <c r="B21" s="401" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H21" s="402" t="s">
         <v>75</v>
@@ -8227,18 +6891,18 @@
     </row>
     <row r="25" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:10" ht="266.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="426" t="s">
+      <c r="A26" s="437" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="427"/>
-      <c r="C26" s="427"/>
-      <c r="D26" s="427"/>
-      <c r="E26" s="427"/>
-      <c r="F26" s="427"/>
-      <c r="G26" s="427"/>
-      <c r="H26" s="427"/>
-      <c r="I26" s="427"/>
-      <c r="J26" s="428"/>
+      <c r="B26" s="438"/>
+      <c r="C26" s="438"/>
+      <c r="D26" s="438"/>
+      <c r="E26" s="438"/>
+      <c r="F26" s="438"/>
+      <c r="G26" s="438"/>
+      <c r="H26" s="438"/>
+      <c r="I26" s="438"/>
+      <c r="J26" s="439"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8295,7 +6959,7 @@
       <c r="L1" s="65"/>
       <c r="M1" s="66"/>
       <c r="O1" s="68" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P1" s="69"/>
       <c r="Q1" s="69"/>
@@ -8596,7 +7260,7 @@
         <v>108</v>
       </c>
       <c r="AQ9" s="82" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8608,19 +7272,19 @@
       <c r="E10" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="439" t="str">
+      <c r="F10" s="440" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="439"/>
+      <c r="G10" s="440"/>
       <c r="J10" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="439" t="str">
+      <c r="K10" s="440" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="439"/>
+      <c r="L10" s="440"/>
       <c r="M10" s="117"/>
       <c r="O10" s="77"/>
       <c r="Q10" s="83" t="s">
@@ -8652,28 +7316,28 @@
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="AH10" s="455">
+      <c r="AH10" s="416">
         <v>24</v>
       </c>
-      <c r="AI10" s="455">
+      <c r="AI10" s="416">
         <v>50</v>
       </c>
-      <c r="AJ10" s="456">
+      <c r="AJ10" s="417">
         <v>0</v>
       </c>
-      <c r="AK10" s="455" t="str">
-        <f t="shared" ref="AK10:AK42" si="1">IF($V$21="","",$V$21)</f>
+      <c r="AK10" s="416" t="str">
+        <f t="shared" ref="AK10:AK26" si="1">IF($V$21="","",$V$21)</f>
         <v>Mo</v>
       </c>
-      <c r="AL10" s="455" t="str">
-        <f t="shared" ref="AL10:AL42" si="2">IF($V$24="","",$V$24)</f>
+      <c r="AL10" s="416" t="str">
+        <f t="shared" ref="AL10:AL26" si="2">IF($V$24="","",$V$24)</f>
         <v>Mo</v>
       </c>
-      <c r="AM10" s="455"/>
-      <c r="AN10" s="455"/>
-      <c r="AO10" s="455"/>
-      <c r="AP10" s="455"/>
-      <c r="AQ10" s="457"/>
+      <c r="AM10" s="416"/>
+      <c r="AN10" s="416"/>
+      <c r="AO10" s="416"/>
+      <c r="AP10" s="416"/>
+      <c r="AQ10" s="418"/>
     </row>
     <row r="11" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="63">
@@ -8692,11 +7356,11 @@
       <c r="J11" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="K11" s="439" t="str">
+      <c r="K11" s="440" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="439"/>
+      <c r="L11" s="440"/>
       <c r="M11" s="117"/>
       <c r="O11" s="77"/>
       <c r="Q11" s="83" t="s">
@@ -8728,28 +7392,28 @@
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="AH11" s="455">
+      <c r="AH11" s="416">
         <v>24</v>
       </c>
-      <c r="AI11" s="455">
+      <c r="AI11" s="416">
         <v>50</v>
       </c>
-      <c r="AJ11" s="456">
+      <c r="AJ11" s="417">
         <v>0</v>
       </c>
-      <c r="AK11" s="455" t="str">
+      <c r="AK11" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL11" s="455" t="str">
+      <c r="AL11" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM11" s="455"/>
-      <c r="AN11" s="455"/>
-      <c r="AO11" s="455"/>
-      <c r="AP11" s="455"/>
-      <c r="AQ11" s="457"/>
+      <c r="AM11" s="416"/>
+      <c r="AN11" s="416"/>
+      <c r="AO11" s="416"/>
+      <c r="AP11" s="416"/>
+      <c r="AQ11" s="418"/>
     </row>
     <row r="12" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="63">
@@ -8768,11 +7432,11 @@
       <c r="J12" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="440" t="str">
+      <c r="K12" s="442" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="440"/>
+      <c r="L12" s="442"/>
       <c r="M12" s="117"/>
       <c r="O12" s="77"/>
       <c r="Q12" s="83" t="s">
@@ -8804,28 +7468,28 @@
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="AH12" s="455">
+      <c r="AH12" s="416">
         <v>25</v>
       </c>
-      <c r="AI12" s="455">
+      <c r="AI12" s="416">
         <v>50</v>
       </c>
-      <c r="AJ12" s="456">
+      <c r="AJ12" s="417">
         <v>0</v>
       </c>
-      <c r="AK12" s="455" t="str">
+      <c r="AK12" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL12" s="455" t="str">
+      <c r="AL12" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM12" s="455"/>
-      <c r="AN12" s="455"/>
-      <c r="AO12" s="455"/>
-      <c r="AP12" s="455"/>
-      <c r="AQ12" s="457"/>
+      <c r="AM12" s="416"/>
+      <c r="AN12" s="416"/>
+      <c r="AO12" s="416"/>
+      <c r="AP12" s="416"/>
+      <c r="AQ12" s="418"/>
     </row>
     <row r="13" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63">
@@ -8844,11 +7508,11 @@
       <c r="J13" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="439" t="str">
+      <c r="K13" s="440" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="439"/>
+      <c r="L13" s="440"/>
       <c r="M13" s="117"/>
       <c r="O13" s="77"/>
       <c r="Q13" s="83" t="s">
@@ -8880,28 +7544,28 @@
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="AH13" s="455">
+      <c r="AH13" s="416">
         <v>25</v>
       </c>
-      <c r="AI13" s="455">
+      <c r="AI13" s="416">
         <v>50</v>
       </c>
-      <c r="AJ13" s="456">
+      <c r="AJ13" s="417">
         <v>0</v>
       </c>
-      <c r="AK13" s="455" t="str">
+      <c r="AK13" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL13" s="455" t="str">
+      <c r="AL13" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM13" s="455"/>
-      <c r="AN13" s="455"/>
-      <c r="AO13" s="455"/>
-      <c r="AP13" s="455"/>
-      <c r="AQ13" s="457"/>
+      <c r="AM13" s="416"/>
+      <c r="AN13" s="416"/>
+      <c r="AO13" s="416"/>
+      <c r="AP13" s="416"/>
+      <c r="AQ13" s="418"/>
     </row>
     <row r="14" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="63">
@@ -8940,28 +7604,28 @@
         <f>IF(R14="","",R14)</f>
         <v/>
       </c>
-      <c r="AH14" s="455">
+      <c r="AH14" s="416">
         <v>26</v>
       </c>
-      <c r="AI14" s="455">
+      <c r="AI14" s="416">
         <v>50</v>
       </c>
-      <c r="AJ14" s="456">
+      <c r="AJ14" s="417">
         <v>0</v>
       </c>
-      <c r="AK14" s="455" t="str">
+      <c r="AK14" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL14" s="455" t="str">
+      <c r="AL14" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM14" s="455"/>
-      <c r="AN14" s="455"/>
-      <c r="AO14" s="455"/>
-      <c r="AP14" s="455"/>
-      <c r="AQ14" s="457"/>
+      <c r="AM14" s="416"/>
+      <c r="AN14" s="416"/>
+      <c r="AO14" s="416"/>
+      <c r="AP14" s="416"/>
+      <c r="AQ14" s="418"/>
     </row>
     <row r="15" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="63">
@@ -8987,28 +7651,28 @@
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="AH15" s="455">
+      <c r="AH15" s="416">
         <v>28</v>
       </c>
-      <c r="AI15" s="455">
+      <c r="AI15" s="416">
         <v>20</v>
       </c>
-      <c r="AJ15" s="456">
+      <c r="AJ15" s="417">
         <v>0</v>
       </c>
-      <c r="AK15" s="455" t="str">
+      <c r="AK15" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL15" s="455" t="str">
+      <c r="AL15" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM15" s="455"/>
-      <c r="AN15" s="455"/>
-      <c r="AO15" s="455"/>
-      <c r="AP15" s="455"/>
-      <c r="AQ15" s="457"/>
+      <c r="AM15" s="416"/>
+      <c r="AN15" s="416"/>
+      <c r="AO15" s="416"/>
+      <c r="AP15" s="416"/>
+      <c r="AQ15" s="418"/>
     </row>
     <row r="16" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="63">
@@ -9019,19 +7683,19 @@
       <c r="E16" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="439" t="str">
+      <c r="F16" s="440" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="439"/>
+      <c r="G16" s="440"/>
       <c r="J16" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="440" t="str">
+      <c r="K16" s="442" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="440"/>
+      <c r="L16" s="442"/>
       <c r="M16" s="117"/>
       <c r="O16" s="77"/>
       <c r="P16" s="124" t="s">
@@ -9050,28 +7714,28 @@
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="AH16" s="455">
+      <c r="AH16" s="416">
         <v>28</v>
       </c>
-      <c r="AI16" s="455">
+      <c r="AI16" s="416">
         <v>50</v>
       </c>
-      <c r="AJ16" s="456">
+      <c r="AJ16" s="417">
         <v>0</v>
       </c>
-      <c r="AK16" s="455" t="str">
+      <c r="AK16" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL16" s="455" t="str">
+      <c r="AL16" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM16" s="455"/>
-      <c r="AN16" s="455"/>
-      <c r="AO16" s="455"/>
-      <c r="AP16" s="455"/>
-      <c r="AQ16" s="457"/>
+      <c r="AM16" s="416"/>
+      <c r="AN16" s="416"/>
+      <c r="AO16" s="416"/>
+      <c r="AP16" s="416"/>
+      <c r="AQ16" s="418"/>
     </row>
     <row r="17" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="63">
@@ -9082,19 +7746,19 @@
       <c r="E17" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="439" t="str">
+      <c r="F17" s="440" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="439"/>
+      <c r="G17" s="440"/>
       <c r="J17" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="439" t="str">
+      <c r="K17" s="440" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="439"/>
+      <c r="L17" s="440"/>
       <c r="M17" s="117"/>
       <c r="O17" s="77"/>
       <c r="Q17" s="83" t="s">
@@ -9126,28 +7790,28 @@
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="AH17" s="455">
+      <c r="AH17" s="416">
         <v>28</v>
       </c>
-      <c r="AI17" s="455">
+      <c r="AI17" s="416">
         <v>50</v>
       </c>
-      <c r="AJ17" s="456">
+      <c r="AJ17" s="417">
         <v>0</v>
       </c>
-      <c r="AK17" s="455" t="str">
+      <c r="AK17" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL17" s="455" t="str">
+      <c r="AL17" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM17" s="455"/>
-      <c r="AN17" s="455"/>
-      <c r="AO17" s="455"/>
-      <c r="AP17" s="455"/>
-      <c r="AQ17" s="457"/>
+      <c r="AM17" s="416"/>
+      <c r="AN17" s="416"/>
+      <c r="AO17" s="416"/>
+      <c r="AP17" s="416"/>
+      <c r="AQ17" s="418"/>
     </row>
     <row r="18" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="63">
@@ -9158,19 +7822,19 @@
       <c r="E18" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="439" t="str">
+      <c r="F18" s="440" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="439"/>
+      <c r="G18" s="440"/>
       <c r="J18" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="439" t="str">
+      <c r="K18" s="440" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="439"/>
+      <c r="L18" s="440"/>
       <c r="M18" s="117"/>
       <c r="O18" s="77"/>
       <c r="Q18" s="83" t="s">
@@ -9202,28 +7866,28 @@
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="AH18" s="455">
+      <c r="AH18" s="416">
         <v>28</v>
       </c>
-      <c r="AI18" s="455">
+      <c r="AI18" s="416">
         <v>50</v>
       </c>
-      <c r="AJ18" s="456">
+      <c r="AJ18" s="417">
         <v>0</v>
       </c>
-      <c r="AK18" s="455" t="str">
+      <c r="AK18" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL18" s="455" t="str">
+      <c r="AL18" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM18" s="455"/>
-      <c r="AN18" s="455"/>
-      <c r="AO18" s="455"/>
-      <c r="AP18" s="455"/>
-      <c r="AQ18" s="457"/>
+      <c r="AM18" s="416"/>
+      <c r="AN18" s="416"/>
+      <c r="AO18" s="416"/>
+      <c r="AP18" s="416"/>
+      <c r="AQ18" s="418"/>
     </row>
     <row r="19" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="63">
@@ -9262,28 +7926,28 @@
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
-      <c r="AH19" s="455">
+      <c r="AH19" s="416">
         <v>28</v>
       </c>
-      <c r="AI19" s="455">
+      <c r="AI19" s="416">
         <v>50</v>
       </c>
-      <c r="AJ19" s="456">
+      <c r="AJ19" s="417">
         <v>0</v>
       </c>
-      <c r="AK19" s="455" t="str">
+      <c r="AK19" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL19" s="455" t="str">
+      <c r="AL19" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM19" s="455"/>
-      <c r="AN19" s="455"/>
-      <c r="AO19" s="455"/>
-      <c r="AP19" s="455"/>
-      <c r="AQ19" s="457"/>
+      <c r="AM19" s="416"/>
+      <c r="AN19" s="416"/>
+      <c r="AO19" s="416"/>
+      <c r="AP19" s="416"/>
+      <c r="AQ19" s="418"/>
     </row>
     <row r="20" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="63">
@@ -9301,28 +7965,28 @@
       <c r="AA20" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="AH20" s="455">
+      <c r="AH20" s="416">
         <v>28</v>
       </c>
-      <c r="AI20" s="455">
+      <c r="AI20" s="416">
         <v>100</v>
       </c>
-      <c r="AJ20" s="456">
+      <c r="AJ20" s="417">
         <v>0</v>
       </c>
-      <c r="AK20" s="455" t="str">
+      <c r="AK20" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL20" s="455" t="str">
+      <c r="AL20" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM20" s="455"/>
-      <c r="AN20" s="455"/>
-      <c r="AO20" s="455"/>
-      <c r="AP20" s="455"/>
-      <c r="AQ20" s="457"/>
+      <c r="AM20" s="416"/>
+      <c r="AN20" s="416"/>
+      <c r="AO20" s="416"/>
+      <c r="AP20" s="416"/>
+      <c r="AQ20" s="418"/>
     </row>
     <row r="21" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="63">
@@ -9333,19 +7997,19 @@
       <c r="E21" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="439" t="str">
+      <c r="F21" s="440" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="439"/>
+      <c r="G21" s="440"/>
       <c r="J21" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="439" t="str">
+      <c r="K21" s="440" t="str">
         <f>IF(V21="","",V21)</f>
         <v>Mo</v>
       </c>
-      <c r="L21" s="439"/>
+      <c r="L21" s="440"/>
       <c r="M21" s="117"/>
       <c r="O21" s="77"/>
       <c r="P21" s="124" t="s">
@@ -9374,28 +8038,28 @@
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="AH21" s="455">
+      <c r="AH21" s="416">
         <v>28</v>
       </c>
-      <c r="AI21" s="455">
+      <c r="AI21" s="416">
         <v>300</v>
       </c>
-      <c r="AJ21" s="456">
+      <c r="AJ21" s="417">
         <v>0</v>
       </c>
-      <c r="AK21" s="455" t="str">
+      <c r="AK21" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL21" s="455" t="str">
+      <c r="AL21" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM21" s="455"/>
-      <c r="AN21" s="455"/>
-      <c r="AO21" s="455"/>
-      <c r="AP21" s="455"/>
-      <c r="AQ21" s="457"/>
+      <c r="AM21" s="416"/>
+      <c r="AN21" s="416"/>
+      <c r="AO21" s="416"/>
+      <c r="AP21" s="416"/>
+      <c r="AQ21" s="418"/>
     </row>
     <row r="22" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="63">
@@ -9406,17 +8070,17 @@
       <c r="E22" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="440" t="str">
+      <c r="F22" s="442" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="440"/>
+      <c r="G22" s="442"/>
       <c r="J22" s="83"/>
-      <c r="K22" s="439" t="str">
+      <c r="K22" s="440" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="439"/>
+      <c r="L22" s="440"/>
       <c r="M22" s="117"/>
       <c r="O22" s="77"/>
       <c r="Q22" s="83" t="s">
@@ -9445,28 +8109,28 @@
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="AH22" s="455">
+      <c r="AH22" s="416">
         <v>30</v>
       </c>
-      <c r="AI22" s="455">
+      <c r="AI22" s="416">
         <v>50</v>
       </c>
-      <c r="AJ22" s="456">
+      <c r="AJ22" s="417">
         <v>0</v>
       </c>
-      <c r="AK22" s="455" t="str">
+      <c r="AK22" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL22" s="455" t="str">
+      <c r="AL22" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM22" s="455"/>
-      <c r="AN22" s="455"/>
-      <c r="AO22" s="455"/>
-      <c r="AP22" s="455"/>
-      <c r="AQ22" s="457"/>
+      <c r="AM22" s="416"/>
+      <c r="AN22" s="416"/>
+      <c r="AO22" s="416"/>
+      <c r="AP22" s="416"/>
+      <c r="AQ22" s="418"/>
     </row>
     <row r="23" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="63">
@@ -9480,11 +8144,11 @@
       <c r="J23" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="439" t="str">
+      <c r="K23" s="440" t="str">
         <f>IF(V24="","",V24)</f>
         <v>Mo</v>
       </c>
-      <c r="L23" s="439"/>
+      <c r="L23" s="440"/>
       <c r="M23" s="117"/>
       <c r="O23" s="77"/>
       <c r="Q23" s="83" t="s">
@@ -9510,28 +8174,28 @@
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="AH23" s="455">
+      <c r="AH23" s="416">
         <v>32</v>
       </c>
-      <c r="AI23" s="455">
+      <c r="AI23" s="416">
         <v>50</v>
       </c>
-      <c r="AJ23" s="456">
+      <c r="AJ23" s="417">
         <v>0</v>
       </c>
-      <c r="AK23" s="455" t="str">
+      <c r="AK23" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL23" s="455" t="str">
+      <c r="AL23" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM23" s="455"/>
-      <c r="AN23" s="455"/>
-      <c r="AO23" s="455"/>
-      <c r="AP23" s="455"/>
-      <c r="AQ23" s="457"/>
+      <c r="AM23" s="416"/>
+      <c r="AN23" s="416"/>
+      <c r="AO23" s="416"/>
+      <c r="AP23" s="416"/>
+      <c r="AQ23" s="418"/>
     </row>
     <row r="24" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="63">
@@ -9542,16 +8206,16 @@
       <c r="E24" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="439" t="str">
+      <c r="F24" s="440" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="439"/>
-      <c r="K24" s="439" t="str">
+      <c r="G24" s="440"/>
+      <c r="K24" s="440" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="439"/>
+      <c r="L24" s="440"/>
       <c r="M24" s="117"/>
       <c r="O24" s="77"/>
       <c r="P24" s="124" t="s">
@@ -9580,28 +8244,28 @@
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="AH24" s="455">
+      <c r="AH24" s="416">
         <v>32</v>
       </c>
-      <c r="AI24" s="455">
+      <c r="AI24" s="416">
         <v>50</v>
       </c>
-      <c r="AJ24" s="456">
+      <c r="AJ24" s="417">
         <v>0</v>
       </c>
-      <c r="AK24" s="455" t="str">
+      <c r="AK24" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL24" s="455" t="str">
+      <c r="AL24" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM24" s="455"/>
-      <c r="AN24" s="455"/>
-      <c r="AO24" s="455"/>
-      <c r="AP24" s="455"/>
-      <c r="AQ24" s="457"/>
+      <c r="AM24" s="416"/>
+      <c r="AN24" s="416"/>
+      <c r="AO24" s="416"/>
+      <c r="AP24" s="416"/>
+      <c r="AQ24" s="418"/>
     </row>
     <row r="25" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="63">
@@ -9612,11 +8276,11 @@
       <c r="E25" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="439" t="str">
+      <c r="F25" s="440" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="439"/>
+      <c r="G25" s="440"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
       <c r="L25" s="74"/>
@@ -9648,28 +8312,28 @@
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="AH25" s="455">
+      <c r="AH25" s="416">
         <v>34</v>
       </c>
-      <c r="AI25" s="455">
+      <c r="AI25" s="416">
         <v>50</v>
       </c>
-      <c r="AJ25" s="456">
+      <c r="AJ25" s="417">
         <v>0</v>
       </c>
-      <c r="AK25" s="455" t="str">
+      <c r="AK25" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL25" s="455" t="str">
+      <c r="AL25" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM25" s="455"/>
-      <c r="AN25" s="455"/>
-      <c r="AO25" s="455"/>
-      <c r="AP25" s="455"/>
-      <c r="AQ25" s="457"/>
+      <c r="AM25" s="416"/>
+      <c r="AN25" s="416"/>
+      <c r="AO25" s="416"/>
+      <c r="AP25" s="416"/>
+      <c r="AQ25" s="418"/>
     </row>
     <row r="26" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="63">
@@ -9680,11 +8344,11 @@
       <c r="E26" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="439" t="str">
+      <c r="F26" s="440" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="439"/>
+      <c r="G26" s="440"/>
       <c r="I26" s="124" t="s">
         <v>133</v>
       </c>
@@ -9716,28 +8380,28 @@
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="AH26" s="455">
+      <c r="AH26" s="416">
         <v>34</v>
       </c>
-      <c r="AI26" s="455">
+      <c r="AI26" s="416">
         <v>50</v>
       </c>
-      <c r="AJ26" s="456">
+      <c r="AJ26" s="417">
         <v>0</v>
       </c>
-      <c r="AK26" s="455" t="str">
+      <c r="AK26" s="416" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
       </c>
-      <c r="AL26" s="455" t="str">
+      <c r="AL26" s="416" t="str">
         <f t="shared" si="2"/>
         <v>Mo</v>
       </c>
-      <c r="AM26" s="455"/>
-      <c r="AN26" s="455"/>
-      <c r="AO26" s="455"/>
-      <c r="AP26" s="455"/>
-      <c r="AQ26" s="457"/>
+      <c r="AM26" s="416"/>
+      <c r="AN26" s="416"/>
+      <c r="AO26" s="416"/>
+      <c r="AP26" s="416"/>
+      <c r="AQ26" s="418"/>
     </row>
     <row r="27" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="63">
@@ -9751,11 +8415,11 @@
       <c r="J27" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="439" t="str">
+      <c r="K27" s="440" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="439"/>
+      <c r="L27" s="440"/>
       <c r="M27" s="117"/>
       <c r="O27" s="77"/>
       <c r="Q27" s="83" t="s">
@@ -9783,20 +8447,20 @@
       <c r="E28" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="439" t="str">
+      <c r="F28" s="440" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="439"/>
+      <c r="G28" s="440"/>
       <c r="I28" s="74"/>
       <c r="J28" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="K28" s="439" t="str">
+      <c r="K28" s="440" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="439"/>
+      <c r="L28" s="440"/>
       <c r="M28" s="117"/>
       <c r="O28" s="77"/>
       <c r="P28" s="124" t="s">
@@ -9833,22 +8497,22 @@
       <c r="E29" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="439" t="str">
+      <c r="F29" s="440" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="439"/>
+      <c r="G29" s="440"/>
       <c r="I29" s="124" t="s">
         <v>137</v>
       </c>
       <c r="J29" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="K29" s="439" t="str">
+      <c r="K29" s="440" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="439"/>
+      <c r="L29" s="440"/>
       <c r="M29" s="117"/>
       <c r="O29" s="77"/>
       <c r="Q29" s="83" t="s">
@@ -9900,19 +8564,19 @@
       <c r="E30" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="439" t="str">
+      <c r="F30" s="440" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="439"/>
+      <c r="G30" s="440"/>
       <c r="J30" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="K30" s="439" t="str">
+      <c r="K30" s="440" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="439"/>
+      <c r="L30" s="440"/>
       <c r="M30" s="117"/>
       <c r="O30" s="77"/>
       <c r="Q30" s="83" t="s">
@@ -10128,21 +8792,21 @@
       <c r="C35" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="437" t="s">
+      <c r="D35" s="443" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="437"/>
-      <c r="F35" s="437"/>
-      <c r="G35" s="437" t="s">
+      <c r="E35" s="443"/>
+      <c r="F35" s="443"/>
+      <c r="G35" s="443" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="437"/>
-      <c r="I35" s="437"/>
-      <c r="J35" s="437" t="s">
+      <c r="H35" s="443"/>
+      <c r="I35" s="443"/>
+      <c r="J35" s="443" t="s">
         <v>144</v>
       </c>
-      <c r="K35" s="437"/>
-      <c r="L35" s="437"/>
+      <c r="K35" s="443"/>
+      <c r="L35" s="443"/>
       <c r="M35" s="117"/>
       <c r="O35" s="88"/>
       <c r="P35" s="89"/>
@@ -10189,11 +8853,11 @@
       <c r="D36" s="133"/>
       <c r="E36" s="134"/>
       <c r="F36" s="135"/>
-      <c r="G36" s="436" t="s">
+      <c r="G36" s="444" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="436"/>
-      <c r="I36" s="436"/>
+      <c r="H36" s="444"/>
+      <c r="I36" s="444"/>
       <c r="J36" s="133"/>
       <c r="K36" s="134"/>
       <c r="L36" s="135"/>
@@ -10642,10 +9306,10 @@
       <c r="C44" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="L44" s="438" t="s">
+      <c r="L44" s="445" t="s">
         <v>167</v>
       </c>
-      <c r="M44" s="438"/>
+      <c r="M44" s="445"/>
       <c r="O44" s="77"/>
       <c r="Y44" s="79"/>
       <c r="AA44" s="124" t="s">
@@ -12523,21 +11187,21 @@
       <c r="O97" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="P97" s="437" t="s">
+      <c r="P97" s="443" t="s">
         <v>142</v>
       </c>
-      <c r="Q97" s="437"/>
-      <c r="R97" s="437"/>
-      <c r="S97" s="437" t="s">
+      <c r="Q97" s="443"/>
+      <c r="R97" s="443"/>
+      <c r="S97" s="443" t="s">
         <v>143</v>
       </c>
-      <c r="T97" s="437"/>
-      <c r="U97" s="437"/>
-      <c r="V97" s="437" t="s">
+      <c r="T97" s="443"/>
+      <c r="U97" s="443"/>
+      <c r="V97" s="443" t="s">
         <v>144</v>
       </c>
-      <c r="W97" s="437"/>
-      <c r="X97" s="437"/>
+      <c r="W97" s="443"/>
+      <c r="X97" s="443"/>
       <c r="Y97" s="79"/>
       <c r="AA97" s="83" t="s">
         <v>264</v>
@@ -12573,11 +11237,11 @@
       <c r="P98" s="133"/>
       <c r="Q98" s="134"/>
       <c r="R98" s="135"/>
-      <c r="S98" s="436" t="s">
+      <c r="S98" s="444" t="s">
         <v>146</v>
       </c>
-      <c r="T98" s="436"/>
-      <c r="U98" s="436"/>
+      <c r="T98" s="444"/>
+      <c r="U98" s="444"/>
       <c r="V98" s="133"/>
       <c r="W98" s="134"/>
       <c r="X98" s="135"/>
@@ -12956,21 +11620,21 @@
       <c r="O105" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="P105" s="437" t="s">
+      <c r="P105" s="443" t="s">
         <v>142</v>
       </c>
-      <c r="Q105" s="437"/>
-      <c r="R105" s="437"/>
-      <c r="S105" s="437" t="s">
+      <c r="Q105" s="443"/>
+      <c r="R105" s="443"/>
+      <c r="S105" s="443" t="s">
         <v>143</v>
       </c>
-      <c r="T105" s="437"/>
-      <c r="U105" s="437"/>
-      <c r="V105" s="437" t="s">
+      <c r="T105" s="443"/>
+      <c r="U105" s="443"/>
+      <c r="V105" s="443" t="s">
         <v>144</v>
       </c>
-      <c r="W105" s="437"/>
-      <c r="X105" s="437"/>
+      <c r="W105" s="443"/>
+      <c r="X105" s="443"/>
       <c r="Y105" s="79"/>
       <c r="AA105" s="83" t="s">
         <v>264</v>
@@ -12991,11 +11655,11 @@
       <c r="P106" s="133"/>
       <c r="Q106" s="134"/>
       <c r="R106" s="135"/>
-      <c r="S106" s="436" t="s">
+      <c r="S106" s="444" t="s">
         <v>146</v>
       </c>
-      <c r="T106" s="436"/>
-      <c r="U106" s="436"/>
+      <c r="T106" s="444"/>
+      <c r="U106" s="444"/>
       <c r="V106" s="133"/>
       <c r="W106" s="134"/>
       <c r="X106" s="135"/>
@@ -14314,14 +12978,14 @@
       <c r="O158" s="193" t="s">
         <v>317</v>
       </c>
-      <c r="R158" s="433">
+      <c r="R158" s="446">
         <v>512</v>
       </c>
-      <c r="S158" s="433"/>
-      <c r="T158" s="433">
+      <c r="S158" s="446"/>
+      <c r="T158" s="446">
         <v>1024</v>
       </c>
-      <c r="U158" s="433"/>
+      <c r="U158" s="446"/>
       <c r="Y158" s="79"/>
     </row>
     <row r="159" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14461,7 +13125,7 @@
         <v/>
       </c>
       <c r="T162" s="118" t="str">
-        <f t="shared" ref="S162:U162" si="16">IF(OR(T160="",T161=""),"",IF(T160&gt;=T161,"Pass","Fail"))</f>
+        <f t="shared" ref="T162:U162" si="16">IF(OR(T160="",T161=""),"",IF(T160&gt;=T161,"Pass","Fail"))</f>
         <v/>
       </c>
       <c r="U162" s="118" t="str">
@@ -14957,7 +13621,7 @@
       <c r="C178" s="152" t="s">
         <v>301</v>
       </c>
-      <c r="D178" s="447" t="str">
+      <c r="D178" s="408" t="str">
         <f>IF(R153="","",R153)</f>
         <v/>
       </c>
@@ -14977,14 +13641,14 @@
       <c r="C179" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="E179" s="433">
+      <c r="E179" s="446">
         <v>512</v>
       </c>
-      <c r="F179" s="433"/>
-      <c r="G179" s="433">
+      <c r="F179" s="446"/>
+      <c r="G179" s="446">
         <v>1024</v>
       </c>
-      <c r="H179" s="433"/>
+      <c r="H179" s="446"/>
       <c r="M179" s="117"/>
       <c r="O179" s="77"/>
       <c r="Y179" s="79"/>
@@ -15581,7 +14245,7 @@
       <c r="P194" s="269" t="s">
         <v>259</v>
       </c>
-      <c r="Q194" s="454">
+      <c r="Q194" s="415">
         <f>S136</f>
         <v>28</v>
       </c>
@@ -15614,7 +14278,7 @@
       <c r="P195" s="269" t="s">
         <v>297</v>
       </c>
-      <c r="Q195" s="454">
+      <c r="Q195" s="415">
         <f>S137</f>
         <v>0</v>
       </c>
@@ -16663,7 +15327,7 @@
       <c r="P221" s="167" t="s">
         <v>284</v>
       </c>
-      <c r="Q221" s="452" t="s">
+      <c r="Q221" s="413" t="s">
         <v>365</v>
       </c>
       <c r="W221" s="83" t="s">
@@ -16687,7 +15351,7 @@
       <c r="M222" s="117"/>
       <c r="O222" s="77"/>
       <c r="P222" s="74"/>
-      <c r="Q222" s="452" t="s">
+      <c r="Q222" s="413" t="s">
         <v>367</v>
       </c>
       <c r="W222" s="83" t="s">
@@ -16795,16 +15459,12 @@
       <c r="O225" s="77" t="s">
         <v>371</v>
       </c>
-      <c r="P225" s="194" t="s">
+      <c r="P225" s="194"/>
+      <c r="R225" s="83" t="s">
         <v>372</v>
       </c>
-      <c r="R225" s="83" t="s">
-        <v>373</v>
-      </c>
-      <c r="S225" s="434">
-        <v>42053</v>
-      </c>
-      <c r="T225" s="434"/>
+      <c r="S225" s="447"/>
+      <c r="T225" s="447"/>
       <c r="Y225" s="79"/>
     </row>
     <row r="226" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16839,18 +15499,14 @@
       <c r="J226" s="74"/>
       <c r="M226" s="117"/>
       <c r="O226" s="77" t="s">
+        <v>373</v>
+      </c>
+      <c r="P226" s="289"/>
+      <c r="R226" s="83" t="s">
         <v>374</v>
       </c>
-      <c r="P226" s="289" t="s">
-        <v>375</v>
-      </c>
-      <c r="R226" s="83" t="s">
-        <v>376</v>
-      </c>
-      <c r="S226" s="434">
-        <v>42784</v>
-      </c>
-      <c r="T226" s="434"/>
+      <c r="S226" s="447"/>
+      <c r="T226" s="447"/>
       <c r="Y226" s="79"/>
     </row>
     <row r="227" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16919,13 +15575,13 @@
       <c r="J228" s="74"/>
       <c r="M228" s="117"/>
       <c r="O228" s="77"/>
-      <c r="T228" s="433" t="s">
-        <v>377</v>
-      </c>
-      <c r="U228" s="433"/>
-      <c r="V228" s="433"/>
-      <c r="W228" s="433"/>
-      <c r="X228" s="433"/>
+      <c r="T228" s="446" t="s">
+        <v>375</v>
+      </c>
+      <c r="U228" s="446"/>
+      <c r="V228" s="446"/>
+      <c r="W228" s="446"/>
+      <c r="X228" s="446"/>
       <c r="Y228" s="79"/>
     </row>
     <row r="229" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16979,10 +15635,10 @@
         <v>107</v>
       </c>
       <c r="W229" s="82" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="X229" s="82" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Y229" s="79"/>
     </row>
@@ -17403,7 +16059,7 @@
         <v/>
       </c>
       <c r="U236" s="119" t="str">
-        <f t="shared" ref="U236:V236" si="24">IF(AN25="","",AVERAGE(AN25,AN26))</f>
+        <f t="shared" ref="U236" si="24">IF(AN25="","",AVERAGE(AN25,AN26))</f>
         <v/>
       </c>
       <c r="V236" s="120" t="str">
@@ -17478,7 +16134,7 @@
         <v>284</v>
       </c>
       <c r="Q238" s="74" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S238" s="83"/>
       <c r="T238" s="82"/>
@@ -17502,7 +16158,7 @@
       </c>
       <c r="M239" s="117"/>
       <c r="O239" s="191" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P239" s="69"/>
       <c r="Q239" s="69"/>
@@ -17585,13 +16241,13 @@
       <c r="M241" s="117"/>
       <c r="O241" s="77"/>
       <c r="S241" s="83"/>
-      <c r="T241" s="433" t="s">
-        <v>377</v>
-      </c>
-      <c r="U241" s="433"/>
-      <c r="V241" s="433"/>
-      <c r="W241" s="433"/>
-      <c r="X241" s="433"/>
+      <c r="T241" s="446" t="s">
+        <v>375</v>
+      </c>
+      <c r="U241" s="446"/>
+      <c r="V241" s="446"/>
+      <c r="W241" s="446"/>
+      <c r="X241" s="446"/>
       <c r="Y241" s="79"/>
     </row>
     <row r="242" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17650,10 +16306,10 @@
         <v>107</v>
       </c>
       <c r="W242" s="82" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="X242" s="82" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Y242" s="79"/>
     </row>
@@ -17700,23 +16356,23 @@
         <v>Mo</v>
       </c>
       <c r="R243" s="118">
-        <f>IF(AH16="","",AH16)</f>
+        <f t="shared" ref="R243:S246" si="27">IF(AH16="","",AH16)</f>
         <v>28</v>
       </c>
       <c r="S243" s="118">
-        <f>IF(AI16="","",AI16)</f>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="T243" s="120" t="str">
-        <f>IF(AM16="","",AM16)</f>
+        <f t="shared" ref="T243:V246" si="28">IF(AM16="","",AM16)</f>
         <v/>
       </c>
       <c r="U243" s="119" t="str">
-        <f>IF(AN16="","",AN16)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="V243" s="120" t="str">
-        <f>IF(AO16="","",AO16)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="W243" s="280" t="str">
@@ -17772,23 +16428,23 @@
         <v>Mo</v>
       </c>
       <c r="R244" s="118">
-        <f>IF(AH17="","",AH17)</f>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="S244" s="118">
-        <f>IF(AI17="","",AI17)</f>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="T244" s="120" t="str">
-        <f>IF(AM17="","",AM17)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U244" s="119" t="str">
-        <f>IF(AN17="","",AN17)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="V244" s="120" t="str">
-        <f>IF(AO17="","",AO17)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="W244" s="280" t="str">
@@ -17847,23 +16503,23 @@
         <v>Mo</v>
       </c>
       <c r="R245" s="118">
-        <f>IF(AH18="","",AH18)</f>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="S245" s="118">
-        <f>IF(AI18="","",AI18)</f>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="T245" s="120" t="str">
-        <f>IF(AM18="","",AM18)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U245" s="119" t="str">
-        <f>IF(AN18="","",AN18)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="V245" s="120" t="str">
-        <f>IF(AO18="","",AO18)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="W245" s="280" t="str">
@@ -17915,23 +16571,23 @@
         <v>Mo</v>
       </c>
       <c r="R246" s="118">
-        <f>IF(AH19="","",AH19)</f>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="S246" s="118">
-        <f>IF(AI19="","",AI19)</f>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="T246" s="120" t="str">
-        <f>IF(AM19="","",AM19)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U246" s="119" t="str">
-        <f>IF(AN19="","",AN19)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="V246" s="120" t="str">
-        <f>IF(AO19="","",AO19)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="W246" s="280" t="str">
@@ -18007,7 +16663,7 @@
       <c r="M248" s="117"/>
       <c r="O248" s="193"/>
       <c r="S248" s="83" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="T248" s="120" t="str">
         <f>IF(OR(T243="",T244="",T245="",T246=""),"",STDEV(T243:T246))</f>
@@ -18079,7 +16735,7 @@
       </c>
       <c r="B250" s="115"/>
       <c r="C250" s="124" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M250" s="117"/>
       <c r="O250" s="77"/>
@@ -18109,10 +16765,10 @@
       </c>
       <c r="E251" s="195"/>
       <c r="H251" s="67" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I251" s="67" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J251" s="67" t="s">
         <v>337</v>
@@ -18126,7 +16782,7 @@
         <v>284</v>
       </c>
       <c r="Q251" s="74" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Y251" s="79"/>
     </row>
@@ -18140,7 +16796,7 @@
       </c>
       <c r="E252" s="357"/>
       <c r="G252" s="83" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H252" s="307"/>
       <c r="I252" s="118"/>
@@ -18149,7 +16805,7 @@
       <c r="M252" s="117"/>
       <c r="O252" s="77"/>
       <c r="Q252" s="74" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Y252" s="79"/>
     </row>
@@ -18163,7 +16819,7 @@
       </c>
       <c r="E253" s="357"/>
       <c r="G253" s="83" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H253" s="307"/>
       <c r="I253" s="118"/>
@@ -18193,7 +16849,7 @@
       <c r="E254" s="357"/>
       <c r="M254" s="117"/>
       <c r="O254" s="191" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P254" s="69"/>
       <c r="Q254" s="69"/>
@@ -18215,17 +16871,17 @@
         <v>284</v>
       </c>
       <c r="E255" s="221" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M255" s="117"/>
       <c r="O255" s="77"/>
-      <c r="T255" s="433" t="s">
-        <v>377</v>
-      </c>
-      <c r="U255" s="433"/>
-      <c r="V255" s="433"/>
-      <c r="W255" s="433"/>
-      <c r="X255" s="433"/>
+      <c r="T255" s="446" t="s">
+        <v>375</v>
+      </c>
+      <c r="U255" s="446"/>
+      <c r="V255" s="446"/>
+      <c r="W255" s="446"/>
+      <c r="X255" s="446"/>
       <c r="Y255" s="79"/>
     </row>
     <row r="256" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18234,7 +16890,7 @@
       </c>
       <c r="B256" s="115"/>
       <c r="E256" s="74" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M256" s="117"/>
       <c r="O256" s="77"/>
@@ -18260,10 +16916,10 @@
         <v>107</v>
       </c>
       <c r="W256" s="82" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="X256" s="82" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Y256" s="79"/>
     </row>
@@ -18328,7 +16984,7 @@
       </c>
       <c r="B258" s="115"/>
       <c r="C258" s="124" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M258" s="117"/>
       <c r="O258" s="77"/>
@@ -18375,14 +17031,14 @@
         <v>55</v>
       </c>
       <c r="B259" s="115"/>
-      <c r="D259" s="429"/>
-      <c r="E259" s="429"/>
+      <c r="D259" s="448"/>
+      <c r="E259" s="448"/>
       <c r="F259" s="74"/>
       <c r="G259" s="74"/>
       <c r="H259" s="74"/>
       <c r="K259" s="74"/>
-      <c r="L259" s="435"/>
-      <c r="M259" s="435"/>
+      <c r="L259" s="449"/>
+      <c r="M259" s="449"/>
       <c r="O259" s="77"/>
       <c r="P259" s="118" t="str">
         <f>IF(AK20="","",AK20)</f>
@@ -18401,15 +17057,15 @@
         <v>100</v>
       </c>
       <c r="T259" s="120" t="str">
-        <f>IF(AM20="","",AM20)</f>
+        <f t="shared" ref="T259:V260" si="29">IF(AM20="","",AM20)</f>
         <v/>
       </c>
       <c r="U259" s="120" t="str">
-        <f>IF(AN20="","",AN20)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="V259" s="120" t="str">
-        <f>IF(AO20="","",AO20)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="W259" s="280" t="str">
@@ -18429,10 +17085,10 @@
       <c r="B260" s="115"/>
       <c r="C260" s="74"/>
       <c r="D260" s="74"/>
-      <c r="E260" s="429" t="s">
-        <v>394</v>
-      </c>
-      <c r="F260" s="429"/>
+      <c r="E260" s="448" t="s">
+        <v>392</v>
+      </c>
+      <c r="F260" s="448"/>
       <c r="G260" s="74"/>
       <c r="H260" s="74"/>
       <c r="I260" s="82"/>
@@ -18457,15 +17113,15 @@
         <v>300</v>
       </c>
       <c r="T260" s="120" t="str">
-        <f>IF(AM21="","",AM21)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U260" s="120" t="str">
-        <f>IF(AN21="","",AN21)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="V260" s="120" t="str">
-        <f>IF(AO21="","",AO21)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="W260" s="280" t="str">
@@ -18485,7 +17141,7 @@
       <c r="B261" s="115"/>
       <c r="C261" s="74"/>
       <c r="E261" s="82" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F261" s="74"/>
       <c r="G261" s="74"/>
@@ -18499,10 +17155,10 @@
         <v>284</v>
       </c>
       <c r="Q261" s="74" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="V261" s="83" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="W261" s="235" t="str">
         <f>IF(OR(W257="",W258="",W259="",W260=""),"",(MAX(W257:W260)-MIN(W257:W260))/(MAX(W257:W260)+MIN(W257:W260)))</f>
@@ -18520,7 +17176,7 @@
         <v>259</v>
       </c>
       <c r="E262" s="226">
-        <f t="shared" ref="E262:E267" si="27">IF(Q285="","",Q285)</f>
+        <f t="shared" ref="E262:E267" si="30">IF(Q285="","",Q285)</f>
         <v>28</v>
       </c>
       <c r="F262" s="74"/>
@@ -18543,7 +17199,7 @@
         <v>262</v>
       </c>
       <c r="E263" s="230">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F263" s="74"/>
@@ -18558,7 +17214,7 @@
         <v/>
       </c>
       <c r="P263" s="67" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Y263" s="79"/>
     </row>
@@ -18569,10 +17225,10 @@
       <c r="B264" s="115"/>
       <c r="C264" s="74"/>
       <c r="D264" s="83" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E264" s="230">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F264" s="74"/>
@@ -18604,7 +17260,7 @@
         <v>264</v>
       </c>
       <c r="E265" s="230" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="F265" s="74"/>
@@ -18615,7 +17271,7 @@
       <c r="L265" s="83"/>
       <c r="M265" s="310"/>
       <c r="O265" s="191" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P265" s="69"/>
       <c r="Q265" s="69"/>
@@ -18637,7 +17293,7 @@
         <v>266</v>
       </c>
       <c r="E266" s="230" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="F266" s="74"/>
@@ -18685,7 +17341,7 @@
         <v>268</v>
       </c>
       <c r="E267" s="312" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K267" s="83"/>
@@ -18733,14 +17389,14 @@
       <c r="M268" s="76"/>
       <c r="O268" s="77"/>
       <c r="P268" s="152" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q268" s="430" t="s">
-        <v>402</v>
-      </c>
-      <c r="R268" s="430"/>
-      <c r="S268" s="430"/>
-      <c r="T268" s="430"/>
+        <v>399</v>
+      </c>
+      <c r="Q268" s="450" t="s">
+        <v>400</v>
+      </c>
+      <c r="R268" s="450"/>
+      <c r="S268" s="450"/>
+      <c r="T268" s="450"/>
       <c r="U268" s="313"/>
       <c r="V268" s="313"/>
       <c r="W268" s="313"/>
@@ -18972,30 +17628,30 @@
       </c>
       <c r="D275" s="324" t="str">
         <f>IF(P225="","",P225)</f>
-        <v>Barracuda</v>
+        <v/>
       </c>
       <c r="E275" s="323" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F275" s="324" t="str">
         <f>IF(P226="","",P226)</f>
-        <v>BC1-05100117</v>
+        <v/>
       </c>
       <c r="G275" s="107"/>
       <c r="H275" s="323" t="s">
-        <v>373</v>
-      </c>
-      <c r="I275" s="431">
+        <v>372</v>
+      </c>
+      <c r="I275" s="451" t="str">
         <f>IF(S225="","",S225)</f>
-        <v>42053</v>
-      </c>
-      <c r="J275" s="431"/>
+        <v/>
+      </c>
+      <c r="J275" s="451"/>
       <c r="K275" s="107"/>
       <c r="L275" s="107"/>
       <c r="M275" s="109"/>
       <c r="O275" s="77"/>
       <c r="P275" s="242" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q275" s="325" t="str">
         <f>IF(AQ10="","",AVERAGE(AQ10:AQ11))</f>
@@ -19033,18 +17689,18 @@
       <c r="F276" s="74"/>
       <c r="G276" s="74"/>
       <c r="H276" s="269" t="s">
-        <v>376</v>
-      </c>
-      <c r="I276" s="432">
+        <v>374</v>
+      </c>
+      <c r="I276" s="452" t="str">
         <f>IF(S226="","",S226)</f>
-        <v>42784</v>
-      </c>
-      <c r="J276" s="432"/>
+        <v/>
+      </c>
+      <c r="J276" s="452"/>
       <c r="K276" s="74"/>
       <c r="M276" s="117"/>
       <c r="O276" s="77"/>
       <c r="P276" s="257" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q276" s="305" t="str">
         <f>IF(OR(Q269="",Q274=""),"",ABS(Q274-Q269)/Q269)</f>
@@ -19077,19 +17733,19 @@
       </c>
       <c r="B277" s="115"/>
       <c r="C277" s="205" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D277" s="116"/>
       <c r="E277" s="116"/>
       <c r="F277" s="116"/>
       <c r="G277" s="116"/>
       <c r="H277" s="124" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M277" s="117"/>
       <c r="O277" s="77"/>
       <c r="P277" s="242" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q277" s="326">
         <f>Q267/100</f>
@@ -19152,7 +17808,7 @@
       <c r="M278" s="117"/>
       <c r="O278" s="77"/>
       <c r="P278" s="328" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q278" s="329">
         <f>Q267/100+0.12</f>
@@ -19201,23 +17857,23 @@
       <c r="M279" s="117"/>
       <c r="O279" s="77"/>
       <c r="P279" s="330"/>
-      <c r="Q279" s="451" t="str">
+      <c r="Q279" s="412" t="str">
         <f>IF(Q275="","",IF(AND(Q275&gt;=Q277,Q275&lt;=Q278),"Pass","Fail"))</f>
         <v/>
       </c>
-      <c r="R279" s="451" t="str">
+      <c r="R279" s="412" t="str">
         <f>IF(R275="","",IF(AND(R275&gt;=R277,R275&lt;=R278),"Pass","Fail"))</f>
         <v/>
       </c>
-      <c r="S279" s="451" t="str">
+      <c r="S279" s="412" t="str">
         <f>IF(S275="","",IF(AND(S275&gt;=S277,S275&lt;=S278),"Pass","Fail"))</f>
         <v/>
       </c>
-      <c r="T279" s="451" t="str">
+      <c r="T279" s="412" t="str">
         <f>IF(T275="","",IF(AND(T275&gt;=T277,T275&lt;=T278),"Pass","Fail"))</f>
         <v/>
       </c>
-      <c r="U279" s="451" t="str">
+      <c r="U279" s="412" t="str">
         <f>IF(U275="","",IF(AND(U275&gt;=U277,U275&lt;=U278),"Pass","Fail"))</f>
         <v/>
       </c>
@@ -19253,7 +17909,7 @@
         <v>284</v>
       </c>
       <c r="Q280" s="74" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="R280" s="74"/>
       <c r="S280" s="74"/>
@@ -19276,7 +17932,7 @@
         <v>105</v>
       </c>
       <c r="E281" s="332" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H281" s="332" t="s">
         <v>105</v>
@@ -19288,10 +17944,10 @@
         <v>34</v>
       </c>
       <c r="K281" s="332" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L281" s="332" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M281" s="117"/>
       <c r="O281" s="88"/>
@@ -19312,15 +17968,15 @@
       </c>
       <c r="B282" s="115"/>
       <c r="C282" s="118">
-        <f t="shared" ref="C282:C289" si="28">IF(R230="","",R230)</f>
+        <f t="shared" ref="C282:C288" si="31">IF(R230="","",R230)</f>
         <v>24</v>
       </c>
       <c r="D282" s="120" t="str">
-        <f t="shared" ref="D282:D289" si="29">IF(T230="","",T230)</f>
+        <f t="shared" ref="D282:D288" si="32">IF(T230="","",T230)</f>
         <v/>
       </c>
       <c r="E282" s="333" t="str">
-        <f t="shared" ref="E282:E289" si="30">IF(OR(C282="",D282=""),"",IF(AND(C282&gt;0,D282&gt;0),(D282-C282)/C282,""))</f>
+        <f t="shared" ref="E282:E288" si="33">IF(OR(C282="",D282=""),"",IF(AND(C282&gt;0,D282&gt;0),(D282-C282)/C282,""))</f>
         <v/>
       </c>
       <c r="H282" s="118">
@@ -19328,24 +17984,24 @@
         <v>28</v>
       </c>
       <c r="I282" s="120" t="str">
-        <f t="shared" ref="I282:I288" si="31">IF(T243="","",T243)</f>
+        <f t="shared" ref="I282:I288" si="34">IF(T243="","",T243)</f>
         <v/>
       </c>
       <c r="J282" s="120" t="str">
-        <f t="shared" ref="J282:L288" si="32">IF(V243="","",V243)</f>
+        <f t="shared" ref="J282:L288" si="35">IF(V243="","",V243)</f>
         <v/>
       </c>
       <c r="K282" s="280" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L282" s="120" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M282" s="117"/>
       <c r="O282" s="191" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P282" s="69"/>
       <c r="Q282" s="69"/>
@@ -19364,47 +18020,47 @@
       </c>
       <c r="B283" s="115"/>
       <c r="C283" s="118">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>25</v>
       </c>
       <c r="D283" s="120" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E283" s="333" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I283" s="120" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="J283" s="120" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K283" s="280" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L283" s="120" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M283" s="117"/>
       <c r="O283" s="334" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Q283" s="194">
         <v>1</v>
       </c>
       <c r="R283" s="67" t="s">
-        <v>413</v>
-      </c>
-      <c r="U283" s="433" t="s">
-        <v>385</v>
-      </c>
-      <c r="V283" s="433"/>
+        <v>411</v>
+      </c>
+      <c r="U283" s="446" t="s">
+        <v>383</v>
+      </c>
+      <c r="V283" s="446"/>
       <c r="Y283" s="79"/>
     </row>
     <row r="284" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19413,31 +18069,31 @@
       </c>
       <c r="B284" s="115"/>
       <c r="C284" s="118">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>26</v>
       </c>
       <c r="D284" s="120" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E284" s="333" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I284" s="120" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="J284" s="120" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K284" s="280" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L284" s="120" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M284" s="117"/>
@@ -19464,31 +18120,31 @@
       </c>
       <c r="B285" s="115"/>
       <c r="C285" s="118">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>28</v>
       </c>
       <c r="D285" s="120" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E285" s="333" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I285" s="120" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="J285" s="120" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K285" s="280" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L285" s="120" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M285" s="117"/>
@@ -19506,11 +18162,11 @@
       </c>
       <c r="T285" s="74"/>
       <c r="U285" s="176" t="str">
-        <f t="shared" ref="U285:U292" si="33">IF(AB94="","",AB94)</f>
+        <f t="shared" ref="U285:U292" si="36">IF(AB94="","",AB94)</f>
         <v/>
       </c>
       <c r="V285" s="176" t="str">
-        <f t="shared" ref="V285:V292" si="34">IF(AB102="","",AB102)</f>
+        <f t="shared" ref="V285:V292" si="37">IF(AB102="","",AB102)</f>
         <v/>
       </c>
       <c r="Y285" s="79"/>
@@ -19521,34 +18177,34 @@
       </c>
       <c r="B286" s="115"/>
       <c r="C286" s="118">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="D286" s="120" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E286" s="333" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H286" s="83" t="s">
         <v>290</v>
       </c>
       <c r="I286" s="120" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="J286" s="120" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K286" s="280" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L286" s="120" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M286" s="117"/>
@@ -19565,11 +18221,11 @@
       </c>
       <c r="T286" s="74"/>
       <c r="U286" s="176" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V286" s="176" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Y286" s="79"/>
@@ -19580,40 +18236,40 @@
       </c>
       <c r="B287" s="115"/>
       <c r="C287" s="118">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>32</v>
       </c>
       <c r="D287" s="120" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E287" s="333" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H287" s="83" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I287" s="120" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="J287" s="120" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K287" s="280" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L287" s="120" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M287" s="117"/>
       <c r="O287" s="77"/>
       <c r="P287" s="83" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q287" s="118">
         <f>R217</f>
@@ -19625,11 +18281,11 @@
       </c>
       <c r="T287" s="74"/>
       <c r="U287" s="176" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V287" s="176" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Y287" s="79"/>
@@ -19640,34 +18296,34 @@
       </c>
       <c r="B288" s="115"/>
       <c r="C288" s="118">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>34</v>
       </c>
       <c r="D288" s="120" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E288" s="333" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H288" s="83" t="s">
         <v>364</v>
       </c>
       <c r="I288" s="235" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="J288" s="235" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K288" s="235" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L288" s="235" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M288" s="117"/>
@@ -19679,11 +18335,11 @@
       <c r="R288" s="192"/>
       <c r="T288" s="74"/>
       <c r="U288" s="176" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V288" s="176" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Y288" s="79"/>
@@ -19693,7 +18349,7 @@
         <v>17</v>
       </c>
       <c r="B289" s="115"/>
-      <c r="C289" s="453"/>
+      <c r="C289" s="414"/>
       <c r="D289" s="336" t="s">
         <v>301</v>
       </c>
@@ -19729,11 +18385,11 @@
       <c r="R289" s="192"/>
       <c r="T289" s="74"/>
       <c r="U289" s="176" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V289" s="176" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Y289" s="79"/>
@@ -19747,7 +18403,7 @@
         <v>284</v>
       </c>
       <c r="I290" s="74" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J290" s="74"/>
       <c r="M290" s="117"/>
@@ -19759,11 +18415,11 @@
       <c r="R290" s="192"/>
       <c r="T290" s="74"/>
       <c r="U290" s="176" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V290" s="176" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Y290" s="79"/>
@@ -19776,24 +18432,24 @@
       <c r="D291" s="74"/>
       <c r="E291" s="74"/>
       <c r="I291" s="74" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J291" s="74"/>
       <c r="M291" s="117"/>
       <c r="O291" s="77"/>
       <c r="P291" s="83" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q291" s="192"/>
       <c r="R291" s="192"/>
       <c r="S291" s="74"/>
       <c r="T291" s="74"/>
       <c r="U291" s="176" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V291" s="176" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W291" s="74"/>
@@ -19809,11 +18465,11 @@
         <v>284</v>
       </c>
       <c r="E292" s="74" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H292" s="116"/>
       <c r="I292" s="221" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J292" s="74"/>
       <c r="M292" s="117"/>
@@ -19826,11 +18482,11 @@
       <c r="S292" s="74"/>
       <c r="T292" s="74"/>
       <c r="U292" s="176" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V292" s="176" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W292" s="74"/>
@@ -19868,7 +18524,7 @@
       </c>
       <c r="B294" s="115"/>
       <c r="C294" s="124" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M294" s="117"/>
       <c r="O294" s="338"/>
@@ -19876,7 +18532,7 @@
       <c r="Q294" s="286"/>
       <c r="R294" s="286"/>
       <c r="S294" s="339" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="T294" s="286"/>
       <c r="U294" s="286"/>
@@ -19941,7 +18597,7 @@
       <c r="S296" s="224"/>
       <c r="T296" s="224"/>
       <c r="U296" s="346" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V296" s="224"/>
       <c r="W296" s="224"/>
@@ -19954,7 +18610,7 @@
       </c>
       <c r="B297" s="115"/>
       <c r="C297" s="332" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D297" s="332" t="s">
         <v>105</v>
@@ -19963,15 +18619,15 @@
         <v>34</v>
       </c>
       <c r="F297" s="332" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G297" s="332" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M297" s="117"/>
       <c r="O297" s="275"/>
       <c r="P297" s="162" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q297" s="341"/>
       <c r="R297" s="342"/>
@@ -19992,23 +18648,23 @@
       </c>
       <c r="B298" s="115"/>
       <c r="C298" s="118">
-        <f t="shared" ref="C298:D301" si="35">IF(S257="","",S257)</f>
+        <f t="shared" ref="C298:D301" si="38">IF(S257="","",S257)</f>
         <v>20</v>
       </c>
       <c r="D298" s="120" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="E298" s="120" t="str">
-        <f t="shared" ref="E298:G301" si="36">IF(V257="","",V257)</f>
+        <f t="shared" ref="E298:G301" si="39">IF(V257="","",V257)</f>
         <v/>
       </c>
       <c r="F298" s="280" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G298" s="120" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M298" s="117"/>
@@ -20024,7 +18680,7 @@
       <c r="S298" s="224"/>
       <c r="T298" s="224"/>
       <c r="U298" s="346" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="V298" s="224"/>
       <c r="W298" s="224"/>
@@ -20037,29 +18693,29 @@
       </c>
       <c r="B299" s="115"/>
       <c r="C299" s="118">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="D299" s="120" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="E299" s="120" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F299" s="280" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G299" s="120" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M299" s="117"/>
       <c r="O299" s="275"/>
       <c r="P299" s="162" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q299" s="341"/>
       <c r="R299" s="342"/>
@@ -20080,23 +18736,23 @@
       </c>
       <c r="B300" s="115"/>
       <c r="C300" s="118">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="D300" s="120" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="E300" s="120" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F300" s="280" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G300" s="120" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M300" s="117"/>
@@ -20112,7 +18768,7 @@
       <c r="S300" s="224"/>
       <c r="T300" s="224"/>
       <c r="U300" s="346" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="V300" s="224"/>
       <c r="W300" s="224"/>
@@ -20125,29 +18781,29 @@
       </c>
       <c r="B301" s="115"/>
       <c r="C301" s="118">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>300</v>
       </c>
       <c r="D301" s="120" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="E301" s="120" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F301" s="280" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G301" s="120" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M301" s="117"/>
       <c r="O301" s="275"/>
       <c r="P301" s="162" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q301" s="341"/>
       <c r="R301" s="342"/>
@@ -20168,7 +18824,7 @@
       </c>
       <c r="B302" s="115"/>
       <c r="E302" s="83" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F302" s="216" t="str">
         <f>IF(W261="","",W261)</f>
@@ -20187,7 +18843,7 @@
       <c r="S302" s="224"/>
       <c r="T302" s="224"/>
       <c r="U302" s="346" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="V302" s="224"/>
       <c r="W302" s="224"/>
@@ -20203,12 +18859,12 @@
         <v>284</v>
       </c>
       <c r="E303" s="74" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M303" s="117"/>
       <c r="O303" s="275"/>
       <c r="P303" s="162" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q303" s="341"/>
       <c r="R303" s="342"/>
@@ -20241,7 +18897,7 @@
       <c r="S304" s="224"/>
       <c r="T304" s="224"/>
       <c r="U304" s="346" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="V304" s="224"/>
       <c r="W304" s="224"/>
@@ -20254,12 +18910,12 @@
       </c>
       <c r="B305" s="115"/>
       <c r="C305" s="124" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M305" s="117"/>
       <c r="O305" s="275"/>
       <c r="P305" s="162" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q305" s="341"/>
       <c r="R305" s="342"/>
@@ -20347,7 +19003,7 @@
       <c r="M307" s="117"/>
       <c r="O307" s="275"/>
       <c r="P307" s="162" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q307" s="341"/>
       <c r="R307" s="342"/>
@@ -20368,22 +19024,22 @@
       </c>
       <c r="B308" s="115"/>
       <c r="C308" s="242" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D308" s="325" t="str">
-        <f t="shared" ref="D308:G309" si="37">IF(Q275="","",Q275)</f>
+        <f t="shared" ref="D308:G309" si="40">IF(Q275="","",Q275)</f>
         <v/>
       </c>
       <c r="E308" s="325" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F308" s="325" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G308" s="325" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H308" s="154"/>
@@ -20414,22 +19070,22 @@
       </c>
       <c r="B309" s="115"/>
       <c r="C309" s="257" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D309" s="305" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E309" s="305" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F309" s="305" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G309" s="305" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H309" s="211"/>
@@ -20455,22 +19111,22 @@
       </c>
       <c r="B310" s="115"/>
       <c r="C310" s="242" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D310" s="325">
-        <f t="shared" ref="D310:G312" si="38">Q277</f>
+        <f t="shared" ref="D310:G312" si="41">Q277</f>
         <v>0.24</v>
       </c>
       <c r="E310" s="325">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.25</v>
       </c>
       <c r="F310" s="325">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="G310" s="325">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.32</v>
       </c>
       <c r="H310" s="154"/>
@@ -20496,22 +19152,22 @@
       </c>
       <c r="B311" s="115"/>
       <c r="C311" s="257" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D311" s="292">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.36</v>
       </c>
       <c r="E311" s="292">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.37</v>
       </c>
       <c r="F311" s="292">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.4</v>
       </c>
       <c r="G311" s="292">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.44</v>
       </c>
       <c r="H311" s="154"/>
@@ -20540,19 +19196,19 @@
         <v>301</v>
       </c>
       <c r="D312" s="347" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E312" s="348" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="F312" s="348" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G312" s="348" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H312" s="152"/>
@@ -20581,7 +19237,7 @@
         <v>284</v>
       </c>
       <c r="E313" s="74" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M313" s="117"/>
       <c r="O313" s="74"/>
@@ -20620,7 +19276,7 @@
       </c>
       <c r="B315" s="115"/>
       <c r="H315" s="102" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M315" s="117"/>
       <c r="O315" s="74"/>
@@ -21362,65 +20018,65 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="Q268:T268"/>
+    <mergeCell ref="I275:J275"/>
+    <mergeCell ref="I276:J276"/>
+    <mergeCell ref="U283:V283"/>
+    <mergeCell ref="S226:T226"/>
+    <mergeCell ref="T228:X228"/>
+    <mergeCell ref="T241:X241"/>
+    <mergeCell ref="T255:X255"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="R158:S158"/>
+    <mergeCell ref="T158:U158"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="S225:T225"/>
+    <mergeCell ref="S98:U98"/>
+    <mergeCell ref="P105:R105"/>
+    <mergeCell ref="S105:U105"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="S106:U106"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P97:R97"/>
+    <mergeCell ref="S97:U97"/>
+    <mergeCell ref="V97:X97"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P97:R97"/>
-    <mergeCell ref="S97:U97"/>
-    <mergeCell ref="V97:X97"/>
-    <mergeCell ref="S98:U98"/>
-    <mergeCell ref="P105:R105"/>
-    <mergeCell ref="S105:U105"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="S106:U106"/>
-    <mergeCell ref="R158:S158"/>
-    <mergeCell ref="T158:U158"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="S225:T225"/>
-    <mergeCell ref="S226:T226"/>
-    <mergeCell ref="T228:X228"/>
-    <mergeCell ref="T241:X241"/>
-    <mergeCell ref="T255:X255"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="Q268:T268"/>
-    <mergeCell ref="I275:J275"/>
-    <mergeCell ref="I276:J276"/>
-    <mergeCell ref="U283:V283"/>
   </mergeCells>
   <conditionalFormatting sqref="L45:L49 L51:L62 L72:L103">
     <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
@@ -21565,56 +20221,56 @@
   <sheetData>
     <row r="1" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="445" t="s">
+      <c r="B2" s="453" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="445"/>
-      <c r="D2" s="445"/>
-      <c r="E2" s="445"/>
-      <c r="F2" s="445"/>
-      <c r="G2" s="445"/>
-      <c r="H2" s="445"/>
-      <c r="I2" s="445"/>
-      <c r="J2" s="445"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="453"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="453"/>
+      <c r="H2" s="453"/>
+      <c r="I2" s="453"/>
+      <c r="J2" s="453"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="445" t="s">
+      <c r="L2" s="453" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="445"/>
-      <c r="N2" s="445"/>
-      <c r="O2" s="445"/>
-      <c r="P2" s="445"/>
-      <c r="Q2" s="445"/>
-      <c r="R2" s="445"/>
-      <c r="S2" s="445"/>
-      <c r="T2" s="445"/>
+      <c r="M2" s="453"/>
+      <c r="N2" s="453"/>
+      <c r="O2" s="453"/>
+      <c r="P2" s="453"/>
+      <c r="Q2" s="453"/>
+      <c r="R2" s="453"/>
+      <c r="S2" s="453"/>
+      <c r="T2" s="453"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="445" t="s">
+      <c r="V2" s="453" t="s">
         <v>105</v>
       </c>
-      <c r="W2" s="445"/>
-      <c r="X2" s="445"/>
-      <c r="Y2" s="445"/>
-      <c r="Z2" s="445"/>
-      <c r="AA2" s="445"/>
-      <c r="AB2" s="445"/>
-      <c r="AC2" s="445"/>
-      <c r="AD2" s="445"/>
+      <c r="W2" s="453"/>
+      <c r="X2" s="453"/>
+      <c r="Y2" s="453"/>
+      <c r="Z2" s="453"/>
+      <c r="AA2" s="453"/>
+      <c r="AB2" s="453"/>
+      <c r="AC2" s="453"/>
+      <c r="AD2" s="453"/>
     </row>
     <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B3" s="5">
         <v>23</v>
@@ -21644,7 +20300,7 @@
         <v>31</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L3" s="5">
         <v>23</v>
@@ -21674,7 +20330,7 @@
         <v>31</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="V3" s="5">
         <v>23</v>
@@ -23062,48 +21718,48 @@
     </row>
     <row r="25" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="446" t="s">
+      <c r="B26" s="454" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="446"/>
-      <c r="D26" s="446"/>
-      <c r="E26" s="446"/>
-      <c r="F26" s="446"/>
-      <c r="G26" s="446"/>
-      <c r="H26" s="446"/>
-      <c r="I26" s="446"/>
-      <c r="J26" s="446"/>
-      <c r="K26" s="446"/>
-      <c r="L26" s="446"/>
+      <c r="C26" s="454"/>
+      <c r="D26" s="454"/>
+      <c r="E26" s="454"/>
+      <c r="F26" s="454"/>
+      <c r="G26" s="454"/>
+      <c r="H26" s="454"/>
+      <c r="I26" s="454"/>
+      <c r="J26" s="454"/>
+      <c r="K26" s="454"/>
+      <c r="L26" s="454"/>
       <c r="M26" s="10"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="445" t="s">
+      <c r="O26" s="453" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="445"/>
-      <c r="Q26" s="445"/>
-      <c r="R26" s="445"/>
-      <c r="S26" s="445"/>
-      <c r="T26" s="445"/>
-      <c r="U26" s="445"/>
-      <c r="V26" s="445"/>
-      <c r="W26" s="445"/>
-      <c r="X26" s="445"/>
-      <c r="Y26" s="445"/>
-      <c r="Z26" s="445"/>
-      <c r="AA26" s="445"/>
+      <c r="P26" s="453"/>
+      <c r="Q26" s="453"/>
+      <c r="R26" s="453"/>
+      <c r="S26" s="453"/>
+      <c r="T26" s="453"/>
+      <c r="U26" s="453"/>
+      <c r="V26" s="453"/>
+      <c r="W26" s="453"/>
+      <c r="X26" s="453"/>
+      <c r="Y26" s="453"/>
+      <c r="Z26" s="453"/>
+      <c r="AA26" s="453"/>
     </row>
     <row r="27" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -23142,7 +21798,7 @@
         <v>33</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="O27" s="5">
         <v>27</v>
@@ -24929,7 +23585,7 @@
     </row>
     <row r="50" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -24944,27 +23600,27 @@
     </row>
     <row r="51" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
-      <c r="B51" s="442" t="s">
+      <c r="B51" s="455" t="s">
+        <v>433</v>
+      </c>
+      <c r="C51" s="455" t="s">
+        <v>434</v>
+      </c>
+      <c r="D51" s="456" t="s">
         <v>435</v>
       </c>
-      <c r="C51" s="442" t="s">
-        <v>436</v>
-      </c>
-      <c r="D51" s="443" t="s">
-        <v>437</v>
-      </c>
-      <c r="E51" s="443"/>
-      <c r="F51" s="443"/>
-      <c r="G51" s="443"/>
-      <c r="H51" s="443"/>
-      <c r="I51" s="443"/>
-      <c r="J51" s="443"/>
-      <c r="K51" s="443"/>
+      <c r="E51" s="456"/>
+      <c r="F51" s="456"/>
+      <c r="G51" s="456"/>
+      <c r="H51" s="456"/>
+      <c r="I51" s="456"/>
+      <c r="J51" s="456"/>
+      <c r="K51" s="456"/>
     </row>
     <row r="52" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
-      <c r="B52" s="442"/>
-      <c r="C52" s="442"/>
+      <c r="B52" s="455"/>
+      <c r="C52" s="455"/>
       <c r="D52" s="14">
         <v>0.25</v>
       </c>
@@ -24990,15 +23646,15 @@
         <v>0.6</v>
       </c>
       <c r="L52" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B53" s="18">
         <v>45</v>
@@ -25041,7 +23697,7 @@
     </row>
     <row r="54" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B54" s="22">
         <v>45</v>
@@ -25082,7 +23738,7 @@
     </row>
     <row r="55" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B55" s="22">
         <v>50</v>
@@ -25125,7 +23781,7 @@
     </row>
     <row r="56" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B56" s="25">
         <v>50</v>
@@ -25171,15 +23827,15 @@
         <v>354</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B59" s="32">
         <v>1</v>
@@ -25194,13 +23850,13 @@
     <row r="60" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="N61" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25211,13 +23867,13 @@
         <v>320</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G62" s="35"/>
       <c r="H62" s="36"/>
@@ -25225,15 +23881,15 @@
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="N62"/>
-      <c r="O62" s="444" t="s">
-        <v>449</v>
-      </c>
-      <c r="P62" s="444"/>
-      <c r="Q62" s="444" t="s">
-        <v>450</v>
-      </c>
-      <c r="R62" s="444"/>
-      <c r="S62" s="444"/>
+      <c r="O62" s="457" t="s">
+        <v>447</v>
+      </c>
+      <c r="P62" s="457"/>
+      <c r="Q62" s="457" t="s">
+        <v>448</v>
+      </c>
+      <c r="R62" s="457"/>
+      <c r="S62" s="457"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="str">
@@ -25265,19 +23921,19 @@
         <v>279</v>
       </c>
       <c r="O63" s="39" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P63" s="39" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q63" s="39" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R63" s="39" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="S63" s="39" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25535,11 +24191,11 @@
         <f t="shared" si="0"/>
         <v>1156</v>
       </c>
-      <c r="D69" s="448" t="str">
+      <c r="D69" s="409" t="str">
         <f>Sheet1!W236</f>
         <v/>
       </c>
-      <c r="E69" s="449" t="str">
+      <c r="E69" s="410" t="str">
         <f>Sheet1!X236</f>
         <v/>
       </c>
@@ -25573,7 +24229,7 @@
     </row>
     <row r="70" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="41" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D70" s="1" t="e">
         <f>SLOPE(D63:D69,$C$63:$C$69)</f>
@@ -25611,7 +24267,7 @@
     </row>
     <row r="71" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="41" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D71" s="1" t="e">
         <f>INTERCEPT(D63:D69,$C$63:$C$69)</f>
@@ -25674,7 +24330,7 @@
     </row>
     <row r="73" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N73" s="39" t="e">
         <f>IF(Sheet1!#REF!="","",Sheet1!#REF!)</f>
@@ -25709,7 +24365,7 @@
         <v>320</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="36"/>
@@ -25721,7 +24377,7 @@
         <v>104</v>
       </c>
       <c r="J74" s="44" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N74" s="39" t="e">
         <f>IF(Sheet1!#REF!="","",Sheet1!#REF!)</f>
@@ -25817,7 +24473,7 @@
         <v>130</v>
       </c>
       <c r="I76" s="46" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J76" s="47">
         <v>0.19</v>
@@ -25864,10 +24520,10 @@
       <c r="E77" s="36"/>
       <c r="F77" s="38"/>
       <c r="H77" s="48" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I77" s="49" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J77" s="50">
         <v>0.22</v>
@@ -25909,10 +24565,10 @@
       <c r="E78" s="36"/>
       <c r="F78" s="38"/>
       <c r="H78" s="51" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I78" s="51" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J78" s="51"/>
       <c r="N78" s="39" t="str">
@@ -25942,7 +24598,7 @@
     </row>
     <row r="79" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="41" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C79" s="36" t="e">
         <f>SLOPE(C75:C78,B75:B78)</f>
@@ -25952,7 +24608,7 @@
       <c r="F79" s="36"/>
       <c r="H79" s="51"/>
       <c r="I79" s="51" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J79" s="51"/>
       <c r="N79" s="39" t="str">
@@ -25982,7 +24638,7 @@
     </row>
     <row r="80" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="41" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C80" s="36" t="e">
         <f>INTERCEPT(C75:C78,B75:B78)</f>
@@ -25992,7 +24648,7 @@
       <c r="F80" s="36"/>
       <c r="H80" s="51"/>
       <c r="I80" s="51" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J80" s="51"/>
       <c r="N80" s="39" t="str">
@@ -26048,7 +24704,7 @@
     </row>
     <row r="82" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B82" s="13" t="e">
         <f>"DGN values (mrad/R) for "&amp;Sheet1!$T$210&amp;" kV and HVL="&amp;ROUND(Sheet1!$X$213,2)&amp;" mm Al"</f>
@@ -26084,19 +24740,19 @@
         <v>354</v>
       </c>
       <c r="B83" s="52" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D83" s="52" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E83" s="52" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N83" s="39" t="str">
         <f>IF(Sheet1!AM29="","",Sheet1!AM29)</f>
@@ -26201,7 +24857,7 @@
     </row>
     <row r="86" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N86" s="39" t="str">
         <f>IF(Sheet1!AM20="","",Sheet1!AM20)</f>
@@ -26235,25 +24891,25 @@
       </c>
       <c r="C87"/>
       <c r="D87" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="E87" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="F87" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G87" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="E87" s="56" t="s">
+      <c r="H87" s="56" t="s">
         <v>465</v>
       </c>
-      <c r="F87" s="56" t="s">
-        <v>448</v>
-      </c>
-      <c r="G87" s="56" t="s">
+      <c r="I87" s="56" t="s">
         <v>466</v>
       </c>
-      <c r="H87" s="56" t="s">
+      <c r="J87" s="56" t="s">
         <v>467</v>
-      </c>
-      <c r="I87" s="56" t="s">
-        <v>468</v>
-      </c>
-      <c r="J87" s="56" t="s">
-        <v>469</v>
       </c>
       <c r="N87" s="39" t="str">
         <f>IF(Sheet1!AM21="","",Sheet1!AM21)</f>
@@ -26282,10 +24938,10 @@
     </row>
     <row r="88" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C88" s="57">
         <v>27.585999999999999</v>
@@ -26338,7 +24994,7 @@
     </row>
     <row r="89" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="55" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C89" s="56">
         <v>27.585999999999999</v>
@@ -26393,7 +25049,7 @@
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
@@ -26431,7 +25087,7 @@
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -26472,25 +25128,25 @@
       </c>
       <c r="C92"/>
       <c r="D92" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="E92" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="F92" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G92" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="E92" s="56" t="s">
+      <c r="H92" s="56" t="s">
         <v>465</v>
       </c>
-      <c r="F92" s="56" t="s">
-        <v>448</v>
-      </c>
-      <c r="G92" s="56" t="s">
+      <c r="I92" s="56" t="s">
         <v>466</v>
       </c>
-      <c r="H92" s="56" t="s">
+      <c r="J92" s="56" t="s">
         <v>467</v>
-      </c>
-      <c r="I92" s="56" t="s">
-        <v>468</v>
-      </c>
-      <c r="J92" s="56" t="s">
-        <v>469</v>
       </c>
       <c r="N92" s="39" t="str">
         <f>IF(Sheet1!AM38="","",Sheet1!AM38)</f>
@@ -26519,10 +25175,10 @@
     </row>
     <row r="93" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C93" s="57">
         <v>30.1</v>
@@ -26575,7 +25231,7 @@
     </row>
     <row r="94" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="55" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C94" s="56">
         <v>30.1</v>
@@ -26630,7 +25286,7 @@
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N95" s="39" t="str">
         <f>IF(Sheet1!AM25="","",Sheet1!AM25)</f>
@@ -26661,7 +25317,7 @@
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N96" s="39" t="str">
         <f>IF(Sheet1!AM26="","",Sheet1!AM26)</f>
@@ -26717,7 +25373,7 @@
     </row>
     <row r="98" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B98"/>
       <c r="N98" s="39" t="str">
@@ -26752,19 +25408,19 @@
       </c>
       <c r="C99"/>
       <c r="D99" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="E99" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="F99" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G99" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="E99" s="56" t="s">
+      <c r="H99" s="56" t="s">
         <v>465</v>
-      </c>
-      <c r="F99" s="56" t="s">
-        <v>448</v>
-      </c>
-      <c r="G99" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="H99" s="56" t="s">
-        <v>467</v>
       </c>
       <c r="N99" s="39" t="str">
         <f>IF(Sheet1!AM45="","",Sheet1!AM45)</f>
@@ -26793,10 +25449,10 @@
     </row>
     <row r="100" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C100" s="57">
         <v>26.9</v>
@@ -26841,7 +25497,7 @@
     </row>
     <row r="101" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="55" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C101" s="56">
         <v>26.9</v>
@@ -26915,26 +25571,26 @@
     </row>
     <row r="103" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B103" s="55" t="s">
         <v>320</v>
       </c>
       <c r="C103"/>
       <c r="D103" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="E103" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="F103" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G103" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="E103" s="56" t="s">
+      <c r="H103" s="56" t="s">
         <v>465</v>
-      </c>
-      <c r="F103" s="56" t="s">
-        <v>448</v>
-      </c>
-      <c r="G103" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="H103" s="56" t="s">
-        <v>467</v>
       </c>
       <c r="N103" s="39" t="str">
         <f>IF(Sheet1!AM49="","",Sheet1!AM49)</f>
@@ -26963,7 +25619,7 @@
     </row>
     <row r="104" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="55" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C104" s="57">
         <v>28.7</v>
@@ -27008,7 +25664,7 @@
     </row>
     <row r="105" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="55" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C105" s="56">
         <v>28.7</v>
@@ -27076,24 +25732,24 @@
     </row>
     <row r="107" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="E107" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="F107" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G107" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="E107" s="56" t="s">
+      <c r="H107" s="56" t="s">
         <v>465</v>
-      </c>
-      <c r="F107" s="56" t="s">
-        <v>448</v>
-      </c>
-      <c r="G107" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="H107" s="56" t="s">
-        <v>467</v>
       </c>
       <c r="N107" s="39" t="str">
         <f>IF(Sheet1!AM53="","",Sheet1!AM53)</f>
@@ -27122,7 +25778,7 @@
     </row>
     <row r="108" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="55" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C108" s="57">
         <v>28.7</v>
@@ -27166,7 +25822,7 @@
     <row r="109" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="55"/>
       <c r="C109" s="59" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D109" s="57">
         <v>-24.875</v>
@@ -27204,7 +25860,7 @@
     </row>
     <row r="110" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="55" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C110" s="56">
         <v>30.1</v>
@@ -27557,16 +26213,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:S62"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="V2:AD2"/>
     <mergeCell ref="B26:L26"/>
     <mergeCell ref="O26:AA26"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:S62"/>
   </mergeCells>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.85069444444444398" bottom="1.0472222222222201" header="0.75208333333333299" footer="0.75208333333333299"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -27593,10 +26249,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -27623,57 +26279,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="60"/>
       <c r="B9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="60"/>
       <c r="B10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="36" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -27687,27 +26343,27 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="60" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="60"/>
       <c r="B15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="60"/>
       <c r="B16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="36" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -27891,42 +26547,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="370" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="367" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="367" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="370" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="367" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="367" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="367" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="369" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">

--- a/MUSCMammoStereotactic.xlsx
+++ b/MUSCMammoStereotactic.xlsx
@@ -12,13 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="QC Test Summary" sheetId="9" r:id="rId1"/>
-    <sheet name="Tech QC Eval" sheetId="10" r:id="rId2"/>
+    <sheet name="QC Test Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Tech QC Eval" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Tables" sheetId="5" r:id="rId4"/>
-    <sheet name="DataPage" sheetId="4" r:id="rId5"/>
+    <sheet name="Tables" sheetId="4" r:id="rId4"/>
+    <sheet name="DataPage" sheetId="5" r:id="rId5"/>
     <sheet name="Corrected kV" sheetId="6" r:id="rId6"/>
-    <sheet name="dropdowns" sheetId="11" r:id="rId7"/>
+    <sheet name="dropdowns" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">dropdowns!#REF!</definedName>
@@ -32,8 +32,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet1!$B$1:$M$338</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Tech QC Eval'!$A$1:$J$26</definedName>
     <definedName name="SpeckMassLst">dropdowns!$A$13:$A$22</definedName>
+    <definedName name="Z_D62192A2_80E4_4F30_AFA0_04511C5E7F57_.wvu.PrintArea" localSheetId="0" hidden="1">'QC Test Summary'!$A$1:$M$45</definedName>
+    <definedName name="Z_D62192A2_80E4_4F30_AFA0_04511C5E7F57_.wvu.PrintArea" localSheetId="2" hidden="1">Sheet1!$B$1:$M$338</definedName>
+    <definedName name="Z_D62192A2_80E4_4F30_AFA0_04511C5E7F57_.wvu.PrintArea" localSheetId="1" hidden="1">'Tech QC Eval'!$A$1:$J$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Eugene Mah - Personal View" guid="{D62192A2-80E4-4F30-AFA0-04511C5E7F57}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" tabRatio="500" activeSheetId="3"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -48,7 +54,7 @@
     <author>pennyb</author>
   </authors>
   <commentList>
-    <comment ref="M15" authorId="0" shapeId="0">
+    <comment ref="M15" authorId="0" guid="{B115AB82-7090-4A2A-89D9-D6060BE3613A}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L37" authorId="0" shapeId="0">
+    <comment ref="L37" authorId="0" guid="{27E81C98-5E3B-4867-99C0-799A433E4B5B}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +102,7 @@
     <author>pennyb</author>
   </authors>
   <commentList>
-    <comment ref="J8" authorId="0" shapeId="0">
+    <comment ref="J8" authorId="0" guid="{2CCF2724-234E-4438-86B9-A93FDFE5D926}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +126,7 @@
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A86" authorId="0" shapeId="0">
+    <comment ref="A86" authorId="0" guid="{F52E9DB4-6185-461F-B51B-CD2866DECA7C}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A98" authorId="0" shapeId="0">
+    <comment ref="A98" authorId="0" guid="{678A53B2-715A-4700-8779-9A1ABBBB94DD}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4665,18 +4671,39 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="10" fillId="0" borderId="91" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="10" fillId="0" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="10" fillId="0" borderId="90" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4689,27 +4716,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="10" fillId="0" borderId="91" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="10" fillId="0" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="10" fillId="0" borderId="90" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4728,34 +4734,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4768,20 +4747,47 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5435,6 +5441,30 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3171BC4F-9A83-4FBA-BF39-F0F3CD9A8617}">
+  <header guid="{3171BC4F-9A83-4FBA-BF39-F0F3CD9A8617}" dateTime="2020-06-03T09:45:55" maxSheetId="8" userName="Eugene Mah" r:id="rId1">
+    <sheetIdMap count="7">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5725,38 +5755,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="419" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="430"/>
-      <c r="E1" s="430"/>
-      <c r="F1" s="430"/>
-      <c r="G1" s="430"/>
-      <c r="H1" s="430"/>
-      <c r="I1" s="430"/>
-      <c r="J1" s="430"/>
-      <c r="K1" s="430"/>
-      <c r="L1" s="430"/>
-      <c r="M1" s="430"/>
+      <c r="B1" s="419"/>
+      <c r="C1" s="419"/>
+      <c r="D1" s="419"/>
+      <c r="E1" s="419"/>
+      <c r="F1" s="419"/>
+      <c r="G1" s="419"/>
+      <c r="H1" s="419"/>
+      <c r="I1" s="419"/>
+      <c r="J1" s="419"/>
+      <c r="K1" s="419"/>
+      <c r="L1" s="419"/>
+      <c r="M1" s="419"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="430" t="s">
+      <c r="A2" s="419" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="430"/>
-      <c r="I2" s="430"/>
-      <c r="J2" s="430"/>
-      <c r="K2" s="430"/>
-      <c r="L2" s="430"/>
-      <c r="M2" s="430"/>
+      <c r="B2" s="419"/>
+      <c r="C2" s="419"/>
+      <c r="D2" s="419"/>
+      <c r="E2" s="419"/>
+      <c r="F2" s="419"/>
+      <c r="G2" s="419"/>
+      <c r="H2" s="419"/>
+      <c r="I2" s="419"/>
+      <c r="J2" s="419"/>
+      <c r="K2" s="419"/>
+      <c r="L2" s="419"/>
+      <c r="M2" s="419"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="372"/>
@@ -5778,44 +5808,44 @@
         <v>2</v>
       </c>
       <c r="B4" s="373"/>
-      <c r="C4" s="420" t="str">
+      <c r="C4" s="423" t="str">
         <f>Sheet1!R10&amp;" "&amp;Sheet1!R11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D4" s="421"/>
-      <c r="E4" s="421"/>
-      <c r="F4" s="421"/>
-      <c r="G4" s="421"/>
-      <c r="H4" s="422"/>
+      <c r="D4" s="424"/>
+      <c r="E4" s="424"/>
+      <c r="F4" s="424"/>
+      <c r="G4" s="424"/>
+      <c r="H4" s="425"/>
       <c r="I4" s="374"/>
       <c r="J4" s="375" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="431"/>
-      <c r="L4" s="432"/>
-      <c r="M4" s="433"/>
+      <c r="K4" s="426"/>
+      <c r="L4" s="427"/>
+      <c r="M4" s="428"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="373" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="373"/>
-      <c r="C5" s="420"/>
-      <c r="D5" s="421"/>
-      <c r="E5" s="421"/>
-      <c r="F5" s="421"/>
-      <c r="G5" s="421"/>
-      <c r="H5" s="422"/>
+      <c r="C5" s="423"/>
+      <c r="D5" s="424"/>
+      <c r="E5" s="424"/>
+      <c r="F5" s="424"/>
+      <c r="G5" s="424"/>
+      <c r="H5" s="425"/>
       <c r="I5" s="374"/>
       <c r="J5" s="375" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="431">
+      <c r="K5" s="426">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="432"/>
-      <c r="M5" s="433"/>
+      <c r="L5" s="427"/>
+      <c r="M5" s="428"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="373" t="s">
@@ -5823,24 +5853,24 @@
       </c>
       <c r="B6" s="373"/>
       <c r="C6" s="373"/>
-      <c r="D6" s="420" t="str">
+      <c r="D6" s="423" t="str">
         <f>Sheet1!F16</f>
         <v/>
       </c>
-      <c r="E6" s="421"/>
-      <c r="F6" s="421"/>
-      <c r="G6" s="421"/>
-      <c r="H6" s="422"/>
+      <c r="E6" s="424"/>
+      <c r="F6" s="424"/>
+      <c r="G6" s="424"/>
+      <c r="H6" s="425"/>
       <c r="I6" s="374"/>
       <c r="J6" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="420" t="str">
+      <c r="K6" s="423" t="str">
         <f>Sheet1!F17</f>
         <v/>
       </c>
-      <c r="L6" s="421"/>
-      <c r="M6" s="422"/>
+      <c r="L6" s="424"/>
+      <c r="M6" s="425"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="373" t="s">
@@ -5848,24 +5878,24 @@
       </c>
       <c r="B7" s="373"/>
       <c r="C7" s="373"/>
-      <c r="D7" s="427" t="str">
+      <c r="D7" s="420" t="str">
         <f>Sheet1!V12</f>
         <v/>
       </c>
-      <c r="E7" s="428"/>
-      <c r="F7" s="428"/>
-      <c r="G7" s="428"/>
-      <c r="H7" s="429"/>
+      <c r="E7" s="421"/>
+      <c r="F7" s="421"/>
+      <c r="G7" s="421"/>
+      <c r="H7" s="422"/>
       <c r="I7" s="374"/>
       <c r="J7" s="375" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="420" t="str">
+      <c r="K7" s="423" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="L7" s="421"/>
-      <c r="M7" s="422"/>
+      <c r="L7" s="424"/>
+      <c r="M7" s="425"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="373" t="s">
@@ -5873,18 +5903,18 @@
       </c>
       <c r="B8" s="373"/>
       <c r="C8" s="373"/>
-      <c r="D8" s="427"/>
-      <c r="E8" s="428"/>
-      <c r="F8" s="428"/>
-      <c r="G8" s="428"/>
-      <c r="H8" s="429"/>
+      <c r="D8" s="420"/>
+      <c r="E8" s="421"/>
+      <c r="F8" s="421"/>
+      <c r="G8" s="421"/>
+      <c r="H8" s="422"/>
       <c r="I8" s="374"/>
       <c r="J8" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="420"/>
-      <c r="L8" s="421"/>
-      <c r="M8" s="422"/>
+      <c r="K8" s="423"/>
+      <c r="L8" s="424"/>
+      <c r="M8" s="425"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="373" t="s">
@@ -5892,18 +5922,18 @@
       </c>
       <c r="B9" s="373"/>
       <c r="C9" s="373"/>
-      <c r="D9" s="427"/>
-      <c r="E9" s="428"/>
-      <c r="F9" s="428"/>
-      <c r="G9" s="428"/>
-      <c r="H9" s="429"/>
+      <c r="D9" s="420"/>
+      <c r="E9" s="421"/>
+      <c r="F9" s="421"/>
+      <c r="G9" s="421"/>
+      <c r="H9" s="422"/>
       <c r="I9" s="374"/>
       <c r="J9" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="420"/>
-      <c r="L9" s="421"/>
-      <c r="M9" s="422"/>
+      <c r="K9" s="423"/>
+      <c r="L9" s="424"/>
+      <c r="M9" s="425"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="373" t="s">
@@ -5911,21 +5941,21 @@
       </c>
       <c r="B10" s="373"/>
       <c r="C10" s="373"/>
-      <c r="D10" s="427" t="str">
+      <c r="D10" s="420" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="E10" s="428"/>
-      <c r="F10" s="428"/>
-      <c r="G10" s="428"/>
-      <c r="H10" s="429"/>
+      <c r="E10" s="421"/>
+      <c r="F10" s="421"/>
+      <c r="G10" s="421"/>
+      <c r="H10" s="422"/>
       <c r="I10" s="374"/>
       <c r="J10" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="420"/>
-      <c r="L10" s="421"/>
-      <c r="M10" s="422"/>
+      <c r="K10" s="423"/>
+      <c r="L10" s="424"/>
+      <c r="M10" s="425"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="373" t="s">
@@ -5933,20 +5963,20 @@
       </c>
       <c r="B11" s="373"/>
       <c r="C11" s="373"/>
-      <c r="D11" s="427" t="s">
+      <c r="D11" s="420" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="428"/>
-      <c r="F11" s="428"/>
-      <c r="G11" s="428"/>
-      <c r="H11" s="429"/>
+      <c r="E11" s="421"/>
+      <c r="F11" s="421"/>
+      <c r="G11" s="421"/>
+      <c r="H11" s="422"/>
       <c r="I11" s="374"/>
       <c r="J11" s="375" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="420"/>
-      <c r="L11" s="421"/>
-      <c r="M11" s="422"/>
+      <c r="K11" s="423"/>
+      <c r="L11" s="424"/>
+      <c r="M11" s="425"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="373"/>
@@ -5965,21 +5995,21 @@
       <c r="N12" s="379"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="426" t="s">
+      <c r="A13" s="433" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="426"/>
-      <c r="C13" s="426"/>
-      <c r="D13" s="426"/>
-      <c r="E13" s="426"/>
-      <c r="F13" s="426"/>
-      <c r="G13" s="426"/>
-      <c r="H13" s="426"/>
-      <c r="I13" s="426"/>
-      <c r="J13" s="426"/>
-      <c r="K13" s="426"/>
-      <c r="L13" s="426"/>
-      <c r="M13" s="426"/>
+      <c r="B13" s="433"/>
+      <c r="C13" s="433"/>
+      <c r="D13" s="433"/>
+      <c r="E13" s="433"/>
+      <c r="F13" s="433"/>
+      <c r="G13" s="433"/>
+      <c r="H13" s="433"/>
+      <c r="I13" s="433"/>
+      <c r="J13" s="433"/>
+      <c r="K13" s="433"/>
+      <c r="L13" s="433"/>
+      <c r="M13" s="433"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M14" s="380" t="s">
@@ -6428,19 +6458,19 @@
     <row r="41" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="373"/>
       <c r="B41" s="373"/>
-      <c r="C41" s="423" t="s">
+      <c r="C41" s="430" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="424"/>
-      <c r="E41" s="424"/>
-      <c r="F41" s="424"/>
-      <c r="G41" s="424"/>
-      <c r="H41" s="424"/>
-      <c r="I41" s="424"/>
-      <c r="J41" s="424"/>
-      <c r="K41" s="424"/>
-      <c r="L41" s="424"/>
-      <c r="M41" s="425"/>
+      <c r="D41" s="431"/>
+      <c r="E41" s="431"/>
+      <c r="F41" s="431"/>
+      <c r="G41" s="431"/>
+      <c r="H41" s="431"/>
+      <c r="I41" s="431"/>
+      <c r="J41" s="431"/>
+      <c r="K41" s="431"/>
+      <c r="L41" s="431"/>
+      <c r="M41" s="432"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="373" t="s">
@@ -6478,31 +6508,33 @@
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="419" t="s">
+      <c r="A45" s="429" t="s">
         <v>505</v>
       </c>
-      <c r="B45" s="419"/>
-      <c r="C45" s="419"/>
-      <c r="D45" s="419"/>
-      <c r="E45" s="419"/>
-      <c r="F45" s="419"/>
-      <c r="G45" s="419"/>
-      <c r="H45" s="419"/>
-      <c r="I45" s="419"/>
-      <c r="J45" s="419"/>
-      <c r="K45" s="419"/>
-      <c r="L45" s="419"/>
-      <c r="M45" s="419"/>
+      <c r="B45" s="429"/>
+      <c r="C45" s="429"/>
+      <c r="D45" s="429"/>
+      <c r="E45" s="429"/>
+      <c r="F45" s="429"/>
+      <c r="G45" s="429"/>
+      <c r="H45" s="429"/>
+      <c r="I45" s="429"/>
+      <c r="J45" s="429"/>
+      <c r="K45" s="429"/>
+      <c r="L45" s="429"/>
+      <c r="M45" s="429"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{D62192A2-80E4-4F30-AFA0-04511C5E7F57}" fitToPage="1">
+      <selection activeCell="J32" sqref="J32"/>
+      <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0.23622047244094491"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="21">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
     <mergeCell ref="A45:M45"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
@@ -6517,6 +6549,13 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M18 JI18 TE18 ADA18 AMW18 AWS18 BGO18 BQK18 CAG18 CKC18 CTY18 DDU18 DNQ18 DXM18 EHI18 ERE18 FBA18 FKW18 FUS18 GEO18 GOK18 GYG18 HIC18 HRY18 IBU18 ILQ18 IVM18 JFI18 JPE18 JZA18 KIW18 KSS18 LCO18 LMK18 LWG18 MGC18 MPY18 MZU18 NJQ18 NTM18 ODI18 ONE18 OXA18 PGW18 PQS18 QAO18 QKK18 QUG18 REC18 RNY18 RXU18 SHQ18 SRM18 TBI18 TLE18 TVA18 UEW18 UOS18 UYO18 VIK18 VSG18 WCC18 WLY18 WVU18 M65554 JI65554 TE65554 ADA65554 AMW65554 AWS65554 BGO65554 BQK65554 CAG65554 CKC65554 CTY65554 DDU65554 DNQ65554 DXM65554 EHI65554 ERE65554 FBA65554 FKW65554 FUS65554 GEO65554 GOK65554 GYG65554 HIC65554 HRY65554 IBU65554 ILQ65554 IVM65554 JFI65554 JPE65554 JZA65554 KIW65554 KSS65554 LCO65554 LMK65554 LWG65554 MGC65554 MPY65554 MZU65554 NJQ65554 NTM65554 ODI65554 ONE65554 OXA65554 PGW65554 PQS65554 QAO65554 QKK65554 QUG65554 REC65554 RNY65554 RXU65554 SHQ65554 SRM65554 TBI65554 TLE65554 TVA65554 UEW65554 UOS65554 UYO65554 VIK65554 VSG65554 WCC65554 WLY65554 WVU65554 M131090 JI131090 TE131090 ADA131090 AMW131090 AWS131090 BGO131090 BQK131090 CAG131090 CKC131090 CTY131090 DDU131090 DNQ131090 DXM131090 EHI131090 ERE131090 FBA131090 FKW131090 FUS131090 GEO131090 GOK131090 GYG131090 HIC131090 HRY131090 IBU131090 ILQ131090 IVM131090 JFI131090 JPE131090 JZA131090 KIW131090 KSS131090 LCO131090 LMK131090 LWG131090 MGC131090 MPY131090 MZU131090 NJQ131090 NTM131090 ODI131090 ONE131090 OXA131090 PGW131090 PQS131090 QAO131090 QKK131090 QUG131090 REC131090 RNY131090 RXU131090 SHQ131090 SRM131090 TBI131090 TLE131090 TVA131090 UEW131090 UOS131090 UYO131090 VIK131090 VSG131090 WCC131090 WLY131090 WVU131090 M196626 JI196626 TE196626 ADA196626 AMW196626 AWS196626 BGO196626 BQK196626 CAG196626 CKC196626 CTY196626 DDU196626 DNQ196626 DXM196626 EHI196626 ERE196626 FBA196626 FKW196626 FUS196626 GEO196626 GOK196626 GYG196626 HIC196626 HRY196626 IBU196626 ILQ196626 IVM196626 JFI196626 JPE196626 JZA196626 KIW196626 KSS196626 LCO196626 LMK196626 LWG196626 MGC196626 MPY196626 MZU196626 NJQ196626 NTM196626 ODI196626 ONE196626 OXA196626 PGW196626 PQS196626 QAO196626 QKK196626 QUG196626 REC196626 RNY196626 RXU196626 SHQ196626 SRM196626 TBI196626 TLE196626 TVA196626 UEW196626 UOS196626 UYO196626 VIK196626 VSG196626 WCC196626 WLY196626 WVU196626 M262162 JI262162 TE262162 ADA262162 AMW262162 AWS262162 BGO262162 BQK262162 CAG262162 CKC262162 CTY262162 DDU262162 DNQ262162 DXM262162 EHI262162 ERE262162 FBA262162 FKW262162 FUS262162 GEO262162 GOK262162 GYG262162 HIC262162 HRY262162 IBU262162 ILQ262162 IVM262162 JFI262162 JPE262162 JZA262162 KIW262162 KSS262162 LCO262162 LMK262162 LWG262162 MGC262162 MPY262162 MZU262162 NJQ262162 NTM262162 ODI262162 ONE262162 OXA262162 PGW262162 PQS262162 QAO262162 QKK262162 QUG262162 REC262162 RNY262162 RXU262162 SHQ262162 SRM262162 TBI262162 TLE262162 TVA262162 UEW262162 UOS262162 UYO262162 VIK262162 VSG262162 WCC262162 WLY262162 WVU262162 M327698 JI327698 TE327698 ADA327698 AMW327698 AWS327698 BGO327698 BQK327698 CAG327698 CKC327698 CTY327698 DDU327698 DNQ327698 DXM327698 EHI327698 ERE327698 FBA327698 FKW327698 FUS327698 GEO327698 GOK327698 GYG327698 HIC327698 HRY327698 IBU327698 ILQ327698 IVM327698 JFI327698 JPE327698 JZA327698 KIW327698 KSS327698 LCO327698 LMK327698 LWG327698 MGC327698 MPY327698 MZU327698 NJQ327698 NTM327698 ODI327698 ONE327698 OXA327698 PGW327698 PQS327698 QAO327698 QKK327698 QUG327698 REC327698 RNY327698 RXU327698 SHQ327698 SRM327698 TBI327698 TLE327698 TVA327698 UEW327698 UOS327698 UYO327698 VIK327698 VSG327698 WCC327698 WLY327698 WVU327698 M393234 JI393234 TE393234 ADA393234 AMW393234 AWS393234 BGO393234 BQK393234 CAG393234 CKC393234 CTY393234 DDU393234 DNQ393234 DXM393234 EHI393234 ERE393234 FBA393234 FKW393234 FUS393234 GEO393234 GOK393234 GYG393234 HIC393234 HRY393234 IBU393234 ILQ393234 IVM393234 JFI393234 JPE393234 JZA393234 KIW393234 KSS393234 LCO393234 LMK393234 LWG393234 MGC393234 MPY393234 MZU393234 NJQ393234 NTM393234 ODI393234 ONE393234 OXA393234 PGW393234 PQS393234 QAO393234 QKK393234 QUG393234 REC393234 RNY393234 RXU393234 SHQ393234 SRM393234 TBI393234 TLE393234 TVA393234 UEW393234 UOS393234 UYO393234 VIK393234 VSG393234 WCC393234 WLY393234 WVU393234 M458770 JI458770 TE458770 ADA458770 AMW458770 AWS458770 BGO458770 BQK458770 CAG458770 CKC458770 CTY458770 DDU458770 DNQ458770 DXM458770 EHI458770 ERE458770 FBA458770 FKW458770 FUS458770 GEO458770 GOK458770 GYG458770 HIC458770 HRY458770 IBU458770 ILQ458770 IVM458770 JFI458770 JPE458770 JZA458770 KIW458770 KSS458770 LCO458770 LMK458770 LWG458770 MGC458770 MPY458770 MZU458770 NJQ458770 NTM458770 ODI458770 ONE458770 OXA458770 PGW458770 PQS458770 QAO458770 QKK458770 QUG458770 REC458770 RNY458770 RXU458770 SHQ458770 SRM458770 TBI458770 TLE458770 TVA458770 UEW458770 UOS458770 UYO458770 VIK458770 VSG458770 WCC458770 WLY458770 WVU458770 M524306 JI524306 TE524306 ADA524306 AMW524306 AWS524306 BGO524306 BQK524306 CAG524306 CKC524306 CTY524306 DDU524306 DNQ524306 DXM524306 EHI524306 ERE524306 FBA524306 FKW524306 FUS524306 GEO524306 GOK524306 GYG524306 HIC524306 HRY524306 IBU524306 ILQ524306 IVM524306 JFI524306 JPE524306 JZA524306 KIW524306 KSS524306 LCO524306 LMK524306 LWG524306 MGC524306 MPY524306 MZU524306 NJQ524306 NTM524306 ODI524306 ONE524306 OXA524306 PGW524306 PQS524306 QAO524306 QKK524306 QUG524306 REC524306 RNY524306 RXU524306 SHQ524306 SRM524306 TBI524306 TLE524306 TVA524306 UEW524306 UOS524306 UYO524306 VIK524306 VSG524306 WCC524306 WLY524306 WVU524306 M589842 JI589842 TE589842 ADA589842 AMW589842 AWS589842 BGO589842 BQK589842 CAG589842 CKC589842 CTY589842 DDU589842 DNQ589842 DXM589842 EHI589842 ERE589842 FBA589842 FKW589842 FUS589842 GEO589842 GOK589842 GYG589842 HIC589842 HRY589842 IBU589842 ILQ589842 IVM589842 JFI589842 JPE589842 JZA589842 KIW589842 KSS589842 LCO589842 LMK589842 LWG589842 MGC589842 MPY589842 MZU589842 NJQ589842 NTM589842 ODI589842 ONE589842 OXA589842 PGW589842 PQS589842 QAO589842 QKK589842 QUG589842 REC589842 RNY589842 RXU589842 SHQ589842 SRM589842 TBI589842 TLE589842 TVA589842 UEW589842 UOS589842 UYO589842 VIK589842 VSG589842 WCC589842 WLY589842 WVU589842 M655378 JI655378 TE655378 ADA655378 AMW655378 AWS655378 BGO655378 BQK655378 CAG655378 CKC655378 CTY655378 DDU655378 DNQ655378 DXM655378 EHI655378 ERE655378 FBA655378 FKW655378 FUS655378 GEO655378 GOK655378 GYG655378 HIC655378 HRY655378 IBU655378 ILQ655378 IVM655378 JFI655378 JPE655378 JZA655378 KIW655378 KSS655378 LCO655378 LMK655378 LWG655378 MGC655378 MPY655378 MZU655378 NJQ655378 NTM655378 ODI655378 ONE655378 OXA655378 PGW655378 PQS655378 QAO655378 QKK655378 QUG655378 REC655378 RNY655378 RXU655378 SHQ655378 SRM655378 TBI655378 TLE655378 TVA655378 UEW655378 UOS655378 UYO655378 VIK655378 VSG655378 WCC655378 WLY655378 WVU655378 M720914 JI720914 TE720914 ADA720914 AMW720914 AWS720914 BGO720914 BQK720914 CAG720914 CKC720914 CTY720914 DDU720914 DNQ720914 DXM720914 EHI720914 ERE720914 FBA720914 FKW720914 FUS720914 GEO720914 GOK720914 GYG720914 HIC720914 HRY720914 IBU720914 ILQ720914 IVM720914 JFI720914 JPE720914 JZA720914 KIW720914 KSS720914 LCO720914 LMK720914 LWG720914 MGC720914 MPY720914 MZU720914 NJQ720914 NTM720914 ODI720914 ONE720914 OXA720914 PGW720914 PQS720914 QAO720914 QKK720914 QUG720914 REC720914 RNY720914 RXU720914 SHQ720914 SRM720914 TBI720914 TLE720914 TVA720914 UEW720914 UOS720914 UYO720914 VIK720914 VSG720914 WCC720914 WLY720914 WVU720914 M786450 JI786450 TE786450 ADA786450 AMW786450 AWS786450 BGO786450 BQK786450 CAG786450 CKC786450 CTY786450 DDU786450 DNQ786450 DXM786450 EHI786450 ERE786450 FBA786450 FKW786450 FUS786450 GEO786450 GOK786450 GYG786450 HIC786450 HRY786450 IBU786450 ILQ786450 IVM786450 JFI786450 JPE786450 JZA786450 KIW786450 KSS786450 LCO786450 LMK786450 LWG786450 MGC786450 MPY786450 MZU786450 NJQ786450 NTM786450 ODI786450 ONE786450 OXA786450 PGW786450 PQS786450 QAO786450 QKK786450 QUG786450 REC786450 RNY786450 RXU786450 SHQ786450 SRM786450 TBI786450 TLE786450 TVA786450 UEW786450 UOS786450 UYO786450 VIK786450 VSG786450 WCC786450 WLY786450 WVU786450 M851986 JI851986 TE851986 ADA851986 AMW851986 AWS851986 BGO851986 BQK851986 CAG851986 CKC851986 CTY851986 DDU851986 DNQ851986 DXM851986 EHI851986 ERE851986 FBA851986 FKW851986 FUS851986 GEO851986 GOK851986 GYG851986 HIC851986 HRY851986 IBU851986 ILQ851986 IVM851986 JFI851986 JPE851986 JZA851986 KIW851986 KSS851986 LCO851986 LMK851986 LWG851986 MGC851986 MPY851986 MZU851986 NJQ851986 NTM851986 ODI851986 ONE851986 OXA851986 PGW851986 PQS851986 QAO851986 QKK851986 QUG851986 REC851986 RNY851986 RXU851986 SHQ851986 SRM851986 TBI851986 TLE851986 TVA851986 UEW851986 UOS851986 UYO851986 VIK851986 VSG851986 WCC851986 WLY851986 WVU851986 M917522 JI917522 TE917522 ADA917522 AMW917522 AWS917522 BGO917522 BQK917522 CAG917522 CKC917522 CTY917522 DDU917522 DNQ917522 DXM917522 EHI917522 ERE917522 FBA917522 FKW917522 FUS917522 GEO917522 GOK917522 GYG917522 HIC917522 HRY917522 IBU917522 ILQ917522 IVM917522 JFI917522 JPE917522 JZA917522 KIW917522 KSS917522 LCO917522 LMK917522 LWG917522 MGC917522 MPY917522 MZU917522 NJQ917522 NTM917522 ODI917522 ONE917522 OXA917522 PGW917522 PQS917522 QAO917522 QKK917522 QUG917522 REC917522 RNY917522 RXU917522 SHQ917522 SRM917522 TBI917522 TLE917522 TVA917522 UEW917522 UOS917522 UYO917522 VIK917522 VSG917522 WCC917522 WLY917522 WVU917522 M983058 JI983058 TE983058 ADA983058 AMW983058 AWS983058 BGO983058 BQK983058 CAG983058 CKC983058 CTY983058 DDU983058 DNQ983058 DXM983058 EHI983058 ERE983058 FBA983058 FKW983058 FUS983058 GEO983058 GOK983058 GYG983058 HIC983058 HRY983058 IBU983058 ILQ983058 IVM983058 JFI983058 JPE983058 JZA983058 KIW983058 KSS983058 LCO983058 LMK983058 LWG983058 MGC983058 MPY983058 MZU983058 NJQ983058 NTM983058 ODI983058 ONE983058 OXA983058 PGW983058 PQS983058 QAO983058 QKK983058 QUG983058 REC983058 RNY983058 RXU983058 SHQ983058 SRM983058 TBI983058 TLE983058 TVA983058 UEW983058 UOS983058 UYO983058 VIK983058 VSG983058 WCC983058 WLY983058 WVU983058 M20:M21 JI20:JI21 TE20:TE21 ADA20:ADA21 AMW20:AMW21 AWS20:AWS21 BGO20:BGO21 BQK20:BQK21 CAG20:CAG21 CKC20:CKC21 CTY20:CTY21 DDU20:DDU21 DNQ20:DNQ21 DXM20:DXM21 EHI20:EHI21 ERE20:ERE21 FBA20:FBA21 FKW20:FKW21 FUS20:FUS21 GEO20:GEO21 GOK20:GOK21 GYG20:GYG21 HIC20:HIC21 HRY20:HRY21 IBU20:IBU21 ILQ20:ILQ21 IVM20:IVM21 JFI20:JFI21 JPE20:JPE21 JZA20:JZA21 KIW20:KIW21 KSS20:KSS21 LCO20:LCO21 LMK20:LMK21 LWG20:LWG21 MGC20:MGC21 MPY20:MPY21 MZU20:MZU21 NJQ20:NJQ21 NTM20:NTM21 ODI20:ODI21 ONE20:ONE21 OXA20:OXA21 PGW20:PGW21 PQS20:PQS21 QAO20:QAO21 QKK20:QKK21 QUG20:QUG21 REC20:REC21 RNY20:RNY21 RXU20:RXU21 SHQ20:SHQ21 SRM20:SRM21 TBI20:TBI21 TLE20:TLE21 TVA20:TVA21 UEW20:UEW21 UOS20:UOS21 UYO20:UYO21 VIK20:VIK21 VSG20:VSG21 WCC20:WCC21 WLY20:WLY21 WVU20:WVU21 M65556:M65557 JI65556:JI65557 TE65556:TE65557 ADA65556:ADA65557 AMW65556:AMW65557 AWS65556:AWS65557 BGO65556:BGO65557 BQK65556:BQK65557 CAG65556:CAG65557 CKC65556:CKC65557 CTY65556:CTY65557 DDU65556:DDU65557 DNQ65556:DNQ65557 DXM65556:DXM65557 EHI65556:EHI65557 ERE65556:ERE65557 FBA65556:FBA65557 FKW65556:FKW65557 FUS65556:FUS65557 GEO65556:GEO65557 GOK65556:GOK65557 GYG65556:GYG65557 HIC65556:HIC65557 HRY65556:HRY65557 IBU65556:IBU65557 ILQ65556:ILQ65557 IVM65556:IVM65557 JFI65556:JFI65557 JPE65556:JPE65557 JZA65556:JZA65557 KIW65556:KIW65557 KSS65556:KSS65557 LCO65556:LCO65557 LMK65556:LMK65557 LWG65556:LWG65557 MGC65556:MGC65557 MPY65556:MPY65557 MZU65556:MZU65557 NJQ65556:NJQ65557 NTM65556:NTM65557 ODI65556:ODI65557 ONE65556:ONE65557 OXA65556:OXA65557 PGW65556:PGW65557 PQS65556:PQS65557 QAO65556:QAO65557 QKK65556:QKK65557 QUG65556:QUG65557 REC65556:REC65557 RNY65556:RNY65557 RXU65556:RXU65557 SHQ65556:SHQ65557 SRM65556:SRM65557 TBI65556:TBI65557 TLE65556:TLE65557 TVA65556:TVA65557 UEW65556:UEW65557 UOS65556:UOS65557 UYO65556:UYO65557 VIK65556:VIK65557 VSG65556:VSG65557 WCC65556:WCC65557 WLY65556:WLY65557 WVU65556:WVU65557 M131092:M131093 JI131092:JI131093 TE131092:TE131093 ADA131092:ADA131093 AMW131092:AMW131093 AWS131092:AWS131093 BGO131092:BGO131093 BQK131092:BQK131093 CAG131092:CAG131093 CKC131092:CKC131093 CTY131092:CTY131093 DDU131092:DDU131093 DNQ131092:DNQ131093 DXM131092:DXM131093 EHI131092:EHI131093 ERE131092:ERE131093 FBA131092:FBA131093 FKW131092:FKW131093 FUS131092:FUS131093 GEO131092:GEO131093 GOK131092:GOK131093 GYG131092:GYG131093 HIC131092:HIC131093 HRY131092:HRY131093 IBU131092:IBU131093 ILQ131092:ILQ131093 IVM131092:IVM131093 JFI131092:JFI131093 JPE131092:JPE131093 JZA131092:JZA131093 KIW131092:KIW131093 KSS131092:KSS131093 LCO131092:LCO131093 LMK131092:LMK131093 LWG131092:LWG131093 MGC131092:MGC131093 MPY131092:MPY131093 MZU131092:MZU131093 NJQ131092:NJQ131093 NTM131092:NTM131093 ODI131092:ODI131093 ONE131092:ONE131093 OXA131092:OXA131093 PGW131092:PGW131093 PQS131092:PQS131093 QAO131092:QAO131093 QKK131092:QKK131093 QUG131092:QUG131093 REC131092:REC131093 RNY131092:RNY131093 RXU131092:RXU131093 SHQ131092:SHQ131093 SRM131092:SRM131093 TBI131092:TBI131093 TLE131092:TLE131093 TVA131092:TVA131093 UEW131092:UEW131093 UOS131092:UOS131093 UYO131092:UYO131093 VIK131092:VIK131093 VSG131092:VSG131093 WCC131092:WCC131093 WLY131092:WLY131093 WVU131092:WVU131093 M196628:M196629 JI196628:JI196629 TE196628:TE196629 ADA196628:ADA196629 AMW196628:AMW196629 AWS196628:AWS196629 BGO196628:BGO196629 BQK196628:BQK196629 CAG196628:CAG196629 CKC196628:CKC196629 CTY196628:CTY196629 DDU196628:DDU196629 DNQ196628:DNQ196629 DXM196628:DXM196629 EHI196628:EHI196629 ERE196628:ERE196629 FBA196628:FBA196629 FKW196628:FKW196629 FUS196628:FUS196629 GEO196628:GEO196629 GOK196628:GOK196629 GYG196628:GYG196629 HIC196628:HIC196629 HRY196628:HRY196629 IBU196628:IBU196629 ILQ196628:ILQ196629 IVM196628:IVM196629 JFI196628:JFI196629 JPE196628:JPE196629 JZA196628:JZA196629 KIW196628:KIW196629 KSS196628:KSS196629 LCO196628:LCO196629 LMK196628:LMK196629 LWG196628:LWG196629 MGC196628:MGC196629 MPY196628:MPY196629 MZU196628:MZU196629 NJQ196628:NJQ196629 NTM196628:NTM196629 ODI196628:ODI196629 ONE196628:ONE196629 OXA196628:OXA196629 PGW196628:PGW196629 PQS196628:PQS196629 QAO196628:QAO196629 QKK196628:QKK196629 QUG196628:QUG196629 REC196628:REC196629 RNY196628:RNY196629 RXU196628:RXU196629 SHQ196628:SHQ196629 SRM196628:SRM196629 TBI196628:TBI196629 TLE196628:TLE196629 TVA196628:TVA196629 UEW196628:UEW196629 UOS196628:UOS196629 UYO196628:UYO196629 VIK196628:VIK196629 VSG196628:VSG196629 WCC196628:WCC196629 WLY196628:WLY196629 WVU196628:WVU196629 M262164:M262165 JI262164:JI262165 TE262164:TE262165 ADA262164:ADA262165 AMW262164:AMW262165 AWS262164:AWS262165 BGO262164:BGO262165 BQK262164:BQK262165 CAG262164:CAG262165 CKC262164:CKC262165 CTY262164:CTY262165 DDU262164:DDU262165 DNQ262164:DNQ262165 DXM262164:DXM262165 EHI262164:EHI262165 ERE262164:ERE262165 FBA262164:FBA262165 FKW262164:FKW262165 FUS262164:FUS262165 GEO262164:GEO262165 GOK262164:GOK262165 GYG262164:GYG262165 HIC262164:HIC262165 HRY262164:HRY262165 IBU262164:IBU262165 ILQ262164:ILQ262165 IVM262164:IVM262165 JFI262164:JFI262165 JPE262164:JPE262165 JZA262164:JZA262165 KIW262164:KIW262165 KSS262164:KSS262165 LCO262164:LCO262165 LMK262164:LMK262165 LWG262164:LWG262165 MGC262164:MGC262165 MPY262164:MPY262165 MZU262164:MZU262165 NJQ262164:NJQ262165 NTM262164:NTM262165 ODI262164:ODI262165 ONE262164:ONE262165 OXA262164:OXA262165 PGW262164:PGW262165 PQS262164:PQS262165 QAO262164:QAO262165 QKK262164:QKK262165 QUG262164:QUG262165 REC262164:REC262165 RNY262164:RNY262165 RXU262164:RXU262165 SHQ262164:SHQ262165 SRM262164:SRM262165 TBI262164:TBI262165 TLE262164:TLE262165 TVA262164:TVA262165 UEW262164:UEW262165 UOS262164:UOS262165 UYO262164:UYO262165 VIK262164:VIK262165 VSG262164:VSG262165 WCC262164:WCC262165 WLY262164:WLY262165 WVU262164:WVU262165 M327700:M327701 JI327700:JI327701 TE327700:TE327701 ADA327700:ADA327701 AMW327700:AMW327701 AWS327700:AWS327701 BGO327700:BGO327701 BQK327700:BQK327701 CAG327700:CAG327701 CKC327700:CKC327701 CTY327700:CTY327701 DDU327700:DDU327701 DNQ327700:DNQ327701 DXM327700:DXM327701 EHI327700:EHI327701 ERE327700:ERE327701 FBA327700:FBA327701 FKW327700:FKW327701 FUS327700:FUS327701 GEO327700:GEO327701 GOK327700:GOK327701 GYG327700:GYG327701 HIC327700:HIC327701 HRY327700:HRY327701 IBU327700:IBU327701 ILQ327700:ILQ327701 IVM327700:IVM327701 JFI327700:JFI327701 JPE327700:JPE327701 JZA327700:JZA327701 KIW327700:KIW327701 KSS327700:KSS327701 LCO327700:LCO327701 LMK327700:LMK327701 LWG327700:LWG327701 MGC327700:MGC327701 MPY327700:MPY327701 MZU327700:MZU327701 NJQ327700:NJQ327701 NTM327700:NTM327701 ODI327700:ODI327701 ONE327700:ONE327701 OXA327700:OXA327701 PGW327700:PGW327701 PQS327700:PQS327701 QAO327700:QAO327701 QKK327700:QKK327701 QUG327700:QUG327701 REC327700:REC327701 RNY327700:RNY327701 RXU327700:RXU327701 SHQ327700:SHQ327701 SRM327700:SRM327701 TBI327700:TBI327701 TLE327700:TLE327701 TVA327700:TVA327701 UEW327700:UEW327701 UOS327700:UOS327701 UYO327700:UYO327701 VIK327700:VIK327701 VSG327700:VSG327701 WCC327700:WCC327701 WLY327700:WLY327701 WVU327700:WVU327701 M393236:M393237 JI393236:JI393237 TE393236:TE393237 ADA393236:ADA393237 AMW393236:AMW393237 AWS393236:AWS393237 BGO393236:BGO393237 BQK393236:BQK393237 CAG393236:CAG393237 CKC393236:CKC393237 CTY393236:CTY393237 DDU393236:DDU393237 DNQ393236:DNQ393237 DXM393236:DXM393237 EHI393236:EHI393237 ERE393236:ERE393237 FBA393236:FBA393237 FKW393236:FKW393237 FUS393236:FUS393237 GEO393236:GEO393237 GOK393236:GOK393237 GYG393236:GYG393237 HIC393236:HIC393237 HRY393236:HRY393237 IBU393236:IBU393237 ILQ393236:ILQ393237 IVM393236:IVM393237 JFI393236:JFI393237 JPE393236:JPE393237 JZA393236:JZA393237 KIW393236:KIW393237 KSS393236:KSS393237 LCO393236:LCO393237 LMK393236:LMK393237 LWG393236:LWG393237 MGC393236:MGC393237 MPY393236:MPY393237 MZU393236:MZU393237 NJQ393236:NJQ393237 NTM393236:NTM393237 ODI393236:ODI393237 ONE393236:ONE393237 OXA393236:OXA393237 PGW393236:PGW393237 PQS393236:PQS393237 QAO393236:QAO393237 QKK393236:QKK393237 QUG393236:QUG393237 REC393236:REC393237 RNY393236:RNY393237 RXU393236:RXU393237 SHQ393236:SHQ393237 SRM393236:SRM393237 TBI393236:TBI393237 TLE393236:TLE393237 TVA393236:TVA393237 UEW393236:UEW393237 UOS393236:UOS393237 UYO393236:UYO393237 VIK393236:VIK393237 VSG393236:VSG393237 WCC393236:WCC393237 WLY393236:WLY393237 WVU393236:WVU393237 M458772:M458773 JI458772:JI458773 TE458772:TE458773 ADA458772:ADA458773 AMW458772:AMW458773 AWS458772:AWS458773 BGO458772:BGO458773 BQK458772:BQK458773 CAG458772:CAG458773 CKC458772:CKC458773 CTY458772:CTY458773 DDU458772:DDU458773 DNQ458772:DNQ458773 DXM458772:DXM458773 EHI458772:EHI458773 ERE458772:ERE458773 FBA458772:FBA458773 FKW458772:FKW458773 FUS458772:FUS458773 GEO458772:GEO458773 GOK458772:GOK458773 GYG458772:GYG458773 HIC458772:HIC458773 HRY458772:HRY458773 IBU458772:IBU458773 ILQ458772:ILQ458773 IVM458772:IVM458773 JFI458772:JFI458773 JPE458772:JPE458773 JZA458772:JZA458773 KIW458772:KIW458773 KSS458772:KSS458773 LCO458772:LCO458773 LMK458772:LMK458773 LWG458772:LWG458773 MGC458772:MGC458773 MPY458772:MPY458773 MZU458772:MZU458773 NJQ458772:NJQ458773 NTM458772:NTM458773 ODI458772:ODI458773 ONE458772:ONE458773 OXA458772:OXA458773 PGW458772:PGW458773 PQS458772:PQS458773 QAO458772:QAO458773 QKK458772:QKK458773 QUG458772:QUG458773 REC458772:REC458773 RNY458772:RNY458773 RXU458772:RXU458773 SHQ458772:SHQ458773 SRM458772:SRM458773 TBI458772:TBI458773 TLE458772:TLE458773 TVA458772:TVA458773 UEW458772:UEW458773 UOS458772:UOS458773 UYO458772:UYO458773 VIK458772:VIK458773 VSG458772:VSG458773 WCC458772:WCC458773 WLY458772:WLY458773 WVU458772:WVU458773 M524308:M524309 JI524308:JI524309 TE524308:TE524309 ADA524308:ADA524309 AMW524308:AMW524309 AWS524308:AWS524309 BGO524308:BGO524309 BQK524308:BQK524309 CAG524308:CAG524309 CKC524308:CKC524309 CTY524308:CTY524309 DDU524308:DDU524309 DNQ524308:DNQ524309 DXM524308:DXM524309 EHI524308:EHI524309 ERE524308:ERE524309 FBA524308:FBA524309 FKW524308:FKW524309 FUS524308:FUS524309 GEO524308:GEO524309 GOK524308:GOK524309 GYG524308:GYG524309 HIC524308:HIC524309 HRY524308:HRY524309 IBU524308:IBU524309 ILQ524308:ILQ524309 IVM524308:IVM524309 JFI524308:JFI524309 JPE524308:JPE524309 JZA524308:JZA524309 KIW524308:KIW524309 KSS524308:KSS524309 LCO524308:LCO524309 LMK524308:LMK524309 LWG524308:LWG524309 MGC524308:MGC524309 MPY524308:MPY524309 MZU524308:MZU524309 NJQ524308:NJQ524309 NTM524308:NTM524309 ODI524308:ODI524309 ONE524308:ONE524309 OXA524308:OXA524309 PGW524308:PGW524309 PQS524308:PQS524309 QAO524308:QAO524309 QKK524308:QKK524309 QUG524308:QUG524309 REC524308:REC524309 RNY524308:RNY524309 RXU524308:RXU524309 SHQ524308:SHQ524309 SRM524308:SRM524309 TBI524308:TBI524309 TLE524308:TLE524309 TVA524308:TVA524309 UEW524308:UEW524309 UOS524308:UOS524309 UYO524308:UYO524309 VIK524308:VIK524309 VSG524308:VSG524309 WCC524308:WCC524309 WLY524308:WLY524309 WVU524308:WVU524309 M589844:M589845 JI589844:JI589845 TE589844:TE589845 ADA589844:ADA589845 AMW589844:AMW589845 AWS589844:AWS589845 BGO589844:BGO589845 BQK589844:BQK589845 CAG589844:CAG589845 CKC589844:CKC589845 CTY589844:CTY589845 DDU589844:DDU589845 DNQ589844:DNQ589845 DXM589844:DXM589845 EHI589844:EHI589845 ERE589844:ERE589845 FBA589844:FBA589845 FKW589844:FKW589845 FUS589844:FUS589845 GEO589844:GEO589845 GOK589844:GOK589845 GYG589844:GYG589845 HIC589844:HIC589845 HRY589844:HRY589845 IBU589844:IBU589845 ILQ589844:ILQ589845 IVM589844:IVM589845 JFI589844:JFI589845 JPE589844:JPE589845 JZA589844:JZA589845 KIW589844:KIW589845 KSS589844:KSS589845 LCO589844:LCO589845 LMK589844:LMK589845 LWG589844:LWG589845 MGC589844:MGC589845 MPY589844:MPY589845 MZU589844:MZU589845 NJQ589844:NJQ589845 NTM589844:NTM589845 ODI589844:ODI589845 ONE589844:ONE589845 OXA589844:OXA589845 PGW589844:PGW589845 PQS589844:PQS589845 QAO589844:QAO589845 QKK589844:QKK589845 QUG589844:QUG589845 REC589844:REC589845 RNY589844:RNY589845 RXU589844:RXU589845 SHQ589844:SHQ589845 SRM589844:SRM589845 TBI589844:TBI589845 TLE589844:TLE589845 TVA589844:TVA589845 UEW589844:UEW589845 UOS589844:UOS589845 UYO589844:UYO589845 VIK589844:VIK589845 VSG589844:VSG589845 WCC589844:WCC589845 WLY589844:WLY589845 WVU589844:WVU589845 M655380:M655381 JI655380:JI655381 TE655380:TE655381 ADA655380:ADA655381 AMW655380:AMW655381 AWS655380:AWS655381 BGO655380:BGO655381 BQK655380:BQK655381 CAG655380:CAG655381 CKC655380:CKC655381 CTY655380:CTY655381 DDU655380:DDU655381 DNQ655380:DNQ655381 DXM655380:DXM655381 EHI655380:EHI655381 ERE655380:ERE655381 FBA655380:FBA655381 FKW655380:FKW655381 FUS655380:FUS655381 GEO655380:GEO655381 GOK655380:GOK655381 GYG655380:GYG655381 HIC655380:HIC655381 HRY655380:HRY655381 IBU655380:IBU655381 ILQ655380:ILQ655381 IVM655380:IVM655381 JFI655380:JFI655381 JPE655380:JPE655381 JZA655380:JZA655381 KIW655380:KIW655381 KSS655380:KSS655381 LCO655380:LCO655381 LMK655380:LMK655381 LWG655380:LWG655381 MGC655380:MGC655381 MPY655380:MPY655381 MZU655380:MZU655381 NJQ655380:NJQ655381 NTM655380:NTM655381 ODI655380:ODI655381 ONE655380:ONE655381 OXA655380:OXA655381 PGW655380:PGW655381 PQS655380:PQS655381 QAO655380:QAO655381 QKK655380:QKK655381 QUG655380:QUG655381 REC655380:REC655381 RNY655380:RNY655381 RXU655380:RXU655381 SHQ655380:SHQ655381 SRM655380:SRM655381 TBI655380:TBI655381 TLE655380:TLE655381 TVA655380:TVA655381 UEW655380:UEW655381 UOS655380:UOS655381 UYO655380:UYO655381 VIK655380:VIK655381 VSG655380:VSG655381 WCC655380:WCC655381 WLY655380:WLY655381 WVU655380:WVU655381 M720916:M720917 JI720916:JI720917 TE720916:TE720917 ADA720916:ADA720917 AMW720916:AMW720917 AWS720916:AWS720917 BGO720916:BGO720917 BQK720916:BQK720917 CAG720916:CAG720917 CKC720916:CKC720917 CTY720916:CTY720917 DDU720916:DDU720917 DNQ720916:DNQ720917 DXM720916:DXM720917 EHI720916:EHI720917 ERE720916:ERE720917 FBA720916:FBA720917 FKW720916:FKW720917 FUS720916:FUS720917 GEO720916:GEO720917 GOK720916:GOK720917 GYG720916:GYG720917 HIC720916:HIC720917 HRY720916:HRY720917 IBU720916:IBU720917 ILQ720916:ILQ720917 IVM720916:IVM720917 JFI720916:JFI720917 JPE720916:JPE720917 JZA720916:JZA720917 KIW720916:KIW720917 KSS720916:KSS720917 LCO720916:LCO720917 LMK720916:LMK720917 LWG720916:LWG720917 MGC720916:MGC720917 MPY720916:MPY720917 MZU720916:MZU720917 NJQ720916:NJQ720917 NTM720916:NTM720917 ODI720916:ODI720917 ONE720916:ONE720917 OXA720916:OXA720917 PGW720916:PGW720917 PQS720916:PQS720917 QAO720916:QAO720917 QKK720916:QKK720917 QUG720916:QUG720917 REC720916:REC720917 RNY720916:RNY720917 RXU720916:RXU720917 SHQ720916:SHQ720917 SRM720916:SRM720917 TBI720916:TBI720917 TLE720916:TLE720917 TVA720916:TVA720917 UEW720916:UEW720917 UOS720916:UOS720917 UYO720916:UYO720917 VIK720916:VIK720917 VSG720916:VSG720917 WCC720916:WCC720917 WLY720916:WLY720917 WVU720916:WVU720917 M786452:M786453 JI786452:JI786453 TE786452:TE786453 ADA786452:ADA786453 AMW786452:AMW786453 AWS786452:AWS786453 BGO786452:BGO786453 BQK786452:BQK786453 CAG786452:CAG786453 CKC786452:CKC786453 CTY786452:CTY786453 DDU786452:DDU786453 DNQ786452:DNQ786453 DXM786452:DXM786453 EHI786452:EHI786453 ERE786452:ERE786453 FBA786452:FBA786453 FKW786452:FKW786453 FUS786452:FUS786453 GEO786452:GEO786453 GOK786452:GOK786453 GYG786452:GYG786453 HIC786452:HIC786453 HRY786452:HRY786453 IBU786452:IBU786453 ILQ786452:ILQ786453 IVM786452:IVM786453 JFI786452:JFI786453 JPE786452:JPE786453 JZA786452:JZA786453 KIW786452:KIW786453 KSS786452:KSS786453 LCO786452:LCO786453 LMK786452:LMK786453 LWG786452:LWG786453 MGC786452:MGC786453 MPY786452:MPY786453 MZU786452:MZU786453 NJQ786452:NJQ786453 NTM786452:NTM786453 ODI786452:ODI786453 ONE786452:ONE786453 OXA786452:OXA786453 PGW786452:PGW786453 PQS786452:PQS786453 QAO786452:QAO786453 QKK786452:QKK786453 QUG786452:QUG786453 REC786452:REC786453 RNY786452:RNY786453 RXU786452:RXU786453 SHQ786452:SHQ786453 SRM786452:SRM786453 TBI786452:TBI786453 TLE786452:TLE786453 TVA786452:TVA786453 UEW786452:UEW786453 UOS786452:UOS786453 UYO786452:UYO786453 VIK786452:VIK786453 VSG786452:VSG786453 WCC786452:WCC786453 WLY786452:WLY786453 WVU786452:WVU786453 M851988:M851989 JI851988:JI851989 TE851988:TE851989 ADA851988:ADA851989 AMW851988:AMW851989 AWS851988:AWS851989 BGO851988:BGO851989 BQK851988:BQK851989 CAG851988:CAG851989 CKC851988:CKC851989 CTY851988:CTY851989 DDU851988:DDU851989 DNQ851988:DNQ851989 DXM851988:DXM851989 EHI851988:EHI851989 ERE851988:ERE851989 FBA851988:FBA851989 FKW851988:FKW851989 FUS851988:FUS851989 GEO851988:GEO851989 GOK851988:GOK851989 GYG851988:GYG851989 HIC851988:HIC851989 HRY851988:HRY851989 IBU851988:IBU851989 ILQ851988:ILQ851989 IVM851988:IVM851989 JFI851988:JFI851989 JPE851988:JPE851989 JZA851988:JZA851989 KIW851988:KIW851989 KSS851988:KSS851989 LCO851988:LCO851989 LMK851988:LMK851989 LWG851988:LWG851989 MGC851988:MGC851989 MPY851988:MPY851989 MZU851988:MZU851989 NJQ851988:NJQ851989 NTM851988:NTM851989 ODI851988:ODI851989 ONE851988:ONE851989 OXA851988:OXA851989 PGW851988:PGW851989 PQS851988:PQS851989 QAO851988:QAO851989 QKK851988:QKK851989 QUG851988:QUG851989 REC851988:REC851989 RNY851988:RNY851989 RXU851988:RXU851989 SHQ851988:SHQ851989 SRM851988:SRM851989 TBI851988:TBI851989 TLE851988:TLE851989 TVA851988:TVA851989 UEW851988:UEW851989 UOS851988:UOS851989 UYO851988:UYO851989 VIK851988:VIK851989 VSG851988:VSG851989 WCC851988:WCC851989 WLY851988:WLY851989 WVU851988:WVU851989 M917524:M917525 JI917524:JI917525 TE917524:TE917525 ADA917524:ADA917525 AMW917524:AMW917525 AWS917524:AWS917525 BGO917524:BGO917525 BQK917524:BQK917525 CAG917524:CAG917525 CKC917524:CKC917525 CTY917524:CTY917525 DDU917524:DDU917525 DNQ917524:DNQ917525 DXM917524:DXM917525 EHI917524:EHI917525 ERE917524:ERE917525 FBA917524:FBA917525 FKW917524:FKW917525 FUS917524:FUS917525 GEO917524:GEO917525 GOK917524:GOK917525 GYG917524:GYG917525 HIC917524:HIC917525 HRY917524:HRY917525 IBU917524:IBU917525 ILQ917524:ILQ917525 IVM917524:IVM917525 JFI917524:JFI917525 JPE917524:JPE917525 JZA917524:JZA917525 KIW917524:KIW917525 KSS917524:KSS917525 LCO917524:LCO917525 LMK917524:LMK917525 LWG917524:LWG917525 MGC917524:MGC917525 MPY917524:MPY917525 MZU917524:MZU917525 NJQ917524:NJQ917525 NTM917524:NTM917525 ODI917524:ODI917525 ONE917524:ONE917525 OXA917524:OXA917525 PGW917524:PGW917525 PQS917524:PQS917525 QAO917524:QAO917525 QKK917524:QKK917525 QUG917524:QUG917525 REC917524:REC917525 RNY917524:RNY917525 RXU917524:RXU917525 SHQ917524:SHQ917525 SRM917524:SRM917525 TBI917524:TBI917525 TLE917524:TLE917525 TVA917524:TVA917525 UEW917524:UEW917525 UOS917524:UOS917525 UYO917524:UYO917525 VIK917524:VIK917525 VSG917524:VSG917525 WCC917524:WCC917525 WLY917524:WLY917525 WVU917524:WVU917525 M983060:M983061 JI983060:JI983061 TE983060:TE983061 ADA983060:ADA983061 AMW983060:AMW983061 AWS983060:AWS983061 BGO983060:BGO983061 BQK983060:BQK983061 CAG983060:CAG983061 CKC983060:CKC983061 CTY983060:CTY983061 DDU983060:DDU983061 DNQ983060:DNQ983061 DXM983060:DXM983061 EHI983060:EHI983061 ERE983060:ERE983061 FBA983060:FBA983061 FKW983060:FKW983061 FUS983060:FUS983061 GEO983060:GEO983061 GOK983060:GOK983061 GYG983060:GYG983061 HIC983060:HIC983061 HRY983060:HRY983061 IBU983060:IBU983061 ILQ983060:ILQ983061 IVM983060:IVM983061 JFI983060:JFI983061 JPE983060:JPE983061 JZA983060:JZA983061 KIW983060:KIW983061 KSS983060:KSS983061 LCO983060:LCO983061 LMK983060:LMK983061 LWG983060:LWG983061 MGC983060:MGC983061 MPY983060:MPY983061 MZU983060:MZU983061 NJQ983060:NJQ983061 NTM983060:NTM983061 ODI983060:ODI983061 ONE983060:ONE983061 OXA983060:OXA983061 PGW983060:PGW983061 PQS983060:PQS983061 QAO983060:QAO983061 QKK983060:QKK983061 QUG983060:QUG983061 REC983060:REC983061 RNY983060:RNY983061 RXU983060:RXU983061 SHQ983060:SHQ983061 SRM983060:SRM983061 TBI983060:TBI983061 TLE983060:TLE983061 TVA983060:TVA983061 UEW983060:UEW983061 UOS983060:UOS983061 UYO983060:UYO983061 VIK983060:VIK983061 VSG983060:VSG983061 WCC983060:WCC983061 WLY983060:WLY983061 WVU983060:WVU983061">
@@ -6531,16 +6570,16 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0.23622047244094491"/>
-  <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="76" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9219" r:id="rId4" name="Check Box 3">
+            <control shapeId="9219" r:id="rId5" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6562,7 +6601,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9220" r:id="rId5" name="Check Box 4">
+            <control shapeId="9220" r:id="rId6" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6905,6 +6944,15 @@
       <c r="J26" s="439"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{D62192A2-80E4-4F30-AFA0-04511C5E7F57}">
+      <selection activeCell="L18" sqref="L18"/>
+      <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -6920,9 +6968,9 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="77" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7272,19 +7320,19 @@
       <c r="E10" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="440" t="str">
+      <c r="F10" s="450" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="440"/>
+      <c r="G10" s="450"/>
       <c r="J10" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="440" t="str">
+      <c r="K10" s="450" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="440"/>
+      <c r="L10" s="450"/>
       <c r="M10" s="117"/>
       <c r="O10" s="77"/>
       <c r="Q10" s="83" t="s">
@@ -7348,19 +7396,19 @@
       <c r="E11" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="441" t="str">
+      <c r="F11" s="452" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="441"/>
+      <c r="G11" s="452"/>
       <c r="J11" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="K11" s="440" t="str">
+      <c r="K11" s="450" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="440"/>
+      <c r="L11" s="450"/>
       <c r="M11" s="117"/>
       <c r="O11" s="77"/>
       <c r="Q11" s="83" t="s">
@@ -7424,19 +7472,19 @@
       <c r="E12" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="441" t="str">
+      <c r="F12" s="452" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="441"/>
+      <c r="G12" s="452"/>
       <c r="J12" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="442" t="str">
+      <c r="K12" s="451" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="442"/>
+      <c r="L12" s="451"/>
       <c r="M12" s="117"/>
       <c r="O12" s="77"/>
       <c r="Q12" s="83" t="s">
@@ -7500,19 +7548,19 @@
       <c r="E13" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="441" t="str">
+      <c r="F13" s="452" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="441"/>
+      <c r="G13" s="452"/>
       <c r="J13" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="440" t="str">
+      <c r="K13" s="450" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="440"/>
+      <c r="L13" s="450"/>
       <c r="M13" s="117"/>
       <c r="O13" s="77"/>
       <c r="Q13" s="83" t="s">
@@ -7683,19 +7731,19 @@
       <c r="E16" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="440" t="str">
+      <c r="F16" s="450" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="440"/>
+      <c r="G16" s="450"/>
       <c r="J16" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="442" t="str">
+      <c r="K16" s="451" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="442"/>
+      <c r="L16" s="451"/>
       <c r="M16" s="117"/>
       <c r="O16" s="77"/>
       <c r="P16" s="124" t="s">
@@ -7746,19 +7794,19 @@
       <c r="E17" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="440" t="str">
+      <c r="F17" s="450" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="440"/>
+      <c r="G17" s="450"/>
       <c r="J17" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="440" t="str">
+      <c r="K17" s="450" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="440"/>
+      <c r="L17" s="450"/>
       <c r="M17" s="117"/>
       <c r="O17" s="77"/>
       <c r="Q17" s="83" t="s">
@@ -7822,19 +7870,19 @@
       <c r="E18" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="440" t="str">
+      <c r="F18" s="450" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="440"/>
+      <c r="G18" s="450"/>
       <c r="J18" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="440" t="str">
+      <c r="K18" s="450" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="440"/>
+      <c r="L18" s="450"/>
       <c r="M18" s="117"/>
       <c r="O18" s="77"/>
       <c r="Q18" s="83" t="s">
@@ -7997,19 +8045,19 @@
       <c r="E21" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="440" t="str">
+      <c r="F21" s="450" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="440"/>
+      <c r="G21" s="450"/>
       <c r="J21" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="440" t="str">
+      <c r="K21" s="450" t="str">
         <f>IF(V21="","",V21)</f>
         <v>Mo</v>
       </c>
-      <c r="L21" s="440"/>
+      <c r="L21" s="450"/>
       <c r="M21" s="117"/>
       <c r="O21" s="77"/>
       <c r="P21" s="124" t="s">
@@ -8070,17 +8118,17 @@
       <c r="E22" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="442" t="str">
+      <c r="F22" s="451" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="442"/>
+      <c r="G22" s="451"/>
       <c r="J22" s="83"/>
-      <c r="K22" s="440" t="str">
+      <c r="K22" s="450" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="440"/>
+      <c r="L22" s="450"/>
       <c r="M22" s="117"/>
       <c r="O22" s="77"/>
       <c r="Q22" s="83" t="s">
@@ -8144,11 +8192,11 @@
       <c r="J23" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="440" t="str">
+      <c r="K23" s="450" t="str">
         <f>IF(V24="","",V24)</f>
         <v>Mo</v>
       </c>
-      <c r="L23" s="440"/>
+      <c r="L23" s="450"/>
       <c r="M23" s="117"/>
       <c r="O23" s="77"/>
       <c r="Q23" s="83" t="s">
@@ -8206,16 +8254,16 @@
       <c r="E24" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="440" t="str">
+      <c r="F24" s="450" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="440"/>
-      <c r="K24" s="440" t="str">
+      <c r="G24" s="450"/>
+      <c r="K24" s="450" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="440"/>
+      <c r="L24" s="450"/>
       <c r="M24" s="117"/>
       <c r="O24" s="77"/>
       <c r="P24" s="124" t="s">
@@ -8276,11 +8324,11 @@
       <c r="E25" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="440" t="str">
+      <c r="F25" s="450" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="440"/>
+      <c r="G25" s="450"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
       <c r="L25" s="74"/>
@@ -8344,11 +8392,11 @@
       <c r="E26" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="440" t="str">
+      <c r="F26" s="450" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="440"/>
+      <c r="G26" s="450"/>
       <c r="I26" s="124" t="s">
         <v>133</v>
       </c>
@@ -8415,11 +8463,11 @@
       <c r="J27" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="440" t="str">
+      <c r="K27" s="450" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="440"/>
+      <c r="L27" s="450"/>
       <c r="M27" s="117"/>
       <c r="O27" s="77"/>
       <c r="Q27" s="83" t="s">
@@ -8447,20 +8495,20 @@
       <c r="E28" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="440" t="str">
+      <c r="F28" s="450" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="440"/>
+      <c r="G28" s="450"/>
       <c r="I28" s="74"/>
       <c r="J28" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="K28" s="440" t="str">
+      <c r="K28" s="450" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="440"/>
+      <c r="L28" s="450"/>
       <c r="M28" s="117"/>
       <c r="O28" s="77"/>
       <c r="P28" s="124" t="s">
@@ -8497,22 +8545,22 @@
       <c r="E29" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="440" t="str">
+      <c r="F29" s="450" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="440"/>
+      <c r="G29" s="450"/>
       <c r="I29" s="124" t="s">
         <v>137</v>
       </c>
       <c r="J29" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="K29" s="440" t="str">
+      <c r="K29" s="450" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="440"/>
+      <c r="L29" s="450"/>
       <c r="M29" s="117"/>
       <c r="O29" s="77"/>
       <c r="Q29" s="83" t="s">
@@ -8564,19 +8612,19 @@
       <c r="E30" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="440" t="str">
+      <c r="F30" s="450" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="440"/>
+      <c r="G30" s="450"/>
       <c r="J30" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="K30" s="440" t="str">
+      <c r="K30" s="450" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="440"/>
+      <c r="L30" s="450"/>
       <c r="M30" s="117"/>
       <c r="O30" s="77"/>
       <c r="Q30" s="83" t="s">
@@ -8792,21 +8840,21 @@
       <c r="C35" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="443" t="s">
+      <c r="D35" s="448" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="443"/>
-      <c r="F35" s="443"/>
-      <c r="G35" s="443" t="s">
+      <c r="E35" s="448"/>
+      <c r="F35" s="448"/>
+      <c r="G35" s="448" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="443"/>
-      <c r="I35" s="443"/>
-      <c r="J35" s="443" t="s">
+      <c r="H35" s="448"/>
+      <c r="I35" s="448"/>
+      <c r="J35" s="448" t="s">
         <v>144</v>
       </c>
-      <c r="K35" s="443"/>
-      <c r="L35" s="443"/>
+      <c r="K35" s="448"/>
+      <c r="L35" s="448"/>
       <c r="M35" s="117"/>
       <c r="O35" s="88"/>
       <c r="P35" s="89"/>
@@ -8853,11 +8901,11 @@
       <c r="D36" s="133"/>
       <c r="E36" s="134"/>
       <c r="F36" s="135"/>
-      <c r="G36" s="444" t="s">
+      <c r="G36" s="447" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="444"/>
-      <c r="I36" s="444"/>
+      <c r="H36" s="447"/>
+      <c r="I36" s="447"/>
       <c r="J36" s="133"/>
       <c r="K36" s="134"/>
       <c r="L36" s="135"/>
@@ -9306,10 +9354,10 @@
       <c r="C44" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="L44" s="445" t="s">
+      <c r="L44" s="449" t="s">
         <v>167</v>
       </c>
-      <c r="M44" s="445"/>
+      <c r="M44" s="449"/>
       <c r="O44" s="77"/>
       <c r="Y44" s="79"/>
       <c r="AA44" s="124" t="s">
@@ -11187,21 +11235,21 @@
       <c r="O97" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="P97" s="443" t="s">
+      <c r="P97" s="448" t="s">
         <v>142</v>
       </c>
-      <c r="Q97" s="443"/>
-      <c r="R97" s="443"/>
-      <c r="S97" s="443" t="s">
+      <c r="Q97" s="448"/>
+      <c r="R97" s="448"/>
+      <c r="S97" s="448" t="s">
         <v>143</v>
       </c>
-      <c r="T97" s="443"/>
-      <c r="U97" s="443"/>
-      <c r="V97" s="443" t="s">
+      <c r="T97" s="448"/>
+      <c r="U97" s="448"/>
+      <c r="V97" s="448" t="s">
         <v>144</v>
       </c>
-      <c r="W97" s="443"/>
-      <c r="X97" s="443"/>
+      <c r="W97" s="448"/>
+      <c r="X97" s="448"/>
       <c r="Y97" s="79"/>
       <c r="AA97" s="83" t="s">
         <v>264</v>
@@ -11237,11 +11285,11 @@
       <c r="P98" s="133"/>
       <c r="Q98" s="134"/>
       <c r="R98" s="135"/>
-      <c r="S98" s="444" t="s">
+      <c r="S98" s="447" t="s">
         <v>146</v>
       </c>
-      <c r="T98" s="444"/>
-      <c r="U98" s="444"/>
+      <c r="T98" s="447"/>
+      <c r="U98" s="447"/>
       <c r="V98" s="133"/>
       <c r="W98" s="134"/>
       <c r="X98" s="135"/>
@@ -11620,21 +11668,21 @@
       <c r="O105" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="P105" s="443" t="s">
+      <c r="P105" s="448" t="s">
         <v>142</v>
       </c>
-      <c r="Q105" s="443"/>
-      <c r="R105" s="443"/>
-      <c r="S105" s="443" t="s">
+      <c r="Q105" s="448"/>
+      <c r="R105" s="448"/>
+      <c r="S105" s="448" t="s">
         <v>143</v>
       </c>
-      <c r="T105" s="443"/>
-      <c r="U105" s="443"/>
-      <c r="V105" s="443" t="s">
+      <c r="T105" s="448"/>
+      <c r="U105" s="448"/>
+      <c r="V105" s="448" t="s">
         <v>144</v>
       </c>
-      <c r="W105" s="443"/>
-      <c r="X105" s="443"/>
+      <c r="W105" s="448"/>
+      <c r="X105" s="448"/>
       <c r="Y105" s="79"/>
       <c r="AA105" s="83" t="s">
         <v>264</v>
@@ -11655,11 +11703,11 @@
       <c r="P106" s="133"/>
       <c r="Q106" s="134"/>
       <c r="R106" s="135"/>
-      <c r="S106" s="444" t="s">
+      <c r="S106" s="447" t="s">
         <v>146</v>
       </c>
-      <c r="T106" s="444"/>
-      <c r="U106" s="444"/>
+      <c r="T106" s="447"/>
+      <c r="U106" s="447"/>
       <c r="V106" s="133"/>
       <c r="W106" s="134"/>
       <c r="X106" s="135"/>
@@ -12978,14 +13026,14 @@
       <c r="O158" s="193" t="s">
         <v>317</v>
       </c>
-      <c r="R158" s="446">
+      <c r="R158" s="444">
         <v>512</v>
       </c>
-      <c r="S158" s="446"/>
-      <c r="T158" s="446">
+      <c r="S158" s="444"/>
+      <c r="T158" s="444">
         <v>1024</v>
       </c>
-      <c r="U158" s="446"/>
+      <c r="U158" s="444"/>
       <c r="Y158" s="79"/>
     </row>
     <row r="159" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13641,14 +13689,14 @@
       <c r="C179" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="E179" s="446">
+      <c r="E179" s="444">
         <v>512</v>
       </c>
-      <c r="F179" s="446"/>
-      <c r="G179" s="446">
+      <c r="F179" s="444"/>
+      <c r="G179" s="444">
         <v>1024</v>
       </c>
-      <c r="H179" s="446"/>
+      <c r="H179" s="444"/>
       <c r="M179" s="117"/>
       <c r="O179" s="77"/>
       <c r="Y179" s="79"/>
@@ -15463,8 +15511,8 @@
       <c r="R225" s="83" t="s">
         <v>372</v>
       </c>
-      <c r="S225" s="447"/>
-      <c r="T225" s="447"/>
+      <c r="S225" s="445"/>
+      <c r="T225" s="445"/>
       <c r="Y225" s="79"/>
     </row>
     <row r="226" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15505,8 +15553,8 @@
       <c r="R226" s="83" t="s">
         <v>374</v>
       </c>
-      <c r="S226" s="447"/>
-      <c r="T226" s="447"/>
+      <c r="S226" s="445"/>
+      <c r="T226" s="445"/>
       <c r="Y226" s="79"/>
     </row>
     <row r="227" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15575,13 +15623,13 @@
       <c r="J228" s="74"/>
       <c r="M228" s="117"/>
       <c r="O228" s="77"/>
-      <c r="T228" s="446" t="s">
+      <c r="T228" s="444" t="s">
         <v>375</v>
       </c>
-      <c r="U228" s="446"/>
-      <c r="V228" s="446"/>
-      <c r="W228" s="446"/>
-      <c r="X228" s="446"/>
+      <c r="U228" s="444"/>
+      <c r="V228" s="444"/>
+      <c r="W228" s="444"/>
+      <c r="X228" s="444"/>
       <c r="Y228" s="79"/>
     </row>
     <row r="229" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16241,13 +16289,13 @@
       <c r="M241" s="117"/>
       <c r="O241" s="77"/>
       <c r="S241" s="83"/>
-      <c r="T241" s="446" t="s">
+      <c r="T241" s="444" t="s">
         <v>375</v>
       </c>
-      <c r="U241" s="446"/>
-      <c r="V241" s="446"/>
-      <c r="W241" s="446"/>
-      <c r="X241" s="446"/>
+      <c r="U241" s="444"/>
+      <c r="V241" s="444"/>
+      <c r="W241" s="444"/>
+      <c r="X241" s="444"/>
       <c r="Y241" s="79"/>
     </row>
     <row r="242" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16875,13 +16923,13 @@
       </c>
       <c r="M255" s="117"/>
       <c r="O255" s="77"/>
-      <c r="T255" s="446" t="s">
+      <c r="T255" s="444" t="s">
         <v>375</v>
       </c>
-      <c r="U255" s="446"/>
-      <c r="V255" s="446"/>
-      <c r="W255" s="446"/>
-      <c r="X255" s="446"/>
+      <c r="U255" s="444"/>
+      <c r="V255" s="444"/>
+      <c r="W255" s="444"/>
+      <c r="X255" s="444"/>
       <c r="Y255" s="79"/>
     </row>
     <row r="256" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17031,14 +17079,14 @@
         <v>55</v>
       </c>
       <c r="B259" s="115"/>
-      <c r="D259" s="448"/>
-      <c r="E259" s="448"/>
+      <c r="D259" s="440"/>
+      <c r="E259" s="440"/>
       <c r="F259" s="74"/>
       <c r="G259" s="74"/>
       <c r="H259" s="74"/>
       <c r="K259" s="74"/>
-      <c r="L259" s="449"/>
-      <c r="M259" s="449"/>
+      <c r="L259" s="446"/>
+      <c r="M259" s="446"/>
       <c r="O259" s="77"/>
       <c r="P259" s="118" t="str">
         <f>IF(AK20="","",AK20)</f>
@@ -17085,10 +17133,10 @@
       <c r="B260" s="115"/>
       <c r="C260" s="74"/>
       <c r="D260" s="74"/>
-      <c r="E260" s="448" t="s">
+      <c r="E260" s="440" t="s">
         <v>392</v>
       </c>
-      <c r="F260" s="448"/>
+      <c r="F260" s="440"/>
       <c r="G260" s="74"/>
       <c r="H260" s="74"/>
       <c r="I260" s="82"/>
@@ -17391,12 +17439,12 @@
       <c r="P268" s="152" t="s">
         <v>399</v>
       </c>
-      <c r="Q268" s="450" t="s">
+      <c r="Q268" s="441" t="s">
         <v>400</v>
       </c>
-      <c r="R268" s="450"/>
-      <c r="S268" s="450"/>
-      <c r="T268" s="450"/>
+      <c r="R268" s="441"/>
+      <c r="S268" s="441"/>
+      <c r="T268" s="441"/>
       <c r="U268" s="313"/>
       <c r="V268" s="313"/>
       <c r="W268" s="313"/>
@@ -17641,11 +17689,11 @@
       <c r="H275" s="323" t="s">
         <v>372</v>
       </c>
-      <c r="I275" s="451" t="str">
+      <c r="I275" s="442" t="str">
         <f>IF(S225="","",S225)</f>
         <v/>
       </c>
-      <c r="J275" s="451"/>
+      <c r="J275" s="442"/>
       <c r="K275" s="107"/>
       <c r="L275" s="107"/>
       <c r="M275" s="109"/>
@@ -17691,11 +17739,11 @@
       <c r="H276" s="269" t="s">
         <v>374</v>
       </c>
-      <c r="I276" s="452" t="str">
+      <c r="I276" s="443" t="str">
         <f>IF(S226="","",S226)</f>
         <v/>
       </c>
-      <c r="J276" s="452"/>
+      <c r="J276" s="443"/>
       <c r="K276" s="74"/>
       <c r="M276" s="117"/>
       <c r="O276" s="77"/>
@@ -18057,10 +18105,10 @@
       <c r="R283" s="67" t="s">
         <v>411</v>
       </c>
-      <c r="U283" s="446" t="s">
+      <c r="U283" s="444" t="s">
         <v>383</v>
       </c>
-      <c r="V283" s="446"/>
+      <c r="V283" s="444"/>
       <c r="Y283" s="79"/>
     </row>
     <row r="284" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20017,66 +20065,81 @@
       <c r="Y338" s="74"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{D62192A2-80E4-4F30-AFA0-04511C5E7F57}" scale="75">
+      <rowBreaks count="4" manualBreakCount="4">
+        <brk id="68" min="1" max="12" man="1"/>
+        <brk id="136" min="1" max="12" man="1"/>
+        <brk id="204" min="1" max="12" man="1"/>
+        <brk id="272" min="1" max="12" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.85069444444444398" bottom="1.0472222222222201" header="0.75208333333333299" footer="0.75208333333333299"/>
+      <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+      <headerFooter>
+        <oddFooter>&amp;CPage &amp;P</oddFooter>
+      </headerFooter>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="59">
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="Q268:T268"/>
-    <mergeCell ref="I275:J275"/>
-    <mergeCell ref="I276:J276"/>
-    <mergeCell ref="U283:V283"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P97:R97"/>
+    <mergeCell ref="S97:U97"/>
+    <mergeCell ref="V97:X97"/>
+    <mergeCell ref="S98:U98"/>
+    <mergeCell ref="P105:R105"/>
+    <mergeCell ref="S105:U105"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="S106:U106"/>
+    <mergeCell ref="R158:S158"/>
+    <mergeCell ref="T158:U158"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="S225:T225"/>
     <mergeCell ref="S226:T226"/>
     <mergeCell ref="T228:X228"/>
     <mergeCell ref="T241:X241"/>
     <mergeCell ref="T255:X255"/>
     <mergeCell ref="D259:E259"/>
     <mergeCell ref="L259:M259"/>
-    <mergeCell ref="R158:S158"/>
-    <mergeCell ref="T158:U158"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="S225:T225"/>
-    <mergeCell ref="S98:U98"/>
-    <mergeCell ref="P105:R105"/>
-    <mergeCell ref="S105:U105"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="S106:U106"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P97:R97"/>
-    <mergeCell ref="S97:U97"/>
-    <mergeCell ref="V97:X97"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="Q268:T268"/>
+    <mergeCell ref="I275:J275"/>
+    <mergeCell ref="I276:J276"/>
+    <mergeCell ref="U283:V283"/>
   </mergeCells>
   <conditionalFormatting sqref="L45:L49 L51:L62 L72:L103">
     <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
@@ -20193,7 +20256,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.85069444444444398" bottom="1.0472222222222201" header="0.75208333333333299" footer="0.75208333333333299"/>
-  <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -20232,41 +20295,41 @@
     </row>
     <row r="2" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="453" t="s">
+      <c r="B2" s="456" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="453"/>
-      <c r="D2" s="453"/>
-      <c r="E2" s="453"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
-      <c r="H2" s="453"/>
-      <c r="I2" s="453"/>
-      <c r="J2" s="453"/>
+      <c r="C2" s="456"/>
+      <c r="D2" s="456"/>
+      <c r="E2" s="456"/>
+      <c r="F2" s="456"/>
+      <c r="G2" s="456"/>
+      <c r="H2" s="456"/>
+      <c r="I2" s="456"/>
+      <c r="J2" s="456"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="453" t="s">
+      <c r="L2" s="456" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="453"/>
-      <c r="N2" s="453"/>
-      <c r="O2" s="453"/>
-      <c r="P2" s="453"/>
-      <c r="Q2" s="453"/>
-      <c r="R2" s="453"/>
-      <c r="S2" s="453"/>
-      <c r="T2" s="453"/>
+      <c r="M2" s="456"/>
+      <c r="N2" s="456"/>
+      <c r="O2" s="456"/>
+      <c r="P2" s="456"/>
+      <c r="Q2" s="456"/>
+      <c r="R2" s="456"/>
+      <c r="S2" s="456"/>
+      <c r="T2" s="456"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="453" t="s">
+      <c r="V2" s="456" t="s">
         <v>105</v>
       </c>
-      <c r="W2" s="453"/>
-      <c r="X2" s="453"/>
-      <c r="Y2" s="453"/>
-      <c r="Z2" s="453"/>
-      <c r="AA2" s="453"/>
-      <c r="AB2" s="453"/>
-      <c r="AC2" s="453"/>
-      <c r="AD2" s="453"/>
+      <c r="W2" s="456"/>
+      <c r="X2" s="456"/>
+      <c r="Y2" s="456"/>
+      <c r="Z2" s="456"/>
+      <c r="AA2" s="456"/>
+      <c r="AB2" s="456"/>
+      <c r="AC2" s="456"/>
+      <c r="AD2" s="456"/>
     </row>
     <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -21726,36 +21789,36 @@
     </row>
     <row r="26" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="454" t="s">
+      <c r="B26" s="457" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="454"/>
-      <c r="D26" s="454"/>
-      <c r="E26" s="454"/>
-      <c r="F26" s="454"/>
-      <c r="G26" s="454"/>
-      <c r="H26" s="454"/>
-      <c r="I26" s="454"/>
-      <c r="J26" s="454"/>
-      <c r="K26" s="454"/>
-      <c r="L26" s="454"/>
+      <c r="C26" s="457"/>
+      <c r="D26" s="457"/>
+      <c r="E26" s="457"/>
+      <c r="F26" s="457"/>
+      <c r="G26" s="457"/>
+      <c r="H26" s="457"/>
+      <c r="I26" s="457"/>
+      <c r="J26" s="457"/>
+      <c r="K26" s="457"/>
+      <c r="L26" s="457"/>
       <c r="M26" s="10"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="453" t="s">
+      <c r="O26" s="456" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="453"/>
-      <c r="Q26" s="453"/>
-      <c r="R26" s="453"/>
-      <c r="S26" s="453"/>
-      <c r="T26" s="453"/>
-      <c r="U26" s="453"/>
-      <c r="V26" s="453"/>
-      <c r="W26" s="453"/>
-      <c r="X26" s="453"/>
-      <c r="Y26" s="453"/>
-      <c r="Z26" s="453"/>
-      <c r="AA26" s="453"/>
+      <c r="P26" s="456"/>
+      <c r="Q26" s="456"/>
+      <c r="R26" s="456"/>
+      <c r="S26" s="456"/>
+      <c r="T26" s="456"/>
+      <c r="U26" s="456"/>
+      <c r="V26" s="456"/>
+      <c r="W26" s="456"/>
+      <c r="X26" s="456"/>
+      <c r="Y26" s="456"/>
+      <c r="Z26" s="456"/>
+      <c r="AA26" s="456"/>
     </row>
     <row r="27" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
@@ -23600,27 +23663,27 @@
     </row>
     <row r="51" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
-      <c r="B51" s="455" t="s">
+      <c r="B51" s="453" t="s">
         <v>433</v>
       </c>
-      <c r="C51" s="455" t="s">
+      <c r="C51" s="453" t="s">
         <v>434</v>
       </c>
-      <c r="D51" s="456" t="s">
+      <c r="D51" s="454" t="s">
         <v>435</v>
       </c>
-      <c r="E51" s="456"/>
-      <c r="F51" s="456"/>
-      <c r="G51" s="456"/>
-      <c r="H51" s="456"/>
-      <c r="I51" s="456"/>
-      <c r="J51" s="456"/>
-      <c r="K51" s="456"/>
+      <c r="E51" s="454"/>
+      <c r="F51" s="454"/>
+      <c r="G51" s="454"/>
+      <c r="H51" s="454"/>
+      <c r="I51" s="454"/>
+      <c r="J51" s="454"/>
+      <c r="K51" s="454"/>
     </row>
     <row r="52" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
-      <c r="B52" s="455"/>
-      <c r="C52" s="455"/>
+      <c r="B52" s="453"/>
+      <c r="C52" s="453"/>
       <c r="D52" s="14">
         <v>0.25</v>
       </c>
@@ -23881,15 +23944,15 @@
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="N62"/>
-      <c r="O62" s="457" t="s">
+      <c r="O62" s="455" t="s">
         <v>447</v>
       </c>
-      <c r="P62" s="457"/>
-      <c r="Q62" s="457" t="s">
+      <c r="P62" s="455"/>
+      <c r="Q62" s="455" t="s">
         <v>448</v>
       </c>
-      <c r="R62" s="457"/>
-      <c r="S62" s="457"/>
+      <c r="R62" s="455"/>
+      <c r="S62" s="455"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="str">
@@ -26212,17 +26275,27 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{D62192A2-80E4-4F30-AFA0-04511C5E7F57}" scale="75" topLeftCell="A22">
+      <selection activeCell="D68" sqref="D68"/>
+      <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.85069444444444398" bottom="1.0472222222222201" header="0.75208333333333299" footer="0.75208333333333299"/>
+      <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter>
+        <oddFooter>&amp;CPage &amp;P</oddFooter>
+      </headerFooter>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="10">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="O26:AA26"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="D51:K51"/>
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="O26:AA26"/>
   </mergeCells>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.85069444444444398" bottom="1.0472222222222201" header="0.75208333333333299" footer="0.75208333333333299"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -26256,6 +26329,16 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{D62192A2-80E4-4F30-AFA0-04511C5E7F57}" scale="75">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.85069444444444398" bottom="1.0472222222222201" header="0.75208333333333299" footer="0.75208333333333299"/>
+      <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter>
+        <oddFooter>&amp;CPage &amp;P</oddFooter>
+      </headerFooter>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.85069444444444398" bottom="1.0472222222222201" header="0.75208333333333299" footer="0.75208333333333299"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -26474,6 +26557,16 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{D62192A2-80E4-4F30-AFA0-04511C5E7F57}">
+      <selection activeCell="D12" sqref="D12"/>
+      <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.85069444444444398" bottom="1.0472222222222201" header="0.75208333333333299" footer="0.75208333333333299"/>
+      <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter>
+        <oddFooter>&amp;CPage &amp;P</oddFooter>
+      </headerFooter>
+    </customSheetView>
+  </customSheetViews>
   <conditionalFormatting sqref="C12">
     <cfRule type="cellIs" priority="2" operator="lessThan">
       <formula>21.8</formula>
@@ -26646,6 +26739,13 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{D62192A2-80E4-4F30-AFA0-04511C5E7F57}">
+      <selection activeCell="C4" sqref="C4:H4"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/MUSCMammoStereotactic.xlsx
+++ b/MUSCMammoStereotactic.xlsx
@@ -54,7 +54,7 @@
     <author>pennyb</author>
   </authors>
   <commentList>
-    <comment ref="M15" authorId="0" guid="{B115AB82-7090-4A2A-89D9-D6060BE3613A}" shapeId="0">
+    <comment ref="M15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L37" authorId="0" guid="{27E81C98-5E3B-4867-99C0-799A433E4B5B}" shapeId="0">
+    <comment ref="L37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
     <author>pennyb</author>
   </authors>
   <commentList>
-    <comment ref="J8" authorId="0" guid="{2CCF2724-234E-4438-86B9-A93FDFE5D926}" shapeId="0">
+    <comment ref="J8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A86" authorId="0" guid="{F52E9DB4-6185-461F-B51B-CD2866DECA7C}" shapeId="0">
+    <comment ref="A86" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A98" authorId="0" guid="{678A53B2-715A-4700-8779-9A1ABBBB94DD}" shapeId="0">
+    <comment ref="A98" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4671,27 +4671,42 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="174" fontId="10" fillId="0" borderId="91" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4701,21 +4716,6 @@
     <xf numFmtId="174" fontId="10" fillId="0" borderId="90" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4734,7 +4734,34 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4747,32 +4774,11 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4782,12 +4788,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5441,30 +5441,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3171BC4F-9A83-4FBA-BF39-F0F3CD9A8617}">
-  <header guid="{3171BC4F-9A83-4FBA-BF39-F0F3CD9A8617}" dateTime="2020-06-03T09:45:55" maxSheetId="8" userName="Eugene Mah" r:id="rId1">
-    <sheetIdMap count="7">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5755,38 +5731,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="419" t="s">
+      <c r="A1" s="430" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="419"/>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="419"/>
-      <c r="F1" s="419"/>
-      <c r="G1" s="419"/>
-      <c r="H1" s="419"/>
-      <c r="I1" s="419"/>
-      <c r="J1" s="419"/>
-      <c r="K1" s="419"/>
-      <c r="L1" s="419"/>
-      <c r="M1" s="419"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
+      <c r="H1" s="430"/>
+      <c r="I1" s="430"/>
+      <c r="J1" s="430"/>
+      <c r="K1" s="430"/>
+      <c r="L1" s="430"/>
+      <c r="M1" s="430"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="419" t="s">
+      <c r="A2" s="430" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="419"/>
-      <c r="C2" s="419"/>
-      <c r="D2" s="419"/>
-      <c r="E2" s="419"/>
-      <c r="F2" s="419"/>
-      <c r="G2" s="419"/>
-      <c r="H2" s="419"/>
-      <c r="I2" s="419"/>
-      <c r="J2" s="419"/>
-      <c r="K2" s="419"/>
-      <c r="L2" s="419"/>
-      <c r="M2" s="419"/>
+      <c r="B2" s="430"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="430"/>
+      <c r="J2" s="430"/>
+      <c r="K2" s="430"/>
+      <c r="L2" s="430"/>
+      <c r="M2" s="430"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="372"/>
@@ -5808,44 +5784,44 @@
         <v>2</v>
       </c>
       <c r="B4" s="373"/>
-      <c r="C4" s="423" t="str">
+      <c r="C4" s="420" t="str">
         <f>Sheet1!R10&amp;" "&amp;Sheet1!R11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D4" s="424"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="424"/>
-      <c r="G4" s="424"/>
-      <c r="H4" s="425"/>
+      <c r="D4" s="421"/>
+      <c r="E4" s="421"/>
+      <c r="F4" s="421"/>
+      <c r="G4" s="421"/>
+      <c r="H4" s="422"/>
       <c r="I4" s="374"/>
       <c r="J4" s="375" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="426"/>
-      <c r="L4" s="427"/>
-      <c r="M4" s="428"/>
+      <c r="K4" s="431"/>
+      <c r="L4" s="432"/>
+      <c r="M4" s="433"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="373" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="373"/>
-      <c r="C5" s="423"/>
-      <c r="D5" s="424"/>
-      <c r="E5" s="424"/>
-      <c r="F5" s="424"/>
-      <c r="G5" s="424"/>
-      <c r="H5" s="425"/>
+      <c r="C5" s="420"/>
+      <c r="D5" s="421"/>
+      <c r="E5" s="421"/>
+      <c r="F5" s="421"/>
+      <c r="G5" s="421"/>
+      <c r="H5" s="422"/>
       <c r="I5" s="374"/>
       <c r="J5" s="375" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="426">
+      <c r="K5" s="431">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="427"/>
-      <c r="M5" s="428"/>
+      <c r="L5" s="432"/>
+      <c r="M5" s="433"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="373" t="s">
@@ -5853,24 +5829,24 @@
       </c>
       <c r="B6" s="373"/>
       <c r="C6" s="373"/>
-      <c r="D6" s="423" t="str">
+      <c r="D6" s="420" t="str">
         <f>Sheet1!F16</f>
         <v/>
       </c>
-      <c r="E6" s="424"/>
-      <c r="F6" s="424"/>
-      <c r="G6" s="424"/>
-      <c r="H6" s="425"/>
+      <c r="E6" s="421"/>
+      <c r="F6" s="421"/>
+      <c r="G6" s="421"/>
+      <c r="H6" s="422"/>
       <c r="I6" s="374"/>
       <c r="J6" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="423" t="str">
+      <c r="K6" s="420" t="str">
         <f>Sheet1!F17</f>
         <v/>
       </c>
-      <c r="L6" s="424"/>
-      <c r="M6" s="425"/>
+      <c r="L6" s="421"/>
+      <c r="M6" s="422"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="373" t="s">
@@ -5878,24 +5854,24 @@
       </c>
       <c r="B7" s="373"/>
       <c r="C7" s="373"/>
-      <c r="D7" s="420" t="str">
+      <c r="D7" s="427" t="str">
         <f>Sheet1!V12</f>
         <v/>
       </c>
-      <c r="E7" s="421"/>
-      <c r="F7" s="421"/>
-      <c r="G7" s="421"/>
-      <c r="H7" s="422"/>
+      <c r="E7" s="428"/>
+      <c r="F7" s="428"/>
+      <c r="G7" s="428"/>
+      <c r="H7" s="429"/>
       <c r="I7" s="374"/>
       <c r="J7" s="375" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="423" t="str">
+      <c r="K7" s="420" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="L7" s="424"/>
-      <c r="M7" s="425"/>
+      <c r="L7" s="421"/>
+      <c r="M7" s="422"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="373" t="s">
@@ -5903,18 +5879,18 @@
       </c>
       <c r="B8" s="373"/>
       <c r="C8" s="373"/>
-      <c r="D8" s="420"/>
-      <c r="E8" s="421"/>
-      <c r="F8" s="421"/>
-      <c r="G8" s="421"/>
-      <c r="H8" s="422"/>
+      <c r="D8" s="427"/>
+      <c r="E8" s="428"/>
+      <c r="F8" s="428"/>
+      <c r="G8" s="428"/>
+      <c r="H8" s="429"/>
       <c r="I8" s="374"/>
       <c r="J8" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="423"/>
-      <c r="L8" s="424"/>
-      <c r="M8" s="425"/>
+      <c r="K8" s="420"/>
+      <c r="L8" s="421"/>
+      <c r="M8" s="422"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="373" t="s">
@@ -5922,18 +5898,18 @@
       </c>
       <c r="B9" s="373"/>
       <c r="C9" s="373"/>
-      <c r="D9" s="420"/>
-      <c r="E9" s="421"/>
-      <c r="F9" s="421"/>
-      <c r="G9" s="421"/>
-      <c r="H9" s="422"/>
+      <c r="D9" s="427"/>
+      <c r="E9" s="428"/>
+      <c r="F9" s="428"/>
+      <c r="G9" s="428"/>
+      <c r="H9" s="429"/>
       <c r="I9" s="374"/>
       <c r="J9" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="423"/>
-      <c r="L9" s="424"/>
-      <c r="M9" s="425"/>
+      <c r="K9" s="420"/>
+      <c r="L9" s="421"/>
+      <c r="M9" s="422"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="373" t="s">
@@ -5941,21 +5917,21 @@
       </c>
       <c r="B10" s="373"/>
       <c r="C10" s="373"/>
-      <c r="D10" s="420" t="str">
+      <c r="D10" s="427" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="E10" s="421"/>
-      <c r="F10" s="421"/>
-      <c r="G10" s="421"/>
-      <c r="H10" s="422"/>
+      <c r="E10" s="428"/>
+      <c r="F10" s="428"/>
+      <c r="G10" s="428"/>
+      <c r="H10" s="429"/>
       <c r="I10" s="374"/>
       <c r="J10" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="423"/>
-      <c r="L10" s="424"/>
-      <c r="M10" s="425"/>
+      <c r="K10" s="420"/>
+      <c r="L10" s="421"/>
+      <c r="M10" s="422"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="373" t="s">
@@ -5963,20 +5939,20 @@
       </c>
       <c r="B11" s="373"/>
       <c r="C11" s="373"/>
-      <c r="D11" s="420" t="s">
+      <c r="D11" s="427" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="421"/>
-      <c r="F11" s="421"/>
-      <c r="G11" s="421"/>
-      <c r="H11" s="422"/>
+      <c r="E11" s="428"/>
+      <c r="F11" s="428"/>
+      <c r="G11" s="428"/>
+      <c r="H11" s="429"/>
       <c r="I11" s="374"/>
       <c r="J11" s="375" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="423"/>
-      <c r="L11" s="424"/>
-      <c r="M11" s="425"/>
+      <c r="K11" s="420"/>
+      <c r="L11" s="421"/>
+      <c r="M11" s="422"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="373"/>
@@ -5995,21 +5971,21 @@
       <c r="N12" s="379"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="433" t="s">
+      <c r="A13" s="426" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="433"/>
-      <c r="C13" s="433"/>
-      <c r="D13" s="433"/>
-      <c r="E13" s="433"/>
-      <c r="F13" s="433"/>
-      <c r="G13" s="433"/>
-      <c r="H13" s="433"/>
-      <c r="I13" s="433"/>
-      <c r="J13" s="433"/>
-      <c r="K13" s="433"/>
-      <c r="L13" s="433"/>
-      <c r="M13" s="433"/>
+      <c r="B13" s="426"/>
+      <c r="C13" s="426"/>
+      <c r="D13" s="426"/>
+      <c r="E13" s="426"/>
+      <c r="F13" s="426"/>
+      <c r="G13" s="426"/>
+      <c r="H13" s="426"/>
+      <c r="I13" s="426"/>
+      <c r="J13" s="426"/>
+      <c r="K13" s="426"/>
+      <c r="L13" s="426"/>
+      <c r="M13" s="426"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M14" s="380" t="s">
@@ -6458,19 +6434,19 @@
     <row r="41" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="373"/>
       <c r="B41" s="373"/>
-      <c r="C41" s="430" t="s">
+      <c r="C41" s="423" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="431"/>
-      <c r="E41" s="431"/>
-      <c r="F41" s="431"/>
-      <c r="G41" s="431"/>
-      <c r="H41" s="431"/>
-      <c r="I41" s="431"/>
-      <c r="J41" s="431"/>
-      <c r="K41" s="431"/>
-      <c r="L41" s="431"/>
-      <c r="M41" s="432"/>
+      <c r="D41" s="424"/>
+      <c r="E41" s="424"/>
+      <c r="F41" s="424"/>
+      <c r="G41" s="424"/>
+      <c r="H41" s="424"/>
+      <c r="I41" s="424"/>
+      <c r="J41" s="424"/>
+      <c r="K41" s="424"/>
+      <c r="L41" s="424"/>
+      <c r="M41" s="425"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="373" t="s">
@@ -6508,21 +6484,21 @@
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="429" t="s">
+      <c r="A45" s="419" t="s">
         <v>505</v>
       </c>
-      <c r="B45" s="429"/>
-      <c r="C45" s="429"/>
-      <c r="D45" s="429"/>
-      <c r="E45" s="429"/>
-      <c r="F45" s="429"/>
-      <c r="G45" s="429"/>
-      <c r="H45" s="429"/>
-      <c r="I45" s="429"/>
-      <c r="J45" s="429"/>
-      <c r="K45" s="429"/>
-      <c r="L45" s="429"/>
-      <c r="M45" s="429"/>
+      <c r="B45" s="419"/>
+      <c r="C45" s="419"/>
+      <c r="D45" s="419"/>
+      <c r="E45" s="419"/>
+      <c r="F45" s="419"/>
+      <c r="G45" s="419"/>
+      <c r="H45" s="419"/>
+      <c r="I45" s="419"/>
+      <c r="J45" s="419"/>
+      <c r="K45" s="419"/>
+      <c r="L45" s="419"/>
+      <c r="M45" s="419"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -6535,6 +6511,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="21">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="A45:M45"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
@@ -6549,13 +6532,6 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M18 JI18 TE18 ADA18 AMW18 AWS18 BGO18 BQK18 CAG18 CKC18 CTY18 DDU18 DNQ18 DXM18 EHI18 ERE18 FBA18 FKW18 FUS18 GEO18 GOK18 GYG18 HIC18 HRY18 IBU18 ILQ18 IVM18 JFI18 JPE18 JZA18 KIW18 KSS18 LCO18 LMK18 LWG18 MGC18 MPY18 MZU18 NJQ18 NTM18 ODI18 ONE18 OXA18 PGW18 PQS18 QAO18 QKK18 QUG18 REC18 RNY18 RXU18 SHQ18 SRM18 TBI18 TLE18 TVA18 UEW18 UOS18 UYO18 VIK18 VSG18 WCC18 WLY18 WVU18 M65554 JI65554 TE65554 ADA65554 AMW65554 AWS65554 BGO65554 BQK65554 CAG65554 CKC65554 CTY65554 DDU65554 DNQ65554 DXM65554 EHI65554 ERE65554 FBA65554 FKW65554 FUS65554 GEO65554 GOK65554 GYG65554 HIC65554 HRY65554 IBU65554 ILQ65554 IVM65554 JFI65554 JPE65554 JZA65554 KIW65554 KSS65554 LCO65554 LMK65554 LWG65554 MGC65554 MPY65554 MZU65554 NJQ65554 NTM65554 ODI65554 ONE65554 OXA65554 PGW65554 PQS65554 QAO65554 QKK65554 QUG65554 REC65554 RNY65554 RXU65554 SHQ65554 SRM65554 TBI65554 TLE65554 TVA65554 UEW65554 UOS65554 UYO65554 VIK65554 VSG65554 WCC65554 WLY65554 WVU65554 M131090 JI131090 TE131090 ADA131090 AMW131090 AWS131090 BGO131090 BQK131090 CAG131090 CKC131090 CTY131090 DDU131090 DNQ131090 DXM131090 EHI131090 ERE131090 FBA131090 FKW131090 FUS131090 GEO131090 GOK131090 GYG131090 HIC131090 HRY131090 IBU131090 ILQ131090 IVM131090 JFI131090 JPE131090 JZA131090 KIW131090 KSS131090 LCO131090 LMK131090 LWG131090 MGC131090 MPY131090 MZU131090 NJQ131090 NTM131090 ODI131090 ONE131090 OXA131090 PGW131090 PQS131090 QAO131090 QKK131090 QUG131090 REC131090 RNY131090 RXU131090 SHQ131090 SRM131090 TBI131090 TLE131090 TVA131090 UEW131090 UOS131090 UYO131090 VIK131090 VSG131090 WCC131090 WLY131090 WVU131090 M196626 JI196626 TE196626 ADA196626 AMW196626 AWS196626 BGO196626 BQK196626 CAG196626 CKC196626 CTY196626 DDU196626 DNQ196626 DXM196626 EHI196626 ERE196626 FBA196626 FKW196626 FUS196626 GEO196626 GOK196626 GYG196626 HIC196626 HRY196626 IBU196626 ILQ196626 IVM196626 JFI196626 JPE196626 JZA196626 KIW196626 KSS196626 LCO196626 LMK196626 LWG196626 MGC196626 MPY196626 MZU196626 NJQ196626 NTM196626 ODI196626 ONE196626 OXA196626 PGW196626 PQS196626 QAO196626 QKK196626 QUG196626 REC196626 RNY196626 RXU196626 SHQ196626 SRM196626 TBI196626 TLE196626 TVA196626 UEW196626 UOS196626 UYO196626 VIK196626 VSG196626 WCC196626 WLY196626 WVU196626 M262162 JI262162 TE262162 ADA262162 AMW262162 AWS262162 BGO262162 BQK262162 CAG262162 CKC262162 CTY262162 DDU262162 DNQ262162 DXM262162 EHI262162 ERE262162 FBA262162 FKW262162 FUS262162 GEO262162 GOK262162 GYG262162 HIC262162 HRY262162 IBU262162 ILQ262162 IVM262162 JFI262162 JPE262162 JZA262162 KIW262162 KSS262162 LCO262162 LMK262162 LWG262162 MGC262162 MPY262162 MZU262162 NJQ262162 NTM262162 ODI262162 ONE262162 OXA262162 PGW262162 PQS262162 QAO262162 QKK262162 QUG262162 REC262162 RNY262162 RXU262162 SHQ262162 SRM262162 TBI262162 TLE262162 TVA262162 UEW262162 UOS262162 UYO262162 VIK262162 VSG262162 WCC262162 WLY262162 WVU262162 M327698 JI327698 TE327698 ADA327698 AMW327698 AWS327698 BGO327698 BQK327698 CAG327698 CKC327698 CTY327698 DDU327698 DNQ327698 DXM327698 EHI327698 ERE327698 FBA327698 FKW327698 FUS327698 GEO327698 GOK327698 GYG327698 HIC327698 HRY327698 IBU327698 ILQ327698 IVM327698 JFI327698 JPE327698 JZA327698 KIW327698 KSS327698 LCO327698 LMK327698 LWG327698 MGC327698 MPY327698 MZU327698 NJQ327698 NTM327698 ODI327698 ONE327698 OXA327698 PGW327698 PQS327698 QAO327698 QKK327698 QUG327698 REC327698 RNY327698 RXU327698 SHQ327698 SRM327698 TBI327698 TLE327698 TVA327698 UEW327698 UOS327698 UYO327698 VIK327698 VSG327698 WCC327698 WLY327698 WVU327698 M393234 JI393234 TE393234 ADA393234 AMW393234 AWS393234 BGO393234 BQK393234 CAG393234 CKC393234 CTY393234 DDU393234 DNQ393234 DXM393234 EHI393234 ERE393234 FBA393234 FKW393234 FUS393234 GEO393234 GOK393234 GYG393234 HIC393234 HRY393234 IBU393234 ILQ393234 IVM393234 JFI393234 JPE393234 JZA393234 KIW393234 KSS393234 LCO393234 LMK393234 LWG393234 MGC393234 MPY393234 MZU393234 NJQ393234 NTM393234 ODI393234 ONE393234 OXA393234 PGW393234 PQS393234 QAO393234 QKK393234 QUG393234 REC393234 RNY393234 RXU393234 SHQ393234 SRM393234 TBI393234 TLE393234 TVA393234 UEW393234 UOS393234 UYO393234 VIK393234 VSG393234 WCC393234 WLY393234 WVU393234 M458770 JI458770 TE458770 ADA458770 AMW458770 AWS458770 BGO458770 BQK458770 CAG458770 CKC458770 CTY458770 DDU458770 DNQ458770 DXM458770 EHI458770 ERE458770 FBA458770 FKW458770 FUS458770 GEO458770 GOK458770 GYG458770 HIC458770 HRY458770 IBU458770 ILQ458770 IVM458770 JFI458770 JPE458770 JZA458770 KIW458770 KSS458770 LCO458770 LMK458770 LWG458770 MGC458770 MPY458770 MZU458770 NJQ458770 NTM458770 ODI458770 ONE458770 OXA458770 PGW458770 PQS458770 QAO458770 QKK458770 QUG458770 REC458770 RNY458770 RXU458770 SHQ458770 SRM458770 TBI458770 TLE458770 TVA458770 UEW458770 UOS458770 UYO458770 VIK458770 VSG458770 WCC458770 WLY458770 WVU458770 M524306 JI524306 TE524306 ADA524306 AMW524306 AWS524306 BGO524306 BQK524306 CAG524306 CKC524306 CTY524306 DDU524306 DNQ524306 DXM524306 EHI524306 ERE524306 FBA524306 FKW524306 FUS524306 GEO524306 GOK524306 GYG524306 HIC524306 HRY524306 IBU524306 ILQ524306 IVM524306 JFI524306 JPE524306 JZA524306 KIW524306 KSS524306 LCO524306 LMK524306 LWG524306 MGC524306 MPY524306 MZU524306 NJQ524306 NTM524306 ODI524306 ONE524306 OXA524306 PGW524306 PQS524306 QAO524306 QKK524306 QUG524306 REC524306 RNY524306 RXU524306 SHQ524306 SRM524306 TBI524306 TLE524306 TVA524306 UEW524306 UOS524306 UYO524306 VIK524306 VSG524306 WCC524306 WLY524306 WVU524306 M589842 JI589842 TE589842 ADA589842 AMW589842 AWS589842 BGO589842 BQK589842 CAG589842 CKC589842 CTY589842 DDU589842 DNQ589842 DXM589842 EHI589842 ERE589842 FBA589842 FKW589842 FUS589842 GEO589842 GOK589842 GYG589842 HIC589842 HRY589842 IBU589842 ILQ589842 IVM589842 JFI589842 JPE589842 JZA589842 KIW589842 KSS589842 LCO589842 LMK589842 LWG589842 MGC589842 MPY589842 MZU589842 NJQ589842 NTM589842 ODI589842 ONE589842 OXA589842 PGW589842 PQS589842 QAO589842 QKK589842 QUG589842 REC589842 RNY589842 RXU589842 SHQ589842 SRM589842 TBI589842 TLE589842 TVA589842 UEW589842 UOS589842 UYO589842 VIK589842 VSG589842 WCC589842 WLY589842 WVU589842 M655378 JI655378 TE655378 ADA655378 AMW655378 AWS655378 BGO655378 BQK655378 CAG655378 CKC655378 CTY655378 DDU655378 DNQ655378 DXM655378 EHI655378 ERE655378 FBA655378 FKW655378 FUS655378 GEO655378 GOK655378 GYG655378 HIC655378 HRY655378 IBU655378 ILQ655378 IVM655378 JFI655378 JPE655378 JZA655378 KIW655378 KSS655378 LCO655378 LMK655378 LWG655378 MGC655378 MPY655378 MZU655378 NJQ655378 NTM655378 ODI655378 ONE655378 OXA655378 PGW655378 PQS655378 QAO655378 QKK655378 QUG655378 REC655378 RNY655378 RXU655378 SHQ655378 SRM655378 TBI655378 TLE655378 TVA655378 UEW655378 UOS655378 UYO655378 VIK655378 VSG655378 WCC655378 WLY655378 WVU655378 M720914 JI720914 TE720914 ADA720914 AMW720914 AWS720914 BGO720914 BQK720914 CAG720914 CKC720914 CTY720914 DDU720914 DNQ720914 DXM720914 EHI720914 ERE720914 FBA720914 FKW720914 FUS720914 GEO720914 GOK720914 GYG720914 HIC720914 HRY720914 IBU720914 ILQ720914 IVM720914 JFI720914 JPE720914 JZA720914 KIW720914 KSS720914 LCO720914 LMK720914 LWG720914 MGC720914 MPY720914 MZU720914 NJQ720914 NTM720914 ODI720914 ONE720914 OXA720914 PGW720914 PQS720914 QAO720914 QKK720914 QUG720914 REC720914 RNY720914 RXU720914 SHQ720914 SRM720914 TBI720914 TLE720914 TVA720914 UEW720914 UOS720914 UYO720914 VIK720914 VSG720914 WCC720914 WLY720914 WVU720914 M786450 JI786450 TE786450 ADA786450 AMW786450 AWS786450 BGO786450 BQK786450 CAG786450 CKC786450 CTY786450 DDU786450 DNQ786450 DXM786450 EHI786450 ERE786450 FBA786450 FKW786450 FUS786450 GEO786450 GOK786450 GYG786450 HIC786450 HRY786450 IBU786450 ILQ786450 IVM786450 JFI786450 JPE786450 JZA786450 KIW786450 KSS786450 LCO786450 LMK786450 LWG786450 MGC786450 MPY786450 MZU786450 NJQ786450 NTM786450 ODI786450 ONE786450 OXA786450 PGW786450 PQS786450 QAO786450 QKK786450 QUG786450 REC786450 RNY786450 RXU786450 SHQ786450 SRM786450 TBI786450 TLE786450 TVA786450 UEW786450 UOS786450 UYO786450 VIK786450 VSG786450 WCC786450 WLY786450 WVU786450 M851986 JI851986 TE851986 ADA851986 AMW851986 AWS851986 BGO851986 BQK851986 CAG851986 CKC851986 CTY851986 DDU851986 DNQ851986 DXM851986 EHI851986 ERE851986 FBA851986 FKW851986 FUS851986 GEO851986 GOK851986 GYG851986 HIC851986 HRY851986 IBU851986 ILQ851986 IVM851986 JFI851986 JPE851986 JZA851986 KIW851986 KSS851986 LCO851986 LMK851986 LWG851986 MGC851986 MPY851986 MZU851986 NJQ851986 NTM851986 ODI851986 ONE851986 OXA851986 PGW851986 PQS851986 QAO851986 QKK851986 QUG851986 REC851986 RNY851986 RXU851986 SHQ851986 SRM851986 TBI851986 TLE851986 TVA851986 UEW851986 UOS851986 UYO851986 VIK851986 VSG851986 WCC851986 WLY851986 WVU851986 M917522 JI917522 TE917522 ADA917522 AMW917522 AWS917522 BGO917522 BQK917522 CAG917522 CKC917522 CTY917522 DDU917522 DNQ917522 DXM917522 EHI917522 ERE917522 FBA917522 FKW917522 FUS917522 GEO917522 GOK917522 GYG917522 HIC917522 HRY917522 IBU917522 ILQ917522 IVM917522 JFI917522 JPE917522 JZA917522 KIW917522 KSS917522 LCO917522 LMK917522 LWG917522 MGC917522 MPY917522 MZU917522 NJQ917522 NTM917522 ODI917522 ONE917522 OXA917522 PGW917522 PQS917522 QAO917522 QKK917522 QUG917522 REC917522 RNY917522 RXU917522 SHQ917522 SRM917522 TBI917522 TLE917522 TVA917522 UEW917522 UOS917522 UYO917522 VIK917522 VSG917522 WCC917522 WLY917522 WVU917522 M983058 JI983058 TE983058 ADA983058 AMW983058 AWS983058 BGO983058 BQK983058 CAG983058 CKC983058 CTY983058 DDU983058 DNQ983058 DXM983058 EHI983058 ERE983058 FBA983058 FKW983058 FUS983058 GEO983058 GOK983058 GYG983058 HIC983058 HRY983058 IBU983058 ILQ983058 IVM983058 JFI983058 JPE983058 JZA983058 KIW983058 KSS983058 LCO983058 LMK983058 LWG983058 MGC983058 MPY983058 MZU983058 NJQ983058 NTM983058 ODI983058 ONE983058 OXA983058 PGW983058 PQS983058 QAO983058 QKK983058 QUG983058 REC983058 RNY983058 RXU983058 SHQ983058 SRM983058 TBI983058 TLE983058 TVA983058 UEW983058 UOS983058 UYO983058 VIK983058 VSG983058 WCC983058 WLY983058 WVU983058 M20:M21 JI20:JI21 TE20:TE21 ADA20:ADA21 AMW20:AMW21 AWS20:AWS21 BGO20:BGO21 BQK20:BQK21 CAG20:CAG21 CKC20:CKC21 CTY20:CTY21 DDU20:DDU21 DNQ20:DNQ21 DXM20:DXM21 EHI20:EHI21 ERE20:ERE21 FBA20:FBA21 FKW20:FKW21 FUS20:FUS21 GEO20:GEO21 GOK20:GOK21 GYG20:GYG21 HIC20:HIC21 HRY20:HRY21 IBU20:IBU21 ILQ20:ILQ21 IVM20:IVM21 JFI20:JFI21 JPE20:JPE21 JZA20:JZA21 KIW20:KIW21 KSS20:KSS21 LCO20:LCO21 LMK20:LMK21 LWG20:LWG21 MGC20:MGC21 MPY20:MPY21 MZU20:MZU21 NJQ20:NJQ21 NTM20:NTM21 ODI20:ODI21 ONE20:ONE21 OXA20:OXA21 PGW20:PGW21 PQS20:PQS21 QAO20:QAO21 QKK20:QKK21 QUG20:QUG21 REC20:REC21 RNY20:RNY21 RXU20:RXU21 SHQ20:SHQ21 SRM20:SRM21 TBI20:TBI21 TLE20:TLE21 TVA20:TVA21 UEW20:UEW21 UOS20:UOS21 UYO20:UYO21 VIK20:VIK21 VSG20:VSG21 WCC20:WCC21 WLY20:WLY21 WVU20:WVU21 M65556:M65557 JI65556:JI65557 TE65556:TE65557 ADA65556:ADA65557 AMW65556:AMW65557 AWS65556:AWS65557 BGO65556:BGO65557 BQK65556:BQK65557 CAG65556:CAG65557 CKC65556:CKC65557 CTY65556:CTY65557 DDU65556:DDU65557 DNQ65556:DNQ65557 DXM65556:DXM65557 EHI65556:EHI65557 ERE65556:ERE65557 FBA65556:FBA65557 FKW65556:FKW65557 FUS65556:FUS65557 GEO65556:GEO65557 GOK65556:GOK65557 GYG65556:GYG65557 HIC65556:HIC65557 HRY65556:HRY65557 IBU65556:IBU65557 ILQ65556:ILQ65557 IVM65556:IVM65557 JFI65556:JFI65557 JPE65556:JPE65557 JZA65556:JZA65557 KIW65556:KIW65557 KSS65556:KSS65557 LCO65556:LCO65557 LMK65556:LMK65557 LWG65556:LWG65557 MGC65556:MGC65557 MPY65556:MPY65557 MZU65556:MZU65557 NJQ65556:NJQ65557 NTM65556:NTM65557 ODI65556:ODI65557 ONE65556:ONE65557 OXA65556:OXA65557 PGW65556:PGW65557 PQS65556:PQS65557 QAO65556:QAO65557 QKK65556:QKK65557 QUG65556:QUG65557 REC65556:REC65557 RNY65556:RNY65557 RXU65556:RXU65557 SHQ65556:SHQ65557 SRM65556:SRM65557 TBI65556:TBI65557 TLE65556:TLE65557 TVA65556:TVA65557 UEW65556:UEW65557 UOS65556:UOS65557 UYO65556:UYO65557 VIK65556:VIK65557 VSG65556:VSG65557 WCC65556:WCC65557 WLY65556:WLY65557 WVU65556:WVU65557 M131092:M131093 JI131092:JI131093 TE131092:TE131093 ADA131092:ADA131093 AMW131092:AMW131093 AWS131092:AWS131093 BGO131092:BGO131093 BQK131092:BQK131093 CAG131092:CAG131093 CKC131092:CKC131093 CTY131092:CTY131093 DDU131092:DDU131093 DNQ131092:DNQ131093 DXM131092:DXM131093 EHI131092:EHI131093 ERE131092:ERE131093 FBA131092:FBA131093 FKW131092:FKW131093 FUS131092:FUS131093 GEO131092:GEO131093 GOK131092:GOK131093 GYG131092:GYG131093 HIC131092:HIC131093 HRY131092:HRY131093 IBU131092:IBU131093 ILQ131092:ILQ131093 IVM131092:IVM131093 JFI131092:JFI131093 JPE131092:JPE131093 JZA131092:JZA131093 KIW131092:KIW131093 KSS131092:KSS131093 LCO131092:LCO131093 LMK131092:LMK131093 LWG131092:LWG131093 MGC131092:MGC131093 MPY131092:MPY131093 MZU131092:MZU131093 NJQ131092:NJQ131093 NTM131092:NTM131093 ODI131092:ODI131093 ONE131092:ONE131093 OXA131092:OXA131093 PGW131092:PGW131093 PQS131092:PQS131093 QAO131092:QAO131093 QKK131092:QKK131093 QUG131092:QUG131093 REC131092:REC131093 RNY131092:RNY131093 RXU131092:RXU131093 SHQ131092:SHQ131093 SRM131092:SRM131093 TBI131092:TBI131093 TLE131092:TLE131093 TVA131092:TVA131093 UEW131092:UEW131093 UOS131092:UOS131093 UYO131092:UYO131093 VIK131092:VIK131093 VSG131092:VSG131093 WCC131092:WCC131093 WLY131092:WLY131093 WVU131092:WVU131093 M196628:M196629 JI196628:JI196629 TE196628:TE196629 ADA196628:ADA196629 AMW196628:AMW196629 AWS196628:AWS196629 BGO196628:BGO196629 BQK196628:BQK196629 CAG196628:CAG196629 CKC196628:CKC196629 CTY196628:CTY196629 DDU196628:DDU196629 DNQ196628:DNQ196629 DXM196628:DXM196629 EHI196628:EHI196629 ERE196628:ERE196629 FBA196628:FBA196629 FKW196628:FKW196629 FUS196628:FUS196629 GEO196628:GEO196629 GOK196628:GOK196629 GYG196628:GYG196629 HIC196628:HIC196629 HRY196628:HRY196629 IBU196628:IBU196629 ILQ196628:ILQ196629 IVM196628:IVM196629 JFI196628:JFI196629 JPE196628:JPE196629 JZA196628:JZA196629 KIW196628:KIW196629 KSS196628:KSS196629 LCO196628:LCO196629 LMK196628:LMK196629 LWG196628:LWG196629 MGC196628:MGC196629 MPY196628:MPY196629 MZU196628:MZU196629 NJQ196628:NJQ196629 NTM196628:NTM196629 ODI196628:ODI196629 ONE196628:ONE196629 OXA196628:OXA196629 PGW196628:PGW196629 PQS196628:PQS196629 QAO196628:QAO196629 QKK196628:QKK196629 QUG196628:QUG196629 REC196628:REC196629 RNY196628:RNY196629 RXU196628:RXU196629 SHQ196628:SHQ196629 SRM196628:SRM196629 TBI196628:TBI196629 TLE196628:TLE196629 TVA196628:TVA196629 UEW196628:UEW196629 UOS196628:UOS196629 UYO196628:UYO196629 VIK196628:VIK196629 VSG196628:VSG196629 WCC196628:WCC196629 WLY196628:WLY196629 WVU196628:WVU196629 M262164:M262165 JI262164:JI262165 TE262164:TE262165 ADA262164:ADA262165 AMW262164:AMW262165 AWS262164:AWS262165 BGO262164:BGO262165 BQK262164:BQK262165 CAG262164:CAG262165 CKC262164:CKC262165 CTY262164:CTY262165 DDU262164:DDU262165 DNQ262164:DNQ262165 DXM262164:DXM262165 EHI262164:EHI262165 ERE262164:ERE262165 FBA262164:FBA262165 FKW262164:FKW262165 FUS262164:FUS262165 GEO262164:GEO262165 GOK262164:GOK262165 GYG262164:GYG262165 HIC262164:HIC262165 HRY262164:HRY262165 IBU262164:IBU262165 ILQ262164:ILQ262165 IVM262164:IVM262165 JFI262164:JFI262165 JPE262164:JPE262165 JZA262164:JZA262165 KIW262164:KIW262165 KSS262164:KSS262165 LCO262164:LCO262165 LMK262164:LMK262165 LWG262164:LWG262165 MGC262164:MGC262165 MPY262164:MPY262165 MZU262164:MZU262165 NJQ262164:NJQ262165 NTM262164:NTM262165 ODI262164:ODI262165 ONE262164:ONE262165 OXA262164:OXA262165 PGW262164:PGW262165 PQS262164:PQS262165 QAO262164:QAO262165 QKK262164:QKK262165 QUG262164:QUG262165 REC262164:REC262165 RNY262164:RNY262165 RXU262164:RXU262165 SHQ262164:SHQ262165 SRM262164:SRM262165 TBI262164:TBI262165 TLE262164:TLE262165 TVA262164:TVA262165 UEW262164:UEW262165 UOS262164:UOS262165 UYO262164:UYO262165 VIK262164:VIK262165 VSG262164:VSG262165 WCC262164:WCC262165 WLY262164:WLY262165 WVU262164:WVU262165 M327700:M327701 JI327700:JI327701 TE327700:TE327701 ADA327700:ADA327701 AMW327700:AMW327701 AWS327700:AWS327701 BGO327700:BGO327701 BQK327700:BQK327701 CAG327700:CAG327701 CKC327700:CKC327701 CTY327700:CTY327701 DDU327700:DDU327701 DNQ327700:DNQ327701 DXM327700:DXM327701 EHI327700:EHI327701 ERE327700:ERE327701 FBA327700:FBA327701 FKW327700:FKW327701 FUS327700:FUS327701 GEO327700:GEO327701 GOK327700:GOK327701 GYG327700:GYG327701 HIC327700:HIC327701 HRY327700:HRY327701 IBU327700:IBU327701 ILQ327700:ILQ327701 IVM327700:IVM327701 JFI327700:JFI327701 JPE327700:JPE327701 JZA327700:JZA327701 KIW327700:KIW327701 KSS327700:KSS327701 LCO327700:LCO327701 LMK327700:LMK327701 LWG327700:LWG327701 MGC327700:MGC327701 MPY327700:MPY327701 MZU327700:MZU327701 NJQ327700:NJQ327701 NTM327700:NTM327701 ODI327700:ODI327701 ONE327700:ONE327701 OXA327700:OXA327701 PGW327700:PGW327701 PQS327700:PQS327701 QAO327700:QAO327701 QKK327700:QKK327701 QUG327700:QUG327701 REC327700:REC327701 RNY327700:RNY327701 RXU327700:RXU327701 SHQ327700:SHQ327701 SRM327700:SRM327701 TBI327700:TBI327701 TLE327700:TLE327701 TVA327700:TVA327701 UEW327700:UEW327701 UOS327700:UOS327701 UYO327700:UYO327701 VIK327700:VIK327701 VSG327700:VSG327701 WCC327700:WCC327701 WLY327700:WLY327701 WVU327700:WVU327701 M393236:M393237 JI393236:JI393237 TE393236:TE393237 ADA393236:ADA393237 AMW393236:AMW393237 AWS393236:AWS393237 BGO393236:BGO393237 BQK393236:BQK393237 CAG393236:CAG393237 CKC393236:CKC393237 CTY393236:CTY393237 DDU393236:DDU393237 DNQ393236:DNQ393237 DXM393236:DXM393237 EHI393236:EHI393237 ERE393236:ERE393237 FBA393236:FBA393237 FKW393236:FKW393237 FUS393236:FUS393237 GEO393236:GEO393237 GOK393236:GOK393237 GYG393236:GYG393237 HIC393236:HIC393237 HRY393236:HRY393237 IBU393236:IBU393237 ILQ393236:ILQ393237 IVM393236:IVM393237 JFI393236:JFI393237 JPE393236:JPE393237 JZA393236:JZA393237 KIW393236:KIW393237 KSS393236:KSS393237 LCO393236:LCO393237 LMK393236:LMK393237 LWG393236:LWG393237 MGC393236:MGC393237 MPY393236:MPY393237 MZU393236:MZU393237 NJQ393236:NJQ393237 NTM393236:NTM393237 ODI393236:ODI393237 ONE393236:ONE393237 OXA393236:OXA393237 PGW393236:PGW393237 PQS393236:PQS393237 QAO393236:QAO393237 QKK393236:QKK393237 QUG393236:QUG393237 REC393236:REC393237 RNY393236:RNY393237 RXU393236:RXU393237 SHQ393236:SHQ393237 SRM393236:SRM393237 TBI393236:TBI393237 TLE393236:TLE393237 TVA393236:TVA393237 UEW393236:UEW393237 UOS393236:UOS393237 UYO393236:UYO393237 VIK393236:VIK393237 VSG393236:VSG393237 WCC393236:WCC393237 WLY393236:WLY393237 WVU393236:WVU393237 M458772:M458773 JI458772:JI458773 TE458772:TE458773 ADA458772:ADA458773 AMW458772:AMW458773 AWS458772:AWS458773 BGO458772:BGO458773 BQK458772:BQK458773 CAG458772:CAG458773 CKC458772:CKC458773 CTY458772:CTY458773 DDU458772:DDU458773 DNQ458772:DNQ458773 DXM458772:DXM458773 EHI458772:EHI458773 ERE458772:ERE458773 FBA458772:FBA458773 FKW458772:FKW458773 FUS458772:FUS458773 GEO458772:GEO458773 GOK458772:GOK458773 GYG458772:GYG458773 HIC458772:HIC458773 HRY458772:HRY458773 IBU458772:IBU458773 ILQ458772:ILQ458773 IVM458772:IVM458773 JFI458772:JFI458773 JPE458772:JPE458773 JZA458772:JZA458773 KIW458772:KIW458773 KSS458772:KSS458773 LCO458772:LCO458773 LMK458772:LMK458773 LWG458772:LWG458773 MGC458772:MGC458773 MPY458772:MPY458773 MZU458772:MZU458773 NJQ458772:NJQ458773 NTM458772:NTM458773 ODI458772:ODI458773 ONE458772:ONE458773 OXA458772:OXA458773 PGW458772:PGW458773 PQS458772:PQS458773 QAO458772:QAO458773 QKK458772:QKK458773 QUG458772:QUG458773 REC458772:REC458773 RNY458772:RNY458773 RXU458772:RXU458773 SHQ458772:SHQ458773 SRM458772:SRM458773 TBI458772:TBI458773 TLE458772:TLE458773 TVA458772:TVA458773 UEW458772:UEW458773 UOS458772:UOS458773 UYO458772:UYO458773 VIK458772:VIK458773 VSG458772:VSG458773 WCC458772:WCC458773 WLY458772:WLY458773 WVU458772:WVU458773 M524308:M524309 JI524308:JI524309 TE524308:TE524309 ADA524308:ADA524309 AMW524308:AMW524309 AWS524308:AWS524309 BGO524308:BGO524309 BQK524308:BQK524309 CAG524308:CAG524309 CKC524308:CKC524309 CTY524308:CTY524309 DDU524308:DDU524309 DNQ524308:DNQ524309 DXM524308:DXM524309 EHI524308:EHI524309 ERE524308:ERE524309 FBA524308:FBA524309 FKW524308:FKW524309 FUS524308:FUS524309 GEO524308:GEO524309 GOK524308:GOK524309 GYG524308:GYG524309 HIC524308:HIC524309 HRY524308:HRY524309 IBU524308:IBU524309 ILQ524308:ILQ524309 IVM524308:IVM524309 JFI524308:JFI524309 JPE524308:JPE524309 JZA524308:JZA524309 KIW524308:KIW524309 KSS524308:KSS524309 LCO524308:LCO524309 LMK524308:LMK524309 LWG524308:LWG524309 MGC524308:MGC524309 MPY524308:MPY524309 MZU524308:MZU524309 NJQ524308:NJQ524309 NTM524308:NTM524309 ODI524308:ODI524309 ONE524308:ONE524309 OXA524308:OXA524309 PGW524308:PGW524309 PQS524308:PQS524309 QAO524308:QAO524309 QKK524308:QKK524309 QUG524308:QUG524309 REC524308:REC524309 RNY524308:RNY524309 RXU524308:RXU524309 SHQ524308:SHQ524309 SRM524308:SRM524309 TBI524308:TBI524309 TLE524308:TLE524309 TVA524308:TVA524309 UEW524308:UEW524309 UOS524308:UOS524309 UYO524308:UYO524309 VIK524308:VIK524309 VSG524308:VSG524309 WCC524308:WCC524309 WLY524308:WLY524309 WVU524308:WVU524309 M589844:M589845 JI589844:JI589845 TE589844:TE589845 ADA589844:ADA589845 AMW589844:AMW589845 AWS589844:AWS589845 BGO589844:BGO589845 BQK589844:BQK589845 CAG589844:CAG589845 CKC589844:CKC589845 CTY589844:CTY589845 DDU589844:DDU589845 DNQ589844:DNQ589845 DXM589844:DXM589845 EHI589844:EHI589845 ERE589844:ERE589845 FBA589844:FBA589845 FKW589844:FKW589845 FUS589844:FUS589845 GEO589844:GEO589845 GOK589844:GOK589845 GYG589844:GYG589845 HIC589844:HIC589845 HRY589844:HRY589845 IBU589844:IBU589845 ILQ589844:ILQ589845 IVM589844:IVM589845 JFI589844:JFI589845 JPE589844:JPE589845 JZA589844:JZA589845 KIW589844:KIW589845 KSS589844:KSS589845 LCO589844:LCO589845 LMK589844:LMK589845 LWG589844:LWG589845 MGC589844:MGC589845 MPY589844:MPY589845 MZU589844:MZU589845 NJQ589844:NJQ589845 NTM589844:NTM589845 ODI589844:ODI589845 ONE589844:ONE589845 OXA589844:OXA589845 PGW589844:PGW589845 PQS589844:PQS589845 QAO589844:QAO589845 QKK589844:QKK589845 QUG589844:QUG589845 REC589844:REC589845 RNY589844:RNY589845 RXU589844:RXU589845 SHQ589844:SHQ589845 SRM589844:SRM589845 TBI589844:TBI589845 TLE589844:TLE589845 TVA589844:TVA589845 UEW589844:UEW589845 UOS589844:UOS589845 UYO589844:UYO589845 VIK589844:VIK589845 VSG589844:VSG589845 WCC589844:WCC589845 WLY589844:WLY589845 WVU589844:WVU589845 M655380:M655381 JI655380:JI655381 TE655380:TE655381 ADA655380:ADA655381 AMW655380:AMW655381 AWS655380:AWS655381 BGO655380:BGO655381 BQK655380:BQK655381 CAG655380:CAG655381 CKC655380:CKC655381 CTY655380:CTY655381 DDU655380:DDU655381 DNQ655380:DNQ655381 DXM655380:DXM655381 EHI655380:EHI655381 ERE655380:ERE655381 FBA655380:FBA655381 FKW655380:FKW655381 FUS655380:FUS655381 GEO655380:GEO655381 GOK655380:GOK655381 GYG655380:GYG655381 HIC655380:HIC655381 HRY655380:HRY655381 IBU655380:IBU655381 ILQ655380:ILQ655381 IVM655380:IVM655381 JFI655380:JFI655381 JPE655380:JPE655381 JZA655380:JZA655381 KIW655380:KIW655381 KSS655380:KSS655381 LCO655380:LCO655381 LMK655380:LMK655381 LWG655380:LWG655381 MGC655380:MGC655381 MPY655380:MPY655381 MZU655380:MZU655381 NJQ655380:NJQ655381 NTM655380:NTM655381 ODI655380:ODI655381 ONE655380:ONE655381 OXA655380:OXA655381 PGW655380:PGW655381 PQS655380:PQS655381 QAO655380:QAO655381 QKK655380:QKK655381 QUG655380:QUG655381 REC655380:REC655381 RNY655380:RNY655381 RXU655380:RXU655381 SHQ655380:SHQ655381 SRM655380:SRM655381 TBI655380:TBI655381 TLE655380:TLE655381 TVA655380:TVA655381 UEW655380:UEW655381 UOS655380:UOS655381 UYO655380:UYO655381 VIK655380:VIK655381 VSG655380:VSG655381 WCC655380:WCC655381 WLY655380:WLY655381 WVU655380:WVU655381 M720916:M720917 JI720916:JI720917 TE720916:TE720917 ADA720916:ADA720917 AMW720916:AMW720917 AWS720916:AWS720917 BGO720916:BGO720917 BQK720916:BQK720917 CAG720916:CAG720917 CKC720916:CKC720917 CTY720916:CTY720917 DDU720916:DDU720917 DNQ720916:DNQ720917 DXM720916:DXM720917 EHI720916:EHI720917 ERE720916:ERE720917 FBA720916:FBA720917 FKW720916:FKW720917 FUS720916:FUS720917 GEO720916:GEO720917 GOK720916:GOK720917 GYG720916:GYG720917 HIC720916:HIC720917 HRY720916:HRY720917 IBU720916:IBU720917 ILQ720916:ILQ720917 IVM720916:IVM720917 JFI720916:JFI720917 JPE720916:JPE720917 JZA720916:JZA720917 KIW720916:KIW720917 KSS720916:KSS720917 LCO720916:LCO720917 LMK720916:LMK720917 LWG720916:LWG720917 MGC720916:MGC720917 MPY720916:MPY720917 MZU720916:MZU720917 NJQ720916:NJQ720917 NTM720916:NTM720917 ODI720916:ODI720917 ONE720916:ONE720917 OXA720916:OXA720917 PGW720916:PGW720917 PQS720916:PQS720917 QAO720916:QAO720917 QKK720916:QKK720917 QUG720916:QUG720917 REC720916:REC720917 RNY720916:RNY720917 RXU720916:RXU720917 SHQ720916:SHQ720917 SRM720916:SRM720917 TBI720916:TBI720917 TLE720916:TLE720917 TVA720916:TVA720917 UEW720916:UEW720917 UOS720916:UOS720917 UYO720916:UYO720917 VIK720916:VIK720917 VSG720916:VSG720917 WCC720916:WCC720917 WLY720916:WLY720917 WVU720916:WVU720917 M786452:M786453 JI786452:JI786453 TE786452:TE786453 ADA786452:ADA786453 AMW786452:AMW786453 AWS786452:AWS786453 BGO786452:BGO786453 BQK786452:BQK786453 CAG786452:CAG786453 CKC786452:CKC786453 CTY786452:CTY786453 DDU786452:DDU786453 DNQ786452:DNQ786453 DXM786452:DXM786453 EHI786452:EHI786453 ERE786452:ERE786453 FBA786452:FBA786453 FKW786452:FKW786453 FUS786452:FUS786453 GEO786452:GEO786453 GOK786452:GOK786453 GYG786452:GYG786453 HIC786452:HIC786453 HRY786452:HRY786453 IBU786452:IBU786453 ILQ786452:ILQ786453 IVM786452:IVM786453 JFI786452:JFI786453 JPE786452:JPE786453 JZA786452:JZA786453 KIW786452:KIW786453 KSS786452:KSS786453 LCO786452:LCO786453 LMK786452:LMK786453 LWG786452:LWG786453 MGC786452:MGC786453 MPY786452:MPY786453 MZU786452:MZU786453 NJQ786452:NJQ786453 NTM786452:NTM786453 ODI786452:ODI786453 ONE786452:ONE786453 OXA786452:OXA786453 PGW786452:PGW786453 PQS786452:PQS786453 QAO786452:QAO786453 QKK786452:QKK786453 QUG786452:QUG786453 REC786452:REC786453 RNY786452:RNY786453 RXU786452:RXU786453 SHQ786452:SHQ786453 SRM786452:SRM786453 TBI786452:TBI786453 TLE786452:TLE786453 TVA786452:TVA786453 UEW786452:UEW786453 UOS786452:UOS786453 UYO786452:UYO786453 VIK786452:VIK786453 VSG786452:VSG786453 WCC786452:WCC786453 WLY786452:WLY786453 WVU786452:WVU786453 M851988:M851989 JI851988:JI851989 TE851988:TE851989 ADA851988:ADA851989 AMW851988:AMW851989 AWS851988:AWS851989 BGO851988:BGO851989 BQK851988:BQK851989 CAG851988:CAG851989 CKC851988:CKC851989 CTY851988:CTY851989 DDU851988:DDU851989 DNQ851988:DNQ851989 DXM851988:DXM851989 EHI851988:EHI851989 ERE851988:ERE851989 FBA851988:FBA851989 FKW851988:FKW851989 FUS851988:FUS851989 GEO851988:GEO851989 GOK851988:GOK851989 GYG851988:GYG851989 HIC851988:HIC851989 HRY851988:HRY851989 IBU851988:IBU851989 ILQ851988:ILQ851989 IVM851988:IVM851989 JFI851988:JFI851989 JPE851988:JPE851989 JZA851988:JZA851989 KIW851988:KIW851989 KSS851988:KSS851989 LCO851988:LCO851989 LMK851988:LMK851989 LWG851988:LWG851989 MGC851988:MGC851989 MPY851988:MPY851989 MZU851988:MZU851989 NJQ851988:NJQ851989 NTM851988:NTM851989 ODI851988:ODI851989 ONE851988:ONE851989 OXA851988:OXA851989 PGW851988:PGW851989 PQS851988:PQS851989 QAO851988:QAO851989 QKK851988:QKK851989 QUG851988:QUG851989 REC851988:REC851989 RNY851988:RNY851989 RXU851988:RXU851989 SHQ851988:SHQ851989 SRM851988:SRM851989 TBI851988:TBI851989 TLE851988:TLE851989 TVA851988:TVA851989 UEW851988:UEW851989 UOS851988:UOS851989 UYO851988:UYO851989 VIK851988:VIK851989 VSG851988:VSG851989 WCC851988:WCC851989 WLY851988:WLY851989 WVU851988:WVU851989 M917524:M917525 JI917524:JI917525 TE917524:TE917525 ADA917524:ADA917525 AMW917524:AMW917525 AWS917524:AWS917525 BGO917524:BGO917525 BQK917524:BQK917525 CAG917524:CAG917525 CKC917524:CKC917525 CTY917524:CTY917525 DDU917524:DDU917525 DNQ917524:DNQ917525 DXM917524:DXM917525 EHI917524:EHI917525 ERE917524:ERE917525 FBA917524:FBA917525 FKW917524:FKW917525 FUS917524:FUS917525 GEO917524:GEO917525 GOK917524:GOK917525 GYG917524:GYG917525 HIC917524:HIC917525 HRY917524:HRY917525 IBU917524:IBU917525 ILQ917524:ILQ917525 IVM917524:IVM917525 JFI917524:JFI917525 JPE917524:JPE917525 JZA917524:JZA917525 KIW917524:KIW917525 KSS917524:KSS917525 LCO917524:LCO917525 LMK917524:LMK917525 LWG917524:LWG917525 MGC917524:MGC917525 MPY917524:MPY917525 MZU917524:MZU917525 NJQ917524:NJQ917525 NTM917524:NTM917525 ODI917524:ODI917525 ONE917524:ONE917525 OXA917524:OXA917525 PGW917524:PGW917525 PQS917524:PQS917525 QAO917524:QAO917525 QKK917524:QKK917525 QUG917524:QUG917525 REC917524:REC917525 RNY917524:RNY917525 RXU917524:RXU917525 SHQ917524:SHQ917525 SRM917524:SRM917525 TBI917524:TBI917525 TLE917524:TLE917525 TVA917524:TVA917525 UEW917524:UEW917525 UOS917524:UOS917525 UYO917524:UYO917525 VIK917524:VIK917525 VSG917524:VSG917525 WCC917524:WCC917525 WLY917524:WLY917525 WVU917524:WVU917525 M983060:M983061 JI983060:JI983061 TE983060:TE983061 ADA983060:ADA983061 AMW983060:AMW983061 AWS983060:AWS983061 BGO983060:BGO983061 BQK983060:BQK983061 CAG983060:CAG983061 CKC983060:CKC983061 CTY983060:CTY983061 DDU983060:DDU983061 DNQ983060:DNQ983061 DXM983060:DXM983061 EHI983060:EHI983061 ERE983060:ERE983061 FBA983060:FBA983061 FKW983060:FKW983061 FUS983060:FUS983061 GEO983060:GEO983061 GOK983060:GOK983061 GYG983060:GYG983061 HIC983060:HIC983061 HRY983060:HRY983061 IBU983060:IBU983061 ILQ983060:ILQ983061 IVM983060:IVM983061 JFI983060:JFI983061 JPE983060:JPE983061 JZA983060:JZA983061 KIW983060:KIW983061 KSS983060:KSS983061 LCO983060:LCO983061 LMK983060:LMK983061 LWG983060:LWG983061 MGC983060:MGC983061 MPY983060:MPY983061 MZU983060:MZU983061 NJQ983060:NJQ983061 NTM983060:NTM983061 ODI983060:ODI983061 ONE983060:ONE983061 OXA983060:OXA983061 PGW983060:PGW983061 PQS983060:PQS983061 QAO983060:QAO983061 QKK983060:QKK983061 QUG983060:QUG983061 REC983060:REC983061 RNY983060:RNY983061 RXU983060:RXU983061 SHQ983060:SHQ983061 SRM983060:SRM983061 TBI983060:TBI983061 TLE983060:TLE983061 TVA983060:TVA983061 UEW983060:UEW983061 UOS983060:UOS983061 UYO983060:UYO983061 VIK983060:VIK983061 VSG983060:VSG983061 WCC983060:WCC983061 WLY983060:WLY983061 WVU983060:WVU983061">
@@ -7320,19 +7296,19 @@
       <c r="E10" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="450" t="str">
+      <c r="F10" s="440" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="450"/>
+      <c r="G10" s="440"/>
       <c r="J10" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="450" t="str">
+      <c r="K10" s="440" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="450"/>
+      <c r="L10" s="440"/>
       <c r="M10" s="117"/>
       <c r="O10" s="77"/>
       <c r="Q10" s="83" t="s">
@@ -7396,19 +7372,19 @@
       <c r="E11" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="452" t="str">
+      <c r="F11" s="441" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="452"/>
+      <c r="G11" s="441"/>
       <c r="J11" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="K11" s="450" t="str">
+      <c r="K11" s="440" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="450"/>
+      <c r="L11" s="440"/>
       <c r="M11" s="117"/>
       <c r="O11" s="77"/>
       <c r="Q11" s="83" t="s">
@@ -7472,19 +7448,19 @@
       <c r="E12" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="452" t="str">
+      <c r="F12" s="441" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="452"/>
+      <c r="G12" s="441"/>
       <c r="J12" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="451" t="str">
+      <c r="K12" s="442" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="451"/>
+      <c r="L12" s="442"/>
       <c r="M12" s="117"/>
       <c r="O12" s="77"/>
       <c r="Q12" s="83" t="s">
@@ -7548,19 +7524,19 @@
       <c r="E13" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="452" t="str">
+      <c r="F13" s="441" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="452"/>
+      <c r="G13" s="441"/>
       <c r="J13" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="450" t="str">
+      <c r="K13" s="440" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="450"/>
+      <c r="L13" s="440"/>
       <c r="M13" s="117"/>
       <c r="O13" s="77"/>
       <c r="Q13" s="83" t="s">
@@ -7731,19 +7707,19 @@
       <c r="E16" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="450" t="str">
+      <c r="F16" s="440" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="450"/>
+      <c r="G16" s="440"/>
       <c r="J16" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="451" t="str">
+      <c r="K16" s="442" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="451"/>
+      <c r="L16" s="442"/>
       <c r="M16" s="117"/>
       <c r="O16" s="77"/>
       <c r="P16" s="124" t="s">
@@ -7794,19 +7770,19 @@
       <c r="E17" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="450" t="str">
+      <c r="F17" s="440" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="450"/>
+      <c r="G17" s="440"/>
       <c r="J17" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="450" t="str">
+      <c r="K17" s="440" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="450"/>
+      <c r="L17" s="440"/>
       <c r="M17" s="117"/>
       <c r="O17" s="77"/>
       <c r="Q17" s="83" t="s">
@@ -7870,19 +7846,19 @@
       <c r="E18" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="450" t="str">
+      <c r="F18" s="440" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="450"/>
+      <c r="G18" s="440"/>
       <c r="J18" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="450" t="str">
+      <c r="K18" s="440" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="450"/>
+      <c r="L18" s="440"/>
       <c r="M18" s="117"/>
       <c r="O18" s="77"/>
       <c r="Q18" s="83" t="s">
@@ -8045,19 +8021,19 @@
       <c r="E21" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="450" t="str">
+      <c r="F21" s="440" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="450"/>
+      <c r="G21" s="440"/>
       <c r="J21" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="450" t="str">
+      <c r="K21" s="440" t="str">
         <f>IF(V21="","",V21)</f>
         <v>Mo</v>
       </c>
-      <c r="L21" s="450"/>
+      <c r="L21" s="440"/>
       <c r="M21" s="117"/>
       <c r="O21" s="77"/>
       <c r="P21" s="124" t="s">
@@ -8118,17 +8094,17 @@
       <c r="E22" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="451" t="str">
+      <c r="F22" s="442" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="451"/>
+      <c r="G22" s="442"/>
       <c r="J22" s="83"/>
-      <c r="K22" s="450" t="str">
+      <c r="K22" s="440" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="450"/>
+      <c r="L22" s="440"/>
       <c r="M22" s="117"/>
       <c r="O22" s="77"/>
       <c r="Q22" s="83" t="s">
@@ -8192,11 +8168,11 @@
       <c r="J23" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="450" t="str">
+      <c r="K23" s="440" t="str">
         <f>IF(V24="","",V24)</f>
         <v>Mo</v>
       </c>
-      <c r="L23" s="450"/>
+      <c r="L23" s="440"/>
       <c r="M23" s="117"/>
       <c r="O23" s="77"/>
       <c r="Q23" s="83" t="s">
@@ -8254,16 +8230,16 @@
       <c r="E24" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="450" t="str">
+      <c r="F24" s="440" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="450"/>
-      <c r="K24" s="450" t="str">
+      <c r="G24" s="440"/>
+      <c r="K24" s="440" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="450"/>
+      <c r="L24" s="440"/>
       <c r="M24" s="117"/>
       <c r="O24" s="77"/>
       <c r="P24" s="124" t="s">
@@ -8324,11 +8300,11 @@
       <c r="E25" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="450" t="str">
+      <c r="F25" s="440" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="450"/>
+      <c r="G25" s="440"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
       <c r="L25" s="74"/>
@@ -8392,11 +8368,11 @@
       <c r="E26" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="450" t="str">
+      <c r="F26" s="440" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="450"/>
+      <c r="G26" s="440"/>
       <c r="I26" s="124" t="s">
         <v>133</v>
       </c>
@@ -8463,11 +8439,11 @@
       <c r="J27" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="450" t="str">
+      <c r="K27" s="440" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="450"/>
+      <c r="L27" s="440"/>
       <c r="M27" s="117"/>
       <c r="O27" s="77"/>
       <c r="Q27" s="83" t="s">
@@ -8495,20 +8471,20 @@
       <c r="E28" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="450" t="str">
+      <c r="F28" s="440" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="450"/>
+      <c r="G28" s="440"/>
       <c r="I28" s="74"/>
       <c r="J28" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="K28" s="450" t="str">
+      <c r="K28" s="440" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="450"/>
+      <c r="L28" s="440"/>
       <c r="M28" s="117"/>
       <c r="O28" s="77"/>
       <c r="P28" s="124" t="s">
@@ -8545,22 +8521,22 @@
       <c r="E29" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="450" t="str">
+      <c r="F29" s="440" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="450"/>
+      <c r="G29" s="440"/>
       <c r="I29" s="124" t="s">
         <v>137</v>
       </c>
       <c r="J29" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="K29" s="450" t="str">
+      <c r="K29" s="440" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="450"/>
+      <c r="L29" s="440"/>
       <c r="M29" s="117"/>
       <c r="O29" s="77"/>
       <c r="Q29" s="83" t="s">
@@ -8612,19 +8588,19 @@
       <c r="E30" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="450" t="str">
+      <c r="F30" s="440" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="450"/>
+      <c r="G30" s="440"/>
       <c r="J30" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="K30" s="450" t="str">
+      <c r="K30" s="440" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="450"/>
+      <c r="L30" s="440"/>
       <c r="M30" s="117"/>
       <c r="O30" s="77"/>
       <c r="Q30" s="83" t="s">
@@ -8840,21 +8816,21 @@
       <c r="C35" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="448" t="s">
+      <c r="D35" s="443" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="448"/>
-      <c r="F35" s="448"/>
-      <c r="G35" s="448" t="s">
+      <c r="E35" s="443"/>
+      <c r="F35" s="443"/>
+      <c r="G35" s="443" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="448"/>
-      <c r="I35" s="448"/>
-      <c r="J35" s="448" t="s">
+      <c r="H35" s="443"/>
+      <c r="I35" s="443"/>
+      <c r="J35" s="443" t="s">
         <v>144</v>
       </c>
-      <c r="K35" s="448"/>
-      <c r="L35" s="448"/>
+      <c r="K35" s="443"/>
+      <c r="L35" s="443"/>
       <c r="M35" s="117"/>
       <c r="O35" s="88"/>
       <c r="P35" s="89"/>
@@ -8901,11 +8877,11 @@
       <c r="D36" s="133"/>
       <c r="E36" s="134"/>
       <c r="F36" s="135"/>
-      <c r="G36" s="447" t="s">
+      <c r="G36" s="444" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="447"/>
-      <c r="I36" s="447"/>
+      <c r="H36" s="444"/>
+      <c r="I36" s="444"/>
       <c r="J36" s="133"/>
       <c r="K36" s="134"/>
       <c r="L36" s="135"/>
@@ -9354,10 +9330,10 @@
       <c r="C44" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="L44" s="449" t="s">
+      <c r="L44" s="445" t="s">
         <v>167</v>
       </c>
-      <c r="M44" s="449"/>
+      <c r="M44" s="445"/>
       <c r="O44" s="77"/>
       <c r="Y44" s="79"/>
       <c r="AA44" s="124" t="s">
@@ -11235,21 +11211,21 @@
       <c r="O97" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="P97" s="448" t="s">
+      <c r="P97" s="443" t="s">
         <v>142</v>
       </c>
-      <c r="Q97" s="448"/>
-      <c r="R97" s="448"/>
-      <c r="S97" s="448" t="s">
+      <c r="Q97" s="443"/>
+      <c r="R97" s="443"/>
+      <c r="S97" s="443" t="s">
         <v>143</v>
       </c>
-      <c r="T97" s="448"/>
-      <c r="U97" s="448"/>
-      <c r="V97" s="448" t="s">
+      <c r="T97" s="443"/>
+      <c r="U97" s="443"/>
+      <c r="V97" s="443" t="s">
         <v>144</v>
       </c>
-      <c r="W97" s="448"/>
-      <c r="X97" s="448"/>
+      <c r="W97" s="443"/>
+      <c r="X97" s="443"/>
       <c r="Y97" s="79"/>
       <c r="AA97" s="83" t="s">
         <v>264</v>
@@ -11285,11 +11261,11 @@
       <c r="P98" s="133"/>
       <c r="Q98" s="134"/>
       <c r="R98" s="135"/>
-      <c r="S98" s="447" t="s">
+      <c r="S98" s="444" t="s">
         <v>146</v>
       </c>
-      <c r="T98" s="447"/>
-      <c r="U98" s="447"/>
+      <c r="T98" s="444"/>
+      <c r="U98" s="444"/>
       <c r="V98" s="133"/>
       <c r="W98" s="134"/>
       <c r="X98" s="135"/>
@@ -11668,21 +11644,21 @@
       <c r="O105" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="P105" s="448" t="s">
+      <c r="P105" s="443" t="s">
         <v>142</v>
       </c>
-      <c r="Q105" s="448"/>
-      <c r="R105" s="448"/>
-      <c r="S105" s="448" t="s">
+      <c r="Q105" s="443"/>
+      <c r="R105" s="443"/>
+      <c r="S105" s="443" t="s">
         <v>143</v>
       </c>
-      <c r="T105" s="448"/>
-      <c r="U105" s="448"/>
-      <c r="V105" s="448" t="s">
+      <c r="T105" s="443"/>
+      <c r="U105" s="443"/>
+      <c r="V105" s="443" t="s">
         <v>144</v>
       </c>
-      <c r="W105" s="448"/>
-      <c r="X105" s="448"/>
+      <c r="W105" s="443"/>
+      <c r="X105" s="443"/>
       <c r="Y105" s="79"/>
       <c r="AA105" s="83" t="s">
         <v>264</v>
@@ -11703,11 +11679,11 @@
       <c r="P106" s="133"/>
       <c r="Q106" s="134"/>
       <c r="R106" s="135"/>
-      <c r="S106" s="447" t="s">
+      <c r="S106" s="444" t="s">
         <v>146</v>
       </c>
-      <c r="T106" s="447"/>
-      <c r="U106" s="447"/>
+      <c r="T106" s="444"/>
+      <c r="U106" s="444"/>
       <c r="V106" s="133"/>
       <c r="W106" s="134"/>
       <c r="X106" s="135"/>
@@ -13026,14 +13002,14 @@
       <c r="O158" s="193" t="s">
         <v>317</v>
       </c>
-      <c r="R158" s="444">
+      <c r="R158" s="446">
         <v>512</v>
       </c>
-      <c r="S158" s="444"/>
-      <c r="T158" s="444">
+      <c r="S158" s="446"/>
+      <c r="T158" s="446">
         <v>1024</v>
       </c>
-      <c r="U158" s="444"/>
+      <c r="U158" s="446"/>
       <c r="Y158" s="79"/>
     </row>
     <row r="159" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13689,14 +13665,14 @@
       <c r="C179" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="E179" s="444">
+      <c r="E179" s="446">
         <v>512</v>
       </c>
-      <c r="F179" s="444"/>
-      <c r="G179" s="444">
+      <c r="F179" s="446"/>
+      <c r="G179" s="446">
         <v>1024</v>
       </c>
-      <c r="H179" s="444"/>
+      <c r="H179" s="446"/>
       <c r="M179" s="117"/>
       <c r="O179" s="77"/>
       <c r="Y179" s="79"/>
@@ -15511,8 +15487,8 @@
       <c r="R225" s="83" t="s">
         <v>372</v>
       </c>
-      <c r="S225" s="445"/>
-      <c r="T225" s="445"/>
+      <c r="S225" s="447"/>
+      <c r="T225" s="447"/>
       <c r="Y225" s="79"/>
     </row>
     <row r="226" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15553,8 +15529,8 @@
       <c r="R226" s="83" t="s">
         <v>374</v>
       </c>
-      <c r="S226" s="445"/>
-      <c r="T226" s="445"/>
+      <c r="S226" s="447"/>
+      <c r="T226" s="447"/>
       <c r="Y226" s="79"/>
     </row>
     <row r="227" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15623,13 +15599,13 @@
       <c r="J228" s="74"/>
       <c r="M228" s="117"/>
       <c r="O228" s="77"/>
-      <c r="T228" s="444" t="s">
+      <c r="T228" s="446" t="s">
         <v>375</v>
       </c>
-      <c r="U228" s="444"/>
-      <c r="V228" s="444"/>
-      <c r="W228" s="444"/>
-      <c r="X228" s="444"/>
+      <c r="U228" s="446"/>
+      <c r="V228" s="446"/>
+      <c r="W228" s="446"/>
+      <c r="X228" s="446"/>
       <c r="Y228" s="79"/>
     </row>
     <row r="229" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16289,13 +16265,13 @@
       <c r="M241" s="117"/>
       <c r="O241" s="77"/>
       <c r="S241" s="83"/>
-      <c r="T241" s="444" t="s">
+      <c r="T241" s="446" t="s">
         <v>375</v>
       </c>
-      <c r="U241" s="444"/>
-      <c r="V241" s="444"/>
-      <c r="W241" s="444"/>
-      <c r="X241" s="444"/>
+      <c r="U241" s="446"/>
+      <c r="V241" s="446"/>
+      <c r="W241" s="446"/>
+      <c r="X241" s="446"/>
       <c r="Y241" s="79"/>
     </row>
     <row r="242" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16923,13 +16899,13 @@
       </c>
       <c r="M255" s="117"/>
       <c r="O255" s="77"/>
-      <c r="T255" s="444" t="s">
+      <c r="T255" s="446" t="s">
         <v>375</v>
       </c>
-      <c r="U255" s="444"/>
-      <c r="V255" s="444"/>
-      <c r="W255" s="444"/>
-      <c r="X255" s="444"/>
+      <c r="U255" s="446"/>
+      <c r="V255" s="446"/>
+      <c r="W255" s="446"/>
+      <c r="X255" s="446"/>
       <c r="Y255" s="79"/>
     </row>
     <row r="256" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17079,14 +17055,14 @@
         <v>55</v>
       </c>
       <c r="B259" s="115"/>
-      <c r="D259" s="440"/>
-      <c r="E259" s="440"/>
+      <c r="D259" s="448"/>
+      <c r="E259" s="448"/>
       <c r="F259" s="74"/>
       <c r="G259" s="74"/>
       <c r="H259" s="74"/>
       <c r="K259" s="74"/>
-      <c r="L259" s="446"/>
-      <c r="M259" s="446"/>
+      <c r="L259" s="449"/>
+      <c r="M259" s="449"/>
       <c r="O259" s="77"/>
       <c r="P259" s="118" t="str">
         <f>IF(AK20="","",AK20)</f>
@@ -17133,10 +17109,10 @@
       <c r="B260" s="115"/>
       <c r="C260" s="74"/>
       <c r="D260" s="74"/>
-      <c r="E260" s="440" t="s">
+      <c r="E260" s="448" t="s">
         <v>392</v>
       </c>
-      <c r="F260" s="440"/>
+      <c r="F260" s="448"/>
       <c r="G260" s="74"/>
       <c r="H260" s="74"/>
       <c r="I260" s="82"/>
@@ -17439,12 +17415,12 @@
       <c r="P268" s="152" t="s">
         <v>399</v>
       </c>
-      <c r="Q268" s="441" t="s">
+      <c r="Q268" s="450" t="s">
         <v>400</v>
       </c>
-      <c r="R268" s="441"/>
-      <c r="S268" s="441"/>
-      <c r="T268" s="441"/>
+      <c r="R268" s="450"/>
+      <c r="S268" s="450"/>
+      <c r="T268" s="450"/>
       <c r="U268" s="313"/>
       <c r="V268" s="313"/>
       <c r="W268" s="313"/>
@@ -17689,11 +17665,11 @@
       <c r="H275" s="323" t="s">
         <v>372</v>
       </c>
-      <c r="I275" s="442" t="str">
+      <c r="I275" s="451" t="str">
         <f>IF(S225="","",S225)</f>
         <v/>
       </c>
-      <c r="J275" s="442"/>
+      <c r="J275" s="451"/>
       <c r="K275" s="107"/>
       <c r="L275" s="107"/>
       <c r="M275" s="109"/>
@@ -17739,11 +17715,11 @@
       <c r="H276" s="269" t="s">
         <v>374</v>
       </c>
-      <c r="I276" s="443" t="str">
+      <c r="I276" s="452" t="str">
         <f>IF(S226="","",S226)</f>
         <v/>
       </c>
-      <c r="J276" s="443"/>
+      <c r="J276" s="452"/>
       <c r="K276" s="74"/>
       <c r="M276" s="117"/>
       <c r="O276" s="77"/>
@@ -18105,10 +18081,10 @@
       <c r="R283" s="67" t="s">
         <v>411</v>
       </c>
-      <c r="U283" s="444" t="s">
+      <c r="U283" s="446" t="s">
         <v>383</v>
       </c>
-      <c r="V283" s="444"/>
+      <c r="V283" s="446"/>
       <c r="Y283" s="79"/>
     </row>
     <row r="284" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20081,65 +20057,65 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="59">
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="Q268:T268"/>
+    <mergeCell ref="I275:J275"/>
+    <mergeCell ref="I276:J276"/>
+    <mergeCell ref="U283:V283"/>
+    <mergeCell ref="S226:T226"/>
+    <mergeCell ref="T228:X228"/>
+    <mergeCell ref="T241:X241"/>
+    <mergeCell ref="T255:X255"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="R158:S158"/>
+    <mergeCell ref="T158:U158"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="S225:T225"/>
+    <mergeCell ref="S98:U98"/>
+    <mergeCell ref="P105:R105"/>
+    <mergeCell ref="S105:U105"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="S106:U106"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P97:R97"/>
+    <mergeCell ref="S97:U97"/>
+    <mergeCell ref="V97:X97"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P97:R97"/>
-    <mergeCell ref="S97:U97"/>
-    <mergeCell ref="V97:X97"/>
-    <mergeCell ref="S98:U98"/>
-    <mergeCell ref="P105:R105"/>
-    <mergeCell ref="S105:U105"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="S106:U106"/>
-    <mergeCell ref="R158:S158"/>
-    <mergeCell ref="T158:U158"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="S225:T225"/>
-    <mergeCell ref="S226:T226"/>
-    <mergeCell ref="T228:X228"/>
-    <mergeCell ref="T241:X241"/>
-    <mergeCell ref="T255:X255"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="Q268:T268"/>
-    <mergeCell ref="I275:J275"/>
-    <mergeCell ref="I276:J276"/>
-    <mergeCell ref="U283:V283"/>
   </mergeCells>
   <conditionalFormatting sqref="L45:L49 L51:L62 L72:L103">
     <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
@@ -20295,41 +20271,41 @@
     </row>
     <row r="2" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="456" t="s">
+      <c r="B2" s="453" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="456"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="456"/>
-      <c r="F2" s="456"/>
-      <c r="G2" s="456"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="456"/>
-      <c r="J2" s="456"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="453"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="453"/>
+      <c r="H2" s="453"/>
+      <c r="I2" s="453"/>
+      <c r="J2" s="453"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="456" t="s">
+      <c r="L2" s="453" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="456"/>
-      <c r="N2" s="456"/>
-      <c r="O2" s="456"/>
-      <c r="P2" s="456"/>
-      <c r="Q2" s="456"/>
-      <c r="R2" s="456"/>
-      <c r="S2" s="456"/>
-      <c r="T2" s="456"/>
+      <c r="M2" s="453"/>
+      <c r="N2" s="453"/>
+      <c r="O2" s="453"/>
+      <c r="P2" s="453"/>
+      <c r="Q2" s="453"/>
+      <c r="R2" s="453"/>
+      <c r="S2" s="453"/>
+      <c r="T2" s="453"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="456" t="s">
+      <c r="V2" s="453" t="s">
         <v>105</v>
       </c>
-      <c r="W2" s="456"/>
-      <c r="X2" s="456"/>
-      <c r="Y2" s="456"/>
-      <c r="Z2" s="456"/>
-      <c r="AA2" s="456"/>
-      <c r="AB2" s="456"/>
-      <c r="AC2" s="456"/>
-      <c r="AD2" s="456"/>
+      <c r="W2" s="453"/>
+      <c r="X2" s="453"/>
+      <c r="Y2" s="453"/>
+      <c r="Z2" s="453"/>
+      <c r="AA2" s="453"/>
+      <c r="AB2" s="453"/>
+      <c r="AC2" s="453"/>
+      <c r="AD2" s="453"/>
     </row>
     <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -21789,36 +21765,36 @@
     </row>
     <row r="26" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="457" t="s">
+      <c r="B26" s="454" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="457"/>
-      <c r="D26" s="457"/>
-      <c r="E26" s="457"/>
-      <c r="F26" s="457"/>
-      <c r="G26" s="457"/>
-      <c r="H26" s="457"/>
-      <c r="I26" s="457"/>
-      <c r="J26" s="457"/>
-      <c r="K26" s="457"/>
-      <c r="L26" s="457"/>
+      <c r="C26" s="454"/>
+      <c r="D26" s="454"/>
+      <c r="E26" s="454"/>
+      <c r="F26" s="454"/>
+      <c r="G26" s="454"/>
+      <c r="H26" s="454"/>
+      <c r="I26" s="454"/>
+      <c r="J26" s="454"/>
+      <c r="K26" s="454"/>
+      <c r="L26" s="454"/>
       <c r="M26" s="10"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="456" t="s">
+      <c r="O26" s="453" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="456"/>
-      <c r="Q26" s="456"/>
-      <c r="R26" s="456"/>
-      <c r="S26" s="456"/>
-      <c r="T26" s="456"/>
-      <c r="U26" s="456"/>
-      <c r="V26" s="456"/>
-      <c r="W26" s="456"/>
-      <c r="X26" s="456"/>
-      <c r="Y26" s="456"/>
-      <c r="Z26" s="456"/>
-      <c r="AA26" s="456"/>
+      <c r="P26" s="453"/>
+      <c r="Q26" s="453"/>
+      <c r="R26" s="453"/>
+      <c r="S26" s="453"/>
+      <c r="T26" s="453"/>
+      <c r="U26" s="453"/>
+      <c r="V26" s="453"/>
+      <c r="W26" s="453"/>
+      <c r="X26" s="453"/>
+      <c r="Y26" s="453"/>
+      <c r="Z26" s="453"/>
+      <c r="AA26" s="453"/>
     </row>
     <row r="27" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
@@ -23663,27 +23639,27 @@
     </row>
     <row r="51" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
-      <c r="B51" s="453" t="s">
+      <c r="B51" s="455" t="s">
         <v>433</v>
       </c>
-      <c r="C51" s="453" t="s">
+      <c r="C51" s="455" t="s">
         <v>434</v>
       </c>
-      <c r="D51" s="454" t="s">
+      <c r="D51" s="456" t="s">
         <v>435</v>
       </c>
-      <c r="E51" s="454"/>
-      <c r="F51" s="454"/>
-      <c r="G51" s="454"/>
-      <c r="H51" s="454"/>
-      <c r="I51" s="454"/>
-      <c r="J51" s="454"/>
-      <c r="K51" s="454"/>
+      <c r="E51" s="456"/>
+      <c r="F51" s="456"/>
+      <c r="G51" s="456"/>
+      <c r="H51" s="456"/>
+      <c r="I51" s="456"/>
+      <c r="J51" s="456"/>
+      <c r="K51" s="456"/>
     </row>
     <row r="52" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
-      <c r="B52" s="453"/>
-      <c r="C52" s="453"/>
+      <c r="B52" s="455"/>
+      <c r="C52" s="455"/>
       <c r="D52" s="14">
         <v>0.25</v>
       </c>
@@ -23944,15 +23920,15 @@
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="N62"/>
-      <c r="O62" s="455" t="s">
+      <c r="O62" s="457" t="s">
         <v>447</v>
       </c>
-      <c r="P62" s="455"/>
-      <c r="Q62" s="455" t="s">
+      <c r="P62" s="457"/>
+      <c r="Q62" s="457" t="s">
         <v>448</v>
       </c>
-      <c r="R62" s="455"/>
-      <c r="S62" s="455"/>
+      <c r="R62" s="457"/>
+      <c r="S62" s="457"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="str">
@@ -26286,16 +26262,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="10">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:S62"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="V2:AD2"/>
     <mergeCell ref="B26:L26"/>
     <mergeCell ref="O26:AA26"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:S62"/>
   </mergeCells>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.85069444444444398" bottom="1.0472222222222201" header="0.75208333333333299" footer="0.75208333333333299"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/MUSCMammoStereotactic.xlsx
+++ b/MUSCMammoStereotactic.xlsx
@@ -665,9 +665,6 @@
     <t>5 to 7 cm</t>
   </si>
   <si>
-    <t>DHEC form SC-RAH-20 “Notice to Employees” posted or referenced</t>
-  </si>
-  <si>
     <t>Filter 1:</t>
   </si>
   <si>
@@ -1879,6 +1876,9 @@
   </si>
   <si>
     <t>Revision 1.1-20190606</t>
+  </si>
+  <si>
+    <t>DHEC form SC-RHA-20 “Notice to Employees” posted or referenced</t>
   </si>
 </sst>
 </file>
@@ -4671,18 +4671,39 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="10" fillId="0" borderId="91" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="10" fillId="0" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="10" fillId="0" borderId="90" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4695,27 +4716,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="10" fillId="0" borderId="91" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="10" fillId="0" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="10" fillId="0" borderId="90" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4734,34 +4734,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4774,20 +4747,47 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5731,38 +5731,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="419" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="430"/>
-      <c r="E1" s="430"/>
-      <c r="F1" s="430"/>
-      <c r="G1" s="430"/>
-      <c r="H1" s="430"/>
-      <c r="I1" s="430"/>
-      <c r="J1" s="430"/>
-      <c r="K1" s="430"/>
-      <c r="L1" s="430"/>
-      <c r="M1" s="430"/>
+      <c r="B1" s="419"/>
+      <c r="C1" s="419"/>
+      <c r="D1" s="419"/>
+      <c r="E1" s="419"/>
+      <c r="F1" s="419"/>
+      <c r="G1" s="419"/>
+      <c r="H1" s="419"/>
+      <c r="I1" s="419"/>
+      <c r="J1" s="419"/>
+      <c r="K1" s="419"/>
+      <c r="L1" s="419"/>
+      <c r="M1" s="419"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="430" t="s">
+      <c r="A2" s="419" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="430"/>
-      <c r="I2" s="430"/>
-      <c r="J2" s="430"/>
-      <c r="K2" s="430"/>
-      <c r="L2" s="430"/>
-      <c r="M2" s="430"/>
+      <c r="B2" s="419"/>
+      <c r="C2" s="419"/>
+      <c r="D2" s="419"/>
+      <c r="E2" s="419"/>
+      <c r="F2" s="419"/>
+      <c r="G2" s="419"/>
+      <c r="H2" s="419"/>
+      <c r="I2" s="419"/>
+      <c r="J2" s="419"/>
+      <c r="K2" s="419"/>
+      <c r="L2" s="419"/>
+      <c r="M2" s="419"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="372"/>
@@ -5784,44 +5784,44 @@
         <v>2</v>
       </c>
       <c r="B4" s="373"/>
-      <c r="C4" s="420" t="str">
+      <c r="C4" s="423" t="str">
         <f>Sheet1!R10&amp;" "&amp;Sheet1!R11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D4" s="421"/>
-      <c r="E4" s="421"/>
-      <c r="F4" s="421"/>
-      <c r="G4" s="421"/>
-      <c r="H4" s="422"/>
+      <c r="D4" s="424"/>
+      <c r="E4" s="424"/>
+      <c r="F4" s="424"/>
+      <c r="G4" s="424"/>
+      <c r="H4" s="425"/>
       <c r="I4" s="374"/>
       <c r="J4" s="375" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="431"/>
-      <c r="L4" s="432"/>
-      <c r="M4" s="433"/>
+      <c r="K4" s="426"/>
+      <c r="L4" s="427"/>
+      <c r="M4" s="428"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="373" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="373"/>
-      <c r="C5" s="420"/>
-      <c r="D5" s="421"/>
-      <c r="E5" s="421"/>
-      <c r="F5" s="421"/>
-      <c r="G5" s="421"/>
-      <c r="H5" s="422"/>
+      <c r="C5" s="423"/>
+      <c r="D5" s="424"/>
+      <c r="E5" s="424"/>
+      <c r="F5" s="424"/>
+      <c r="G5" s="424"/>
+      <c r="H5" s="425"/>
       <c r="I5" s="374"/>
       <c r="J5" s="375" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="431">
+      <c r="K5" s="426">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="432"/>
-      <c r="M5" s="433"/>
+      <c r="L5" s="427"/>
+      <c r="M5" s="428"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="373" t="s">
@@ -5829,24 +5829,24 @@
       </c>
       <c r="B6" s="373"/>
       <c r="C6" s="373"/>
-      <c r="D6" s="420" t="str">
+      <c r="D6" s="423" t="str">
         <f>Sheet1!F16</f>
         <v/>
       </c>
-      <c r="E6" s="421"/>
-      <c r="F6" s="421"/>
-      <c r="G6" s="421"/>
-      <c r="H6" s="422"/>
+      <c r="E6" s="424"/>
+      <c r="F6" s="424"/>
+      <c r="G6" s="424"/>
+      <c r="H6" s="425"/>
       <c r="I6" s="374"/>
       <c r="J6" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="420" t="str">
+      <c r="K6" s="423" t="str">
         <f>Sheet1!F17</f>
         <v/>
       </c>
-      <c r="L6" s="421"/>
-      <c r="M6" s="422"/>
+      <c r="L6" s="424"/>
+      <c r="M6" s="425"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="373" t="s">
@@ -5854,24 +5854,24 @@
       </c>
       <c r="B7" s="373"/>
       <c r="C7" s="373"/>
-      <c r="D7" s="427" t="str">
+      <c r="D7" s="420" t="str">
         <f>Sheet1!V12</f>
         <v/>
       </c>
-      <c r="E7" s="428"/>
-      <c r="F7" s="428"/>
-      <c r="G7" s="428"/>
-      <c r="H7" s="429"/>
+      <c r="E7" s="421"/>
+      <c r="F7" s="421"/>
+      <c r="G7" s="421"/>
+      <c r="H7" s="422"/>
       <c r="I7" s="374"/>
       <c r="J7" s="375" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="420" t="str">
+      <c r="K7" s="423" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="L7" s="421"/>
-      <c r="M7" s="422"/>
+      <c r="L7" s="424"/>
+      <c r="M7" s="425"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="373" t="s">
@@ -5879,18 +5879,18 @@
       </c>
       <c r="B8" s="373"/>
       <c r="C8" s="373"/>
-      <c r="D8" s="427"/>
-      <c r="E8" s="428"/>
-      <c r="F8" s="428"/>
-      <c r="G8" s="428"/>
-      <c r="H8" s="429"/>
+      <c r="D8" s="420"/>
+      <c r="E8" s="421"/>
+      <c r="F8" s="421"/>
+      <c r="G8" s="421"/>
+      <c r="H8" s="422"/>
       <c r="I8" s="374"/>
       <c r="J8" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="420"/>
-      <c r="L8" s="421"/>
-      <c r="M8" s="422"/>
+      <c r="K8" s="423"/>
+      <c r="L8" s="424"/>
+      <c r="M8" s="425"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="373" t="s">
@@ -5898,18 +5898,18 @@
       </c>
       <c r="B9" s="373"/>
       <c r="C9" s="373"/>
-      <c r="D9" s="427"/>
-      <c r="E9" s="428"/>
-      <c r="F9" s="428"/>
-      <c r="G9" s="428"/>
-      <c r="H9" s="429"/>
+      <c r="D9" s="420"/>
+      <c r="E9" s="421"/>
+      <c r="F9" s="421"/>
+      <c r="G9" s="421"/>
+      <c r="H9" s="422"/>
       <c r="I9" s="374"/>
       <c r="J9" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="420"/>
-      <c r="L9" s="421"/>
-      <c r="M9" s="422"/>
+      <c r="K9" s="423"/>
+      <c r="L9" s="424"/>
+      <c r="M9" s="425"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="373" t="s">
@@ -5917,21 +5917,21 @@
       </c>
       <c r="B10" s="373"/>
       <c r="C10" s="373"/>
-      <c r="D10" s="427" t="str">
+      <c r="D10" s="420" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="E10" s="428"/>
-      <c r="F10" s="428"/>
-      <c r="G10" s="428"/>
-      <c r="H10" s="429"/>
+      <c r="E10" s="421"/>
+      <c r="F10" s="421"/>
+      <c r="G10" s="421"/>
+      <c r="H10" s="422"/>
       <c r="I10" s="374"/>
       <c r="J10" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="420"/>
-      <c r="L10" s="421"/>
-      <c r="M10" s="422"/>
+      <c r="K10" s="423"/>
+      <c r="L10" s="424"/>
+      <c r="M10" s="425"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="373" t="s">
@@ -5939,20 +5939,20 @@
       </c>
       <c r="B11" s="373"/>
       <c r="C11" s="373"/>
-      <c r="D11" s="427" t="s">
+      <c r="D11" s="420" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="428"/>
-      <c r="F11" s="428"/>
-      <c r="G11" s="428"/>
-      <c r="H11" s="429"/>
+      <c r="E11" s="421"/>
+      <c r="F11" s="421"/>
+      <c r="G11" s="421"/>
+      <c r="H11" s="422"/>
       <c r="I11" s="374"/>
       <c r="J11" s="375" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="420"/>
-      <c r="L11" s="421"/>
-      <c r="M11" s="422"/>
+      <c r="K11" s="423"/>
+      <c r="L11" s="424"/>
+      <c r="M11" s="425"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="373"/>
@@ -5971,21 +5971,21 @@
       <c r="N12" s="379"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="426" t="s">
+      <c r="A13" s="433" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="426"/>
-      <c r="C13" s="426"/>
-      <c r="D13" s="426"/>
-      <c r="E13" s="426"/>
-      <c r="F13" s="426"/>
-      <c r="G13" s="426"/>
-      <c r="H13" s="426"/>
-      <c r="I13" s="426"/>
-      <c r="J13" s="426"/>
-      <c r="K13" s="426"/>
-      <c r="L13" s="426"/>
-      <c r="M13" s="426"/>
+      <c r="B13" s="433"/>
+      <c r="C13" s="433"/>
+      <c r="D13" s="433"/>
+      <c r="E13" s="433"/>
+      <c r="F13" s="433"/>
+      <c r="G13" s="433"/>
+      <c r="H13" s="433"/>
+      <c r="I13" s="433"/>
+      <c r="J13" s="433"/>
+      <c r="K13" s="433"/>
+      <c r="L13" s="433"/>
+      <c r="M13" s="433"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M14" s="380" t="s">
@@ -6047,7 +6047,7 @@
       <c r="A18" s="381"/>
       <c r="B18" s="381"/>
       <c r="C18" s="384" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D18" s="381"/>
       <c r="E18" s="381"/>
@@ -6082,7 +6082,7 @@
       <c r="A20" s="381"/>
       <c r="B20" s="381"/>
       <c r="C20" s="384" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D20" s="381"/>
       <c r="E20" s="381"/>
@@ -6099,7 +6099,7 @@
       <c r="A21" s="381"/>
       <c r="B21" s="381"/>
       <c r="C21" s="384" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D21" s="381"/>
       <c r="E21" s="381"/>
@@ -6434,19 +6434,19 @@
     <row r="41" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="373"/>
       <c r="B41" s="373"/>
-      <c r="C41" s="423" t="s">
+      <c r="C41" s="430" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="424"/>
-      <c r="E41" s="424"/>
-      <c r="F41" s="424"/>
-      <c r="G41" s="424"/>
-      <c r="H41" s="424"/>
-      <c r="I41" s="424"/>
-      <c r="J41" s="424"/>
-      <c r="K41" s="424"/>
-      <c r="L41" s="424"/>
-      <c r="M41" s="425"/>
+      <c r="D41" s="431"/>
+      <c r="E41" s="431"/>
+      <c r="F41" s="431"/>
+      <c r="G41" s="431"/>
+      <c r="H41" s="431"/>
+      <c r="I41" s="431"/>
+      <c r="J41" s="431"/>
+      <c r="K41" s="431"/>
+      <c r="L41" s="431"/>
+      <c r="M41" s="432"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="373" t="s">
@@ -6484,21 +6484,21 @@
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="419" t="s">
-        <v>505</v>
-      </c>
-      <c r="B45" s="419"/>
-      <c r="C45" s="419"/>
-      <c r="D45" s="419"/>
-      <c r="E45" s="419"/>
-      <c r="F45" s="419"/>
-      <c r="G45" s="419"/>
-      <c r="H45" s="419"/>
-      <c r="I45" s="419"/>
-      <c r="J45" s="419"/>
-      <c r="K45" s="419"/>
-      <c r="L45" s="419"/>
-      <c r="M45" s="419"/>
+      <c r="A45" s="429" t="s">
+        <v>504</v>
+      </c>
+      <c r="B45" s="429"/>
+      <c r="C45" s="429"/>
+      <c r="D45" s="429"/>
+      <c r="E45" s="429"/>
+      <c r="F45" s="429"/>
+      <c r="G45" s="429"/>
+      <c r="H45" s="429"/>
+      <c r="I45" s="429"/>
+      <c r="J45" s="429"/>
+      <c r="K45" s="429"/>
+      <c r="L45" s="429"/>
+      <c r="M45" s="429"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -6511,13 +6511,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="21">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
     <mergeCell ref="A45:M45"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
@@ -6532,6 +6525,13 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M18 JI18 TE18 ADA18 AMW18 AWS18 BGO18 BQK18 CAG18 CKC18 CTY18 DDU18 DNQ18 DXM18 EHI18 ERE18 FBA18 FKW18 FUS18 GEO18 GOK18 GYG18 HIC18 HRY18 IBU18 ILQ18 IVM18 JFI18 JPE18 JZA18 KIW18 KSS18 LCO18 LMK18 LWG18 MGC18 MPY18 MZU18 NJQ18 NTM18 ODI18 ONE18 OXA18 PGW18 PQS18 QAO18 QKK18 QUG18 REC18 RNY18 RXU18 SHQ18 SRM18 TBI18 TLE18 TVA18 UEW18 UOS18 UYO18 VIK18 VSG18 WCC18 WLY18 WVU18 M65554 JI65554 TE65554 ADA65554 AMW65554 AWS65554 BGO65554 BQK65554 CAG65554 CKC65554 CTY65554 DDU65554 DNQ65554 DXM65554 EHI65554 ERE65554 FBA65554 FKW65554 FUS65554 GEO65554 GOK65554 GYG65554 HIC65554 HRY65554 IBU65554 ILQ65554 IVM65554 JFI65554 JPE65554 JZA65554 KIW65554 KSS65554 LCO65554 LMK65554 LWG65554 MGC65554 MPY65554 MZU65554 NJQ65554 NTM65554 ODI65554 ONE65554 OXA65554 PGW65554 PQS65554 QAO65554 QKK65554 QUG65554 REC65554 RNY65554 RXU65554 SHQ65554 SRM65554 TBI65554 TLE65554 TVA65554 UEW65554 UOS65554 UYO65554 VIK65554 VSG65554 WCC65554 WLY65554 WVU65554 M131090 JI131090 TE131090 ADA131090 AMW131090 AWS131090 BGO131090 BQK131090 CAG131090 CKC131090 CTY131090 DDU131090 DNQ131090 DXM131090 EHI131090 ERE131090 FBA131090 FKW131090 FUS131090 GEO131090 GOK131090 GYG131090 HIC131090 HRY131090 IBU131090 ILQ131090 IVM131090 JFI131090 JPE131090 JZA131090 KIW131090 KSS131090 LCO131090 LMK131090 LWG131090 MGC131090 MPY131090 MZU131090 NJQ131090 NTM131090 ODI131090 ONE131090 OXA131090 PGW131090 PQS131090 QAO131090 QKK131090 QUG131090 REC131090 RNY131090 RXU131090 SHQ131090 SRM131090 TBI131090 TLE131090 TVA131090 UEW131090 UOS131090 UYO131090 VIK131090 VSG131090 WCC131090 WLY131090 WVU131090 M196626 JI196626 TE196626 ADA196626 AMW196626 AWS196626 BGO196626 BQK196626 CAG196626 CKC196626 CTY196626 DDU196626 DNQ196626 DXM196626 EHI196626 ERE196626 FBA196626 FKW196626 FUS196626 GEO196626 GOK196626 GYG196626 HIC196626 HRY196626 IBU196626 ILQ196626 IVM196626 JFI196626 JPE196626 JZA196626 KIW196626 KSS196626 LCO196626 LMK196626 LWG196626 MGC196626 MPY196626 MZU196626 NJQ196626 NTM196626 ODI196626 ONE196626 OXA196626 PGW196626 PQS196626 QAO196626 QKK196626 QUG196626 REC196626 RNY196626 RXU196626 SHQ196626 SRM196626 TBI196626 TLE196626 TVA196626 UEW196626 UOS196626 UYO196626 VIK196626 VSG196626 WCC196626 WLY196626 WVU196626 M262162 JI262162 TE262162 ADA262162 AMW262162 AWS262162 BGO262162 BQK262162 CAG262162 CKC262162 CTY262162 DDU262162 DNQ262162 DXM262162 EHI262162 ERE262162 FBA262162 FKW262162 FUS262162 GEO262162 GOK262162 GYG262162 HIC262162 HRY262162 IBU262162 ILQ262162 IVM262162 JFI262162 JPE262162 JZA262162 KIW262162 KSS262162 LCO262162 LMK262162 LWG262162 MGC262162 MPY262162 MZU262162 NJQ262162 NTM262162 ODI262162 ONE262162 OXA262162 PGW262162 PQS262162 QAO262162 QKK262162 QUG262162 REC262162 RNY262162 RXU262162 SHQ262162 SRM262162 TBI262162 TLE262162 TVA262162 UEW262162 UOS262162 UYO262162 VIK262162 VSG262162 WCC262162 WLY262162 WVU262162 M327698 JI327698 TE327698 ADA327698 AMW327698 AWS327698 BGO327698 BQK327698 CAG327698 CKC327698 CTY327698 DDU327698 DNQ327698 DXM327698 EHI327698 ERE327698 FBA327698 FKW327698 FUS327698 GEO327698 GOK327698 GYG327698 HIC327698 HRY327698 IBU327698 ILQ327698 IVM327698 JFI327698 JPE327698 JZA327698 KIW327698 KSS327698 LCO327698 LMK327698 LWG327698 MGC327698 MPY327698 MZU327698 NJQ327698 NTM327698 ODI327698 ONE327698 OXA327698 PGW327698 PQS327698 QAO327698 QKK327698 QUG327698 REC327698 RNY327698 RXU327698 SHQ327698 SRM327698 TBI327698 TLE327698 TVA327698 UEW327698 UOS327698 UYO327698 VIK327698 VSG327698 WCC327698 WLY327698 WVU327698 M393234 JI393234 TE393234 ADA393234 AMW393234 AWS393234 BGO393234 BQK393234 CAG393234 CKC393234 CTY393234 DDU393234 DNQ393234 DXM393234 EHI393234 ERE393234 FBA393234 FKW393234 FUS393234 GEO393234 GOK393234 GYG393234 HIC393234 HRY393234 IBU393234 ILQ393234 IVM393234 JFI393234 JPE393234 JZA393234 KIW393234 KSS393234 LCO393234 LMK393234 LWG393234 MGC393234 MPY393234 MZU393234 NJQ393234 NTM393234 ODI393234 ONE393234 OXA393234 PGW393234 PQS393234 QAO393234 QKK393234 QUG393234 REC393234 RNY393234 RXU393234 SHQ393234 SRM393234 TBI393234 TLE393234 TVA393234 UEW393234 UOS393234 UYO393234 VIK393234 VSG393234 WCC393234 WLY393234 WVU393234 M458770 JI458770 TE458770 ADA458770 AMW458770 AWS458770 BGO458770 BQK458770 CAG458770 CKC458770 CTY458770 DDU458770 DNQ458770 DXM458770 EHI458770 ERE458770 FBA458770 FKW458770 FUS458770 GEO458770 GOK458770 GYG458770 HIC458770 HRY458770 IBU458770 ILQ458770 IVM458770 JFI458770 JPE458770 JZA458770 KIW458770 KSS458770 LCO458770 LMK458770 LWG458770 MGC458770 MPY458770 MZU458770 NJQ458770 NTM458770 ODI458770 ONE458770 OXA458770 PGW458770 PQS458770 QAO458770 QKK458770 QUG458770 REC458770 RNY458770 RXU458770 SHQ458770 SRM458770 TBI458770 TLE458770 TVA458770 UEW458770 UOS458770 UYO458770 VIK458770 VSG458770 WCC458770 WLY458770 WVU458770 M524306 JI524306 TE524306 ADA524306 AMW524306 AWS524306 BGO524306 BQK524306 CAG524306 CKC524306 CTY524306 DDU524306 DNQ524306 DXM524306 EHI524306 ERE524306 FBA524306 FKW524306 FUS524306 GEO524306 GOK524306 GYG524306 HIC524306 HRY524306 IBU524306 ILQ524306 IVM524306 JFI524306 JPE524306 JZA524306 KIW524306 KSS524306 LCO524306 LMK524306 LWG524306 MGC524306 MPY524306 MZU524306 NJQ524306 NTM524306 ODI524306 ONE524306 OXA524306 PGW524306 PQS524306 QAO524306 QKK524306 QUG524306 REC524306 RNY524306 RXU524306 SHQ524306 SRM524306 TBI524306 TLE524306 TVA524306 UEW524306 UOS524306 UYO524306 VIK524306 VSG524306 WCC524306 WLY524306 WVU524306 M589842 JI589842 TE589842 ADA589842 AMW589842 AWS589842 BGO589842 BQK589842 CAG589842 CKC589842 CTY589842 DDU589842 DNQ589842 DXM589842 EHI589842 ERE589842 FBA589842 FKW589842 FUS589842 GEO589842 GOK589842 GYG589842 HIC589842 HRY589842 IBU589842 ILQ589842 IVM589842 JFI589842 JPE589842 JZA589842 KIW589842 KSS589842 LCO589842 LMK589842 LWG589842 MGC589842 MPY589842 MZU589842 NJQ589842 NTM589842 ODI589842 ONE589842 OXA589842 PGW589842 PQS589842 QAO589842 QKK589842 QUG589842 REC589842 RNY589842 RXU589842 SHQ589842 SRM589842 TBI589842 TLE589842 TVA589842 UEW589842 UOS589842 UYO589842 VIK589842 VSG589842 WCC589842 WLY589842 WVU589842 M655378 JI655378 TE655378 ADA655378 AMW655378 AWS655378 BGO655378 BQK655378 CAG655378 CKC655378 CTY655378 DDU655378 DNQ655378 DXM655378 EHI655378 ERE655378 FBA655378 FKW655378 FUS655378 GEO655378 GOK655378 GYG655378 HIC655378 HRY655378 IBU655378 ILQ655378 IVM655378 JFI655378 JPE655378 JZA655378 KIW655378 KSS655378 LCO655378 LMK655378 LWG655378 MGC655378 MPY655378 MZU655378 NJQ655378 NTM655378 ODI655378 ONE655378 OXA655378 PGW655378 PQS655378 QAO655378 QKK655378 QUG655378 REC655378 RNY655378 RXU655378 SHQ655378 SRM655378 TBI655378 TLE655378 TVA655378 UEW655378 UOS655378 UYO655378 VIK655378 VSG655378 WCC655378 WLY655378 WVU655378 M720914 JI720914 TE720914 ADA720914 AMW720914 AWS720914 BGO720914 BQK720914 CAG720914 CKC720914 CTY720914 DDU720914 DNQ720914 DXM720914 EHI720914 ERE720914 FBA720914 FKW720914 FUS720914 GEO720914 GOK720914 GYG720914 HIC720914 HRY720914 IBU720914 ILQ720914 IVM720914 JFI720914 JPE720914 JZA720914 KIW720914 KSS720914 LCO720914 LMK720914 LWG720914 MGC720914 MPY720914 MZU720914 NJQ720914 NTM720914 ODI720914 ONE720914 OXA720914 PGW720914 PQS720914 QAO720914 QKK720914 QUG720914 REC720914 RNY720914 RXU720914 SHQ720914 SRM720914 TBI720914 TLE720914 TVA720914 UEW720914 UOS720914 UYO720914 VIK720914 VSG720914 WCC720914 WLY720914 WVU720914 M786450 JI786450 TE786450 ADA786450 AMW786450 AWS786450 BGO786450 BQK786450 CAG786450 CKC786450 CTY786450 DDU786450 DNQ786450 DXM786450 EHI786450 ERE786450 FBA786450 FKW786450 FUS786450 GEO786450 GOK786450 GYG786450 HIC786450 HRY786450 IBU786450 ILQ786450 IVM786450 JFI786450 JPE786450 JZA786450 KIW786450 KSS786450 LCO786450 LMK786450 LWG786450 MGC786450 MPY786450 MZU786450 NJQ786450 NTM786450 ODI786450 ONE786450 OXA786450 PGW786450 PQS786450 QAO786450 QKK786450 QUG786450 REC786450 RNY786450 RXU786450 SHQ786450 SRM786450 TBI786450 TLE786450 TVA786450 UEW786450 UOS786450 UYO786450 VIK786450 VSG786450 WCC786450 WLY786450 WVU786450 M851986 JI851986 TE851986 ADA851986 AMW851986 AWS851986 BGO851986 BQK851986 CAG851986 CKC851986 CTY851986 DDU851986 DNQ851986 DXM851986 EHI851986 ERE851986 FBA851986 FKW851986 FUS851986 GEO851986 GOK851986 GYG851986 HIC851986 HRY851986 IBU851986 ILQ851986 IVM851986 JFI851986 JPE851986 JZA851986 KIW851986 KSS851986 LCO851986 LMK851986 LWG851986 MGC851986 MPY851986 MZU851986 NJQ851986 NTM851986 ODI851986 ONE851986 OXA851986 PGW851986 PQS851986 QAO851986 QKK851986 QUG851986 REC851986 RNY851986 RXU851986 SHQ851986 SRM851986 TBI851986 TLE851986 TVA851986 UEW851986 UOS851986 UYO851986 VIK851986 VSG851986 WCC851986 WLY851986 WVU851986 M917522 JI917522 TE917522 ADA917522 AMW917522 AWS917522 BGO917522 BQK917522 CAG917522 CKC917522 CTY917522 DDU917522 DNQ917522 DXM917522 EHI917522 ERE917522 FBA917522 FKW917522 FUS917522 GEO917522 GOK917522 GYG917522 HIC917522 HRY917522 IBU917522 ILQ917522 IVM917522 JFI917522 JPE917522 JZA917522 KIW917522 KSS917522 LCO917522 LMK917522 LWG917522 MGC917522 MPY917522 MZU917522 NJQ917522 NTM917522 ODI917522 ONE917522 OXA917522 PGW917522 PQS917522 QAO917522 QKK917522 QUG917522 REC917522 RNY917522 RXU917522 SHQ917522 SRM917522 TBI917522 TLE917522 TVA917522 UEW917522 UOS917522 UYO917522 VIK917522 VSG917522 WCC917522 WLY917522 WVU917522 M983058 JI983058 TE983058 ADA983058 AMW983058 AWS983058 BGO983058 BQK983058 CAG983058 CKC983058 CTY983058 DDU983058 DNQ983058 DXM983058 EHI983058 ERE983058 FBA983058 FKW983058 FUS983058 GEO983058 GOK983058 GYG983058 HIC983058 HRY983058 IBU983058 ILQ983058 IVM983058 JFI983058 JPE983058 JZA983058 KIW983058 KSS983058 LCO983058 LMK983058 LWG983058 MGC983058 MPY983058 MZU983058 NJQ983058 NTM983058 ODI983058 ONE983058 OXA983058 PGW983058 PQS983058 QAO983058 QKK983058 QUG983058 REC983058 RNY983058 RXU983058 SHQ983058 SRM983058 TBI983058 TLE983058 TVA983058 UEW983058 UOS983058 UYO983058 VIK983058 VSG983058 WCC983058 WLY983058 WVU983058 M20:M21 JI20:JI21 TE20:TE21 ADA20:ADA21 AMW20:AMW21 AWS20:AWS21 BGO20:BGO21 BQK20:BQK21 CAG20:CAG21 CKC20:CKC21 CTY20:CTY21 DDU20:DDU21 DNQ20:DNQ21 DXM20:DXM21 EHI20:EHI21 ERE20:ERE21 FBA20:FBA21 FKW20:FKW21 FUS20:FUS21 GEO20:GEO21 GOK20:GOK21 GYG20:GYG21 HIC20:HIC21 HRY20:HRY21 IBU20:IBU21 ILQ20:ILQ21 IVM20:IVM21 JFI20:JFI21 JPE20:JPE21 JZA20:JZA21 KIW20:KIW21 KSS20:KSS21 LCO20:LCO21 LMK20:LMK21 LWG20:LWG21 MGC20:MGC21 MPY20:MPY21 MZU20:MZU21 NJQ20:NJQ21 NTM20:NTM21 ODI20:ODI21 ONE20:ONE21 OXA20:OXA21 PGW20:PGW21 PQS20:PQS21 QAO20:QAO21 QKK20:QKK21 QUG20:QUG21 REC20:REC21 RNY20:RNY21 RXU20:RXU21 SHQ20:SHQ21 SRM20:SRM21 TBI20:TBI21 TLE20:TLE21 TVA20:TVA21 UEW20:UEW21 UOS20:UOS21 UYO20:UYO21 VIK20:VIK21 VSG20:VSG21 WCC20:WCC21 WLY20:WLY21 WVU20:WVU21 M65556:M65557 JI65556:JI65557 TE65556:TE65557 ADA65556:ADA65557 AMW65556:AMW65557 AWS65556:AWS65557 BGO65556:BGO65557 BQK65556:BQK65557 CAG65556:CAG65557 CKC65556:CKC65557 CTY65556:CTY65557 DDU65556:DDU65557 DNQ65556:DNQ65557 DXM65556:DXM65557 EHI65556:EHI65557 ERE65556:ERE65557 FBA65556:FBA65557 FKW65556:FKW65557 FUS65556:FUS65557 GEO65556:GEO65557 GOK65556:GOK65557 GYG65556:GYG65557 HIC65556:HIC65557 HRY65556:HRY65557 IBU65556:IBU65557 ILQ65556:ILQ65557 IVM65556:IVM65557 JFI65556:JFI65557 JPE65556:JPE65557 JZA65556:JZA65557 KIW65556:KIW65557 KSS65556:KSS65557 LCO65556:LCO65557 LMK65556:LMK65557 LWG65556:LWG65557 MGC65556:MGC65557 MPY65556:MPY65557 MZU65556:MZU65557 NJQ65556:NJQ65557 NTM65556:NTM65557 ODI65556:ODI65557 ONE65556:ONE65557 OXA65556:OXA65557 PGW65556:PGW65557 PQS65556:PQS65557 QAO65556:QAO65557 QKK65556:QKK65557 QUG65556:QUG65557 REC65556:REC65557 RNY65556:RNY65557 RXU65556:RXU65557 SHQ65556:SHQ65557 SRM65556:SRM65557 TBI65556:TBI65557 TLE65556:TLE65557 TVA65556:TVA65557 UEW65556:UEW65557 UOS65556:UOS65557 UYO65556:UYO65557 VIK65556:VIK65557 VSG65556:VSG65557 WCC65556:WCC65557 WLY65556:WLY65557 WVU65556:WVU65557 M131092:M131093 JI131092:JI131093 TE131092:TE131093 ADA131092:ADA131093 AMW131092:AMW131093 AWS131092:AWS131093 BGO131092:BGO131093 BQK131092:BQK131093 CAG131092:CAG131093 CKC131092:CKC131093 CTY131092:CTY131093 DDU131092:DDU131093 DNQ131092:DNQ131093 DXM131092:DXM131093 EHI131092:EHI131093 ERE131092:ERE131093 FBA131092:FBA131093 FKW131092:FKW131093 FUS131092:FUS131093 GEO131092:GEO131093 GOK131092:GOK131093 GYG131092:GYG131093 HIC131092:HIC131093 HRY131092:HRY131093 IBU131092:IBU131093 ILQ131092:ILQ131093 IVM131092:IVM131093 JFI131092:JFI131093 JPE131092:JPE131093 JZA131092:JZA131093 KIW131092:KIW131093 KSS131092:KSS131093 LCO131092:LCO131093 LMK131092:LMK131093 LWG131092:LWG131093 MGC131092:MGC131093 MPY131092:MPY131093 MZU131092:MZU131093 NJQ131092:NJQ131093 NTM131092:NTM131093 ODI131092:ODI131093 ONE131092:ONE131093 OXA131092:OXA131093 PGW131092:PGW131093 PQS131092:PQS131093 QAO131092:QAO131093 QKK131092:QKK131093 QUG131092:QUG131093 REC131092:REC131093 RNY131092:RNY131093 RXU131092:RXU131093 SHQ131092:SHQ131093 SRM131092:SRM131093 TBI131092:TBI131093 TLE131092:TLE131093 TVA131092:TVA131093 UEW131092:UEW131093 UOS131092:UOS131093 UYO131092:UYO131093 VIK131092:VIK131093 VSG131092:VSG131093 WCC131092:WCC131093 WLY131092:WLY131093 WVU131092:WVU131093 M196628:M196629 JI196628:JI196629 TE196628:TE196629 ADA196628:ADA196629 AMW196628:AMW196629 AWS196628:AWS196629 BGO196628:BGO196629 BQK196628:BQK196629 CAG196628:CAG196629 CKC196628:CKC196629 CTY196628:CTY196629 DDU196628:DDU196629 DNQ196628:DNQ196629 DXM196628:DXM196629 EHI196628:EHI196629 ERE196628:ERE196629 FBA196628:FBA196629 FKW196628:FKW196629 FUS196628:FUS196629 GEO196628:GEO196629 GOK196628:GOK196629 GYG196628:GYG196629 HIC196628:HIC196629 HRY196628:HRY196629 IBU196628:IBU196629 ILQ196628:ILQ196629 IVM196628:IVM196629 JFI196628:JFI196629 JPE196628:JPE196629 JZA196628:JZA196629 KIW196628:KIW196629 KSS196628:KSS196629 LCO196628:LCO196629 LMK196628:LMK196629 LWG196628:LWG196629 MGC196628:MGC196629 MPY196628:MPY196629 MZU196628:MZU196629 NJQ196628:NJQ196629 NTM196628:NTM196629 ODI196628:ODI196629 ONE196628:ONE196629 OXA196628:OXA196629 PGW196628:PGW196629 PQS196628:PQS196629 QAO196628:QAO196629 QKK196628:QKK196629 QUG196628:QUG196629 REC196628:REC196629 RNY196628:RNY196629 RXU196628:RXU196629 SHQ196628:SHQ196629 SRM196628:SRM196629 TBI196628:TBI196629 TLE196628:TLE196629 TVA196628:TVA196629 UEW196628:UEW196629 UOS196628:UOS196629 UYO196628:UYO196629 VIK196628:VIK196629 VSG196628:VSG196629 WCC196628:WCC196629 WLY196628:WLY196629 WVU196628:WVU196629 M262164:M262165 JI262164:JI262165 TE262164:TE262165 ADA262164:ADA262165 AMW262164:AMW262165 AWS262164:AWS262165 BGO262164:BGO262165 BQK262164:BQK262165 CAG262164:CAG262165 CKC262164:CKC262165 CTY262164:CTY262165 DDU262164:DDU262165 DNQ262164:DNQ262165 DXM262164:DXM262165 EHI262164:EHI262165 ERE262164:ERE262165 FBA262164:FBA262165 FKW262164:FKW262165 FUS262164:FUS262165 GEO262164:GEO262165 GOK262164:GOK262165 GYG262164:GYG262165 HIC262164:HIC262165 HRY262164:HRY262165 IBU262164:IBU262165 ILQ262164:ILQ262165 IVM262164:IVM262165 JFI262164:JFI262165 JPE262164:JPE262165 JZA262164:JZA262165 KIW262164:KIW262165 KSS262164:KSS262165 LCO262164:LCO262165 LMK262164:LMK262165 LWG262164:LWG262165 MGC262164:MGC262165 MPY262164:MPY262165 MZU262164:MZU262165 NJQ262164:NJQ262165 NTM262164:NTM262165 ODI262164:ODI262165 ONE262164:ONE262165 OXA262164:OXA262165 PGW262164:PGW262165 PQS262164:PQS262165 QAO262164:QAO262165 QKK262164:QKK262165 QUG262164:QUG262165 REC262164:REC262165 RNY262164:RNY262165 RXU262164:RXU262165 SHQ262164:SHQ262165 SRM262164:SRM262165 TBI262164:TBI262165 TLE262164:TLE262165 TVA262164:TVA262165 UEW262164:UEW262165 UOS262164:UOS262165 UYO262164:UYO262165 VIK262164:VIK262165 VSG262164:VSG262165 WCC262164:WCC262165 WLY262164:WLY262165 WVU262164:WVU262165 M327700:M327701 JI327700:JI327701 TE327700:TE327701 ADA327700:ADA327701 AMW327700:AMW327701 AWS327700:AWS327701 BGO327700:BGO327701 BQK327700:BQK327701 CAG327700:CAG327701 CKC327700:CKC327701 CTY327700:CTY327701 DDU327700:DDU327701 DNQ327700:DNQ327701 DXM327700:DXM327701 EHI327700:EHI327701 ERE327700:ERE327701 FBA327700:FBA327701 FKW327700:FKW327701 FUS327700:FUS327701 GEO327700:GEO327701 GOK327700:GOK327701 GYG327700:GYG327701 HIC327700:HIC327701 HRY327700:HRY327701 IBU327700:IBU327701 ILQ327700:ILQ327701 IVM327700:IVM327701 JFI327700:JFI327701 JPE327700:JPE327701 JZA327700:JZA327701 KIW327700:KIW327701 KSS327700:KSS327701 LCO327700:LCO327701 LMK327700:LMK327701 LWG327700:LWG327701 MGC327700:MGC327701 MPY327700:MPY327701 MZU327700:MZU327701 NJQ327700:NJQ327701 NTM327700:NTM327701 ODI327700:ODI327701 ONE327700:ONE327701 OXA327700:OXA327701 PGW327700:PGW327701 PQS327700:PQS327701 QAO327700:QAO327701 QKK327700:QKK327701 QUG327700:QUG327701 REC327700:REC327701 RNY327700:RNY327701 RXU327700:RXU327701 SHQ327700:SHQ327701 SRM327700:SRM327701 TBI327700:TBI327701 TLE327700:TLE327701 TVA327700:TVA327701 UEW327700:UEW327701 UOS327700:UOS327701 UYO327700:UYO327701 VIK327700:VIK327701 VSG327700:VSG327701 WCC327700:WCC327701 WLY327700:WLY327701 WVU327700:WVU327701 M393236:M393237 JI393236:JI393237 TE393236:TE393237 ADA393236:ADA393237 AMW393236:AMW393237 AWS393236:AWS393237 BGO393236:BGO393237 BQK393236:BQK393237 CAG393236:CAG393237 CKC393236:CKC393237 CTY393236:CTY393237 DDU393236:DDU393237 DNQ393236:DNQ393237 DXM393236:DXM393237 EHI393236:EHI393237 ERE393236:ERE393237 FBA393236:FBA393237 FKW393236:FKW393237 FUS393236:FUS393237 GEO393236:GEO393237 GOK393236:GOK393237 GYG393236:GYG393237 HIC393236:HIC393237 HRY393236:HRY393237 IBU393236:IBU393237 ILQ393236:ILQ393237 IVM393236:IVM393237 JFI393236:JFI393237 JPE393236:JPE393237 JZA393236:JZA393237 KIW393236:KIW393237 KSS393236:KSS393237 LCO393236:LCO393237 LMK393236:LMK393237 LWG393236:LWG393237 MGC393236:MGC393237 MPY393236:MPY393237 MZU393236:MZU393237 NJQ393236:NJQ393237 NTM393236:NTM393237 ODI393236:ODI393237 ONE393236:ONE393237 OXA393236:OXA393237 PGW393236:PGW393237 PQS393236:PQS393237 QAO393236:QAO393237 QKK393236:QKK393237 QUG393236:QUG393237 REC393236:REC393237 RNY393236:RNY393237 RXU393236:RXU393237 SHQ393236:SHQ393237 SRM393236:SRM393237 TBI393236:TBI393237 TLE393236:TLE393237 TVA393236:TVA393237 UEW393236:UEW393237 UOS393236:UOS393237 UYO393236:UYO393237 VIK393236:VIK393237 VSG393236:VSG393237 WCC393236:WCC393237 WLY393236:WLY393237 WVU393236:WVU393237 M458772:M458773 JI458772:JI458773 TE458772:TE458773 ADA458772:ADA458773 AMW458772:AMW458773 AWS458772:AWS458773 BGO458772:BGO458773 BQK458772:BQK458773 CAG458772:CAG458773 CKC458772:CKC458773 CTY458772:CTY458773 DDU458772:DDU458773 DNQ458772:DNQ458773 DXM458772:DXM458773 EHI458772:EHI458773 ERE458772:ERE458773 FBA458772:FBA458773 FKW458772:FKW458773 FUS458772:FUS458773 GEO458772:GEO458773 GOK458772:GOK458773 GYG458772:GYG458773 HIC458772:HIC458773 HRY458772:HRY458773 IBU458772:IBU458773 ILQ458772:ILQ458773 IVM458772:IVM458773 JFI458772:JFI458773 JPE458772:JPE458773 JZA458772:JZA458773 KIW458772:KIW458773 KSS458772:KSS458773 LCO458772:LCO458773 LMK458772:LMK458773 LWG458772:LWG458773 MGC458772:MGC458773 MPY458772:MPY458773 MZU458772:MZU458773 NJQ458772:NJQ458773 NTM458772:NTM458773 ODI458772:ODI458773 ONE458772:ONE458773 OXA458772:OXA458773 PGW458772:PGW458773 PQS458772:PQS458773 QAO458772:QAO458773 QKK458772:QKK458773 QUG458772:QUG458773 REC458772:REC458773 RNY458772:RNY458773 RXU458772:RXU458773 SHQ458772:SHQ458773 SRM458772:SRM458773 TBI458772:TBI458773 TLE458772:TLE458773 TVA458772:TVA458773 UEW458772:UEW458773 UOS458772:UOS458773 UYO458772:UYO458773 VIK458772:VIK458773 VSG458772:VSG458773 WCC458772:WCC458773 WLY458772:WLY458773 WVU458772:WVU458773 M524308:M524309 JI524308:JI524309 TE524308:TE524309 ADA524308:ADA524309 AMW524308:AMW524309 AWS524308:AWS524309 BGO524308:BGO524309 BQK524308:BQK524309 CAG524308:CAG524309 CKC524308:CKC524309 CTY524308:CTY524309 DDU524308:DDU524309 DNQ524308:DNQ524309 DXM524308:DXM524309 EHI524308:EHI524309 ERE524308:ERE524309 FBA524308:FBA524309 FKW524308:FKW524309 FUS524308:FUS524309 GEO524308:GEO524309 GOK524308:GOK524309 GYG524308:GYG524309 HIC524308:HIC524309 HRY524308:HRY524309 IBU524308:IBU524309 ILQ524308:ILQ524309 IVM524308:IVM524309 JFI524308:JFI524309 JPE524308:JPE524309 JZA524308:JZA524309 KIW524308:KIW524309 KSS524308:KSS524309 LCO524308:LCO524309 LMK524308:LMK524309 LWG524308:LWG524309 MGC524308:MGC524309 MPY524308:MPY524309 MZU524308:MZU524309 NJQ524308:NJQ524309 NTM524308:NTM524309 ODI524308:ODI524309 ONE524308:ONE524309 OXA524308:OXA524309 PGW524308:PGW524309 PQS524308:PQS524309 QAO524308:QAO524309 QKK524308:QKK524309 QUG524308:QUG524309 REC524308:REC524309 RNY524308:RNY524309 RXU524308:RXU524309 SHQ524308:SHQ524309 SRM524308:SRM524309 TBI524308:TBI524309 TLE524308:TLE524309 TVA524308:TVA524309 UEW524308:UEW524309 UOS524308:UOS524309 UYO524308:UYO524309 VIK524308:VIK524309 VSG524308:VSG524309 WCC524308:WCC524309 WLY524308:WLY524309 WVU524308:WVU524309 M589844:M589845 JI589844:JI589845 TE589844:TE589845 ADA589844:ADA589845 AMW589844:AMW589845 AWS589844:AWS589845 BGO589844:BGO589845 BQK589844:BQK589845 CAG589844:CAG589845 CKC589844:CKC589845 CTY589844:CTY589845 DDU589844:DDU589845 DNQ589844:DNQ589845 DXM589844:DXM589845 EHI589844:EHI589845 ERE589844:ERE589845 FBA589844:FBA589845 FKW589844:FKW589845 FUS589844:FUS589845 GEO589844:GEO589845 GOK589844:GOK589845 GYG589844:GYG589845 HIC589844:HIC589845 HRY589844:HRY589845 IBU589844:IBU589845 ILQ589844:ILQ589845 IVM589844:IVM589845 JFI589844:JFI589845 JPE589844:JPE589845 JZA589844:JZA589845 KIW589844:KIW589845 KSS589844:KSS589845 LCO589844:LCO589845 LMK589844:LMK589845 LWG589844:LWG589845 MGC589844:MGC589845 MPY589844:MPY589845 MZU589844:MZU589845 NJQ589844:NJQ589845 NTM589844:NTM589845 ODI589844:ODI589845 ONE589844:ONE589845 OXA589844:OXA589845 PGW589844:PGW589845 PQS589844:PQS589845 QAO589844:QAO589845 QKK589844:QKK589845 QUG589844:QUG589845 REC589844:REC589845 RNY589844:RNY589845 RXU589844:RXU589845 SHQ589844:SHQ589845 SRM589844:SRM589845 TBI589844:TBI589845 TLE589844:TLE589845 TVA589844:TVA589845 UEW589844:UEW589845 UOS589844:UOS589845 UYO589844:UYO589845 VIK589844:VIK589845 VSG589844:VSG589845 WCC589844:WCC589845 WLY589844:WLY589845 WVU589844:WVU589845 M655380:M655381 JI655380:JI655381 TE655380:TE655381 ADA655380:ADA655381 AMW655380:AMW655381 AWS655380:AWS655381 BGO655380:BGO655381 BQK655380:BQK655381 CAG655380:CAG655381 CKC655380:CKC655381 CTY655380:CTY655381 DDU655380:DDU655381 DNQ655380:DNQ655381 DXM655380:DXM655381 EHI655380:EHI655381 ERE655380:ERE655381 FBA655380:FBA655381 FKW655380:FKW655381 FUS655380:FUS655381 GEO655380:GEO655381 GOK655380:GOK655381 GYG655380:GYG655381 HIC655380:HIC655381 HRY655380:HRY655381 IBU655380:IBU655381 ILQ655380:ILQ655381 IVM655380:IVM655381 JFI655380:JFI655381 JPE655380:JPE655381 JZA655380:JZA655381 KIW655380:KIW655381 KSS655380:KSS655381 LCO655380:LCO655381 LMK655380:LMK655381 LWG655380:LWG655381 MGC655380:MGC655381 MPY655380:MPY655381 MZU655380:MZU655381 NJQ655380:NJQ655381 NTM655380:NTM655381 ODI655380:ODI655381 ONE655380:ONE655381 OXA655380:OXA655381 PGW655380:PGW655381 PQS655380:PQS655381 QAO655380:QAO655381 QKK655380:QKK655381 QUG655380:QUG655381 REC655380:REC655381 RNY655380:RNY655381 RXU655380:RXU655381 SHQ655380:SHQ655381 SRM655380:SRM655381 TBI655380:TBI655381 TLE655380:TLE655381 TVA655380:TVA655381 UEW655380:UEW655381 UOS655380:UOS655381 UYO655380:UYO655381 VIK655380:VIK655381 VSG655380:VSG655381 WCC655380:WCC655381 WLY655380:WLY655381 WVU655380:WVU655381 M720916:M720917 JI720916:JI720917 TE720916:TE720917 ADA720916:ADA720917 AMW720916:AMW720917 AWS720916:AWS720917 BGO720916:BGO720917 BQK720916:BQK720917 CAG720916:CAG720917 CKC720916:CKC720917 CTY720916:CTY720917 DDU720916:DDU720917 DNQ720916:DNQ720917 DXM720916:DXM720917 EHI720916:EHI720917 ERE720916:ERE720917 FBA720916:FBA720917 FKW720916:FKW720917 FUS720916:FUS720917 GEO720916:GEO720917 GOK720916:GOK720917 GYG720916:GYG720917 HIC720916:HIC720917 HRY720916:HRY720917 IBU720916:IBU720917 ILQ720916:ILQ720917 IVM720916:IVM720917 JFI720916:JFI720917 JPE720916:JPE720917 JZA720916:JZA720917 KIW720916:KIW720917 KSS720916:KSS720917 LCO720916:LCO720917 LMK720916:LMK720917 LWG720916:LWG720917 MGC720916:MGC720917 MPY720916:MPY720917 MZU720916:MZU720917 NJQ720916:NJQ720917 NTM720916:NTM720917 ODI720916:ODI720917 ONE720916:ONE720917 OXA720916:OXA720917 PGW720916:PGW720917 PQS720916:PQS720917 QAO720916:QAO720917 QKK720916:QKK720917 QUG720916:QUG720917 REC720916:REC720917 RNY720916:RNY720917 RXU720916:RXU720917 SHQ720916:SHQ720917 SRM720916:SRM720917 TBI720916:TBI720917 TLE720916:TLE720917 TVA720916:TVA720917 UEW720916:UEW720917 UOS720916:UOS720917 UYO720916:UYO720917 VIK720916:VIK720917 VSG720916:VSG720917 WCC720916:WCC720917 WLY720916:WLY720917 WVU720916:WVU720917 M786452:M786453 JI786452:JI786453 TE786452:TE786453 ADA786452:ADA786453 AMW786452:AMW786453 AWS786452:AWS786453 BGO786452:BGO786453 BQK786452:BQK786453 CAG786452:CAG786453 CKC786452:CKC786453 CTY786452:CTY786453 DDU786452:DDU786453 DNQ786452:DNQ786453 DXM786452:DXM786453 EHI786452:EHI786453 ERE786452:ERE786453 FBA786452:FBA786453 FKW786452:FKW786453 FUS786452:FUS786453 GEO786452:GEO786453 GOK786452:GOK786453 GYG786452:GYG786453 HIC786452:HIC786453 HRY786452:HRY786453 IBU786452:IBU786453 ILQ786452:ILQ786453 IVM786452:IVM786453 JFI786452:JFI786453 JPE786452:JPE786453 JZA786452:JZA786453 KIW786452:KIW786453 KSS786452:KSS786453 LCO786452:LCO786453 LMK786452:LMK786453 LWG786452:LWG786453 MGC786452:MGC786453 MPY786452:MPY786453 MZU786452:MZU786453 NJQ786452:NJQ786453 NTM786452:NTM786453 ODI786452:ODI786453 ONE786452:ONE786453 OXA786452:OXA786453 PGW786452:PGW786453 PQS786452:PQS786453 QAO786452:QAO786453 QKK786452:QKK786453 QUG786452:QUG786453 REC786452:REC786453 RNY786452:RNY786453 RXU786452:RXU786453 SHQ786452:SHQ786453 SRM786452:SRM786453 TBI786452:TBI786453 TLE786452:TLE786453 TVA786452:TVA786453 UEW786452:UEW786453 UOS786452:UOS786453 UYO786452:UYO786453 VIK786452:VIK786453 VSG786452:VSG786453 WCC786452:WCC786453 WLY786452:WLY786453 WVU786452:WVU786453 M851988:M851989 JI851988:JI851989 TE851988:TE851989 ADA851988:ADA851989 AMW851988:AMW851989 AWS851988:AWS851989 BGO851988:BGO851989 BQK851988:BQK851989 CAG851988:CAG851989 CKC851988:CKC851989 CTY851988:CTY851989 DDU851988:DDU851989 DNQ851988:DNQ851989 DXM851988:DXM851989 EHI851988:EHI851989 ERE851988:ERE851989 FBA851988:FBA851989 FKW851988:FKW851989 FUS851988:FUS851989 GEO851988:GEO851989 GOK851988:GOK851989 GYG851988:GYG851989 HIC851988:HIC851989 HRY851988:HRY851989 IBU851988:IBU851989 ILQ851988:ILQ851989 IVM851988:IVM851989 JFI851988:JFI851989 JPE851988:JPE851989 JZA851988:JZA851989 KIW851988:KIW851989 KSS851988:KSS851989 LCO851988:LCO851989 LMK851988:LMK851989 LWG851988:LWG851989 MGC851988:MGC851989 MPY851988:MPY851989 MZU851988:MZU851989 NJQ851988:NJQ851989 NTM851988:NTM851989 ODI851988:ODI851989 ONE851988:ONE851989 OXA851988:OXA851989 PGW851988:PGW851989 PQS851988:PQS851989 QAO851988:QAO851989 QKK851988:QKK851989 QUG851988:QUG851989 REC851988:REC851989 RNY851988:RNY851989 RXU851988:RXU851989 SHQ851988:SHQ851989 SRM851988:SRM851989 TBI851988:TBI851989 TLE851988:TLE851989 TVA851988:TVA851989 UEW851988:UEW851989 UOS851988:UOS851989 UYO851988:UYO851989 VIK851988:VIK851989 VSG851988:VSG851989 WCC851988:WCC851989 WLY851988:WLY851989 WVU851988:WVU851989 M917524:M917525 JI917524:JI917525 TE917524:TE917525 ADA917524:ADA917525 AMW917524:AMW917525 AWS917524:AWS917525 BGO917524:BGO917525 BQK917524:BQK917525 CAG917524:CAG917525 CKC917524:CKC917525 CTY917524:CTY917525 DDU917524:DDU917525 DNQ917524:DNQ917525 DXM917524:DXM917525 EHI917524:EHI917525 ERE917524:ERE917525 FBA917524:FBA917525 FKW917524:FKW917525 FUS917524:FUS917525 GEO917524:GEO917525 GOK917524:GOK917525 GYG917524:GYG917525 HIC917524:HIC917525 HRY917524:HRY917525 IBU917524:IBU917525 ILQ917524:ILQ917525 IVM917524:IVM917525 JFI917524:JFI917525 JPE917524:JPE917525 JZA917524:JZA917525 KIW917524:KIW917525 KSS917524:KSS917525 LCO917524:LCO917525 LMK917524:LMK917525 LWG917524:LWG917525 MGC917524:MGC917525 MPY917524:MPY917525 MZU917524:MZU917525 NJQ917524:NJQ917525 NTM917524:NTM917525 ODI917524:ODI917525 ONE917524:ONE917525 OXA917524:OXA917525 PGW917524:PGW917525 PQS917524:PQS917525 QAO917524:QAO917525 QKK917524:QKK917525 QUG917524:QUG917525 REC917524:REC917525 RNY917524:RNY917525 RXU917524:RXU917525 SHQ917524:SHQ917525 SRM917524:SRM917525 TBI917524:TBI917525 TLE917524:TLE917525 TVA917524:TVA917525 UEW917524:UEW917525 UOS917524:UOS917525 UYO917524:UYO917525 VIK917524:VIK917525 VSG917524:VSG917525 WCC917524:WCC917525 WLY917524:WLY917525 WVU917524:WVU917525 M983060:M983061 JI983060:JI983061 TE983060:TE983061 ADA983060:ADA983061 AMW983060:AMW983061 AWS983060:AWS983061 BGO983060:BGO983061 BQK983060:BQK983061 CAG983060:CAG983061 CKC983060:CKC983061 CTY983060:CTY983061 DDU983060:DDU983061 DNQ983060:DNQ983061 DXM983060:DXM983061 EHI983060:EHI983061 ERE983060:ERE983061 FBA983060:FBA983061 FKW983060:FKW983061 FUS983060:FUS983061 GEO983060:GEO983061 GOK983060:GOK983061 GYG983060:GYG983061 HIC983060:HIC983061 HRY983060:HRY983061 IBU983060:IBU983061 ILQ983060:ILQ983061 IVM983060:IVM983061 JFI983060:JFI983061 JPE983060:JPE983061 JZA983060:JZA983061 KIW983060:KIW983061 KSS983060:KSS983061 LCO983060:LCO983061 LMK983060:LMK983061 LWG983060:LWG983061 MGC983060:MGC983061 MPY983060:MPY983061 MZU983060:MZU983061 NJQ983060:NJQ983061 NTM983060:NTM983061 ODI983060:ODI983061 ONE983060:ONE983061 OXA983060:OXA983061 PGW983060:PGW983061 PQS983060:PQS983061 QAO983060:QAO983061 QKK983060:QKK983061 QUG983060:QUG983061 REC983060:REC983061 RNY983060:RNY983061 RXU983060:RXU983061 SHQ983060:SHQ983061 SRM983060:SRM983061 TBI983060:TBI983061 TLE983060:TLE983061 TVA983060:TVA983061 UEW983060:UEW983061 UOS983060:UOS983061 UYO983060:UYO983061 VIK983060:VIK983061 VSG983060:VSG983061 WCC983060:WCC983061 WLY983060:WLY983061 WVU983060:WVU983061">
@@ -6653,7 +6653,7 @@
     </row>
     <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="435" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B2" s="436"/>
       <c r="C2" s="436"/>
@@ -6709,13 +6709,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="401" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H9" s="402" t="s">
         <v>53</v>
       </c>
       <c r="J9" s="403" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6723,13 +6723,13 @@
         <v>55</v>
       </c>
       <c r="B10" s="401" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H10" s="402" t="s">
         <v>53</v>
       </c>
       <c r="J10" s="403" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6749,13 +6749,13 @@
         <v>59</v>
       </c>
       <c r="B12" s="401" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H12" s="402" t="s">
         <v>58</v>
       </c>
       <c r="J12" s="403" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6763,13 +6763,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="401" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H13" s="402" t="s">
         <v>58</v>
       </c>
       <c r="J13" s="403" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6777,13 +6777,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="405" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H14" s="402" t="s">
         <v>62</v>
       </c>
       <c r="J14" s="403" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6803,13 +6803,13 @@
         <v>65</v>
       </c>
       <c r="B16" s="401" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H16" s="402" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="403" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6842,13 +6842,13 @@
         <v>72</v>
       </c>
       <c r="B19" s="401" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H19" s="406" t="s">
         <v>69</v>
       </c>
       <c r="J19" s="403" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6856,13 +6856,13 @@
         <v>73</v>
       </c>
       <c r="B20" s="401" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H20" s="402" t="s">
         <v>69</v>
       </c>
       <c r="J20" s="403" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6870,7 +6870,7 @@
         <v>74</v>
       </c>
       <c r="B21" s="401" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H21" s="402" t="s">
         <v>75</v>
@@ -6954,7 +6954,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ338"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6983,7 +6985,7 @@
       <c r="L1" s="65"/>
       <c r="M1" s="66"/>
       <c r="O1" s="68" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P1" s="69"/>
       <c r="Q1" s="69"/>
@@ -7284,7 +7286,7 @@
         <v>108</v>
       </c>
       <c r="AQ9" s="82" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7296,19 +7298,19 @@
       <c r="E10" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="440" t="str">
+      <c r="F10" s="450" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="440"/>
+      <c r="G10" s="450"/>
       <c r="J10" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="440" t="str">
+      <c r="K10" s="450" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="440"/>
+      <c r="L10" s="450"/>
       <c r="M10" s="117"/>
       <c r="O10" s="77"/>
       <c r="Q10" s="83" t="s">
@@ -7372,19 +7374,19 @@
       <c r="E11" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="441" t="str">
+      <c r="F11" s="452" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="441"/>
+      <c r="G11" s="452"/>
       <c r="J11" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="K11" s="440" t="str">
+      <c r="K11" s="450" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="440"/>
+      <c r="L11" s="450"/>
       <c r="M11" s="117"/>
       <c r="O11" s="77"/>
       <c r="Q11" s="83" t="s">
@@ -7448,19 +7450,19 @@
       <c r="E12" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="441" t="str">
+      <c r="F12" s="452" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="441"/>
+      <c r="G12" s="452"/>
       <c r="J12" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="442" t="str">
+      <c r="K12" s="451" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="442"/>
+      <c r="L12" s="451"/>
       <c r="M12" s="117"/>
       <c r="O12" s="77"/>
       <c r="Q12" s="83" t="s">
@@ -7524,19 +7526,19 @@
       <c r="E13" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="441" t="str">
+      <c r="F13" s="452" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="441"/>
+      <c r="G13" s="452"/>
       <c r="J13" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="440" t="str">
+      <c r="K13" s="450" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="440"/>
+      <c r="L13" s="450"/>
       <c r="M13" s="117"/>
       <c r="O13" s="77"/>
       <c r="Q13" s="83" t="s">
@@ -7707,19 +7709,19 @@
       <c r="E16" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="440" t="str">
+      <c r="F16" s="450" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="440"/>
+      <c r="G16" s="450"/>
       <c r="J16" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="442" t="str">
+      <c r="K16" s="451" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="442"/>
+      <c r="L16" s="451"/>
       <c r="M16" s="117"/>
       <c r="O16" s="77"/>
       <c r="P16" s="124" t="s">
@@ -7770,19 +7772,19 @@
       <c r="E17" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="440" t="str">
+      <c r="F17" s="450" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="440"/>
+      <c r="G17" s="450"/>
       <c r="J17" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="440" t="str">
+      <c r="K17" s="450" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="440"/>
+      <c r="L17" s="450"/>
       <c r="M17" s="117"/>
       <c r="O17" s="77"/>
       <c r="Q17" s="83" t="s">
@@ -7846,19 +7848,19 @@
       <c r="E18" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="440" t="str">
+      <c r="F18" s="450" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="440"/>
+      <c r="G18" s="450"/>
       <c r="J18" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="440" t="str">
+      <c r="K18" s="450" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="440"/>
+      <c r="L18" s="450"/>
       <c r="M18" s="117"/>
       <c r="O18" s="77"/>
       <c r="Q18" s="83" t="s">
@@ -8021,19 +8023,19 @@
       <c r="E21" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="440" t="str">
+      <c r="F21" s="450" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="440"/>
+      <c r="G21" s="450"/>
       <c r="J21" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="440" t="str">
+      <c r="K21" s="450" t="str">
         <f>IF(V21="","",V21)</f>
         <v>Mo</v>
       </c>
-      <c r="L21" s="440"/>
+      <c r="L21" s="450"/>
       <c r="M21" s="117"/>
       <c r="O21" s="77"/>
       <c r="P21" s="124" t="s">
@@ -8094,17 +8096,17 @@
       <c r="E22" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="442" t="str">
+      <c r="F22" s="451" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="442"/>
+      <c r="G22" s="451"/>
       <c r="J22" s="83"/>
-      <c r="K22" s="440" t="str">
+      <c r="K22" s="450" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="440"/>
+      <c r="L22" s="450"/>
       <c r="M22" s="117"/>
       <c r="O22" s="77"/>
       <c r="Q22" s="83" t="s">
@@ -8168,11 +8170,11 @@
       <c r="J23" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="440" t="str">
+      <c r="K23" s="450" t="str">
         <f>IF(V24="","",V24)</f>
         <v>Mo</v>
       </c>
-      <c r="L23" s="440"/>
+      <c r="L23" s="450"/>
       <c r="M23" s="117"/>
       <c r="O23" s="77"/>
       <c r="Q23" s="83" t="s">
@@ -8230,16 +8232,16 @@
       <c r="E24" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="440" t="str">
+      <c r="F24" s="450" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="440"/>
-      <c r="K24" s="440" t="str">
+      <c r="G24" s="450"/>
+      <c r="K24" s="450" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="440"/>
+      <c r="L24" s="450"/>
       <c r="M24" s="117"/>
       <c r="O24" s="77"/>
       <c r="P24" s="124" t="s">
@@ -8300,11 +8302,11 @@
       <c r="E25" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="440" t="str">
+      <c r="F25" s="450" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="440"/>
+      <c r="G25" s="450"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
       <c r="L25" s="74"/>
@@ -8368,11 +8370,11 @@
       <c r="E26" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="440" t="str">
+      <c r="F26" s="450" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="440"/>
+      <c r="G26" s="450"/>
       <c r="I26" s="124" t="s">
         <v>133</v>
       </c>
@@ -8439,11 +8441,11 @@
       <c r="J27" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="440" t="str">
+      <c r="K27" s="450" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="440"/>
+      <c r="L27" s="450"/>
       <c r="M27" s="117"/>
       <c r="O27" s="77"/>
       <c r="Q27" s="83" t="s">
@@ -8471,20 +8473,20 @@
       <c r="E28" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="440" t="str">
+      <c r="F28" s="450" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="440"/>
+      <c r="G28" s="450"/>
       <c r="I28" s="74"/>
       <c r="J28" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="K28" s="440" t="str">
+      <c r="K28" s="450" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="440"/>
+      <c r="L28" s="450"/>
       <c r="M28" s="117"/>
       <c r="O28" s="77"/>
       <c r="P28" s="124" t="s">
@@ -8521,22 +8523,22 @@
       <c r="E29" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="440" t="str">
+      <c r="F29" s="450" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="440"/>
+      <c r="G29" s="450"/>
       <c r="I29" s="124" t="s">
         <v>137</v>
       </c>
       <c r="J29" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="K29" s="440" t="str">
+      <c r="K29" s="450" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="440"/>
+      <c r="L29" s="450"/>
       <c r="M29" s="117"/>
       <c r="O29" s="77"/>
       <c r="Q29" s="83" t="s">
@@ -8588,19 +8590,19 @@
       <c r="E30" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="440" t="str">
+      <c r="F30" s="450" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="440"/>
+      <c r="G30" s="450"/>
       <c r="J30" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="K30" s="440" t="str">
+      <c r="K30" s="450" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="440"/>
+      <c r="L30" s="450"/>
       <c r="M30" s="117"/>
       <c r="O30" s="77"/>
       <c r="Q30" s="83" t="s">
@@ -8816,21 +8818,21 @@
       <c r="C35" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="443" t="s">
+      <c r="D35" s="448" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="443"/>
-      <c r="F35" s="443"/>
-      <c r="G35" s="443" t="s">
+      <c r="E35" s="448"/>
+      <c r="F35" s="448"/>
+      <c r="G35" s="448" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="443"/>
-      <c r="I35" s="443"/>
-      <c r="J35" s="443" t="s">
+      <c r="H35" s="448"/>
+      <c r="I35" s="448"/>
+      <c r="J35" s="448" t="s">
         <v>144</v>
       </c>
-      <c r="K35" s="443"/>
-      <c r="L35" s="443"/>
+      <c r="K35" s="448"/>
+      <c r="L35" s="448"/>
       <c r="M35" s="117"/>
       <c r="O35" s="88"/>
       <c r="P35" s="89"/>
@@ -8877,11 +8879,11 @@
       <c r="D36" s="133"/>
       <c r="E36" s="134"/>
       <c r="F36" s="135"/>
-      <c r="G36" s="444" t="s">
+      <c r="G36" s="447" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="444"/>
-      <c r="I36" s="444"/>
+      <c r="H36" s="447"/>
+      <c r="I36" s="447"/>
       <c r="J36" s="133"/>
       <c r="K36" s="134"/>
       <c r="L36" s="135"/>
@@ -9172,11 +9174,11 @@
       <c r="M40" s="117"/>
       <c r="O40" s="147"/>
       <c r="P40" s="84" t="s">
-        <v>158</v>
+        <v>506</v>
       </c>
       <c r="Y40" s="79"/>
       <c r="AA40" s="83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB40" s="113"/>
       <c r="AC40" s="97" t="str">
@@ -9204,7 +9206,7 @@
       </c>
       <c r="B41" s="115"/>
       <c r="C41" s="148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" s="149" t="str">
         <f t="shared" si="5"/>
@@ -9245,11 +9247,11 @@
       <c r="M41" s="117"/>
       <c r="O41" s="147"/>
       <c r="P41" s="84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y41" s="79"/>
       <c r="AA41" s="83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB41" s="113"/>
       <c r="AC41" s="97" t="str">
@@ -9269,7 +9271,7 @@
       <c r="M42" s="117"/>
       <c r="O42" s="147"/>
       <c r="P42" s="84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y42" s="79"/>
       <c r="AA42" s="83" t="s">
@@ -9296,11 +9298,11 @@
       <c r="M43" s="117"/>
       <c r="O43" s="147"/>
       <c r="P43" s="84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y43" s="79"/>
       <c r="AA43" s="83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB43" s="113"/>
       <c r="AC43" s="97" t="str">
@@ -9328,12 +9330,12 @@
       </c>
       <c r="B44" s="115"/>
       <c r="C44" s="155" t="s">
+        <v>165</v>
+      </c>
+      <c r="L44" s="449" t="s">
         <v>166</v>
       </c>
-      <c r="L44" s="445" t="s">
-        <v>167</v>
-      </c>
-      <c r="M44" s="445"/>
+      <c r="M44" s="449"/>
       <c r="O44" s="77"/>
       <c r="Y44" s="79"/>
       <c r="AA44" s="124" t="s">
@@ -9356,7 +9358,7 @@
       </c>
       <c r="B45" s="115"/>
       <c r="C45" s="156" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E45" s="84" t="s">
         <v>155</v>
@@ -9371,7 +9373,7 @@
       </c>
       <c r="O45" s="77"/>
       <c r="T45" s="102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y45" s="79"/>
       <c r="AA45" s="91" t="s">
@@ -9394,10 +9396,10 @@
       </c>
       <c r="B46" s="115"/>
       <c r="C46" s="156" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E46" s="84" t="s">
-        <v>158</v>
+        <v>506</v>
       </c>
       <c r="L46" s="157" t="str">
         <f>IF(O40="","TBD",IF(O40=1,"YES",IF(O40=3,"NA","")))</f>
@@ -9409,11 +9411,11 @@
       </c>
       <c r="O46" s="147"/>
       <c r="P46" s="116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y46" s="79"/>
       <c r="AA46" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB46" s="113"/>
       <c r="AD46" s="114" t="str">
@@ -9437,10 +9439,10 @@
       </c>
       <c r="B47" s="115"/>
       <c r="C47" s="156" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E47" s="84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L47" s="157" t="str">
         <f>IF(O41="","TBD",IF(O41=1,"YES",IF(O41=3,"NA","")))</f>
@@ -9452,11 +9454,11 @@
       </c>
       <c r="O47" s="147"/>
       <c r="P47" s="116" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y47" s="79"/>
       <c r="AA47" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB47" s="113"/>
       <c r="AD47" s="114" t="str">
@@ -9480,7 +9482,7 @@
       </c>
       <c r="B48" s="115"/>
       <c r="E48" s="84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L48" s="157" t="str">
         <f>IF(O42="","TBD",IF(O42=1,"YES",IF(O42=3,"NA","")))</f>
@@ -9492,11 +9494,11 @@
       </c>
       <c r="O48" s="147"/>
       <c r="P48" s="116" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y48" s="79"/>
       <c r="AA48" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB48" s="113"/>
       <c r="AD48" s="114" t="str">
@@ -9520,7 +9522,7 @@
       </c>
       <c r="B49" s="115"/>
       <c r="E49" s="84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L49" s="157" t="str">
         <f>IF(O43="","TBD",IF(O43=1,"YES",IF(O43=3,"NA","")))</f>
@@ -9532,11 +9534,11 @@
       </c>
       <c r="O49" s="147"/>
       <c r="P49" s="116" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y49" s="79"/>
       <c r="AA49" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB49" s="113"/>
       <c r="AD49" s="114" t="str">
@@ -9560,16 +9562,16 @@
       </c>
       <c r="B50" s="115"/>
       <c r="H50" s="102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M50" s="117"/>
       <c r="O50" s="147"/>
       <c r="P50" s="116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y50" s="79"/>
       <c r="AA50" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB50" s="113"/>
       <c r="AD50" s="114" t="str">
@@ -9593,7 +9595,7 @@
       </c>
       <c r="B51" s="115"/>
       <c r="E51" s="116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L51" s="157" t="str">
         <f t="shared" ref="L51:L62" si="6">IF(O46="","TBD",IF(O46=1,"YES",IF(O46=3,"NA","")))</f>
@@ -9605,11 +9607,11 @@
       </c>
       <c r="O51" s="147"/>
       <c r="P51" s="116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y51" s="79"/>
       <c r="AA51" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB51" s="113"/>
       <c r="AD51" s="114" t="str">
@@ -9633,7 +9635,7 @@
       </c>
       <c r="B52" s="115"/>
       <c r="E52" s="116" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L52" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9647,11 +9649,11 @@
         <v>1</v>
       </c>
       <c r="P52" s="116" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y52" s="79"/>
       <c r="AA52" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB52" s="113"/>
       <c r="AD52" s="114" t="str">
@@ -9675,7 +9677,7 @@
       </c>
       <c r="B53" s="115"/>
       <c r="E53" s="116" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L53" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9687,11 +9689,11 @@
       </c>
       <c r="O53" s="147"/>
       <c r="P53" s="116" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y53" s="79"/>
       <c r="AA53" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB53" s="113"/>
       <c r="AD53" s="114" t="str">
@@ -9715,7 +9717,7 @@
       </c>
       <c r="B54" s="115"/>
       <c r="E54" s="116" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L54" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9727,11 +9729,11 @@
       </c>
       <c r="O54" s="147"/>
       <c r="P54" s="116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y54" s="79"/>
       <c r="AA54" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB54" s="113"/>
       <c r="AD54" s="114" t="str">
@@ -9755,7 +9757,7 @@
       </c>
       <c r="B55" s="115"/>
       <c r="E55" s="116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L55" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9767,11 +9769,11 @@
       </c>
       <c r="O55" s="147"/>
       <c r="P55" s="116" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y55" s="79"/>
       <c r="AA55" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB55" s="113"/>
       <c r="AD55" s="114" t="str">
@@ -9795,7 +9797,7 @@
       </c>
       <c r="B56" s="115"/>
       <c r="E56" s="116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L56" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9807,11 +9809,11 @@
       </c>
       <c r="O56" s="147"/>
       <c r="P56" s="116" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y56" s="79"/>
       <c r="AA56" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB56" s="113"/>
       <c r="AD56" s="114"/>
@@ -9832,7 +9834,7 @@
       </c>
       <c r="B57" s="115"/>
       <c r="E57" s="116" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L57" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9844,11 +9846,11 @@
       </c>
       <c r="O57" s="147"/>
       <c r="P57" s="116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y57" s="79"/>
       <c r="AA57" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB57" s="113"/>
       <c r="AD57" s="114"/>
@@ -9869,7 +9871,7 @@
       </c>
       <c r="B58" s="115"/>
       <c r="E58" s="116" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L58" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9882,7 +9884,7 @@
       <c r="O58" s="77"/>
       <c r="Y58" s="79"/>
       <c r="AA58" s="91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH58" s="152"/>
       <c r="AI58" s="152"/>
@@ -9901,7 +9903,7 @@
       </c>
       <c r="B59" s="115"/>
       <c r="E59" s="116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L59" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9914,7 +9916,7 @@
       <c r="O59" s="77"/>
       <c r="Y59" s="79"/>
       <c r="AA59" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB59" s="113"/>
       <c r="AD59" s="114" t="str">
@@ -9938,7 +9940,7 @@
       </c>
       <c r="B60" s="115"/>
       <c r="E60" s="116" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L60" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9950,11 +9952,11 @@
       </c>
       <c r="O60" s="77"/>
       <c r="T60" s="102" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y60" s="79"/>
       <c r="AA60" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB60" s="113"/>
       <c r="AD60" s="114" t="str">
@@ -9978,7 +9980,7 @@
       </c>
       <c r="B61" s="115"/>
       <c r="E61" s="116" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L61" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9990,11 +9992,11 @@
       </c>
       <c r="O61" s="147"/>
       <c r="P61" s="67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y61" s="79"/>
       <c r="AA61" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB61" s="113"/>
       <c r="AD61" s="114" t="str">
@@ -10018,7 +10020,7 @@
       </c>
       <c r="B62" s="115"/>
       <c r="E62" s="116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L62" s="157" t="str">
         <f t="shared" si="6"/>
@@ -10030,11 +10032,11 @@
       </c>
       <c r="O62" s="147"/>
       <c r="P62" s="67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y62" s="79"/>
       <c r="AA62" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB62" s="113"/>
       <c r="AD62" s="114" t="str">
@@ -10063,11 +10065,11 @@
         <v>3</v>
       </c>
       <c r="P63" s="67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y63" s="79"/>
       <c r="AA63" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB63" s="113"/>
       <c r="AD63" s="114" t="str">
@@ -10094,11 +10096,11 @@
       <c r="M64" s="158"/>
       <c r="O64" s="147"/>
       <c r="P64" s="67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y64" s="79"/>
       <c r="AA64" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB64" s="113"/>
       <c r="AD64" s="114" t="str">
@@ -10127,11 +10129,11 @@
         <v>3</v>
       </c>
       <c r="P65" s="67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y65" s="79"/>
       <c r="AA65" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB65" s="113"/>
       <c r="AD65" s="114" t="str">
@@ -10167,11 +10169,11 @@
       <c r="M66" s="161"/>
       <c r="O66" s="147"/>
       <c r="P66" s="67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y66" s="79"/>
       <c r="AA66" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB66" s="113"/>
       <c r="AD66" s="114" t="str">
@@ -10218,11 +10220,11 @@
         <v>3</v>
       </c>
       <c r="P67" s="67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y67" s="79"/>
       <c r="AA67" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB67" s="113"/>
       <c r="AD67" s="114" t="str">
@@ -10245,7 +10247,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="162" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="165" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -10269,11 +10271,11 @@
         <v>3</v>
       </c>
       <c r="P68" s="67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y68" s="79"/>
       <c r="AA68" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB68" s="113"/>
       <c r="AD68" s="114" t="str">
@@ -10303,11 +10305,11 @@
         <v>3</v>
       </c>
       <c r="P69" s="67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y69" s="79"/>
       <c r="AA69" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB69" s="113"/>
       <c r="AD69" s="114" t="str">
@@ -10328,11 +10330,11 @@
       </c>
       <c r="O70" s="147"/>
       <c r="P70" s="67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y70" s="79"/>
       <c r="AA70" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB70" s="113"/>
       <c r="AD70" s="114" t="str">
@@ -10346,14 +10348,14 @@
       </c>
       <c r="B71" s="106"/>
       <c r="C71" s="168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D71" s="107"/>
       <c r="E71" s="107"/>
       <c r="F71" s="107"/>
       <c r="G71" s="107"/>
       <c r="H71" s="169" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I71" s="107"/>
       <c r="J71" s="107"/>
@@ -10362,7 +10364,7 @@
       <c r="M71" s="109"/>
       <c r="O71" s="147"/>
       <c r="P71" s="67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y71" s="79"/>
       <c r="AA71" s="91" t="s">
@@ -10375,10 +10377,10 @@
       </c>
       <c r="B72" s="115"/>
       <c r="C72" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="67" t="s">
         <v>202</v>
-      </c>
-      <c r="E72" s="67" t="s">
-        <v>203</v>
       </c>
       <c r="L72" s="157" t="str">
         <f t="shared" ref="L72:L103" si="8">IF(O61="","TBD",IF(O61=1,"YES",IF(O61=3,"NA","")))</f>
@@ -10390,11 +10392,11 @@
       </c>
       <c r="O72" s="147"/>
       <c r="P72" s="67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y72" s="79"/>
       <c r="AA72" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB72" s="113"/>
       <c r="AD72" s="114" t="str">
@@ -10408,10 +10410,10 @@
       </c>
       <c r="B73" s="115"/>
       <c r="C73" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="E73" s="67" t="s">
         <v>205</v>
-      </c>
-      <c r="E73" s="67" t="s">
-        <v>206</v>
       </c>
       <c r="L73" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10423,11 +10425,11 @@
       </c>
       <c r="O73" s="147"/>
       <c r="P73" s="67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y73" s="79"/>
       <c r="AA73" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB73" s="113"/>
       <c r="AD73" s="114" t="str">
@@ -10441,10 +10443,10 @@
       </c>
       <c r="B74" s="115"/>
       <c r="C74" s="67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E74" s="67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L74" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10456,11 +10458,11 @@
       </c>
       <c r="O74" s="147"/>
       <c r="P74" s="67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y74" s="79"/>
       <c r="AA74" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB74" s="113"/>
       <c r="AD74" s="114" t="str">
@@ -10474,10 +10476,10 @@
       </c>
       <c r="B75" s="115"/>
       <c r="C75" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="E75" s="67" t="s">
         <v>210</v>
-      </c>
-      <c r="E75" s="67" t="s">
-        <v>211</v>
       </c>
       <c r="L75" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10489,11 +10491,11 @@
       </c>
       <c r="O75" s="147"/>
       <c r="P75" s="67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y75" s="79"/>
       <c r="AA75" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB75" s="113"/>
       <c r="AD75" s="114" t="str">
@@ -10507,10 +10509,10 @@
       </c>
       <c r="B76" s="115"/>
       <c r="C76" s="67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E76" s="67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L76" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10522,11 +10524,11 @@
       </c>
       <c r="O76" s="147"/>
       <c r="P76" s="67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y76" s="79"/>
       <c r="AA76" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB76" s="113"/>
       <c r="AD76" s="114" t="str">
@@ -10540,10 +10542,10 @@
       </c>
       <c r="B77" s="115"/>
       <c r="C77" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" s="67" t="s">
         <v>215</v>
-      </c>
-      <c r="E77" s="67" t="s">
-        <v>216</v>
       </c>
       <c r="L77" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10555,11 +10557,11 @@
       </c>
       <c r="O77" s="147"/>
       <c r="P77" s="67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y77" s="79"/>
       <c r="AA77" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB77" s="113"/>
       <c r="AD77" s="114" t="str">
@@ -10573,10 +10575,10 @@
       </c>
       <c r="B78" s="115"/>
       <c r="C78" s="67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E78" s="67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L78" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10588,11 +10590,11 @@
       </c>
       <c r="O78" s="147"/>
       <c r="P78" s="67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y78" s="79"/>
       <c r="AA78" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB78" s="113"/>
       <c r="AD78" s="114" t="str">
@@ -10606,10 +10608,10 @@
       </c>
       <c r="B79" s="115"/>
       <c r="C79" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="67" t="s">
         <v>220</v>
-      </c>
-      <c r="E79" s="67" t="s">
-        <v>221</v>
       </c>
       <c r="L79" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10621,11 +10623,11 @@
       </c>
       <c r="O79" s="147"/>
       <c r="P79" s="67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y79" s="79"/>
       <c r="AA79" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB79" s="113"/>
       <c r="AD79" s="114" t="str">
@@ -10639,10 +10641,10 @@
       </c>
       <c r="B80" s="115"/>
       <c r="C80" s="67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E80" s="67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L80" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10654,11 +10656,11 @@
       </c>
       <c r="O80" s="147"/>
       <c r="P80" s="67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y80" s="79"/>
       <c r="AA80" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB80" s="113"/>
       <c r="AD80" s="114" t="str">
@@ -10672,10 +10674,10 @@
       </c>
       <c r="B81" s="115"/>
       <c r="C81" s="67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E81" s="67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L81" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10687,11 +10689,11 @@
       </c>
       <c r="O81" s="147"/>
       <c r="P81" s="67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Y81" s="79"/>
       <c r="AA81" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB81" s="113"/>
       <c r="AD81" s="114" t="str">
@@ -10705,10 +10707,10 @@
       </c>
       <c r="B82" s="115"/>
       <c r="C82" s="67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E82" s="67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L82" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10720,11 +10722,11 @@
       </c>
       <c r="O82" s="147"/>
       <c r="P82" s="67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y82" s="79"/>
       <c r="AA82" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB82" s="113"/>
       <c r="AD82" s="114" t="str">
@@ -10738,10 +10740,10 @@
       </c>
       <c r="B83" s="115"/>
       <c r="C83" s="67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E83" s="67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L83" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10755,11 +10757,11 @@
         <v>3</v>
       </c>
       <c r="P83" s="67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y83" s="79"/>
       <c r="AA83" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB83" s="113"/>
       <c r="AD83" s="114" t="str">
@@ -10773,10 +10775,10 @@
       </c>
       <c r="B84" s="115"/>
       <c r="C84" s="67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E84" s="67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L84" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10790,7 +10792,7 @@
         <v>3</v>
       </c>
       <c r="P84" s="67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y84" s="79"/>
     </row>
@@ -10801,7 +10803,7 @@
       <c r="B85" s="115"/>
       <c r="C85" s="74"/>
       <c r="E85" s="67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L85" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10815,11 +10817,11 @@
         <v>3</v>
       </c>
       <c r="P85" s="67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y85" s="79"/>
       <c r="AA85" s="83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB85" s="113"/>
       <c r="AD85" s="170" t="e">
@@ -10833,10 +10835,10 @@
       </c>
       <c r="B86" s="115"/>
       <c r="C86" s="67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E86" s="67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L86" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10850,11 +10852,11 @@
         <v>3</v>
       </c>
       <c r="P86" s="67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y86" s="79"/>
       <c r="AA86" s="83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AB86" s="113"/>
       <c r="AD86" s="171" t="str">
@@ -10868,10 +10870,10 @@
       </c>
       <c r="B87" s="115"/>
       <c r="C87" s="67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E87" s="67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L87" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10883,11 +10885,11 @@
       </c>
       <c r="O87" s="147"/>
       <c r="P87" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y87" s="79"/>
       <c r="AA87" s="83" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AB87" s="113"/>
       <c r="AD87" s="170" t="str">
@@ -10901,10 +10903,10 @@
       </c>
       <c r="B88" s="115"/>
       <c r="C88" s="67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E88" s="67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L88" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10918,11 +10920,11 @@
         <v>3</v>
       </c>
       <c r="P88" s="67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y88" s="79"/>
       <c r="AA88" s="83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB88" s="113"/>
       <c r="AD88" s="170" t="str">
@@ -10936,10 +10938,10 @@
       </c>
       <c r="B89" s="115"/>
       <c r="C89" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E89" s="67" t="s">
         <v>243</v>
-      </c>
-      <c r="E89" s="67" t="s">
-        <v>244</v>
       </c>
       <c r="L89" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10953,11 +10955,11 @@
         <v>3</v>
       </c>
       <c r="P89" s="67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y89" s="79"/>
       <c r="AA89" s="83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB89" s="113"/>
       <c r="AD89" s="170" t="str">
@@ -10971,10 +10973,10 @@
       </c>
       <c r="B90" s="115"/>
       <c r="C90" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="E90" s="67" t="s">
         <v>247</v>
-      </c>
-      <c r="E90" s="67" t="s">
-        <v>248</v>
       </c>
       <c r="L90" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10988,11 +10990,11 @@
         <v>3</v>
       </c>
       <c r="P90" s="67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y90" s="79"/>
       <c r="AA90" s="83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB90" s="113"/>
       <c r="AD90" s="170" t="str">
@@ -11006,10 +11008,10 @@
       </c>
       <c r="B91" s="115"/>
       <c r="C91" s="67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E91" s="67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L91" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11021,11 +11023,11 @@
       </c>
       <c r="O91" s="147"/>
       <c r="P91" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y91" s="79"/>
       <c r="AA91" s="83" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB91" s="113"/>
       <c r="AD91" s="170" t="str">
@@ -11039,10 +11041,10 @@
       </c>
       <c r="B92" s="115"/>
       <c r="C92" s="67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E92" s="67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L92" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11054,7 +11056,7 @@
       </c>
       <c r="O92" s="147"/>
       <c r="P92" s="67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y92" s="79"/>
       <c r="AA92" s="74"/>
@@ -11068,10 +11070,10 @@
       </c>
       <c r="B93" s="115"/>
       <c r="C93" s="67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E93" s="67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L93" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11093,7 +11095,7 @@
       <c r="X93" s="89"/>
       <c r="Y93" s="90"/>
       <c r="AA93" s="124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11102,10 +11104,10 @@
       </c>
       <c r="B94" s="115"/>
       <c r="C94" s="67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E94" s="67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L94" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11116,7 +11118,7 @@
         <v/>
       </c>
       <c r="AA94" s="83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AB94" s="113"/>
       <c r="AD94" s="114">
@@ -11130,10 +11132,10 @@
       </c>
       <c r="B95" s="115"/>
       <c r="C95" s="67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E95" s="67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L95" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11144,10 +11146,10 @@
         <v/>
       </c>
       <c r="T95" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA95" s="83" t="s">
         <v>261</v>
-      </c>
-      <c r="AA95" s="83" t="s">
-        <v>262</v>
       </c>
       <c r="AB95" s="113"/>
       <c r="AD95" s="114">
@@ -11162,7 +11164,7 @@
       <c r="B96" s="115"/>
       <c r="C96" s="74"/>
       <c r="E96" s="67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L96" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11184,7 +11186,7 @@
       <c r="X96" s="69"/>
       <c r="Y96" s="70"/>
       <c r="AA96" s="83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB96" s="113"/>
       <c r="AD96" s="114">
@@ -11198,7 +11200,7 @@
       </c>
       <c r="B97" s="115"/>
       <c r="E97" s="67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L97" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11211,24 +11213,24 @@
       <c r="O97" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="P97" s="443" t="s">
+      <c r="P97" s="448" t="s">
         <v>142</v>
       </c>
-      <c r="Q97" s="443"/>
-      <c r="R97" s="443"/>
-      <c r="S97" s="443" t="s">
+      <c r="Q97" s="448"/>
+      <c r="R97" s="448"/>
+      <c r="S97" s="448" t="s">
         <v>143</v>
       </c>
-      <c r="T97" s="443"/>
-      <c r="U97" s="443"/>
-      <c r="V97" s="443" t="s">
+      <c r="T97" s="448"/>
+      <c r="U97" s="448"/>
+      <c r="V97" s="448" t="s">
         <v>144</v>
       </c>
-      <c r="W97" s="443"/>
-      <c r="X97" s="443"/>
+      <c r="W97" s="448"/>
+      <c r="X97" s="448"/>
       <c r="Y97" s="79"/>
       <c r="AA97" s="83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AB97" s="113"/>
       <c r="AD97" s="114" t="str">
@@ -11242,10 +11244,10 @@
       </c>
       <c r="B98" s="115"/>
       <c r="C98" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E98" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L98" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11261,17 +11263,17 @@
       <c r="P98" s="133"/>
       <c r="Q98" s="134"/>
       <c r="R98" s="135"/>
-      <c r="S98" s="444" t="s">
+      <c r="S98" s="447" t="s">
         <v>146</v>
       </c>
-      <c r="T98" s="444"/>
-      <c r="U98" s="444"/>
+      <c r="T98" s="447"/>
+      <c r="U98" s="447"/>
       <c r="V98" s="133"/>
       <c r="W98" s="134"/>
       <c r="X98" s="135"/>
       <c r="Y98" s="79"/>
       <c r="AA98" s="83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB98" s="113"/>
       <c r="AD98" s="114" t="str">
@@ -11285,10 +11287,10 @@
       </c>
       <c r="B99" s="115"/>
       <c r="C99" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L99" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11330,7 +11332,7 @@
       </c>
       <c r="Y99" s="79"/>
       <c r="AA99" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB99" s="113"/>
       <c r="AD99" s="114" t="str">
@@ -11344,10 +11346,10 @@
       </c>
       <c r="B100" s="115"/>
       <c r="C100" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="E100" s="67" t="s">
         <v>269</v>
-      </c>
-      <c r="E100" s="67" t="s">
-        <v>270</v>
       </c>
       <c r="L100" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11398,7 +11400,7 @@
       </c>
       <c r="Y100" s="79"/>
       <c r="AA100" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB100" s="113"/>
       <c r="AD100" s="114" t="str">
@@ -11412,10 +11414,10 @@
       </c>
       <c r="B101" s="115"/>
       <c r="C101" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E101" s="67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L101" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11466,7 +11468,7 @@
       </c>
       <c r="Y101" s="79"/>
       <c r="AA101" s="83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AB101" s="113"/>
       <c r="AD101" s="114" t="str">
@@ -11480,10 +11482,10 @@
       </c>
       <c r="B102" s="115"/>
       <c r="C102" s="67" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E102" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L102" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11534,7 +11536,7 @@
       </c>
       <c r="Y102" s="79"/>
       <c r="AA102" s="83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AB102" s="113"/>
       <c r="AD102" s="114">
@@ -11548,10 +11550,10 @@
       </c>
       <c r="B103" s="115"/>
       <c r="C103" s="67" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E103" s="67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L103" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11562,7 +11564,7 @@
         <v/>
       </c>
       <c r="O103" s="148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P103" s="178" t="str">
         <f>IF(P111&lt;&gt;"",P111,IF(AB55="","",AB55))</f>
@@ -11602,7 +11604,7 @@
       </c>
       <c r="Y103" s="79"/>
       <c r="AA103" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB103" s="113"/>
       <c r="AD103" s="114">
@@ -11629,7 +11631,7 @@
       <c r="O104" s="77"/>
       <c r="Y104" s="79"/>
       <c r="AA104" s="83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB104" s="113"/>
       <c r="AD104" s="114">
@@ -11644,24 +11646,24 @@
       <c r="O105" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="P105" s="443" t="s">
+      <c r="P105" s="448" t="s">
         <v>142</v>
       </c>
-      <c r="Q105" s="443"/>
-      <c r="R105" s="443"/>
-      <c r="S105" s="443" t="s">
+      <c r="Q105" s="448"/>
+      <c r="R105" s="448"/>
+      <c r="S105" s="448" t="s">
         <v>143</v>
       </c>
-      <c r="T105" s="443"/>
-      <c r="U105" s="443"/>
-      <c r="V105" s="443" t="s">
+      <c r="T105" s="448"/>
+      <c r="U105" s="448"/>
+      <c r="V105" s="448" t="s">
         <v>144</v>
       </c>
-      <c r="W105" s="443"/>
-      <c r="X105" s="443"/>
+      <c r="W105" s="448"/>
+      <c r="X105" s="448"/>
       <c r="Y105" s="79"/>
       <c r="AA105" s="83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AB105" s="113"/>
       <c r="AD105" s="114" t="str">
@@ -11679,17 +11681,17 @@
       <c r="P106" s="133"/>
       <c r="Q106" s="134"/>
       <c r="R106" s="135"/>
-      <c r="S106" s="444" t="s">
+      <c r="S106" s="447" t="s">
         <v>146</v>
       </c>
-      <c r="T106" s="444"/>
-      <c r="U106" s="444"/>
+      <c r="T106" s="447"/>
+      <c r="U106" s="447"/>
       <c r="V106" s="133"/>
       <c r="W106" s="134"/>
       <c r="X106" s="135"/>
       <c r="Y106" s="79"/>
       <c r="AA106" s="83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB106" s="113"/>
       <c r="AD106" s="114" t="str">
@@ -11733,7 +11735,7 @@
       </c>
       <c r="Y107" s="79"/>
       <c r="AA107" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB107" s="113"/>
       <c r="AD107" s="114" t="str">
@@ -11760,7 +11762,7 @@
       <c r="X108" s="183"/>
       <c r="Y108" s="79"/>
       <c r="AA108" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB108" s="113"/>
       <c r="AD108" s="114" t="str">
@@ -11787,7 +11789,7 @@
       <c r="X109" s="186"/>
       <c r="Y109" s="79"/>
       <c r="AA109" s="83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AB109" s="113"/>
       <c r="AD109" s="114" t="str">
@@ -11820,7 +11822,7 @@
       </c>
       <c r="E111" s="74"/>
       <c r="O111" s="187" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P111" s="188"/>
       <c r="Q111" s="189"/>
@@ -11858,7 +11860,7 @@
         <v>150</v>
       </c>
       <c r="AA113" s="91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AB113" s="96"/>
       <c r="AC113" s="97" t="str">
@@ -11876,7 +11878,7 @@
       </c>
       <c r="E114" s="74"/>
       <c r="O114" s="191" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P114" s="69"/>
       <c r="Q114" s="69"/>
@@ -11899,16 +11901,16 @@
       <c r="E115" s="74"/>
       <c r="O115" s="77"/>
       <c r="Q115" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="R115" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="R115" s="67" t="s">
+      <c r="S115" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="S115" s="67" t="s">
+      <c r="T115" s="67" t="s">
         <v>280</v>
-      </c>
-      <c r="T115" s="67" t="s">
-        <v>281</v>
       </c>
       <c r="Y115" s="79"/>
       <c r="AA115" s="83"/>
@@ -11929,7 +11931,7 @@
       <c r="E116" s="74"/>
       <c r="O116" s="77"/>
       <c r="P116" s="67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q116" s="192"/>
       <c r="R116" s="192"/>
@@ -11947,7 +11949,7 @@
       <c r="E117" s="74"/>
       <c r="O117" s="77"/>
       <c r="P117" s="67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q117" s="192"/>
       <c r="R117" s="192"/>
@@ -11972,10 +11974,10 @@
       <c r="E118" s="74"/>
       <c r="O118" s="77"/>
       <c r="P118" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q118" s="74" t="s">
         <v>284</v>
-      </c>
-      <c r="Q118" s="74" t="s">
-        <v>285</v>
       </c>
       <c r="Y118" s="79"/>
       <c r="AA118" s="83"/>
@@ -11990,7 +11992,7 @@
       <c r="O119" s="77"/>
       <c r="P119" s="74"/>
       <c r="Q119" s="74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y119" s="79"/>
       <c r="AA119" s="83"/>
@@ -12021,7 +12023,7 @@
       </c>
       <c r="E121" s="74"/>
       <c r="O121" s="193" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y121" s="79"/>
       <c r="AA121" s="83"/>
@@ -12042,13 +12044,13 @@
       <c r="E122" s="74"/>
       <c r="O122" s="77"/>
       <c r="P122" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q122" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="R122" s="82" t="s">
         <v>288</v>
-      </c>
-      <c r="Q122" s="82" t="s">
-        <v>278</v>
-      </c>
-      <c r="R122" s="82" t="s">
-        <v>289</v>
       </c>
       <c r="Y122" s="79"/>
       <c r="AA122" s="83"/>
@@ -12113,7 +12115,7 @@
         <v/>
       </c>
       <c r="S125" s="83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T125" s="196" t="str">
         <f>IF(OR(Q125="",Q126="",Q127="",Q128=""),"",AVERAGE(Q125:Q128))</f>
@@ -12145,7 +12147,7 @@
         <v/>
       </c>
       <c r="S126" s="83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T126" s="197" t="str">
         <f>IF(OR(Q125="",Q126="",Q127="",Q128=""),"",STDEV(Q125:Q128))</f>
@@ -12182,10 +12184,10 @@
         <v/>
       </c>
       <c r="T128" s="162" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U128" s="74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y128" s="79"/>
     </row>
@@ -12232,14 +12234,14 @@
       </c>
       <c r="O132" s="147"/>
       <c r="P132" s="67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S132" s="198" t="str">
         <f>IF(R123="","",IF(OR(R123&gt;0.2,R124&gt;0.2,R125&gt;0.2,R126&gt;0.2,R127&gt;0.2,R128&gt;0.2,R129&gt;0.2,R130&gt;0.2),"Fail","Pass"))</f>
         <v/>
       </c>
       <c r="T132" s="84" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y132" s="79"/>
     </row>
@@ -12260,7 +12262,7 @@
       <c r="M133" s="74"/>
       <c r="O133" s="147"/>
       <c r="P133" s="67" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y133" s="79"/>
     </row>
@@ -12309,7 +12311,7 @@
         <v>Eugene Mah</v>
       </c>
       <c r="O135" s="193" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R135" s="116"/>
       <c r="Y135" s="79"/>
@@ -12320,7 +12322,7 @@
       </c>
       <c r="B136" s="74"/>
       <c r="C136" s="162" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D136" s="165" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -12344,7 +12346,7 @@
       <c r="P136" s="83"/>
       <c r="Q136" s="152"/>
       <c r="R136" s="83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S136" s="192">
         <v>28</v>
@@ -12368,7 +12370,7 @@
         <v>130</v>
       </c>
       <c r="R137" s="83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S137" s="192"/>
       <c r="T137" s="152"/>
@@ -12393,7 +12395,7 @@
         <v>130</v>
       </c>
       <c r="R138" s="83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S138" s="192"/>
       <c r="T138" s="152"/>
@@ -12405,7 +12407,7 @@
       </c>
       <c r="B139" s="106"/>
       <c r="C139" s="108" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D139" s="107"/>
       <c r="E139" s="107"/>
@@ -12419,13 +12421,13 @@
       <c r="M139" s="109"/>
       <c r="O139" s="77"/>
       <c r="P139" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q139" s="118" t="s">
         <v>299</v>
       </c>
-      <c r="Q139" s="118" t="s">
+      <c r="R139" s="83" t="s">
         <v>300</v>
-      </c>
-      <c r="R139" s="83" t="s">
-        <v>301</v>
       </c>
       <c r="S139" s="192"/>
       <c r="T139" s="152"/>
@@ -12437,16 +12439,16 @@
       </c>
       <c r="B140" s="115"/>
       <c r="E140" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="F140" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="F140" s="67" t="s">
+      <c r="G140" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="G140" s="67" t="s">
+      <c r="H140" s="82" t="s">
         <v>280</v>
-      </c>
-      <c r="H140" s="82" t="s">
-        <v>281</v>
       </c>
       <c r="M140" s="117"/>
       <c r="O140" s="77"/>
@@ -12463,7 +12465,7 @@
       </c>
       <c r="B141" s="115"/>
       <c r="D141" s="67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E141" s="118" t="str">
         <f t="shared" ref="E141:H142" si="13">IF(Q116="","",Q116)</f>
@@ -12502,7 +12504,7 @@
       </c>
       <c r="B142" s="115"/>
       <c r="D142" s="67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E142" s="118" t="str">
         <f t="shared" si="13"/>
@@ -12521,7 +12523,7 @@
         <v/>
       </c>
       <c r="J142" s="83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K142" s="200" t="str">
         <f>IF(OR(F141="",F142=""),"",IF(AND(F141&gt;25,F142&lt;=45),"Pass","Fail"))</f>
@@ -12530,7 +12532,7 @@
       <c r="M142" s="117"/>
       <c r="O142" s="77"/>
       <c r="P142" s="201" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q142" s="202"/>
       <c r="R142" s="203"/>
@@ -12548,15 +12550,15 @@
       </c>
       <c r="B143" s="115"/>
       <c r="D143" s="167" t="s">
+        <v>283</v>
+      </c>
+      <c r="E143" s="74" t="s">
         <v>284</v>
-      </c>
-      <c r="E143" s="74" t="s">
-        <v>285</v>
       </c>
       <c r="M143" s="117"/>
       <c r="O143" s="77"/>
       <c r="P143" s="162" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q143" s="204"/>
       <c r="R143" s="203"/>
@@ -12575,7 +12577,7 @@
       <c r="B144" s="115"/>
       <c r="D144" s="74"/>
       <c r="E144" s="74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M144" s="117"/>
       <c r="O144" s="88"/>
@@ -12597,7 +12599,7 @@
       <c r="B145" s="115"/>
       <c r="M145" s="117"/>
       <c r="O145" s="193" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Y145" s="79"/>
     </row>
@@ -12607,14 +12609,14 @@
       </c>
       <c r="B146" s="115"/>
       <c r="C146" s="205" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M146" s="117"/>
       <c r="O146" s="147">
         <v>65</v>
       </c>
       <c r="P146" s="67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U146" s="82"/>
       <c r="Y146" s="79"/>
@@ -12625,17 +12627,17 @@
       </c>
       <c r="B147" s="115"/>
       <c r="D147" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="E147" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="F147" s="82" t="s">
         <v>288</v>
-      </c>
-      <c r="E147" s="82" t="s">
-        <v>278</v>
-      </c>
-      <c r="F147" s="82" t="s">
-        <v>289</v>
       </c>
       <c r="I147" s="74"/>
       <c r="J147" s="83" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K147" s="206" t="str">
         <f>IF(O132="","TBD",IF(O132=1,"YES",IF(O132=3,"NA","")))</f>
@@ -12648,7 +12650,7 @@
       <c r="M147" s="117"/>
       <c r="O147" s="77"/>
       <c r="P147" s="74" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q147" s="152"/>
       <c r="R147" s="152"/>
@@ -12678,7 +12680,7 @@
       </c>
       <c r="I148" s="74"/>
       <c r="J148" s="83" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K148" s="206" t="str">
         <f>IF(O133="","TBD",IF(O133=1,"YES",IF(O133=3,"NA","")))</f>
@@ -12691,7 +12693,7 @@
       <c r="M148" s="117"/>
       <c r="O148" s="77"/>
       <c r="R148" s="82" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S148" s="152"/>
       <c r="T148" s="152"/>
@@ -12718,7 +12720,7 @@
         <v/>
       </c>
       <c r="J149" s="83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K149" s="206" t="str">
         <f>IF(S132="","TBD",S132)</f>
@@ -12727,7 +12729,7 @@
       <c r="M149" s="117"/>
       <c r="O149" s="77"/>
       <c r="P149" s="83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q149" s="208"/>
       <c r="R149" s="209" t="str">
@@ -12759,7 +12761,7 @@
         <v/>
       </c>
       <c r="G150" s="83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H150" s="196" t="str">
         <f>IF(T125="","",T125)</f>
@@ -12768,7 +12770,7 @@
       <c r="M150" s="117"/>
       <c r="O150" s="77"/>
       <c r="P150" s="83" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q150" s="212"/>
       <c r="R150" s="213" t="str">
@@ -12800,7 +12802,7 @@
         <v/>
       </c>
       <c r="G151" s="83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H151" s="197" t="str">
         <f>IF(T126="","",T126)</f>
@@ -12809,7 +12811,7 @@
       <c r="M151" s="117"/>
       <c r="O151" s="77"/>
       <c r="P151" s="83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q151" s="212"/>
       <c r="R151" s="213" t="str">
@@ -12841,15 +12843,15 @@
         <v/>
       </c>
       <c r="G152" s="162" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H152" s="74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M152" s="117"/>
       <c r="O152" s="77"/>
       <c r="P152" s="83" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q152" s="214"/>
       <c r="R152" s="215" t="str">
@@ -12914,10 +12916,10 @@
       <c r="M154" s="117"/>
       <c r="O154" s="77"/>
       <c r="P154" s="162" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q154" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U154" s="116"/>
       <c r="V154" s="116"/>
@@ -12944,7 +12946,7 @@
       <c r="M155" s="117"/>
       <c r="O155" s="77"/>
       <c r="Q155" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U155" s="116"/>
       <c r="V155" s="116"/>
@@ -12970,7 +12972,7 @@
       <c r="M156" s="218"/>
       <c r="O156" s="147"/>
       <c r="P156" s="156" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q156" s="74"/>
       <c r="Y156" s="79"/>
@@ -12981,7 +12983,7 @@
       </c>
       <c r="B157" s="115"/>
       <c r="C157" s="205" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M157" s="117"/>
       <c r="O157" s="77"/>
@@ -13000,16 +13002,16 @@
       <c r="H158" s="152"/>
       <c r="M158" s="117"/>
       <c r="O158" s="193" t="s">
-        <v>317</v>
-      </c>
-      <c r="R158" s="446">
+        <v>316</v>
+      </c>
+      <c r="R158" s="444">
         <v>512</v>
       </c>
-      <c r="S158" s="446"/>
-      <c r="T158" s="446">
+      <c r="S158" s="444"/>
+      <c r="T158" s="444">
         <v>1024</v>
       </c>
-      <c r="U158" s="446"/>
+      <c r="U158" s="444"/>
       <c r="Y158" s="79"/>
     </row>
     <row r="159" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13032,16 +13034,16 @@
       <c r="P159" s="74"/>
       <c r="Q159" s="83"/>
       <c r="R159" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="S159" s="118" t="s">
         <v>318</v>
       </c>
-      <c r="S159" s="118" t="s">
-        <v>319</v>
-      </c>
       <c r="T159" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="U159" s="118" t="s">
         <v>318</v>
-      </c>
-      <c r="U159" s="118" t="s">
-        <v>319</v>
       </c>
       <c r="Y159" s="79"/>
     </row>
@@ -13065,10 +13067,10 @@
         <v>28</v>
       </c>
       <c r="P160" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q160" s="83" t="s">
         <v>320</v>
-      </c>
-      <c r="Q160" s="83" t="s">
-        <v>321</v>
       </c>
       <c r="R160" s="192"/>
       <c r="S160" s="192"/>
@@ -13082,7 +13084,7 @@
       </c>
       <c r="B161" s="115"/>
       <c r="D161" s="83" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E161" s="118" t="str">
         <f>IF(Q139="","",Q139)</f>
@@ -13099,7 +13101,7 @@
         <v>149</v>
       </c>
       <c r="Q161" s="83" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R161" s="219" t="str">
         <f>IF(AB88="","",AB88)</f>
@@ -13125,7 +13127,7 @@
       </c>
       <c r="B162" s="115"/>
       <c r="D162" s="83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E162" s="118">
         <f>IF(S136="","",S136)</f>
@@ -13138,7 +13140,7 @@
       <c r="O162" s="77"/>
       <c r="P162" s="74"/>
       <c r="Q162" s="83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R162" s="118" t="str">
         <f>IF(OR(R160="",R161=""),"",IF(R160&gt;=R161,"Pass","Fail"))</f>
@@ -13164,7 +13166,7 @@
       </c>
       <c r="B163" s="115"/>
       <c r="D163" s="83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E163" s="118" t="str">
         <f>IF(S137="","",S137)</f>
@@ -13177,10 +13179,10 @@
       <c r="O163" s="77"/>
       <c r="P163" s="74"/>
       <c r="Q163" s="220" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R163" s="221" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S163" s="74"/>
       <c r="Y163" s="79"/>
@@ -13191,7 +13193,7 @@
       </c>
       <c r="B164" s="115"/>
       <c r="D164" s="83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E164" s="118" t="str">
         <f>IF(S138="","",S138)</f>
@@ -13219,7 +13221,7 @@
       </c>
       <c r="B165" s="115"/>
       <c r="D165" s="83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E165" s="118" t="str">
         <f>IF(S139="","",S139)</f>
@@ -13230,7 +13232,7 @@
       <c r="H165" s="152"/>
       <c r="M165" s="117"/>
       <c r="O165" s="193" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y165" s="79"/>
     </row>
@@ -13240,20 +13242,20 @@
       </c>
       <c r="B166" s="115"/>
       <c r="D166" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E166" s="74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M166" s="117"/>
       <c r="O166" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="P166" s="194" t="s">
         <v>326</v>
       </c>
-      <c r="P166" s="194" t="s">
+      <c r="R166" s="83" t="s">
         <v>327</v>
-      </c>
-      <c r="R166" s="83" t="s">
-        <v>328</v>
       </c>
       <c r="S166" s="194"/>
       <c r="U166" s="83"/>
@@ -13286,7 +13288,7 @@
         <v>147</v>
       </c>
       <c r="U167" s="82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W167" s="74"/>
       <c r="Y167" s="79"/>
@@ -13311,25 +13313,25 @@
       <c r="M168" s="225"/>
       <c r="O168" s="77"/>
       <c r="P168" s="82" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q168" s="82" t="s">
         <v>104</v>
       </c>
       <c r="R168" s="82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S168" s="82" t="s">
         <v>149</v>
       </c>
       <c r="T168" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="U168" s="82" t="s">
         <v>331</v>
       </c>
-      <c r="U168" s="82" t="s">
+      <c r="V168" s="82" t="s">
         <v>332</v>
-      </c>
-      <c r="V168" s="82" t="s">
-        <v>333</v>
       </c>
       <c r="W168" s="74"/>
       <c r="Y168" s="79"/>
@@ -13406,7 +13408,7 @@
       </c>
       <c r="B171" s="115"/>
       <c r="C171" s="124" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M171" s="117"/>
       <c r="O171" s="77"/>
@@ -13472,7 +13474,7 @@
       <c r="B173" s="115"/>
       <c r="C173" s="74"/>
       <c r="D173" s="82" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E173" s="234"/>
       <c r="F173" s="234"/>
@@ -13508,7 +13510,7 @@
       </c>
       <c r="B174" s="115"/>
       <c r="C174" s="83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D174" s="235" t="str">
         <f>IF(R149="","",R149)</f>
@@ -13520,7 +13522,7 @@
         <v/>
       </c>
       <c r="G174" s="116" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I174" s="237"/>
       <c r="J174" s="237"/>
@@ -13547,7 +13549,7 @@
       </c>
       <c r="B175" s="115"/>
       <c r="C175" s="83" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D175" s="235" t="str">
         <f>IF(R150="","",R150)</f>
@@ -13555,10 +13557,10 @@
       </c>
       <c r="E175" s="74"/>
       <c r="F175" s="162" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G175" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M175" s="117"/>
       <c r="O175" s="77"/>
@@ -13583,7 +13585,7 @@
       </c>
       <c r="B176" s="115"/>
       <c r="C176" s="83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D176" s="235" t="str">
         <f>IF(R151="","",R151)</f>
@@ -13591,7 +13593,7 @@
       </c>
       <c r="E176" s="116"/>
       <c r="G176" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H176" s="116"/>
       <c r="I176" s="116"/>
@@ -13601,7 +13603,7 @@
       <c r="M176" s="117"/>
       <c r="O176" s="77"/>
       <c r="S176" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T176" s="238" t="str">
         <f>IF(T169="","",AVERAGE(T169:T175))</f>
@@ -13616,7 +13618,7 @@
       </c>
       <c r="B177" s="115"/>
       <c r="C177" s="83" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D177" s="235" t="str">
         <f>IF(R152="","",R152)</f>
@@ -13627,10 +13629,10 @@
       <c r="M177" s="117"/>
       <c r="O177" s="77"/>
       <c r="P177" s="162" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q177" s="74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S177" s="83"/>
       <c r="T177" s="153"/>
@@ -13643,7 +13645,7 @@
       </c>
       <c r="B178" s="115"/>
       <c r="C178" s="152" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D178" s="408" t="str">
         <f>IF(R153="","",R153)</f>
@@ -13663,16 +13665,16 @@
       </c>
       <c r="B179" s="115"/>
       <c r="C179" s="124" t="s">
-        <v>317</v>
-      </c>
-      <c r="E179" s="446">
+        <v>316</v>
+      </c>
+      <c r="E179" s="444">
         <v>512</v>
       </c>
-      <c r="F179" s="446"/>
-      <c r="G179" s="446">
+      <c r="F179" s="444"/>
+      <c r="G179" s="444">
         <v>1024</v>
       </c>
-      <c r="H179" s="446"/>
+      <c r="H179" s="444"/>
       <c r="M179" s="117"/>
       <c r="O179" s="77"/>
       <c r="Y179" s="79"/>
@@ -13684,20 +13686,20 @@
       <c r="B180" s="115"/>
       <c r="D180" s="83"/>
       <c r="E180" s="118" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F180" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="G180" s="118" t="s">
         <v>318</v>
       </c>
-      <c r="G180" s="118" t="s">
-        <v>319</v>
-      </c>
       <c r="H180" s="118" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M180" s="117"/>
       <c r="O180" s="193" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y180" s="79"/>
     </row>
@@ -13707,7 +13709,7 @@
       </c>
       <c r="B181" s="115"/>
       <c r="D181" s="83" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E181" s="118" t="str">
         <f>IF(R160="","",R160)</f>
@@ -13726,7 +13728,7 @@
         <v/>
       </c>
       <c r="I181" s="83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J181" s="200" t="str">
         <f>IF(AND(R162="",S162=""),"",IF(OR(R162="Fail",S162="Fail"),"Fail","Pass"))</f>
@@ -13734,21 +13736,21 @@
       </c>
       <c r="M181" s="117"/>
       <c r="O181" s="77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P181" s="195" t="str">
         <f>P166</f>
         <v>Auto-time</v>
       </c>
       <c r="R181" s="83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S181" s="195">
         <f>S166</f>
         <v>0</v>
       </c>
       <c r="T181" s="82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U181" s="74"/>
       <c r="Y181" s="79"/>
@@ -13760,7 +13762,7 @@
       <c r="B182" s="217"/>
       <c r="C182" s="89"/>
       <c r="D182" s="239" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E182" s="240" t="str">
         <f>R163</f>
@@ -13776,29 +13778,29 @@
       <c r="M182" s="218"/>
       <c r="O182" s="77"/>
       <c r="P182" s="82" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q182" s="82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R182" s="82" t="s">
         <v>149</v>
       </c>
       <c r="S182" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="T182" s="82" t="s">
         <v>331</v>
       </c>
-      <c r="T182" s="82" t="s">
-        <v>332</v>
-      </c>
       <c r="U182" s="82" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V182" s="74"/>
       <c r="X182" s="82" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y182" s="241" t="s">
         <v>338</v>
-      </c>
-      <c r="Y182" s="241" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="183" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13807,7 +13809,7 @@
       </c>
       <c r="B183" s="115"/>
       <c r="C183" s="124" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="74"/>
@@ -13839,14 +13841,14 @@
       </c>
       <c r="B184" s="73"/>
       <c r="C184" s="83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D184" s="195">
         <f>IF(Q194="","",Q194)</f>
         <v>28</v>
       </c>
       <c r="E184" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F184" s="195">
         <f>IF(Q195="","",Q195)</f>
@@ -13886,16 +13888,16 @@
       <c r="B185" s="115"/>
       <c r="C185" s="248"/>
       <c r="D185" s="249" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E185" s="249" t="s">
+        <v>340</v>
+      </c>
+      <c r="F185" s="249" t="s">
         <v>341</v>
       </c>
-      <c r="F185" s="249" t="s">
-        <v>342</v>
-      </c>
       <c r="G185" s="249" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H185" s="74"/>
       <c r="I185" s="74"/>
@@ -13929,7 +13931,7 @@
       </c>
       <c r="B186" s="115"/>
       <c r="C186" s="251" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D186" s="252" t="str">
         <f t="shared" ref="D186:F190" si="18">IF(Q197="","",Q197)</f>
@@ -13978,7 +13980,7 @@
       </c>
       <c r="B187" s="115"/>
       <c r="C187" s="254" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D187" s="255" t="str">
         <f t="shared" si="18"/>
@@ -14024,7 +14026,7 @@
       </c>
       <c r="B188" s="115"/>
       <c r="C188" s="254" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D188" s="255" t="str">
         <f t="shared" si="18"/>
@@ -14070,7 +14072,7 @@
       </c>
       <c r="B189" s="115"/>
       <c r="C189" s="254" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D189" s="255" t="str">
         <f t="shared" si="18"/>
@@ -14115,7 +14117,7 @@
       </c>
       <c r="B190" s="115"/>
       <c r="C190" s="254" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D190" s="255" t="str">
         <f t="shared" si="18"/>
@@ -14160,7 +14162,7 @@
       </c>
       <c r="B191" s="115"/>
       <c r="C191" s="254" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D191" s="261" t="str">
         <f>IF(Q202="","",Q202)</f>
@@ -14175,10 +14177,10 @@
       <c r="M191" s="117"/>
       <c r="O191" s="77"/>
       <c r="P191" s="220" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q191" s="221" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R191" s="74"/>
       <c r="S191" s="74"/>
@@ -14193,7 +14195,7 @@
       </c>
       <c r="B192" s="115"/>
       <c r="C192" s="254" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D192" s="262" t="str">
         <f>IF(Q203="","",Q203)</f>
@@ -14232,7 +14234,7 @@
       </c>
       <c r="M193" s="117"/>
       <c r="O193" s="264" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P193" s="265"/>
       <c r="Q193" s="265"/>
@@ -14251,10 +14253,10 @@
       </c>
       <c r="B194" s="115"/>
       <c r="C194" s="266" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D194" s="267" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E194" s="74"/>
       <c r="F194" s="74"/>
@@ -14267,7 +14269,7 @@
       <c r="M194" s="117"/>
       <c r="O194" s="268"/>
       <c r="P194" s="269" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q194" s="415">
         <f>S136</f>
@@ -14300,7 +14302,7 @@
       <c r="M195" s="76"/>
       <c r="O195" s="268"/>
       <c r="P195" s="269" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q195" s="415">
         <f>S137</f>
@@ -14334,16 +14336,16 @@
       <c r="O196" s="268"/>
       <c r="P196" s="248"/>
       <c r="Q196" s="249" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R196" s="249" t="s">
+        <v>340</v>
+      </c>
+      <c r="S196" s="249" t="s">
         <v>341</v>
       </c>
-      <c r="S196" s="249" t="s">
-        <v>342</v>
-      </c>
       <c r="T196" s="249" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U196" s="116"/>
       <c r="V196" s="116"/>
@@ -14369,7 +14371,7 @@
       <c r="M197" s="76"/>
       <c r="O197" s="268"/>
       <c r="P197" s="251" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q197" s="270"/>
       <c r="R197" s="270"/>
@@ -14402,7 +14404,7 @@
       <c r="M198" s="76"/>
       <c r="O198" s="268"/>
       <c r="P198" s="254" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q198" s="271"/>
       <c r="R198" s="271"/>
@@ -14438,7 +14440,7 @@
       <c r="M199" s="76"/>
       <c r="O199" s="268"/>
       <c r="P199" s="254" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q199" s="271"/>
       <c r="R199" s="271"/>
@@ -14474,7 +14476,7 @@
       <c r="M200" s="76"/>
       <c r="O200" s="268"/>
       <c r="P200" s="254" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q200" s="271"/>
       <c r="R200" s="271"/>
@@ -14510,7 +14512,7 @@
       <c r="M201" s="76"/>
       <c r="O201" s="268"/>
       <c r="P201" s="254" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q201" s="271"/>
       <c r="R201" s="271"/>
@@ -14546,7 +14548,7 @@
       <c r="M202" s="87"/>
       <c r="O202" s="268"/>
       <c r="P202" s="254" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q202" s="261" t="str">
         <f>IF(Q197="","",AVERAGE(Q197:Q201))</f>
@@ -14591,7 +14593,7 @@
       </c>
       <c r="O203" s="268"/>
       <c r="P203" s="254" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q203" s="262" t="str">
         <f>IF(Q197="","",STDEV(Q197:Q201))</f>
@@ -14614,7 +14616,7 @@
         <v>68</v>
       </c>
       <c r="C204" s="162" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D204" s="165" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -14659,10 +14661,10 @@
       </c>
       <c r="O205" s="272"/>
       <c r="P205" s="266" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q205" s="273" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R205" s="221"/>
       <c r="S205" s="221"/>
@@ -14702,7 +14704,7 @@
       </c>
       <c r="B207" s="106"/>
       <c r="C207" s="108" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D207" s="107"/>
       <c r="E207" s="107"/>
@@ -14732,14 +14734,14 @@
       </c>
       <c r="B208" s="115"/>
       <c r="C208" s="83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D208" s="276" t="str">
         <f>IF(P166="","",P166)</f>
         <v>Auto-time</v>
       </c>
       <c r="F208" s="83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G208" s="276" t="str">
         <f>IF(S166="","",S166)</f>
@@ -14770,12 +14772,12 @@
         <v>147</v>
       </c>
       <c r="I209" s="82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K209" s="74"/>
       <c r="M209" s="117"/>
       <c r="O209" s="191" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P209" s="69"/>
       <c r="Q209" s="69"/>
@@ -14797,35 +14799,35 @@
       </c>
       <c r="B210" s="115"/>
       <c r="D210" s="82" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E210" s="82" t="s">
         <v>104</v>
       </c>
       <c r="F210" s="82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G210" s="82" t="s">
         <v>149</v>
       </c>
       <c r="H210" s="82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I210" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="J210" s="82" t="s">
         <v>332</v>
-      </c>
-      <c r="J210" s="82" t="s">
-        <v>333</v>
       </c>
       <c r="K210" s="74"/>
       <c r="M210" s="117"/>
       <c r="O210" s="77"/>
       <c r="P210" s="83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q210" s="194"/>
       <c r="S210" s="83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T210" s="194">
         <v>28</v>
@@ -14874,13 +14876,13 @@
       <c r="M211" s="117"/>
       <c r="O211" s="77"/>
       <c r="P211" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q211" s="194" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S211" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T211" s="194"/>
       <c r="Y211" s="79"/>
@@ -14925,10 +14927,10 @@
       <c r="M212" s="117"/>
       <c r="O212" s="77"/>
       <c r="S212" s="82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U212" s="67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y212" s="79"/>
       <c r="AA212" s="82"/>
@@ -14975,19 +14977,19 @@
         <v>149</v>
       </c>
       <c r="R213" s="82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S213" s="82" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T213" s="82" t="s">
+        <v>355</v>
+      </c>
+      <c r="U213" s="82" t="s">
         <v>356</v>
       </c>
-      <c r="U213" s="82" t="s">
+      <c r="W213" s="83" t="s">
         <v>357</v>
-      </c>
-      <c r="W213" s="83" t="s">
-        <v>358</v>
       </c>
       <c r="X213" s="196" t="str">
         <f>IF(T210="","",VLOOKUP(T210,Tables!B75:C78,2))</f>
@@ -15046,7 +15048,7 @@
         <v/>
       </c>
       <c r="W214" s="83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X214" s="196" t="str">
         <f>IF(U218="","",Q218*($T$210^2*Tables!$D$70+Tables!$D$71))</f>
@@ -15105,7 +15107,7 @@
         <v/>
       </c>
       <c r="W215" s="83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X215" s="281" t="e">
         <f>IF(Q211="","",HLOOKUP(Q211,Tables!A83:E84,2))</f>
@@ -15164,7 +15166,7 @@
         <v/>
       </c>
       <c r="W216" s="83" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X216" s="196" t="e">
         <f>IF(OR(X214="",X215=""),"",(X215*(X214/8.76))/100)</f>
@@ -15223,7 +15225,7 @@
         <v/>
       </c>
       <c r="W217" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="X217" s="282" t="str">
         <f>IF(AB85="","",AB85)</f>
@@ -15240,7 +15242,7 @@
       <c r="E218" s="152"/>
       <c r="F218" s="152"/>
       <c r="G218" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H218" s="366" t="str">
         <f>IF(T176="","",T176)</f>
@@ -15252,7 +15254,7 @@
       <c r="M218" s="117"/>
       <c r="O218" s="275"/>
       <c r="P218" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q218" s="119" t="str">
         <f>IF(OR(Q214="",Q215="",Q216="",Q217=""),"",AVERAGE(Q214:Q217))</f>
@@ -15275,7 +15277,7 @@
         <v/>
       </c>
       <c r="W218" s="83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X218" s="284" t="e">
         <f>IF(OR(X216="",X217=""),"",(X216-X217)/X217)</f>
@@ -15294,7 +15296,7 @@
       <c r="M219" s="117"/>
       <c r="O219" s="275"/>
       <c r="P219" s="83" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q219" s="235" t="str">
         <f>IF(Q218="","",STDEV(Q214:Q217)/Q218)</f>
@@ -15326,10 +15328,10 @@
       </c>
       <c r="B220" s="115"/>
       <c r="D220" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E220" s="74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M220" s="117"/>
       <c r="O220" s="77"/>
@@ -15349,13 +15351,13 @@
       <c r="M221" s="117"/>
       <c r="O221" s="77"/>
       <c r="P221" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q221" s="413" t="s">
+        <v>364</v>
+      </c>
+      <c r="W221" s="83" t="s">
         <v>365</v>
-      </c>
-      <c r="W221" s="83" t="s">
-        <v>366</v>
       </c>
       <c r="X221" s="284" t="e">
         <f>IF(OR(S214="",X216=""),"",(X216-AVERAGE(S214:S217))/AVERAGE(S214:S217))</f>
@@ -15369,17 +15371,17 @@
       </c>
       <c r="B222" s="115"/>
       <c r="C222" s="124" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I222" s="82"/>
       <c r="M222" s="117"/>
       <c r="O222" s="77"/>
       <c r="P222" s="74"/>
       <c r="Q222" s="413" t="s">
+        <v>366</v>
+      </c>
+      <c r="W222" s="83" t="s">
         <v>367</v>
-      </c>
-      <c r="W222" s="83" t="s">
-        <v>368</v>
       </c>
       <c r="X222" s="281" t="e">
         <f>IF(OR(X216="",Q218=""),"",3/(X216/Q218))</f>
@@ -15393,14 +15395,14 @@
       </c>
       <c r="B223" s="115"/>
       <c r="C223" s="83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D223" s="276" t="str">
         <f>IF(P181="","",P181)</f>
         <v>Auto-time</v>
       </c>
       <c r="F223" s="83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G223" s="198">
         <f>IF(S181="","",S181)</f>
@@ -15408,7 +15410,7 @@
       </c>
       <c r="H223" s="82"/>
       <c r="I223" s="83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J223" s="198" t="str">
         <f>IF(Q183="","",Q183)</f>
@@ -15436,13 +15438,13 @@
       <c r="E224" s="74"/>
       <c r="F224" s="74"/>
       <c r="G224" s="82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H224" s="74"/>
       <c r="J224" s="74"/>
       <c r="M224" s="117"/>
       <c r="O224" s="191" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P224" s="286"/>
       <c r="Q224" s="286"/>
@@ -15461,34 +15463,34 @@
       </c>
       <c r="B225" s="115"/>
       <c r="D225" s="242" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E225" s="279" t="s">
         <v>149</v>
       </c>
       <c r="F225" s="279" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G225" s="279" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H225" s="279" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I225" s="287" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J225" s="74"/>
       <c r="M225" s="117"/>
       <c r="O225" s="77" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P225" s="194"/>
       <c r="R225" s="83" t="s">
-        <v>372</v>
-      </c>
-      <c r="S225" s="447"/>
-      <c r="T225" s="447"/>
+        <v>371</v>
+      </c>
+      <c r="S225" s="445"/>
+      <c r="T225" s="445"/>
       <c r="Y225" s="79"/>
     </row>
     <row r="226" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15523,14 +15525,14 @@
       <c r="J226" s="74"/>
       <c r="M226" s="117"/>
       <c r="O226" s="77" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P226" s="289"/>
       <c r="R226" s="83" t="s">
-        <v>374</v>
-      </c>
-      <c r="S226" s="447"/>
-      <c r="T226" s="447"/>
+        <v>373</v>
+      </c>
+      <c r="S226" s="445"/>
+      <c r="T226" s="445"/>
       <c r="Y226" s="79"/>
     </row>
     <row r="227" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15599,13 +15601,13 @@
       <c r="J228" s="74"/>
       <c r="M228" s="117"/>
       <c r="O228" s="77"/>
-      <c r="T228" s="446" t="s">
-        <v>375</v>
-      </c>
-      <c r="U228" s="446"/>
-      <c r="V228" s="446"/>
-      <c r="W228" s="446"/>
-      <c r="X228" s="446"/>
+      <c r="T228" s="444" t="s">
+        <v>374</v>
+      </c>
+      <c r="U228" s="444"/>
+      <c r="V228" s="444"/>
+      <c r="W228" s="444"/>
+      <c r="X228" s="444"/>
       <c r="Y228" s="79"/>
     </row>
     <row r="229" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15644,7 +15646,7 @@
         <v>104</v>
       </c>
       <c r="R229" s="82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S229" s="82" t="s">
         <v>149</v>
@@ -15659,10 +15661,10 @@
         <v>107</v>
       </c>
       <c r="W229" s="82" t="s">
+        <v>375</v>
+      </c>
+      <c r="X229" s="82" t="s">
         <v>376</v>
-      </c>
-      <c r="X229" s="82" t="s">
-        <v>377</v>
       </c>
       <c r="Y229" s="79"/>
     </row>
@@ -15952,10 +15954,10 @@
       </c>
       <c r="B234" s="115"/>
       <c r="D234" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E234" s="221" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M234" s="117"/>
       <c r="O234" s="77"/>
@@ -16058,7 +16060,7 @@
       </c>
       <c r="B236" s="115"/>
       <c r="C236" s="124" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M236" s="117"/>
       <c r="O236" s="77"/>
@@ -16106,14 +16108,14 @@
       </c>
       <c r="B237" s="115"/>
       <c r="D237" s="83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E237" s="198" t="str">
         <f>IF(Q210="","",Q210)</f>
         <v/>
       </c>
       <c r="F237" s="83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G237" s="198">
         <f>IF(T210="","",T210)</f>
@@ -16139,14 +16141,14 @@
       </c>
       <c r="B238" s="115"/>
       <c r="D238" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E238" s="198" t="str">
         <f>IF(Q211="","",Q211)</f>
         <v>Mo/Mo</v>
       </c>
       <c r="F238" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G238" s="198" t="str">
         <f>IF(T211="","",T211)</f>
@@ -16155,10 +16157,10 @@
       <c r="M238" s="117"/>
       <c r="O238" s="77"/>
       <c r="P238" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q238" s="74" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S238" s="83"/>
       <c r="T238" s="82"/>
@@ -16175,14 +16177,14 @@
       </c>
       <c r="B239" s="115"/>
       <c r="G239" s="82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I239" s="67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M239" s="117"/>
       <c r="O239" s="191" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P239" s="69"/>
       <c r="Q239" s="69"/>
@@ -16206,19 +16208,19 @@
         <v>149</v>
       </c>
       <c r="F240" s="82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G240" s="82" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H240" s="82" t="s">
+        <v>355</v>
+      </c>
+      <c r="I240" s="82" t="s">
         <v>356</v>
       </c>
-      <c r="I240" s="82" t="s">
+      <c r="K240" s="83" t="s">
         <v>357</v>
-      </c>
-      <c r="K240" s="83" t="s">
-        <v>358</v>
       </c>
       <c r="L240" s="196" t="str">
         <f t="shared" ref="L240:L245" si="25">IF(X213="","",X213)</f>
@@ -16256,7 +16258,7 @@
         <v/>
       </c>
       <c r="K241" s="83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L241" s="197" t="str">
         <f t="shared" si="25"/>
@@ -16265,13 +16267,13 @@
       <c r="M241" s="117"/>
       <c r="O241" s="77"/>
       <c r="S241" s="83"/>
-      <c r="T241" s="446" t="s">
-        <v>375</v>
-      </c>
-      <c r="U241" s="446"/>
-      <c r="V241" s="446"/>
-      <c r="W241" s="446"/>
-      <c r="X241" s="446"/>
+      <c r="T241" s="444" t="s">
+        <v>374</v>
+      </c>
+      <c r="U241" s="444"/>
+      <c r="V241" s="444"/>
+      <c r="W241" s="444"/>
+      <c r="X241" s="444"/>
       <c r="Y241" s="79"/>
     </row>
     <row r="242" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16300,7 +16302,7 @@
         <v/>
       </c>
       <c r="K242" s="83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L242" s="300" t="e">
         <f t="shared" si="25"/>
@@ -16315,7 +16317,7 @@
         <v>104</v>
       </c>
       <c r="R242" s="82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S242" s="82" t="s">
         <v>149</v>
@@ -16330,10 +16332,10 @@
         <v>107</v>
       </c>
       <c r="W242" s="82" t="s">
+        <v>375</v>
+      </c>
+      <c r="X242" s="82" t="s">
         <v>376</v>
-      </c>
-      <c r="X242" s="82" t="s">
-        <v>377</v>
       </c>
       <c r="Y242" s="79"/>
     </row>
@@ -16363,7 +16365,7 @@
         <v/>
       </c>
       <c r="K243" s="83" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L243" s="197" t="e">
         <f t="shared" si="25"/>
@@ -16435,7 +16437,7 @@
         <v/>
       </c>
       <c r="K244" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L244" s="197" t="str">
         <f t="shared" si="25"/>
@@ -16487,7 +16489,7 @@
       </c>
       <c r="B245" s="115"/>
       <c r="D245" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E245" s="299" t="str">
         <f t="shared" si="26"/>
@@ -16510,7 +16512,7 @@
         <v/>
       </c>
       <c r="K245" s="83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L245" s="303" t="e">
         <f t="shared" si="25"/>
@@ -16562,7 +16564,7 @@
       </c>
       <c r="B246" s="115"/>
       <c r="D246" s="83" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E246" s="304" t="str">
         <f t="shared" si="26"/>
@@ -16630,13 +16632,13 @@
       </c>
       <c r="B247" s="115"/>
       <c r="D247" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E247" s="74" t="s">
+        <v>364</v>
+      </c>
+      <c r="K247" s="83" t="s">
         <v>365</v>
-      </c>
-      <c r="K247" s="83" t="s">
-        <v>366</v>
       </c>
       <c r="L247" s="284" t="e">
         <f>IF(X221="","",X221)</f>
@@ -16645,7 +16647,7 @@
       <c r="M247" s="117"/>
       <c r="O247" s="77"/>
       <c r="S247" s="83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T247" s="120" t="str">
         <f>IF(OR(T243="",T244="",T245="",T246=""),"",AVERAGE(T243:T246))</f>
@@ -16675,10 +16677,10 @@
       </c>
       <c r="B248" s="115"/>
       <c r="E248" s="74" t="s">
+        <v>366</v>
+      </c>
+      <c r="K248" s="83" t="s">
         <v>367</v>
-      </c>
-      <c r="K248" s="83" t="s">
-        <v>368</v>
       </c>
       <c r="L248" s="281" t="e">
         <f>IF(X222="","",X222)</f>
@@ -16687,7 +16689,7 @@
       <c r="M248" s="117"/>
       <c r="O248" s="193"/>
       <c r="S248" s="83" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T248" s="120" t="str">
         <f>IF(OR(T243="",T244="",T245="",T246=""),"",STDEV(T243:T246))</f>
@@ -16729,7 +16731,7 @@
       <c r="M249" s="218"/>
       <c r="O249" s="77"/>
       <c r="S249" s="83" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T249" s="235" t="str">
         <f>IF(OR(T247="",T248=""),"",T248/T247)</f>
@@ -16759,12 +16761,12 @@
       </c>
       <c r="B250" s="115"/>
       <c r="C250" s="124" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M250" s="117"/>
       <c r="O250" s="77"/>
       <c r="S250" s="83" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T250" s="152"/>
       <c r="U250" s="152"/>
@@ -16785,28 +16787,28 @@
       </c>
       <c r="B251" s="115"/>
       <c r="D251" s="83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E251" s="195"/>
       <c r="H251" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="I251" s="67" t="s">
         <v>382</v>
       </c>
-      <c r="I251" s="67" t="s">
-        <v>383</v>
-      </c>
       <c r="J251" s="67" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K251" s="67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M251" s="117"/>
       <c r="O251" s="77"/>
       <c r="P251" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q251" s="74" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Y251" s="79"/>
     </row>
@@ -16816,11 +16818,11 @@
       </c>
       <c r="B252" s="115"/>
       <c r="D252" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E252" s="357"/>
       <c r="G252" s="83" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H252" s="307"/>
       <c r="I252" s="118"/>
@@ -16829,7 +16831,7 @@
       <c r="M252" s="117"/>
       <c r="O252" s="77"/>
       <c r="Q252" s="74" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Y252" s="79"/>
     </row>
@@ -16843,7 +16845,7 @@
       </c>
       <c r="E253" s="357"/>
       <c r="G253" s="83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H253" s="307"/>
       <c r="I253" s="118"/>
@@ -16873,7 +16875,7 @@
       <c r="E254" s="357"/>
       <c r="M254" s="117"/>
       <c r="O254" s="191" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P254" s="69"/>
       <c r="Q254" s="69"/>
@@ -16892,20 +16894,20 @@
       </c>
       <c r="B255" s="115"/>
       <c r="D255" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E255" s="221" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M255" s="117"/>
       <c r="O255" s="77"/>
-      <c r="T255" s="446" t="s">
-        <v>375</v>
-      </c>
-      <c r="U255" s="446"/>
-      <c r="V255" s="446"/>
-      <c r="W255" s="446"/>
-      <c r="X255" s="446"/>
+      <c r="T255" s="444" t="s">
+        <v>374</v>
+      </c>
+      <c r="U255" s="444"/>
+      <c r="V255" s="444"/>
+      <c r="W255" s="444"/>
+      <c r="X255" s="444"/>
       <c r="Y255" s="79"/>
     </row>
     <row r="256" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16914,7 +16916,7 @@
       </c>
       <c r="B256" s="115"/>
       <c r="E256" s="74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M256" s="117"/>
       <c r="O256" s="77"/>
@@ -16925,7 +16927,7 @@
         <v>104</v>
       </c>
       <c r="R256" s="82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S256" s="82" t="s">
         <v>149</v>
@@ -16940,10 +16942,10 @@
         <v>107</v>
       </c>
       <c r="W256" s="82" t="s">
+        <v>375</v>
+      </c>
+      <c r="X256" s="82" t="s">
         <v>376</v>
-      </c>
-      <c r="X256" s="82" t="s">
-        <v>377</v>
       </c>
       <c r="Y256" s="79"/>
     </row>
@@ -17008,7 +17010,7 @@
       </c>
       <c r="B258" s="115"/>
       <c r="C258" s="124" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M258" s="117"/>
       <c r="O258" s="77"/>
@@ -17055,14 +17057,14 @@
         <v>55</v>
       </c>
       <c r="B259" s="115"/>
-      <c r="D259" s="448"/>
-      <c r="E259" s="448"/>
+      <c r="D259" s="440"/>
+      <c r="E259" s="440"/>
       <c r="F259" s="74"/>
       <c r="G259" s="74"/>
       <c r="H259" s="74"/>
       <c r="K259" s="74"/>
-      <c r="L259" s="449"/>
-      <c r="M259" s="449"/>
+      <c r="L259" s="446"/>
+      <c r="M259" s="446"/>
       <c r="O259" s="77"/>
       <c r="P259" s="118" t="str">
         <f>IF(AK20="","",AK20)</f>
@@ -17109,10 +17111,10 @@
       <c r="B260" s="115"/>
       <c r="C260" s="74"/>
       <c r="D260" s="74"/>
-      <c r="E260" s="448" t="s">
-        <v>392</v>
-      </c>
-      <c r="F260" s="448"/>
+      <c r="E260" s="440" t="s">
+        <v>391</v>
+      </c>
+      <c r="F260" s="440"/>
       <c r="G260" s="74"/>
       <c r="H260" s="74"/>
       <c r="I260" s="82"/>
@@ -17165,7 +17167,7 @@
       <c r="B261" s="115"/>
       <c r="C261" s="74"/>
       <c r="E261" s="82" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F261" s="74"/>
       <c r="G261" s="74"/>
@@ -17176,13 +17178,13 @@
       <c r="M261" s="310"/>
       <c r="O261" s="77"/>
       <c r="P261" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q261" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="V261" s="83" t="s">
         <v>394</v>
-      </c>
-      <c r="V261" s="83" t="s">
-        <v>395</v>
       </c>
       <c r="W261" s="235" t="str">
         <f>IF(OR(W257="",W258="",W259="",W260=""),"",(MAX(W257:W260)-MIN(W257:W260))/(MAX(W257:W260)+MIN(W257:W260)))</f>
@@ -17197,7 +17199,7 @@
       <c r="B262" s="115"/>
       <c r="C262" s="74"/>
       <c r="D262" s="83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E262" s="226">
         <f t="shared" ref="E262:E267" si="30">IF(Q285="","",Q285)</f>
@@ -17220,7 +17222,7 @@
       <c r="B263" s="115"/>
       <c r="C263" s="74"/>
       <c r="D263" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E263" s="230">
         <f t="shared" si="30"/>
@@ -17238,7 +17240,7 @@
         <v/>
       </c>
       <c r="P263" s="67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Y263" s="79"/>
     </row>
@@ -17249,7 +17251,7 @@
       <c r="B264" s="115"/>
       <c r="C264" s="74"/>
       <c r="D264" s="83" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E264" s="230">
         <f t="shared" si="30"/>
@@ -17281,7 +17283,7 @@
       <c r="B265" s="115"/>
       <c r="C265" s="74"/>
       <c r="D265" s="83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E265" s="230" t="str">
         <f t="shared" si="30"/>
@@ -17295,7 +17297,7 @@
       <c r="L265" s="83"/>
       <c r="M265" s="310"/>
       <c r="O265" s="191" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P265" s="69"/>
       <c r="Q265" s="69"/>
@@ -17314,7 +17316,7 @@
       </c>
       <c r="B266" s="115"/>
       <c r="D266" s="83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E266" s="230" t="str">
         <f t="shared" si="30"/>
@@ -17362,7 +17364,7 @@
       </c>
       <c r="B267" s="115"/>
       <c r="D267" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E267" s="312" t="str">
         <f t="shared" si="30"/>
@@ -17373,7 +17375,7 @@
       <c r="M267" s="309"/>
       <c r="O267" s="77"/>
       <c r="P267" s="118" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q267" s="118">
         <v>24</v>
@@ -17413,14 +17415,14 @@
       <c r="M268" s="76"/>
       <c r="O268" s="77"/>
       <c r="P268" s="152" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q268" s="441" t="s">
         <v>399</v>
       </c>
-      <c r="Q268" s="450" t="s">
-        <v>400</v>
-      </c>
-      <c r="R268" s="450"/>
-      <c r="S268" s="450"/>
-      <c r="T268" s="450"/>
+      <c r="R268" s="441"/>
+      <c r="S268" s="441"/>
+      <c r="T268" s="441"/>
       <c r="U268" s="313"/>
       <c r="V268" s="313"/>
       <c r="W268" s="313"/>
@@ -17546,7 +17548,7 @@
         <v>68</v>
       </c>
       <c r="C272" s="162" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D272" s="165" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -17648,14 +17650,14 @@
       </c>
       <c r="B275" s="106"/>
       <c r="C275" s="323" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D275" s="324" t="str">
         <f>IF(P225="","",P225)</f>
         <v/>
       </c>
       <c r="E275" s="323" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F275" s="324" t="str">
         <f>IF(P226="","",P226)</f>
@@ -17663,19 +17665,19 @@
       </c>
       <c r="G275" s="107"/>
       <c r="H275" s="323" t="s">
-        <v>372</v>
-      </c>
-      <c r="I275" s="451" t="str">
+        <v>371</v>
+      </c>
+      <c r="I275" s="442" t="str">
         <f>IF(S225="","",S225)</f>
         <v/>
       </c>
-      <c r="J275" s="451"/>
+      <c r="J275" s="442"/>
       <c r="K275" s="107"/>
       <c r="L275" s="107"/>
       <c r="M275" s="109"/>
       <c r="O275" s="77"/>
       <c r="P275" s="242" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q275" s="325" t="str">
         <f>IF(AQ10="","",AVERAGE(AQ10:AQ11))</f>
@@ -17713,18 +17715,18 @@
       <c r="F276" s="74"/>
       <c r="G276" s="74"/>
       <c r="H276" s="269" t="s">
-        <v>374</v>
-      </c>
-      <c r="I276" s="452" t="str">
+        <v>373</v>
+      </c>
+      <c r="I276" s="443" t="str">
         <f>IF(S226="","",S226)</f>
         <v/>
       </c>
-      <c r="J276" s="452"/>
+      <c r="J276" s="443"/>
       <c r="K276" s="74"/>
       <c r="M276" s="117"/>
       <c r="O276" s="77"/>
       <c r="P276" s="257" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q276" s="305" t="str">
         <f>IF(OR(Q269="",Q274=""),"",ABS(Q274-Q269)/Q269)</f>
@@ -17757,19 +17759,19 @@
       </c>
       <c r="B277" s="115"/>
       <c r="C277" s="205" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D277" s="116"/>
       <c r="E277" s="116"/>
       <c r="F277" s="116"/>
       <c r="G277" s="116"/>
       <c r="H277" s="124" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M277" s="117"/>
       <c r="O277" s="77"/>
       <c r="P277" s="242" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q277" s="326">
         <f>Q267/100</f>
@@ -17832,7 +17834,7 @@
       <c r="M278" s="117"/>
       <c r="O278" s="77"/>
       <c r="P278" s="328" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q278" s="329">
         <f>Q267/100+0.12</f>
@@ -17865,14 +17867,14 @@
       </c>
       <c r="B279" s="115"/>
       <c r="C279" s="83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D279" s="198">
         <f>IF(S230="","",S230)</f>
         <v>50</v>
       </c>
       <c r="H279" s="83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I279" s="198">
         <f>IF(S243="","",S243)</f>
@@ -17912,17 +17914,17 @@
       </c>
       <c r="B280" s="115"/>
       <c r="C280" s="331" t="s">
+        <v>277</v>
+      </c>
+      <c r="D280" s="331" t="s">
         <v>278</v>
-      </c>
-      <c r="D280" s="331" t="s">
-        <v>279</v>
       </c>
       <c r="E280" s="331"/>
       <c r="H280" s="331" t="s">
+        <v>277</v>
+      </c>
+      <c r="I280" s="331" t="s">
         <v>278</v>
-      </c>
-      <c r="I280" s="331" t="s">
-        <v>279</v>
       </c>
       <c r="J280" s="82"/>
       <c r="K280" s="82"/>
@@ -17930,10 +17932,10 @@
       <c r="M280" s="117"/>
       <c r="O280" s="77"/>
       <c r="P280" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q280" s="74" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R280" s="74"/>
       <c r="S280" s="74"/>
@@ -17956,7 +17958,7 @@
         <v>105</v>
       </c>
       <c r="E281" s="332" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H281" s="332" t="s">
         <v>105</v>
@@ -17968,10 +17970,10 @@
         <v>34</v>
       </c>
       <c r="K281" s="332" t="s">
+        <v>375</v>
+      </c>
+      <c r="L281" s="332" t="s">
         <v>376</v>
-      </c>
-      <c r="L281" s="332" t="s">
-        <v>377</v>
       </c>
       <c r="M281" s="117"/>
       <c r="O281" s="88"/>
@@ -18025,7 +18027,7 @@
       </c>
       <c r="M282" s="117"/>
       <c r="O282" s="191" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P282" s="69"/>
       <c r="Q282" s="69"/>
@@ -18073,18 +18075,18 @@
       </c>
       <c r="M283" s="117"/>
       <c r="O283" s="334" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q283" s="194">
         <v>1</v>
       </c>
       <c r="R283" s="67" t="s">
-        <v>411</v>
-      </c>
-      <c r="U283" s="446" t="s">
-        <v>383</v>
-      </c>
-      <c r="V283" s="446"/>
+        <v>410</v>
+      </c>
+      <c r="U283" s="444" t="s">
+        <v>382</v>
+      </c>
+      <c r="V283" s="444"/>
       <c r="Y283" s="79"/>
     </row>
     <row r="284" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18174,7 +18176,7 @@
       <c r="M285" s="117"/>
       <c r="O285" s="77"/>
       <c r="P285" s="83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q285" s="118">
         <f>T210</f>
@@ -18213,7 +18215,7 @@
         <v/>
       </c>
       <c r="H286" s="83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I286" s="120" t="str">
         <f t="shared" si="34"/>
@@ -18234,7 +18236,7 @@
       <c r="M286" s="117"/>
       <c r="O286" s="77"/>
       <c r="P286" s="83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q286" s="118">
         <f>Q217</f>
@@ -18272,7 +18274,7 @@
         <v/>
       </c>
       <c r="H287" s="83" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I287" s="120" t="str">
         <f t="shared" si="34"/>
@@ -18293,7 +18295,7 @@
       <c r="M287" s="117"/>
       <c r="O287" s="77"/>
       <c r="P287" s="83" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q287" s="118">
         <f>R217</f>
@@ -18332,7 +18334,7 @@
         <v/>
       </c>
       <c r="H288" s="83" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I288" s="235" t="str">
         <f t="shared" si="34"/>
@@ -18353,7 +18355,7 @@
       <c r="M288" s="117"/>
       <c r="O288" s="77"/>
       <c r="P288" s="83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q288" s="192"/>
       <c r="R288" s="192"/>
@@ -18375,14 +18377,14 @@
       <c r="B289" s="115"/>
       <c r="C289" s="414"/>
       <c r="D289" s="336" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E289" s="337" t="str">
         <f>IF(E282="","",IF(AND(ABS(MAX(E282:E288))&lt;=0.05,ABS(MIN(E282:E288))&lt;=0.05),"YES","NO"))</f>
         <v/>
       </c>
       <c r="H289" s="83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I289" s="200" t="str">
         <f>IF(I288="","",IF(ABS(I288)&lt;=0.02,"YES","NO"))</f>
@@ -18403,7 +18405,7 @@
       <c r="M289" s="117"/>
       <c r="O289" s="77"/>
       <c r="P289" s="83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q289" s="192"/>
       <c r="R289" s="192"/>
@@ -18424,16 +18426,16 @@
       </c>
       <c r="B290" s="115"/>
       <c r="H290" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I290" s="74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J290" s="74"/>
       <c r="M290" s="117"/>
       <c r="O290" s="77"/>
       <c r="P290" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q290" s="192"/>
       <c r="R290" s="192"/>
@@ -18456,13 +18458,13 @@
       <c r="D291" s="74"/>
       <c r="E291" s="74"/>
       <c r="I291" s="74" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J291" s="74"/>
       <c r="M291" s="117"/>
       <c r="O291" s="77"/>
       <c r="P291" s="83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q291" s="192"/>
       <c r="R291" s="192"/>
@@ -18486,20 +18488,20 @@
       </c>
       <c r="B292" s="115"/>
       <c r="D292" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E292" s="74" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H292" s="116"/>
       <c r="I292" s="221" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J292" s="74"/>
       <c r="M292" s="117"/>
       <c r="O292" s="77"/>
       <c r="P292" s="83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q292" s="192"/>
       <c r="R292" s="192"/>
@@ -18527,7 +18529,7 @@
       <c r="M293" s="117"/>
       <c r="O293" s="88"/>
       <c r="P293" s="239" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q293" s="240" t="str">
         <f>IF(Q283=1,"Must see at least 3 fibers, 3 specks, 2.5 masses","Must see at least 5 fibers, 4 specks, 3.5 masses")</f>
@@ -18548,7 +18550,7 @@
       </c>
       <c r="B294" s="115"/>
       <c r="C294" s="124" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M294" s="117"/>
       <c r="O294" s="338"/>
@@ -18556,7 +18558,7 @@
       <c r="Q294" s="286"/>
       <c r="R294" s="286"/>
       <c r="S294" s="339" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T294" s="286"/>
       <c r="U294" s="286"/>
@@ -18611,7 +18613,7 @@
       <c r="M296" s="117"/>
       <c r="O296" s="275"/>
       <c r="P296" s="344" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q296" s="223"/>
       <c r="R296" s="345">
@@ -18621,7 +18623,7 @@
       <c r="S296" s="224"/>
       <c r="T296" s="224"/>
       <c r="U296" s="346" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V296" s="224"/>
       <c r="W296" s="224"/>
@@ -18634,7 +18636,7 @@
       </c>
       <c r="B297" s="115"/>
       <c r="C297" s="332" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D297" s="332" t="s">
         <v>105</v>
@@ -18643,15 +18645,15 @@
         <v>34</v>
       </c>
       <c r="F297" s="332" t="s">
+        <v>375</v>
+      </c>
+      <c r="G297" s="332" t="s">
         <v>376</v>
-      </c>
-      <c r="G297" s="332" t="s">
-        <v>377</v>
       </c>
       <c r="M297" s="117"/>
       <c r="O297" s="275"/>
       <c r="P297" s="162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q297" s="341"/>
       <c r="R297" s="342"/>
@@ -18694,7 +18696,7 @@
       <c r="M298" s="117"/>
       <c r="O298" s="275"/>
       <c r="P298" s="344" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q298" s="223"/>
       <c r="R298" s="345">
@@ -18704,7 +18706,7 @@
       <c r="S298" s="224"/>
       <c r="T298" s="224"/>
       <c r="U298" s="346" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="V298" s="224"/>
       <c r="W298" s="224"/>
@@ -18739,7 +18741,7 @@
       <c r="M299" s="117"/>
       <c r="O299" s="275"/>
       <c r="P299" s="162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q299" s="341"/>
       <c r="R299" s="342"/>
@@ -18782,7 +18784,7 @@
       <c r="M300" s="117"/>
       <c r="O300" s="275"/>
       <c r="P300" s="344" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q300" s="223"/>
       <c r="R300" s="345">
@@ -18792,7 +18794,7 @@
       <c r="S300" s="224"/>
       <c r="T300" s="224"/>
       <c r="U300" s="346" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="V300" s="224"/>
       <c r="W300" s="224"/>
@@ -18827,7 +18829,7 @@
       <c r="M301" s="117"/>
       <c r="O301" s="275"/>
       <c r="P301" s="162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q301" s="341"/>
       <c r="R301" s="342"/>
@@ -18848,7 +18850,7 @@
       </c>
       <c r="B302" s="115"/>
       <c r="E302" s="83" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F302" s="216" t="str">
         <f>IF(W261="","",W261)</f>
@@ -18857,7 +18859,7 @@
       <c r="M302" s="117"/>
       <c r="O302" s="275"/>
       <c r="P302" s="344" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q302" s="223"/>
       <c r="R302" s="345">
@@ -18867,7 +18869,7 @@
       <c r="S302" s="224"/>
       <c r="T302" s="224"/>
       <c r="U302" s="346" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="V302" s="224"/>
       <c r="W302" s="224"/>
@@ -18880,15 +18882,15 @@
       </c>
       <c r="B303" s="115"/>
       <c r="D303" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E303" s="74" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M303" s="117"/>
       <c r="O303" s="275"/>
       <c r="P303" s="162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q303" s="341"/>
       <c r="R303" s="342"/>
@@ -18911,7 +18913,7 @@
       <c r="M304" s="117"/>
       <c r="O304" s="275"/>
       <c r="P304" s="344" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q304" s="223"/>
       <c r="R304" s="345">
@@ -18921,7 +18923,7 @@
       <c r="S304" s="224"/>
       <c r="T304" s="224"/>
       <c r="U304" s="346" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V304" s="224"/>
       <c r="W304" s="224"/>
@@ -18934,12 +18936,12 @@
       </c>
       <c r="B305" s="115"/>
       <c r="C305" s="124" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M305" s="117"/>
       <c r="O305" s="275"/>
       <c r="P305" s="162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q305" s="341"/>
       <c r="R305" s="342"/>
@@ -18985,7 +18987,7 @@
       <c r="M306" s="117"/>
       <c r="O306" s="275"/>
       <c r="P306" s="344" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q306" s="223"/>
       <c r="R306" s="345">
@@ -19006,7 +19008,7 @@
       </c>
       <c r="B307" s="115"/>
       <c r="C307" s="118" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D307" s="118">
         <v>24</v>
@@ -19027,7 +19029,7 @@
       <c r="M307" s="117"/>
       <c r="O307" s="275"/>
       <c r="P307" s="162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q307" s="341"/>
       <c r="R307" s="342"/>
@@ -19048,7 +19050,7 @@
       </c>
       <c r="B308" s="115"/>
       <c r="C308" s="242" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D308" s="325" t="str">
         <f t="shared" ref="D308:G309" si="40">IF(Q275="","",Q275)</f>
@@ -19073,7 +19075,7 @@
       <c r="M308" s="117"/>
       <c r="O308" s="275"/>
       <c r="P308" s="344" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q308" s="223"/>
       <c r="R308" s="345">
@@ -19094,7 +19096,7 @@
       </c>
       <c r="B309" s="115"/>
       <c r="C309" s="257" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D309" s="305" t="str">
         <f t="shared" si="40"/>
@@ -19135,7 +19137,7 @@
       </c>
       <c r="B310" s="115"/>
       <c r="C310" s="242" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D310" s="325">
         <f t="shared" ref="D310:G312" si="41">Q277</f>
@@ -19176,7 +19178,7 @@
       </c>
       <c r="B311" s="115"/>
       <c r="C311" s="257" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D311" s="292">
         <f t="shared" si="41"/>
@@ -19217,7 +19219,7 @@
       </c>
       <c r="B312" s="115"/>
       <c r="C312" s="83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D312" s="347" t="str">
         <f t="shared" si="41"/>
@@ -19258,10 +19260,10 @@
       </c>
       <c r="B313" s="115"/>
       <c r="D313" s="167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E313" s="74" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M313" s="117"/>
       <c r="O313" s="74"/>
@@ -19300,7 +19302,7 @@
       </c>
       <c r="B315" s="115"/>
       <c r="H315" s="102" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M315" s="117"/>
       <c r="O315" s="74"/>
@@ -20008,7 +20010,7 @@
         <v>66</v>
       </c>
       <c r="C338" s="162" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D338" s="165" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -20057,65 +20059,65 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="59">
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="Q268:T268"/>
-    <mergeCell ref="I275:J275"/>
-    <mergeCell ref="I276:J276"/>
-    <mergeCell ref="U283:V283"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P97:R97"/>
+    <mergeCell ref="S97:U97"/>
+    <mergeCell ref="V97:X97"/>
+    <mergeCell ref="S98:U98"/>
+    <mergeCell ref="P105:R105"/>
+    <mergeCell ref="S105:U105"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="S106:U106"/>
+    <mergeCell ref="R158:S158"/>
+    <mergeCell ref="T158:U158"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="S225:T225"/>
     <mergeCell ref="S226:T226"/>
     <mergeCell ref="T228:X228"/>
     <mergeCell ref="T241:X241"/>
     <mergeCell ref="T255:X255"/>
     <mergeCell ref="D259:E259"/>
     <mergeCell ref="L259:M259"/>
-    <mergeCell ref="R158:S158"/>
-    <mergeCell ref="T158:U158"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="S225:T225"/>
-    <mergeCell ref="S98:U98"/>
-    <mergeCell ref="P105:R105"/>
-    <mergeCell ref="S105:U105"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="S106:U106"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P97:R97"/>
-    <mergeCell ref="S97:U97"/>
-    <mergeCell ref="V97:X97"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="Q268:T268"/>
+    <mergeCell ref="I275:J275"/>
+    <mergeCell ref="I276:J276"/>
+    <mergeCell ref="U283:V283"/>
   </mergeCells>
   <conditionalFormatting sqref="L45:L49 L51:L62 L72:L103">
     <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
@@ -20260,56 +20262,56 @@
   <sheetData>
     <row r="1" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="453" t="s">
+      <c r="B2" s="456" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="453"/>
-      <c r="D2" s="453"/>
-      <c r="E2" s="453"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
-      <c r="H2" s="453"/>
-      <c r="I2" s="453"/>
-      <c r="J2" s="453"/>
+      <c r="C2" s="456"/>
+      <c r="D2" s="456"/>
+      <c r="E2" s="456"/>
+      <c r="F2" s="456"/>
+      <c r="G2" s="456"/>
+      <c r="H2" s="456"/>
+      <c r="I2" s="456"/>
+      <c r="J2" s="456"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="453" t="s">
+      <c r="L2" s="456" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="453"/>
-      <c r="N2" s="453"/>
-      <c r="O2" s="453"/>
-      <c r="P2" s="453"/>
-      <c r="Q2" s="453"/>
-      <c r="R2" s="453"/>
-      <c r="S2" s="453"/>
-      <c r="T2" s="453"/>
+      <c r="M2" s="456"/>
+      <c r="N2" s="456"/>
+      <c r="O2" s="456"/>
+      <c r="P2" s="456"/>
+      <c r="Q2" s="456"/>
+      <c r="R2" s="456"/>
+      <c r="S2" s="456"/>
+      <c r="T2" s="456"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="453" t="s">
+      <c r="V2" s="456" t="s">
         <v>105</v>
       </c>
-      <c r="W2" s="453"/>
-      <c r="X2" s="453"/>
-      <c r="Y2" s="453"/>
-      <c r="Z2" s="453"/>
-      <c r="AA2" s="453"/>
-      <c r="AB2" s="453"/>
-      <c r="AC2" s="453"/>
-      <c r="AD2" s="453"/>
+      <c r="W2" s="456"/>
+      <c r="X2" s="456"/>
+      <c r="Y2" s="456"/>
+      <c r="Z2" s="456"/>
+      <c r="AA2" s="456"/>
+      <c r="AB2" s="456"/>
+      <c r="AC2" s="456"/>
+      <c r="AD2" s="456"/>
     </row>
     <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B3" s="5">
         <v>23</v>
@@ -20339,7 +20341,7 @@
         <v>31</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L3" s="5">
         <v>23</v>
@@ -20369,7 +20371,7 @@
         <v>31</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="V3" s="5">
         <v>23</v>
@@ -21757,48 +21759,48 @@
     </row>
     <row r="25" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="454" t="s">
+      <c r="B26" s="457" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="454"/>
-      <c r="D26" s="454"/>
-      <c r="E26" s="454"/>
-      <c r="F26" s="454"/>
-      <c r="G26" s="454"/>
-      <c r="H26" s="454"/>
-      <c r="I26" s="454"/>
-      <c r="J26" s="454"/>
-      <c r="K26" s="454"/>
-      <c r="L26" s="454"/>
+      <c r="C26" s="457"/>
+      <c r="D26" s="457"/>
+      <c r="E26" s="457"/>
+      <c r="F26" s="457"/>
+      <c r="G26" s="457"/>
+      <c r="H26" s="457"/>
+      <c r="I26" s="457"/>
+      <c r="J26" s="457"/>
+      <c r="K26" s="457"/>
+      <c r="L26" s="457"/>
       <c r="M26" s="10"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="453" t="s">
+      <c r="O26" s="456" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="453"/>
-      <c r="Q26" s="453"/>
-      <c r="R26" s="453"/>
-      <c r="S26" s="453"/>
-      <c r="T26" s="453"/>
-      <c r="U26" s="453"/>
-      <c r="V26" s="453"/>
-      <c r="W26" s="453"/>
-      <c r="X26" s="453"/>
-      <c r="Y26" s="453"/>
-      <c r="Z26" s="453"/>
-      <c r="AA26" s="453"/>
+      <c r="P26" s="456"/>
+      <c r="Q26" s="456"/>
+      <c r="R26" s="456"/>
+      <c r="S26" s="456"/>
+      <c r="T26" s="456"/>
+      <c r="U26" s="456"/>
+      <c r="V26" s="456"/>
+      <c r="W26" s="456"/>
+      <c r="X26" s="456"/>
+      <c r="Y26" s="456"/>
+      <c r="Z26" s="456"/>
+      <c r="AA26" s="456"/>
     </row>
     <row r="27" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -21837,7 +21839,7 @@
         <v>33</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O27" s="5">
         <v>27</v>
@@ -23624,7 +23626,7 @@
     </row>
     <row r="50" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -23639,27 +23641,27 @@
     </row>
     <row r="51" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
-      <c r="B51" s="455" t="s">
+      <c r="B51" s="453" t="s">
+        <v>432</v>
+      </c>
+      <c r="C51" s="453" t="s">
         <v>433</v>
       </c>
-      <c r="C51" s="455" t="s">
+      <c r="D51" s="454" t="s">
         <v>434</v>
       </c>
-      <c r="D51" s="456" t="s">
-        <v>435</v>
-      </c>
-      <c r="E51" s="456"/>
-      <c r="F51" s="456"/>
-      <c r="G51" s="456"/>
-      <c r="H51" s="456"/>
-      <c r="I51" s="456"/>
-      <c r="J51" s="456"/>
-      <c r="K51" s="456"/>
+      <c r="E51" s="454"/>
+      <c r="F51" s="454"/>
+      <c r="G51" s="454"/>
+      <c r="H51" s="454"/>
+      <c r="I51" s="454"/>
+      <c r="J51" s="454"/>
+      <c r="K51" s="454"/>
     </row>
     <row r="52" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
-      <c r="B52" s="455"/>
-      <c r="C52" s="455"/>
+      <c r="B52" s="453"/>
+      <c r="C52" s="453"/>
       <c r="D52" s="14">
         <v>0.25</v>
       </c>
@@ -23685,15 +23687,15 @@
         <v>0.6</v>
       </c>
       <c r="L52" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="M52" s="13" t="s">
         <v>436</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="53" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B53" s="18">
         <v>45</v>
@@ -23736,7 +23738,7 @@
     </row>
     <row r="54" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B54" s="22">
         <v>45</v>
@@ -23777,7 +23779,7 @@
     </row>
     <row r="55" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B55" s="22">
         <v>50</v>
@@ -23820,7 +23822,7 @@
     </row>
     <row r="56" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B56" s="25">
         <v>50</v>
@@ -23863,18 +23865,18 @@
     <row r="58" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C58" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>440</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B59" s="32">
         <v>1</v>
@@ -23889,13 +23891,13 @@
     <row r="60" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="N61" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23903,16 +23905,16 @@
         <v>103</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D62" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E62" s="36" t="s">
         <v>376</v>
-      </c>
-      <c r="E62" s="36" t="s">
-        <v>377</v>
       </c>
       <c r="G62" s="35"/>
       <c r="H62" s="36"/>
@@ -23920,15 +23922,15 @@
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="N62"/>
-      <c r="O62" s="457" t="s">
+      <c r="O62" s="455" t="s">
+        <v>446</v>
+      </c>
+      <c r="P62" s="455"/>
+      <c r="Q62" s="455" t="s">
         <v>447</v>
       </c>
-      <c r="P62" s="457"/>
-      <c r="Q62" s="457" t="s">
-        <v>448</v>
-      </c>
-      <c r="R62" s="457"/>
-      <c r="S62" s="457"/>
+      <c r="R62" s="455"/>
+      <c r="S62" s="455"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="str">
@@ -23957,22 +23959,22 @@
       <c r="J63" s="37"/>
       <c r="K63" s="38"/>
       <c r="N63" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O63" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P63" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q63" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="R63" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="S63" s="39" t="s">
         <v>449</v>
-      </c>
-      <c r="Q63" s="39" t="s">
-        <v>441</v>
-      </c>
-      <c r="R63" s="39" t="s">
-        <v>449</v>
-      </c>
-      <c r="S63" s="39" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -24268,7 +24270,7 @@
     </row>
     <row r="70" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D70" s="1" t="e">
         <f>SLOPE(D63:D69,$C$63:$C$69)</f>
@@ -24306,7 +24308,7 @@
     </row>
     <row r="71" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D71" s="1" t="e">
         <f>INTERCEPT(D63:D69,$C$63:$C$69)</f>
@@ -24369,7 +24371,7 @@
     </row>
     <row r="73" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N73" s="39" t="e">
         <f>IF(Sheet1!#REF!="","",Sheet1!#REF!)</f>
@@ -24401,10 +24403,10 @@
         <v>103</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="36"/>
@@ -24416,7 +24418,7 @@
         <v>104</v>
       </c>
       <c r="J74" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N74" s="39" t="e">
         <f>IF(Sheet1!#REF!="","",Sheet1!#REF!)</f>
@@ -24512,7 +24514,7 @@
         <v>130</v>
       </c>
       <c r="I76" s="46" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J76" s="47">
         <v>0.19</v>
@@ -24559,10 +24561,10 @@
       <c r="E77" s="36"/>
       <c r="F77" s="38"/>
       <c r="H77" s="48" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I77" s="49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J77" s="50">
         <v>0.22</v>
@@ -24604,10 +24606,10 @@
       <c r="E78" s="36"/>
       <c r="F78" s="38"/>
       <c r="H78" s="51" t="s">
+        <v>454</v>
+      </c>
+      <c r="I78" s="51" t="s">
         <v>455</v>
-      </c>
-      <c r="I78" s="51" t="s">
-        <v>456</v>
       </c>
       <c r="J78" s="51"/>
       <c r="N78" s="39" t="str">
@@ -24637,7 +24639,7 @@
     </row>
     <row r="79" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C79" s="36" t="e">
         <f>SLOPE(C75:C78,B75:B78)</f>
@@ -24647,7 +24649,7 @@
       <c r="F79" s="36"/>
       <c r="H79" s="51"/>
       <c r="I79" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J79" s="51"/>
       <c r="N79" s="39" t="str">
@@ -24677,7 +24679,7 @@
     </row>
     <row r="80" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C80" s="36" t="e">
         <f>INTERCEPT(C75:C78,B75:B78)</f>
@@ -24687,7 +24689,7 @@
       <c r="F80" s="36"/>
       <c r="H80" s="51"/>
       <c r="I80" s="51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J80" s="51"/>
       <c r="N80" s="39" t="str">
@@ -24743,7 +24745,7 @@
     </row>
     <row r="82" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B82" s="13" t="e">
         <f>"DGN values (mrad/R) for "&amp;Sheet1!$T$210&amp;" kV and HVL="&amp;ROUND(Sheet1!$X$213,2)&amp;" mm Al"</f>
@@ -24776,22 +24778,22 @@
     </row>
     <row r="83" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B83" s="52" t="s">
+        <v>439</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="D83" s="52" t="s">
         <v>440</v>
       </c>
-      <c r="C83" s="52" t="s">
-        <v>460</v>
-      </c>
-      <c r="D83" s="52" t="s">
-        <v>441</v>
-      </c>
       <c r="E83" s="52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N83" s="39" t="str">
         <f>IF(Sheet1!AM29="","",Sheet1!AM29)</f>
@@ -24896,7 +24898,7 @@
     </row>
     <row r="86" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N86" s="39" t="str">
         <f>IF(Sheet1!AM20="","",Sheet1!AM20)</f>
@@ -24926,29 +24928,29 @@
     <row r="87" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87" s="55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C87"/>
       <c r="D87" s="56" t="s">
+        <v>461</v>
+      </c>
+      <c r="E87" s="56" t="s">
         <v>462</v>
       </c>
-      <c r="E87" s="56" t="s">
+      <c r="F87" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G87" s="56" t="s">
         <v>463</v>
       </c>
-      <c r="F87" s="56" t="s">
-        <v>446</v>
-      </c>
-      <c r="G87" s="56" t="s">
+      <c r="H87" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="H87" s="56" t="s">
+      <c r="I87" s="56" t="s">
         <v>465</v>
       </c>
-      <c r="I87" s="56" t="s">
+      <c r="J87" s="56" t="s">
         <v>466</v>
-      </c>
-      <c r="J87" s="56" t="s">
-        <v>467</v>
       </c>
       <c r="N87" s="39" t="str">
         <f>IF(Sheet1!AM21="","",Sheet1!AM21)</f>
@@ -24977,10 +24979,10 @@
     </row>
     <row r="88" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C88" s="57">
         <v>27.585999999999999</v>
@@ -25033,7 +25035,7 @@
     </row>
     <row r="89" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="55" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C89" s="56">
         <v>27.585999999999999</v>
@@ -25088,7 +25090,7 @@
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
@@ -25126,7 +25128,7 @@
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -25163,29 +25165,29 @@
     <row r="92" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92" s="55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C92"/>
       <c r="D92" s="56" t="s">
+        <v>461</v>
+      </c>
+      <c r="E92" s="56" t="s">
         <v>462</v>
       </c>
-      <c r="E92" s="56" t="s">
+      <c r="F92" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G92" s="56" t="s">
         <v>463</v>
       </c>
-      <c r="F92" s="56" t="s">
-        <v>446</v>
-      </c>
-      <c r="G92" s="56" t="s">
+      <c r="H92" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="H92" s="56" t="s">
+      <c r="I92" s="56" t="s">
         <v>465</v>
       </c>
-      <c r="I92" s="56" t="s">
+      <c r="J92" s="56" t="s">
         <v>466</v>
-      </c>
-      <c r="J92" s="56" t="s">
-        <v>467</v>
       </c>
       <c r="N92" s="39" t="str">
         <f>IF(Sheet1!AM38="","",Sheet1!AM38)</f>
@@ -25214,10 +25216,10 @@
     </row>
     <row r="93" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C93" s="57">
         <v>30.1</v>
@@ -25270,7 +25272,7 @@
     </row>
     <row r="94" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="55" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C94" s="56">
         <v>30.1</v>
@@ -25325,7 +25327,7 @@
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N95" s="39" t="str">
         <f>IF(Sheet1!AM25="","",Sheet1!AM25)</f>
@@ -25356,7 +25358,7 @@
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N96" s="39" t="str">
         <f>IF(Sheet1!AM26="","",Sheet1!AM26)</f>
@@ -25412,7 +25414,7 @@
     </row>
     <row r="98" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B98"/>
       <c r="N98" s="39" t="str">
@@ -25443,23 +25445,23 @@
     <row r="99" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99" s="55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C99"/>
       <c r="D99" s="56" t="s">
+        <v>461</v>
+      </c>
+      <c r="E99" s="56" t="s">
         <v>462</v>
       </c>
-      <c r="E99" s="56" t="s">
+      <c r="F99" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G99" s="56" t="s">
         <v>463</v>
       </c>
-      <c r="F99" s="56" t="s">
-        <v>446</v>
-      </c>
-      <c r="G99" s="56" t="s">
+      <c r="H99" s="56" t="s">
         <v>464</v>
-      </c>
-      <c r="H99" s="56" t="s">
-        <v>465</v>
       </c>
       <c r="N99" s="39" t="str">
         <f>IF(Sheet1!AM45="","",Sheet1!AM45)</f>
@@ -25488,10 +25490,10 @@
     </row>
     <row r="100" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C100" s="57">
         <v>26.9</v>
@@ -25536,7 +25538,7 @@
     </row>
     <row r="101" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="55" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C101" s="56">
         <v>26.9</v>
@@ -25610,26 +25612,26 @@
     </row>
     <row r="103" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B103" s="55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C103"/>
       <c r="D103" s="56" t="s">
+        <v>461</v>
+      </c>
+      <c r="E103" s="56" t="s">
         <v>462</v>
       </c>
-      <c r="E103" s="56" t="s">
+      <c r="F103" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G103" s="56" t="s">
         <v>463</v>
       </c>
-      <c r="F103" s="56" t="s">
-        <v>446</v>
-      </c>
-      <c r="G103" s="56" t="s">
+      <c r="H103" s="56" t="s">
         <v>464</v>
-      </c>
-      <c r="H103" s="56" t="s">
-        <v>465</v>
       </c>
       <c r="N103" s="39" t="str">
         <f>IF(Sheet1!AM49="","",Sheet1!AM49)</f>
@@ -25658,7 +25660,7 @@
     </row>
     <row r="104" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C104" s="57">
         <v>28.7</v>
@@ -25703,7 +25705,7 @@
     </row>
     <row r="105" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="55" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C105" s="56">
         <v>28.7</v>
@@ -25771,24 +25773,24 @@
     </row>
     <row r="107" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107" s="56" t="s">
+        <v>461</v>
+      </c>
+      <c r="E107" s="56" t="s">
         <v>462</v>
       </c>
-      <c r="E107" s="56" t="s">
+      <c r="F107" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G107" s="56" t="s">
         <v>463</v>
       </c>
-      <c r="F107" s="56" t="s">
-        <v>446</v>
-      </c>
-      <c r="G107" s="56" t="s">
+      <c r="H107" s="56" t="s">
         <v>464</v>
-      </c>
-      <c r="H107" s="56" t="s">
-        <v>465</v>
       </c>
       <c r="N107" s="39" t="str">
         <f>IF(Sheet1!AM53="","",Sheet1!AM53)</f>
@@ -25817,7 +25819,7 @@
     </row>
     <row r="108" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C108" s="57">
         <v>28.7</v>
@@ -25861,7 +25863,7 @@
     <row r="109" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="55"/>
       <c r="C109" s="59" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D109" s="57">
         <v>-24.875</v>
@@ -25899,7 +25901,7 @@
     </row>
     <row r="110" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="55" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C110" s="56">
         <v>30.1</v>
@@ -26262,16 +26264,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="10">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="O26:AA26"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="D51:K51"/>
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="O26:AA26"/>
   </mergeCells>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.85069444444444398" bottom="1.0472222222222201" header="0.75208333333333299" footer="0.75208333333333299"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -26298,10 +26300,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" t="s">
         <v>425</v>
-      </c>
-      <c r="B1" t="s">
-        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -26338,57 +26340,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="60"/>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="60"/>
       <c r="B10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>483</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -26402,27 +26404,27 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="60" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="60"/>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="60"/>
       <c r="B16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>483</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -26616,42 +26618,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="370" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="367" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="367" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="370" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="367" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="367" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="367" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="369" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">

--- a/MUSCMammoStereotactic.xlsx
+++ b/MUSCMammoStereotactic.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B80321-B73F-4A36-8141-0F349F67AAB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QC Test Summary" sheetId="1" r:id="rId1"/>
@@ -36,11 +37,19 @@
     <definedName name="Z_D62192A2_80E4_4F30_AFA0_04511C5E7F57_.wvu.PrintArea" localSheetId="2" hidden="1">Sheet1!$B$1:$M$338</definedName>
     <definedName name="Z_D62192A2_80E4_4F30_AFA0_04511C5E7F57_.wvu.PrintArea" localSheetId="1" hidden="1">'Tech QC Eval'!$A$1:$J$26</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Eugene Mah - Personal View" guid="{D62192A2-80E4-4F30-AFA0-04511C5E7F57}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" tabRatio="500" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -49,12 +58,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pennyb</author>
   </authors>
   <commentList>
-    <comment ref="M15" authorId="0" shapeId="0">
+    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L37" authorId="0" shapeId="0">
+    <comment ref="L37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -97,12 +106,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pennyb</author>
   </authors>
   <commentList>
-    <comment ref="J8" authorId="0" shapeId="0">
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -121,12 +130,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A86" authorId="0" shapeId="0">
+    <comment ref="A86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A98" authorId="0" shapeId="0">
+    <comment ref="A98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -698,9 +707,6 @@
     <t>Mammography Unit Assembly Evaluation</t>
   </si>
   <si>
-    <t>DHEC RHB 10.2.1</t>
-  </si>
-  <si>
     <t>Free-standing unit is mechanically stable</t>
   </si>
   <si>
@@ -1880,11 +1886,14 @@
   <si>
     <t>DHEC form SC-RHA-20 “Notice to Employees” posted or referenced</t>
   </si>
+  <si>
+    <t>DHEC RHB 11.2.3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
@@ -4671,27 +4680,42 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="174" fontId="10" fillId="0" borderId="91" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4701,21 +4725,6 @@
     <xf numFmtId="174" fontId="10" fillId="0" borderId="90" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="91" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="90" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4734,7 +4743,34 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4747,32 +4783,11 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4783,23 +4798,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Date" xfId="7"/>
-    <cellStyle name="Fail" xfId="5"/>
-    <cellStyle name="Heading" xfId="3"/>
-    <cellStyle name="Heading1" xfId="4"/>
+    <cellStyle name="Date" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Fail" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Heading" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Heading1" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8"/>
-    <cellStyle name="Pass" xfId="6"/>
-    <cellStyle name="Result" xfId="1"/>
-    <cellStyle name="Result2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Pass" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Result" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Result2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -5155,6 +5164,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9219"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5219,6 +5231,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9220"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5276,7 +5291,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5325,7 +5346,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3076" name="_x0000_t202" hidden="1"/>
+        <xdr:cNvPr id="3076" name="_x0000_t202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000040C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5368,7 +5395,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="_x0000_t202" hidden="1"/>
+        <xdr:cNvPr id="3074" name="_x0000_t202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5416,7 +5449,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5703,7 +5742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5731,38 +5770,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="419" t="s">
+      <c r="A1" s="430" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="419"/>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="419"/>
-      <c r="F1" s="419"/>
-      <c r="G1" s="419"/>
-      <c r="H1" s="419"/>
-      <c r="I1" s="419"/>
-      <c r="J1" s="419"/>
-      <c r="K1" s="419"/>
-      <c r="L1" s="419"/>
-      <c r="M1" s="419"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
+      <c r="H1" s="430"/>
+      <c r="I1" s="430"/>
+      <c r="J1" s="430"/>
+      <c r="K1" s="430"/>
+      <c r="L1" s="430"/>
+      <c r="M1" s="430"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="419" t="s">
+      <c r="A2" s="430" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="419"/>
-      <c r="C2" s="419"/>
-      <c r="D2" s="419"/>
-      <c r="E2" s="419"/>
-      <c r="F2" s="419"/>
-      <c r="G2" s="419"/>
-      <c r="H2" s="419"/>
-      <c r="I2" s="419"/>
-      <c r="J2" s="419"/>
-      <c r="K2" s="419"/>
-      <c r="L2" s="419"/>
-      <c r="M2" s="419"/>
+      <c r="B2" s="430"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="430"/>
+      <c r="J2" s="430"/>
+      <c r="K2" s="430"/>
+      <c r="L2" s="430"/>
+      <c r="M2" s="430"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="372"/>
@@ -5784,44 +5823,44 @@
         <v>2</v>
       </c>
       <c r="B4" s="373"/>
-      <c r="C4" s="423" t="str">
+      <c r="C4" s="420" t="str">
         <f>Sheet1!R10&amp;" "&amp;Sheet1!R11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D4" s="424"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="424"/>
-      <c r="G4" s="424"/>
-      <c r="H4" s="425"/>
+      <c r="D4" s="421"/>
+      <c r="E4" s="421"/>
+      <c r="F4" s="421"/>
+      <c r="G4" s="421"/>
+      <c r="H4" s="422"/>
       <c r="I4" s="374"/>
       <c r="J4" s="375" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="426"/>
-      <c r="L4" s="427"/>
-      <c r="M4" s="428"/>
+      <c r="K4" s="431"/>
+      <c r="L4" s="432"/>
+      <c r="M4" s="433"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="373" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="373"/>
-      <c r="C5" s="423"/>
-      <c r="D5" s="424"/>
-      <c r="E5" s="424"/>
-      <c r="F5" s="424"/>
-      <c r="G5" s="424"/>
-      <c r="H5" s="425"/>
+      <c r="C5" s="420"/>
+      <c r="D5" s="421"/>
+      <c r="E5" s="421"/>
+      <c r="F5" s="421"/>
+      <c r="G5" s="421"/>
+      <c r="H5" s="422"/>
       <c r="I5" s="374"/>
       <c r="J5" s="375" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="426">
+      <c r="K5" s="431">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="427"/>
-      <c r="M5" s="428"/>
+      <c r="L5" s="432"/>
+      <c r="M5" s="433"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="373" t="s">
@@ -5829,24 +5868,24 @@
       </c>
       <c r="B6" s="373"/>
       <c r="C6" s="373"/>
-      <c r="D6" s="423" t="str">
+      <c r="D6" s="420" t="str">
         <f>Sheet1!F16</f>
         <v/>
       </c>
-      <c r="E6" s="424"/>
-      <c r="F6" s="424"/>
-      <c r="G6" s="424"/>
-      <c r="H6" s="425"/>
+      <c r="E6" s="421"/>
+      <c r="F6" s="421"/>
+      <c r="G6" s="421"/>
+      <c r="H6" s="422"/>
       <c r="I6" s="374"/>
       <c r="J6" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="423" t="str">
+      <c r="K6" s="420" t="str">
         <f>Sheet1!F17</f>
         <v/>
       </c>
-      <c r="L6" s="424"/>
-      <c r="M6" s="425"/>
+      <c r="L6" s="421"/>
+      <c r="M6" s="422"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="373" t="s">
@@ -5854,24 +5893,24 @@
       </c>
       <c r="B7" s="373"/>
       <c r="C7" s="373"/>
-      <c r="D7" s="420" t="str">
+      <c r="D7" s="427" t="str">
         <f>Sheet1!V12</f>
         <v/>
       </c>
-      <c r="E7" s="421"/>
-      <c r="F7" s="421"/>
-      <c r="G7" s="421"/>
-      <c r="H7" s="422"/>
+      <c r="E7" s="428"/>
+      <c r="F7" s="428"/>
+      <c r="G7" s="428"/>
+      <c r="H7" s="429"/>
       <c r="I7" s="374"/>
       <c r="J7" s="375" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="423" t="str">
+      <c r="K7" s="420" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="L7" s="424"/>
-      <c r="M7" s="425"/>
+      <c r="L7" s="421"/>
+      <c r="M7" s="422"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="373" t="s">
@@ -5879,18 +5918,18 @@
       </c>
       <c r="B8" s="373"/>
       <c r="C8" s="373"/>
-      <c r="D8" s="420"/>
-      <c r="E8" s="421"/>
-      <c r="F8" s="421"/>
-      <c r="G8" s="421"/>
-      <c r="H8" s="422"/>
+      <c r="D8" s="427"/>
+      <c r="E8" s="428"/>
+      <c r="F8" s="428"/>
+      <c r="G8" s="428"/>
+      <c r="H8" s="429"/>
       <c r="I8" s="374"/>
       <c r="J8" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="423"/>
-      <c r="L8" s="424"/>
-      <c r="M8" s="425"/>
+      <c r="K8" s="420"/>
+      <c r="L8" s="421"/>
+      <c r="M8" s="422"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="373" t="s">
@@ -5898,18 +5937,18 @@
       </c>
       <c r="B9" s="373"/>
       <c r="C9" s="373"/>
-      <c r="D9" s="420"/>
-      <c r="E9" s="421"/>
-      <c r="F9" s="421"/>
-      <c r="G9" s="421"/>
-      <c r="H9" s="422"/>
+      <c r="D9" s="427"/>
+      <c r="E9" s="428"/>
+      <c r="F9" s="428"/>
+      <c r="G9" s="428"/>
+      <c r="H9" s="429"/>
       <c r="I9" s="374"/>
       <c r="J9" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="423"/>
-      <c r="L9" s="424"/>
-      <c r="M9" s="425"/>
+      <c r="K9" s="420"/>
+      <c r="L9" s="421"/>
+      <c r="M9" s="422"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="373" t="s">
@@ -5917,21 +5956,21 @@
       </c>
       <c r="B10" s="373"/>
       <c r="C10" s="373"/>
-      <c r="D10" s="420" t="str">
+      <c r="D10" s="427" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="E10" s="421"/>
-      <c r="F10" s="421"/>
-      <c r="G10" s="421"/>
-      <c r="H10" s="422"/>
+      <c r="E10" s="428"/>
+      <c r="F10" s="428"/>
+      <c r="G10" s="428"/>
+      <c r="H10" s="429"/>
       <c r="I10" s="374"/>
       <c r="J10" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="423"/>
-      <c r="L10" s="424"/>
-      <c r="M10" s="425"/>
+      <c r="K10" s="420"/>
+      <c r="L10" s="421"/>
+      <c r="M10" s="422"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="373" t="s">
@@ -5939,20 +5978,20 @@
       </c>
       <c r="B11" s="373"/>
       <c r="C11" s="373"/>
-      <c r="D11" s="420" t="s">
+      <c r="D11" s="427" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="421"/>
-      <c r="F11" s="421"/>
-      <c r="G11" s="421"/>
-      <c r="H11" s="422"/>
+      <c r="E11" s="428"/>
+      <c r="F11" s="428"/>
+      <c r="G11" s="428"/>
+      <c r="H11" s="429"/>
       <c r="I11" s="374"/>
       <c r="J11" s="375" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="423"/>
-      <c r="L11" s="424"/>
-      <c r="M11" s="425"/>
+      <c r="K11" s="420"/>
+      <c r="L11" s="421"/>
+      <c r="M11" s="422"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="373"/>
@@ -5971,21 +6010,21 @@
       <c r="N12" s="379"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="433" t="s">
+      <c r="A13" s="426" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="433"/>
-      <c r="C13" s="433"/>
-      <c r="D13" s="433"/>
-      <c r="E13" s="433"/>
-      <c r="F13" s="433"/>
-      <c r="G13" s="433"/>
-      <c r="H13" s="433"/>
-      <c r="I13" s="433"/>
-      <c r="J13" s="433"/>
-      <c r="K13" s="433"/>
-      <c r="L13" s="433"/>
-      <c r="M13" s="433"/>
+      <c r="B13" s="426"/>
+      <c r="C13" s="426"/>
+      <c r="D13" s="426"/>
+      <c r="E13" s="426"/>
+      <c r="F13" s="426"/>
+      <c r="G13" s="426"/>
+      <c r="H13" s="426"/>
+      <c r="I13" s="426"/>
+      <c r="J13" s="426"/>
+      <c r="K13" s="426"/>
+      <c r="L13" s="426"/>
+      <c r="M13" s="426"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M14" s="380" t="s">
@@ -6047,7 +6086,7 @@
       <c r="A18" s="381"/>
       <c r="B18" s="381"/>
       <c r="C18" s="384" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D18" s="381"/>
       <c r="E18" s="381"/>
@@ -6082,7 +6121,7 @@
       <c r="A20" s="381"/>
       <c r="B20" s="381"/>
       <c r="C20" s="384" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D20" s="381"/>
       <c r="E20" s="381"/>
@@ -6099,7 +6138,7 @@
       <c r="A21" s="381"/>
       <c r="B21" s="381"/>
       <c r="C21" s="384" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D21" s="381"/>
       <c r="E21" s="381"/>
@@ -6434,19 +6473,19 @@
     <row r="41" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="373"/>
       <c r="B41" s="373"/>
-      <c r="C41" s="430" t="s">
+      <c r="C41" s="423" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="431"/>
-      <c r="E41" s="431"/>
-      <c r="F41" s="431"/>
-      <c r="G41" s="431"/>
-      <c r="H41" s="431"/>
-      <c r="I41" s="431"/>
-      <c r="J41" s="431"/>
-      <c r="K41" s="431"/>
-      <c r="L41" s="431"/>
-      <c r="M41" s="432"/>
+      <c r="D41" s="424"/>
+      <c r="E41" s="424"/>
+      <c r="F41" s="424"/>
+      <c r="G41" s="424"/>
+      <c r="H41" s="424"/>
+      <c r="I41" s="424"/>
+      <c r="J41" s="424"/>
+      <c r="K41" s="424"/>
+      <c r="L41" s="424"/>
+      <c r="M41" s="425"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="373" t="s">
@@ -6484,21 +6523,21 @@
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="429" t="s">
-        <v>504</v>
-      </c>
-      <c r="B45" s="429"/>
-      <c r="C45" s="429"/>
-      <c r="D45" s="429"/>
-      <c r="E45" s="429"/>
-      <c r="F45" s="429"/>
-      <c r="G45" s="429"/>
-      <c r="H45" s="429"/>
-      <c r="I45" s="429"/>
-      <c r="J45" s="429"/>
-      <c r="K45" s="429"/>
-      <c r="L45" s="429"/>
-      <c r="M45" s="429"/>
+      <c r="A45" s="419" t="s">
+        <v>503</v>
+      </c>
+      <c r="B45" s="419"/>
+      <c r="C45" s="419"/>
+      <c r="D45" s="419"/>
+      <c r="E45" s="419"/>
+      <c r="F45" s="419"/>
+      <c r="G45" s="419"/>
+      <c r="H45" s="419"/>
+      <c r="I45" s="419"/>
+      <c r="J45" s="419"/>
+      <c r="K45" s="419"/>
+      <c r="L45" s="419"/>
+      <c r="M45" s="419"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -6511,6 +6550,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="21">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="A45:M45"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
@@ -6525,22 +6571,15 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M18 JI18 TE18 ADA18 AMW18 AWS18 BGO18 BQK18 CAG18 CKC18 CTY18 DDU18 DNQ18 DXM18 EHI18 ERE18 FBA18 FKW18 FUS18 GEO18 GOK18 GYG18 HIC18 HRY18 IBU18 ILQ18 IVM18 JFI18 JPE18 JZA18 KIW18 KSS18 LCO18 LMK18 LWG18 MGC18 MPY18 MZU18 NJQ18 NTM18 ODI18 ONE18 OXA18 PGW18 PQS18 QAO18 QKK18 QUG18 REC18 RNY18 RXU18 SHQ18 SRM18 TBI18 TLE18 TVA18 UEW18 UOS18 UYO18 VIK18 VSG18 WCC18 WLY18 WVU18 M65554 JI65554 TE65554 ADA65554 AMW65554 AWS65554 BGO65554 BQK65554 CAG65554 CKC65554 CTY65554 DDU65554 DNQ65554 DXM65554 EHI65554 ERE65554 FBA65554 FKW65554 FUS65554 GEO65554 GOK65554 GYG65554 HIC65554 HRY65554 IBU65554 ILQ65554 IVM65554 JFI65554 JPE65554 JZA65554 KIW65554 KSS65554 LCO65554 LMK65554 LWG65554 MGC65554 MPY65554 MZU65554 NJQ65554 NTM65554 ODI65554 ONE65554 OXA65554 PGW65554 PQS65554 QAO65554 QKK65554 QUG65554 REC65554 RNY65554 RXU65554 SHQ65554 SRM65554 TBI65554 TLE65554 TVA65554 UEW65554 UOS65554 UYO65554 VIK65554 VSG65554 WCC65554 WLY65554 WVU65554 M131090 JI131090 TE131090 ADA131090 AMW131090 AWS131090 BGO131090 BQK131090 CAG131090 CKC131090 CTY131090 DDU131090 DNQ131090 DXM131090 EHI131090 ERE131090 FBA131090 FKW131090 FUS131090 GEO131090 GOK131090 GYG131090 HIC131090 HRY131090 IBU131090 ILQ131090 IVM131090 JFI131090 JPE131090 JZA131090 KIW131090 KSS131090 LCO131090 LMK131090 LWG131090 MGC131090 MPY131090 MZU131090 NJQ131090 NTM131090 ODI131090 ONE131090 OXA131090 PGW131090 PQS131090 QAO131090 QKK131090 QUG131090 REC131090 RNY131090 RXU131090 SHQ131090 SRM131090 TBI131090 TLE131090 TVA131090 UEW131090 UOS131090 UYO131090 VIK131090 VSG131090 WCC131090 WLY131090 WVU131090 M196626 JI196626 TE196626 ADA196626 AMW196626 AWS196626 BGO196626 BQK196626 CAG196626 CKC196626 CTY196626 DDU196626 DNQ196626 DXM196626 EHI196626 ERE196626 FBA196626 FKW196626 FUS196626 GEO196626 GOK196626 GYG196626 HIC196626 HRY196626 IBU196626 ILQ196626 IVM196626 JFI196626 JPE196626 JZA196626 KIW196626 KSS196626 LCO196626 LMK196626 LWG196626 MGC196626 MPY196626 MZU196626 NJQ196626 NTM196626 ODI196626 ONE196626 OXA196626 PGW196626 PQS196626 QAO196626 QKK196626 QUG196626 REC196626 RNY196626 RXU196626 SHQ196626 SRM196626 TBI196626 TLE196626 TVA196626 UEW196626 UOS196626 UYO196626 VIK196626 VSG196626 WCC196626 WLY196626 WVU196626 M262162 JI262162 TE262162 ADA262162 AMW262162 AWS262162 BGO262162 BQK262162 CAG262162 CKC262162 CTY262162 DDU262162 DNQ262162 DXM262162 EHI262162 ERE262162 FBA262162 FKW262162 FUS262162 GEO262162 GOK262162 GYG262162 HIC262162 HRY262162 IBU262162 ILQ262162 IVM262162 JFI262162 JPE262162 JZA262162 KIW262162 KSS262162 LCO262162 LMK262162 LWG262162 MGC262162 MPY262162 MZU262162 NJQ262162 NTM262162 ODI262162 ONE262162 OXA262162 PGW262162 PQS262162 QAO262162 QKK262162 QUG262162 REC262162 RNY262162 RXU262162 SHQ262162 SRM262162 TBI262162 TLE262162 TVA262162 UEW262162 UOS262162 UYO262162 VIK262162 VSG262162 WCC262162 WLY262162 WVU262162 M327698 JI327698 TE327698 ADA327698 AMW327698 AWS327698 BGO327698 BQK327698 CAG327698 CKC327698 CTY327698 DDU327698 DNQ327698 DXM327698 EHI327698 ERE327698 FBA327698 FKW327698 FUS327698 GEO327698 GOK327698 GYG327698 HIC327698 HRY327698 IBU327698 ILQ327698 IVM327698 JFI327698 JPE327698 JZA327698 KIW327698 KSS327698 LCO327698 LMK327698 LWG327698 MGC327698 MPY327698 MZU327698 NJQ327698 NTM327698 ODI327698 ONE327698 OXA327698 PGW327698 PQS327698 QAO327698 QKK327698 QUG327698 REC327698 RNY327698 RXU327698 SHQ327698 SRM327698 TBI327698 TLE327698 TVA327698 UEW327698 UOS327698 UYO327698 VIK327698 VSG327698 WCC327698 WLY327698 WVU327698 M393234 JI393234 TE393234 ADA393234 AMW393234 AWS393234 BGO393234 BQK393234 CAG393234 CKC393234 CTY393234 DDU393234 DNQ393234 DXM393234 EHI393234 ERE393234 FBA393234 FKW393234 FUS393234 GEO393234 GOK393234 GYG393234 HIC393234 HRY393234 IBU393234 ILQ393234 IVM393234 JFI393234 JPE393234 JZA393234 KIW393234 KSS393234 LCO393234 LMK393234 LWG393234 MGC393234 MPY393234 MZU393234 NJQ393234 NTM393234 ODI393234 ONE393234 OXA393234 PGW393234 PQS393234 QAO393234 QKK393234 QUG393234 REC393234 RNY393234 RXU393234 SHQ393234 SRM393234 TBI393234 TLE393234 TVA393234 UEW393234 UOS393234 UYO393234 VIK393234 VSG393234 WCC393234 WLY393234 WVU393234 M458770 JI458770 TE458770 ADA458770 AMW458770 AWS458770 BGO458770 BQK458770 CAG458770 CKC458770 CTY458770 DDU458770 DNQ458770 DXM458770 EHI458770 ERE458770 FBA458770 FKW458770 FUS458770 GEO458770 GOK458770 GYG458770 HIC458770 HRY458770 IBU458770 ILQ458770 IVM458770 JFI458770 JPE458770 JZA458770 KIW458770 KSS458770 LCO458770 LMK458770 LWG458770 MGC458770 MPY458770 MZU458770 NJQ458770 NTM458770 ODI458770 ONE458770 OXA458770 PGW458770 PQS458770 QAO458770 QKK458770 QUG458770 REC458770 RNY458770 RXU458770 SHQ458770 SRM458770 TBI458770 TLE458770 TVA458770 UEW458770 UOS458770 UYO458770 VIK458770 VSG458770 WCC458770 WLY458770 WVU458770 M524306 JI524306 TE524306 ADA524306 AMW524306 AWS524306 BGO524306 BQK524306 CAG524306 CKC524306 CTY524306 DDU524306 DNQ524306 DXM524306 EHI524306 ERE524306 FBA524306 FKW524306 FUS524306 GEO524306 GOK524306 GYG524306 HIC524306 HRY524306 IBU524306 ILQ524306 IVM524306 JFI524306 JPE524306 JZA524306 KIW524306 KSS524306 LCO524306 LMK524306 LWG524306 MGC524306 MPY524306 MZU524306 NJQ524306 NTM524306 ODI524306 ONE524306 OXA524306 PGW524306 PQS524306 QAO524306 QKK524306 QUG524306 REC524306 RNY524306 RXU524306 SHQ524306 SRM524306 TBI524306 TLE524306 TVA524306 UEW524306 UOS524306 UYO524306 VIK524306 VSG524306 WCC524306 WLY524306 WVU524306 M589842 JI589842 TE589842 ADA589842 AMW589842 AWS589842 BGO589842 BQK589842 CAG589842 CKC589842 CTY589842 DDU589842 DNQ589842 DXM589842 EHI589842 ERE589842 FBA589842 FKW589842 FUS589842 GEO589842 GOK589842 GYG589842 HIC589842 HRY589842 IBU589842 ILQ589842 IVM589842 JFI589842 JPE589842 JZA589842 KIW589842 KSS589842 LCO589842 LMK589842 LWG589842 MGC589842 MPY589842 MZU589842 NJQ589842 NTM589842 ODI589842 ONE589842 OXA589842 PGW589842 PQS589842 QAO589842 QKK589842 QUG589842 REC589842 RNY589842 RXU589842 SHQ589842 SRM589842 TBI589842 TLE589842 TVA589842 UEW589842 UOS589842 UYO589842 VIK589842 VSG589842 WCC589842 WLY589842 WVU589842 M655378 JI655378 TE655378 ADA655378 AMW655378 AWS655378 BGO655378 BQK655378 CAG655378 CKC655378 CTY655378 DDU655378 DNQ655378 DXM655378 EHI655378 ERE655378 FBA655378 FKW655378 FUS655378 GEO655378 GOK655378 GYG655378 HIC655378 HRY655378 IBU655378 ILQ655378 IVM655378 JFI655378 JPE655378 JZA655378 KIW655378 KSS655378 LCO655378 LMK655378 LWG655378 MGC655378 MPY655378 MZU655378 NJQ655378 NTM655378 ODI655378 ONE655378 OXA655378 PGW655378 PQS655378 QAO655378 QKK655378 QUG655378 REC655378 RNY655378 RXU655378 SHQ655378 SRM655378 TBI655378 TLE655378 TVA655378 UEW655378 UOS655378 UYO655378 VIK655378 VSG655378 WCC655378 WLY655378 WVU655378 M720914 JI720914 TE720914 ADA720914 AMW720914 AWS720914 BGO720914 BQK720914 CAG720914 CKC720914 CTY720914 DDU720914 DNQ720914 DXM720914 EHI720914 ERE720914 FBA720914 FKW720914 FUS720914 GEO720914 GOK720914 GYG720914 HIC720914 HRY720914 IBU720914 ILQ720914 IVM720914 JFI720914 JPE720914 JZA720914 KIW720914 KSS720914 LCO720914 LMK720914 LWG720914 MGC720914 MPY720914 MZU720914 NJQ720914 NTM720914 ODI720914 ONE720914 OXA720914 PGW720914 PQS720914 QAO720914 QKK720914 QUG720914 REC720914 RNY720914 RXU720914 SHQ720914 SRM720914 TBI720914 TLE720914 TVA720914 UEW720914 UOS720914 UYO720914 VIK720914 VSG720914 WCC720914 WLY720914 WVU720914 M786450 JI786450 TE786450 ADA786450 AMW786450 AWS786450 BGO786450 BQK786450 CAG786450 CKC786450 CTY786450 DDU786450 DNQ786450 DXM786450 EHI786450 ERE786450 FBA786450 FKW786450 FUS786450 GEO786450 GOK786450 GYG786450 HIC786450 HRY786450 IBU786450 ILQ786450 IVM786450 JFI786450 JPE786450 JZA786450 KIW786450 KSS786450 LCO786450 LMK786450 LWG786450 MGC786450 MPY786450 MZU786450 NJQ786450 NTM786450 ODI786450 ONE786450 OXA786450 PGW786450 PQS786450 QAO786450 QKK786450 QUG786450 REC786450 RNY786450 RXU786450 SHQ786450 SRM786450 TBI786450 TLE786450 TVA786450 UEW786450 UOS786450 UYO786450 VIK786450 VSG786450 WCC786450 WLY786450 WVU786450 M851986 JI851986 TE851986 ADA851986 AMW851986 AWS851986 BGO851986 BQK851986 CAG851986 CKC851986 CTY851986 DDU851986 DNQ851986 DXM851986 EHI851986 ERE851986 FBA851986 FKW851986 FUS851986 GEO851986 GOK851986 GYG851986 HIC851986 HRY851986 IBU851986 ILQ851986 IVM851986 JFI851986 JPE851986 JZA851986 KIW851986 KSS851986 LCO851986 LMK851986 LWG851986 MGC851986 MPY851986 MZU851986 NJQ851986 NTM851986 ODI851986 ONE851986 OXA851986 PGW851986 PQS851986 QAO851986 QKK851986 QUG851986 REC851986 RNY851986 RXU851986 SHQ851986 SRM851986 TBI851986 TLE851986 TVA851986 UEW851986 UOS851986 UYO851986 VIK851986 VSG851986 WCC851986 WLY851986 WVU851986 M917522 JI917522 TE917522 ADA917522 AMW917522 AWS917522 BGO917522 BQK917522 CAG917522 CKC917522 CTY917522 DDU917522 DNQ917522 DXM917522 EHI917522 ERE917522 FBA917522 FKW917522 FUS917522 GEO917522 GOK917522 GYG917522 HIC917522 HRY917522 IBU917522 ILQ917522 IVM917522 JFI917522 JPE917522 JZA917522 KIW917522 KSS917522 LCO917522 LMK917522 LWG917522 MGC917522 MPY917522 MZU917522 NJQ917522 NTM917522 ODI917522 ONE917522 OXA917522 PGW917522 PQS917522 QAO917522 QKK917522 QUG917522 REC917522 RNY917522 RXU917522 SHQ917522 SRM917522 TBI917522 TLE917522 TVA917522 UEW917522 UOS917522 UYO917522 VIK917522 VSG917522 WCC917522 WLY917522 WVU917522 M983058 JI983058 TE983058 ADA983058 AMW983058 AWS983058 BGO983058 BQK983058 CAG983058 CKC983058 CTY983058 DDU983058 DNQ983058 DXM983058 EHI983058 ERE983058 FBA983058 FKW983058 FUS983058 GEO983058 GOK983058 GYG983058 HIC983058 HRY983058 IBU983058 ILQ983058 IVM983058 JFI983058 JPE983058 JZA983058 KIW983058 KSS983058 LCO983058 LMK983058 LWG983058 MGC983058 MPY983058 MZU983058 NJQ983058 NTM983058 ODI983058 ONE983058 OXA983058 PGW983058 PQS983058 QAO983058 QKK983058 QUG983058 REC983058 RNY983058 RXU983058 SHQ983058 SRM983058 TBI983058 TLE983058 TVA983058 UEW983058 UOS983058 UYO983058 VIK983058 VSG983058 WCC983058 WLY983058 WVU983058 M20:M21 JI20:JI21 TE20:TE21 ADA20:ADA21 AMW20:AMW21 AWS20:AWS21 BGO20:BGO21 BQK20:BQK21 CAG20:CAG21 CKC20:CKC21 CTY20:CTY21 DDU20:DDU21 DNQ20:DNQ21 DXM20:DXM21 EHI20:EHI21 ERE20:ERE21 FBA20:FBA21 FKW20:FKW21 FUS20:FUS21 GEO20:GEO21 GOK20:GOK21 GYG20:GYG21 HIC20:HIC21 HRY20:HRY21 IBU20:IBU21 ILQ20:ILQ21 IVM20:IVM21 JFI20:JFI21 JPE20:JPE21 JZA20:JZA21 KIW20:KIW21 KSS20:KSS21 LCO20:LCO21 LMK20:LMK21 LWG20:LWG21 MGC20:MGC21 MPY20:MPY21 MZU20:MZU21 NJQ20:NJQ21 NTM20:NTM21 ODI20:ODI21 ONE20:ONE21 OXA20:OXA21 PGW20:PGW21 PQS20:PQS21 QAO20:QAO21 QKK20:QKK21 QUG20:QUG21 REC20:REC21 RNY20:RNY21 RXU20:RXU21 SHQ20:SHQ21 SRM20:SRM21 TBI20:TBI21 TLE20:TLE21 TVA20:TVA21 UEW20:UEW21 UOS20:UOS21 UYO20:UYO21 VIK20:VIK21 VSG20:VSG21 WCC20:WCC21 WLY20:WLY21 WVU20:WVU21 M65556:M65557 JI65556:JI65557 TE65556:TE65557 ADA65556:ADA65557 AMW65556:AMW65557 AWS65556:AWS65557 BGO65556:BGO65557 BQK65556:BQK65557 CAG65556:CAG65557 CKC65556:CKC65557 CTY65556:CTY65557 DDU65556:DDU65557 DNQ65556:DNQ65557 DXM65556:DXM65557 EHI65556:EHI65557 ERE65556:ERE65557 FBA65556:FBA65557 FKW65556:FKW65557 FUS65556:FUS65557 GEO65556:GEO65557 GOK65556:GOK65557 GYG65556:GYG65557 HIC65556:HIC65557 HRY65556:HRY65557 IBU65556:IBU65557 ILQ65556:ILQ65557 IVM65556:IVM65557 JFI65556:JFI65557 JPE65556:JPE65557 JZA65556:JZA65557 KIW65556:KIW65557 KSS65556:KSS65557 LCO65556:LCO65557 LMK65556:LMK65557 LWG65556:LWG65557 MGC65556:MGC65557 MPY65556:MPY65557 MZU65556:MZU65557 NJQ65556:NJQ65557 NTM65556:NTM65557 ODI65556:ODI65557 ONE65556:ONE65557 OXA65556:OXA65557 PGW65556:PGW65557 PQS65556:PQS65557 QAO65556:QAO65557 QKK65556:QKK65557 QUG65556:QUG65557 REC65556:REC65557 RNY65556:RNY65557 RXU65556:RXU65557 SHQ65556:SHQ65557 SRM65556:SRM65557 TBI65556:TBI65557 TLE65556:TLE65557 TVA65556:TVA65557 UEW65556:UEW65557 UOS65556:UOS65557 UYO65556:UYO65557 VIK65556:VIK65557 VSG65556:VSG65557 WCC65556:WCC65557 WLY65556:WLY65557 WVU65556:WVU65557 M131092:M131093 JI131092:JI131093 TE131092:TE131093 ADA131092:ADA131093 AMW131092:AMW131093 AWS131092:AWS131093 BGO131092:BGO131093 BQK131092:BQK131093 CAG131092:CAG131093 CKC131092:CKC131093 CTY131092:CTY131093 DDU131092:DDU131093 DNQ131092:DNQ131093 DXM131092:DXM131093 EHI131092:EHI131093 ERE131092:ERE131093 FBA131092:FBA131093 FKW131092:FKW131093 FUS131092:FUS131093 GEO131092:GEO131093 GOK131092:GOK131093 GYG131092:GYG131093 HIC131092:HIC131093 HRY131092:HRY131093 IBU131092:IBU131093 ILQ131092:ILQ131093 IVM131092:IVM131093 JFI131092:JFI131093 JPE131092:JPE131093 JZA131092:JZA131093 KIW131092:KIW131093 KSS131092:KSS131093 LCO131092:LCO131093 LMK131092:LMK131093 LWG131092:LWG131093 MGC131092:MGC131093 MPY131092:MPY131093 MZU131092:MZU131093 NJQ131092:NJQ131093 NTM131092:NTM131093 ODI131092:ODI131093 ONE131092:ONE131093 OXA131092:OXA131093 PGW131092:PGW131093 PQS131092:PQS131093 QAO131092:QAO131093 QKK131092:QKK131093 QUG131092:QUG131093 REC131092:REC131093 RNY131092:RNY131093 RXU131092:RXU131093 SHQ131092:SHQ131093 SRM131092:SRM131093 TBI131092:TBI131093 TLE131092:TLE131093 TVA131092:TVA131093 UEW131092:UEW131093 UOS131092:UOS131093 UYO131092:UYO131093 VIK131092:VIK131093 VSG131092:VSG131093 WCC131092:WCC131093 WLY131092:WLY131093 WVU131092:WVU131093 M196628:M196629 JI196628:JI196629 TE196628:TE196629 ADA196628:ADA196629 AMW196628:AMW196629 AWS196628:AWS196629 BGO196628:BGO196629 BQK196628:BQK196629 CAG196628:CAG196629 CKC196628:CKC196629 CTY196628:CTY196629 DDU196628:DDU196629 DNQ196628:DNQ196629 DXM196628:DXM196629 EHI196628:EHI196629 ERE196628:ERE196629 FBA196628:FBA196629 FKW196628:FKW196629 FUS196628:FUS196629 GEO196628:GEO196629 GOK196628:GOK196629 GYG196628:GYG196629 HIC196628:HIC196629 HRY196628:HRY196629 IBU196628:IBU196629 ILQ196628:ILQ196629 IVM196628:IVM196629 JFI196628:JFI196629 JPE196628:JPE196629 JZA196628:JZA196629 KIW196628:KIW196629 KSS196628:KSS196629 LCO196628:LCO196629 LMK196628:LMK196629 LWG196628:LWG196629 MGC196628:MGC196629 MPY196628:MPY196629 MZU196628:MZU196629 NJQ196628:NJQ196629 NTM196628:NTM196629 ODI196628:ODI196629 ONE196628:ONE196629 OXA196628:OXA196629 PGW196628:PGW196629 PQS196628:PQS196629 QAO196628:QAO196629 QKK196628:QKK196629 QUG196628:QUG196629 REC196628:REC196629 RNY196628:RNY196629 RXU196628:RXU196629 SHQ196628:SHQ196629 SRM196628:SRM196629 TBI196628:TBI196629 TLE196628:TLE196629 TVA196628:TVA196629 UEW196628:UEW196629 UOS196628:UOS196629 UYO196628:UYO196629 VIK196628:VIK196629 VSG196628:VSG196629 WCC196628:WCC196629 WLY196628:WLY196629 WVU196628:WVU196629 M262164:M262165 JI262164:JI262165 TE262164:TE262165 ADA262164:ADA262165 AMW262164:AMW262165 AWS262164:AWS262165 BGO262164:BGO262165 BQK262164:BQK262165 CAG262164:CAG262165 CKC262164:CKC262165 CTY262164:CTY262165 DDU262164:DDU262165 DNQ262164:DNQ262165 DXM262164:DXM262165 EHI262164:EHI262165 ERE262164:ERE262165 FBA262164:FBA262165 FKW262164:FKW262165 FUS262164:FUS262165 GEO262164:GEO262165 GOK262164:GOK262165 GYG262164:GYG262165 HIC262164:HIC262165 HRY262164:HRY262165 IBU262164:IBU262165 ILQ262164:ILQ262165 IVM262164:IVM262165 JFI262164:JFI262165 JPE262164:JPE262165 JZA262164:JZA262165 KIW262164:KIW262165 KSS262164:KSS262165 LCO262164:LCO262165 LMK262164:LMK262165 LWG262164:LWG262165 MGC262164:MGC262165 MPY262164:MPY262165 MZU262164:MZU262165 NJQ262164:NJQ262165 NTM262164:NTM262165 ODI262164:ODI262165 ONE262164:ONE262165 OXA262164:OXA262165 PGW262164:PGW262165 PQS262164:PQS262165 QAO262164:QAO262165 QKK262164:QKK262165 QUG262164:QUG262165 REC262164:REC262165 RNY262164:RNY262165 RXU262164:RXU262165 SHQ262164:SHQ262165 SRM262164:SRM262165 TBI262164:TBI262165 TLE262164:TLE262165 TVA262164:TVA262165 UEW262164:UEW262165 UOS262164:UOS262165 UYO262164:UYO262165 VIK262164:VIK262165 VSG262164:VSG262165 WCC262164:WCC262165 WLY262164:WLY262165 WVU262164:WVU262165 M327700:M327701 JI327700:JI327701 TE327700:TE327701 ADA327700:ADA327701 AMW327700:AMW327701 AWS327700:AWS327701 BGO327700:BGO327701 BQK327700:BQK327701 CAG327700:CAG327701 CKC327700:CKC327701 CTY327700:CTY327701 DDU327700:DDU327701 DNQ327700:DNQ327701 DXM327700:DXM327701 EHI327700:EHI327701 ERE327700:ERE327701 FBA327700:FBA327701 FKW327700:FKW327701 FUS327700:FUS327701 GEO327700:GEO327701 GOK327700:GOK327701 GYG327700:GYG327701 HIC327700:HIC327701 HRY327700:HRY327701 IBU327700:IBU327701 ILQ327700:ILQ327701 IVM327700:IVM327701 JFI327700:JFI327701 JPE327700:JPE327701 JZA327700:JZA327701 KIW327700:KIW327701 KSS327700:KSS327701 LCO327700:LCO327701 LMK327700:LMK327701 LWG327700:LWG327701 MGC327700:MGC327701 MPY327700:MPY327701 MZU327700:MZU327701 NJQ327700:NJQ327701 NTM327700:NTM327701 ODI327700:ODI327701 ONE327700:ONE327701 OXA327700:OXA327701 PGW327700:PGW327701 PQS327700:PQS327701 QAO327700:QAO327701 QKK327700:QKK327701 QUG327700:QUG327701 REC327700:REC327701 RNY327700:RNY327701 RXU327700:RXU327701 SHQ327700:SHQ327701 SRM327700:SRM327701 TBI327700:TBI327701 TLE327700:TLE327701 TVA327700:TVA327701 UEW327700:UEW327701 UOS327700:UOS327701 UYO327700:UYO327701 VIK327700:VIK327701 VSG327700:VSG327701 WCC327700:WCC327701 WLY327700:WLY327701 WVU327700:WVU327701 M393236:M393237 JI393236:JI393237 TE393236:TE393237 ADA393236:ADA393237 AMW393236:AMW393237 AWS393236:AWS393237 BGO393236:BGO393237 BQK393236:BQK393237 CAG393236:CAG393237 CKC393236:CKC393237 CTY393236:CTY393237 DDU393236:DDU393237 DNQ393236:DNQ393237 DXM393236:DXM393237 EHI393236:EHI393237 ERE393236:ERE393237 FBA393236:FBA393237 FKW393236:FKW393237 FUS393236:FUS393237 GEO393236:GEO393237 GOK393236:GOK393237 GYG393236:GYG393237 HIC393236:HIC393237 HRY393236:HRY393237 IBU393236:IBU393237 ILQ393236:ILQ393237 IVM393236:IVM393237 JFI393236:JFI393237 JPE393236:JPE393237 JZA393236:JZA393237 KIW393236:KIW393237 KSS393236:KSS393237 LCO393236:LCO393237 LMK393236:LMK393237 LWG393236:LWG393237 MGC393236:MGC393237 MPY393236:MPY393237 MZU393236:MZU393237 NJQ393236:NJQ393237 NTM393236:NTM393237 ODI393236:ODI393237 ONE393236:ONE393237 OXA393236:OXA393237 PGW393236:PGW393237 PQS393236:PQS393237 QAO393236:QAO393237 QKK393236:QKK393237 QUG393236:QUG393237 REC393236:REC393237 RNY393236:RNY393237 RXU393236:RXU393237 SHQ393236:SHQ393237 SRM393236:SRM393237 TBI393236:TBI393237 TLE393236:TLE393237 TVA393236:TVA393237 UEW393236:UEW393237 UOS393236:UOS393237 UYO393236:UYO393237 VIK393236:VIK393237 VSG393236:VSG393237 WCC393236:WCC393237 WLY393236:WLY393237 WVU393236:WVU393237 M458772:M458773 JI458772:JI458773 TE458772:TE458773 ADA458772:ADA458773 AMW458772:AMW458773 AWS458772:AWS458773 BGO458772:BGO458773 BQK458772:BQK458773 CAG458772:CAG458773 CKC458772:CKC458773 CTY458772:CTY458773 DDU458772:DDU458773 DNQ458772:DNQ458773 DXM458772:DXM458773 EHI458772:EHI458773 ERE458772:ERE458773 FBA458772:FBA458773 FKW458772:FKW458773 FUS458772:FUS458773 GEO458772:GEO458773 GOK458772:GOK458773 GYG458772:GYG458773 HIC458772:HIC458773 HRY458772:HRY458773 IBU458772:IBU458773 ILQ458772:ILQ458773 IVM458772:IVM458773 JFI458772:JFI458773 JPE458772:JPE458773 JZA458772:JZA458773 KIW458772:KIW458773 KSS458772:KSS458773 LCO458772:LCO458773 LMK458772:LMK458773 LWG458772:LWG458773 MGC458772:MGC458773 MPY458772:MPY458773 MZU458772:MZU458773 NJQ458772:NJQ458773 NTM458772:NTM458773 ODI458772:ODI458773 ONE458772:ONE458773 OXA458772:OXA458773 PGW458772:PGW458773 PQS458772:PQS458773 QAO458772:QAO458773 QKK458772:QKK458773 QUG458772:QUG458773 REC458772:REC458773 RNY458772:RNY458773 RXU458772:RXU458773 SHQ458772:SHQ458773 SRM458772:SRM458773 TBI458772:TBI458773 TLE458772:TLE458773 TVA458772:TVA458773 UEW458772:UEW458773 UOS458772:UOS458773 UYO458772:UYO458773 VIK458772:VIK458773 VSG458772:VSG458773 WCC458772:WCC458773 WLY458772:WLY458773 WVU458772:WVU458773 M524308:M524309 JI524308:JI524309 TE524308:TE524309 ADA524308:ADA524309 AMW524308:AMW524309 AWS524308:AWS524309 BGO524308:BGO524309 BQK524308:BQK524309 CAG524308:CAG524309 CKC524308:CKC524309 CTY524308:CTY524309 DDU524308:DDU524309 DNQ524308:DNQ524309 DXM524308:DXM524309 EHI524308:EHI524309 ERE524308:ERE524309 FBA524308:FBA524309 FKW524308:FKW524309 FUS524308:FUS524309 GEO524308:GEO524309 GOK524308:GOK524309 GYG524308:GYG524309 HIC524308:HIC524309 HRY524308:HRY524309 IBU524308:IBU524309 ILQ524308:ILQ524309 IVM524308:IVM524309 JFI524308:JFI524309 JPE524308:JPE524309 JZA524308:JZA524309 KIW524308:KIW524309 KSS524308:KSS524309 LCO524308:LCO524309 LMK524308:LMK524309 LWG524308:LWG524309 MGC524308:MGC524309 MPY524308:MPY524309 MZU524308:MZU524309 NJQ524308:NJQ524309 NTM524308:NTM524309 ODI524308:ODI524309 ONE524308:ONE524309 OXA524308:OXA524309 PGW524308:PGW524309 PQS524308:PQS524309 QAO524308:QAO524309 QKK524308:QKK524309 QUG524308:QUG524309 REC524308:REC524309 RNY524308:RNY524309 RXU524308:RXU524309 SHQ524308:SHQ524309 SRM524308:SRM524309 TBI524308:TBI524309 TLE524308:TLE524309 TVA524308:TVA524309 UEW524308:UEW524309 UOS524308:UOS524309 UYO524308:UYO524309 VIK524308:VIK524309 VSG524308:VSG524309 WCC524308:WCC524309 WLY524308:WLY524309 WVU524308:WVU524309 M589844:M589845 JI589844:JI589845 TE589844:TE589845 ADA589844:ADA589845 AMW589844:AMW589845 AWS589844:AWS589845 BGO589844:BGO589845 BQK589844:BQK589845 CAG589844:CAG589845 CKC589844:CKC589845 CTY589844:CTY589845 DDU589844:DDU589845 DNQ589844:DNQ589845 DXM589844:DXM589845 EHI589844:EHI589845 ERE589844:ERE589845 FBA589844:FBA589845 FKW589844:FKW589845 FUS589844:FUS589845 GEO589844:GEO589845 GOK589844:GOK589845 GYG589844:GYG589845 HIC589844:HIC589845 HRY589844:HRY589845 IBU589844:IBU589845 ILQ589844:ILQ589845 IVM589844:IVM589845 JFI589844:JFI589845 JPE589844:JPE589845 JZA589844:JZA589845 KIW589844:KIW589845 KSS589844:KSS589845 LCO589844:LCO589845 LMK589844:LMK589845 LWG589844:LWG589845 MGC589844:MGC589845 MPY589844:MPY589845 MZU589844:MZU589845 NJQ589844:NJQ589845 NTM589844:NTM589845 ODI589844:ODI589845 ONE589844:ONE589845 OXA589844:OXA589845 PGW589844:PGW589845 PQS589844:PQS589845 QAO589844:QAO589845 QKK589844:QKK589845 QUG589844:QUG589845 REC589844:REC589845 RNY589844:RNY589845 RXU589844:RXU589845 SHQ589844:SHQ589845 SRM589844:SRM589845 TBI589844:TBI589845 TLE589844:TLE589845 TVA589844:TVA589845 UEW589844:UEW589845 UOS589844:UOS589845 UYO589844:UYO589845 VIK589844:VIK589845 VSG589844:VSG589845 WCC589844:WCC589845 WLY589844:WLY589845 WVU589844:WVU589845 M655380:M655381 JI655380:JI655381 TE655380:TE655381 ADA655380:ADA655381 AMW655380:AMW655381 AWS655380:AWS655381 BGO655380:BGO655381 BQK655380:BQK655381 CAG655380:CAG655381 CKC655380:CKC655381 CTY655380:CTY655381 DDU655380:DDU655381 DNQ655380:DNQ655381 DXM655380:DXM655381 EHI655380:EHI655381 ERE655380:ERE655381 FBA655380:FBA655381 FKW655380:FKW655381 FUS655380:FUS655381 GEO655380:GEO655381 GOK655380:GOK655381 GYG655380:GYG655381 HIC655380:HIC655381 HRY655380:HRY655381 IBU655380:IBU655381 ILQ655380:ILQ655381 IVM655380:IVM655381 JFI655380:JFI655381 JPE655380:JPE655381 JZA655380:JZA655381 KIW655380:KIW655381 KSS655380:KSS655381 LCO655380:LCO655381 LMK655380:LMK655381 LWG655380:LWG655381 MGC655380:MGC655381 MPY655380:MPY655381 MZU655380:MZU655381 NJQ655380:NJQ655381 NTM655380:NTM655381 ODI655380:ODI655381 ONE655380:ONE655381 OXA655380:OXA655381 PGW655380:PGW655381 PQS655380:PQS655381 QAO655380:QAO655381 QKK655380:QKK655381 QUG655380:QUG655381 REC655380:REC655381 RNY655380:RNY655381 RXU655380:RXU655381 SHQ655380:SHQ655381 SRM655380:SRM655381 TBI655380:TBI655381 TLE655380:TLE655381 TVA655380:TVA655381 UEW655380:UEW655381 UOS655380:UOS655381 UYO655380:UYO655381 VIK655380:VIK655381 VSG655380:VSG655381 WCC655380:WCC655381 WLY655380:WLY655381 WVU655380:WVU655381 M720916:M720917 JI720916:JI720917 TE720916:TE720917 ADA720916:ADA720917 AMW720916:AMW720917 AWS720916:AWS720917 BGO720916:BGO720917 BQK720916:BQK720917 CAG720916:CAG720917 CKC720916:CKC720917 CTY720916:CTY720917 DDU720916:DDU720917 DNQ720916:DNQ720917 DXM720916:DXM720917 EHI720916:EHI720917 ERE720916:ERE720917 FBA720916:FBA720917 FKW720916:FKW720917 FUS720916:FUS720917 GEO720916:GEO720917 GOK720916:GOK720917 GYG720916:GYG720917 HIC720916:HIC720917 HRY720916:HRY720917 IBU720916:IBU720917 ILQ720916:ILQ720917 IVM720916:IVM720917 JFI720916:JFI720917 JPE720916:JPE720917 JZA720916:JZA720917 KIW720916:KIW720917 KSS720916:KSS720917 LCO720916:LCO720917 LMK720916:LMK720917 LWG720916:LWG720917 MGC720916:MGC720917 MPY720916:MPY720917 MZU720916:MZU720917 NJQ720916:NJQ720917 NTM720916:NTM720917 ODI720916:ODI720917 ONE720916:ONE720917 OXA720916:OXA720917 PGW720916:PGW720917 PQS720916:PQS720917 QAO720916:QAO720917 QKK720916:QKK720917 QUG720916:QUG720917 REC720916:REC720917 RNY720916:RNY720917 RXU720916:RXU720917 SHQ720916:SHQ720917 SRM720916:SRM720917 TBI720916:TBI720917 TLE720916:TLE720917 TVA720916:TVA720917 UEW720916:UEW720917 UOS720916:UOS720917 UYO720916:UYO720917 VIK720916:VIK720917 VSG720916:VSG720917 WCC720916:WCC720917 WLY720916:WLY720917 WVU720916:WVU720917 M786452:M786453 JI786452:JI786453 TE786452:TE786453 ADA786452:ADA786453 AMW786452:AMW786453 AWS786452:AWS786453 BGO786452:BGO786453 BQK786452:BQK786453 CAG786452:CAG786453 CKC786452:CKC786453 CTY786452:CTY786453 DDU786452:DDU786453 DNQ786452:DNQ786453 DXM786452:DXM786453 EHI786452:EHI786453 ERE786452:ERE786453 FBA786452:FBA786453 FKW786452:FKW786453 FUS786452:FUS786453 GEO786452:GEO786453 GOK786452:GOK786453 GYG786452:GYG786453 HIC786452:HIC786453 HRY786452:HRY786453 IBU786452:IBU786453 ILQ786452:ILQ786453 IVM786452:IVM786453 JFI786452:JFI786453 JPE786452:JPE786453 JZA786452:JZA786453 KIW786452:KIW786453 KSS786452:KSS786453 LCO786452:LCO786453 LMK786452:LMK786453 LWG786452:LWG786453 MGC786452:MGC786453 MPY786452:MPY786453 MZU786452:MZU786453 NJQ786452:NJQ786453 NTM786452:NTM786453 ODI786452:ODI786453 ONE786452:ONE786453 OXA786452:OXA786453 PGW786452:PGW786453 PQS786452:PQS786453 QAO786452:QAO786453 QKK786452:QKK786453 QUG786452:QUG786453 REC786452:REC786453 RNY786452:RNY786453 RXU786452:RXU786453 SHQ786452:SHQ786453 SRM786452:SRM786453 TBI786452:TBI786453 TLE786452:TLE786453 TVA786452:TVA786453 UEW786452:UEW786453 UOS786452:UOS786453 UYO786452:UYO786453 VIK786452:VIK786453 VSG786452:VSG786453 WCC786452:WCC786453 WLY786452:WLY786453 WVU786452:WVU786453 M851988:M851989 JI851988:JI851989 TE851988:TE851989 ADA851988:ADA851989 AMW851988:AMW851989 AWS851988:AWS851989 BGO851988:BGO851989 BQK851988:BQK851989 CAG851988:CAG851989 CKC851988:CKC851989 CTY851988:CTY851989 DDU851988:DDU851989 DNQ851988:DNQ851989 DXM851988:DXM851989 EHI851988:EHI851989 ERE851988:ERE851989 FBA851988:FBA851989 FKW851988:FKW851989 FUS851988:FUS851989 GEO851988:GEO851989 GOK851988:GOK851989 GYG851988:GYG851989 HIC851988:HIC851989 HRY851988:HRY851989 IBU851988:IBU851989 ILQ851988:ILQ851989 IVM851988:IVM851989 JFI851988:JFI851989 JPE851988:JPE851989 JZA851988:JZA851989 KIW851988:KIW851989 KSS851988:KSS851989 LCO851988:LCO851989 LMK851988:LMK851989 LWG851988:LWG851989 MGC851988:MGC851989 MPY851988:MPY851989 MZU851988:MZU851989 NJQ851988:NJQ851989 NTM851988:NTM851989 ODI851988:ODI851989 ONE851988:ONE851989 OXA851988:OXA851989 PGW851988:PGW851989 PQS851988:PQS851989 QAO851988:QAO851989 QKK851988:QKK851989 QUG851988:QUG851989 REC851988:REC851989 RNY851988:RNY851989 RXU851988:RXU851989 SHQ851988:SHQ851989 SRM851988:SRM851989 TBI851988:TBI851989 TLE851988:TLE851989 TVA851988:TVA851989 UEW851988:UEW851989 UOS851988:UOS851989 UYO851988:UYO851989 VIK851988:VIK851989 VSG851988:VSG851989 WCC851988:WCC851989 WLY851988:WLY851989 WVU851988:WVU851989 M917524:M917525 JI917524:JI917525 TE917524:TE917525 ADA917524:ADA917525 AMW917524:AMW917525 AWS917524:AWS917525 BGO917524:BGO917525 BQK917524:BQK917525 CAG917524:CAG917525 CKC917524:CKC917525 CTY917524:CTY917525 DDU917524:DDU917525 DNQ917524:DNQ917525 DXM917524:DXM917525 EHI917524:EHI917525 ERE917524:ERE917525 FBA917524:FBA917525 FKW917524:FKW917525 FUS917524:FUS917525 GEO917524:GEO917525 GOK917524:GOK917525 GYG917524:GYG917525 HIC917524:HIC917525 HRY917524:HRY917525 IBU917524:IBU917525 ILQ917524:ILQ917525 IVM917524:IVM917525 JFI917524:JFI917525 JPE917524:JPE917525 JZA917524:JZA917525 KIW917524:KIW917525 KSS917524:KSS917525 LCO917524:LCO917525 LMK917524:LMK917525 LWG917524:LWG917525 MGC917524:MGC917525 MPY917524:MPY917525 MZU917524:MZU917525 NJQ917524:NJQ917525 NTM917524:NTM917525 ODI917524:ODI917525 ONE917524:ONE917525 OXA917524:OXA917525 PGW917524:PGW917525 PQS917524:PQS917525 QAO917524:QAO917525 QKK917524:QKK917525 QUG917524:QUG917525 REC917524:REC917525 RNY917524:RNY917525 RXU917524:RXU917525 SHQ917524:SHQ917525 SRM917524:SRM917525 TBI917524:TBI917525 TLE917524:TLE917525 TVA917524:TVA917525 UEW917524:UEW917525 UOS917524:UOS917525 UYO917524:UYO917525 VIK917524:VIK917525 VSG917524:VSG917525 WCC917524:WCC917525 WLY917524:WLY917525 WVU917524:WVU917525 M983060:M983061 JI983060:JI983061 TE983060:TE983061 ADA983060:ADA983061 AMW983060:AMW983061 AWS983060:AWS983061 BGO983060:BGO983061 BQK983060:BQK983061 CAG983060:CAG983061 CKC983060:CKC983061 CTY983060:CTY983061 DDU983060:DDU983061 DNQ983060:DNQ983061 DXM983060:DXM983061 EHI983060:EHI983061 ERE983060:ERE983061 FBA983060:FBA983061 FKW983060:FKW983061 FUS983060:FUS983061 GEO983060:GEO983061 GOK983060:GOK983061 GYG983060:GYG983061 HIC983060:HIC983061 HRY983060:HRY983061 IBU983060:IBU983061 ILQ983060:ILQ983061 IVM983060:IVM983061 JFI983060:JFI983061 JPE983060:JPE983061 JZA983060:JZA983061 KIW983060:KIW983061 KSS983060:KSS983061 LCO983060:LCO983061 LMK983060:LMK983061 LWG983060:LWG983061 MGC983060:MGC983061 MPY983060:MPY983061 MZU983060:MZU983061 NJQ983060:NJQ983061 NTM983060:NTM983061 ODI983060:ODI983061 ONE983060:ONE983061 OXA983060:OXA983061 PGW983060:PGW983061 PQS983060:PQS983061 QAO983060:QAO983061 QKK983060:QKK983061 QUG983060:QUG983061 REC983060:REC983061 RNY983060:RNY983061 RXU983060:RXU983061 SHQ983060:SHQ983061 SRM983060:SRM983061 TBI983060:TBI983061 TLE983060:TLE983061 TVA983060:TVA983061 UEW983060:UEW983061 UOS983060:UOS983061 UYO983060:UYO983061 VIK983060:VIK983061 VSG983060:VSG983061 WCC983060:WCC983061 WLY983060:WLY983061 WVU983060:WVU983061">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M18 JI18 TE18 ADA18 AMW18 AWS18 BGO18 BQK18 CAG18 CKC18 CTY18 DDU18 DNQ18 DXM18 EHI18 ERE18 FBA18 FKW18 FUS18 GEO18 GOK18 GYG18 HIC18 HRY18 IBU18 ILQ18 IVM18 JFI18 JPE18 JZA18 KIW18 KSS18 LCO18 LMK18 LWG18 MGC18 MPY18 MZU18 NJQ18 NTM18 ODI18 ONE18 OXA18 PGW18 PQS18 QAO18 QKK18 QUG18 REC18 RNY18 RXU18 SHQ18 SRM18 TBI18 TLE18 TVA18 UEW18 UOS18 UYO18 VIK18 VSG18 WCC18 WLY18 WVU18 M65554 JI65554 TE65554 ADA65554 AMW65554 AWS65554 BGO65554 BQK65554 CAG65554 CKC65554 CTY65554 DDU65554 DNQ65554 DXM65554 EHI65554 ERE65554 FBA65554 FKW65554 FUS65554 GEO65554 GOK65554 GYG65554 HIC65554 HRY65554 IBU65554 ILQ65554 IVM65554 JFI65554 JPE65554 JZA65554 KIW65554 KSS65554 LCO65554 LMK65554 LWG65554 MGC65554 MPY65554 MZU65554 NJQ65554 NTM65554 ODI65554 ONE65554 OXA65554 PGW65554 PQS65554 QAO65554 QKK65554 QUG65554 REC65554 RNY65554 RXU65554 SHQ65554 SRM65554 TBI65554 TLE65554 TVA65554 UEW65554 UOS65554 UYO65554 VIK65554 VSG65554 WCC65554 WLY65554 WVU65554 M131090 JI131090 TE131090 ADA131090 AMW131090 AWS131090 BGO131090 BQK131090 CAG131090 CKC131090 CTY131090 DDU131090 DNQ131090 DXM131090 EHI131090 ERE131090 FBA131090 FKW131090 FUS131090 GEO131090 GOK131090 GYG131090 HIC131090 HRY131090 IBU131090 ILQ131090 IVM131090 JFI131090 JPE131090 JZA131090 KIW131090 KSS131090 LCO131090 LMK131090 LWG131090 MGC131090 MPY131090 MZU131090 NJQ131090 NTM131090 ODI131090 ONE131090 OXA131090 PGW131090 PQS131090 QAO131090 QKK131090 QUG131090 REC131090 RNY131090 RXU131090 SHQ131090 SRM131090 TBI131090 TLE131090 TVA131090 UEW131090 UOS131090 UYO131090 VIK131090 VSG131090 WCC131090 WLY131090 WVU131090 M196626 JI196626 TE196626 ADA196626 AMW196626 AWS196626 BGO196626 BQK196626 CAG196626 CKC196626 CTY196626 DDU196626 DNQ196626 DXM196626 EHI196626 ERE196626 FBA196626 FKW196626 FUS196626 GEO196626 GOK196626 GYG196626 HIC196626 HRY196626 IBU196626 ILQ196626 IVM196626 JFI196626 JPE196626 JZA196626 KIW196626 KSS196626 LCO196626 LMK196626 LWG196626 MGC196626 MPY196626 MZU196626 NJQ196626 NTM196626 ODI196626 ONE196626 OXA196626 PGW196626 PQS196626 QAO196626 QKK196626 QUG196626 REC196626 RNY196626 RXU196626 SHQ196626 SRM196626 TBI196626 TLE196626 TVA196626 UEW196626 UOS196626 UYO196626 VIK196626 VSG196626 WCC196626 WLY196626 WVU196626 M262162 JI262162 TE262162 ADA262162 AMW262162 AWS262162 BGO262162 BQK262162 CAG262162 CKC262162 CTY262162 DDU262162 DNQ262162 DXM262162 EHI262162 ERE262162 FBA262162 FKW262162 FUS262162 GEO262162 GOK262162 GYG262162 HIC262162 HRY262162 IBU262162 ILQ262162 IVM262162 JFI262162 JPE262162 JZA262162 KIW262162 KSS262162 LCO262162 LMK262162 LWG262162 MGC262162 MPY262162 MZU262162 NJQ262162 NTM262162 ODI262162 ONE262162 OXA262162 PGW262162 PQS262162 QAO262162 QKK262162 QUG262162 REC262162 RNY262162 RXU262162 SHQ262162 SRM262162 TBI262162 TLE262162 TVA262162 UEW262162 UOS262162 UYO262162 VIK262162 VSG262162 WCC262162 WLY262162 WVU262162 M327698 JI327698 TE327698 ADA327698 AMW327698 AWS327698 BGO327698 BQK327698 CAG327698 CKC327698 CTY327698 DDU327698 DNQ327698 DXM327698 EHI327698 ERE327698 FBA327698 FKW327698 FUS327698 GEO327698 GOK327698 GYG327698 HIC327698 HRY327698 IBU327698 ILQ327698 IVM327698 JFI327698 JPE327698 JZA327698 KIW327698 KSS327698 LCO327698 LMK327698 LWG327698 MGC327698 MPY327698 MZU327698 NJQ327698 NTM327698 ODI327698 ONE327698 OXA327698 PGW327698 PQS327698 QAO327698 QKK327698 QUG327698 REC327698 RNY327698 RXU327698 SHQ327698 SRM327698 TBI327698 TLE327698 TVA327698 UEW327698 UOS327698 UYO327698 VIK327698 VSG327698 WCC327698 WLY327698 WVU327698 M393234 JI393234 TE393234 ADA393234 AMW393234 AWS393234 BGO393234 BQK393234 CAG393234 CKC393234 CTY393234 DDU393234 DNQ393234 DXM393234 EHI393234 ERE393234 FBA393234 FKW393234 FUS393234 GEO393234 GOK393234 GYG393234 HIC393234 HRY393234 IBU393234 ILQ393234 IVM393234 JFI393234 JPE393234 JZA393234 KIW393234 KSS393234 LCO393234 LMK393234 LWG393234 MGC393234 MPY393234 MZU393234 NJQ393234 NTM393234 ODI393234 ONE393234 OXA393234 PGW393234 PQS393234 QAO393234 QKK393234 QUG393234 REC393234 RNY393234 RXU393234 SHQ393234 SRM393234 TBI393234 TLE393234 TVA393234 UEW393234 UOS393234 UYO393234 VIK393234 VSG393234 WCC393234 WLY393234 WVU393234 M458770 JI458770 TE458770 ADA458770 AMW458770 AWS458770 BGO458770 BQK458770 CAG458770 CKC458770 CTY458770 DDU458770 DNQ458770 DXM458770 EHI458770 ERE458770 FBA458770 FKW458770 FUS458770 GEO458770 GOK458770 GYG458770 HIC458770 HRY458770 IBU458770 ILQ458770 IVM458770 JFI458770 JPE458770 JZA458770 KIW458770 KSS458770 LCO458770 LMK458770 LWG458770 MGC458770 MPY458770 MZU458770 NJQ458770 NTM458770 ODI458770 ONE458770 OXA458770 PGW458770 PQS458770 QAO458770 QKK458770 QUG458770 REC458770 RNY458770 RXU458770 SHQ458770 SRM458770 TBI458770 TLE458770 TVA458770 UEW458770 UOS458770 UYO458770 VIK458770 VSG458770 WCC458770 WLY458770 WVU458770 M524306 JI524306 TE524306 ADA524306 AMW524306 AWS524306 BGO524306 BQK524306 CAG524306 CKC524306 CTY524306 DDU524306 DNQ524306 DXM524306 EHI524306 ERE524306 FBA524306 FKW524306 FUS524306 GEO524306 GOK524306 GYG524306 HIC524306 HRY524306 IBU524306 ILQ524306 IVM524306 JFI524306 JPE524306 JZA524306 KIW524306 KSS524306 LCO524306 LMK524306 LWG524306 MGC524306 MPY524306 MZU524306 NJQ524306 NTM524306 ODI524306 ONE524306 OXA524306 PGW524306 PQS524306 QAO524306 QKK524306 QUG524306 REC524306 RNY524306 RXU524306 SHQ524306 SRM524306 TBI524306 TLE524306 TVA524306 UEW524306 UOS524306 UYO524306 VIK524306 VSG524306 WCC524306 WLY524306 WVU524306 M589842 JI589842 TE589842 ADA589842 AMW589842 AWS589842 BGO589842 BQK589842 CAG589842 CKC589842 CTY589842 DDU589842 DNQ589842 DXM589842 EHI589842 ERE589842 FBA589842 FKW589842 FUS589842 GEO589842 GOK589842 GYG589842 HIC589842 HRY589842 IBU589842 ILQ589842 IVM589842 JFI589842 JPE589842 JZA589842 KIW589842 KSS589842 LCO589842 LMK589842 LWG589842 MGC589842 MPY589842 MZU589842 NJQ589842 NTM589842 ODI589842 ONE589842 OXA589842 PGW589842 PQS589842 QAO589842 QKK589842 QUG589842 REC589842 RNY589842 RXU589842 SHQ589842 SRM589842 TBI589842 TLE589842 TVA589842 UEW589842 UOS589842 UYO589842 VIK589842 VSG589842 WCC589842 WLY589842 WVU589842 M655378 JI655378 TE655378 ADA655378 AMW655378 AWS655378 BGO655378 BQK655378 CAG655378 CKC655378 CTY655378 DDU655378 DNQ655378 DXM655378 EHI655378 ERE655378 FBA655378 FKW655378 FUS655378 GEO655378 GOK655378 GYG655378 HIC655378 HRY655378 IBU655378 ILQ655378 IVM655378 JFI655378 JPE655378 JZA655378 KIW655378 KSS655378 LCO655378 LMK655378 LWG655378 MGC655378 MPY655378 MZU655378 NJQ655378 NTM655378 ODI655378 ONE655378 OXA655378 PGW655378 PQS655378 QAO655378 QKK655378 QUG655378 REC655378 RNY655378 RXU655378 SHQ655378 SRM655378 TBI655378 TLE655378 TVA655378 UEW655378 UOS655378 UYO655378 VIK655378 VSG655378 WCC655378 WLY655378 WVU655378 M720914 JI720914 TE720914 ADA720914 AMW720914 AWS720914 BGO720914 BQK720914 CAG720914 CKC720914 CTY720914 DDU720914 DNQ720914 DXM720914 EHI720914 ERE720914 FBA720914 FKW720914 FUS720914 GEO720914 GOK720914 GYG720914 HIC720914 HRY720914 IBU720914 ILQ720914 IVM720914 JFI720914 JPE720914 JZA720914 KIW720914 KSS720914 LCO720914 LMK720914 LWG720914 MGC720914 MPY720914 MZU720914 NJQ720914 NTM720914 ODI720914 ONE720914 OXA720914 PGW720914 PQS720914 QAO720914 QKK720914 QUG720914 REC720914 RNY720914 RXU720914 SHQ720914 SRM720914 TBI720914 TLE720914 TVA720914 UEW720914 UOS720914 UYO720914 VIK720914 VSG720914 WCC720914 WLY720914 WVU720914 M786450 JI786450 TE786450 ADA786450 AMW786450 AWS786450 BGO786450 BQK786450 CAG786450 CKC786450 CTY786450 DDU786450 DNQ786450 DXM786450 EHI786450 ERE786450 FBA786450 FKW786450 FUS786450 GEO786450 GOK786450 GYG786450 HIC786450 HRY786450 IBU786450 ILQ786450 IVM786450 JFI786450 JPE786450 JZA786450 KIW786450 KSS786450 LCO786450 LMK786450 LWG786450 MGC786450 MPY786450 MZU786450 NJQ786450 NTM786450 ODI786450 ONE786450 OXA786450 PGW786450 PQS786450 QAO786450 QKK786450 QUG786450 REC786450 RNY786450 RXU786450 SHQ786450 SRM786450 TBI786450 TLE786450 TVA786450 UEW786450 UOS786450 UYO786450 VIK786450 VSG786450 WCC786450 WLY786450 WVU786450 M851986 JI851986 TE851986 ADA851986 AMW851986 AWS851986 BGO851986 BQK851986 CAG851986 CKC851986 CTY851986 DDU851986 DNQ851986 DXM851986 EHI851986 ERE851986 FBA851986 FKW851986 FUS851986 GEO851986 GOK851986 GYG851986 HIC851986 HRY851986 IBU851986 ILQ851986 IVM851986 JFI851986 JPE851986 JZA851986 KIW851986 KSS851986 LCO851986 LMK851986 LWG851986 MGC851986 MPY851986 MZU851986 NJQ851986 NTM851986 ODI851986 ONE851986 OXA851986 PGW851986 PQS851986 QAO851986 QKK851986 QUG851986 REC851986 RNY851986 RXU851986 SHQ851986 SRM851986 TBI851986 TLE851986 TVA851986 UEW851986 UOS851986 UYO851986 VIK851986 VSG851986 WCC851986 WLY851986 WVU851986 M917522 JI917522 TE917522 ADA917522 AMW917522 AWS917522 BGO917522 BQK917522 CAG917522 CKC917522 CTY917522 DDU917522 DNQ917522 DXM917522 EHI917522 ERE917522 FBA917522 FKW917522 FUS917522 GEO917522 GOK917522 GYG917522 HIC917522 HRY917522 IBU917522 ILQ917522 IVM917522 JFI917522 JPE917522 JZA917522 KIW917522 KSS917522 LCO917522 LMK917522 LWG917522 MGC917522 MPY917522 MZU917522 NJQ917522 NTM917522 ODI917522 ONE917522 OXA917522 PGW917522 PQS917522 QAO917522 QKK917522 QUG917522 REC917522 RNY917522 RXU917522 SHQ917522 SRM917522 TBI917522 TLE917522 TVA917522 UEW917522 UOS917522 UYO917522 VIK917522 VSG917522 WCC917522 WLY917522 WVU917522 M983058 JI983058 TE983058 ADA983058 AMW983058 AWS983058 BGO983058 BQK983058 CAG983058 CKC983058 CTY983058 DDU983058 DNQ983058 DXM983058 EHI983058 ERE983058 FBA983058 FKW983058 FUS983058 GEO983058 GOK983058 GYG983058 HIC983058 HRY983058 IBU983058 ILQ983058 IVM983058 JFI983058 JPE983058 JZA983058 KIW983058 KSS983058 LCO983058 LMK983058 LWG983058 MGC983058 MPY983058 MZU983058 NJQ983058 NTM983058 ODI983058 ONE983058 OXA983058 PGW983058 PQS983058 QAO983058 QKK983058 QUG983058 REC983058 RNY983058 RXU983058 SHQ983058 SRM983058 TBI983058 TLE983058 TVA983058 UEW983058 UOS983058 UYO983058 VIK983058 VSG983058 WCC983058 WLY983058 WVU983058 M20:M21 JI20:JI21 TE20:TE21 ADA20:ADA21 AMW20:AMW21 AWS20:AWS21 BGO20:BGO21 BQK20:BQK21 CAG20:CAG21 CKC20:CKC21 CTY20:CTY21 DDU20:DDU21 DNQ20:DNQ21 DXM20:DXM21 EHI20:EHI21 ERE20:ERE21 FBA20:FBA21 FKW20:FKW21 FUS20:FUS21 GEO20:GEO21 GOK20:GOK21 GYG20:GYG21 HIC20:HIC21 HRY20:HRY21 IBU20:IBU21 ILQ20:ILQ21 IVM20:IVM21 JFI20:JFI21 JPE20:JPE21 JZA20:JZA21 KIW20:KIW21 KSS20:KSS21 LCO20:LCO21 LMK20:LMK21 LWG20:LWG21 MGC20:MGC21 MPY20:MPY21 MZU20:MZU21 NJQ20:NJQ21 NTM20:NTM21 ODI20:ODI21 ONE20:ONE21 OXA20:OXA21 PGW20:PGW21 PQS20:PQS21 QAO20:QAO21 QKK20:QKK21 QUG20:QUG21 REC20:REC21 RNY20:RNY21 RXU20:RXU21 SHQ20:SHQ21 SRM20:SRM21 TBI20:TBI21 TLE20:TLE21 TVA20:TVA21 UEW20:UEW21 UOS20:UOS21 UYO20:UYO21 VIK20:VIK21 VSG20:VSG21 WCC20:WCC21 WLY20:WLY21 WVU20:WVU21 M65556:M65557 JI65556:JI65557 TE65556:TE65557 ADA65556:ADA65557 AMW65556:AMW65557 AWS65556:AWS65557 BGO65556:BGO65557 BQK65556:BQK65557 CAG65556:CAG65557 CKC65556:CKC65557 CTY65556:CTY65557 DDU65556:DDU65557 DNQ65556:DNQ65557 DXM65556:DXM65557 EHI65556:EHI65557 ERE65556:ERE65557 FBA65556:FBA65557 FKW65556:FKW65557 FUS65556:FUS65557 GEO65556:GEO65557 GOK65556:GOK65557 GYG65556:GYG65557 HIC65556:HIC65557 HRY65556:HRY65557 IBU65556:IBU65557 ILQ65556:ILQ65557 IVM65556:IVM65557 JFI65556:JFI65557 JPE65556:JPE65557 JZA65556:JZA65557 KIW65556:KIW65557 KSS65556:KSS65557 LCO65556:LCO65557 LMK65556:LMK65557 LWG65556:LWG65557 MGC65556:MGC65557 MPY65556:MPY65557 MZU65556:MZU65557 NJQ65556:NJQ65557 NTM65556:NTM65557 ODI65556:ODI65557 ONE65556:ONE65557 OXA65556:OXA65557 PGW65556:PGW65557 PQS65556:PQS65557 QAO65556:QAO65557 QKK65556:QKK65557 QUG65556:QUG65557 REC65556:REC65557 RNY65556:RNY65557 RXU65556:RXU65557 SHQ65556:SHQ65557 SRM65556:SRM65557 TBI65556:TBI65557 TLE65556:TLE65557 TVA65556:TVA65557 UEW65556:UEW65557 UOS65556:UOS65557 UYO65556:UYO65557 VIK65556:VIK65557 VSG65556:VSG65557 WCC65556:WCC65557 WLY65556:WLY65557 WVU65556:WVU65557 M131092:M131093 JI131092:JI131093 TE131092:TE131093 ADA131092:ADA131093 AMW131092:AMW131093 AWS131092:AWS131093 BGO131092:BGO131093 BQK131092:BQK131093 CAG131092:CAG131093 CKC131092:CKC131093 CTY131092:CTY131093 DDU131092:DDU131093 DNQ131092:DNQ131093 DXM131092:DXM131093 EHI131092:EHI131093 ERE131092:ERE131093 FBA131092:FBA131093 FKW131092:FKW131093 FUS131092:FUS131093 GEO131092:GEO131093 GOK131092:GOK131093 GYG131092:GYG131093 HIC131092:HIC131093 HRY131092:HRY131093 IBU131092:IBU131093 ILQ131092:ILQ131093 IVM131092:IVM131093 JFI131092:JFI131093 JPE131092:JPE131093 JZA131092:JZA131093 KIW131092:KIW131093 KSS131092:KSS131093 LCO131092:LCO131093 LMK131092:LMK131093 LWG131092:LWG131093 MGC131092:MGC131093 MPY131092:MPY131093 MZU131092:MZU131093 NJQ131092:NJQ131093 NTM131092:NTM131093 ODI131092:ODI131093 ONE131092:ONE131093 OXA131092:OXA131093 PGW131092:PGW131093 PQS131092:PQS131093 QAO131092:QAO131093 QKK131092:QKK131093 QUG131092:QUG131093 REC131092:REC131093 RNY131092:RNY131093 RXU131092:RXU131093 SHQ131092:SHQ131093 SRM131092:SRM131093 TBI131092:TBI131093 TLE131092:TLE131093 TVA131092:TVA131093 UEW131092:UEW131093 UOS131092:UOS131093 UYO131092:UYO131093 VIK131092:VIK131093 VSG131092:VSG131093 WCC131092:WCC131093 WLY131092:WLY131093 WVU131092:WVU131093 M196628:M196629 JI196628:JI196629 TE196628:TE196629 ADA196628:ADA196629 AMW196628:AMW196629 AWS196628:AWS196629 BGO196628:BGO196629 BQK196628:BQK196629 CAG196628:CAG196629 CKC196628:CKC196629 CTY196628:CTY196629 DDU196628:DDU196629 DNQ196628:DNQ196629 DXM196628:DXM196629 EHI196628:EHI196629 ERE196628:ERE196629 FBA196628:FBA196629 FKW196628:FKW196629 FUS196628:FUS196629 GEO196628:GEO196629 GOK196628:GOK196629 GYG196628:GYG196629 HIC196628:HIC196629 HRY196628:HRY196629 IBU196628:IBU196629 ILQ196628:ILQ196629 IVM196628:IVM196629 JFI196628:JFI196629 JPE196628:JPE196629 JZA196628:JZA196629 KIW196628:KIW196629 KSS196628:KSS196629 LCO196628:LCO196629 LMK196628:LMK196629 LWG196628:LWG196629 MGC196628:MGC196629 MPY196628:MPY196629 MZU196628:MZU196629 NJQ196628:NJQ196629 NTM196628:NTM196629 ODI196628:ODI196629 ONE196628:ONE196629 OXA196628:OXA196629 PGW196628:PGW196629 PQS196628:PQS196629 QAO196628:QAO196629 QKK196628:QKK196629 QUG196628:QUG196629 REC196628:REC196629 RNY196628:RNY196629 RXU196628:RXU196629 SHQ196628:SHQ196629 SRM196628:SRM196629 TBI196628:TBI196629 TLE196628:TLE196629 TVA196628:TVA196629 UEW196628:UEW196629 UOS196628:UOS196629 UYO196628:UYO196629 VIK196628:VIK196629 VSG196628:VSG196629 WCC196628:WCC196629 WLY196628:WLY196629 WVU196628:WVU196629 M262164:M262165 JI262164:JI262165 TE262164:TE262165 ADA262164:ADA262165 AMW262164:AMW262165 AWS262164:AWS262165 BGO262164:BGO262165 BQK262164:BQK262165 CAG262164:CAG262165 CKC262164:CKC262165 CTY262164:CTY262165 DDU262164:DDU262165 DNQ262164:DNQ262165 DXM262164:DXM262165 EHI262164:EHI262165 ERE262164:ERE262165 FBA262164:FBA262165 FKW262164:FKW262165 FUS262164:FUS262165 GEO262164:GEO262165 GOK262164:GOK262165 GYG262164:GYG262165 HIC262164:HIC262165 HRY262164:HRY262165 IBU262164:IBU262165 ILQ262164:ILQ262165 IVM262164:IVM262165 JFI262164:JFI262165 JPE262164:JPE262165 JZA262164:JZA262165 KIW262164:KIW262165 KSS262164:KSS262165 LCO262164:LCO262165 LMK262164:LMK262165 LWG262164:LWG262165 MGC262164:MGC262165 MPY262164:MPY262165 MZU262164:MZU262165 NJQ262164:NJQ262165 NTM262164:NTM262165 ODI262164:ODI262165 ONE262164:ONE262165 OXA262164:OXA262165 PGW262164:PGW262165 PQS262164:PQS262165 QAO262164:QAO262165 QKK262164:QKK262165 QUG262164:QUG262165 REC262164:REC262165 RNY262164:RNY262165 RXU262164:RXU262165 SHQ262164:SHQ262165 SRM262164:SRM262165 TBI262164:TBI262165 TLE262164:TLE262165 TVA262164:TVA262165 UEW262164:UEW262165 UOS262164:UOS262165 UYO262164:UYO262165 VIK262164:VIK262165 VSG262164:VSG262165 WCC262164:WCC262165 WLY262164:WLY262165 WVU262164:WVU262165 M327700:M327701 JI327700:JI327701 TE327700:TE327701 ADA327700:ADA327701 AMW327700:AMW327701 AWS327700:AWS327701 BGO327700:BGO327701 BQK327700:BQK327701 CAG327700:CAG327701 CKC327700:CKC327701 CTY327700:CTY327701 DDU327700:DDU327701 DNQ327700:DNQ327701 DXM327700:DXM327701 EHI327700:EHI327701 ERE327700:ERE327701 FBA327700:FBA327701 FKW327700:FKW327701 FUS327700:FUS327701 GEO327700:GEO327701 GOK327700:GOK327701 GYG327700:GYG327701 HIC327700:HIC327701 HRY327700:HRY327701 IBU327700:IBU327701 ILQ327700:ILQ327701 IVM327700:IVM327701 JFI327700:JFI327701 JPE327700:JPE327701 JZA327700:JZA327701 KIW327700:KIW327701 KSS327700:KSS327701 LCO327700:LCO327701 LMK327700:LMK327701 LWG327700:LWG327701 MGC327700:MGC327701 MPY327700:MPY327701 MZU327700:MZU327701 NJQ327700:NJQ327701 NTM327700:NTM327701 ODI327700:ODI327701 ONE327700:ONE327701 OXA327700:OXA327701 PGW327700:PGW327701 PQS327700:PQS327701 QAO327700:QAO327701 QKK327700:QKK327701 QUG327700:QUG327701 REC327700:REC327701 RNY327700:RNY327701 RXU327700:RXU327701 SHQ327700:SHQ327701 SRM327700:SRM327701 TBI327700:TBI327701 TLE327700:TLE327701 TVA327700:TVA327701 UEW327700:UEW327701 UOS327700:UOS327701 UYO327700:UYO327701 VIK327700:VIK327701 VSG327700:VSG327701 WCC327700:WCC327701 WLY327700:WLY327701 WVU327700:WVU327701 M393236:M393237 JI393236:JI393237 TE393236:TE393237 ADA393236:ADA393237 AMW393236:AMW393237 AWS393236:AWS393237 BGO393236:BGO393237 BQK393236:BQK393237 CAG393236:CAG393237 CKC393236:CKC393237 CTY393236:CTY393237 DDU393236:DDU393237 DNQ393236:DNQ393237 DXM393236:DXM393237 EHI393236:EHI393237 ERE393236:ERE393237 FBA393236:FBA393237 FKW393236:FKW393237 FUS393236:FUS393237 GEO393236:GEO393237 GOK393236:GOK393237 GYG393236:GYG393237 HIC393236:HIC393237 HRY393236:HRY393237 IBU393236:IBU393237 ILQ393236:ILQ393237 IVM393236:IVM393237 JFI393236:JFI393237 JPE393236:JPE393237 JZA393236:JZA393237 KIW393236:KIW393237 KSS393236:KSS393237 LCO393236:LCO393237 LMK393236:LMK393237 LWG393236:LWG393237 MGC393236:MGC393237 MPY393236:MPY393237 MZU393236:MZU393237 NJQ393236:NJQ393237 NTM393236:NTM393237 ODI393236:ODI393237 ONE393236:ONE393237 OXA393236:OXA393237 PGW393236:PGW393237 PQS393236:PQS393237 QAO393236:QAO393237 QKK393236:QKK393237 QUG393236:QUG393237 REC393236:REC393237 RNY393236:RNY393237 RXU393236:RXU393237 SHQ393236:SHQ393237 SRM393236:SRM393237 TBI393236:TBI393237 TLE393236:TLE393237 TVA393236:TVA393237 UEW393236:UEW393237 UOS393236:UOS393237 UYO393236:UYO393237 VIK393236:VIK393237 VSG393236:VSG393237 WCC393236:WCC393237 WLY393236:WLY393237 WVU393236:WVU393237 M458772:M458773 JI458772:JI458773 TE458772:TE458773 ADA458772:ADA458773 AMW458772:AMW458773 AWS458772:AWS458773 BGO458772:BGO458773 BQK458772:BQK458773 CAG458772:CAG458773 CKC458772:CKC458773 CTY458772:CTY458773 DDU458772:DDU458773 DNQ458772:DNQ458773 DXM458772:DXM458773 EHI458772:EHI458773 ERE458772:ERE458773 FBA458772:FBA458773 FKW458772:FKW458773 FUS458772:FUS458773 GEO458772:GEO458773 GOK458772:GOK458773 GYG458772:GYG458773 HIC458772:HIC458773 HRY458772:HRY458773 IBU458772:IBU458773 ILQ458772:ILQ458773 IVM458772:IVM458773 JFI458772:JFI458773 JPE458772:JPE458773 JZA458772:JZA458773 KIW458772:KIW458773 KSS458772:KSS458773 LCO458772:LCO458773 LMK458772:LMK458773 LWG458772:LWG458773 MGC458772:MGC458773 MPY458772:MPY458773 MZU458772:MZU458773 NJQ458772:NJQ458773 NTM458772:NTM458773 ODI458772:ODI458773 ONE458772:ONE458773 OXA458772:OXA458773 PGW458772:PGW458773 PQS458772:PQS458773 QAO458772:QAO458773 QKK458772:QKK458773 QUG458772:QUG458773 REC458772:REC458773 RNY458772:RNY458773 RXU458772:RXU458773 SHQ458772:SHQ458773 SRM458772:SRM458773 TBI458772:TBI458773 TLE458772:TLE458773 TVA458772:TVA458773 UEW458772:UEW458773 UOS458772:UOS458773 UYO458772:UYO458773 VIK458772:VIK458773 VSG458772:VSG458773 WCC458772:WCC458773 WLY458772:WLY458773 WVU458772:WVU458773 M524308:M524309 JI524308:JI524309 TE524308:TE524309 ADA524308:ADA524309 AMW524308:AMW524309 AWS524308:AWS524309 BGO524308:BGO524309 BQK524308:BQK524309 CAG524308:CAG524309 CKC524308:CKC524309 CTY524308:CTY524309 DDU524308:DDU524309 DNQ524308:DNQ524309 DXM524308:DXM524309 EHI524308:EHI524309 ERE524308:ERE524309 FBA524308:FBA524309 FKW524308:FKW524309 FUS524308:FUS524309 GEO524308:GEO524309 GOK524308:GOK524309 GYG524308:GYG524309 HIC524308:HIC524309 HRY524308:HRY524309 IBU524308:IBU524309 ILQ524308:ILQ524309 IVM524308:IVM524309 JFI524308:JFI524309 JPE524308:JPE524309 JZA524308:JZA524309 KIW524308:KIW524309 KSS524308:KSS524309 LCO524308:LCO524309 LMK524308:LMK524309 LWG524308:LWG524309 MGC524308:MGC524309 MPY524308:MPY524309 MZU524308:MZU524309 NJQ524308:NJQ524309 NTM524308:NTM524309 ODI524308:ODI524309 ONE524308:ONE524309 OXA524308:OXA524309 PGW524308:PGW524309 PQS524308:PQS524309 QAO524308:QAO524309 QKK524308:QKK524309 QUG524308:QUG524309 REC524308:REC524309 RNY524308:RNY524309 RXU524308:RXU524309 SHQ524308:SHQ524309 SRM524308:SRM524309 TBI524308:TBI524309 TLE524308:TLE524309 TVA524308:TVA524309 UEW524308:UEW524309 UOS524308:UOS524309 UYO524308:UYO524309 VIK524308:VIK524309 VSG524308:VSG524309 WCC524308:WCC524309 WLY524308:WLY524309 WVU524308:WVU524309 M589844:M589845 JI589844:JI589845 TE589844:TE589845 ADA589844:ADA589845 AMW589844:AMW589845 AWS589844:AWS589845 BGO589844:BGO589845 BQK589844:BQK589845 CAG589844:CAG589845 CKC589844:CKC589845 CTY589844:CTY589845 DDU589844:DDU589845 DNQ589844:DNQ589845 DXM589844:DXM589845 EHI589844:EHI589845 ERE589844:ERE589845 FBA589844:FBA589845 FKW589844:FKW589845 FUS589844:FUS589845 GEO589844:GEO589845 GOK589844:GOK589845 GYG589844:GYG589845 HIC589844:HIC589845 HRY589844:HRY589845 IBU589844:IBU589845 ILQ589844:ILQ589845 IVM589844:IVM589845 JFI589844:JFI589845 JPE589844:JPE589845 JZA589844:JZA589845 KIW589844:KIW589845 KSS589844:KSS589845 LCO589844:LCO589845 LMK589844:LMK589845 LWG589844:LWG589845 MGC589844:MGC589845 MPY589844:MPY589845 MZU589844:MZU589845 NJQ589844:NJQ589845 NTM589844:NTM589845 ODI589844:ODI589845 ONE589844:ONE589845 OXA589844:OXA589845 PGW589844:PGW589845 PQS589844:PQS589845 QAO589844:QAO589845 QKK589844:QKK589845 QUG589844:QUG589845 REC589844:REC589845 RNY589844:RNY589845 RXU589844:RXU589845 SHQ589844:SHQ589845 SRM589844:SRM589845 TBI589844:TBI589845 TLE589844:TLE589845 TVA589844:TVA589845 UEW589844:UEW589845 UOS589844:UOS589845 UYO589844:UYO589845 VIK589844:VIK589845 VSG589844:VSG589845 WCC589844:WCC589845 WLY589844:WLY589845 WVU589844:WVU589845 M655380:M655381 JI655380:JI655381 TE655380:TE655381 ADA655380:ADA655381 AMW655380:AMW655381 AWS655380:AWS655381 BGO655380:BGO655381 BQK655380:BQK655381 CAG655380:CAG655381 CKC655380:CKC655381 CTY655380:CTY655381 DDU655380:DDU655381 DNQ655380:DNQ655381 DXM655380:DXM655381 EHI655380:EHI655381 ERE655380:ERE655381 FBA655380:FBA655381 FKW655380:FKW655381 FUS655380:FUS655381 GEO655380:GEO655381 GOK655380:GOK655381 GYG655380:GYG655381 HIC655380:HIC655381 HRY655380:HRY655381 IBU655380:IBU655381 ILQ655380:ILQ655381 IVM655380:IVM655381 JFI655380:JFI655381 JPE655380:JPE655381 JZA655380:JZA655381 KIW655380:KIW655381 KSS655380:KSS655381 LCO655380:LCO655381 LMK655380:LMK655381 LWG655380:LWG655381 MGC655380:MGC655381 MPY655380:MPY655381 MZU655380:MZU655381 NJQ655380:NJQ655381 NTM655380:NTM655381 ODI655380:ODI655381 ONE655380:ONE655381 OXA655380:OXA655381 PGW655380:PGW655381 PQS655380:PQS655381 QAO655380:QAO655381 QKK655380:QKK655381 QUG655380:QUG655381 REC655380:REC655381 RNY655380:RNY655381 RXU655380:RXU655381 SHQ655380:SHQ655381 SRM655380:SRM655381 TBI655380:TBI655381 TLE655380:TLE655381 TVA655380:TVA655381 UEW655380:UEW655381 UOS655380:UOS655381 UYO655380:UYO655381 VIK655380:VIK655381 VSG655380:VSG655381 WCC655380:WCC655381 WLY655380:WLY655381 WVU655380:WVU655381 M720916:M720917 JI720916:JI720917 TE720916:TE720917 ADA720916:ADA720917 AMW720916:AMW720917 AWS720916:AWS720917 BGO720916:BGO720917 BQK720916:BQK720917 CAG720916:CAG720917 CKC720916:CKC720917 CTY720916:CTY720917 DDU720916:DDU720917 DNQ720916:DNQ720917 DXM720916:DXM720917 EHI720916:EHI720917 ERE720916:ERE720917 FBA720916:FBA720917 FKW720916:FKW720917 FUS720916:FUS720917 GEO720916:GEO720917 GOK720916:GOK720917 GYG720916:GYG720917 HIC720916:HIC720917 HRY720916:HRY720917 IBU720916:IBU720917 ILQ720916:ILQ720917 IVM720916:IVM720917 JFI720916:JFI720917 JPE720916:JPE720917 JZA720916:JZA720917 KIW720916:KIW720917 KSS720916:KSS720917 LCO720916:LCO720917 LMK720916:LMK720917 LWG720916:LWG720917 MGC720916:MGC720917 MPY720916:MPY720917 MZU720916:MZU720917 NJQ720916:NJQ720917 NTM720916:NTM720917 ODI720916:ODI720917 ONE720916:ONE720917 OXA720916:OXA720917 PGW720916:PGW720917 PQS720916:PQS720917 QAO720916:QAO720917 QKK720916:QKK720917 QUG720916:QUG720917 REC720916:REC720917 RNY720916:RNY720917 RXU720916:RXU720917 SHQ720916:SHQ720917 SRM720916:SRM720917 TBI720916:TBI720917 TLE720916:TLE720917 TVA720916:TVA720917 UEW720916:UEW720917 UOS720916:UOS720917 UYO720916:UYO720917 VIK720916:VIK720917 VSG720916:VSG720917 WCC720916:WCC720917 WLY720916:WLY720917 WVU720916:WVU720917 M786452:M786453 JI786452:JI786453 TE786452:TE786453 ADA786452:ADA786453 AMW786452:AMW786453 AWS786452:AWS786453 BGO786452:BGO786453 BQK786452:BQK786453 CAG786452:CAG786453 CKC786452:CKC786453 CTY786452:CTY786453 DDU786452:DDU786453 DNQ786452:DNQ786453 DXM786452:DXM786453 EHI786452:EHI786453 ERE786452:ERE786453 FBA786452:FBA786453 FKW786452:FKW786453 FUS786452:FUS786453 GEO786452:GEO786453 GOK786452:GOK786453 GYG786452:GYG786453 HIC786452:HIC786453 HRY786452:HRY786453 IBU786452:IBU786453 ILQ786452:ILQ786453 IVM786452:IVM786453 JFI786452:JFI786453 JPE786452:JPE786453 JZA786452:JZA786453 KIW786452:KIW786453 KSS786452:KSS786453 LCO786452:LCO786453 LMK786452:LMK786453 LWG786452:LWG786453 MGC786452:MGC786453 MPY786452:MPY786453 MZU786452:MZU786453 NJQ786452:NJQ786453 NTM786452:NTM786453 ODI786452:ODI786453 ONE786452:ONE786453 OXA786452:OXA786453 PGW786452:PGW786453 PQS786452:PQS786453 QAO786452:QAO786453 QKK786452:QKK786453 QUG786452:QUG786453 REC786452:REC786453 RNY786452:RNY786453 RXU786452:RXU786453 SHQ786452:SHQ786453 SRM786452:SRM786453 TBI786452:TBI786453 TLE786452:TLE786453 TVA786452:TVA786453 UEW786452:UEW786453 UOS786452:UOS786453 UYO786452:UYO786453 VIK786452:VIK786453 VSG786452:VSG786453 WCC786452:WCC786453 WLY786452:WLY786453 WVU786452:WVU786453 M851988:M851989 JI851988:JI851989 TE851988:TE851989 ADA851988:ADA851989 AMW851988:AMW851989 AWS851988:AWS851989 BGO851988:BGO851989 BQK851988:BQK851989 CAG851988:CAG851989 CKC851988:CKC851989 CTY851988:CTY851989 DDU851988:DDU851989 DNQ851988:DNQ851989 DXM851988:DXM851989 EHI851988:EHI851989 ERE851988:ERE851989 FBA851988:FBA851989 FKW851988:FKW851989 FUS851988:FUS851989 GEO851988:GEO851989 GOK851988:GOK851989 GYG851988:GYG851989 HIC851988:HIC851989 HRY851988:HRY851989 IBU851988:IBU851989 ILQ851988:ILQ851989 IVM851988:IVM851989 JFI851988:JFI851989 JPE851988:JPE851989 JZA851988:JZA851989 KIW851988:KIW851989 KSS851988:KSS851989 LCO851988:LCO851989 LMK851988:LMK851989 LWG851988:LWG851989 MGC851988:MGC851989 MPY851988:MPY851989 MZU851988:MZU851989 NJQ851988:NJQ851989 NTM851988:NTM851989 ODI851988:ODI851989 ONE851988:ONE851989 OXA851988:OXA851989 PGW851988:PGW851989 PQS851988:PQS851989 QAO851988:QAO851989 QKK851988:QKK851989 QUG851988:QUG851989 REC851988:REC851989 RNY851988:RNY851989 RXU851988:RXU851989 SHQ851988:SHQ851989 SRM851988:SRM851989 TBI851988:TBI851989 TLE851988:TLE851989 TVA851988:TVA851989 UEW851988:UEW851989 UOS851988:UOS851989 UYO851988:UYO851989 VIK851988:VIK851989 VSG851988:VSG851989 WCC851988:WCC851989 WLY851988:WLY851989 WVU851988:WVU851989 M917524:M917525 JI917524:JI917525 TE917524:TE917525 ADA917524:ADA917525 AMW917524:AMW917525 AWS917524:AWS917525 BGO917524:BGO917525 BQK917524:BQK917525 CAG917524:CAG917525 CKC917524:CKC917525 CTY917524:CTY917525 DDU917524:DDU917525 DNQ917524:DNQ917525 DXM917524:DXM917525 EHI917524:EHI917525 ERE917524:ERE917525 FBA917524:FBA917525 FKW917524:FKW917525 FUS917524:FUS917525 GEO917524:GEO917525 GOK917524:GOK917525 GYG917524:GYG917525 HIC917524:HIC917525 HRY917524:HRY917525 IBU917524:IBU917525 ILQ917524:ILQ917525 IVM917524:IVM917525 JFI917524:JFI917525 JPE917524:JPE917525 JZA917524:JZA917525 KIW917524:KIW917525 KSS917524:KSS917525 LCO917524:LCO917525 LMK917524:LMK917525 LWG917524:LWG917525 MGC917524:MGC917525 MPY917524:MPY917525 MZU917524:MZU917525 NJQ917524:NJQ917525 NTM917524:NTM917525 ODI917524:ODI917525 ONE917524:ONE917525 OXA917524:OXA917525 PGW917524:PGW917525 PQS917524:PQS917525 QAO917524:QAO917525 QKK917524:QKK917525 QUG917524:QUG917525 REC917524:REC917525 RNY917524:RNY917525 RXU917524:RXU917525 SHQ917524:SHQ917525 SRM917524:SRM917525 TBI917524:TBI917525 TLE917524:TLE917525 TVA917524:TVA917525 UEW917524:UEW917525 UOS917524:UOS917525 UYO917524:UYO917525 VIK917524:VIK917525 VSG917524:VSG917525 WCC917524:WCC917525 WLY917524:WLY917525 WVU917524:WVU917525 M983060:M983061 JI983060:JI983061 TE983060:TE983061 ADA983060:ADA983061 AMW983060:AMW983061 AWS983060:AWS983061 BGO983060:BGO983061 BQK983060:BQK983061 CAG983060:CAG983061 CKC983060:CKC983061 CTY983060:CTY983061 DDU983060:DDU983061 DNQ983060:DNQ983061 DXM983060:DXM983061 EHI983060:EHI983061 ERE983060:ERE983061 FBA983060:FBA983061 FKW983060:FKW983061 FUS983060:FUS983061 GEO983060:GEO983061 GOK983060:GOK983061 GYG983060:GYG983061 HIC983060:HIC983061 HRY983060:HRY983061 IBU983060:IBU983061 ILQ983060:ILQ983061 IVM983060:IVM983061 JFI983060:JFI983061 JPE983060:JPE983061 JZA983060:JZA983061 KIW983060:KIW983061 KSS983060:KSS983061 LCO983060:LCO983061 LMK983060:LMK983061 LWG983060:LWG983061 MGC983060:MGC983061 MPY983060:MPY983061 MZU983060:MZU983061 NJQ983060:NJQ983061 NTM983060:NTM983061 ODI983060:ODI983061 ONE983060:ONE983061 OXA983060:OXA983061 PGW983060:PGW983061 PQS983060:PQS983061 QAO983060:QAO983061 QKK983060:QKK983061 QUG983060:QUG983061 REC983060:REC983061 RNY983060:RNY983061 RXU983060:RXU983061 SHQ983060:SHQ983061 SRM983060:SRM983061 TBI983060:TBI983061 TLE983060:TLE983061 TVA983060:TVA983061 UEW983060:UEW983061 UOS983060:UOS983061 UYO983060:UYO983061 VIK983060:VIK983061 VSG983060:VSG983061 WCC983060:WCC983061 WLY983060:WLY983061 WVU983060:WVU983061" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>NA</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L37 JH37 TD37 ACZ37 AMV37 AWR37 BGN37 BQJ37 CAF37 CKB37 CTX37 DDT37 DNP37 DXL37 EHH37 ERD37 FAZ37 FKV37 FUR37 GEN37 GOJ37 GYF37 HIB37 HRX37 IBT37 ILP37 IVL37 JFH37 JPD37 JYZ37 KIV37 KSR37 LCN37 LMJ37 LWF37 MGB37 MPX37 MZT37 NJP37 NTL37 ODH37 OND37 OWZ37 PGV37 PQR37 QAN37 QKJ37 QUF37 REB37 RNX37 RXT37 SHP37 SRL37 TBH37 TLD37 TUZ37 UEV37 UOR37 UYN37 VIJ37 VSF37 WCB37 WLX37 WVT37 L65573 JH65573 TD65573 ACZ65573 AMV65573 AWR65573 BGN65573 BQJ65573 CAF65573 CKB65573 CTX65573 DDT65573 DNP65573 DXL65573 EHH65573 ERD65573 FAZ65573 FKV65573 FUR65573 GEN65573 GOJ65573 GYF65573 HIB65573 HRX65573 IBT65573 ILP65573 IVL65573 JFH65573 JPD65573 JYZ65573 KIV65573 KSR65573 LCN65573 LMJ65573 LWF65573 MGB65573 MPX65573 MZT65573 NJP65573 NTL65573 ODH65573 OND65573 OWZ65573 PGV65573 PQR65573 QAN65573 QKJ65573 QUF65573 REB65573 RNX65573 RXT65573 SHP65573 SRL65573 TBH65573 TLD65573 TUZ65573 UEV65573 UOR65573 UYN65573 VIJ65573 VSF65573 WCB65573 WLX65573 WVT65573 L131109 JH131109 TD131109 ACZ131109 AMV131109 AWR131109 BGN131109 BQJ131109 CAF131109 CKB131109 CTX131109 DDT131109 DNP131109 DXL131109 EHH131109 ERD131109 FAZ131109 FKV131109 FUR131109 GEN131109 GOJ131109 GYF131109 HIB131109 HRX131109 IBT131109 ILP131109 IVL131109 JFH131109 JPD131109 JYZ131109 KIV131109 KSR131109 LCN131109 LMJ131109 LWF131109 MGB131109 MPX131109 MZT131109 NJP131109 NTL131109 ODH131109 OND131109 OWZ131109 PGV131109 PQR131109 QAN131109 QKJ131109 QUF131109 REB131109 RNX131109 RXT131109 SHP131109 SRL131109 TBH131109 TLD131109 TUZ131109 UEV131109 UOR131109 UYN131109 VIJ131109 VSF131109 WCB131109 WLX131109 WVT131109 L196645 JH196645 TD196645 ACZ196645 AMV196645 AWR196645 BGN196645 BQJ196645 CAF196645 CKB196645 CTX196645 DDT196645 DNP196645 DXL196645 EHH196645 ERD196645 FAZ196645 FKV196645 FUR196645 GEN196645 GOJ196645 GYF196645 HIB196645 HRX196645 IBT196645 ILP196645 IVL196645 JFH196645 JPD196645 JYZ196645 KIV196645 KSR196645 LCN196645 LMJ196645 LWF196645 MGB196645 MPX196645 MZT196645 NJP196645 NTL196645 ODH196645 OND196645 OWZ196645 PGV196645 PQR196645 QAN196645 QKJ196645 QUF196645 REB196645 RNX196645 RXT196645 SHP196645 SRL196645 TBH196645 TLD196645 TUZ196645 UEV196645 UOR196645 UYN196645 VIJ196645 VSF196645 WCB196645 WLX196645 WVT196645 L262181 JH262181 TD262181 ACZ262181 AMV262181 AWR262181 BGN262181 BQJ262181 CAF262181 CKB262181 CTX262181 DDT262181 DNP262181 DXL262181 EHH262181 ERD262181 FAZ262181 FKV262181 FUR262181 GEN262181 GOJ262181 GYF262181 HIB262181 HRX262181 IBT262181 ILP262181 IVL262181 JFH262181 JPD262181 JYZ262181 KIV262181 KSR262181 LCN262181 LMJ262181 LWF262181 MGB262181 MPX262181 MZT262181 NJP262181 NTL262181 ODH262181 OND262181 OWZ262181 PGV262181 PQR262181 QAN262181 QKJ262181 QUF262181 REB262181 RNX262181 RXT262181 SHP262181 SRL262181 TBH262181 TLD262181 TUZ262181 UEV262181 UOR262181 UYN262181 VIJ262181 VSF262181 WCB262181 WLX262181 WVT262181 L327717 JH327717 TD327717 ACZ327717 AMV327717 AWR327717 BGN327717 BQJ327717 CAF327717 CKB327717 CTX327717 DDT327717 DNP327717 DXL327717 EHH327717 ERD327717 FAZ327717 FKV327717 FUR327717 GEN327717 GOJ327717 GYF327717 HIB327717 HRX327717 IBT327717 ILP327717 IVL327717 JFH327717 JPD327717 JYZ327717 KIV327717 KSR327717 LCN327717 LMJ327717 LWF327717 MGB327717 MPX327717 MZT327717 NJP327717 NTL327717 ODH327717 OND327717 OWZ327717 PGV327717 PQR327717 QAN327717 QKJ327717 QUF327717 REB327717 RNX327717 RXT327717 SHP327717 SRL327717 TBH327717 TLD327717 TUZ327717 UEV327717 UOR327717 UYN327717 VIJ327717 VSF327717 WCB327717 WLX327717 WVT327717 L393253 JH393253 TD393253 ACZ393253 AMV393253 AWR393253 BGN393253 BQJ393253 CAF393253 CKB393253 CTX393253 DDT393253 DNP393253 DXL393253 EHH393253 ERD393253 FAZ393253 FKV393253 FUR393253 GEN393253 GOJ393253 GYF393253 HIB393253 HRX393253 IBT393253 ILP393253 IVL393253 JFH393253 JPD393253 JYZ393253 KIV393253 KSR393253 LCN393253 LMJ393253 LWF393253 MGB393253 MPX393253 MZT393253 NJP393253 NTL393253 ODH393253 OND393253 OWZ393253 PGV393253 PQR393253 QAN393253 QKJ393253 QUF393253 REB393253 RNX393253 RXT393253 SHP393253 SRL393253 TBH393253 TLD393253 TUZ393253 UEV393253 UOR393253 UYN393253 VIJ393253 VSF393253 WCB393253 WLX393253 WVT393253 L458789 JH458789 TD458789 ACZ458789 AMV458789 AWR458789 BGN458789 BQJ458789 CAF458789 CKB458789 CTX458789 DDT458789 DNP458789 DXL458789 EHH458789 ERD458789 FAZ458789 FKV458789 FUR458789 GEN458789 GOJ458789 GYF458789 HIB458789 HRX458789 IBT458789 ILP458789 IVL458789 JFH458789 JPD458789 JYZ458789 KIV458789 KSR458789 LCN458789 LMJ458789 LWF458789 MGB458789 MPX458789 MZT458789 NJP458789 NTL458789 ODH458789 OND458789 OWZ458789 PGV458789 PQR458789 QAN458789 QKJ458789 QUF458789 REB458789 RNX458789 RXT458789 SHP458789 SRL458789 TBH458789 TLD458789 TUZ458789 UEV458789 UOR458789 UYN458789 VIJ458789 VSF458789 WCB458789 WLX458789 WVT458789 L524325 JH524325 TD524325 ACZ524325 AMV524325 AWR524325 BGN524325 BQJ524325 CAF524325 CKB524325 CTX524325 DDT524325 DNP524325 DXL524325 EHH524325 ERD524325 FAZ524325 FKV524325 FUR524325 GEN524325 GOJ524325 GYF524325 HIB524325 HRX524325 IBT524325 ILP524325 IVL524325 JFH524325 JPD524325 JYZ524325 KIV524325 KSR524325 LCN524325 LMJ524325 LWF524325 MGB524325 MPX524325 MZT524325 NJP524325 NTL524325 ODH524325 OND524325 OWZ524325 PGV524325 PQR524325 QAN524325 QKJ524325 QUF524325 REB524325 RNX524325 RXT524325 SHP524325 SRL524325 TBH524325 TLD524325 TUZ524325 UEV524325 UOR524325 UYN524325 VIJ524325 VSF524325 WCB524325 WLX524325 WVT524325 L589861 JH589861 TD589861 ACZ589861 AMV589861 AWR589861 BGN589861 BQJ589861 CAF589861 CKB589861 CTX589861 DDT589861 DNP589861 DXL589861 EHH589861 ERD589861 FAZ589861 FKV589861 FUR589861 GEN589861 GOJ589861 GYF589861 HIB589861 HRX589861 IBT589861 ILP589861 IVL589861 JFH589861 JPD589861 JYZ589861 KIV589861 KSR589861 LCN589861 LMJ589861 LWF589861 MGB589861 MPX589861 MZT589861 NJP589861 NTL589861 ODH589861 OND589861 OWZ589861 PGV589861 PQR589861 QAN589861 QKJ589861 QUF589861 REB589861 RNX589861 RXT589861 SHP589861 SRL589861 TBH589861 TLD589861 TUZ589861 UEV589861 UOR589861 UYN589861 VIJ589861 VSF589861 WCB589861 WLX589861 WVT589861 L655397 JH655397 TD655397 ACZ655397 AMV655397 AWR655397 BGN655397 BQJ655397 CAF655397 CKB655397 CTX655397 DDT655397 DNP655397 DXL655397 EHH655397 ERD655397 FAZ655397 FKV655397 FUR655397 GEN655397 GOJ655397 GYF655397 HIB655397 HRX655397 IBT655397 ILP655397 IVL655397 JFH655397 JPD655397 JYZ655397 KIV655397 KSR655397 LCN655397 LMJ655397 LWF655397 MGB655397 MPX655397 MZT655397 NJP655397 NTL655397 ODH655397 OND655397 OWZ655397 PGV655397 PQR655397 QAN655397 QKJ655397 QUF655397 REB655397 RNX655397 RXT655397 SHP655397 SRL655397 TBH655397 TLD655397 TUZ655397 UEV655397 UOR655397 UYN655397 VIJ655397 VSF655397 WCB655397 WLX655397 WVT655397 L720933 JH720933 TD720933 ACZ720933 AMV720933 AWR720933 BGN720933 BQJ720933 CAF720933 CKB720933 CTX720933 DDT720933 DNP720933 DXL720933 EHH720933 ERD720933 FAZ720933 FKV720933 FUR720933 GEN720933 GOJ720933 GYF720933 HIB720933 HRX720933 IBT720933 ILP720933 IVL720933 JFH720933 JPD720933 JYZ720933 KIV720933 KSR720933 LCN720933 LMJ720933 LWF720933 MGB720933 MPX720933 MZT720933 NJP720933 NTL720933 ODH720933 OND720933 OWZ720933 PGV720933 PQR720933 QAN720933 QKJ720933 QUF720933 REB720933 RNX720933 RXT720933 SHP720933 SRL720933 TBH720933 TLD720933 TUZ720933 UEV720933 UOR720933 UYN720933 VIJ720933 VSF720933 WCB720933 WLX720933 WVT720933 L786469 JH786469 TD786469 ACZ786469 AMV786469 AWR786469 BGN786469 BQJ786469 CAF786469 CKB786469 CTX786469 DDT786469 DNP786469 DXL786469 EHH786469 ERD786469 FAZ786469 FKV786469 FUR786469 GEN786469 GOJ786469 GYF786469 HIB786469 HRX786469 IBT786469 ILP786469 IVL786469 JFH786469 JPD786469 JYZ786469 KIV786469 KSR786469 LCN786469 LMJ786469 LWF786469 MGB786469 MPX786469 MZT786469 NJP786469 NTL786469 ODH786469 OND786469 OWZ786469 PGV786469 PQR786469 QAN786469 QKJ786469 QUF786469 REB786469 RNX786469 RXT786469 SHP786469 SRL786469 TBH786469 TLD786469 TUZ786469 UEV786469 UOR786469 UYN786469 VIJ786469 VSF786469 WCB786469 WLX786469 WVT786469 L852005 JH852005 TD852005 ACZ852005 AMV852005 AWR852005 BGN852005 BQJ852005 CAF852005 CKB852005 CTX852005 DDT852005 DNP852005 DXL852005 EHH852005 ERD852005 FAZ852005 FKV852005 FUR852005 GEN852005 GOJ852005 GYF852005 HIB852005 HRX852005 IBT852005 ILP852005 IVL852005 JFH852005 JPD852005 JYZ852005 KIV852005 KSR852005 LCN852005 LMJ852005 LWF852005 MGB852005 MPX852005 MZT852005 NJP852005 NTL852005 ODH852005 OND852005 OWZ852005 PGV852005 PQR852005 QAN852005 QKJ852005 QUF852005 REB852005 RNX852005 RXT852005 SHP852005 SRL852005 TBH852005 TLD852005 TUZ852005 UEV852005 UOR852005 UYN852005 VIJ852005 VSF852005 WCB852005 WLX852005 WVT852005 L917541 JH917541 TD917541 ACZ917541 AMV917541 AWR917541 BGN917541 BQJ917541 CAF917541 CKB917541 CTX917541 DDT917541 DNP917541 DXL917541 EHH917541 ERD917541 FAZ917541 FKV917541 FUR917541 GEN917541 GOJ917541 GYF917541 HIB917541 HRX917541 IBT917541 ILP917541 IVL917541 JFH917541 JPD917541 JYZ917541 KIV917541 KSR917541 LCN917541 LMJ917541 LWF917541 MGB917541 MPX917541 MZT917541 NJP917541 NTL917541 ODH917541 OND917541 OWZ917541 PGV917541 PQR917541 QAN917541 QKJ917541 QUF917541 REB917541 RNX917541 RXT917541 SHP917541 SRL917541 TBH917541 TLD917541 TUZ917541 UEV917541 UOR917541 UYN917541 VIJ917541 VSF917541 WCB917541 WLX917541 WVT917541 L983077 JH983077 TD983077 ACZ983077 AMV983077 AWR983077 BGN983077 BQJ983077 CAF983077 CKB983077 CTX983077 DDT983077 DNP983077 DXL983077 EHH983077 ERD983077 FAZ983077 FKV983077 FUR983077 GEN983077 GOJ983077 GYF983077 HIB983077 HRX983077 IBT983077 ILP983077 IVL983077 JFH983077 JPD983077 JYZ983077 KIV983077 KSR983077 LCN983077 LMJ983077 LWF983077 MGB983077 MPX983077 MZT983077 NJP983077 NTL983077 ODH983077 OND983077 OWZ983077 PGV983077 PQR983077 QAN983077 QKJ983077 QUF983077 REB983077 RNX983077 RXT983077 SHP983077 SRL983077 TBH983077 TLD983077 TUZ983077 UEV983077 UOR983077 UYN983077 VIJ983077 VSF983077 WCB983077 WLX983077 WVT983077 J37 JF37 TB37 ACX37 AMT37 AWP37 BGL37 BQH37 CAD37 CJZ37 CTV37 DDR37 DNN37 DXJ37 EHF37 ERB37 FAX37 FKT37 FUP37 GEL37 GOH37 GYD37 HHZ37 HRV37 IBR37 ILN37 IVJ37 JFF37 JPB37 JYX37 KIT37 KSP37 LCL37 LMH37 LWD37 MFZ37 MPV37 MZR37 NJN37 NTJ37 ODF37 ONB37 OWX37 PGT37 PQP37 QAL37 QKH37 QUD37 RDZ37 RNV37 RXR37 SHN37 SRJ37 TBF37 TLB37 TUX37 UET37 UOP37 UYL37 VIH37 VSD37 WBZ37 WLV37 WVR37 J65573 JF65573 TB65573 ACX65573 AMT65573 AWP65573 BGL65573 BQH65573 CAD65573 CJZ65573 CTV65573 DDR65573 DNN65573 DXJ65573 EHF65573 ERB65573 FAX65573 FKT65573 FUP65573 GEL65573 GOH65573 GYD65573 HHZ65573 HRV65573 IBR65573 ILN65573 IVJ65573 JFF65573 JPB65573 JYX65573 KIT65573 KSP65573 LCL65573 LMH65573 LWD65573 MFZ65573 MPV65573 MZR65573 NJN65573 NTJ65573 ODF65573 ONB65573 OWX65573 PGT65573 PQP65573 QAL65573 QKH65573 QUD65573 RDZ65573 RNV65573 RXR65573 SHN65573 SRJ65573 TBF65573 TLB65573 TUX65573 UET65573 UOP65573 UYL65573 VIH65573 VSD65573 WBZ65573 WLV65573 WVR65573 J131109 JF131109 TB131109 ACX131109 AMT131109 AWP131109 BGL131109 BQH131109 CAD131109 CJZ131109 CTV131109 DDR131109 DNN131109 DXJ131109 EHF131109 ERB131109 FAX131109 FKT131109 FUP131109 GEL131109 GOH131109 GYD131109 HHZ131109 HRV131109 IBR131109 ILN131109 IVJ131109 JFF131109 JPB131109 JYX131109 KIT131109 KSP131109 LCL131109 LMH131109 LWD131109 MFZ131109 MPV131109 MZR131109 NJN131109 NTJ131109 ODF131109 ONB131109 OWX131109 PGT131109 PQP131109 QAL131109 QKH131109 QUD131109 RDZ131109 RNV131109 RXR131109 SHN131109 SRJ131109 TBF131109 TLB131109 TUX131109 UET131109 UOP131109 UYL131109 VIH131109 VSD131109 WBZ131109 WLV131109 WVR131109 J196645 JF196645 TB196645 ACX196645 AMT196645 AWP196645 BGL196645 BQH196645 CAD196645 CJZ196645 CTV196645 DDR196645 DNN196645 DXJ196645 EHF196645 ERB196645 FAX196645 FKT196645 FUP196645 GEL196645 GOH196645 GYD196645 HHZ196645 HRV196645 IBR196645 ILN196645 IVJ196645 JFF196645 JPB196645 JYX196645 KIT196645 KSP196645 LCL196645 LMH196645 LWD196645 MFZ196645 MPV196645 MZR196645 NJN196645 NTJ196645 ODF196645 ONB196645 OWX196645 PGT196645 PQP196645 QAL196645 QKH196645 QUD196645 RDZ196645 RNV196645 RXR196645 SHN196645 SRJ196645 TBF196645 TLB196645 TUX196645 UET196645 UOP196645 UYL196645 VIH196645 VSD196645 WBZ196645 WLV196645 WVR196645 J262181 JF262181 TB262181 ACX262181 AMT262181 AWP262181 BGL262181 BQH262181 CAD262181 CJZ262181 CTV262181 DDR262181 DNN262181 DXJ262181 EHF262181 ERB262181 FAX262181 FKT262181 FUP262181 GEL262181 GOH262181 GYD262181 HHZ262181 HRV262181 IBR262181 ILN262181 IVJ262181 JFF262181 JPB262181 JYX262181 KIT262181 KSP262181 LCL262181 LMH262181 LWD262181 MFZ262181 MPV262181 MZR262181 NJN262181 NTJ262181 ODF262181 ONB262181 OWX262181 PGT262181 PQP262181 QAL262181 QKH262181 QUD262181 RDZ262181 RNV262181 RXR262181 SHN262181 SRJ262181 TBF262181 TLB262181 TUX262181 UET262181 UOP262181 UYL262181 VIH262181 VSD262181 WBZ262181 WLV262181 WVR262181 J327717 JF327717 TB327717 ACX327717 AMT327717 AWP327717 BGL327717 BQH327717 CAD327717 CJZ327717 CTV327717 DDR327717 DNN327717 DXJ327717 EHF327717 ERB327717 FAX327717 FKT327717 FUP327717 GEL327717 GOH327717 GYD327717 HHZ327717 HRV327717 IBR327717 ILN327717 IVJ327717 JFF327717 JPB327717 JYX327717 KIT327717 KSP327717 LCL327717 LMH327717 LWD327717 MFZ327717 MPV327717 MZR327717 NJN327717 NTJ327717 ODF327717 ONB327717 OWX327717 PGT327717 PQP327717 QAL327717 QKH327717 QUD327717 RDZ327717 RNV327717 RXR327717 SHN327717 SRJ327717 TBF327717 TLB327717 TUX327717 UET327717 UOP327717 UYL327717 VIH327717 VSD327717 WBZ327717 WLV327717 WVR327717 J393253 JF393253 TB393253 ACX393253 AMT393253 AWP393253 BGL393253 BQH393253 CAD393253 CJZ393253 CTV393253 DDR393253 DNN393253 DXJ393253 EHF393253 ERB393253 FAX393253 FKT393253 FUP393253 GEL393253 GOH393253 GYD393253 HHZ393253 HRV393253 IBR393253 ILN393253 IVJ393253 JFF393253 JPB393253 JYX393253 KIT393253 KSP393253 LCL393253 LMH393253 LWD393253 MFZ393253 MPV393253 MZR393253 NJN393253 NTJ393253 ODF393253 ONB393253 OWX393253 PGT393253 PQP393253 QAL393253 QKH393253 QUD393253 RDZ393253 RNV393253 RXR393253 SHN393253 SRJ393253 TBF393253 TLB393253 TUX393253 UET393253 UOP393253 UYL393253 VIH393253 VSD393253 WBZ393253 WLV393253 WVR393253 J458789 JF458789 TB458789 ACX458789 AMT458789 AWP458789 BGL458789 BQH458789 CAD458789 CJZ458789 CTV458789 DDR458789 DNN458789 DXJ458789 EHF458789 ERB458789 FAX458789 FKT458789 FUP458789 GEL458789 GOH458789 GYD458789 HHZ458789 HRV458789 IBR458789 ILN458789 IVJ458789 JFF458789 JPB458789 JYX458789 KIT458789 KSP458789 LCL458789 LMH458789 LWD458789 MFZ458789 MPV458789 MZR458789 NJN458789 NTJ458789 ODF458789 ONB458789 OWX458789 PGT458789 PQP458789 QAL458789 QKH458789 QUD458789 RDZ458789 RNV458789 RXR458789 SHN458789 SRJ458789 TBF458789 TLB458789 TUX458789 UET458789 UOP458789 UYL458789 VIH458789 VSD458789 WBZ458789 WLV458789 WVR458789 J524325 JF524325 TB524325 ACX524325 AMT524325 AWP524325 BGL524325 BQH524325 CAD524325 CJZ524325 CTV524325 DDR524325 DNN524325 DXJ524325 EHF524325 ERB524325 FAX524325 FKT524325 FUP524325 GEL524325 GOH524325 GYD524325 HHZ524325 HRV524325 IBR524325 ILN524325 IVJ524325 JFF524325 JPB524325 JYX524325 KIT524325 KSP524325 LCL524325 LMH524325 LWD524325 MFZ524325 MPV524325 MZR524325 NJN524325 NTJ524325 ODF524325 ONB524325 OWX524325 PGT524325 PQP524325 QAL524325 QKH524325 QUD524325 RDZ524325 RNV524325 RXR524325 SHN524325 SRJ524325 TBF524325 TLB524325 TUX524325 UET524325 UOP524325 UYL524325 VIH524325 VSD524325 WBZ524325 WLV524325 WVR524325 J589861 JF589861 TB589861 ACX589861 AMT589861 AWP589861 BGL589861 BQH589861 CAD589861 CJZ589861 CTV589861 DDR589861 DNN589861 DXJ589861 EHF589861 ERB589861 FAX589861 FKT589861 FUP589861 GEL589861 GOH589861 GYD589861 HHZ589861 HRV589861 IBR589861 ILN589861 IVJ589861 JFF589861 JPB589861 JYX589861 KIT589861 KSP589861 LCL589861 LMH589861 LWD589861 MFZ589861 MPV589861 MZR589861 NJN589861 NTJ589861 ODF589861 ONB589861 OWX589861 PGT589861 PQP589861 QAL589861 QKH589861 QUD589861 RDZ589861 RNV589861 RXR589861 SHN589861 SRJ589861 TBF589861 TLB589861 TUX589861 UET589861 UOP589861 UYL589861 VIH589861 VSD589861 WBZ589861 WLV589861 WVR589861 J655397 JF655397 TB655397 ACX655397 AMT655397 AWP655397 BGL655397 BQH655397 CAD655397 CJZ655397 CTV655397 DDR655397 DNN655397 DXJ655397 EHF655397 ERB655397 FAX655397 FKT655397 FUP655397 GEL655397 GOH655397 GYD655397 HHZ655397 HRV655397 IBR655397 ILN655397 IVJ655397 JFF655397 JPB655397 JYX655397 KIT655397 KSP655397 LCL655397 LMH655397 LWD655397 MFZ655397 MPV655397 MZR655397 NJN655397 NTJ655397 ODF655397 ONB655397 OWX655397 PGT655397 PQP655397 QAL655397 QKH655397 QUD655397 RDZ655397 RNV655397 RXR655397 SHN655397 SRJ655397 TBF655397 TLB655397 TUX655397 UET655397 UOP655397 UYL655397 VIH655397 VSD655397 WBZ655397 WLV655397 WVR655397 J720933 JF720933 TB720933 ACX720933 AMT720933 AWP720933 BGL720933 BQH720933 CAD720933 CJZ720933 CTV720933 DDR720933 DNN720933 DXJ720933 EHF720933 ERB720933 FAX720933 FKT720933 FUP720933 GEL720933 GOH720933 GYD720933 HHZ720933 HRV720933 IBR720933 ILN720933 IVJ720933 JFF720933 JPB720933 JYX720933 KIT720933 KSP720933 LCL720933 LMH720933 LWD720933 MFZ720933 MPV720933 MZR720933 NJN720933 NTJ720933 ODF720933 ONB720933 OWX720933 PGT720933 PQP720933 QAL720933 QKH720933 QUD720933 RDZ720933 RNV720933 RXR720933 SHN720933 SRJ720933 TBF720933 TLB720933 TUX720933 UET720933 UOP720933 UYL720933 VIH720933 VSD720933 WBZ720933 WLV720933 WVR720933 J786469 JF786469 TB786469 ACX786469 AMT786469 AWP786469 BGL786469 BQH786469 CAD786469 CJZ786469 CTV786469 DDR786469 DNN786469 DXJ786469 EHF786469 ERB786469 FAX786469 FKT786469 FUP786469 GEL786469 GOH786469 GYD786469 HHZ786469 HRV786469 IBR786469 ILN786469 IVJ786469 JFF786469 JPB786469 JYX786469 KIT786469 KSP786469 LCL786469 LMH786469 LWD786469 MFZ786469 MPV786469 MZR786469 NJN786469 NTJ786469 ODF786469 ONB786469 OWX786469 PGT786469 PQP786469 QAL786469 QKH786469 QUD786469 RDZ786469 RNV786469 RXR786469 SHN786469 SRJ786469 TBF786469 TLB786469 TUX786469 UET786469 UOP786469 UYL786469 VIH786469 VSD786469 WBZ786469 WLV786469 WVR786469 J852005 JF852005 TB852005 ACX852005 AMT852005 AWP852005 BGL852005 BQH852005 CAD852005 CJZ852005 CTV852005 DDR852005 DNN852005 DXJ852005 EHF852005 ERB852005 FAX852005 FKT852005 FUP852005 GEL852005 GOH852005 GYD852005 HHZ852005 HRV852005 IBR852005 ILN852005 IVJ852005 JFF852005 JPB852005 JYX852005 KIT852005 KSP852005 LCL852005 LMH852005 LWD852005 MFZ852005 MPV852005 MZR852005 NJN852005 NTJ852005 ODF852005 ONB852005 OWX852005 PGT852005 PQP852005 QAL852005 QKH852005 QUD852005 RDZ852005 RNV852005 RXR852005 SHN852005 SRJ852005 TBF852005 TLB852005 TUX852005 UET852005 UOP852005 UYL852005 VIH852005 VSD852005 WBZ852005 WLV852005 WVR852005 J917541 JF917541 TB917541 ACX917541 AMT917541 AWP917541 BGL917541 BQH917541 CAD917541 CJZ917541 CTV917541 DDR917541 DNN917541 DXJ917541 EHF917541 ERB917541 FAX917541 FKT917541 FUP917541 GEL917541 GOH917541 GYD917541 HHZ917541 HRV917541 IBR917541 ILN917541 IVJ917541 JFF917541 JPB917541 JYX917541 KIT917541 KSP917541 LCL917541 LMH917541 LWD917541 MFZ917541 MPV917541 MZR917541 NJN917541 NTJ917541 ODF917541 ONB917541 OWX917541 PGT917541 PQP917541 QAL917541 QKH917541 QUD917541 RDZ917541 RNV917541 RXR917541 SHN917541 SRJ917541 TBF917541 TLB917541 TUX917541 UET917541 UOP917541 UYL917541 VIH917541 VSD917541 WBZ917541 WLV917541 WVR917541 J983077 JF983077 TB983077 ACX983077 AMT983077 AWP983077 BGL983077 BQH983077 CAD983077 CJZ983077 CTV983077 DDR983077 DNN983077 DXJ983077 EHF983077 ERB983077 FAX983077 FKT983077 FUP983077 GEL983077 GOH983077 GYD983077 HHZ983077 HRV983077 IBR983077 ILN983077 IVJ983077 JFF983077 JPB983077 JYX983077 KIT983077 KSP983077 LCL983077 LMH983077 LWD983077 MFZ983077 MPV983077 MZR983077 NJN983077 NTJ983077 ODF983077 ONB983077 OWX983077 PGT983077 PQP983077 QAL983077 QKH983077 QUD983077 RDZ983077 RNV983077 RXR983077 SHN983077 SRJ983077 TBF983077 TLB983077 TUX983077 UET983077 UOP983077 UYL983077 VIH983077 VSD983077 WBZ983077 WLV983077 WVR983077">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L37 JH37 TD37 ACZ37 AMV37 AWR37 BGN37 BQJ37 CAF37 CKB37 CTX37 DDT37 DNP37 DXL37 EHH37 ERD37 FAZ37 FKV37 FUR37 GEN37 GOJ37 GYF37 HIB37 HRX37 IBT37 ILP37 IVL37 JFH37 JPD37 JYZ37 KIV37 KSR37 LCN37 LMJ37 LWF37 MGB37 MPX37 MZT37 NJP37 NTL37 ODH37 OND37 OWZ37 PGV37 PQR37 QAN37 QKJ37 QUF37 REB37 RNX37 RXT37 SHP37 SRL37 TBH37 TLD37 TUZ37 UEV37 UOR37 UYN37 VIJ37 VSF37 WCB37 WLX37 WVT37 L65573 JH65573 TD65573 ACZ65573 AMV65573 AWR65573 BGN65573 BQJ65573 CAF65573 CKB65573 CTX65573 DDT65573 DNP65573 DXL65573 EHH65573 ERD65573 FAZ65573 FKV65573 FUR65573 GEN65573 GOJ65573 GYF65573 HIB65573 HRX65573 IBT65573 ILP65573 IVL65573 JFH65573 JPD65573 JYZ65573 KIV65573 KSR65573 LCN65573 LMJ65573 LWF65573 MGB65573 MPX65573 MZT65573 NJP65573 NTL65573 ODH65573 OND65573 OWZ65573 PGV65573 PQR65573 QAN65573 QKJ65573 QUF65573 REB65573 RNX65573 RXT65573 SHP65573 SRL65573 TBH65573 TLD65573 TUZ65573 UEV65573 UOR65573 UYN65573 VIJ65573 VSF65573 WCB65573 WLX65573 WVT65573 L131109 JH131109 TD131109 ACZ131109 AMV131109 AWR131109 BGN131109 BQJ131109 CAF131109 CKB131109 CTX131109 DDT131109 DNP131109 DXL131109 EHH131109 ERD131109 FAZ131109 FKV131109 FUR131109 GEN131109 GOJ131109 GYF131109 HIB131109 HRX131109 IBT131109 ILP131109 IVL131109 JFH131109 JPD131109 JYZ131109 KIV131109 KSR131109 LCN131109 LMJ131109 LWF131109 MGB131109 MPX131109 MZT131109 NJP131109 NTL131109 ODH131109 OND131109 OWZ131109 PGV131109 PQR131109 QAN131109 QKJ131109 QUF131109 REB131109 RNX131109 RXT131109 SHP131109 SRL131109 TBH131109 TLD131109 TUZ131109 UEV131109 UOR131109 UYN131109 VIJ131109 VSF131109 WCB131109 WLX131109 WVT131109 L196645 JH196645 TD196645 ACZ196645 AMV196645 AWR196645 BGN196645 BQJ196645 CAF196645 CKB196645 CTX196645 DDT196645 DNP196645 DXL196645 EHH196645 ERD196645 FAZ196645 FKV196645 FUR196645 GEN196645 GOJ196645 GYF196645 HIB196645 HRX196645 IBT196645 ILP196645 IVL196645 JFH196645 JPD196645 JYZ196645 KIV196645 KSR196645 LCN196645 LMJ196645 LWF196645 MGB196645 MPX196645 MZT196645 NJP196645 NTL196645 ODH196645 OND196645 OWZ196645 PGV196645 PQR196645 QAN196645 QKJ196645 QUF196645 REB196645 RNX196645 RXT196645 SHP196645 SRL196645 TBH196645 TLD196645 TUZ196645 UEV196645 UOR196645 UYN196645 VIJ196645 VSF196645 WCB196645 WLX196645 WVT196645 L262181 JH262181 TD262181 ACZ262181 AMV262181 AWR262181 BGN262181 BQJ262181 CAF262181 CKB262181 CTX262181 DDT262181 DNP262181 DXL262181 EHH262181 ERD262181 FAZ262181 FKV262181 FUR262181 GEN262181 GOJ262181 GYF262181 HIB262181 HRX262181 IBT262181 ILP262181 IVL262181 JFH262181 JPD262181 JYZ262181 KIV262181 KSR262181 LCN262181 LMJ262181 LWF262181 MGB262181 MPX262181 MZT262181 NJP262181 NTL262181 ODH262181 OND262181 OWZ262181 PGV262181 PQR262181 QAN262181 QKJ262181 QUF262181 REB262181 RNX262181 RXT262181 SHP262181 SRL262181 TBH262181 TLD262181 TUZ262181 UEV262181 UOR262181 UYN262181 VIJ262181 VSF262181 WCB262181 WLX262181 WVT262181 L327717 JH327717 TD327717 ACZ327717 AMV327717 AWR327717 BGN327717 BQJ327717 CAF327717 CKB327717 CTX327717 DDT327717 DNP327717 DXL327717 EHH327717 ERD327717 FAZ327717 FKV327717 FUR327717 GEN327717 GOJ327717 GYF327717 HIB327717 HRX327717 IBT327717 ILP327717 IVL327717 JFH327717 JPD327717 JYZ327717 KIV327717 KSR327717 LCN327717 LMJ327717 LWF327717 MGB327717 MPX327717 MZT327717 NJP327717 NTL327717 ODH327717 OND327717 OWZ327717 PGV327717 PQR327717 QAN327717 QKJ327717 QUF327717 REB327717 RNX327717 RXT327717 SHP327717 SRL327717 TBH327717 TLD327717 TUZ327717 UEV327717 UOR327717 UYN327717 VIJ327717 VSF327717 WCB327717 WLX327717 WVT327717 L393253 JH393253 TD393253 ACZ393253 AMV393253 AWR393253 BGN393253 BQJ393253 CAF393253 CKB393253 CTX393253 DDT393253 DNP393253 DXL393253 EHH393253 ERD393253 FAZ393253 FKV393253 FUR393253 GEN393253 GOJ393253 GYF393253 HIB393253 HRX393253 IBT393253 ILP393253 IVL393253 JFH393253 JPD393253 JYZ393253 KIV393253 KSR393253 LCN393253 LMJ393253 LWF393253 MGB393253 MPX393253 MZT393253 NJP393253 NTL393253 ODH393253 OND393253 OWZ393253 PGV393253 PQR393253 QAN393253 QKJ393253 QUF393253 REB393253 RNX393253 RXT393253 SHP393253 SRL393253 TBH393253 TLD393253 TUZ393253 UEV393253 UOR393253 UYN393253 VIJ393253 VSF393253 WCB393253 WLX393253 WVT393253 L458789 JH458789 TD458789 ACZ458789 AMV458789 AWR458789 BGN458789 BQJ458789 CAF458789 CKB458789 CTX458789 DDT458789 DNP458789 DXL458789 EHH458789 ERD458789 FAZ458789 FKV458789 FUR458789 GEN458789 GOJ458789 GYF458789 HIB458789 HRX458789 IBT458789 ILP458789 IVL458789 JFH458789 JPD458789 JYZ458789 KIV458789 KSR458789 LCN458789 LMJ458789 LWF458789 MGB458789 MPX458789 MZT458789 NJP458789 NTL458789 ODH458789 OND458789 OWZ458789 PGV458789 PQR458789 QAN458789 QKJ458789 QUF458789 REB458789 RNX458789 RXT458789 SHP458789 SRL458789 TBH458789 TLD458789 TUZ458789 UEV458789 UOR458789 UYN458789 VIJ458789 VSF458789 WCB458789 WLX458789 WVT458789 L524325 JH524325 TD524325 ACZ524325 AMV524325 AWR524325 BGN524325 BQJ524325 CAF524325 CKB524325 CTX524325 DDT524325 DNP524325 DXL524325 EHH524325 ERD524325 FAZ524325 FKV524325 FUR524325 GEN524325 GOJ524325 GYF524325 HIB524325 HRX524325 IBT524325 ILP524325 IVL524325 JFH524325 JPD524325 JYZ524325 KIV524325 KSR524325 LCN524325 LMJ524325 LWF524325 MGB524325 MPX524325 MZT524325 NJP524325 NTL524325 ODH524325 OND524325 OWZ524325 PGV524325 PQR524325 QAN524325 QKJ524325 QUF524325 REB524325 RNX524325 RXT524325 SHP524325 SRL524325 TBH524325 TLD524325 TUZ524325 UEV524325 UOR524325 UYN524325 VIJ524325 VSF524325 WCB524325 WLX524325 WVT524325 L589861 JH589861 TD589861 ACZ589861 AMV589861 AWR589861 BGN589861 BQJ589861 CAF589861 CKB589861 CTX589861 DDT589861 DNP589861 DXL589861 EHH589861 ERD589861 FAZ589861 FKV589861 FUR589861 GEN589861 GOJ589861 GYF589861 HIB589861 HRX589861 IBT589861 ILP589861 IVL589861 JFH589861 JPD589861 JYZ589861 KIV589861 KSR589861 LCN589861 LMJ589861 LWF589861 MGB589861 MPX589861 MZT589861 NJP589861 NTL589861 ODH589861 OND589861 OWZ589861 PGV589861 PQR589861 QAN589861 QKJ589861 QUF589861 REB589861 RNX589861 RXT589861 SHP589861 SRL589861 TBH589861 TLD589861 TUZ589861 UEV589861 UOR589861 UYN589861 VIJ589861 VSF589861 WCB589861 WLX589861 WVT589861 L655397 JH655397 TD655397 ACZ655397 AMV655397 AWR655397 BGN655397 BQJ655397 CAF655397 CKB655397 CTX655397 DDT655397 DNP655397 DXL655397 EHH655397 ERD655397 FAZ655397 FKV655397 FUR655397 GEN655397 GOJ655397 GYF655397 HIB655397 HRX655397 IBT655397 ILP655397 IVL655397 JFH655397 JPD655397 JYZ655397 KIV655397 KSR655397 LCN655397 LMJ655397 LWF655397 MGB655397 MPX655397 MZT655397 NJP655397 NTL655397 ODH655397 OND655397 OWZ655397 PGV655397 PQR655397 QAN655397 QKJ655397 QUF655397 REB655397 RNX655397 RXT655397 SHP655397 SRL655397 TBH655397 TLD655397 TUZ655397 UEV655397 UOR655397 UYN655397 VIJ655397 VSF655397 WCB655397 WLX655397 WVT655397 L720933 JH720933 TD720933 ACZ720933 AMV720933 AWR720933 BGN720933 BQJ720933 CAF720933 CKB720933 CTX720933 DDT720933 DNP720933 DXL720933 EHH720933 ERD720933 FAZ720933 FKV720933 FUR720933 GEN720933 GOJ720933 GYF720933 HIB720933 HRX720933 IBT720933 ILP720933 IVL720933 JFH720933 JPD720933 JYZ720933 KIV720933 KSR720933 LCN720933 LMJ720933 LWF720933 MGB720933 MPX720933 MZT720933 NJP720933 NTL720933 ODH720933 OND720933 OWZ720933 PGV720933 PQR720933 QAN720933 QKJ720933 QUF720933 REB720933 RNX720933 RXT720933 SHP720933 SRL720933 TBH720933 TLD720933 TUZ720933 UEV720933 UOR720933 UYN720933 VIJ720933 VSF720933 WCB720933 WLX720933 WVT720933 L786469 JH786469 TD786469 ACZ786469 AMV786469 AWR786469 BGN786469 BQJ786469 CAF786469 CKB786469 CTX786469 DDT786469 DNP786469 DXL786469 EHH786469 ERD786469 FAZ786469 FKV786469 FUR786469 GEN786469 GOJ786469 GYF786469 HIB786469 HRX786469 IBT786469 ILP786469 IVL786469 JFH786469 JPD786469 JYZ786469 KIV786469 KSR786469 LCN786469 LMJ786469 LWF786469 MGB786469 MPX786469 MZT786469 NJP786469 NTL786469 ODH786469 OND786469 OWZ786469 PGV786469 PQR786469 QAN786469 QKJ786469 QUF786469 REB786469 RNX786469 RXT786469 SHP786469 SRL786469 TBH786469 TLD786469 TUZ786469 UEV786469 UOR786469 UYN786469 VIJ786469 VSF786469 WCB786469 WLX786469 WVT786469 L852005 JH852005 TD852005 ACZ852005 AMV852005 AWR852005 BGN852005 BQJ852005 CAF852005 CKB852005 CTX852005 DDT852005 DNP852005 DXL852005 EHH852005 ERD852005 FAZ852005 FKV852005 FUR852005 GEN852005 GOJ852005 GYF852005 HIB852005 HRX852005 IBT852005 ILP852005 IVL852005 JFH852005 JPD852005 JYZ852005 KIV852005 KSR852005 LCN852005 LMJ852005 LWF852005 MGB852005 MPX852005 MZT852005 NJP852005 NTL852005 ODH852005 OND852005 OWZ852005 PGV852005 PQR852005 QAN852005 QKJ852005 QUF852005 REB852005 RNX852005 RXT852005 SHP852005 SRL852005 TBH852005 TLD852005 TUZ852005 UEV852005 UOR852005 UYN852005 VIJ852005 VSF852005 WCB852005 WLX852005 WVT852005 L917541 JH917541 TD917541 ACZ917541 AMV917541 AWR917541 BGN917541 BQJ917541 CAF917541 CKB917541 CTX917541 DDT917541 DNP917541 DXL917541 EHH917541 ERD917541 FAZ917541 FKV917541 FUR917541 GEN917541 GOJ917541 GYF917541 HIB917541 HRX917541 IBT917541 ILP917541 IVL917541 JFH917541 JPD917541 JYZ917541 KIV917541 KSR917541 LCN917541 LMJ917541 LWF917541 MGB917541 MPX917541 MZT917541 NJP917541 NTL917541 ODH917541 OND917541 OWZ917541 PGV917541 PQR917541 QAN917541 QKJ917541 QUF917541 REB917541 RNX917541 RXT917541 SHP917541 SRL917541 TBH917541 TLD917541 TUZ917541 UEV917541 UOR917541 UYN917541 VIJ917541 VSF917541 WCB917541 WLX917541 WVT917541 L983077 JH983077 TD983077 ACZ983077 AMV983077 AWR983077 BGN983077 BQJ983077 CAF983077 CKB983077 CTX983077 DDT983077 DNP983077 DXL983077 EHH983077 ERD983077 FAZ983077 FKV983077 FUR983077 GEN983077 GOJ983077 GYF983077 HIB983077 HRX983077 IBT983077 ILP983077 IVL983077 JFH983077 JPD983077 JYZ983077 KIV983077 KSR983077 LCN983077 LMJ983077 LWF983077 MGB983077 MPX983077 MZT983077 NJP983077 NTL983077 ODH983077 OND983077 OWZ983077 PGV983077 PQR983077 QAN983077 QKJ983077 QUF983077 REB983077 RNX983077 RXT983077 SHP983077 SRL983077 TBH983077 TLD983077 TUZ983077 UEV983077 UOR983077 UYN983077 VIJ983077 VSF983077 WCB983077 WLX983077 WVT983077 J37 JF37 TB37 ACX37 AMT37 AWP37 BGL37 BQH37 CAD37 CJZ37 CTV37 DDR37 DNN37 DXJ37 EHF37 ERB37 FAX37 FKT37 FUP37 GEL37 GOH37 GYD37 HHZ37 HRV37 IBR37 ILN37 IVJ37 JFF37 JPB37 JYX37 KIT37 KSP37 LCL37 LMH37 LWD37 MFZ37 MPV37 MZR37 NJN37 NTJ37 ODF37 ONB37 OWX37 PGT37 PQP37 QAL37 QKH37 QUD37 RDZ37 RNV37 RXR37 SHN37 SRJ37 TBF37 TLB37 TUX37 UET37 UOP37 UYL37 VIH37 VSD37 WBZ37 WLV37 WVR37 J65573 JF65573 TB65573 ACX65573 AMT65573 AWP65573 BGL65573 BQH65573 CAD65573 CJZ65573 CTV65573 DDR65573 DNN65573 DXJ65573 EHF65573 ERB65573 FAX65573 FKT65573 FUP65573 GEL65573 GOH65573 GYD65573 HHZ65573 HRV65573 IBR65573 ILN65573 IVJ65573 JFF65573 JPB65573 JYX65573 KIT65573 KSP65573 LCL65573 LMH65573 LWD65573 MFZ65573 MPV65573 MZR65573 NJN65573 NTJ65573 ODF65573 ONB65573 OWX65573 PGT65573 PQP65573 QAL65573 QKH65573 QUD65573 RDZ65573 RNV65573 RXR65573 SHN65573 SRJ65573 TBF65573 TLB65573 TUX65573 UET65573 UOP65573 UYL65573 VIH65573 VSD65573 WBZ65573 WLV65573 WVR65573 J131109 JF131109 TB131109 ACX131109 AMT131109 AWP131109 BGL131109 BQH131109 CAD131109 CJZ131109 CTV131109 DDR131109 DNN131109 DXJ131109 EHF131109 ERB131109 FAX131109 FKT131109 FUP131109 GEL131109 GOH131109 GYD131109 HHZ131109 HRV131109 IBR131109 ILN131109 IVJ131109 JFF131109 JPB131109 JYX131109 KIT131109 KSP131109 LCL131109 LMH131109 LWD131109 MFZ131109 MPV131109 MZR131109 NJN131109 NTJ131109 ODF131109 ONB131109 OWX131109 PGT131109 PQP131109 QAL131109 QKH131109 QUD131109 RDZ131109 RNV131109 RXR131109 SHN131109 SRJ131109 TBF131109 TLB131109 TUX131109 UET131109 UOP131109 UYL131109 VIH131109 VSD131109 WBZ131109 WLV131109 WVR131109 J196645 JF196645 TB196645 ACX196645 AMT196645 AWP196645 BGL196645 BQH196645 CAD196645 CJZ196645 CTV196645 DDR196645 DNN196645 DXJ196645 EHF196645 ERB196645 FAX196645 FKT196645 FUP196645 GEL196645 GOH196645 GYD196645 HHZ196645 HRV196645 IBR196645 ILN196645 IVJ196645 JFF196645 JPB196645 JYX196645 KIT196645 KSP196645 LCL196645 LMH196645 LWD196645 MFZ196645 MPV196645 MZR196645 NJN196645 NTJ196645 ODF196645 ONB196645 OWX196645 PGT196645 PQP196645 QAL196645 QKH196645 QUD196645 RDZ196645 RNV196645 RXR196645 SHN196645 SRJ196645 TBF196645 TLB196645 TUX196645 UET196645 UOP196645 UYL196645 VIH196645 VSD196645 WBZ196645 WLV196645 WVR196645 J262181 JF262181 TB262181 ACX262181 AMT262181 AWP262181 BGL262181 BQH262181 CAD262181 CJZ262181 CTV262181 DDR262181 DNN262181 DXJ262181 EHF262181 ERB262181 FAX262181 FKT262181 FUP262181 GEL262181 GOH262181 GYD262181 HHZ262181 HRV262181 IBR262181 ILN262181 IVJ262181 JFF262181 JPB262181 JYX262181 KIT262181 KSP262181 LCL262181 LMH262181 LWD262181 MFZ262181 MPV262181 MZR262181 NJN262181 NTJ262181 ODF262181 ONB262181 OWX262181 PGT262181 PQP262181 QAL262181 QKH262181 QUD262181 RDZ262181 RNV262181 RXR262181 SHN262181 SRJ262181 TBF262181 TLB262181 TUX262181 UET262181 UOP262181 UYL262181 VIH262181 VSD262181 WBZ262181 WLV262181 WVR262181 J327717 JF327717 TB327717 ACX327717 AMT327717 AWP327717 BGL327717 BQH327717 CAD327717 CJZ327717 CTV327717 DDR327717 DNN327717 DXJ327717 EHF327717 ERB327717 FAX327717 FKT327717 FUP327717 GEL327717 GOH327717 GYD327717 HHZ327717 HRV327717 IBR327717 ILN327717 IVJ327717 JFF327717 JPB327717 JYX327717 KIT327717 KSP327717 LCL327717 LMH327717 LWD327717 MFZ327717 MPV327717 MZR327717 NJN327717 NTJ327717 ODF327717 ONB327717 OWX327717 PGT327717 PQP327717 QAL327717 QKH327717 QUD327717 RDZ327717 RNV327717 RXR327717 SHN327717 SRJ327717 TBF327717 TLB327717 TUX327717 UET327717 UOP327717 UYL327717 VIH327717 VSD327717 WBZ327717 WLV327717 WVR327717 J393253 JF393253 TB393253 ACX393253 AMT393253 AWP393253 BGL393253 BQH393253 CAD393253 CJZ393253 CTV393253 DDR393253 DNN393253 DXJ393253 EHF393253 ERB393253 FAX393253 FKT393253 FUP393253 GEL393253 GOH393253 GYD393253 HHZ393253 HRV393253 IBR393253 ILN393253 IVJ393253 JFF393253 JPB393253 JYX393253 KIT393253 KSP393253 LCL393253 LMH393253 LWD393253 MFZ393253 MPV393253 MZR393253 NJN393253 NTJ393253 ODF393253 ONB393253 OWX393253 PGT393253 PQP393253 QAL393253 QKH393253 QUD393253 RDZ393253 RNV393253 RXR393253 SHN393253 SRJ393253 TBF393253 TLB393253 TUX393253 UET393253 UOP393253 UYL393253 VIH393253 VSD393253 WBZ393253 WLV393253 WVR393253 J458789 JF458789 TB458789 ACX458789 AMT458789 AWP458789 BGL458789 BQH458789 CAD458789 CJZ458789 CTV458789 DDR458789 DNN458789 DXJ458789 EHF458789 ERB458789 FAX458789 FKT458789 FUP458789 GEL458789 GOH458789 GYD458789 HHZ458789 HRV458789 IBR458789 ILN458789 IVJ458789 JFF458789 JPB458789 JYX458789 KIT458789 KSP458789 LCL458789 LMH458789 LWD458789 MFZ458789 MPV458789 MZR458789 NJN458789 NTJ458789 ODF458789 ONB458789 OWX458789 PGT458789 PQP458789 QAL458789 QKH458789 QUD458789 RDZ458789 RNV458789 RXR458789 SHN458789 SRJ458789 TBF458789 TLB458789 TUX458789 UET458789 UOP458789 UYL458789 VIH458789 VSD458789 WBZ458789 WLV458789 WVR458789 J524325 JF524325 TB524325 ACX524325 AMT524325 AWP524325 BGL524325 BQH524325 CAD524325 CJZ524325 CTV524325 DDR524325 DNN524325 DXJ524325 EHF524325 ERB524325 FAX524325 FKT524325 FUP524325 GEL524325 GOH524325 GYD524325 HHZ524325 HRV524325 IBR524325 ILN524325 IVJ524325 JFF524325 JPB524325 JYX524325 KIT524325 KSP524325 LCL524325 LMH524325 LWD524325 MFZ524325 MPV524325 MZR524325 NJN524325 NTJ524325 ODF524325 ONB524325 OWX524325 PGT524325 PQP524325 QAL524325 QKH524325 QUD524325 RDZ524325 RNV524325 RXR524325 SHN524325 SRJ524325 TBF524325 TLB524325 TUX524325 UET524325 UOP524325 UYL524325 VIH524325 VSD524325 WBZ524325 WLV524325 WVR524325 J589861 JF589861 TB589861 ACX589861 AMT589861 AWP589861 BGL589861 BQH589861 CAD589861 CJZ589861 CTV589861 DDR589861 DNN589861 DXJ589861 EHF589861 ERB589861 FAX589861 FKT589861 FUP589861 GEL589861 GOH589861 GYD589861 HHZ589861 HRV589861 IBR589861 ILN589861 IVJ589861 JFF589861 JPB589861 JYX589861 KIT589861 KSP589861 LCL589861 LMH589861 LWD589861 MFZ589861 MPV589861 MZR589861 NJN589861 NTJ589861 ODF589861 ONB589861 OWX589861 PGT589861 PQP589861 QAL589861 QKH589861 QUD589861 RDZ589861 RNV589861 RXR589861 SHN589861 SRJ589861 TBF589861 TLB589861 TUX589861 UET589861 UOP589861 UYL589861 VIH589861 VSD589861 WBZ589861 WLV589861 WVR589861 J655397 JF655397 TB655397 ACX655397 AMT655397 AWP655397 BGL655397 BQH655397 CAD655397 CJZ655397 CTV655397 DDR655397 DNN655397 DXJ655397 EHF655397 ERB655397 FAX655397 FKT655397 FUP655397 GEL655397 GOH655397 GYD655397 HHZ655397 HRV655397 IBR655397 ILN655397 IVJ655397 JFF655397 JPB655397 JYX655397 KIT655397 KSP655397 LCL655397 LMH655397 LWD655397 MFZ655397 MPV655397 MZR655397 NJN655397 NTJ655397 ODF655397 ONB655397 OWX655397 PGT655397 PQP655397 QAL655397 QKH655397 QUD655397 RDZ655397 RNV655397 RXR655397 SHN655397 SRJ655397 TBF655397 TLB655397 TUX655397 UET655397 UOP655397 UYL655397 VIH655397 VSD655397 WBZ655397 WLV655397 WVR655397 J720933 JF720933 TB720933 ACX720933 AMT720933 AWP720933 BGL720933 BQH720933 CAD720933 CJZ720933 CTV720933 DDR720933 DNN720933 DXJ720933 EHF720933 ERB720933 FAX720933 FKT720933 FUP720933 GEL720933 GOH720933 GYD720933 HHZ720933 HRV720933 IBR720933 ILN720933 IVJ720933 JFF720933 JPB720933 JYX720933 KIT720933 KSP720933 LCL720933 LMH720933 LWD720933 MFZ720933 MPV720933 MZR720933 NJN720933 NTJ720933 ODF720933 ONB720933 OWX720933 PGT720933 PQP720933 QAL720933 QKH720933 QUD720933 RDZ720933 RNV720933 RXR720933 SHN720933 SRJ720933 TBF720933 TLB720933 TUX720933 UET720933 UOP720933 UYL720933 VIH720933 VSD720933 WBZ720933 WLV720933 WVR720933 J786469 JF786469 TB786469 ACX786469 AMT786469 AWP786469 BGL786469 BQH786469 CAD786469 CJZ786469 CTV786469 DDR786469 DNN786469 DXJ786469 EHF786469 ERB786469 FAX786469 FKT786469 FUP786469 GEL786469 GOH786469 GYD786469 HHZ786469 HRV786469 IBR786469 ILN786469 IVJ786469 JFF786469 JPB786469 JYX786469 KIT786469 KSP786469 LCL786469 LMH786469 LWD786469 MFZ786469 MPV786469 MZR786469 NJN786469 NTJ786469 ODF786469 ONB786469 OWX786469 PGT786469 PQP786469 QAL786469 QKH786469 QUD786469 RDZ786469 RNV786469 RXR786469 SHN786469 SRJ786469 TBF786469 TLB786469 TUX786469 UET786469 UOP786469 UYL786469 VIH786469 VSD786469 WBZ786469 WLV786469 WVR786469 J852005 JF852005 TB852005 ACX852005 AMT852005 AWP852005 BGL852005 BQH852005 CAD852005 CJZ852005 CTV852005 DDR852005 DNN852005 DXJ852005 EHF852005 ERB852005 FAX852005 FKT852005 FUP852005 GEL852005 GOH852005 GYD852005 HHZ852005 HRV852005 IBR852005 ILN852005 IVJ852005 JFF852005 JPB852005 JYX852005 KIT852005 KSP852005 LCL852005 LMH852005 LWD852005 MFZ852005 MPV852005 MZR852005 NJN852005 NTJ852005 ODF852005 ONB852005 OWX852005 PGT852005 PQP852005 QAL852005 QKH852005 QUD852005 RDZ852005 RNV852005 RXR852005 SHN852005 SRJ852005 TBF852005 TLB852005 TUX852005 UET852005 UOP852005 UYL852005 VIH852005 VSD852005 WBZ852005 WLV852005 WVR852005 J917541 JF917541 TB917541 ACX917541 AMT917541 AWP917541 BGL917541 BQH917541 CAD917541 CJZ917541 CTV917541 DDR917541 DNN917541 DXJ917541 EHF917541 ERB917541 FAX917541 FKT917541 FUP917541 GEL917541 GOH917541 GYD917541 HHZ917541 HRV917541 IBR917541 ILN917541 IVJ917541 JFF917541 JPB917541 JYX917541 KIT917541 KSP917541 LCL917541 LMH917541 LWD917541 MFZ917541 MPV917541 MZR917541 NJN917541 NTJ917541 ODF917541 ONB917541 OWX917541 PGT917541 PQP917541 QAL917541 QKH917541 QUD917541 RDZ917541 RNV917541 RXR917541 SHN917541 SRJ917541 TBF917541 TLB917541 TUX917541 UET917541 UOP917541 UYL917541 VIH917541 VSD917541 WBZ917541 WLV917541 WVR917541 J983077 JF983077 TB983077 ACX983077 AMT983077 AWP983077 BGL983077 BQH983077 CAD983077 CJZ983077 CTV983077 DDR983077 DNN983077 DXJ983077 EHF983077 ERB983077 FAX983077 FKT983077 FUP983077 GEL983077 GOH983077 GYD983077 HHZ983077 HRV983077 IBR983077 ILN983077 IVJ983077 JFF983077 JPB983077 JYX983077 KIT983077 KSP983077 LCL983077 LMH983077 LWD983077 MFZ983077 MPV983077 MZR983077 NJN983077 NTJ983077 ODF983077 ONB983077 OWX983077 PGT983077 PQP983077 QAL983077 QKH983077 QUD983077 RDZ983077 RNV983077 RXR983077 SHN983077 SRJ983077 TBF983077 TLB983077 TUX983077 UET983077 UOP983077 UYL983077 VIH983077 VSD983077 WBZ983077 WLV983077 WVR983077" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>SpeckMassLst</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H37 JD37 SZ37 ACV37 AMR37 AWN37 BGJ37 BQF37 CAB37 CJX37 CTT37 DDP37 DNL37 DXH37 EHD37 EQZ37 FAV37 FKR37 FUN37 GEJ37 GOF37 GYB37 HHX37 HRT37 IBP37 ILL37 IVH37 JFD37 JOZ37 JYV37 KIR37 KSN37 LCJ37 LMF37 LWB37 MFX37 MPT37 MZP37 NJL37 NTH37 ODD37 OMZ37 OWV37 PGR37 PQN37 QAJ37 QKF37 QUB37 RDX37 RNT37 RXP37 SHL37 SRH37 TBD37 TKZ37 TUV37 UER37 UON37 UYJ37 VIF37 VSB37 WBX37 WLT37 WVP37 H65573 JD65573 SZ65573 ACV65573 AMR65573 AWN65573 BGJ65573 BQF65573 CAB65573 CJX65573 CTT65573 DDP65573 DNL65573 DXH65573 EHD65573 EQZ65573 FAV65573 FKR65573 FUN65573 GEJ65573 GOF65573 GYB65573 HHX65573 HRT65573 IBP65573 ILL65573 IVH65573 JFD65573 JOZ65573 JYV65573 KIR65573 KSN65573 LCJ65573 LMF65573 LWB65573 MFX65573 MPT65573 MZP65573 NJL65573 NTH65573 ODD65573 OMZ65573 OWV65573 PGR65573 PQN65573 QAJ65573 QKF65573 QUB65573 RDX65573 RNT65573 RXP65573 SHL65573 SRH65573 TBD65573 TKZ65573 TUV65573 UER65573 UON65573 UYJ65573 VIF65573 VSB65573 WBX65573 WLT65573 WVP65573 H131109 JD131109 SZ131109 ACV131109 AMR131109 AWN131109 BGJ131109 BQF131109 CAB131109 CJX131109 CTT131109 DDP131109 DNL131109 DXH131109 EHD131109 EQZ131109 FAV131109 FKR131109 FUN131109 GEJ131109 GOF131109 GYB131109 HHX131109 HRT131109 IBP131109 ILL131109 IVH131109 JFD131109 JOZ131109 JYV131109 KIR131109 KSN131109 LCJ131109 LMF131109 LWB131109 MFX131109 MPT131109 MZP131109 NJL131109 NTH131109 ODD131109 OMZ131109 OWV131109 PGR131109 PQN131109 QAJ131109 QKF131109 QUB131109 RDX131109 RNT131109 RXP131109 SHL131109 SRH131109 TBD131109 TKZ131109 TUV131109 UER131109 UON131109 UYJ131109 VIF131109 VSB131109 WBX131109 WLT131109 WVP131109 H196645 JD196645 SZ196645 ACV196645 AMR196645 AWN196645 BGJ196645 BQF196645 CAB196645 CJX196645 CTT196645 DDP196645 DNL196645 DXH196645 EHD196645 EQZ196645 FAV196645 FKR196645 FUN196645 GEJ196645 GOF196645 GYB196645 HHX196645 HRT196645 IBP196645 ILL196645 IVH196645 JFD196645 JOZ196645 JYV196645 KIR196645 KSN196645 LCJ196645 LMF196645 LWB196645 MFX196645 MPT196645 MZP196645 NJL196645 NTH196645 ODD196645 OMZ196645 OWV196645 PGR196645 PQN196645 QAJ196645 QKF196645 QUB196645 RDX196645 RNT196645 RXP196645 SHL196645 SRH196645 TBD196645 TKZ196645 TUV196645 UER196645 UON196645 UYJ196645 VIF196645 VSB196645 WBX196645 WLT196645 WVP196645 H262181 JD262181 SZ262181 ACV262181 AMR262181 AWN262181 BGJ262181 BQF262181 CAB262181 CJX262181 CTT262181 DDP262181 DNL262181 DXH262181 EHD262181 EQZ262181 FAV262181 FKR262181 FUN262181 GEJ262181 GOF262181 GYB262181 HHX262181 HRT262181 IBP262181 ILL262181 IVH262181 JFD262181 JOZ262181 JYV262181 KIR262181 KSN262181 LCJ262181 LMF262181 LWB262181 MFX262181 MPT262181 MZP262181 NJL262181 NTH262181 ODD262181 OMZ262181 OWV262181 PGR262181 PQN262181 QAJ262181 QKF262181 QUB262181 RDX262181 RNT262181 RXP262181 SHL262181 SRH262181 TBD262181 TKZ262181 TUV262181 UER262181 UON262181 UYJ262181 VIF262181 VSB262181 WBX262181 WLT262181 WVP262181 H327717 JD327717 SZ327717 ACV327717 AMR327717 AWN327717 BGJ327717 BQF327717 CAB327717 CJX327717 CTT327717 DDP327717 DNL327717 DXH327717 EHD327717 EQZ327717 FAV327717 FKR327717 FUN327717 GEJ327717 GOF327717 GYB327717 HHX327717 HRT327717 IBP327717 ILL327717 IVH327717 JFD327717 JOZ327717 JYV327717 KIR327717 KSN327717 LCJ327717 LMF327717 LWB327717 MFX327717 MPT327717 MZP327717 NJL327717 NTH327717 ODD327717 OMZ327717 OWV327717 PGR327717 PQN327717 QAJ327717 QKF327717 QUB327717 RDX327717 RNT327717 RXP327717 SHL327717 SRH327717 TBD327717 TKZ327717 TUV327717 UER327717 UON327717 UYJ327717 VIF327717 VSB327717 WBX327717 WLT327717 WVP327717 H393253 JD393253 SZ393253 ACV393253 AMR393253 AWN393253 BGJ393253 BQF393253 CAB393253 CJX393253 CTT393253 DDP393253 DNL393253 DXH393253 EHD393253 EQZ393253 FAV393253 FKR393253 FUN393253 GEJ393253 GOF393253 GYB393253 HHX393253 HRT393253 IBP393253 ILL393253 IVH393253 JFD393253 JOZ393253 JYV393253 KIR393253 KSN393253 LCJ393253 LMF393253 LWB393253 MFX393253 MPT393253 MZP393253 NJL393253 NTH393253 ODD393253 OMZ393253 OWV393253 PGR393253 PQN393253 QAJ393253 QKF393253 QUB393253 RDX393253 RNT393253 RXP393253 SHL393253 SRH393253 TBD393253 TKZ393253 TUV393253 UER393253 UON393253 UYJ393253 VIF393253 VSB393253 WBX393253 WLT393253 WVP393253 H458789 JD458789 SZ458789 ACV458789 AMR458789 AWN458789 BGJ458789 BQF458789 CAB458789 CJX458789 CTT458789 DDP458789 DNL458789 DXH458789 EHD458789 EQZ458789 FAV458789 FKR458789 FUN458789 GEJ458789 GOF458789 GYB458789 HHX458789 HRT458789 IBP458789 ILL458789 IVH458789 JFD458789 JOZ458789 JYV458789 KIR458789 KSN458789 LCJ458789 LMF458789 LWB458789 MFX458789 MPT458789 MZP458789 NJL458789 NTH458789 ODD458789 OMZ458789 OWV458789 PGR458789 PQN458789 QAJ458789 QKF458789 QUB458789 RDX458789 RNT458789 RXP458789 SHL458789 SRH458789 TBD458789 TKZ458789 TUV458789 UER458789 UON458789 UYJ458789 VIF458789 VSB458789 WBX458789 WLT458789 WVP458789 H524325 JD524325 SZ524325 ACV524325 AMR524325 AWN524325 BGJ524325 BQF524325 CAB524325 CJX524325 CTT524325 DDP524325 DNL524325 DXH524325 EHD524325 EQZ524325 FAV524325 FKR524325 FUN524325 GEJ524325 GOF524325 GYB524325 HHX524325 HRT524325 IBP524325 ILL524325 IVH524325 JFD524325 JOZ524325 JYV524325 KIR524325 KSN524325 LCJ524325 LMF524325 LWB524325 MFX524325 MPT524325 MZP524325 NJL524325 NTH524325 ODD524325 OMZ524325 OWV524325 PGR524325 PQN524325 QAJ524325 QKF524325 QUB524325 RDX524325 RNT524325 RXP524325 SHL524325 SRH524325 TBD524325 TKZ524325 TUV524325 UER524325 UON524325 UYJ524325 VIF524325 VSB524325 WBX524325 WLT524325 WVP524325 H589861 JD589861 SZ589861 ACV589861 AMR589861 AWN589861 BGJ589861 BQF589861 CAB589861 CJX589861 CTT589861 DDP589861 DNL589861 DXH589861 EHD589861 EQZ589861 FAV589861 FKR589861 FUN589861 GEJ589861 GOF589861 GYB589861 HHX589861 HRT589861 IBP589861 ILL589861 IVH589861 JFD589861 JOZ589861 JYV589861 KIR589861 KSN589861 LCJ589861 LMF589861 LWB589861 MFX589861 MPT589861 MZP589861 NJL589861 NTH589861 ODD589861 OMZ589861 OWV589861 PGR589861 PQN589861 QAJ589861 QKF589861 QUB589861 RDX589861 RNT589861 RXP589861 SHL589861 SRH589861 TBD589861 TKZ589861 TUV589861 UER589861 UON589861 UYJ589861 VIF589861 VSB589861 WBX589861 WLT589861 WVP589861 H655397 JD655397 SZ655397 ACV655397 AMR655397 AWN655397 BGJ655397 BQF655397 CAB655397 CJX655397 CTT655397 DDP655397 DNL655397 DXH655397 EHD655397 EQZ655397 FAV655397 FKR655397 FUN655397 GEJ655397 GOF655397 GYB655397 HHX655397 HRT655397 IBP655397 ILL655397 IVH655397 JFD655397 JOZ655397 JYV655397 KIR655397 KSN655397 LCJ655397 LMF655397 LWB655397 MFX655397 MPT655397 MZP655397 NJL655397 NTH655397 ODD655397 OMZ655397 OWV655397 PGR655397 PQN655397 QAJ655397 QKF655397 QUB655397 RDX655397 RNT655397 RXP655397 SHL655397 SRH655397 TBD655397 TKZ655397 TUV655397 UER655397 UON655397 UYJ655397 VIF655397 VSB655397 WBX655397 WLT655397 WVP655397 H720933 JD720933 SZ720933 ACV720933 AMR720933 AWN720933 BGJ720933 BQF720933 CAB720933 CJX720933 CTT720933 DDP720933 DNL720933 DXH720933 EHD720933 EQZ720933 FAV720933 FKR720933 FUN720933 GEJ720933 GOF720933 GYB720933 HHX720933 HRT720933 IBP720933 ILL720933 IVH720933 JFD720933 JOZ720933 JYV720933 KIR720933 KSN720933 LCJ720933 LMF720933 LWB720933 MFX720933 MPT720933 MZP720933 NJL720933 NTH720933 ODD720933 OMZ720933 OWV720933 PGR720933 PQN720933 QAJ720933 QKF720933 QUB720933 RDX720933 RNT720933 RXP720933 SHL720933 SRH720933 TBD720933 TKZ720933 TUV720933 UER720933 UON720933 UYJ720933 VIF720933 VSB720933 WBX720933 WLT720933 WVP720933 H786469 JD786469 SZ786469 ACV786469 AMR786469 AWN786469 BGJ786469 BQF786469 CAB786469 CJX786469 CTT786469 DDP786469 DNL786469 DXH786469 EHD786469 EQZ786469 FAV786469 FKR786469 FUN786469 GEJ786469 GOF786469 GYB786469 HHX786469 HRT786469 IBP786469 ILL786469 IVH786469 JFD786469 JOZ786469 JYV786469 KIR786469 KSN786469 LCJ786469 LMF786469 LWB786469 MFX786469 MPT786469 MZP786469 NJL786469 NTH786469 ODD786469 OMZ786469 OWV786469 PGR786469 PQN786469 QAJ786469 QKF786469 QUB786469 RDX786469 RNT786469 RXP786469 SHL786469 SRH786469 TBD786469 TKZ786469 TUV786469 UER786469 UON786469 UYJ786469 VIF786469 VSB786469 WBX786469 WLT786469 WVP786469 H852005 JD852005 SZ852005 ACV852005 AMR852005 AWN852005 BGJ852005 BQF852005 CAB852005 CJX852005 CTT852005 DDP852005 DNL852005 DXH852005 EHD852005 EQZ852005 FAV852005 FKR852005 FUN852005 GEJ852005 GOF852005 GYB852005 HHX852005 HRT852005 IBP852005 ILL852005 IVH852005 JFD852005 JOZ852005 JYV852005 KIR852005 KSN852005 LCJ852005 LMF852005 LWB852005 MFX852005 MPT852005 MZP852005 NJL852005 NTH852005 ODD852005 OMZ852005 OWV852005 PGR852005 PQN852005 QAJ852005 QKF852005 QUB852005 RDX852005 RNT852005 RXP852005 SHL852005 SRH852005 TBD852005 TKZ852005 TUV852005 UER852005 UON852005 UYJ852005 VIF852005 VSB852005 WBX852005 WLT852005 WVP852005 H917541 JD917541 SZ917541 ACV917541 AMR917541 AWN917541 BGJ917541 BQF917541 CAB917541 CJX917541 CTT917541 DDP917541 DNL917541 DXH917541 EHD917541 EQZ917541 FAV917541 FKR917541 FUN917541 GEJ917541 GOF917541 GYB917541 HHX917541 HRT917541 IBP917541 ILL917541 IVH917541 JFD917541 JOZ917541 JYV917541 KIR917541 KSN917541 LCJ917541 LMF917541 LWB917541 MFX917541 MPT917541 MZP917541 NJL917541 NTH917541 ODD917541 OMZ917541 OWV917541 PGR917541 PQN917541 QAJ917541 QKF917541 QUB917541 RDX917541 RNT917541 RXP917541 SHL917541 SRH917541 TBD917541 TKZ917541 TUV917541 UER917541 UON917541 UYJ917541 VIF917541 VSB917541 WBX917541 WLT917541 WVP917541 H983077 JD983077 SZ983077 ACV983077 AMR983077 AWN983077 BGJ983077 BQF983077 CAB983077 CJX983077 CTT983077 DDP983077 DNL983077 DXH983077 EHD983077 EQZ983077 FAV983077 FKR983077 FUN983077 GEJ983077 GOF983077 GYB983077 HHX983077 HRT983077 IBP983077 ILL983077 IVH983077 JFD983077 JOZ983077 JYV983077 KIR983077 KSN983077 LCJ983077 LMF983077 LWB983077 MFX983077 MPT983077 MZP983077 NJL983077 NTH983077 ODD983077 OMZ983077 OWV983077 PGR983077 PQN983077 QAJ983077 QKF983077 QUB983077 RDX983077 RNT983077 RXP983077 SHL983077 SRH983077 TBD983077 TKZ983077 TUV983077 UER983077 UON983077 UYJ983077 VIF983077 VSB983077 WBX983077 WLT983077 WVP983077">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H37 JD37 SZ37 ACV37 AMR37 AWN37 BGJ37 BQF37 CAB37 CJX37 CTT37 DDP37 DNL37 DXH37 EHD37 EQZ37 FAV37 FKR37 FUN37 GEJ37 GOF37 GYB37 HHX37 HRT37 IBP37 ILL37 IVH37 JFD37 JOZ37 JYV37 KIR37 KSN37 LCJ37 LMF37 LWB37 MFX37 MPT37 MZP37 NJL37 NTH37 ODD37 OMZ37 OWV37 PGR37 PQN37 QAJ37 QKF37 QUB37 RDX37 RNT37 RXP37 SHL37 SRH37 TBD37 TKZ37 TUV37 UER37 UON37 UYJ37 VIF37 VSB37 WBX37 WLT37 WVP37 H65573 JD65573 SZ65573 ACV65573 AMR65573 AWN65573 BGJ65573 BQF65573 CAB65573 CJX65573 CTT65573 DDP65573 DNL65573 DXH65573 EHD65573 EQZ65573 FAV65573 FKR65573 FUN65573 GEJ65573 GOF65573 GYB65573 HHX65573 HRT65573 IBP65573 ILL65573 IVH65573 JFD65573 JOZ65573 JYV65573 KIR65573 KSN65573 LCJ65573 LMF65573 LWB65573 MFX65573 MPT65573 MZP65573 NJL65573 NTH65573 ODD65573 OMZ65573 OWV65573 PGR65573 PQN65573 QAJ65573 QKF65573 QUB65573 RDX65573 RNT65573 RXP65573 SHL65573 SRH65573 TBD65573 TKZ65573 TUV65573 UER65573 UON65573 UYJ65573 VIF65573 VSB65573 WBX65573 WLT65573 WVP65573 H131109 JD131109 SZ131109 ACV131109 AMR131109 AWN131109 BGJ131109 BQF131109 CAB131109 CJX131109 CTT131109 DDP131109 DNL131109 DXH131109 EHD131109 EQZ131109 FAV131109 FKR131109 FUN131109 GEJ131109 GOF131109 GYB131109 HHX131109 HRT131109 IBP131109 ILL131109 IVH131109 JFD131109 JOZ131109 JYV131109 KIR131109 KSN131109 LCJ131109 LMF131109 LWB131109 MFX131109 MPT131109 MZP131109 NJL131109 NTH131109 ODD131109 OMZ131109 OWV131109 PGR131109 PQN131109 QAJ131109 QKF131109 QUB131109 RDX131109 RNT131109 RXP131109 SHL131109 SRH131109 TBD131109 TKZ131109 TUV131109 UER131109 UON131109 UYJ131109 VIF131109 VSB131109 WBX131109 WLT131109 WVP131109 H196645 JD196645 SZ196645 ACV196645 AMR196645 AWN196645 BGJ196645 BQF196645 CAB196645 CJX196645 CTT196645 DDP196645 DNL196645 DXH196645 EHD196645 EQZ196645 FAV196645 FKR196645 FUN196645 GEJ196645 GOF196645 GYB196645 HHX196645 HRT196645 IBP196645 ILL196645 IVH196645 JFD196645 JOZ196645 JYV196645 KIR196645 KSN196645 LCJ196645 LMF196645 LWB196645 MFX196645 MPT196645 MZP196645 NJL196645 NTH196645 ODD196645 OMZ196645 OWV196645 PGR196645 PQN196645 QAJ196645 QKF196645 QUB196645 RDX196645 RNT196645 RXP196645 SHL196645 SRH196645 TBD196645 TKZ196645 TUV196645 UER196645 UON196645 UYJ196645 VIF196645 VSB196645 WBX196645 WLT196645 WVP196645 H262181 JD262181 SZ262181 ACV262181 AMR262181 AWN262181 BGJ262181 BQF262181 CAB262181 CJX262181 CTT262181 DDP262181 DNL262181 DXH262181 EHD262181 EQZ262181 FAV262181 FKR262181 FUN262181 GEJ262181 GOF262181 GYB262181 HHX262181 HRT262181 IBP262181 ILL262181 IVH262181 JFD262181 JOZ262181 JYV262181 KIR262181 KSN262181 LCJ262181 LMF262181 LWB262181 MFX262181 MPT262181 MZP262181 NJL262181 NTH262181 ODD262181 OMZ262181 OWV262181 PGR262181 PQN262181 QAJ262181 QKF262181 QUB262181 RDX262181 RNT262181 RXP262181 SHL262181 SRH262181 TBD262181 TKZ262181 TUV262181 UER262181 UON262181 UYJ262181 VIF262181 VSB262181 WBX262181 WLT262181 WVP262181 H327717 JD327717 SZ327717 ACV327717 AMR327717 AWN327717 BGJ327717 BQF327717 CAB327717 CJX327717 CTT327717 DDP327717 DNL327717 DXH327717 EHD327717 EQZ327717 FAV327717 FKR327717 FUN327717 GEJ327717 GOF327717 GYB327717 HHX327717 HRT327717 IBP327717 ILL327717 IVH327717 JFD327717 JOZ327717 JYV327717 KIR327717 KSN327717 LCJ327717 LMF327717 LWB327717 MFX327717 MPT327717 MZP327717 NJL327717 NTH327717 ODD327717 OMZ327717 OWV327717 PGR327717 PQN327717 QAJ327717 QKF327717 QUB327717 RDX327717 RNT327717 RXP327717 SHL327717 SRH327717 TBD327717 TKZ327717 TUV327717 UER327717 UON327717 UYJ327717 VIF327717 VSB327717 WBX327717 WLT327717 WVP327717 H393253 JD393253 SZ393253 ACV393253 AMR393253 AWN393253 BGJ393253 BQF393253 CAB393253 CJX393253 CTT393253 DDP393253 DNL393253 DXH393253 EHD393253 EQZ393253 FAV393253 FKR393253 FUN393253 GEJ393253 GOF393253 GYB393253 HHX393253 HRT393253 IBP393253 ILL393253 IVH393253 JFD393253 JOZ393253 JYV393253 KIR393253 KSN393253 LCJ393253 LMF393253 LWB393253 MFX393253 MPT393253 MZP393253 NJL393253 NTH393253 ODD393253 OMZ393253 OWV393253 PGR393253 PQN393253 QAJ393253 QKF393253 QUB393253 RDX393253 RNT393253 RXP393253 SHL393253 SRH393253 TBD393253 TKZ393253 TUV393253 UER393253 UON393253 UYJ393253 VIF393253 VSB393253 WBX393253 WLT393253 WVP393253 H458789 JD458789 SZ458789 ACV458789 AMR458789 AWN458789 BGJ458789 BQF458789 CAB458789 CJX458789 CTT458789 DDP458789 DNL458789 DXH458789 EHD458789 EQZ458789 FAV458789 FKR458789 FUN458789 GEJ458789 GOF458789 GYB458789 HHX458789 HRT458789 IBP458789 ILL458789 IVH458789 JFD458789 JOZ458789 JYV458789 KIR458789 KSN458789 LCJ458789 LMF458789 LWB458789 MFX458789 MPT458789 MZP458789 NJL458789 NTH458789 ODD458789 OMZ458789 OWV458789 PGR458789 PQN458789 QAJ458789 QKF458789 QUB458789 RDX458789 RNT458789 RXP458789 SHL458789 SRH458789 TBD458789 TKZ458789 TUV458789 UER458789 UON458789 UYJ458789 VIF458789 VSB458789 WBX458789 WLT458789 WVP458789 H524325 JD524325 SZ524325 ACV524325 AMR524325 AWN524325 BGJ524325 BQF524325 CAB524325 CJX524325 CTT524325 DDP524325 DNL524325 DXH524325 EHD524325 EQZ524325 FAV524325 FKR524325 FUN524325 GEJ524325 GOF524325 GYB524325 HHX524325 HRT524325 IBP524325 ILL524325 IVH524325 JFD524325 JOZ524325 JYV524325 KIR524325 KSN524325 LCJ524325 LMF524325 LWB524325 MFX524325 MPT524325 MZP524325 NJL524325 NTH524325 ODD524325 OMZ524325 OWV524325 PGR524325 PQN524325 QAJ524325 QKF524325 QUB524325 RDX524325 RNT524325 RXP524325 SHL524325 SRH524325 TBD524325 TKZ524325 TUV524325 UER524325 UON524325 UYJ524325 VIF524325 VSB524325 WBX524325 WLT524325 WVP524325 H589861 JD589861 SZ589861 ACV589861 AMR589861 AWN589861 BGJ589861 BQF589861 CAB589861 CJX589861 CTT589861 DDP589861 DNL589861 DXH589861 EHD589861 EQZ589861 FAV589861 FKR589861 FUN589861 GEJ589861 GOF589861 GYB589861 HHX589861 HRT589861 IBP589861 ILL589861 IVH589861 JFD589861 JOZ589861 JYV589861 KIR589861 KSN589861 LCJ589861 LMF589861 LWB589861 MFX589861 MPT589861 MZP589861 NJL589861 NTH589861 ODD589861 OMZ589861 OWV589861 PGR589861 PQN589861 QAJ589861 QKF589861 QUB589861 RDX589861 RNT589861 RXP589861 SHL589861 SRH589861 TBD589861 TKZ589861 TUV589861 UER589861 UON589861 UYJ589861 VIF589861 VSB589861 WBX589861 WLT589861 WVP589861 H655397 JD655397 SZ655397 ACV655397 AMR655397 AWN655397 BGJ655397 BQF655397 CAB655397 CJX655397 CTT655397 DDP655397 DNL655397 DXH655397 EHD655397 EQZ655397 FAV655397 FKR655397 FUN655397 GEJ655397 GOF655397 GYB655397 HHX655397 HRT655397 IBP655397 ILL655397 IVH655397 JFD655397 JOZ655397 JYV655397 KIR655397 KSN655397 LCJ655397 LMF655397 LWB655397 MFX655397 MPT655397 MZP655397 NJL655397 NTH655397 ODD655397 OMZ655397 OWV655397 PGR655397 PQN655397 QAJ655397 QKF655397 QUB655397 RDX655397 RNT655397 RXP655397 SHL655397 SRH655397 TBD655397 TKZ655397 TUV655397 UER655397 UON655397 UYJ655397 VIF655397 VSB655397 WBX655397 WLT655397 WVP655397 H720933 JD720933 SZ720933 ACV720933 AMR720933 AWN720933 BGJ720933 BQF720933 CAB720933 CJX720933 CTT720933 DDP720933 DNL720933 DXH720933 EHD720933 EQZ720933 FAV720933 FKR720933 FUN720933 GEJ720933 GOF720933 GYB720933 HHX720933 HRT720933 IBP720933 ILL720933 IVH720933 JFD720933 JOZ720933 JYV720933 KIR720933 KSN720933 LCJ720933 LMF720933 LWB720933 MFX720933 MPT720933 MZP720933 NJL720933 NTH720933 ODD720933 OMZ720933 OWV720933 PGR720933 PQN720933 QAJ720933 QKF720933 QUB720933 RDX720933 RNT720933 RXP720933 SHL720933 SRH720933 TBD720933 TKZ720933 TUV720933 UER720933 UON720933 UYJ720933 VIF720933 VSB720933 WBX720933 WLT720933 WVP720933 H786469 JD786469 SZ786469 ACV786469 AMR786469 AWN786469 BGJ786469 BQF786469 CAB786469 CJX786469 CTT786469 DDP786469 DNL786469 DXH786469 EHD786469 EQZ786469 FAV786469 FKR786469 FUN786469 GEJ786469 GOF786469 GYB786469 HHX786469 HRT786469 IBP786469 ILL786469 IVH786469 JFD786469 JOZ786469 JYV786469 KIR786469 KSN786469 LCJ786469 LMF786469 LWB786469 MFX786469 MPT786469 MZP786469 NJL786469 NTH786469 ODD786469 OMZ786469 OWV786469 PGR786469 PQN786469 QAJ786469 QKF786469 QUB786469 RDX786469 RNT786469 RXP786469 SHL786469 SRH786469 TBD786469 TKZ786469 TUV786469 UER786469 UON786469 UYJ786469 VIF786469 VSB786469 WBX786469 WLT786469 WVP786469 H852005 JD852005 SZ852005 ACV852005 AMR852005 AWN852005 BGJ852005 BQF852005 CAB852005 CJX852005 CTT852005 DDP852005 DNL852005 DXH852005 EHD852005 EQZ852005 FAV852005 FKR852005 FUN852005 GEJ852005 GOF852005 GYB852005 HHX852005 HRT852005 IBP852005 ILL852005 IVH852005 JFD852005 JOZ852005 JYV852005 KIR852005 KSN852005 LCJ852005 LMF852005 LWB852005 MFX852005 MPT852005 MZP852005 NJL852005 NTH852005 ODD852005 OMZ852005 OWV852005 PGR852005 PQN852005 QAJ852005 QKF852005 QUB852005 RDX852005 RNT852005 RXP852005 SHL852005 SRH852005 TBD852005 TKZ852005 TUV852005 UER852005 UON852005 UYJ852005 VIF852005 VSB852005 WBX852005 WLT852005 WVP852005 H917541 JD917541 SZ917541 ACV917541 AMR917541 AWN917541 BGJ917541 BQF917541 CAB917541 CJX917541 CTT917541 DDP917541 DNL917541 DXH917541 EHD917541 EQZ917541 FAV917541 FKR917541 FUN917541 GEJ917541 GOF917541 GYB917541 HHX917541 HRT917541 IBP917541 ILL917541 IVH917541 JFD917541 JOZ917541 JYV917541 KIR917541 KSN917541 LCJ917541 LMF917541 LWB917541 MFX917541 MPT917541 MZP917541 NJL917541 NTH917541 ODD917541 OMZ917541 OWV917541 PGR917541 PQN917541 QAJ917541 QKF917541 QUB917541 RDX917541 RNT917541 RXP917541 SHL917541 SRH917541 TBD917541 TKZ917541 TUV917541 UER917541 UON917541 UYJ917541 VIF917541 VSB917541 WBX917541 WLT917541 WVP917541 H983077 JD983077 SZ983077 ACV983077 AMR983077 AWN983077 BGJ983077 BQF983077 CAB983077 CJX983077 CTT983077 DDP983077 DNL983077 DXH983077 EHD983077 EQZ983077 FAV983077 FKR983077 FUN983077 GEJ983077 GOF983077 GYB983077 HHX983077 HRT983077 IBP983077 ILL983077 IVH983077 JFD983077 JOZ983077 JYV983077 KIR983077 KSN983077 LCJ983077 LMF983077 LWB983077 MFX983077 MPT983077 MZP983077 NJL983077 NTH983077 ODD983077 OMZ983077 OWV983077 PGR983077 PQN983077 QAJ983077 QKF983077 QUB983077 RDX983077 RNT983077 RXP983077 SHL983077 SRH983077 TBD983077 TKZ983077 TUV983077 UER983077 UON983077 UYJ983077 VIF983077 VSB983077 WBX983077 WLT983077 WVP983077" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>FiberLst</formula1>
     </dataValidation>
   </dataValidations>
@@ -6603,7 +6642,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>PF</xm:f>
           </x14:formula1>
@@ -6616,7 +6655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6653,7 +6692,7 @@
     </row>
     <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="435" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2" s="436"/>
       <c r="C2" s="436"/>
@@ -6709,13 +6748,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="401" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H9" s="402" t="s">
         <v>53</v>
       </c>
       <c r="J9" s="403" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6723,13 +6762,13 @@
         <v>55</v>
       </c>
       <c r="B10" s="401" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H10" s="402" t="s">
         <v>53</v>
       </c>
       <c r="J10" s="403" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6749,13 +6788,13 @@
         <v>59</v>
       </c>
       <c r="B12" s="401" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H12" s="402" t="s">
         <v>58</v>
       </c>
       <c r="J12" s="403" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6763,13 +6802,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="401" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H13" s="402" t="s">
         <v>58</v>
       </c>
       <c r="J13" s="403" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6777,13 +6816,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="405" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H14" s="402" t="s">
         <v>62</v>
       </c>
       <c r="J14" s="403" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6803,13 +6842,13 @@
         <v>65</v>
       </c>
       <c r="B16" s="401" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H16" s="402" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="403" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6842,13 +6881,13 @@
         <v>72</v>
       </c>
       <c r="B19" s="401" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H19" s="406" t="s">
         <v>69</v>
       </c>
       <c r="J19" s="403" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6856,13 +6895,13 @@
         <v>73</v>
       </c>
       <c r="B20" s="401" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H20" s="402" t="s">
         <v>69</v>
       </c>
       <c r="J20" s="403" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6870,7 +6909,7 @@
         <v>74</v>
       </c>
       <c r="B21" s="401" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H21" s="402" t="s">
         <v>75</v>
@@ -6935,10 +6974,10 @@
     <mergeCell ref="A26:J26"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8 JF8 TB8 ACX8 AMT8 AWP8 BGL8 BQH8 CAD8 CJZ8 CTV8 DDR8 DNN8 DXJ8 EHF8 ERB8 FAX8 FKT8 FUP8 GEL8 GOH8 GYD8 HHZ8 HRV8 IBR8 ILN8 IVJ8 JFF8 JPB8 JYX8 KIT8 KSP8 LCL8 LMH8 LWD8 MFZ8 MPV8 MZR8 NJN8 NTJ8 ODF8 ONB8 OWX8 PGT8 PQP8 QAL8 QKH8 QUD8 RDZ8 RNV8 RXR8 SHN8 SRJ8 TBF8 TLB8 TUX8 UET8 UOP8 UYL8 VIH8 VSD8 WBZ8 WLV8 WVR8 J65544 JF65544 TB65544 ACX65544 AMT65544 AWP65544 BGL65544 BQH65544 CAD65544 CJZ65544 CTV65544 DDR65544 DNN65544 DXJ65544 EHF65544 ERB65544 FAX65544 FKT65544 FUP65544 GEL65544 GOH65544 GYD65544 HHZ65544 HRV65544 IBR65544 ILN65544 IVJ65544 JFF65544 JPB65544 JYX65544 KIT65544 KSP65544 LCL65544 LMH65544 LWD65544 MFZ65544 MPV65544 MZR65544 NJN65544 NTJ65544 ODF65544 ONB65544 OWX65544 PGT65544 PQP65544 QAL65544 QKH65544 QUD65544 RDZ65544 RNV65544 RXR65544 SHN65544 SRJ65544 TBF65544 TLB65544 TUX65544 UET65544 UOP65544 UYL65544 VIH65544 VSD65544 WBZ65544 WLV65544 WVR65544 J131080 JF131080 TB131080 ACX131080 AMT131080 AWP131080 BGL131080 BQH131080 CAD131080 CJZ131080 CTV131080 DDR131080 DNN131080 DXJ131080 EHF131080 ERB131080 FAX131080 FKT131080 FUP131080 GEL131080 GOH131080 GYD131080 HHZ131080 HRV131080 IBR131080 ILN131080 IVJ131080 JFF131080 JPB131080 JYX131080 KIT131080 KSP131080 LCL131080 LMH131080 LWD131080 MFZ131080 MPV131080 MZR131080 NJN131080 NTJ131080 ODF131080 ONB131080 OWX131080 PGT131080 PQP131080 QAL131080 QKH131080 QUD131080 RDZ131080 RNV131080 RXR131080 SHN131080 SRJ131080 TBF131080 TLB131080 TUX131080 UET131080 UOP131080 UYL131080 VIH131080 VSD131080 WBZ131080 WLV131080 WVR131080 J196616 JF196616 TB196616 ACX196616 AMT196616 AWP196616 BGL196616 BQH196616 CAD196616 CJZ196616 CTV196616 DDR196616 DNN196616 DXJ196616 EHF196616 ERB196616 FAX196616 FKT196616 FUP196616 GEL196616 GOH196616 GYD196616 HHZ196616 HRV196616 IBR196616 ILN196616 IVJ196616 JFF196616 JPB196616 JYX196616 KIT196616 KSP196616 LCL196616 LMH196616 LWD196616 MFZ196616 MPV196616 MZR196616 NJN196616 NTJ196616 ODF196616 ONB196616 OWX196616 PGT196616 PQP196616 QAL196616 QKH196616 QUD196616 RDZ196616 RNV196616 RXR196616 SHN196616 SRJ196616 TBF196616 TLB196616 TUX196616 UET196616 UOP196616 UYL196616 VIH196616 VSD196616 WBZ196616 WLV196616 WVR196616 J262152 JF262152 TB262152 ACX262152 AMT262152 AWP262152 BGL262152 BQH262152 CAD262152 CJZ262152 CTV262152 DDR262152 DNN262152 DXJ262152 EHF262152 ERB262152 FAX262152 FKT262152 FUP262152 GEL262152 GOH262152 GYD262152 HHZ262152 HRV262152 IBR262152 ILN262152 IVJ262152 JFF262152 JPB262152 JYX262152 KIT262152 KSP262152 LCL262152 LMH262152 LWD262152 MFZ262152 MPV262152 MZR262152 NJN262152 NTJ262152 ODF262152 ONB262152 OWX262152 PGT262152 PQP262152 QAL262152 QKH262152 QUD262152 RDZ262152 RNV262152 RXR262152 SHN262152 SRJ262152 TBF262152 TLB262152 TUX262152 UET262152 UOP262152 UYL262152 VIH262152 VSD262152 WBZ262152 WLV262152 WVR262152 J327688 JF327688 TB327688 ACX327688 AMT327688 AWP327688 BGL327688 BQH327688 CAD327688 CJZ327688 CTV327688 DDR327688 DNN327688 DXJ327688 EHF327688 ERB327688 FAX327688 FKT327688 FUP327688 GEL327688 GOH327688 GYD327688 HHZ327688 HRV327688 IBR327688 ILN327688 IVJ327688 JFF327688 JPB327688 JYX327688 KIT327688 KSP327688 LCL327688 LMH327688 LWD327688 MFZ327688 MPV327688 MZR327688 NJN327688 NTJ327688 ODF327688 ONB327688 OWX327688 PGT327688 PQP327688 QAL327688 QKH327688 QUD327688 RDZ327688 RNV327688 RXR327688 SHN327688 SRJ327688 TBF327688 TLB327688 TUX327688 UET327688 UOP327688 UYL327688 VIH327688 VSD327688 WBZ327688 WLV327688 WVR327688 J393224 JF393224 TB393224 ACX393224 AMT393224 AWP393224 BGL393224 BQH393224 CAD393224 CJZ393224 CTV393224 DDR393224 DNN393224 DXJ393224 EHF393224 ERB393224 FAX393224 FKT393224 FUP393224 GEL393224 GOH393224 GYD393224 HHZ393224 HRV393224 IBR393224 ILN393224 IVJ393224 JFF393224 JPB393224 JYX393224 KIT393224 KSP393224 LCL393224 LMH393224 LWD393224 MFZ393224 MPV393224 MZR393224 NJN393224 NTJ393224 ODF393224 ONB393224 OWX393224 PGT393224 PQP393224 QAL393224 QKH393224 QUD393224 RDZ393224 RNV393224 RXR393224 SHN393224 SRJ393224 TBF393224 TLB393224 TUX393224 UET393224 UOP393224 UYL393224 VIH393224 VSD393224 WBZ393224 WLV393224 WVR393224 J458760 JF458760 TB458760 ACX458760 AMT458760 AWP458760 BGL458760 BQH458760 CAD458760 CJZ458760 CTV458760 DDR458760 DNN458760 DXJ458760 EHF458760 ERB458760 FAX458760 FKT458760 FUP458760 GEL458760 GOH458760 GYD458760 HHZ458760 HRV458760 IBR458760 ILN458760 IVJ458760 JFF458760 JPB458760 JYX458760 KIT458760 KSP458760 LCL458760 LMH458760 LWD458760 MFZ458760 MPV458760 MZR458760 NJN458760 NTJ458760 ODF458760 ONB458760 OWX458760 PGT458760 PQP458760 QAL458760 QKH458760 QUD458760 RDZ458760 RNV458760 RXR458760 SHN458760 SRJ458760 TBF458760 TLB458760 TUX458760 UET458760 UOP458760 UYL458760 VIH458760 VSD458760 WBZ458760 WLV458760 WVR458760 J524296 JF524296 TB524296 ACX524296 AMT524296 AWP524296 BGL524296 BQH524296 CAD524296 CJZ524296 CTV524296 DDR524296 DNN524296 DXJ524296 EHF524296 ERB524296 FAX524296 FKT524296 FUP524296 GEL524296 GOH524296 GYD524296 HHZ524296 HRV524296 IBR524296 ILN524296 IVJ524296 JFF524296 JPB524296 JYX524296 KIT524296 KSP524296 LCL524296 LMH524296 LWD524296 MFZ524296 MPV524296 MZR524296 NJN524296 NTJ524296 ODF524296 ONB524296 OWX524296 PGT524296 PQP524296 QAL524296 QKH524296 QUD524296 RDZ524296 RNV524296 RXR524296 SHN524296 SRJ524296 TBF524296 TLB524296 TUX524296 UET524296 UOP524296 UYL524296 VIH524296 VSD524296 WBZ524296 WLV524296 WVR524296 J589832 JF589832 TB589832 ACX589832 AMT589832 AWP589832 BGL589832 BQH589832 CAD589832 CJZ589832 CTV589832 DDR589832 DNN589832 DXJ589832 EHF589832 ERB589832 FAX589832 FKT589832 FUP589832 GEL589832 GOH589832 GYD589832 HHZ589832 HRV589832 IBR589832 ILN589832 IVJ589832 JFF589832 JPB589832 JYX589832 KIT589832 KSP589832 LCL589832 LMH589832 LWD589832 MFZ589832 MPV589832 MZR589832 NJN589832 NTJ589832 ODF589832 ONB589832 OWX589832 PGT589832 PQP589832 QAL589832 QKH589832 QUD589832 RDZ589832 RNV589832 RXR589832 SHN589832 SRJ589832 TBF589832 TLB589832 TUX589832 UET589832 UOP589832 UYL589832 VIH589832 VSD589832 WBZ589832 WLV589832 WVR589832 J655368 JF655368 TB655368 ACX655368 AMT655368 AWP655368 BGL655368 BQH655368 CAD655368 CJZ655368 CTV655368 DDR655368 DNN655368 DXJ655368 EHF655368 ERB655368 FAX655368 FKT655368 FUP655368 GEL655368 GOH655368 GYD655368 HHZ655368 HRV655368 IBR655368 ILN655368 IVJ655368 JFF655368 JPB655368 JYX655368 KIT655368 KSP655368 LCL655368 LMH655368 LWD655368 MFZ655368 MPV655368 MZR655368 NJN655368 NTJ655368 ODF655368 ONB655368 OWX655368 PGT655368 PQP655368 QAL655368 QKH655368 QUD655368 RDZ655368 RNV655368 RXR655368 SHN655368 SRJ655368 TBF655368 TLB655368 TUX655368 UET655368 UOP655368 UYL655368 VIH655368 VSD655368 WBZ655368 WLV655368 WVR655368 J720904 JF720904 TB720904 ACX720904 AMT720904 AWP720904 BGL720904 BQH720904 CAD720904 CJZ720904 CTV720904 DDR720904 DNN720904 DXJ720904 EHF720904 ERB720904 FAX720904 FKT720904 FUP720904 GEL720904 GOH720904 GYD720904 HHZ720904 HRV720904 IBR720904 ILN720904 IVJ720904 JFF720904 JPB720904 JYX720904 KIT720904 KSP720904 LCL720904 LMH720904 LWD720904 MFZ720904 MPV720904 MZR720904 NJN720904 NTJ720904 ODF720904 ONB720904 OWX720904 PGT720904 PQP720904 QAL720904 QKH720904 QUD720904 RDZ720904 RNV720904 RXR720904 SHN720904 SRJ720904 TBF720904 TLB720904 TUX720904 UET720904 UOP720904 UYL720904 VIH720904 VSD720904 WBZ720904 WLV720904 WVR720904 J786440 JF786440 TB786440 ACX786440 AMT786440 AWP786440 BGL786440 BQH786440 CAD786440 CJZ786440 CTV786440 DDR786440 DNN786440 DXJ786440 EHF786440 ERB786440 FAX786440 FKT786440 FUP786440 GEL786440 GOH786440 GYD786440 HHZ786440 HRV786440 IBR786440 ILN786440 IVJ786440 JFF786440 JPB786440 JYX786440 KIT786440 KSP786440 LCL786440 LMH786440 LWD786440 MFZ786440 MPV786440 MZR786440 NJN786440 NTJ786440 ODF786440 ONB786440 OWX786440 PGT786440 PQP786440 QAL786440 QKH786440 QUD786440 RDZ786440 RNV786440 RXR786440 SHN786440 SRJ786440 TBF786440 TLB786440 TUX786440 UET786440 UOP786440 UYL786440 VIH786440 VSD786440 WBZ786440 WLV786440 WVR786440 J851976 JF851976 TB851976 ACX851976 AMT851976 AWP851976 BGL851976 BQH851976 CAD851976 CJZ851976 CTV851976 DDR851976 DNN851976 DXJ851976 EHF851976 ERB851976 FAX851976 FKT851976 FUP851976 GEL851976 GOH851976 GYD851976 HHZ851976 HRV851976 IBR851976 ILN851976 IVJ851976 JFF851976 JPB851976 JYX851976 KIT851976 KSP851976 LCL851976 LMH851976 LWD851976 MFZ851976 MPV851976 MZR851976 NJN851976 NTJ851976 ODF851976 ONB851976 OWX851976 PGT851976 PQP851976 QAL851976 QKH851976 QUD851976 RDZ851976 RNV851976 RXR851976 SHN851976 SRJ851976 TBF851976 TLB851976 TUX851976 UET851976 UOP851976 UYL851976 VIH851976 VSD851976 WBZ851976 WLV851976 WVR851976 J917512 JF917512 TB917512 ACX917512 AMT917512 AWP917512 BGL917512 BQH917512 CAD917512 CJZ917512 CTV917512 DDR917512 DNN917512 DXJ917512 EHF917512 ERB917512 FAX917512 FKT917512 FUP917512 GEL917512 GOH917512 GYD917512 HHZ917512 HRV917512 IBR917512 ILN917512 IVJ917512 JFF917512 JPB917512 JYX917512 KIT917512 KSP917512 LCL917512 LMH917512 LWD917512 MFZ917512 MPV917512 MZR917512 NJN917512 NTJ917512 ODF917512 ONB917512 OWX917512 PGT917512 PQP917512 QAL917512 QKH917512 QUD917512 RDZ917512 RNV917512 RXR917512 SHN917512 SRJ917512 TBF917512 TLB917512 TUX917512 UET917512 UOP917512 UYL917512 VIH917512 VSD917512 WBZ917512 WLV917512 WVR917512 J983048 JF983048 TB983048 ACX983048 AMT983048 AWP983048 BGL983048 BQH983048 CAD983048 CJZ983048 CTV983048 DDR983048 DNN983048 DXJ983048 EHF983048 ERB983048 FAX983048 FKT983048 FUP983048 GEL983048 GOH983048 GYD983048 HHZ983048 HRV983048 IBR983048 ILN983048 IVJ983048 JFF983048 JPB983048 JYX983048 KIT983048 KSP983048 LCL983048 LMH983048 LWD983048 MFZ983048 MPV983048 MZR983048 NJN983048 NTJ983048 ODF983048 ONB983048 OWX983048 PGT983048 PQP983048 QAL983048 QKH983048 QUD983048 RDZ983048 RNV983048 RXR983048 SHN983048 SRJ983048 TBF983048 TLB983048 TUX983048 UET983048 UOP983048 UYL983048 VIH983048 VSD983048 WBZ983048 WLV983048 WVR983048 J15 JF15 TB15 ACX15 AMT15 AWP15 BGL15 BQH15 CAD15 CJZ15 CTV15 DDR15 DNN15 DXJ15 EHF15 ERB15 FAX15 FKT15 FUP15 GEL15 GOH15 GYD15 HHZ15 HRV15 IBR15 ILN15 IVJ15 JFF15 JPB15 JYX15 KIT15 KSP15 LCL15 LMH15 LWD15 MFZ15 MPV15 MZR15 NJN15 NTJ15 ODF15 ONB15 OWX15 PGT15 PQP15 QAL15 QKH15 QUD15 RDZ15 RNV15 RXR15 SHN15 SRJ15 TBF15 TLB15 TUX15 UET15 UOP15 UYL15 VIH15 VSD15 WBZ15 WLV15 WVR15 J65551 JF65551 TB65551 ACX65551 AMT65551 AWP65551 BGL65551 BQH65551 CAD65551 CJZ65551 CTV65551 DDR65551 DNN65551 DXJ65551 EHF65551 ERB65551 FAX65551 FKT65551 FUP65551 GEL65551 GOH65551 GYD65551 HHZ65551 HRV65551 IBR65551 ILN65551 IVJ65551 JFF65551 JPB65551 JYX65551 KIT65551 KSP65551 LCL65551 LMH65551 LWD65551 MFZ65551 MPV65551 MZR65551 NJN65551 NTJ65551 ODF65551 ONB65551 OWX65551 PGT65551 PQP65551 QAL65551 QKH65551 QUD65551 RDZ65551 RNV65551 RXR65551 SHN65551 SRJ65551 TBF65551 TLB65551 TUX65551 UET65551 UOP65551 UYL65551 VIH65551 VSD65551 WBZ65551 WLV65551 WVR65551 J131087 JF131087 TB131087 ACX131087 AMT131087 AWP131087 BGL131087 BQH131087 CAD131087 CJZ131087 CTV131087 DDR131087 DNN131087 DXJ131087 EHF131087 ERB131087 FAX131087 FKT131087 FUP131087 GEL131087 GOH131087 GYD131087 HHZ131087 HRV131087 IBR131087 ILN131087 IVJ131087 JFF131087 JPB131087 JYX131087 KIT131087 KSP131087 LCL131087 LMH131087 LWD131087 MFZ131087 MPV131087 MZR131087 NJN131087 NTJ131087 ODF131087 ONB131087 OWX131087 PGT131087 PQP131087 QAL131087 QKH131087 QUD131087 RDZ131087 RNV131087 RXR131087 SHN131087 SRJ131087 TBF131087 TLB131087 TUX131087 UET131087 UOP131087 UYL131087 VIH131087 VSD131087 WBZ131087 WLV131087 WVR131087 J196623 JF196623 TB196623 ACX196623 AMT196623 AWP196623 BGL196623 BQH196623 CAD196623 CJZ196623 CTV196623 DDR196623 DNN196623 DXJ196623 EHF196623 ERB196623 FAX196623 FKT196623 FUP196623 GEL196623 GOH196623 GYD196623 HHZ196623 HRV196623 IBR196623 ILN196623 IVJ196623 JFF196623 JPB196623 JYX196623 KIT196623 KSP196623 LCL196623 LMH196623 LWD196623 MFZ196623 MPV196623 MZR196623 NJN196623 NTJ196623 ODF196623 ONB196623 OWX196623 PGT196623 PQP196623 QAL196623 QKH196623 QUD196623 RDZ196623 RNV196623 RXR196623 SHN196623 SRJ196623 TBF196623 TLB196623 TUX196623 UET196623 UOP196623 UYL196623 VIH196623 VSD196623 WBZ196623 WLV196623 WVR196623 J262159 JF262159 TB262159 ACX262159 AMT262159 AWP262159 BGL262159 BQH262159 CAD262159 CJZ262159 CTV262159 DDR262159 DNN262159 DXJ262159 EHF262159 ERB262159 FAX262159 FKT262159 FUP262159 GEL262159 GOH262159 GYD262159 HHZ262159 HRV262159 IBR262159 ILN262159 IVJ262159 JFF262159 JPB262159 JYX262159 KIT262159 KSP262159 LCL262159 LMH262159 LWD262159 MFZ262159 MPV262159 MZR262159 NJN262159 NTJ262159 ODF262159 ONB262159 OWX262159 PGT262159 PQP262159 QAL262159 QKH262159 QUD262159 RDZ262159 RNV262159 RXR262159 SHN262159 SRJ262159 TBF262159 TLB262159 TUX262159 UET262159 UOP262159 UYL262159 VIH262159 VSD262159 WBZ262159 WLV262159 WVR262159 J327695 JF327695 TB327695 ACX327695 AMT327695 AWP327695 BGL327695 BQH327695 CAD327695 CJZ327695 CTV327695 DDR327695 DNN327695 DXJ327695 EHF327695 ERB327695 FAX327695 FKT327695 FUP327695 GEL327695 GOH327695 GYD327695 HHZ327695 HRV327695 IBR327695 ILN327695 IVJ327695 JFF327695 JPB327695 JYX327695 KIT327695 KSP327695 LCL327695 LMH327695 LWD327695 MFZ327695 MPV327695 MZR327695 NJN327695 NTJ327695 ODF327695 ONB327695 OWX327695 PGT327695 PQP327695 QAL327695 QKH327695 QUD327695 RDZ327695 RNV327695 RXR327695 SHN327695 SRJ327695 TBF327695 TLB327695 TUX327695 UET327695 UOP327695 UYL327695 VIH327695 VSD327695 WBZ327695 WLV327695 WVR327695 J393231 JF393231 TB393231 ACX393231 AMT393231 AWP393231 BGL393231 BQH393231 CAD393231 CJZ393231 CTV393231 DDR393231 DNN393231 DXJ393231 EHF393231 ERB393231 FAX393231 FKT393231 FUP393231 GEL393231 GOH393231 GYD393231 HHZ393231 HRV393231 IBR393231 ILN393231 IVJ393231 JFF393231 JPB393231 JYX393231 KIT393231 KSP393231 LCL393231 LMH393231 LWD393231 MFZ393231 MPV393231 MZR393231 NJN393231 NTJ393231 ODF393231 ONB393231 OWX393231 PGT393231 PQP393231 QAL393231 QKH393231 QUD393231 RDZ393231 RNV393231 RXR393231 SHN393231 SRJ393231 TBF393231 TLB393231 TUX393231 UET393231 UOP393231 UYL393231 VIH393231 VSD393231 WBZ393231 WLV393231 WVR393231 J458767 JF458767 TB458767 ACX458767 AMT458767 AWP458767 BGL458767 BQH458767 CAD458767 CJZ458767 CTV458767 DDR458767 DNN458767 DXJ458767 EHF458767 ERB458767 FAX458767 FKT458767 FUP458767 GEL458767 GOH458767 GYD458767 HHZ458767 HRV458767 IBR458767 ILN458767 IVJ458767 JFF458767 JPB458767 JYX458767 KIT458767 KSP458767 LCL458767 LMH458767 LWD458767 MFZ458767 MPV458767 MZR458767 NJN458767 NTJ458767 ODF458767 ONB458767 OWX458767 PGT458767 PQP458767 QAL458767 QKH458767 QUD458767 RDZ458767 RNV458767 RXR458767 SHN458767 SRJ458767 TBF458767 TLB458767 TUX458767 UET458767 UOP458767 UYL458767 VIH458767 VSD458767 WBZ458767 WLV458767 WVR458767 J524303 JF524303 TB524303 ACX524303 AMT524303 AWP524303 BGL524303 BQH524303 CAD524303 CJZ524303 CTV524303 DDR524303 DNN524303 DXJ524303 EHF524303 ERB524303 FAX524303 FKT524303 FUP524303 GEL524303 GOH524303 GYD524303 HHZ524303 HRV524303 IBR524303 ILN524303 IVJ524303 JFF524303 JPB524303 JYX524303 KIT524303 KSP524303 LCL524303 LMH524303 LWD524303 MFZ524303 MPV524303 MZR524303 NJN524303 NTJ524303 ODF524303 ONB524303 OWX524303 PGT524303 PQP524303 QAL524303 QKH524303 QUD524303 RDZ524303 RNV524303 RXR524303 SHN524303 SRJ524303 TBF524303 TLB524303 TUX524303 UET524303 UOP524303 UYL524303 VIH524303 VSD524303 WBZ524303 WLV524303 WVR524303 J589839 JF589839 TB589839 ACX589839 AMT589839 AWP589839 BGL589839 BQH589839 CAD589839 CJZ589839 CTV589839 DDR589839 DNN589839 DXJ589839 EHF589839 ERB589839 FAX589839 FKT589839 FUP589839 GEL589839 GOH589839 GYD589839 HHZ589839 HRV589839 IBR589839 ILN589839 IVJ589839 JFF589839 JPB589839 JYX589839 KIT589839 KSP589839 LCL589839 LMH589839 LWD589839 MFZ589839 MPV589839 MZR589839 NJN589839 NTJ589839 ODF589839 ONB589839 OWX589839 PGT589839 PQP589839 QAL589839 QKH589839 QUD589839 RDZ589839 RNV589839 RXR589839 SHN589839 SRJ589839 TBF589839 TLB589839 TUX589839 UET589839 UOP589839 UYL589839 VIH589839 VSD589839 WBZ589839 WLV589839 WVR589839 J655375 JF655375 TB655375 ACX655375 AMT655375 AWP655375 BGL655375 BQH655375 CAD655375 CJZ655375 CTV655375 DDR655375 DNN655375 DXJ655375 EHF655375 ERB655375 FAX655375 FKT655375 FUP655375 GEL655375 GOH655375 GYD655375 HHZ655375 HRV655375 IBR655375 ILN655375 IVJ655375 JFF655375 JPB655375 JYX655375 KIT655375 KSP655375 LCL655375 LMH655375 LWD655375 MFZ655375 MPV655375 MZR655375 NJN655375 NTJ655375 ODF655375 ONB655375 OWX655375 PGT655375 PQP655375 QAL655375 QKH655375 QUD655375 RDZ655375 RNV655375 RXR655375 SHN655375 SRJ655375 TBF655375 TLB655375 TUX655375 UET655375 UOP655375 UYL655375 VIH655375 VSD655375 WBZ655375 WLV655375 WVR655375 J720911 JF720911 TB720911 ACX720911 AMT720911 AWP720911 BGL720911 BQH720911 CAD720911 CJZ720911 CTV720911 DDR720911 DNN720911 DXJ720911 EHF720911 ERB720911 FAX720911 FKT720911 FUP720911 GEL720911 GOH720911 GYD720911 HHZ720911 HRV720911 IBR720911 ILN720911 IVJ720911 JFF720911 JPB720911 JYX720911 KIT720911 KSP720911 LCL720911 LMH720911 LWD720911 MFZ720911 MPV720911 MZR720911 NJN720911 NTJ720911 ODF720911 ONB720911 OWX720911 PGT720911 PQP720911 QAL720911 QKH720911 QUD720911 RDZ720911 RNV720911 RXR720911 SHN720911 SRJ720911 TBF720911 TLB720911 TUX720911 UET720911 UOP720911 UYL720911 VIH720911 VSD720911 WBZ720911 WLV720911 WVR720911 J786447 JF786447 TB786447 ACX786447 AMT786447 AWP786447 BGL786447 BQH786447 CAD786447 CJZ786447 CTV786447 DDR786447 DNN786447 DXJ786447 EHF786447 ERB786447 FAX786447 FKT786447 FUP786447 GEL786447 GOH786447 GYD786447 HHZ786447 HRV786447 IBR786447 ILN786447 IVJ786447 JFF786447 JPB786447 JYX786447 KIT786447 KSP786447 LCL786447 LMH786447 LWD786447 MFZ786447 MPV786447 MZR786447 NJN786447 NTJ786447 ODF786447 ONB786447 OWX786447 PGT786447 PQP786447 QAL786447 QKH786447 QUD786447 RDZ786447 RNV786447 RXR786447 SHN786447 SRJ786447 TBF786447 TLB786447 TUX786447 UET786447 UOP786447 UYL786447 VIH786447 VSD786447 WBZ786447 WLV786447 WVR786447 J851983 JF851983 TB851983 ACX851983 AMT851983 AWP851983 BGL851983 BQH851983 CAD851983 CJZ851983 CTV851983 DDR851983 DNN851983 DXJ851983 EHF851983 ERB851983 FAX851983 FKT851983 FUP851983 GEL851983 GOH851983 GYD851983 HHZ851983 HRV851983 IBR851983 ILN851983 IVJ851983 JFF851983 JPB851983 JYX851983 KIT851983 KSP851983 LCL851983 LMH851983 LWD851983 MFZ851983 MPV851983 MZR851983 NJN851983 NTJ851983 ODF851983 ONB851983 OWX851983 PGT851983 PQP851983 QAL851983 QKH851983 QUD851983 RDZ851983 RNV851983 RXR851983 SHN851983 SRJ851983 TBF851983 TLB851983 TUX851983 UET851983 UOP851983 UYL851983 VIH851983 VSD851983 WBZ851983 WLV851983 WVR851983 J917519 JF917519 TB917519 ACX917519 AMT917519 AWP917519 BGL917519 BQH917519 CAD917519 CJZ917519 CTV917519 DDR917519 DNN917519 DXJ917519 EHF917519 ERB917519 FAX917519 FKT917519 FUP917519 GEL917519 GOH917519 GYD917519 HHZ917519 HRV917519 IBR917519 ILN917519 IVJ917519 JFF917519 JPB917519 JYX917519 KIT917519 KSP917519 LCL917519 LMH917519 LWD917519 MFZ917519 MPV917519 MZR917519 NJN917519 NTJ917519 ODF917519 ONB917519 OWX917519 PGT917519 PQP917519 QAL917519 QKH917519 QUD917519 RDZ917519 RNV917519 RXR917519 SHN917519 SRJ917519 TBF917519 TLB917519 TUX917519 UET917519 UOP917519 UYL917519 VIH917519 VSD917519 WBZ917519 WLV917519 WVR917519 J983055 JF983055 TB983055 ACX983055 AMT983055 AWP983055 BGL983055 BQH983055 CAD983055 CJZ983055 CTV983055 DDR983055 DNN983055 DXJ983055 EHF983055 ERB983055 FAX983055 FKT983055 FUP983055 GEL983055 GOH983055 GYD983055 HHZ983055 HRV983055 IBR983055 ILN983055 IVJ983055 JFF983055 JPB983055 JYX983055 KIT983055 KSP983055 LCL983055 LMH983055 LWD983055 MFZ983055 MPV983055 MZR983055 NJN983055 NTJ983055 ODF983055 ONB983055 OWX983055 PGT983055 PQP983055 QAL983055 QKH983055 QUD983055 RDZ983055 RNV983055 RXR983055 SHN983055 SRJ983055 TBF983055 TLB983055 TUX983055 UET983055 UOP983055 UYL983055 VIH983055 VSD983055 WBZ983055 WLV983055 WVR983055 J17:J18 JF17:JF18 TB17:TB18 ACX17:ACX18 AMT17:AMT18 AWP17:AWP18 BGL17:BGL18 BQH17:BQH18 CAD17:CAD18 CJZ17:CJZ18 CTV17:CTV18 DDR17:DDR18 DNN17:DNN18 DXJ17:DXJ18 EHF17:EHF18 ERB17:ERB18 FAX17:FAX18 FKT17:FKT18 FUP17:FUP18 GEL17:GEL18 GOH17:GOH18 GYD17:GYD18 HHZ17:HHZ18 HRV17:HRV18 IBR17:IBR18 ILN17:ILN18 IVJ17:IVJ18 JFF17:JFF18 JPB17:JPB18 JYX17:JYX18 KIT17:KIT18 KSP17:KSP18 LCL17:LCL18 LMH17:LMH18 LWD17:LWD18 MFZ17:MFZ18 MPV17:MPV18 MZR17:MZR18 NJN17:NJN18 NTJ17:NTJ18 ODF17:ODF18 ONB17:ONB18 OWX17:OWX18 PGT17:PGT18 PQP17:PQP18 QAL17:QAL18 QKH17:QKH18 QUD17:QUD18 RDZ17:RDZ18 RNV17:RNV18 RXR17:RXR18 SHN17:SHN18 SRJ17:SRJ18 TBF17:TBF18 TLB17:TLB18 TUX17:TUX18 UET17:UET18 UOP17:UOP18 UYL17:UYL18 VIH17:VIH18 VSD17:VSD18 WBZ17:WBZ18 WLV17:WLV18 WVR17:WVR18 J65553:J65554 JF65553:JF65554 TB65553:TB65554 ACX65553:ACX65554 AMT65553:AMT65554 AWP65553:AWP65554 BGL65553:BGL65554 BQH65553:BQH65554 CAD65553:CAD65554 CJZ65553:CJZ65554 CTV65553:CTV65554 DDR65553:DDR65554 DNN65553:DNN65554 DXJ65553:DXJ65554 EHF65553:EHF65554 ERB65553:ERB65554 FAX65553:FAX65554 FKT65553:FKT65554 FUP65553:FUP65554 GEL65553:GEL65554 GOH65553:GOH65554 GYD65553:GYD65554 HHZ65553:HHZ65554 HRV65553:HRV65554 IBR65553:IBR65554 ILN65553:ILN65554 IVJ65553:IVJ65554 JFF65553:JFF65554 JPB65553:JPB65554 JYX65553:JYX65554 KIT65553:KIT65554 KSP65553:KSP65554 LCL65553:LCL65554 LMH65553:LMH65554 LWD65553:LWD65554 MFZ65553:MFZ65554 MPV65553:MPV65554 MZR65553:MZR65554 NJN65553:NJN65554 NTJ65553:NTJ65554 ODF65553:ODF65554 ONB65553:ONB65554 OWX65553:OWX65554 PGT65553:PGT65554 PQP65553:PQP65554 QAL65553:QAL65554 QKH65553:QKH65554 QUD65553:QUD65554 RDZ65553:RDZ65554 RNV65553:RNV65554 RXR65553:RXR65554 SHN65553:SHN65554 SRJ65553:SRJ65554 TBF65553:TBF65554 TLB65553:TLB65554 TUX65553:TUX65554 UET65553:UET65554 UOP65553:UOP65554 UYL65553:UYL65554 VIH65553:VIH65554 VSD65553:VSD65554 WBZ65553:WBZ65554 WLV65553:WLV65554 WVR65553:WVR65554 J131089:J131090 JF131089:JF131090 TB131089:TB131090 ACX131089:ACX131090 AMT131089:AMT131090 AWP131089:AWP131090 BGL131089:BGL131090 BQH131089:BQH131090 CAD131089:CAD131090 CJZ131089:CJZ131090 CTV131089:CTV131090 DDR131089:DDR131090 DNN131089:DNN131090 DXJ131089:DXJ131090 EHF131089:EHF131090 ERB131089:ERB131090 FAX131089:FAX131090 FKT131089:FKT131090 FUP131089:FUP131090 GEL131089:GEL131090 GOH131089:GOH131090 GYD131089:GYD131090 HHZ131089:HHZ131090 HRV131089:HRV131090 IBR131089:IBR131090 ILN131089:ILN131090 IVJ131089:IVJ131090 JFF131089:JFF131090 JPB131089:JPB131090 JYX131089:JYX131090 KIT131089:KIT131090 KSP131089:KSP131090 LCL131089:LCL131090 LMH131089:LMH131090 LWD131089:LWD131090 MFZ131089:MFZ131090 MPV131089:MPV131090 MZR131089:MZR131090 NJN131089:NJN131090 NTJ131089:NTJ131090 ODF131089:ODF131090 ONB131089:ONB131090 OWX131089:OWX131090 PGT131089:PGT131090 PQP131089:PQP131090 QAL131089:QAL131090 QKH131089:QKH131090 QUD131089:QUD131090 RDZ131089:RDZ131090 RNV131089:RNV131090 RXR131089:RXR131090 SHN131089:SHN131090 SRJ131089:SRJ131090 TBF131089:TBF131090 TLB131089:TLB131090 TUX131089:TUX131090 UET131089:UET131090 UOP131089:UOP131090 UYL131089:UYL131090 VIH131089:VIH131090 VSD131089:VSD131090 WBZ131089:WBZ131090 WLV131089:WLV131090 WVR131089:WVR131090 J196625:J196626 JF196625:JF196626 TB196625:TB196626 ACX196625:ACX196626 AMT196625:AMT196626 AWP196625:AWP196626 BGL196625:BGL196626 BQH196625:BQH196626 CAD196625:CAD196626 CJZ196625:CJZ196626 CTV196625:CTV196626 DDR196625:DDR196626 DNN196625:DNN196626 DXJ196625:DXJ196626 EHF196625:EHF196626 ERB196625:ERB196626 FAX196625:FAX196626 FKT196625:FKT196626 FUP196625:FUP196626 GEL196625:GEL196626 GOH196625:GOH196626 GYD196625:GYD196626 HHZ196625:HHZ196626 HRV196625:HRV196626 IBR196625:IBR196626 ILN196625:ILN196626 IVJ196625:IVJ196626 JFF196625:JFF196626 JPB196625:JPB196626 JYX196625:JYX196626 KIT196625:KIT196626 KSP196625:KSP196626 LCL196625:LCL196626 LMH196625:LMH196626 LWD196625:LWD196626 MFZ196625:MFZ196626 MPV196625:MPV196626 MZR196625:MZR196626 NJN196625:NJN196626 NTJ196625:NTJ196626 ODF196625:ODF196626 ONB196625:ONB196626 OWX196625:OWX196626 PGT196625:PGT196626 PQP196625:PQP196626 QAL196625:QAL196626 QKH196625:QKH196626 QUD196625:QUD196626 RDZ196625:RDZ196626 RNV196625:RNV196626 RXR196625:RXR196626 SHN196625:SHN196626 SRJ196625:SRJ196626 TBF196625:TBF196626 TLB196625:TLB196626 TUX196625:TUX196626 UET196625:UET196626 UOP196625:UOP196626 UYL196625:UYL196626 VIH196625:VIH196626 VSD196625:VSD196626 WBZ196625:WBZ196626 WLV196625:WLV196626 WVR196625:WVR196626 J262161:J262162 JF262161:JF262162 TB262161:TB262162 ACX262161:ACX262162 AMT262161:AMT262162 AWP262161:AWP262162 BGL262161:BGL262162 BQH262161:BQH262162 CAD262161:CAD262162 CJZ262161:CJZ262162 CTV262161:CTV262162 DDR262161:DDR262162 DNN262161:DNN262162 DXJ262161:DXJ262162 EHF262161:EHF262162 ERB262161:ERB262162 FAX262161:FAX262162 FKT262161:FKT262162 FUP262161:FUP262162 GEL262161:GEL262162 GOH262161:GOH262162 GYD262161:GYD262162 HHZ262161:HHZ262162 HRV262161:HRV262162 IBR262161:IBR262162 ILN262161:ILN262162 IVJ262161:IVJ262162 JFF262161:JFF262162 JPB262161:JPB262162 JYX262161:JYX262162 KIT262161:KIT262162 KSP262161:KSP262162 LCL262161:LCL262162 LMH262161:LMH262162 LWD262161:LWD262162 MFZ262161:MFZ262162 MPV262161:MPV262162 MZR262161:MZR262162 NJN262161:NJN262162 NTJ262161:NTJ262162 ODF262161:ODF262162 ONB262161:ONB262162 OWX262161:OWX262162 PGT262161:PGT262162 PQP262161:PQP262162 QAL262161:QAL262162 QKH262161:QKH262162 QUD262161:QUD262162 RDZ262161:RDZ262162 RNV262161:RNV262162 RXR262161:RXR262162 SHN262161:SHN262162 SRJ262161:SRJ262162 TBF262161:TBF262162 TLB262161:TLB262162 TUX262161:TUX262162 UET262161:UET262162 UOP262161:UOP262162 UYL262161:UYL262162 VIH262161:VIH262162 VSD262161:VSD262162 WBZ262161:WBZ262162 WLV262161:WLV262162 WVR262161:WVR262162 J327697:J327698 JF327697:JF327698 TB327697:TB327698 ACX327697:ACX327698 AMT327697:AMT327698 AWP327697:AWP327698 BGL327697:BGL327698 BQH327697:BQH327698 CAD327697:CAD327698 CJZ327697:CJZ327698 CTV327697:CTV327698 DDR327697:DDR327698 DNN327697:DNN327698 DXJ327697:DXJ327698 EHF327697:EHF327698 ERB327697:ERB327698 FAX327697:FAX327698 FKT327697:FKT327698 FUP327697:FUP327698 GEL327697:GEL327698 GOH327697:GOH327698 GYD327697:GYD327698 HHZ327697:HHZ327698 HRV327697:HRV327698 IBR327697:IBR327698 ILN327697:ILN327698 IVJ327697:IVJ327698 JFF327697:JFF327698 JPB327697:JPB327698 JYX327697:JYX327698 KIT327697:KIT327698 KSP327697:KSP327698 LCL327697:LCL327698 LMH327697:LMH327698 LWD327697:LWD327698 MFZ327697:MFZ327698 MPV327697:MPV327698 MZR327697:MZR327698 NJN327697:NJN327698 NTJ327697:NTJ327698 ODF327697:ODF327698 ONB327697:ONB327698 OWX327697:OWX327698 PGT327697:PGT327698 PQP327697:PQP327698 QAL327697:QAL327698 QKH327697:QKH327698 QUD327697:QUD327698 RDZ327697:RDZ327698 RNV327697:RNV327698 RXR327697:RXR327698 SHN327697:SHN327698 SRJ327697:SRJ327698 TBF327697:TBF327698 TLB327697:TLB327698 TUX327697:TUX327698 UET327697:UET327698 UOP327697:UOP327698 UYL327697:UYL327698 VIH327697:VIH327698 VSD327697:VSD327698 WBZ327697:WBZ327698 WLV327697:WLV327698 WVR327697:WVR327698 J393233:J393234 JF393233:JF393234 TB393233:TB393234 ACX393233:ACX393234 AMT393233:AMT393234 AWP393233:AWP393234 BGL393233:BGL393234 BQH393233:BQH393234 CAD393233:CAD393234 CJZ393233:CJZ393234 CTV393233:CTV393234 DDR393233:DDR393234 DNN393233:DNN393234 DXJ393233:DXJ393234 EHF393233:EHF393234 ERB393233:ERB393234 FAX393233:FAX393234 FKT393233:FKT393234 FUP393233:FUP393234 GEL393233:GEL393234 GOH393233:GOH393234 GYD393233:GYD393234 HHZ393233:HHZ393234 HRV393233:HRV393234 IBR393233:IBR393234 ILN393233:ILN393234 IVJ393233:IVJ393234 JFF393233:JFF393234 JPB393233:JPB393234 JYX393233:JYX393234 KIT393233:KIT393234 KSP393233:KSP393234 LCL393233:LCL393234 LMH393233:LMH393234 LWD393233:LWD393234 MFZ393233:MFZ393234 MPV393233:MPV393234 MZR393233:MZR393234 NJN393233:NJN393234 NTJ393233:NTJ393234 ODF393233:ODF393234 ONB393233:ONB393234 OWX393233:OWX393234 PGT393233:PGT393234 PQP393233:PQP393234 QAL393233:QAL393234 QKH393233:QKH393234 QUD393233:QUD393234 RDZ393233:RDZ393234 RNV393233:RNV393234 RXR393233:RXR393234 SHN393233:SHN393234 SRJ393233:SRJ393234 TBF393233:TBF393234 TLB393233:TLB393234 TUX393233:TUX393234 UET393233:UET393234 UOP393233:UOP393234 UYL393233:UYL393234 VIH393233:VIH393234 VSD393233:VSD393234 WBZ393233:WBZ393234 WLV393233:WLV393234 WVR393233:WVR393234 J458769:J458770 JF458769:JF458770 TB458769:TB458770 ACX458769:ACX458770 AMT458769:AMT458770 AWP458769:AWP458770 BGL458769:BGL458770 BQH458769:BQH458770 CAD458769:CAD458770 CJZ458769:CJZ458770 CTV458769:CTV458770 DDR458769:DDR458770 DNN458769:DNN458770 DXJ458769:DXJ458770 EHF458769:EHF458770 ERB458769:ERB458770 FAX458769:FAX458770 FKT458769:FKT458770 FUP458769:FUP458770 GEL458769:GEL458770 GOH458769:GOH458770 GYD458769:GYD458770 HHZ458769:HHZ458770 HRV458769:HRV458770 IBR458769:IBR458770 ILN458769:ILN458770 IVJ458769:IVJ458770 JFF458769:JFF458770 JPB458769:JPB458770 JYX458769:JYX458770 KIT458769:KIT458770 KSP458769:KSP458770 LCL458769:LCL458770 LMH458769:LMH458770 LWD458769:LWD458770 MFZ458769:MFZ458770 MPV458769:MPV458770 MZR458769:MZR458770 NJN458769:NJN458770 NTJ458769:NTJ458770 ODF458769:ODF458770 ONB458769:ONB458770 OWX458769:OWX458770 PGT458769:PGT458770 PQP458769:PQP458770 QAL458769:QAL458770 QKH458769:QKH458770 QUD458769:QUD458770 RDZ458769:RDZ458770 RNV458769:RNV458770 RXR458769:RXR458770 SHN458769:SHN458770 SRJ458769:SRJ458770 TBF458769:TBF458770 TLB458769:TLB458770 TUX458769:TUX458770 UET458769:UET458770 UOP458769:UOP458770 UYL458769:UYL458770 VIH458769:VIH458770 VSD458769:VSD458770 WBZ458769:WBZ458770 WLV458769:WLV458770 WVR458769:WVR458770 J524305:J524306 JF524305:JF524306 TB524305:TB524306 ACX524305:ACX524306 AMT524305:AMT524306 AWP524305:AWP524306 BGL524305:BGL524306 BQH524305:BQH524306 CAD524305:CAD524306 CJZ524305:CJZ524306 CTV524305:CTV524306 DDR524305:DDR524306 DNN524305:DNN524306 DXJ524305:DXJ524306 EHF524305:EHF524306 ERB524305:ERB524306 FAX524305:FAX524306 FKT524305:FKT524306 FUP524305:FUP524306 GEL524305:GEL524306 GOH524305:GOH524306 GYD524305:GYD524306 HHZ524305:HHZ524306 HRV524305:HRV524306 IBR524305:IBR524306 ILN524305:ILN524306 IVJ524305:IVJ524306 JFF524305:JFF524306 JPB524305:JPB524306 JYX524305:JYX524306 KIT524305:KIT524306 KSP524305:KSP524306 LCL524305:LCL524306 LMH524305:LMH524306 LWD524305:LWD524306 MFZ524305:MFZ524306 MPV524305:MPV524306 MZR524305:MZR524306 NJN524305:NJN524306 NTJ524305:NTJ524306 ODF524305:ODF524306 ONB524305:ONB524306 OWX524305:OWX524306 PGT524305:PGT524306 PQP524305:PQP524306 QAL524305:QAL524306 QKH524305:QKH524306 QUD524305:QUD524306 RDZ524305:RDZ524306 RNV524305:RNV524306 RXR524305:RXR524306 SHN524305:SHN524306 SRJ524305:SRJ524306 TBF524305:TBF524306 TLB524305:TLB524306 TUX524305:TUX524306 UET524305:UET524306 UOP524305:UOP524306 UYL524305:UYL524306 VIH524305:VIH524306 VSD524305:VSD524306 WBZ524305:WBZ524306 WLV524305:WLV524306 WVR524305:WVR524306 J589841:J589842 JF589841:JF589842 TB589841:TB589842 ACX589841:ACX589842 AMT589841:AMT589842 AWP589841:AWP589842 BGL589841:BGL589842 BQH589841:BQH589842 CAD589841:CAD589842 CJZ589841:CJZ589842 CTV589841:CTV589842 DDR589841:DDR589842 DNN589841:DNN589842 DXJ589841:DXJ589842 EHF589841:EHF589842 ERB589841:ERB589842 FAX589841:FAX589842 FKT589841:FKT589842 FUP589841:FUP589842 GEL589841:GEL589842 GOH589841:GOH589842 GYD589841:GYD589842 HHZ589841:HHZ589842 HRV589841:HRV589842 IBR589841:IBR589842 ILN589841:ILN589842 IVJ589841:IVJ589842 JFF589841:JFF589842 JPB589841:JPB589842 JYX589841:JYX589842 KIT589841:KIT589842 KSP589841:KSP589842 LCL589841:LCL589842 LMH589841:LMH589842 LWD589841:LWD589842 MFZ589841:MFZ589842 MPV589841:MPV589842 MZR589841:MZR589842 NJN589841:NJN589842 NTJ589841:NTJ589842 ODF589841:ODF589842 ONB589841:ONB589842 OWX589841:OWX589842 PGT589841:PGT589842 PQP589841:PQP589842 QAL589841:QAL589842 QKH589841:QKH589842 QUD589841:QUD589842 RDZ589841:RDZ589842 RNV589841:RNV589842 RXR589841:RXR589842 SHN589841:SHN589842 SRJ589841:SRJ589842 TBF589841:TBF589842 TLB589841:TLB589842 TUX589841:TUX589842 UET589841:UET589842 UOP589841:UOP589842 UYL589841:UYL589842 VIH589841:VIH589842 VSD589841:VSD589842 WBZ589841:WBZ589842 WLV589841:WLV589842 WVR589841:WVR589842 J655377:J655378 JF655377:JF655378 TB655377:TB655378 ACX655377:ACX655378 AMT655377:AMT655378 AWP655377:AWP655378 BGL655377:BGL655378 BQH655377:BQH655378 CAD655377:CAD655378 CJZ655377:CJZ655378 CTV655377:CTV655378 DDR655377:DDR655378 DNN655377:DNN655378 DXJ655377:DXJ655378 EHF655377:EHF655378 ERB655377:ERB655378 FAX655377:FAX655378 FKT655377:FKT655378 FUP655377:FUP655378 GEL655377:GEL655378 GOH655377:GOH655378 GYD655377:GYD655378 HHZ655377:HHZ655378 HRV655377:HRV655378 IBR655377:IBR655378 ILN655377:ILN655378 IVJ655377:IVJ655378 JFF655377:JFF655378 JPB655377:JPB655378 JYX655377:JYX655378 KIT655377:KIT655378 KSP655377:KSP655378 LCL655377:LCL655378 LMH655377:LMH655378 LWD655377:LWD655378 MFZ655377:MFZ655378 MPV655377:MPV655378 MZR655377:MZR655378 NJN655377:NJN655378 NTJ655377:NTJ655378 ODF655377:ODF655378 ONB655377:ONB655378 OWX655377:OWX655378 PGT655377:PGT655378 PQP655377:PQP655378 QAL655377:QAL655378 QKH655377:QKH655378 QUD655377:QUD655378 RDZ655377:RDZ655378 RNV655377:RNV655378 RXR655377:RXR655378 SHN655377:SHN655378 SRJ655377:SRJ655378 TBF655377:TBF655378 TLB655377:TLB655378 TUX655377:TUX655378 UET655377:UET655378 UOP655377:UOP655378 UYL655377:UYL655378 VIH655377:VIH655378 VSD655377:VSD655378 WBZ655377:WBZ655378 WLV655377:WLV655378 WVR655377:WVR655378 J720913:J720914 JF720913:JF720914 TB720913:TB720914 ACX720913:ACX720914 AMT720913:AMT720914 AWP720913:AWP720914 BGL720913:BGL720914 BQH720913:BQH720914 CAD720913:CAD720914 CJZ720913:CJZ720914 CTV720913:CTV720914 DDR720913:DDR720914 DNN720913:DNN720914 DXJ720913:DXJ720914 EHF720913:EHF720914 ERB720913:ERB720914 FAX720913:FAX720914 FKT720913:FKT720914 FUP720913:FUP720914 GEL720913:GEL720914 GOH720913:GOH720914 GYD720913:GYD720914 HHZ720913:HHZ720914 HRV720913:HRV720914 IBR720913:IBR720914 ILN720913:ILN720914 IVJ720913:IVJ720914 JFF720913:JFF720914 JPB720913:JPB720914 JYX720913:JYX720914 KIT720913:KIT720914 KSP720913:KSP720914 LCL720913:LCL720914 LMH720913:LMH720914 LWD720913:LWD720914 MFZ720913:MFZ720914 MPV720913:MPV720914 MZR720913:MZR720914 NJN720913:NJN720914 NTJ720913:NTJ720914 ODF720913:ODF720914 ONB720913:ONB720914 OWX720913:OWX720914 PGT720913:PGT720914 PQP720913:PQP720914 QAL720913:QAL720914 QKH720913:QKH720914 QUD720913:QUD720914 RDZ720913:RDZ720914 RNV720913:RNV720914 RXR720913:RXR720914 SHN720913:SHN720914 SRJ720913:SRJ720914 TBF720913:TBF720914 TLB720913:TLB720914 TUX720913:TUX720914 UET720913:UET720914 UOP720913:UOP720914 UYL720913:UYL720914 VIH720913:VIH720914 VSD720913:VSD720914 WBZ720913:WBZ720914 WLV720913:WLV720914 WVR720913:WVR720914 J786449:J786450 JF786449:JF786450 TB786449:TB786450 ACX786449:ACX786450 AMT786449:AMT786450 AWP786449:AWP786450 BGL786449:BGL786450 BQH786449:BQH786450 CAD786449:CAD786450 CJZ786449:CJZ786450 CTV786449:CTV786450 DDR786449:DDR786450 DNN786449:DNN786450 DXJ786449:DXJ786450 EHF786449:EHF786450 ERB786449:ERB786450 FAX786449:FAX786450 FKT786449:FKT786450 FUP786449:FUP786450 GEL786449:GEL786450 GOH786449:GOH786450 GYD786449:GYD786450 HHZ786449:HHZ786450 HRV786449:HRV786450 IBR786449:IBR786450 ILN786449:ILN786450 IVJ786449:IVJ786450 JFF786449:JFF786450 JPB786449:JPB786450 JYX786449:JYX786450 KIT786449:KIT786450 KSP786449:KSP786450 LCL786449:LCL786450 LMH786449:LMH786450 LWD786449:LWD786450 MFZ786449:MFZ786450 MPV786449:MPV786450 MZR786449:MZR786450 NJN786449:NJN786450 NTJ786449:NTJ786450 ODF786449:ODF786450 ONB786449:ONB786450 OWX786449:OWX786450 PGT786449:PGT786450 PQP786449:PQP786450 QAL786449:QAL786450 QKH786449:QKH786450 QUD786449:QUD786450 RDZ786449:RDZ786450 RNV786449:RNV786450 RXR786449:RXR786450 SHN786449:SHN786450 SRJ786449:SRJ786450 TBF786449:TBF786450 TLB786449:TLB786450 TUX786449:TUX786450 UET786449:UET786450 UOP786449:UOP786450 UYL786449:UYL786450 VIH786449:VIH786450 VSD786449:VSD786450 WBZ786449:WBZ786450 WLV786449:WLV786450 WVR786449:WVR786450 J851985:J851986 JF851985:JF851986 TB851985:TB851986 ACX851985:ACX851986 AMT851985:AMT851986 AWP851985:AWP851986 BGL851985:BGL851986 BQH851985:BQH851986 CAD851985:CAD851986 CJZ851985:CJZ851986 CTV851985:CTV851986 DDR851985:DDR851986 DNN851985:DNN851986 DXJ851985:DXJ851986 EHF851985:EHF851986 ERB851985:ERB851986 FAX851985:FAX851986 FKT851985:FKT851986 FUP851985:FUP851986 GEL851985:GEL851986 GOH851985:GOH851986 GYD851985:GYD851986 HHZ851985:HHZ851986 HRV851985:HRV851986 IBR851985:IBR851986 ILN851985:ILN851986 IVJ851985:IVJ851986 JFF851985:JFF851986 JPB851985:JPB851986 JYX851985:JYX851986 KIT851985:KIT851986 KSP851985:KSP851986 LCL851985:LCL851986 LMH851985:LMH851986 LWD851985:LWD851986 MFZ851985:MFZ851986 MPV851985:MPV851986 MZR851985:MZR851986 NJN851985:NJN851986 NTJ851985:NTJ851986 ODF851985:ODF851986 ONB851985:ONB851986 OWX851985:OWX851986 PGT851985:PGT851986 PQP851985:PQP851986 QAL851985:QAL851986 QKH851985:QKH851986 QUD851985:QUD851986 RDZ851985:RDZ851986 RNV851985:RNV851986 RXR851985:RXR851986 SHN851985:SHN851986 SRJ851985:SRJ851986 TBF851985:TBF851986 TLB851985:TLB851986 TUX851985:TUX851986 UET851985:UET851986 UOP851985:UOP851986 UYL851985:UYL851986 VIH851985:VIH851986 VSD851985:VSD851986 WBZ851985:WBZ851986 WLV851985:WLV851986 WVR851985:WVR851986 J917521:J917522 JF917521:JF917522 TB917521:TB917522 ACX917521:ACX917522 AMT917521:AMT917522 AWP917521:AWP917522 BGL917521:BGL917522 BQH917521:BQH917522 CAD917521:CAD917522 CJZ917521:CJZ917522 CTV917521:CTV917522 DDR917521:DDR917522 DNN917521:DNN917522 DXJ917521:DXJ917522 EHF917521:EHF917522 ERB917521:ERB917522 FAX917521:FAX917522 FKT917521:FKT917522 FUP917521:FUP917522 GEL917521:GEL917522 GOH917521:GOH917522 GYD917521:GYD917522 HHZ917521:HHZ917522 HRV917521:HRV917522 IBR917521:IBR917522 ILN917521:ILN917522 IVJ917521:IVJ917522 JFF917521:JFF917522 JPB917521:JPB917522 JYX917521:JYX917522 KIT917521:KIT917522 KSP917521:KSP917522 LCL917521:LCL917522 LMH917521:LMH917522 LWD917521:LWD917522 MFZ917521:MFZ917522 MPV917521:MPV917522 MZR917521:MZR917522 NJN917521:NJN917522 NTJ917521:NTJ917522 ODF917521:ODF917522 ONB917521:ONB917522 OWX917521:OWX917522 PGT917521:PGT917522 PQP917521:PQP917522 QAL917521:QAL917522 QKH917521:QKH917522 QUD917521:QUD917522 RDZ917521:RDZ917522 RNV917521:RNV917522 RXR917521:RXR917522 SHN917521:SHN917522 SRJ917521:SRJ917522 TBF917521:TBF917522 TLB917521:TLB917522 TUX917521:TUX917522 UET917521:UET917522 UOP917521:UOP917522 UYL917521:UYL917522 VIH917521:VIH917522 VSD917521:VSD917522 WBZ917521:WBZ917522 WLV917521:WLV917522 WVR917521:WVR917522 J983057:J983058 JF983057:JF983058 TB983057:TB983058 ACX983057:ACX983058 AMT983057:AMT983058 AWP983057:AWP983058 BGL983057:BGL983058 BQH983057:BQH983058 CAD983057:CAD983058 CJZ983057:CJZ983058 CTV983057:CTV983058 DDR983057:DDR983058 DNN983057:DNN983058 DXJ983057:DXJ983058 EHF983057:EHF983058 ERB983057:ERB983058 FAX983057:FAX983058 FKT983057:FKT983058 FUP983057:FUP983058 GEL983057:GEL983058 GOH983057:GOH983058 GYD983057:GYD983058 HHZ983057:HHZ983058 HRV983057:HRV983058 IBR983057:IBR983058 ILN983057:ILN983058 IVJ983057:IVJ983058 JFF983057:JFF983058 JPB983057:JPB983058 JYX983057:JYX983058 KIT983057:KIT983058 KSP983057:KSP983058 LCL983057:LCL983058 LMH983057:LMH983058 LWD983057:LWD983058 MFZ983057:MFZ983058 MPV983057:MPV983058 MZR983057:MZR983058 NJN983057:NJN983058 NTJ983057:NTJ983058 ODF983057:ODF983058 ONB983057:ONB983058 OWX983057:OWX983058 PGT983057:PGT983058 PQP983057:PQP983058 QAL983057:QAL983058 QKH983057:QKH983058 QUD983057:QUD983058 RDZ983057:RDZ983058 RNV983057:RNV983058 RXR983057:RXR983058 SHN983057:SHN983058 SRJ983057:SRJ983058 TBF983057:TBF983058 TLB983057:TLB983058 TUX983057:TUX983058 UET983057:UET983058 UOP983057:UOP983058 UYL983057:UYL983058 VIH983057:VIH983058 VSD983057:VSD983058 WBZ983057:WBZ983058 WLV983057:WLV983058 WVR983057:WVR983058 J11 JF11 TB11 ACX11 AMT11 AWP11 BGL11 BQH11 CAD11 CJZ11 CTV11 DDR11 DNN11 DXJ11 EHF11 ERB11 FAX11 FKT11 FUP11 GEL11 GOH11 GYD11 HHZ11 HRV11 IBR11 ILN11 IVJ11 JFF11 JPB11 JYX11 KIT11 KSP11 LCL11 LMH11 LWD11 MFZ11 MPV11 MZR11 NJN11 NTJ11 ODF11 ONB11 OWX11 PGT11 PQP11 QAL11 QKH11 QUD11 RDZ11 RNV11 RXR11 SHN11 SRJ11 TBF11 TLB11 TUX11 UET11 UOP11 UYL11 VIH11 VSD11 WBZ11 WLV11 WVR11 J65547 JF65547 TB65547 ACX65547 AMT65547 AWP65547 BGL65547 BQH65547 CAD65547 CJZ65547 CTV65547 DDR65547 DNN65547 DXJ65547 EHF65547 ERB65547 FAX65547 FKT65547 FUP65547 GEL65547 GOH65547 GYD65547 HHZ65547 HRV65547 IBR65547 ILN65547 IVJ65547 JFF65547 JPB65547 JYX65547 KIT65547 KSP65547 LCL65547 LMH65547 LWD65547 MFZ65547 MPV65547 MZR65547 NJN65547 NTJ65547 ODF65547 ONB65547 OWX65547 PGT65547 PQP65547 QAL65547 QKH65547 QUD65547 RDZ65547 RNV65547 RXR65547 SHN65547 SRJ65547 TBF65547 TLB65547 TUX65547 UET65547 UOP65547 UYL65547 VIH65547 VSD65547 WBZ65547 WLV65547 WVR65547 J131083 JF131083 TB131083 ACX131083 AMT131083 AWP131083 BGL131083 BQH131083 CAD131083 CJZ131083 CTV131083 DDR131083 DNN131083 DXJ131083 EHF131083 ERB131083 FAX131083 FKT131083 FUP131083 GEL131083 GOH131083 GYD131083 HHZ131083 HRV131083 IBR131083 ILN131083 IVJ131083 JFF131083 JPB131083 JYX131083 KIT131083 KSP131083 LCL131083 LMH131083 LWD131083 MFZ131083 MPV131083 MZR131083 NJN131083 NTJ131083 ODF131083 ONB131083 OWX131083 PGT131083 PQP131083 QAL131083 QKH131083 QUD131083 RDZ131083 RNV131083 RXR131083 SHN131083 SRJ131083 TBF131083 TLB131083 TUX131083 UET131083 UOP131083 UYL131083 VIH131083 VSD131083 WBZ131083 WLV131083 WVR131083 J196619 JF196619 TB196619 ACX196619 AMT196619 AWP196619 BGL196619 BQH196619 CAD196619 CJZ196619 CTV196619 DDR196619 DNN196619 DXJ196619 EHF196619 ERB196619 FAX196619 FKT196619 FUP196619 GEL196619 GOH196619 GYD196619 HHZ196619 HRV196619 IBR196619 ILN196619 IVJ196619 JFF196619 JPB196619 JYX196619 KIT196619 KSP196619 LCL196619 LMH196619 LWD196619 MFZ196619 MPV196619 MZR196619 NJN196619 NTJ196619 ODF196619 ONB196619 OWX196619 PGT196619 PQP196619 QAL196619 QKH196619 QUD196619 RDZ196619 RNV196619 RXR196619 SHN196619 SRJ196619 TBF196619 TLB196619 TUX196619 UET196619 UOP196619 UYL196619 VIH196619 VSD196619 WBZ196619 WLV196619 WVR196619 J262155 JF262155 TB262155 ACX262155 AMT262155 AWP262155 BGL262155 BQH262155 CAD262155 CJZ262155 CTV262155 DDR262155 DNN262155 DXJ262155 EHF262155 ERB262155 FAX262155 FKT262155 FUP262155 GEL262155 GOH262155 GYD262155 HHZ262155 HRV262155 IBR262155 ILN262155 IVJ262155 JFF262155 JPB262155 JYX262155 KIT262155 KSP262155 LCL262155 LMH262155 LWD262155 MFZ262155 MPV262155 MZR262155 NJN262155 NTJ262155 ODF262155 ONB262155 OWX262155 PGT262155 PQP262155 QAL262155 QKH262155 QUD262155 RDZ262155 RNV262155 RXR262155 SHN262155 SRJ262155 TBF262155 TLB262155 TUX262155 UET262155 UOP262155 UYL262155 VIH262155 VSD262155 WBZ262155 WLV262155 WVR262155 J327691 JF327691 TB327691 ACX327691 AMT327691 AWP327691 BGL327691 BQH327691 CAD327691 CJZ327691 CTV327691 DDR327691 DNN327691 DXJ327691 EHF327691 ERB327691 FAX327691 FKT327691 FUP327691 GEL327691 GOH327691 GYD327691 HHZ327691 HRV327691 IBR327691 ILN327691 IVJ327691 JFF327691 JPB327691 JYX327691 KIT327691 KSP327691 LCL327691 LMH327691 LWD327691 MFZ327691 MPV327691 MZR327691 NJN327691 NTJ327691 ODF327691 ONB327691 OWX327691 PGT327691 PQP327691 QAL327691 QKH327691 QUD327691 RDZ327691 RNV327691 RXR327691 SHN327691 SRJ327691 TBF327691 TLB327691 TUX327691 UET327691 UOP327691 UYL327691 VIH327691 VSD327691 WBZ327691 WLV327691 WVR327691 J393227 JF393227 TB393227 ACX393227 AMT393227 AWP393227 BGL393227 BQH393227 CAD393227 CJZ393227 CTV393227 DDR393227 DNN393227 DXJ393227 EHF393227 ERB393227 FAX393227 FKT393227 FUP393227 GEL393227 GOH393227 GYD393227 HHZ393227 HRV393227 IBR393227 ILN393227 IVJ393227 JFF393227 JPB393227 JYX393227 KIT393227 KSP393227 LCL393227 LMH393227 LWD393227 MFZ393227 MPV393227 MZR393227 NJN393227 NTJ393227 ODF393227 ONB393227 OWX393227 PGT393227 PQP393227 QAL393227 QKH393227 QUD393227 RDZ393227 RNV393227 RXR393227 SHN393227 SRJ393227 TBF393227 TLB393227 TUX393227 UET393227 UOP393227 UYL393227 VIH393227 VSD393227 WBZ393227 WLV393227 WVR393227 J458763 JF458763 TB458763 ACX458763 AMT458763 AWP458763 BGL458763 BQH458763 CAD458763 CJZ458763 CTV458763 DDR458763 DNN458763 DXJ458763 EHF458763 ERB458763 FAX458763 FKT458763 FUP458763 GEL458763 GOH458763 GYD458763 HHZ458763 HRV458763 IBR458763 ILN458763 IVJ458763 JFF458763 JPB458763 JYX458763 KIT458763 KSP458763 LCL458763 LMH458763 LWD458763 MFZ458763 MPV458763 MZR458763 NJN458763 NTJ458763 ODF458763 ONB458763 OWX458763 PGT458763 PQP458763 QAL458763 QKH458763 QUD458763 RDZ458763 RNV458763 RXR458763 SHN458763 SRJ458763 TBF458763 TLB458763 TUX458763 UET458763 UOP458763 UYL458763 VIH458763 VSD458763 WBZ458763 WLV458763 WVR458763 J524299 JF524299 TB524299 ACX524299 AMT524299 AWP524299 BGL524299 BQH524299 CAD524299 CJZ524299 CTV524299 DDR524299 DNN524299 DXJ524299 EHF524299 ERB524299 FAX524299 FKT524299 FUP524299 GEL524299 GOH524299 GYD524299 HHZ524299 HRV524299 IBR524299 ILN524299 IVJ524299 JFF524299 JPB524299 JYX524299 KIT524299 KSP524299 LCL524299 LMH524299 LWD524299 MFZ524299 MPV524299 MZR524299 NJN524299 NTJ524299 ODF524299 ONB524299 OWX524299 PGT524299 PQP524299 QAL524299 QKH524299 QUD524299 RDZ524299 RNV524299 RXR524299 SHN524299 SRJ524299 TBF524299 TLB524299 TUX524299 UET524299 UOP524299 UYL524299 VIH524299 VSD524299 WBZ524299 WLV524299 WVR524299 J589835 JF589835 TB589835 ACX589835 AMT589835 AWP589835 BGL589835 BQH589835 CAD589835 CJZ589835 CTV589835 DDR589835 DNN589835 DXJ589835 EHF589835 ERB589835 FAX589835 FKT589835 FUP589835 GEL589835 GOH589835 GYD589835 HHZ589835 HRV589835 IBR589835 ILN589835 IVJ589835 JFF589835 JPB589835 JYX589835 KIT589835 KSP589835 LCL589835 LMH589835 LWD589835 MFZ589835 MPV589835 MZR589835 NJN589835 NTJ589835 ODF589835 ONB589835 OWX589835 PGT589835 PQP589835 QAL589835 QKH589835 QUD589835 RDZ589835 RNV589835 RXR589835 SHN589835 SRJ589835 TBF589835 TLB589835 TUX589835 UET589835 UOP589835 UYL589835 VIH589835 VSD589835 WBZ589835 WLV589835 WVR589835 J655371 JF655371 TB655371 ACX655371 AMT655371 AWP655371 BGL655371 BQH655371 CAD655371 CJZ655371 CTV655371 DDR655371 DNN655371 DXJ655371 EHF655371 ERB655371 FAX655371 FKT655371 FUP655371 GEL655371 GOH655371 GYD655371 HHZ655371 HRV655371 IBR655371 ILN655371 IVJ655371 JFF655371 JPB655371 JYX655371 KIT655371 KSP655371 LCL655371 LMH655371 LWD655371 MFZ655371 MPV655371 MZR655371 NJN655371 NTJ655371 ODF655371 ONB655371 OWX655371 PGT655371 PQP655371 QAL655371 QKH655371 QUD655371 RDZ655371 RNV655371 RXR655371 SHN655371 SRJ655371 TBF655371 TLB655371 TUX655371 UET655371 UOP655371 UYL655371 VIH655371 VSD655371 WBZ655371 WLV655371 WVR655371 J720907 JF720907 TB720907 ACX720907 AMT720907 AWP720907 BGL720907 BQH720907 CAD720907 CJZ720907 CTV720907 DDR720907 DNN720907 DXJ720907 EHF720907 ERB720907 FAX720907 FKT720907 FUP720907 GEL720907 GOH720907 GYD720907 HHZ720907 HRV720907 IBR720907 ILN720907 IVJ720907 JFF720907 JPB720907 JYX720907 KIT720907 KSP720907 LCL720907 LMH720907 LWD720907 MFZ720907 MPV720907 MZR720907 NJN720907 NTJ720907 ODF720907 ONB720907 OWX720907 PGT720907 PQP720907 QAL720907 QKH720907 QUD720907 RDZ720907 RNV720907 RXR720907 SHN720907 SRJ720907 TBF720907 TLB720907 TUX720907 UET720907 UOP720907 UYL720907 VIH720907 VSD720907 WBZ720907 WLV720907 WVR720907 J786443 JF786443 TB786443 ACX786443 AMT786443 AWP786443 BGL786443 BQH786443 CAD786443 CJZ786443 CTV786443 DDR786443 DNN786443 DXJ786443 EHF786443 ERB786443 FAX786443 FKT786443 FUP786443 GEL786443 GOH786443 GYD786443 HHZ786443 HRV786443 IBR786443 ILN786443 IVJ786443 JFF786443 JPB786443 JYX786443 KIT786443 KSP786443 LCL786443 LMH786443 LWD786443 MFZ786443 MPV786443 MZR786443 NJN786443 NTJ786443 ODF786443 ONB786443 OWX786443 PGT786443 PQP786443 QAL786443 QKH786443 QUD786443 RDZ786443 RNV786443 RXR786443 SHN786443 SRJ786443 TBF786443 TLB786443 TUX786443 UET786443 UOP786443 UYL786443 VIH786443 VSD786443 WBZ786443 WLV786443 WVR786443 J851979 JF851979 TB851979 ACX851979 AMT851979 AWP851979 BGL851979 BQH851979 CAD851979 CJZ851979 CTV851979 DDR851979 DNN851979 DXJ851979 EHF851979 ERB851979 FAX851979 FKT851979 FUP851979 GEL851979 GOH851979 GYD851979 HHZ851979 HRV851979 IBR851979 ILN851979 IVJ851979 JFF851979 JPB851979 JYX851979 KIT851979 KSP851979 LCL851979 LMH851979 LWD851979 MFZ851979 MPV851979 MZR851979 NJN851979 NTJ851979 ODF851979 ONB851979 OWX851979 PGT851979 PQP851979 QAL851979 QKH851979 QUD851979 RDZ851979 RNV851979 RXR851979 SHN851979 SRJ851979 TBF851979 TLB851979 TUX851979 UET851979 UOP851979 UYL851979 VIH851979 VSD851979 WBZ851979 WLV851979 WVR851979 J917515 JF917515 TB917515 ACX917515 AMT917515 AWP917515 BGL917515 BQH917515 CAD917515 CJZ917515 CTV917515 DDR917515 DNN917515 DXJ917515 EHF917515 ERB917515 FAX917515 FKT917515 FUP917515 GEL917515 GOH917515 GYD917515 HHZ917515 HRV917515 IBR917515 ILN917515 IVJ917515 JFF917515 JPB917515 JYX917515 KIT917515 KSP917515 LCL917515 LMH917515 LWD917515 MFZ917515 MPV917515 MZR917515 NJN917515 NTJ917515 ODF917515 ONB917515 OWX917515 PGT917515 PQP917515 QAL917515 QKH917515 QUD917515 RDZ917515 RNV917515 RXR917515 SHN917515 SRJ917515 TBF917515 TLB917515 TUX917515 UET917515 UOP917515 UYL917515 VIH917515 VSD917515 WBZ917515 WLV917515 WVR917515 J983051 JF983051 TB983051 ACX983051 AMT983051 AWP983051 BGL983051 BQH983051 CAD983051 CJZ983051 CTV983051 DDR983051 DNN983051 DXJ983051 EHF983051 ERB983051 FAX983051 FKT983051 FUP983051 GEL983051 GOH983051 GYD983051 HHZ983051 HRV983051 IBR983051 ILN983051 IVJ983051 JFF983051 JPB983051 JYX983051 KIT983051 KSP983051 LCL983051 LMH983051 LWD983051 MFZ983051 MPV983051 MZR983051 NJN983051 NTJ983051 ODF983051 ONB983051 OWX983051 PGT983051 PQP983051 QAL983051 QKH983051 QUD983051 RDZ983051 RNV983051 RXR983051 SHN983051 SRJ983051 TBF983051 TLB983051 TUX983051 UET983051 UOP983051 UYL983051 VIH983051 VSD983051 WBZ983051 WLV983051 WVR983051">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8 JF8 TB8 ACX8 AMT8 AWP8 BGL8 BQH8 CAD8 CJZ8 CTV8 DDR8 DNN8 DXJ8 EHF8 ERB8 FAX8 FKT8 FUP8 GEL8 GOH8 GYD8 HHZ8 HRV8 IBR8 ILN8 IVJ8 JFF8 JPB8 JYX8 KIT8 KSP8 LCL8 LMH8 LWD8 MFZ8 MPV8 MZR8 NJN8 NTJ8 ODF8 ONB8 OWX8 PGT8 PQP8 QAL8 QKH8 QUD8 RDZ8 RNV8 RXR8 SHN8 SRJ8 TBF8 TLB8 TUX8 UET8 UOP8 UYL8 VIH8 VSD8 WBZ8 WLV8 WVR8 J65544 JF65544 TB65544 ACX65544 AMT65544 AWP65544 BGL65544 BQH65544 CAD65544 CJZ65544 CTV65544 DDR65544 DNN65544 DXJ65544 EHF65544 ERB65544 FAX65544 FKT65544 FUP65544 GEL65544 GOH65544 GYD65544 HHZ65544 HRV65544 IBR65544 ILN65544 IVJ65544 JFF65544 JPB65544 JYX65544 KIT65544 KSP65544 LCL65544 LMH65544 LWD65544 MFZ65544 MPV65544 MZR65544 NJN65544 NTJ65544 ODF65544 ONB65544 OWX65544 PGT65544 PQP65544 QAL65544 QKH65544 QUD65544 RDZ65544 RNV65544 RXR65544 SHN65544 SRJ65544 TBF65544 TLB65544 TUX65544 UET65544 UOP65544 UYL65544 VIH65544 VSD65544 WBZ65544 WLV65544 WVR65544 J131080 JF131080 TB131080 ACX131080 AMT131080 AWP131080 BGL131080 BQH131080 CAD131080 CJZ131080 CTV131080 DDR131080 DNN131080 DXJ131080 EHF131080 ERB131080 FAX131080 FKT131080 FUP131080 GEL131080 GOH131080 GYD131080 HHZ131080 HRV131080 IBR131080 ILN131080 IVJ131080 JFF131080 JPB131080 JYX131080 KIT131080 KSP131080 LCL131080 LMH131080 LWD131080 MFZ131080 MPV131080 MZR131080 NJN131080 NTJ131080 ODF131080 ONB131080 OWX131080 PGT131080 PQP131080 QAL131080 QKH131080 QUD131080 RDZ131080 RNV131080 RXR131080 SHN131080 SRJ131080 TBF131080 TLB131080 TUX131080 UET131080 UOP131080 UYL131080 VIH131080 VSD131080 WBZ131080 WLV131080 WVR131080 J196616 JF196616 TB196616 ACX196616 AMT196616 AWP196616 BGL196616 BQH196616 CAD196616 CJZ196616 CTV196616 DDR196616 DNN196616 DXJ196616 EHF196616 ERB196616 FAX196616 FKT196616 FUP196616 GEL196616 GOH196616 GYD196616 HHZ196616 HRV196616 IBR196616 ILN196616 IVJ196616 JFF196616 JPB196616 JYX196616 KIT196616 KSP196616 LCL196616 LMH196616 LWD196616 MFZ196616 MPV196616 MZR196616 NJN196616 NTJ196616 ODF196616 ONB196616 OWX196616 PGT196616 PQP196616 QAL196616 QKH196616 QUD196616 RDZ196616 RNV196616 RXR196616 SHN196616 SRJ196616 TBF196616 TLB196616 TUX196616 UET196616 UOP196616 UYL196616 VIH196616 VSD196616 WBZ196616 WLV196616 WVR196616 J262152 JF262152 TB262152 ACX262152 AMT262152 AWP262152 BGL262152 BQH262152 CAD262152 CJZ262152 CTV262152 DDR262152 DNN262152 DXJ262152 EHF262152 ERB262152 FAX262152 FKT262152 FUP262152 GEL262152 GOH262152 GYD262152 HHZ262152 HRV262152 IBR262152 ILN262152 IVJ262152 JFF262152 JPB262152 JYX262152 KIT262152 KSP262152 LCL262152 LMH262152 LWD262152 MFZ262152 MPV262152 MZR262152 NJN262152 NTJ262152 ODF262152 ONB262152 OWX262152 PGT262152 PQP262152 QAL262152 QKH262152 QUD262152 RDZ262152 RNV262152 RXR262152 SHN262152 SRJ262152 TBF262152 TLB262152 TUX262152 UET262152 UOP262152 UYL262152 VIH262152 VSD262152 WBZ262152 WLV262152 WVR262152 J327688 JF327688 TB327688 ACX327688 AMT327688 AWP327688 BGL327688 BQH327688 CAD327688 CJZ327688 CTV327688 DDR327688 DNN327688 DXJ327688 EHF327688 ERB327688 FAX327688 FKT327688 FUP327688 GEL327688 GOH327688 GYD327688 HHZ327688 HRV327688 IBR327688 ILN327688 IVJ327688 JFF327688 JPB327688 JYX327688 KIT327688 KSP327688 LCL327688 LMH327688 LWD327688 MFZ327688 MPV327688 MZR327688 NJN327688 NTJ327688 ODF327688 ONB327688 OWX327688 PGT327688 PQP327688 QAL327688 QKH327688 QUD327688 RDZ327688 RNV327688 RXR327688 SHN327688 SRJ327688 TBF327688 TLB327688 TUX327688 UET327688 UOP327688 UYL327688 VIH327688 VSD327688 WBZ327688 WLV327688 WVR327688 J393224 JF393224 TB393224 ACX393224 AMT393224 AWP393224 BGL393224 BQH393224 CAD393224 CJZ393224 CTV393224 DDR393224 DNN393224 DXJ393224 EHF393224 ERB393224 FAX393224 FKT393224 FUP393224 GEL393224 GOH393224 GYD393224 HHZ393224 HRV393224 IBR393224 ILN393224 IVJ393224 JFF393224 JPB393224 JYX393224 KIT393224 KSP393224 LCL393224 LMH393224 LWD393224 MFZ393224 MPV393224 MZR393224 NJN393224 NTJ393224 ODF393224 ONB393224 OWX393224 PGT393224 PQP393224 QAL393224 QKH393224 QUD393224 RDZ393224 RNV393224 RXR393224 SHN393224 SRJ393224 TBF393224 TLB393224 TUX393224 UET393224 UOP393224 UYL393224 VIH393224 VSD393224 WBZ393224 WLV393224 WVR393224 J458760 JF458760 TB458760 ACX458760 AMT458760 AWP458760 BGL458760 BQH458760 CAD458760 CJZ458760 CTV458760 DDR458760 DNN458760 DXJ458760 EHF458760 ERB458760 FAX458760 FKT458760 FUP458760 GEL458760 GOH458760 GYD458760 HHZ458760 HRV458760 IBR458760 ILN458760 IVJ458760 JFF458760 JPB458760 JYX458760 KIT458760 KSP458760 LCL458760 LMH458760 LWD458760 MFZ458760 MPV458760 MZR458760 NJN458760 NTJ458760 ODF458760 ONB458760 OWX458760 PGT458760 PQP458760 QAL458760 QKH458760 QUD458760 RDZ458760 RNV458760 RXR458760 SHN458760 SRJ458760 TBF458760 TLB458760 TUX458760 UET458760 UOP458760 UYL458760 VIH458760 VSD458760 WBZ458760 WLV458760 WVR458760 J524296 JF524296 TB524296 ACX524296 AMT524296 AWP524296 BGL524296 BQH524296 CAD524296 CJZ524296 CTV524296 DDR524296 DNN524296 DXJ524296 EHF524296 ERB524296 FAX524296 FKT524296 FUP524296 GEL524296 GOH524296 GYD524296 HHZ524296 HRV524296 IBR524296 ILN524296 IVJ524296 JFF524296 JPB524296 JYX524296 KIT524296 KSP524296 LCL524296 LMH524296 LWD524296 MFZ524296 MPV524296 MZR524296 NJN524296 NTJ524296 ODF524296 ONB524296 OWX524296 PGT524296 PQP524296 QAL524296 QKH524296 QUD524296 RDZ524296 RNV524296 RXR524296 SHN524296 SRJ524296 TBF524296 TLB524296 TUX524296 UET524296 UOP524296 UYL524296 VIH524296 VSD524296 WBZ524296 WLV524296 WVR524296 J589832 JF589832 TB589832 ACX589832 AMT589832 AWP589832 BGL589832 BQH589832 CAD589832 CJZ589832 CTV589832 DDR589832 DNN589832 DXJ589832 EHF589832 ERB589832 FAX589832 FKT589832 FUP589832 GEL589832 GOH589832 GYD589832 HHZ589832 HRV589832 IBR589832 ILN589832 IVJ589832 JFF589832 JPB589832 JYX589832 KIT589832 KSP589832 LCL589832 LMH589832 LWD589832 MFZ589832 MPV589832 MZR589832 NJN589832 NTJ589832 ODF589832 ONB589832 OWX589832 PGT589832 PQP589832 QAL589832 QKH589832 QUD589832 RDZ589832 RNV589832 RXR589832 SHN589832 SRJ589832 TBF589832 TLB589832 TUX589832 UET589832 UOP589832 UYL589832 VIH589832 VSD589832 WBZ589832 WLV589832 WVR589832 J655368 JF655368 TB655368 ACX655368 AMT655368 AWP655368 BGL655368 BQH655368 CAD655368 CJZ655368 CTV655368 DDR655368 DNN655368 DXJ655368 EHF655368 ERB655368 FAX655368 FKT655368 FUP655368 GEL655368 GOH655368 GYD655368 HHZ655368 HRV655368 IBR655368 ILN655368 IVJ655368 JFF655368 JPB655368 JYX655368 KIT655368 KSP655368 LCL655368 LMH655368 LWD655368 MFZ655368 MPV655368 MZR655368 NJN655368 NTJ655368 ODF655368 ONB655368 OWX655368 PGT655368 PQP655368 QAL655368 QKH655368 QUD655368 RDZ655368 RNV655368 RXR655368 SHN655368 SRJ655368 TBF655368 TLB655368 TUX655368 UET655368 UOP655368 UYL655368 VIH655368 VSD655368 WBZ655368 WLV655368 WVR655368 J720904 JF720904 TB720904 ACX720904 AMT720904 AWP720904 BGL720904 BQH720904 CAD720904 CJZ720904 CTV720904 DDR720904 DNN720904 DXJ720904 EHF720904 ERB720904 FAX720904 FKT720904 FUP720904 GEL720904 GOH720904 GYD720904 HHZ720904 HRV720904 IBR720904 ILN720904 IVJ720904 JFF720904 JPB720904 JYX720904 KIT720904 KSP720904 LCL720904 LMH720904 LWD720904 MFZ720904 MPV720904 MZR720904 NJN720904 NTJ720904 ODF720904 ONB720904 OWX720904 PGT720904 PQP720904 QAL720904 QKH720904 QUD720904 RDZ720904 RNV720904 RXR720904 SHN720904 SRJ720904 TBF720904 TLB720904 TUX720904 UET720904 UOP720904 UYL720904 VIH720904 VSD720904 WBZ720904 WLV720904 WVR720904 J786440 JF786440 TB786440 ACX786440 AMT786440 AWP786440 BGL786440 BQH786440 CAD786440 CJZ786440 CTV786440 DDR786440 DNN786440 DXJ786440 EHF786440 ERB786440 FAX786440 FKT786440 FUP786440 GEL786440 GOH786440 GYD786440 HHZ786440 HRV786440 IBR786440 ILN786440 IVJ786440 JFF786440 JPB786440 JYX786440 KIT786440 KSP786440 LCL786440 LMH786440 LWD786440 MFZ786440 MPV786440 MZR786440 NJN786440 NTJ786440 ODF786440 ONB786440 OWX786440 PGT786440 PQP786440 QAL786440 QKH786440 QUD786440 RDZ786440 RNV786440 RXR786440 SHN786440 SRJ786440 TBF786440 TLB786440 TUX786440 UET786440 UOP786440 UYL786440 VIH786440 VSD786440 WBZ786440 WLV786440 WVR786440 J851976 JF851976 TB851976 ACX851976 AMT851976 AWP851976 BGL851976 BQH851976 CAD851976 CJZ851976 CTV851976 DDR851976 DNN851976 DXJ851976 EHF851976 ERB851976 FAX851976 FKT851976 FUP851976 GEL851976 GOH851976 GYD851976 HHZ851976 HRV851976 IBR851976 ILN851976 IVJ851976 JFF851976 JPB851976 JYX851976 KIT851976 KSP851976 LCL851976 LMH851976 LWD851976 MFZ851976 MPV851976 MZR851976 NJN851976 NTJ851976 ODF851976 ONB851976 OWX851976 PGT851976 PQP851976 QAL851976 QKH851976 QUD851976 RDZ851976 RNV851976 RXR851976 SHN851976 SRJ851976 TBF851976 TLB851976 TUX851976 UET851976 UOP851976 UYL851976 VIH851976 VSD851976 WBZ851976 WLV851976 WVR851976 J917512 JF917512 TB917512 ACX917512 AMT917512 AWP917512 BGL917512 BQH917512 CAD917512 CJZ917512 CTV917512 DDR917512 DNN917512 DXJ917512 EHF917512 ERB917512 FAX917512 FKT917512 FUP917512 GEL917512 GOH917512 GYD917512 HHZ917512 HRV917512 IBR917512 ILN917512 IVJ917512 JFF917512 JPB917512 JYX917512 KIT917512 KSP917512 LCL917512 LMH917512 LWD917512 MFZ917512 MPV917512 MZR917512 NJN917512 NTJ917512 ODF917512 ONB917512 OWX917512 PGT917512 PQP917512 QAL917512 QKH917512 QUD917512 RDZ917512 RNV917512 RXR917512 SHN917512 SRJ917512 TBF917512 TLB917512 TUX917512 UET917512 UOP917512 UYL917512 VIH917512 VSD917512 WBZ917512 WLV917512 WVR917512 J983048 JF983048 TB983048 ACX983048 AMT983048 AWP983048 BGL983048 BQH983048 CAD983048 CJZ983048 CTV983048 DDR983048 DNN983048 DXJ983048 EHF983048 ERB983048 FAX983048 FKT983048 FUP983048 GEL983048 GOH983048 GYD983048 HHZ983048 HRV983048 IBR983048 ILN983048 IVJ983048 JFF983048 JPB983048 JYX983048 KIT983048 KSP983048 LCL983048 LMH983048 LWD983048 MFZ983048 MPV983048 MZR983048 NJN983048 NTJ983048 ODF983048 ONB983048 OWX983048 PGT983048 PQP983048 QAL983048 QKH983048 QUD983048 RDZ983048 RNV983048 RXR983048 SHN983048 SRJ983048 TBF983048 TLB983048 TUX983048 UET983048 UOP983048 UYL983048 VIH983048 VSD983048 WBZ983048 WLV983048 WVR983048 J15 JF15 TB15 ACX15 AMT15 AWP15 BGL15 BQH15 CAD15 CJZ15 CTV15 DDR15 DNN15 DXJ15 EHF15 ERB15 FAX15 FKT15 FUP15 GEL15 GOH15 GYD15 HHZ15 HRV15 IBR15 ILN15 IVJ15 JFF15 JPB15 JYX15 KIT15 KSP15 LCL15 LMH15 LWD15 MFZ15 MPV15 MZR15 NJN15 NTJ15 ODF15 ONB15 OWX15 PGT15 PQP15 QAL15 QKH15 QUD15 RDZ15 RNV15 RXR15 SHN15 SRJ15 TBF15 TLB15 TUX15 UET15 UOP15 UYL15 VIH15 VSD15 WBZ15 WLV15 WVR15 J65551 JF65551 TB65551 ACX65551 AMT65551 AWP65551 BGL65551 BQH65551 CAD65551 CJZ65551 CTV65551 DDR65551 DNN65551 DXJ65551 EHF65551 ERB65551 FAX65551 FKT65551 FUP65551 GEL65551 GOH65551 GYD65551 HHZ65551 HRV65551 IBR65551 ILN65551 IVJ65551 JFF65551 JPB65551 JYX65551 KIT65551 KSP65551 LCL65551 LMH65551 LWD65551 MFZ65551 MPV65551 MZR65551 NJN65551 NTJ65551 ODF65551 ONB65551 OWX65551 PGT65551 PQP65551 QAL65551 QKH65551 QUD65551 RDZ65551 RNV65551 RXR65551 SHN65551 SRJ65551 TBF65551 TLB65551 TUX65551 UET65551 UOP65551 UYL65551 VIH65551 VSD65551 WBZ65551 WLV65551 WVR65551 J131087 JF131087 TB131087 ACX131087 AMT131087 AWP131087 BGL131087 BQH131087 CAD131087 CJZ131087 CTV131087 DDR131087 DNN131087 DXJ131087 EHF131087 ERB131087 FAX131087 FKT131087 FUP131087 GEL131087 GOH131087 GYD131087 HHZ131087 HRV131087 IBR131087 ILN131087 IVJ131087 JFF131087 JPB131087 JYX131087 KIT131087 KSP131087 LCL131087 LMH131087 LWD131087 MFZ131087 MPV131087 MZR131087 NJN131087 NTJ131087 ODF131087 ONB131087 OWX131087 PGT131087 PQP131087 QAL131087 QKH131087 QUD131087 RDZ131087 RNV131087 RXR131087 SHN131087 SRJ131087 TBF131087 TLB131087 TUX131087 UET131087 UOP131087 UYL131087 VIH131087 VSD131087 WBZ131087 WLV131087 WVR131087 J196623 JF196623 TB196623 ACX196623 AMT196623 AWP196623 BGL196623 BQH196623 CAD196623 CJZ196623 CTV196623 DDR196623 DNN196623 DXJ196623 EHF196623 ERB196623 FAX196623 FKT196623 FUP196623 GEL196623 GOH196623 GYD196623 HHZ196623 HRV196623 IBR196623 ILN196623 IVJ196623 JFF196623 JPB196623 JYX196623 KIT196623 KSP196623 LCL196623 LMH196623 LWD196623 MFZ196623 MPV196623 MZR196623 NJN196623 NTJ196623 ODF196623 ONB196623 OWX196623 PGT196623 PQP196623 QAL196623 QKH196623 QUD196623 RDZ196623 RNV196623 RXR196623 SHN196623 SRJ196623 TBF196623 TLB196623 TUX196623 UET196623 UOP196623 UYL196623 VIH196623 VSD196623 WBZ196623 WLV196623 WVR196623 J262159 JF262159 TB262159 ACX262159 AMT262159 AWP262159 BGL262159 BQH262159 CAD262159 CJZ262159 CTV262159 DDR262159 DNN262159 DXJ262159 EHF262159 ERB262159 FAX262159 FKT262159 FUP262159 GEL262159 GOH262159 GYD262159 HHZ262159 HRV262159 IBR262159 ILN262159 IVJ262159 JFF262159 JPB262159 JYX262159 KIT262159 KSP262159 LCL262159 LMH262159 LWD262159 MFZ262159 MPV262159 MZR262159 NJN262159 NTJ262159 ODF262159 ONB262159 OWX262159 PGT262159 PQP262159 QAL262159 QKH262159 QUD262159 RDZ262159 RNV262159 RXR262159 SHN262159 SRJ262159 TBF262159 TLB262159 TUX262159 UET262159 UOP262159 UYL262159 VIH262159 VSD262159 WBZ262159 WLV262159 WVR262159 J327695 JF327695 TB327695 ACX327695 AMT327695 AWP327695 BGL327695 BQH327695 CAD327695 CJZ327695 CTV327695 DDR327695 DNN327695 DXJ327695 EHF327695 ERB327695 FAX327695 FKT327695 FUP327695 GEL327695 GOH327695 GYD327695 HHZ327695 HRV327695 IBR327695 ILN327695 IVJ327695 JFF327695 JPB327695 JYX327695 KIT327695 KSP327695 LCL327695 LMH327695 LWD327695 MFZ327695 MPV327695 MZR327695 NJN327695 NTJ327695 ODF327695 ONB327695 OWX327695 PGT327695 PQP327695 QAL327695 QKH327695 QUD327695 RDZ327695 RNV327695 RXR327695 SHN327695 SRJ327695 TBF327695 TLB327695 TUX327695 UET327695 UOP327695 UYL327695 VIH327695 VSD327695 WBZ327695 WLV327695 WVR327695 J393231 JF393231 TB393231 ACX393231 AMT393231 AWP393231 BGL393231 BQH393231 CAD393231 CJZ393231 CTV393231 DDR393231 DNN393231 DXJ393231 EHF393231 ERB393231 FAX393231 FKT393231 FUP393231 GEL393231 GOH393231 GYD393231 HHZ393231 HRV393231 IBR393231 ILN393231 IVJ393231 JFF393231 JPB393231 JYX393231 KIT393231 KSP393231 LCL393231 LMH393231 LWD393231 MFZ393231 MPV393231 MZR393231 NJN393231 NTJ393231 ODF393231 ONB393231 OWX393231 PGT393231 PQP393231 QAL393231 QKH393231 QUD393231 RDZ393231 RNV393231 RXR393231 SHN393231 SRJ393231 TBF393231 TLB393231 TUX393231 UET393231 UOP393231 UYL393231 VIH393231 VSD393231 WBZ393231 WLV393231 WVR393231 J458767 JF458767 TB458767 ACX458767 AMT458767 AWP458767 BGL458767 BQH458767 CAD458767 CJZ458767 CTV458767 DDR458767 DNN458767 DXJ458767 EHF458767 ERB458767 FAX458767 FKT458767 FUP458767 GEL458767 GOH458767 GYD458767 HHZ458767 HRV458767 IBR458767 ILN458767 IVJ458767 JFF458767 JPB458767 JYX458767 KIT458767 KSP458767 LCL458767 LMH458767 LWD458767 MFZ458767 MPV458767 MZR458767 NJN458767 NTJ458767 ODF458767 ONB458767 OWX458767 PGT458767 PQP458767 QAL458767 QKH458767 QUD458767 RDZ458767 RNV458767 RXR458767 SHN458767 SRJ458767 TBF458767 TLB458767 TUX458767 UET458767 UOP458767 UYL458767 VIH458767 VSD458767 WBZ458767 WLV458767 WVR458767 J524303 JF524303 TB524303 ACX524303 AMT524303 AWP524303 BGL524303 BQH524303 CAD524303 CJZ524303 CTV524303 DDR524303 DNN524303 DXJ524303 EHF524303 ERB524303 FAX524303 FKT524303 FUP524303 GEL524303 GOH524303 GYD524303 HHZ524303 HRV524303 IBR524303 ILN524303 IVJ524303 JFF524303 JPB524303 JYX524303 KIT524303 KSP524303 LCL524303 LMH524303 LWD524303 MFZ524303 MPV524303 MZR524303 NJN524303 NTJ524303 ODF524303 ONB524303 OWX524303 PGT524303 PQP524303 QAL524303 QKH524303 QUD524303 RDZ524303 RNV524303 RXR524303 SHN524303 SRJ524303 TBF524303 TLB524303 TUX524303 UET524303 UOP524303 UYL524303 VIH524303 VSD524303 WBZ524303 WLV524303 WVR524303 J589839 JF589839 TB589839 ACX589839 AMT589839 AWP589839 BGL589839 BQH589839 CAD589839 CJZ589839 CTV589839 DDR589839 DNN589839 DXJ589839 EHF589839 ERB589839 FAX589839 FKT589839 FUP589839 GEL589839 GOH589839 GYD589839 HHZ589839 HRV589839 IBR589839 ILN589839 IVJ589839 JFF589839 JPB589839 JYX589839 KIT589839 KSP589839 LCL589839 LMH589839 LWD589839 MFZ589839 MPV589839 MZR589839 NJN589839 NTJ589839 ODF589839 ONB589839 OWX589839 PGT589839 PQP589839 QAL589839 QKH589839 QUD589839 RDZ589839 RNV589839 RXR589839 SHN589839 SRJ589839 TBF589839 TLB589839 TUX589839 UET589839 UOP589839 UYL589839 VIH589839 VSD589839 WBZ589839 WLV589839 WVR589839 J655375 JF655375 TB655375 ACX655375 AMT655375 AWP655375 BGL655375 BQH655375 CAD655375 CJZ655375 CTV655375 DDR655375 DNN655375 DXJ655375 EHF655375 ERB655375 FAX655375 FKT655375 FUP655375 GEL655375 GOH655375 GYD655375 HHZ655375 HRV655375 IBR655375 ILN655375 IVJ655375 JFF655375 JPB655375 JYX655375 KIT655375 KSP655375 LCL655375 LMH655375 LWD655375 MFZ655375 MPV655375 MZR655375 NJN655375 NTJ655375 ODF655375 ONB655375 OWX655375 PGT655375 PQP655375 QAL655375 QKH655375 QUD655375 RDZ655375 RNV655375 RXR655375 SHN655375 SRJ655375 TBF655375 TLB655375 TUX655375 UET655375 UOP655375 UYL655375 VIH655375 VSD655375 WBZ655375 WLV655375 WVR655375 J720911 JF720911 TB720911 ACX720911 AMT720911 AWP720911 BGL720911 BQH720911 CAD720911 CJZ720911 CTV720911 DDR720911 DNN720911 DXJ720911 EHF720911 ERB720911 FAX720911 FKT720911 FUP720911 GEL720911 GOH720911 GYD720911 HHZ720911 HRV720911 IBR720911 ILN720911 IVJ720911 JFF720911 JPB720911 JYX720911 KIT720911 KSP720911 LCL720911 LMH720911 LWD720911 MFZ720911 MPV720911 MZR720911 NJN720911 NTJ720911 ODF720911 ONB720911 OWX720911 PGT720911 PQP720911 QAL720911 QKH720911 QUD720911 RDZ720911 RNV720911 RXR720911 SHN720911 SRJ720911 TBF720911 TLB720911 TUX720911 UET720911 UOP720911 UYL720911 VIH720911 VSD720911 WBZ720911 WLV720911 WVR720911 J786447 JF786447 TB786447 ACX786447 AMT786447 AWP786447 BGL786447 BQH786447 CAD786447 CJZ786447 CTV786447 DDR786447 DNN786447 DXJ786447 EHF786447 ERB786447 FAX786447 FKT786447 FUP786447 GEL786447 GOH786447 GYD786447 HHZ786447 HRV786447 IBR786447 ILN786447 IVJ786447 JFF786447 JPB786447 JYX786447 KIT786447 KSP786447 LCL786447 LMH786447 LWD786447 MFZ786447 MPV786447 MZR786447 NJN786447 NTJ786447 ODF786447 ONB786447 OWX786447 PGT786447 PQP786447 QAL786447 QKH786447 QUD786447 RDZ786447 RNV786447 RXR786447 SHN786447 SRJ786447 TBF786447 TLB786447 TUX786447 UET786447 UOP786447 UYL786447 VIH786447 VSD786447 WBZ786447 WLV786447 WVR786447 J851983 JF851983 TB851983 ACX851983 AMT851983 AWP851983 BGL851983 BQH851983 CAD851983 CJZ851983 CTV851983 DDR851983 DNN851983 DXJ851983 EHF851983 ERB851983 FAX851983 FKT851983 FUP851983 GEL851983 GOH851983 GYD851983 HHZ851983 HRV851983 IBR851983 ILN851983 IVJ851983 JFF851983 JPB851983 JYX851983 KIT851983 KSP851983 LCL851983 LMH851983 LWD851983 MFZ851983 MPV851983 MZR851983 NJN851983 NTJ851983 ODF851983 ONB851983 OWX851983 PGT851983 PQP851983 QAL851983 QKH851983 QUD851983 RDZ851983 RNV851983 RXR851983 SHN851983 SRJ851983 TBF851983 TLB851983 TUX851983 UET851983 UOP851983 UYL851983 VIH851983 VSD851983 WBZ851983 WLV851983 WVR851983 J917519 JF917519 TB917519 ACX917519 AMT917519 AWP917519 BGL917519 BQH917519 CAD917519 CJZ917519 CTV917519 DDR917519 DNN917519 DXJ917519 EHF917519 ERB917519 FAX917519 FKT917519 FUP917519 GEL917519 GOH917519 GYD917519 HHZ917519 HRV917519 IBR917519 ILN917519 IVJ917519 JFF917519 JPB917519 JYX917519 KIT917519 KSP917519 LCL917519 LMH917519 LWD917519 MFZ917519 MPV917519 MZR917519 NJN917519 NTJ917519 ODF917519 ONB917519 OWX917519 PGT917519 PQP917519 QAL917519 QKH917519 QUD917519 RDZ917519 RNV917519 RXR917519 SHN917519 SRJ917519 TBF917519 TLB917519 TUX917519 UET917519 UOP917519 UYL917519 VIH917519 VSD917519 WBZ917519 WLV917519 WVR917519 J983055 JF983055 TB983055 ACX983055 AMT983055 AWP983055 BGL983055 BQH983055 CAD983055 CJZ983055 CTV983055 DDR983055 DNN983055 DXJ983055 EHF983055 ERB983055 FAX983055 FKT983055 FUP983055 GEL983055 GOH983055 GYD983055 HHZ983055 HRV983055 IBR983055 ILN983055 IVJ983055 JFF983055 JPB983055 JYX983055 KIT983055 KSP983055 LCL983055 LMH983055 LWD983055 MFZ983055 MPV983055 MZR983055 NJN983055 NTJ983055 ODF983055 ONB983055 OWX983055 PGT983055 PQP983055 QAL983055 QKH983055 QUD983055 RDZ983055 RNV983055 RXR983055 SHN983055 SRJ983055 TBF983055 TLB983055 TUX983055 UET983055 UOP983055 UYL983055 VIH983055 VSD983055 WBZ983055 WLV983055 WVR983055 J17:J18 JF17:JF18 TB17:TB18 ACX17:ACX18 AMT17:AMT18 AWP17:AWP18 BGL17:BGL18 BQH17:BQH18 CAD17:CAD18 CJZ17:CJZ18 CTV17:CTV18 DDR17:DDR18 DNN17:DNN18 DXJ17:DXJ18 EHF17:EHF18 ERB17:ERB18 FAX17:FAX18 FKT17:FKT18 FUP17:FUP18 GEL17:GEL18 GOH17:GOH18 GYD17:GYD18 HHZ17:HHZ18 HRV17:HRV18 IBR17:IBR18 ILN17:ILN18 IVJ17:IVJ18 JFF17:JFF18 JPB17:JPB18 JYX17:JYX18 KIT17:KIT18 KSP17:KSP18 LCL17:LCL18 LMH17:LMH18 LWD17:LWD18 MFZ17:MFZ18 MPV17:MPV18 MZR17:MZR18 NJN17:NJN18 NTJ17:NTJ18 ODF17:ODF18 ONB17:ONB18 OWX17:OWX18 PGT17:PGT18 PQP17:PQP18 QAL17:QAL18 QKH17:QKH18 QUD17:QUD18 RDZ17:RDZ18 RNV17:RNV18 RXR17:RXR18 SHN17:SHN18 SRJ17:SRJ18 TBF17:TBF18 TLB17:TLB18 TUX17:TUX18 UET17:UET18 UOP17:UOP18 UYL17:UYL18 VIH17:VIH18 VSD17:VSD18 WBZ17:WBZ18 WLV17:WLV18 WVR17:WVR18 J65553:J65554 JF65553:JF65554 TB65553:TB65554 ACX65553:ACX65554 AMT65553:AMT65554 AWP65553:AWP65554 BGL65553:BGL65554 BQH65553:BQH65554 CAD65553:CAD65554 CJZ65553:CJZ65554 CTV65553:CTV65554 DDR65553:DDR65554 DNN65553:DNN65554 DXJ65553:DXJ65554 EHF65553:EHF65554 ERB65553:ERB65554 FAX65553:FAX65554 FKT65553:FKT65554 FUP65553:FUP65554 GEL65553:GEL65554 GOH65553:GOH65554 GYD65553:GYD65554 HHZ65553:HHZ65554 HRV65553:HRV65554 IBR65553:IBR65554 ILN65553:ILN65554 IVJ65553:IVJ65554 JFF65553:JFF65554 JPB65553:JPB65554 JYX65553:JYX65554 KIT65553:KIT65554 KSP65553:KSP65554 LCL65553:LCL65554 LMH65553:LMH65554 LWD65553:LWD65554 MFZ65553:MFZ65554 MPV65553:MPV65554 MZR65553:MZR65554 NJN65553:NJN65554 NTJ65553:NTJ65554 ODF65553:ODF65554 ONB65553:ONB65554 OWX65553:OWX65554 PGT65553:PGT65554 PQP65553:PQP65554 QAL65553:QAL65554 QKH65553:QKH65554 QUD65553:QUD65554 RDZ65553:RDZ65554 RNV65553:RNV65554 RXR65553:RXR65554 SHN65553:SHN65554 SRJ65553:SRJ65554 TBF65553:TBF65554 TLB65553:TLB65554 TUX65553:TUX65554 UET65553:UET65554 UOP65553:UOP65554 UYL65553:UYL65554 VIH65553:VIH65554 VSD65553:VSD65554 WBZ65553:WBZ65554 WLV65553:WLV65554 WVR65553:WVR65554 J131089:J131090 JF131089:JF131090 TB131089:TB131090 ACX131089:ACX131090 AMT131089:AMT131090 AWP131089:AWP131090 BGL131089:BGL131090 BQH131089:BQH131090 CAD131089:CAD131090 CJZ131089:CJZ131090 CTV131089:CTV131090 DDR131089:DDR131090 DNN131089:DNN131090 DXJ131089:DXJ131090 EHF131089:EHF131090 ERB131089:ERB131090 FAX131089:FAX131090 FKT131089:FKT131090 FUP131089:FUP131090 GEL131089:GEL131090 GOH131089:GOH131090 GYD131089:GYD131090 HHZ131089:HHZ131090 HRV131089:HRV131090 IBR131089:IBR131090 ILN131089:ILN131090 IVJ131089:IVJ131090 JFF131089:JFF131090 JPB131089:JPB131090 JYX131089:JYX131090 KIT131089:KIT131090 KSP131089:KSP131090 LCL131089:LCL131090 LMH131089:LMH131090 LWD131089:LWD131090 MFZ131089:MFZ131090 MPV131089:MPV131090 MZR131089:MZR131090 NJN131089:NJN131090 NTJ131089:NTJ131090 ODF131089:ODF131090 ONB131089:ONB131090 OWX131089:OWX131090 PGT131089:PGT131090 PQP131089:PQP131090 QAL131089:QAL131090 QKH131089:QKH131090 QUD131089:QUD131090 RDZ131089:RDZ131090 RNV131089:RNV131090 RXR131089:RXR131090 SHN131089:SHN131090 SRJ131089:SRJ131090 TBF131089:TBF131090 TLB131089:TLB131090 TUX131089:TUX131090 UET131089:UET131090 UOP131089:UOP131090 UYL131089:UYL131090 VIH131089:VIH131090 VSD131089:VSD131090 WBZ131089:WBZ131090 WLV131089:WLV131090 WVR131089:WVR131090 J196625:J196626 JF196625:JF196626 TB196625:TB196626 ACX196625:ACX196626 AMT196625:AMT196626 AWP196625:AWP196626 BGL196625:BGL196626 BQH196625:BQH196626 CAD196625:CAD196626 CJZ196625:CJZ196626 CTV196625:CTV196626 DDR196625:DDR196626 DNN196625:DNN196626 DXJ196625:DXJ196626 EHF196625:EHF196626 ERB196625:ERB196626 FAX196625:FAX196626 FKT196625:FKT196626 FUP196625:FUP196626 GEL196625:GEL196626 GOH196625:GOH196626 GYD196625:GYD196626 HHZ196625:HHZ196626 HRV196625:HRV196626 IBR196625:IBR196626 ILN196625:ILN196626 IVJ196625:IVJ196626 JFF196625:JFF196626 JPB196625:JPB196626 JYX196625:JYX196626 KIT196625:KIT196626 KSP196625:KSP196626 LCL196625:LCL196626 LMH196625:LMH196626 LWD196625:LWD196626 MFZ196625:MFZ196626 MPV196625:MPV196626 MZR196625:MZR196626 NJN196625:NJN196626 NTJ196625:NTJ196626 ODF196625:ODF196626 ONB196625:ONB196626 OWX196625:OWX196626 PGT196625:PGT196626 PQP196625:PQP196626 QAL196625:QAL196626 QKH196625:QKH196626 QUD196625:QUD196626 RDZ196625:RDZ196626 RNV196625:RNV196626 RXR196625:RXR196626 SHN196625:SHN196626 SRJ196625:SRJ196626 TBF196625:TBF196626 TLB196625:TLB196626 TUX196625:TUX196626 UET196625:UET196626 UOP196625:UOP196626 UYL196625:UYL196626 VIH196625:VIH196626 VSD196625:VSD196626 WBZ196625:WBZ196626 WLV196625:WLV196626 WVR196625:WVR196626 J262161:J262162 JF262161:JF262162 TB262161:TB262162 ACX262161:ACX262162 AMT262161:AMT262162 AWP262161:AWP262162 BGL262161:BGL262162 BQH262161:BQH262162 CAD262161:CAD262162 CJZ262161:CJZ262162 CTV262161:CTV262162 DDR262161:DDR262162 DNN262161:DNN262162 DXJ262161:DXJ262162 EHF262161:EHF262162 ERB262161:ERB262162 FAX262161:FAX262162 FKT262161:FKT262162 FUP262161:FUP262162 GEL262161:GEL262162 GOH262161:GOH262162 GYD262161:GYD262162 HHZ262161:HHZ262162 HRV262161:HRV262162 IBR262161:IBR262162 ILN262161:ILN262162 IVJ262161:IVJ262162 JFF262161:JFF262162 JPB262161:JPB262162 JYX262161:JYX262162 KIT262161:KIT262162 KSP262161:KSP262162 LCL262161:LCL262162 LMH262161:LMH262162 LWD262161:LWD262162 MFZ262161:MFZ262162 MPV262161:MPV262162 MZR262161:MZR262162 NJN262161:NJN262162 NTJ262161:NTJ262162 ODF262161:ODF262162 ONB262161:ONB262162 OWX262161:OWX262162 PGT262161:PGT262162 PQP262161:PQP262162 QAL262161:QAL262162 QKH262161:QKH262162 QUD262161:QUD262162 RDZ262161:RDZ262162 RNV262161:RNV262162 RXR262161:RXR262162 SHN262161:SHN262162 SRJ262161:SRJ262162 TBF262161:TBF262162 TLB262161:TLB262162 TUX262161:TUX262162 UET262161:UET262162 UOP262161:UOP262162 UYL262161:UYL262162 VIH262161:VIH262162 VSD262161:VSD262162 WBZ262161:WBZ262162 WLV262161:WLV262162 WVR262161:WVR262162 J327697:J327698 JF327697:JF327698 TB327697:TB327698 ACX327697:ACX327698 AMT327697:AMT327698 AWP327697:AWP327698 BGL327697:BGL327698 BQH327697:BQH327698 CAD327697:CAD327698 CJZ327697:CJZ327698 CTV327697:CTV327698 DDR327697:DDR327698 DNN327697:DNN327698 DXJ327697:DXJ327698 EHF327697:EHF327698 ERB327697:ERB327698 FAX327697:FAX327698 FKT327697:FKT327698 FUP327697:FUP327698 GEL327697:GEL327698 GOH327697:GOH327698 GYD327697:GYD327698 HHZ327697:HHZ327698 HRV327697:HRV327698 IBR327697:IBR327698 ILN327697:ILN327698 IVJ327697:IVJ327698 JFF327697:JFF327698 JPB327697:JPB327698 JYX327697:JYX327698 KIT327697:KIT327698 KSP327697:KSP327698 LCL327697:LCL327698 LMH327697:LMH327698 LWD327697:LWD327698 MFZ327697:MFZ327698 MPV327697:MPV327698 MZR327697:MZR327698 NJN327697:NJN327698 NTJ327697:NTJ327698 ODF327697:ODF327698 ONB327697:ONB327698 OWX327697:OWX327698 PGT327697:PGT327698 PQP327697:PQP327698 QAL327697:QAL327698 QKH327697:QKH327698 QUD327697:QUD327698 RDZ327697:RDZ327698 RNV327697:RNV327698 RXR327697:RXR327698 SHN327697:SHN327698 SRJ327697:SRJ327698 TBF327697:TBF327698 TLB327697:TLB327698 TUX327697:TUX327698 UET327697:UET327698 UOP327697:UOP327698 UYL327697:UYL327698 VIH327697:VIH327698 VSD327697:VSD327698 WBZ327697:WBZ327698 WLV327697:WLV327698 WVR327697:WVR327698 J393233:J393234 JF393233:JF393234 TB393233:TB393234 ACX393233:ACX393234 AMT393233:AMT393234 AWP393233:AWP393234 BGL393233:BGL393234 BQH393233:BQH393234 CAD393233:CAD393234 CJZ393233:CJZ393234 CTV393233:CTV393234 DDR393233:DDR393234 DNN393233:DNN393234 DXJ393233:DXJ393234 EHF393233:EHF393234 ERB393233:ERB393234 FAX393233:FAX393234 FKT393233:FKT393234 FUP393233:FUP393234 GEL393233:GEL393234 GOH393233:GOH393234 GYD393233:GYD393234 HHZ393233:HHZ393234 HRV393233:HRV393234 IBR393233:IBR393234 ILN393233:ILN393234 IVJ393233:IVJ393234 JFF393233:JFF393234 JPB393233:JPB393234 JYX393233:JYX393234 KIT393233:KIT393234 KSP393233:KSP393234 LCL393233:LCL393234 LMH393233:LMH393234 LWD393233:LWD393234 MFZ393233:MFZ393234 MPV393233:MPV393234 MZR393233:MZR393234 NJN393233:NJN393234 NTJ393233:NTJ393234 ODF393233:ODF393234 ONB393233:ONB393234 OWX393233:OWX393234 PGT393233:PGT393234 PQP393233:PQP393234 QAL393233:QAL393234 QKH393233:QKH393234 QUD393233:QUD393234 RDZ393233:RDZ393234 RNV393233:RNV393234 RXR393233:RXR393234 SHN393233:SHN393234 SRJ393233:SRJ393234 TBF393233:TBF393234 TLB393233:TLB393234 TUX393233:TUX393234 UET393233:UET393234 UOP393233:UOP393234 UYL393233:UYL393234 VIH393233:VIH393234 VSD393233:VSD393234 WBZ393233:WBZ393234 WLV393233:WLV393234 WVR393233:WVR393234 J458769:J458770 JF458769:JF458770 TB458769:TB458770 ACX458769:ACX458770 AMT458769:AMT458770 AWP458769:AWP458770 BGL458769:BGL458770 BQH458769:BQH458770 CAD458769:CAD458770 CJZ458769:CJZ458770 CTV458769:CTV458770 DDR458769:DDR458770 DNN458769:DNN458770 DXJ458769:DXJ458770 EHF458769:EHF458770 ERB458769:ERB458770 FAX458769:FAX458770 FKT458769:FKT458770 FUP458769:FUP458770 GEL458769:GEL458770 GOH458769:GOH458770 GYD458769:GYD458770 HHZ458769:HHZ458770 HRV458769:HRV458770 IBR458769:IBR458770 ILN458769:ILN458770 IVJ458769:IVJ458770 JFF458769:JFF458770 JPB458769:JPB458770 JYX458769:JYX458770 KIT458769:KIT458770 KSP458769:KSP458770 LCL458769:LCL458770 LMH458769:LMH458770 LWD458769:LWD458770 MFZ458769:MFZ458770 MPV458769:MPV458770 MZR458769:MZR458770 NJN458769:NJN458770 NTJ458769:NTJ458770 ODF458769:ODF458770 ONB458769:ONB458770 OWX458769:OWX458770 PGT458769:PGT458770 PQP458769:PQP458770 QAL458769:QAL458770 QKH458769:QKH458770 QUD458769:QUD458770 RDZ458769:RDZ458770 RNV458769:RNV458770 RXR458769:RXR458770 SHN458769:SHN458770 SRJ458769:SRJ458770 TBF458769:TBF458770 TLB458769:TLB458770 TUX458769:TUX458770 UET458769:UET458770 UOP458769:UOP458770 UYL458769:UYL458770 VIH458769:VIH458770 VSD458769:VSD458770 WBZ458769:WBZ458770 WLV458769:WLV458770 WVR458769:WVR458770 J524305:J524306 JF524305:JF524306 TB524305:TB524306 ACX524305:ACX524306 AMT524305:AMT524306 AWP524305:AWP524306 BGL524305:BGL524306 BQH524305:BQH524306 CAD524305:CAD524306 CJZ524305:CJZ524306 CTV524305:CTV524306 DDR524305:DDR524306 DNN524305:DNN524306 DXJ524305:DXJ524306 EHF524305:EHF524306 ERB524305:ERB524306 FAX524305:FAX524306 FKT524305:FKT524306 FUP524305:FUP524306 GEL524305:GEL524306 GOH524305:GOH524306 GYD524305:GYD524306 HHZ524305:HHZ524306 HRV524305:HRV524306 IBR524305:IBR524306 ILN524305:ILN524306 IVJ524305:IVJ524306 JFF524305:JFF524306 JPB524305:JPB524306 JYX524305:JYX524306 KIT524305:KIT524306 KSP524305:KSP524306 LCL524305:LCL524306 LMH524305:LMH524306 LWD524305:LWD524306 MFZ524305:MFZ524306 MPV524305:MPV524306 MZR524305:MZR524306 NJN524305:NJN524306 NTJ524305:NTJ524306 ODF524305:ODF524306 ONB524305:ONB524306 OWX524305:OWX524306 PGT524305:PGT524306 PQP524305:PQP524306 QAL524305:QAL524306 QKH524305:QKH524306 QUD524305:QUD524306 RDZ524305:RDZ524306 RNV524305:RNV524306 RXR524305:RXR524306 SHN524305:SHN524306 SRJ524305:SRJ524306 TBF524305:TBF524306 TLB524305:TLB524306 TUX524305:TUX524306 UET524305:UET524306 UOP524305:UOP524306 UYL524305:UYL524306 VIH524305:VIH524306 VSD524305:VSD524306 WBZ524305:WBZ524306 WLV524305:WLV524306 WVR524305:WVR524306 J589841:J589842 JF589841:JF589842 TB589841:TB589842 ACX589841:ACX589842 AMT589841:AMT589842 AWP589841:AWP589842 BGL589841:BGL589842 BQH589841:BQH589842 CAD589841:CAD589842 CJZ589841:CJZ589842 CTV589841:CTV589842 DDR589841:DDR589842 DNN589841:DNN589842 DXJ589841:DXJ589842 EHF589841:EHF589842 ERB589841:ERB589842 FAX589841:FAX589842 FKT589841:FKT589842 FUP589841:FUP589842 GEL589841:GEL589842 GOH589841:GOH589842 GYD589841:GYD589842 HHZ589841:HHZ589842 HRV589841:HRV589842 IBR589841:IBR589842 ILN589841:ILN589842 IVJ589841:IVJ589842 JFF589841:JFF589842 JPB589841:JPB589842 JYX589841:JYX589842 KIT589841:KIT589842 KSP589841:KSP589842 LCL589841:LCL589842 LMH589841:LMH589842 LWD589841:LWD589842 MFZ589841:MFZ589842 MPV589841:MPV589842 MZR589841:MZR589842 NJN589841:NJN589842 NTJ589841:NTJ589842 ODF589841:ODF589842 ONB589841:ONB589842 OWX589841:OWX589842 PGT589841:PGT589842 PQP589841:PQP589842 QAL589841:QAL589842 QKH589841:QKH589842 QUD589841:QUD589842 RDZ589841:RDZ589842 RNV589841:RNV589842 RXR589841:RXR589842 SHN589841:SHN589842 SRJ589841:SRJ589842 TBF589841:TBF589842 TLB589841:TLB589842 TUX589841:TUX589842 UET589841:UET589842 UOP589841:UOP589842 UYL589841:UYL589842 VIH589841:VIH589842 VSD589841:VSD589842 WBZ589841:WBZ589842 WLV589841:WLV589842 WVR589841:WVR589842 J655377:J655378 JF655377:JF655378 TB655377:TB655378 ACX655377:ACX655378 AMT655377:AMT655378 AWP655377:AWP655378 BGL655377:BGL655378 BQH655377:BQH655378 CAD655377:CAD655378 CJZ655377:CJZ655378 CTV655377:CTV655378 DDR655377:DDR655378 DNN655377:DNN655378 DXJ655377:DXJ655378 EHF655377:EHF655378 ERB655377:ERB655378 FAX655377:FAX655378 FKT655377:FKT655378 FUP655377:FUP655378 GEL655377:GEL655378 GOH655377:GOH655378 GYD655377:GYD655378 HHZ655377:HHZ655378 HRV655377:HRV655378 IBR655377:IBR655378 ILN655377:ILN655378 IVJ655377:IVJ655378 JFF655377:JFF655378 JPB655377:JPB655378 JYX655377:JYX655378 KIT655377:KIT655378 KSP655377:KSP655378 LCL655377:LCL655378 LMH655377:LMH655378 LWD655377:LWD655378 MFZ655377:MFZ655378 MPV655377:MPV655378 MZR655377:MZR655378 NJN655377:NJN655378 NTJ655377:NTJ655378 ODF655377:ODF655378 ONB655377:ONB655378 OWX655377:OWX655378 PGT655377:PGT655378 PQP655377:PQP655378 QAL655377:QAL655378 QKH655377:QKH655378 QUD655377:QUD655378 RDZ655377:RDZ655378 RNV655377:RNV655378 RXR655377:RXR655378 SHN655377:SHN655378 SRJ655377:SRJ655378 TBF655377:TBF655378 TLB655377:TLB655378 TUX655377:TUX655378 UET655377:UET655378 UOP655377:UOP655378 UYL655377:UYL655378 VIH655377:VIH655378 VSD655377:VSD655378 WBZ655377:WBZ655378 WLV655377:WLV655378 WVR655377:WVR655378 J720913:J720914 JF720913:JF720914 TB720913:TB720914 ACX720913:ACX720914 AMT720913:AMT720914 AWP720913:AWP720914 BGL720913:BGL720914 BQH720913:BQH720914 CAD720913:CAD720914 CJZ720913:CJZ720914 CTV720913:CTV720914 DDR720913:DDR720914 DNN720913:DNN720914 DXJ720913:DXJ720914 EHF720913:EHF720914 ERB720913:ERB720914 FAX720913:FAX720914 FKT720913:FKT720914 FUP720913:FUP720914 GEL720913:GEL720914 GOH720913:GOH720914 GYD720913:GYD720914 HHZ720913:HHZ720914 HRV720913:HRV720914 IBR720913:IBR720914 ILN720913:ILN720914 IVJ720913:IVJ720914 JFF720913:JFF720914 JPB720913:JPB720914 JYX720913:JYX720914 KIT720913:KIT720914 KSP720913:KSP720914 LCL720913:LCL720914 LMH720913:LMH720914 LWD720913:LWD720914 MFZ720913:MFZ720914 MPV720913:MPV720914 MZR720913:MZR720914 NJN720913:NJN720914 NTJ720913:NTJ720914 ODF720913:ODF720914 ONB720913:ONB720914 OWX720913:OWX720914 PGT720913:PGT720914 PQP720913:PQP720914 QAL720913:QAL720914 QKH720913:QKH720914 QUD720913:QUD720914 RDZ720913:RDZ720914 RNV720913:RNV720914 RXR720913:RXR720914 SHN720913:SHN720914 SRJ720913:SRJ720914 TBF720913:TBF720914 TLB720913:TLB720914 TUX720913:TUX720914 UET720913:UET720914 UOP720913:UOP720914 UYL720913:UYL720914 VIH720913:VIH720914 VSD720913:VSD720914 WBZ720913:WBZ720914 WLV720913:WLV720914 WVR720913:WVR720914 J786449:J786450 JF786449:JF786450 TB786449:TB786450 ACX786449:ACX786450 AMT786449:AMT786450 AWP786449:AWP786450 BGL786449:BGL786450 BQH786449:BQH786450 CAD786449:CAD786450 CJZ786449:CJZ786450 CTV786449:CTV786450 DDR786449:DDR786450 DNN786449:DNN786450 DXJ786449:DXJ786450 EHF786449:EHF786450 ERB786449:ERB786450 FAX786449:FAX786450 FKT786449:FKT786450 FUP786449:FUP786450 GEL786449:GEL786450 GOH786449:GOH786450 GYD786449:GYD786450 HHZ786449:HHZ786450 HRV786449:HRV786450 IBR786449:IBR786450 ILN786449:ILN786450 IVJ786449:IVJ786450 JFF786449:JFF786450 JPB786449:JPB786450 JYX786449:JYX786450 KIT786449:KIT786450 KSP786449:KSP786450 LCL786449:LCL786450 LMH786449:LMH786450 LWD786449:LWD786450 MFZ786449:MFZ786450 MPV786449:MPV786450 MZR786449:MZR786450 NJN786449:NJN786450 NTJ786449:NTJ786450 ODF786449:ODF786450 ONB786449:ONB786450 OWX786449:OWX786450 PGT786449:PGT786450 PQP786449:PQP786450 QAL786449:QAL786450 QKH786449:QKH786450 QUD786449:QUD786450 RDZ786449:RDZ786450 RNV786449:RNV786450 RXR786449:RXR786450 SHN786449:SHN786450 SRJ786449:SRJ786450 TBF786449:TBF786450 TLB786449:TLB786450 TUX786449:TUX786450 UET786449:UET786450 UOP786449:UOP786450 UYL786449:UYL786450 VIH786449:VIH786450 VSD786449:VSD786450 WBZ786449:WBZ786450 WLV786449:WLV786450 WVR786449:WVR786450 J851985:J851986 JF851985:JF851986 TB851985:TB851986 ACX851985:ACX851986 AMT851985:AMT851986 AWP851985:AWP851986 BGL851985:BGL851986 BQH851985:BQH851986 CAD851985:CAD851986 CJZ851985:CJZ851986 CTV851985:CTV851986 DDR851985:DDR851986 DNN851985:DNN851986 DXJ851985:DXJ851986 EHF851985:EHF851986 ERB851985:ERB851986 FAX851985:FAX851986 FKT851985:FKT851986 FUP851985:FUP851986 GEL851985:GEL851986 GOH851985:GOH851986 GYD851985:GYD851986 HHZ851985:HHZ851986 HRV851985:HRV851986 IBR851985:IBR851986 ILN851985:ILN851986 IVJ851985:IVJ851986 JFF851985:JFF851986 JPB851985:JPB851986 JYX851985:JYX851986 KIT851985:KIT851986 KSP851985:KSP851986 LCL851985:LCL851986 LMH851985:LMH851986 LWD851985:LWD851986 MFZ851985:MFZ851986 MPV851985:MPV851986 MZR851985:MZR851986 NJN851985:NJN851986 NTJ851985:NTJ851986 ODF851985:ODF851986 ONB851985:ONB851986 OWX851985:OWX851986 PGT851985:PGT851986 PQP851985:PQP851986 QAL851985:QAL851986 QKH851985:QKH851986 QUD851985:QUD851986 RDZ851985:RDZ851986 RNV851985:RNV851986 RXR851985:RXR851986 SHN851985:SHN851986 SRJ851985:SRJ851986 TBF851985:TBF851986 TLB851985:TLB851986 TUX851985:TUX851986 UET851985:UET851986 UOP851985:UOP851986 UYL851985:UYL851986 VIH851985:VIH851986 VSD851985:VSD851986 WBZ851985:WBZ851986 WLV851985:WLV851986 WVR851985:WVR851986 J917521:J917522 JF917521:JF917522 TB917521:TB917522 ACX917521:ACX917522 AMT917521:AMT917522 AWP917521:AWP917522 BGL917521:BGL917522 BQH917521:BQH917522 CAD917521:CAD917522 CJZ917521:CJZ917522 CTV917521:CTV917522 DDR917521:DDR917522 DNN917521:DNN917522 DXJ917521:DXJ917522 EHF917521:EHF917522 ERB917521:ERB917522 FAX917521:FAX917522 FKT917521:FKT917522 FUP917521:FUP917522 GEL917521:GEL917522 GOH917521:GOH917522 GYD917521:GYD917522 HHZ917521:HHZ917522 HRV917521:HRV917522 IBR917521:IBR917522 ILN917521:ILN917522 IVJ917521:IVJ917522 JFF917521:JFF917522 JPB917521:JPB917522 JYX917521:JYX917522 KIT917521:KIT917522 KSP917521:KSP917522 LCL917521:LCL917522 LMH917521:LMH917522 LWD917521:LWD917522 MFZ917521:MFZ917522 MPV917521:MPV917522 MZR917521:MZR917522 NJN917521:NJN917522 NTJ917521:NTJ917522 ODF917521:ODF917522 ONB917521:ONB917522 OWX917521:OWX917522 PGT917521:PGT917522 PQP917521:PQP917522 QAL917521:QAL917522 QKH917521:QKH917522 QUD917521:QUD917522 RDZ917521:RDZ917522 RNV917521:RNV917522 RXR917521:RXR917522 SHN917521:SHN917522 SRJ917521:SRJ917522 TBF917521:TBF917522 TLB917521:TLB917522 TUX917521:TUX917522 UET917521:UET917522 UOP917521:UOP917522 UYL917521:UYL917522 VIH917521:VIH917522 VSD917521:VSD917522 WBZ917521:WBZ917522 WLV917521:WLV917522 WVR917521:WVR917522 J983057:J983058 JF983057:JF983058 TB983057:TB983058 ACX983057:ACX983058 AMT983057:AMT983058 AWP983057:AWP983058 BGL983057:BGL983058 BQH983057:BQH983058 CAD983057:CAD983058 CJZ983057:CJZ983058 CTV983057:CTV983058 DDR983057:DDR983058 DNN983057:DNN983058 DXJ983057:DXJ983058 EHF983057:EHF983058 ERB983057:ERB983058 FAX983057:FAX983058 FKT983057:FKT983058 FUP983057:FUP983058 GEL983057:GEL983058 GOH983057:GOH983058 GYD983057:GYD983058 HHZ983057:HHZ983058 HRV983057:HRV983058 IBR983057:IBR983058 ILN983057:ILN983058 IVJ983057:IVJ983058 JFF983057:JFF983058 JPB983057:JPB983058 JYX983057:JYX983058 KIT983057:KIT983058 KSP983057:KSP983058 LCL983057:LCL983058 LMH983057:LMH983058 LWD983057:LWD983058 MFZ983057:MFZ983058 MPV983057:MPV983058 MZR983057:MZR983058 NJN983057:NJN983058 NTJ983057:NTJ983058 ODF983057:ODF983058 ONB983057:ONB983058 OWX983057:OWX983058 PGT983057:PGT983058 PQP983057:PQP983058 QAL983057:QAL983058 QKH983057:QKH983058 QUD983057:QUD983058 RDZ983057:RDZ983058 RNV983057:RNV983058 RXR983057:RXR983058 SHN983057:SHN983058 SRJ983057:SRJ983058 TBF983057:TBF983058 TLB983057:TLB983058 TUX983057:TUX983058 UET983057:UET983058 UOP983057:UOP983058 UYL983057:UYL983058 VIH983057:VIH983058 VSD983057:VSD983058 WBZ983057:WBZ983058 WLV983057:WLV983058 WVR983057:WVR983058 J11 JF11 TB11 ACX11 AMT11 AWP11 BGL11 BQH11 CAD11 CJZ11 CTV11 DDR11 DNN11 DXJ11 EHF11 ERB11 FAX11 FKT11 FUP11 GEL11 GOH11 GYD11 HHZ11 HRV11 IBR11 ILN11 IVJ11 JFF11 JPB11 JYX11 KIT11 KSP11 LCL11 LMH11 LWD11 MFZ11 MPV11 MZR11 NJN11 NTJ11 ODF11 ONB11 OWX11 PGT11 PQP11 QAL11 QKH11 QUD11 RDZ11 RNV11 RXR11 SHN11 SRJ11 TBF11 TLB11 TUX11 UET11 UOP11 UYL11 VIH11 VSD11 WBZ11 WLV11 WVR11 J65547 JF65547 TB65547 ACX65547 AMT65547 AWP65547 BGL65547 BQH65547 CAD65547 CJZ65547 CTV65547 DDR65547 DNN65547 DXJ65547 EHF65547 ERB65547 FAX65547 FKT65547 FUP65547 GEL65547 GOH65547 GYD65547 HHZ65547 HRV65547 IBR65547 ILN65547 IVJ65547 JFF65547 JPB65547 JYX65547 KIT65547 KSP65547 LCL65547 LMH65547 LWD65547 MFZ65547 MPV65547 MZR65547 NJN65547 NTJ65547 ODF65547 ONB65547 OWX65547 PGT65547 PQP65547 QAL65547 QKH65547 QUD65547 RDZ65547 RNV65547 RXR65547 SHN65547 SRJ65547 TBF65547 TLB65547 TUX65547 UET65547 UOP65547 UYL65547 VIH65547 VSD65547 WBZ65547 WLV65547 WVR65547 J131083 JF131083 TB131083 ACX131083 AMT131083 AWP131083 BGL131083 BQH131083 CAD131083 CJZ131083 CTV131083 DDR131083 DNN131083 DXJ131083 EHF131083 ERB131083 FAX131083 FKT131083 FUP131083 GEL131083 GOH131083 GYD131083 HHZ131083 HRV131083 IBR131083 ILN131083 IVJ131083 JFF131083 JPB131083 JYX131083 KIT131083 KSP131083 LCL131083 LMH131083 LWD131083 MFZ131083 MPV131083 MZR131083 NJN131083 NTJ131083 ODF131083 ONB131083 OWX131083 PGT131083 PQP131083 QAL131083 QKH131083 QUD131083 RDZ131083 RNV131083 RXR131083 SHN131083 SRJ131083 TBF131083 TLB131083 TUX131083 UET131083 UOP131083 UYL131083 VIH131083 VSD131083 WBZ131083 WLV131083 WVR131083 J196619 JF196619 TB196619 ACX196619 AMT196619 AWP196619 BGL196619 BQH196619 CAD196619 CJZ196619 CTV196619 DDR196619 DNN196619 DXJ196619 EHF196619 ERB196619 FAX196619 FKT196619 FUP196619 GEL196619 GOH196619 GYD196619 HHZ196619 HRV196619 IBR196619 ILN196619 IVJ196619 JFF196619 JPB196619 JYX196619 KIT196619 KSP196619 LCL196619 LMH196619 LWD196619 MFZ196619 MPV196619 MZR196619 NJN196619 NTJ196619 ODF196619 ONB196619 OWX196619 PGT196619 PQP196619 QAL196619 QKH196619 QUD196619 RDZ196619 RNV196619 RXR196619 SHN196619 SRJ196619 TBF196619 TLB196619 TUX196619 UET196619 UOP196619 UYL196619 VIH196619 VSD196619 WBZ196619 WLV196619 WVR196619 J262155 JF262155 TB262155 ACX262155 AMT262155 AWP262155 BGL262155 BQH262155 CAD262155 CJZ262155 CTV262155 DDR262155 DNN262155 DXJ262155 EHF262155 ERB262155 FAX262155 FKT262155 FUP262155 GEL262155 GOH262155 GYD262155 HHZ262155 HRV262155 IBR262155 ILN262155 IVJ262155 JFF262155 JPB262155 JYX262155 KIT262155 KSP262155 LCL262155 LMH262155 LWD262155 MFZ262155 MPV262155 MZR262155 NJN262155 NTJ262155 ODF262155 ONB262155 OWX262155 PGT262155 PQP262155 QAL262155 QKH262155 QUD262155 RDZ262155 RNV262155 RXR262155 SHN262155 SRJ262155 TBF262155 TLB262155 TUX262155 UET262155 UOP262155 UYL262155 VIH262155 VSD262155 WBZ262155 WLV262155 WVR262155 J327691 JF327691 TB327691 ACX327691 AMT327691 AWP327691 BGL327691 BQH327691 CAD327691 CJZ327691 CTV327691 DDR327691 DNN327691 DXJ327691 EHF327691 ERB327691 FAX327691 FKT327691 FUP327691 GEL327691 GOH327691 GYD327691 HHZ327691 HRV327691 IBR327691 ILN327691 IVJ327691 JFF327691 JPB327691 JYX327691 KIT327691 KSP327691 LCL327691 LMH327691 LWD327691 MFZ327691 MPV327691 MZR327691 NJN327691 NTJ327691 ODF327691 ONB327691 OWX327691 PGT327691 PQP327691 QAL327691 QKH327691 QUD327691 RDZ327691 RNV327691 RXR327691 SHN327691 SRJ327691 TBF327691 TLB327691 TUX327691 UET327691 UOP327691 UYL327691 VIH327691 VSD327691 WBZ327691 WLV327691 WVR327691 J393227 JF393227 TB393227 ACX393227 AMT393227 AWP393227 BGL393227 BQH393227 CAD393227 CJZ393227 CTV393227 DDR393227 DNN393227 DXJ393227 EHF393227 ERB393227 FAX393227 FKT393227 FUP393227 GEL393227 GOH393227 GYD393227 HHZ393227 HRV393227 IBR393227 ILN393227 IVJ393227 JFF393227 JPB393227 JYX393227 KIT393227 KSP393227 LCL393227 LMH393227 LWD393227 MFZ393227 MPV393227 MZR393227 NJN393227 NTJ393227 ODF393227 ONB393227 OWX393227 PGT393227 PQP393227 QAL393227 QKH393227 QUD393227 RDZ393227 RNV393227 RXR393227 SHN393227 SRJ393227 TBF393227 TLB393227 TUX393227 UET393227 UOP393227 UYL393227 VIH393227 VSD393227 WBZ393227 WLV393227 WVR393227 J458763 JF458763 TB458763 ACX458763 AMT458763 AWP458763 BGL458763 BQH458763 CAD458763 CJZ458763 CTV458763 DDR458763 DNN458763 DXJ458763 EHF458763 ERB458763 FAX458763 FKT458763 FUP458763 GEL458763 GOH458763 GYD458763 HHZ458763 HRV458763 IBR458763 ILN458763 IVJ458763 JFF458763 JPB458763 JYX458763 KIT458763 KSP458763 LCL458763 LMH458763 LWD458763 MFZ458763 MPV458763 MZR458763 NJN458763 NTJ458763 ODF458763 ONB458763 OWX458763 PGT458763 PQP458763 QAL458763 QKH458763 QUD458763 RDZ458763 RNV458763 RXR458763 SHN458763 SRJ458763 TBF458763 TLB458763 TUX458763 UET458763 UOP458763 UYL458763 VIH458763 VSD458763 WBZ458763 WLV458763 WVR458763 J524299 JF524299 TB524299 ACX524299 AMT524299 AWP524299 BGL524299 BQH524299 CAD524299 CJZ524299 CTV524299 DDR524299 DNN524299 DXJ524299 EHF524299 ERB524299 FAX524299 FKT524299 FUP524299 GEL524299 GOH524299 GYD524299 HHZ524299 HRV524299 IBR524299 ILN524299 IVJ524299 JFF524299 JPB524299 JYX524299 KIT524299 KSP524299 LCL524299 LMH524299 LWD524299 MFZ524299 MPV524299 MZR524299 NJN524299 NTJ524299 ODF524299 ONB524299 OWX524299 PGT524299 PQP524299 QAL524299 QKH524299 QUD524299 RDZ524299 RNV524299 RXR524299 SHN524299 SRJ524299 TBF524299 TLB524299 TUX524299 UET524299 UOP524299 UYL524299 VIH524299 VSD524299 WBZ524299 WLV524299 WVR524299 J589835 JF589835 TB589835 ACX589835 AMT589835 AWP589835 BGL589835 BQH589835 CAD589835 CJZ589835 CTV589835 DDR589835 DNN589835 DXJ589835 EHF589835 ERB589835 FAX589835 FKT589835 FUP589835 GEL589835 GOH589835 GYD589835 HHZ589835 HRV589835 IBR589835 ILN589835 IVJ589835 JFF589835 JPB589835 JYX589835 KIT589835 KSP589835 LCL589835 LMH589835 LWD589835 MFZ589835 MPV589835 MZR589835 NJN589835 NTJ589835 ODF589835 ONB589835 OWX589835 PGT589835 PQP589835 QAL589835 QKH589835 QUD589835 RDZ589835 RNV589835 RXR589835 SHN589835 SRJ589835 TBF589835 TLB589835 TUX589835 UET589835 UOP589835 UYL589835 VIH589835 VSD589835 WBZ589835 WLV589835 WVR589835 J655371 JF655371 TB655371 ACX655371 AMT655371 AWP655371 BGL655371 BQH655371 CAD655371 CJZ655371 CTV655371 DDR655371 DNN655371 DXJ655371 EHF655371 ERB655371 FAX655371 FKT655371 FUP655371 GEL655371 GOH655371 GYD655371 HHZ655371 HRV655371 IBR655371 ILN655371 IVJ655371 JFF655371 JPB655371 JYX655371 KIT655371 KSP655371 LCL655371 LMH655371 LWD655371 MFZ655371 MPV655371 MZR655371 NJN655371 NTJ655371 ODF655371 ONB655371 OWX655371 PGT655371 PQP655371 QAL655371 QKH655371 QUD655371 RDZ655371 RNV655371 RXR655371 SHN655371 SRJ655371 TBF655371 TLB655371 TUX655371 UET655371 UOP655371 UYL655371 VIH655371 VSD655371 WBZ655371 WLV655371 WVR655371 J720907 JF720907 TB720907 ACX720907 AMT720907 AWP720907 BGL720907 BQH720907 CAD720907 CJZ720907 CTV720907 DDR720907 DNN720907 DXJ720907 EHF720907 ERB720907 FAX720907 FKT720907 FUP720907 GEL720907 GOH720907 GYD720907 HHZ720907 HRV720907 IBR720907 ILN720907 IVJ720907 JFF720907 JPB720907 JYX720907 KIT720907 KSP720907 LCL720907 LMH720907 LWD720907 MFZ720907 MPV720907 MZR720907 NJN720907 NTJ720907 ODF720907 ONB720907 OWX720907 PGT720907 PQP720907 QAL720907 QKH720907 QUD720907 RDZ720907 RNV720907 RXR720907 SHN720907 SRJ720907 TBF720907 TLB720907 TUX720907 UET720907 UOP720907 UYL720907 VIH720907 VSD720907 WBZ720907 WLV720907 WVR720907 J786443 JF786443 TB786443 ACX786443 AMT786443 AWP786443 BGL786443 BQH786443 CAD786443 CJZ786443 CTV786443 DDR786443 DNN786443 DXJ786443 EHF786443 ERB786443 FAX786443 FKT786443 FUP786443 GEL786443 GOH786443 GYD786443 HHZ786443 HRV786443 IBR786443 ILN786443 IVJ786443 JFF786443 JPB786443 JYX786443 KIT786443 KSP786443 LCL786443 LMH786443 LWD786443 MFZ786443 MPV786443 MZR786443 NJN786443 NTJ786443 ODF786443 ONB786443 OWX786443 PGT786443 PQP786443 QAL786443 QKH786443 QUD786443 RDZ786443 RNV786443 RXR786443 SHN786443 SRJ786443 TBF786443 TLB786443 TUX786443 UET786443 UOP786443 UYL786443 VIH786443 VSD786443 WBZ786443 WLV786443 WVR786443 J851979 JF851979 TB851979 ACX851979 AMT851979 AWP851979 BGL851979 BQH851979 CAD851979 CJZ851979 CTV851979 DDR851979 DNN851979 DXJ851979 EHF851979 ERB851979 FAX851979 FKT851979 FUP851979 GEL851979 GOH851979 GYD851979 HHZ851979 HRV851979 IBR851979 ILN851979 IVJ851979 JFF851979 JPB851979 JYX851979 KIT851979 KSP851979 LCL851979 LMH851979 LWD851979 MFZ851979 MPV851979 MZR851979 NJN851979 NTJ851979 ODF851979 ONB851979 OWX851979 PGT851979 PQP851979 QAL851979 QKH851979 QUD851979 RDZ851979 RNV851979 RXR851979 SHN851979 SRJ851979 TBF851979 TLB851979 TUX851979 UET851979 UOP851979 UYL851979 VIH851979 VSD851979 WBZ851979 WLV851979 WVR851979 J917515 JF917515 TB917515 ACX917515 AMT917515 AWP917515 BGL917515 BQH917515 CAD917515 CJZ917515 CTV917515 DDR917515 DNN917515 DXJ917515 EHF917515 ERB917515 FAX917515 FKT917515 FUP917515 GEL917515 GOH917515 GYD917515 HHZ917515 HRV917515 IBR917515 ILN917515 IVJ917515 JFF917515 JPB917515 JYX917515 KIT917515 KSP917515 LCL917515 LMH917515 LWD917515 MFZ917515 MPV917515 MZR917515 NJN917515 NTJ917515 ODF917515 ONB917515 OWX917515 PGT917515 PQP917515 QAL917515 QKH917515 QUD917515 RDZ917515 RNV917515 RXR917515 SHN917515 SRJ917515 TBF917515 TLB917515 TUX917515 UET917515 UOP917515 UYL917515 VIH917515 VSD917515 WBZ917515 WLV917515 WVR917515 J983051 JF983051 TB983051 ACX983051 AMT983051 AWP983051 BGL983051 BQH983051 CAD983051 CJZ983051 CTV983051 DDR983051 DNN983051 DXJ983051 EHF983051 ERB983051 FAX983051 FKT983051 FUP983051 GEL983051 GOH983051 GYD983051 HHZ983051 HRV983051 IBR983051 ILN983051 IVJ983051 JFF983051 JPB983051 JYX983051 KIT983051 KSP983051 LCL983051 LMH983051 LWD983051 MFZ983051 MPV983051 MZR983051 NJN983051 NTJ983051 ODF983051 ONB983051 OWX983051 PGT983051 PQP983051 QAL983051 QKH983051 QUD983051 RDZ983051 RNV983051 RXR983051 SHN983051 SRJ983051 TBF983051 TLB983051 TUX983051 UET983051 UOP983051 UYL983051 VIH983051 VSD983051 WBZ983051 WLV983051 WVR983051" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>PF</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J10 JF9:JF10 TB9:TB10 ACX9:ACX10 AMT9:AMT10 AWP9:AWP10 BGL9:BGL10 BQH9:BQH10 CAD9:CAD10 CJZ9:CJZ10 CTV9:CTV10 DDR9:DDR10 DNN9:DNN10 DXJ9:DXJ10 EHF9:EHF10 ERB9:ERB10 FAX9:FAX10 FKT9:FKT10 FUP9:FUP10 GEL9:GEL10 GOH9:GOH10 GYD9:GYD10 HHZ9:HHZ10 HRV9:HRV10 IBR9:IBR10 ILN9:ILN10 IVJ9:IVJ10 JFF9:JFF10 JPB9:JPB10 JYX9:JYX10 KIT9:KIT10 KSP9:KSP10 LCL9:LCL10 LMH9:LMH10 LWD9:LWD10 MFZ9:MFZ10 MPV9:MPV10 MZR9:MZR10 NJN9:NJN10 NTJ9:NTJ10 ODF9:ODF10 ONB9:ONB10 OWX9:OWX10 PGT9:PGT10 PQP9:PQP10 QAL9:QAL10 QKH9:QKH10 QUD9:QUD10 RDZ9:RDZ10 RNV9:RNV10 RXR9:RXR10 SHN9:SHN10 SRJ9:SRJ10 TBF9:TBF10 TLB9:TLB10 TUX9:TUX10 UET9:UET10 UOP9:UOP10 UYL9:UYL10 VIH9:VIH10 VSD9:VSD10 WBZ9:WBZ10 WLV9:WLV10 WVR9:WVR10 J65545:J65546 JF65545:JF65546 TB65545:TB65546 ACX65545:ACX65546 AMT65545:AMT65546 AWP65545:AWP65546 BGL65545:BGL65546 BQH65545:BQH65546 CAD65545:CAD65546 CJZ65545:CJZ65546 CTV65545:CTV65546 DDR65545:DDR65546 DNN65545:DNN65546 DXJ65545:DXJ65546 EHF65545:EHF65546 ERB65545:ERB65546 FAX65545:FAX65546 FKT65545:FKT65546 FUP65545:FUP65546 GEL65545:GEL65546 GOH65545:GOH65546 GYD65545:GYD65546 HHZ65545:HHZ65546 HRV65545:HRV65546 IBR65545:IBR65546 ILN65545:ILN65546 IVJ65545:IVJ65546 JFF65545:JFF65546 JPB65545:JPB65546 JYX65545:JYX65546 KIT65545:KIT65546 KSP65545:KSP65546 LCL65545:LCL65546 LMH65545:LMH65546 LWD65545:LWD65546 MFZ65545:MFZ65546 MPV65545:MPV65546 MZR65545:MZR65546 NJN65545:NJN65546 NTJ65545:NTJ65546 ODF65545:ODF65546 ONB65545:ONB65546 OWX65545:OWX65546 PGT65545:PGT65546 PQP65545:PQP65546 QAL65545:QAL65546 QKH65545:QKH65546 QUD65545:QUD65546 RDZ65545:RDZ65546 RNV65545:RNV65546 RXR65545:RXR65546 SHN65545:SHN65546 SRJ65545:SRJ65546 TBF65545:TBF65546 TLB65545:TLB65546 TUX65545:TUX65546 UET65545:UET65546 UOP65545:UOP65546 UYL65545:UYL65546 VIH65545:VIH65546 VSD65545:VSD65546 WBZ65545:WBZ65546 WLV65545:WLV65546 WVR65545:WVR65546 J131081:J131082 JF131081:JF131082 TB131081:TB131082 ACX131081:ACX131082 AMT131081:AMT131082 AWP131081:AWP131082 BGL131081:BGL131082 BQH131081:BQH131082 CAD131081:CAD131082 CJZ131081:CJZ131082 CTV131081:CTV131082 DDR131081:DDR131082 DNN131081:DNN131082 DXJ131081:DXJ131082 EHF131081:EHF131082 ERB131081:ERB131082 FAX131081:FAX131082 FKT131081:FKT131082 FUP131081:FUP131082 GEL131081:GEL131082 GOH131081:GOH131082 GYD131081:GYD131082 HHZ131081:HHZ131082 HRV131081:HRV131082 IBR131081:IBR131082 ILN131081:ILN131082 IVJ131081:IVJ131082 JFF131081:JFF131082 JPB131081:JPB131082 JYX131081:JYX131082 KIT131081:KIT131082 KSP131081:KSP131082 LCL131081:LCL131082 LMH131081:LMH131082 LWD131081:LWD131082 MFZ131081:MFZ131082 MPV131081:MPV131082 MZR131081:MZR131082 NJN131081:NJN131082 NTJ131081:NTJ131082 ODF131081:ODF131082 ONB131081:ONB131082 OWX131081:OWX131082 PGT131081:PGT131082 PQP131081:PQP131082 QAL131081:QAL131082 QKH131081:QKH131082 QUD131081:QUD131082 RDZ131081:RDZ131082 RNV131081:RNV131082 RXR131081:RXR131082 SHN131081:SHN131082 SRJ131081:SRJ131082 TBF131081:TBF131082 TLB131081:TLB131082 TUX131081:TUX131082 UET131081:UET131082 UOP131081:UOP131082 UYL131081:UYL131082 VIH131081:VIH131082 VSD131081:VSD131082 WBZ131081:WBZ131082 WLV131081:WLV131082 WVR131081:WVR131082 J196617:J196618 JF196617:JF196618 TB196617:TB196618 ACX196617:ACX196618 AMT196617:AMT196618 AWP196617:AWP196618 BGL196617:BGL196618 BQH196617:BQH196618 CAD196617:CAD196618 CJZ196617:CJZ196618 CTV196617:CTV196618 DDR196617:DDR196618 DNN196617:DNN196618 DXJ196617:DXJ196618 EHF196617:EHF196618 ERB196617:ERB196618 FAX196617:FAX196618 FKT196617:FKT196618 FUP196617:FUP196618 GEL196617:GEL196618 GOH196617:GOH196618 GYD196617:GYD196618 HHZ196617:HHZ196618 HRV196617:HRV196618 IBR196617:IBR196618 ILN196617:ILN196618 IVJ196617:IVJ196618 JFF196617:JFF196618 JPB196617:JPB196618 JYX196617:JYX196618 KIT196617:KIT196618 KSP196617:KSP196618 LCL196617:LCL196618 LMH196617:LMH196618 LWD196617:LWD196618 MFZ196617:MFZ196618 MPV196617:MPV196618 MZR196617:MZR196618 NJN196617:NJN196618 NTJ196617:NTJ196618 ODF196617:ODF196618 ONB196617:ONB196618 OWX196617:OWX196618 PGT196617:PGT196618 PQP196617:PQP196618 QAL196617:QAL196618 QKH196617:QKH196618 QUD196617:QUD196618 RDZ196617:RDZ196618 RNV196617:RNV196618 RXR196617:RXR196618 SHN196617:SHN196618 SRJ196617:SRJ196618 TBF196617:TBF196618 TLB196617:TLB196618 TUX196617:TUX196618 UET196617:UET196618 UOP196617:UOP196618 UYL196617:UYL196618 VIH196617:VIH196618 VSD196617:VSD196618 WBZ196617:WBZ196618 WLV196617:WLV196618 WVR196617:WVR196618 J262153:J262154 JF262153:JF262154 TB262153:TB262154 ACX262153:ACX262154 AMT262153:AMT262154 AWP262153:AWP262154 BGL262153:BGL262154 BQH262153:BQH262154 CAD262153:CAD262154 CJZ262153:CJZ262154 CTV262153:CTV262154 DDR262153:DDR262154 DNN262153:DNN262154 DXJ262153:DXJ262154 EHF262153:EHF262154 ERB262153:ERB262154 FAX262153:FAX262154 FKT262153:FKT262154 FUP262153:FUP262154 GEL262153:GEL262154 GOH262153:GOH262154 GYD262153:GYD262154 HHZ262153:HHZ262154 HRV262153:HRV262154 IBR262153:IBR262154 ILN262153:ILN262154 IVJ262153:IVJ262154 JFF262153:JFF262154 JPB262153:JPB262154 JYX262153:JYX262154 KIT262153:KIT262154 KSP262153:KSP262154 LCL262153:LCL262154 LMH262153:LMH262154 LWD262153:LWD262154 MFZ262153:MFZ262154 MPV262153:MPV262154 MZR262153:MZR262154 NJN262153:NJN262154 NTJ262153:NTJ262154 ODF262153:ODF262154 ONB262153:ONB262154 OWX262153:OWX262154 PGT262153:PGT262154 PQP262153:PQP262154 QAL262153:QAL262154 QKH262153:QKH262154 QUD262153:QUD262154 RDZ262153:RDZ262154 RNV262153:RNV262154 RXR262153:RXR262154 SHN262153:SHN262154 SRJ262153:SRJ262154 TBF262153:TBF262154 TLB262153:TLB262154 TUX262153:TUX262154 UET262153:UET262154 UOP262153:UOP262154 UYL262153:UYL262154 VIH262153:VIH262154 VSD262153:VSD262154 WBZ262153:WBZ262154 WLV262153:WLV262154 WVR262153:WVR262154 J327689:J327690 JF327689:JF327690 TB327689:TB327690 ACX327689:ACX327690 AMT327689:AMT327690 AWP327689:AWP327690 BGL327689:BGL327690 BQH327689:BQH327690 CAD327689:CAD327690 CJZ327689:CJZ327690 CTV327689:CTV327690 DDR327689:DDR327690 DNN327689:DNN327690 DXJ327689:DXJ327690 EHF327689:EHF327690 ERB327689:ERB327690 FAX327689:FAX327690 FKT327689:FKT327690 FUP327689:FUP327690 GEL327689:GEL327690 GOH327689:GOH327690 GYD327689:GYD327690 HHZ327689:HHZ327690 HRV327689:HRV327690 IBR327689:IBR327690 ILN327689:ILN327690 IVJ327689:IVJ327690 JFF327689:JFF327690 JPB327689:JPB327690 JYX327689:JYX327690 KIT327689:KIT327690 KSP327689:KSP327690 LCL327689:LCL327690 LMH327689:LMH327690 LWD327689:LWD327690 MFZ327689:MFZ327690 MPV327689:MPV327690 MZR327689:MZR327690 NJN327689:NJN327690 NTJ327689:NTJ327690 ODF327689:ODF327690 ONB327689:ONB327690 OWX327689:OWX327690 PGT327689:PGT327690 PQP327689:PQP327690 QAL327689:QAL327690 QKH327689:QKH327690 QUD327689:QUD327690 RDZ327689:RDZ327690 RNV327689:RNV327690 RXR327689:RXR327690 SHN327689:SHN327690 SRJ327689:SRJ327690 TBF327689:TBF327690 TLB327689:TLB327690 TUX327689:TUX327690 UET327689:UET327690 UOP327689:UOP327690 UYL327689:UYL327690 VIH327689:VIH327690 VSD327689:VSD327690 WBZ327689:WBZ327690 WLV327689:WLV327690 WVR327689:WVR327690 J393225:J393226 JF393225:JF393226 TB393225:TB393226 ACX393225:ACX393226 AMT393225:AMT393226 AWP393225:AWP393226 BGL393225:BGL393226 BQH393225:BQH393226 CAD393225:CAD393226 CJZ393225:CJZ393226 CTV393225:CTV393226 DDR393225:DDR393226 DNN393225:DNN393226 DXJ393225:DXJ393226 EHF393225:EHF393226 ERB393225:ERB393226 FAX393225:FAX393226 FKT393225:FKT393226 FUP393225:FUP393226 GEL393225:GEL393226 GOH393225:GOH393226 GYD393225:GYD393226 HHZ393225:HHZ393226 HRV393225:HRV393226 IBR393225:IBR393226 ILN393225:ILN393226 IVJ393225:IVJ393226 JFF393225:JFF393226 JPB393225:JPB393226 JYX393225:JYX393226 KIT393225:KIT393226 KSP393225:KSP393226 LCL393225:LCL393226 LMH393225:LMH393226 LWD393225:LWD393226 MFZ393225:MFZ393226 MPV393225:MPV393226 MZR393225:MZR393226 NJN393225:NJN393226 NTJ393225:NTJ393226 ODF393225:ODF393226 ONB393225:ONB393226 OWX393225:OWX393226 PGT393225:PGT393226 PQP393225:PQP393226 QAL393225:QAL393226 QKH393225:QKH393226 QUD393225:QUD393226 RDZ393225:RDZ393226 RNV393225:RNV393226 RXR393225:RXR393226 SHN393225:SHN393226 SRJ393225:SRJ393226 TBF393225:TBF393226 TLB393225:TLB393226 TUX393225:TUX393226 UET393225:UET393226 UOP393225:UOP393226 UYL393225:UYL393226 VIH393225:VIH393226 VSD393225:VSD393226 WBZ393225:WBZ393226 WLV393225:WLV393226 WVR393225:WVR393226 J458761:J458762 JF458761:JF458762 TB458761:TB458762 ACX458761:ACX458762 AMT458761:AMT458762 AWP458761:AWP458762 BGL458761:BGL458762 BQH458761:BQH458762 CAD458761:CAD458762 CJZ458761:CJZ458762 CTV458761:CTV458762 DDR458761:DDR458762 DNN458761:DNN458762 DXJ458761:DXJ458762 EHF458761:EHF458762 ERB458761:ERB458762 FAX458761:FAX458762 FKT458761:FKT458762 FUP458761:FUP458762 GEL458761:GEL458762 GOH458761:GOH458762 GYD458761:GYD458762 HHZ458761:HHZ458762 HRV458761:HRV458762 IBR458761:IBR458762 ILN458761:ILN458762 IVJ458761:IVJ458762 JFF458761:JFF458762 JPB458761:JPB458762 JYX458761:JYX458762 KIT458761:KIT458762 KSP458761:KSP458762 LCL458761:LCL458762 LMH458761:LMH458762 LWD458761:LWD458762 MFZ458761:MFZ458762 MPV458761:MPV458762 MZR458761:MZR458762 NJN458761:NJN458762 NTJ458761:NTJ458762 ODF458761:ODF458762 ONB458761:ONB458762 OWX458761:OWX458762 PGT458761:PGT458762 PQP458761:PQP458762 QAL458761:QAL458762 QKH458761:QKH458762 QUD458761:QUD458762 RDZ458761:RDZ458762 RNV458761:RNV458762 RXR458761:RXR458762 SHN458761:SHN458762 SRJ458761:SRJ458762 TBF458761:TBF458762 TLB458761:TLB458762 TUX458761:TUX458762 UET458761:UET458762 UOP458761:UOP458762 UYL458761:UYL458762 VIH458761:VIH458762 VSD458761:VSD458762 WBZ458761:WBZ458762 WLV458761:WLV458762 WVR458761:WVR458762 J524297:J524298 JF524297:JF524298 TB524297:TB524298 ACX524297:ACX524298 AMT524297:AMT524298 AWP524297:AWP524298 BGL524297:BGL524298 BQH524297:BQH524298 CAD524297:CAD524298 CJZ524297:CJZ524298 CTV524297:CTV524298 DDR524297:DDR524298 DNN524297:DNN524298 DXJ524297:DXJ524298 EHF524297:EHF524298 ERB524297:ERB524298 FAX524297:FAX524298 FKT524297:FKT524298 FUP524297:FUP524298 GEL524297:GEL524298 GOH524297:GOH524298 GYD524297:GYD524298 HHZ524297:HHZ524298 HRV524297:HRV524298 IBR524297:IBR524298 ILN524297:ILN524298 IVJ524297:IVJ524298 JFF524297:JFF524298 JPB524297:JPB524298 JYX524297:JYX524298 KIT524297:KIT524298 KSP524297:KSP524298 LCL524297:LCL524298 LMH524297:LMH524298 LWD524297:LWD524298 MFZ524297:MFZ524298 MPV524297:MPV524298 MZR524297:MZR524298 NJN524297:NJN524298 NTJ524297:NTJ524298 ODF524297:ODF524298 ONB524297:ONB524298 OWX524297:OWX524298 PGT524297:PGT524298 PQP524297:PQP524298 QAL524297:QAL524298 QKH524297:QKH524298 QUD524297:QUD524298 RDZ524297:RDZ524298 RNV524297:RNV524298 RXR524297:RXR524298 SHN524297:SHN524298 SRJ524297:SRJ524298 TBF524297:TBF524298 TLB524297:TLB524298 TUX524297:TUX524298 UET524297:UET524298 UOP524297:UOP524298 UYL524297:UYL524298 VIH524297:VIH524298 VSD524297:VSD524298 WBZ524297:WBZ524298 WLV524297:WLV524298 WVR524297:WVR524298 J589833:J589834 JF589833:JF589834 TB589833:TB589834 ACX589833:ACX589834 AMT589833:AMT589834 AWP589833:AWP589834 BGL589833:BGL589834 BQH589833:BQH589834 CAD589833:CAD589834 CJZ589833:CJZ589834 CTV589833:CTV589834 DDR589833:DDR589834 DNN589833:DNN589834 DXJ589833:DXJ589834 EHF589833:EHF589834 ERB589833:ERB589834 FAX589833:FAX589834 FKT589833:FKT589834 FUP589833:FUP589834 GEL589833:GEL589834 GOH589833:GOH589834 GYD589833:GYD589834 HHZ589833:HHZ589834 HRV589833:HRV589834 IBR589833:IBR589834 ILN589833:ILN589834 IVJ589833:IVJ589834 JFF589833:JFF589834 JPB589833:JPB589834 JYX589833:JYX589834 KIT589833:KIT589834 KSP589833:KSP589834 LCL589833:LCL589834 LMH589833:LMH589834 LWD589833:LWD589834 MFZ589833:MFZ589834 MPV589833:MPV589834 MZR589833:MZR589834 NJN589833:NJN589834 NTJ589833:NTJ589834 ODF589833:ODF589834 ONB589833:ONB589834 OWX589833:OWX589834 PGT589833:PGT589834 PQP589833:PQP589834 QAL589833:QAL589834 QKH589833:QKH589834 QUD589833:QUD589834 RDZ589833:RDZ589834 RNV589833:RNV589834 RXR589833:RXR589834 SHN589833:SHN589834 SRJ589833:SRJ589834 TBF589833:TBF589834 TLB589833:TLB589834 TUX589833:TUX589834 UET589833:UET589834 UOP589833:UOP589834 UYL589833:UYL589834 VIH589833:VIH589834 VSD589833:VSD589834 WBZ589833:WBZ589834 WLV589833:WLV589834 WVR589833:WVR589834 J655369:J655370 JF655369:JF655370 TB655369:TB655370 ACX655369:ACX655370 AMT655369:AMT655370 AWP655369:AWP655370 BGL655369:BGL655370 BQH655369:BQH655370 CAD655369:CAD655370 CJZ655369:CJZ655370 CTV655369:CTV655370 DDR655369:DDR655370 DNN655369:DNN655370 DXJ655369:DXJ655370 EHF655369:EHF655370 ERB655369:ERB655370 FAX655369:FAX655370 FKT655369:FKT655370 FUP655369:FUP655370 GEL655369:GEL655370 GOH655369:GOH655370 GYD655369:GYD655370 HHZ655369:HHZ655370 HRV655369:HRV655370 IBR655369:IBR655370 ILN655369:ILN655370 IVJ655369:IVJ655370 JFF655369:JFF655370 JPB655369:JPB655370 JYX655369:JYX655370 KIT655369:KIT655370 KSP655369:KSP655370 LCL655369:LCL655370 LMH655369:LMH655370 LWD655369:LWD655370 MFZ655369:MFZ655370 MPV655369:MPV655370 MZR655369:MZR655370 NJN655369:NJN655370 NTJ655369:NTJ655370 ODF655369:ODF655370 ONB655369:ONB655370 OWX655369:OWX655370 PGT655369:PGT655370 PQP655369:PQP655370 QAL655369:QAL655370 QKH655369:QKH655370 QUD655369:QUD655370 RDZ655369:RDZ655370 RNV655369:RNV655370 RXR655369:RXR655370 SHN655369:SHN655370 SRJ655369:SRJ655370 TBF655369:TBF655370 TLB655369:TLB655370 TUX655369:TUX655370 UET655369:UET655370 UOP655369:UOP655370 UYL655369:UYL655370 VIH655369:VIH655370 VSD655369:VSD655370 WBZ655369:WBZ655370 WLV655369:WLV655370 WVR655369:WVR655370 J720905:J720906 JF720905:JF720906 TB720905:TB720906 ACX720905:ACX720906 AMT720905:AMT720906 AWP720905:AWP720906 BGL720905:BGL720906 BQH720905:BQH720906 CAD720905:CAD720906 CJZ720905:CJZ720906 CTV720905:CTV720906 DDR720905:DDR720906 DNN720905:DNN720906 DXJ720905:DXJ720906 EHF720905:EHF720906 ERB720905:ERB720906 FAX720905:FAX720906 FKT720905:FKT720906 FUP720905:FUP720906 GEL720905:GEL720906 GOH720905:GOH720906 GYD720905:GYD720906 HHZ720905:HHZ720906 HRV720905:HRV720906 IBR720905:IBR720906 ILN720905:ILN720906 IVJ720905:IVJ720906 JFF720905:JFF720906 JPB720905:JPB720906 JYX720905:JYX720906 KIT720905:KIT720906 KSP720905:KSP720906 LCL720905:LCL720906 LMH720905:LMH720906 LWD720905:LWD720906 MFZ720905:MFZ720906 MPV720905:MPV720906 MZR720905:MZR720906 NJN720905:NJN720906 NTJ720905:NTJ720906 ODF720905:ODF720906 ONB720905:ONB720906 OWX720905:OWX720906 PGT720905:PGT720906 PQP720905:PQP720906 QAL720905:QAL720906 QKH720905:QKH720906 QUD720905:QUD720906 RDZ720905:RDZ720906 RNV720905:RNV720906 RXR720905:RXR720906 SHN720905:SHN720906 SRJ720905:SRJ720906 TBF720905:TBF720906 TLB720905:TLB720906 TUX720905:TUX720906 UET720905:UET720906 UOP720905:UOP720906 UYL720905:UYL720906 VIH720905:VIH720906 VSD720905:VSD720906 WBZ720905:WBZ720906 WLV720905:WLV720906 WVR720905:WVR720906 J786441:J786442 JF786441:JF786442 TB786441:TB786442 ACX786441:ACX786442 AMT786441:AMT786442 AWP786441:AWP786442 BGL786441:BGL786442 BQH786441:BQH786442 CAD786441:CAD786442 CJZ786441:CJZ786442 CTV786441:CTV786442 DDR786441:DDR786442 DNN786441:DNN786442 DXJ786441:DXJ786442 EHF786441:EHF786442 ERB786441:ERB786442 FAX786441:FAX786442 FKT786441:FKT786442 FUP786441:FUP786442 GEL786441:GEL786442 GOH786441:GOH786442 GYD786441:GYD786442 HHZ786441:HHZ786442 HRV786441:HRV786442 IBR786441:IBR786442 ILN786441:ILN786442 IVJ786441:IVJ786442 JFF786441:JFF786442 JPB786441:JPB786442 JYX786441:JYX786442 KIT786441:KIT786442 KSP786441:KSP786442 LCL786441:LCL786442 LMH786441:LMH786442 LWD786441:LWD786442 MFZ786441:MFZ786442 MPV786441:MPV786442 MZR786441:MZR786442 NJN786441:NJN786442 NTJ786441:NTJ786442 ODF786441:ODF786442 ONB786441:ONB786442 OWX786441:OWX786442 PGT786441:PGT786442 PQP786441:PQP786442 QAL786441:QAL786442 QKH786441:QKH786442 QUD786441:QUD786442 RDZ786441:RDZ786442 RNV786441:RNV786442 RXR786441:RXR786442 SHN786441:SHN786442 SRJ786441:SRJ786442 TBF786441:TBF786442 TLB786441:TLB786442 TUX786441:TUX786442 UET786441:UET786442 UOP786441:UOP786442 UYL786441:UYL786442 VIH786441:VIH786442 VSD786441:VSD786442 WBZ786441:WBZ786442 WLV786441:WLV786442 WVR786441:WVR786442 J851977:J851978 JF851977:JF851978 TB851977:TB851978 ACX851977:ACX851978 AMT851977:AMT851978 AWP851977:AWP851978 BGL851977:BGL851978 BQH851977:BQH851978 CAD851977:CAD851978 CJZ851977:CJZ851978 CTV851977:CTV851978 DDR851977:DDR851978 DNN851977:DNN851978 DXJ851977:DXJ851978 EHF851977:EHF851978 ERB851977:ERB851978 FAX851977:FAX851978 FKT851977:FKT851978 FUP851977:FUP851978 GEL851977:GEL851978 GOH851977:GOH851978 GYD851977:GYD851978 HHZ851977:HHZ851978 HRV851977:HRV851978 IBR851977:IBR851978 ILN851977:ILN851978 IVJ851977:IVJ851978 JFF851977:JFF851978 JPB851977:JPB851978 JYX851977:JYX851978 KIT851977:KIT851978 KSP851977:KSP851978 LCL851977:LCL851978 LMH851977:LMH851978 LWD851977:LWD851978 MFZ851977:MFZ851978 MPV851977:MPV851978 MZR851977:MZR851978 NJN851977:NJN851978 NTJ851977:NTJ851978 ODF851977:ODF851978 ONB851977:ONB851978 OWX851977:OWX851978 PGT851977:PGT851978 PQP851977:PQP851978 QAL851977:QAL851978 QKH851977:QKH851978 QUD851977:QUD851978 RDZ851977:RDZ851978 RNV851977:RNV851978 RXR851977:RXR851978 SHN851977:SHN851978 SRJ851977:SRJ851978 TBF851977:TBF851978 TLB851977:TLB851978 TUX851977:TUX851978 UET851977:UET851978 UOP851977:UOP851978 UYL851977:UYL851978 VIH851977:VIH851978 VSD851977:VSD851978 WBZ851977:WBZ851978 WLV851977:WLV851978 WVR851977:WVR851978 J917513:J917514 JF917513:JF917514 TB917513:TB917514 ACX917513:ACX917514 AMT917513:AMT917514 AWP917513:AWP917514 BGL917513:BGL917514 BQH917513:BQH917514 CAD917513:CAD917514 CJZ917513:CJZ917514 CTV917513:CTV917514 DDR917513:DDR917514 DNN917513:DNN917514 DXJ917513:DXJ917514 EHF917513:EHF917514 ERB917513:ERB917514 FAX917513:FAX917514 FKT917513:FKT917514 FUP917513:FUP917514 GEL917513:GEL917514 GOH917513:GOH917514 GYD917513:GYD917514 HHZ917513:HHZ917514 HRV917513:HRV917514 IBR917513:IBR917514 ILN917513:ILN917514 IVJ917513:IVJ917514 JFF917513:JFF917514 JPB917513:JPB917514 JYX917513:JYX917514 KIT917513:KIT917514 KSP917513:KSP917514 LCL917513:LCL917514 LMH917513:LMH917514 LWD917513:LWD917514 MFZ917513:MFZ917514 MPV917513:MPV917514 MZR917513:MZR917514 NJN917513:NJN917514 NTJ917513:NTJ917514 ODF917513:ODF917514 ONB917513:ONB917514 OWX917513:OWX917514 PGT917513:PGT917514 PQP917513:PQP917514 QAL917513:QAL917514 QKH917513:QKH917514 QUD917513:QUD917514 RDZ917513:RDZ917514 RNV917513:RNV917514 RXR917513:RXR917514 SHN917513:SHN917514 SRJ917513:SRJ917514 TBF917513:TBF917514 TLB917513:TLB917514 TUX917513:TUX917514 UET917513:UET917514 UOP917513:UOP917514 UYL917513:UYL917514 VIH917513:VIH917514 VSD917513:VSD917514 WBZ917513:WBZ917514 WLV917513:WLV917514 WVR917513:WVR917514 J983049:J983050 JF983049:JF983050 TB983049:TB983050 ACX983049:ACX983050 AMT983049:AMT983050 AWP983049:AWP983050 BGL983049:BGL983050 BQH983049:BQH983050 CAD983049:CAD983050 CJZ983049:CJZ983050 CTV983049:CTV983050 DDR983049:DDR983050 DNN983049:DNN983050 DXJ983049:DXJ983050 EHF983049:EHF983050 ERB983049:ERB983050 FAX983049:FAX983050 FKT983049:FKT983050 FUP983049:FUP983050 GEL983049:GEL983050 GOH983049:GOH983050 GYD983049:GYD983050 HHZ983049:HHZ983050 HRV983049:HRV983050 IBR983049:IBR983050 ILN983049:ILN983050 IVJ983049:IVJ983050 JFF983049:JFF983050 JPB983049:JPB983050 JYX983049:JYX983050 KIT983049:KIT983050 KSP983049:KSP983050 LCL983049:LCL983050 LMH983049:LMH983050 LWD983049:LWD983050 MFZ983049:MFZ983050 MPV983049:MPV983050 MZR983049:MZR983050 NJN983049:NJN983050 NTJ983049:NTJ983050 ODF983049:ODF983050 ONB983049:ONB983050 OWX983049:OWX983050 PGT983049:PGT983050 PQP983049:PQP983050 QAL983049:QAL983050 QKH983049:QKH983050 QUD983049:QUD983050 RDZ983049:RDZ983050 RNV983049:RNV983050 RXR983049:RXR983050 SHN983049:SHN983050 SRJ983049:SRJ983050 TBF983049:TBF983050 TLB983049:TLB983050 TUX983049:TUX983050 UET983049:UET983050 UOP983049:UOP983050 UYL983049:UYL983050 VIH983049:VIH983050 VSD983049:VSD983050 WBZ983049:WBZ983050 WLV983049:WLV983050 WVR983049:WVR983050 J12:J14 JF12:JF14 TB12:TB14 ACX12:ACX14 AMT12:AMT14 AWP12:AWP14 BGL12:BGL14 BQH12:BQH14 CAD12:CAD14 CJZ12:CJZ14 CTV12:CTV14 DDR12:DDR14 DNN12:DNN14 DXJ12:DXJ14 EHF12:EHF14 ERB12:ERB14 FAX12:FAX14 FKT12:FKT14 FUP12:FUP14 GEL12:GEL14 GOH12:GOH14 GYD12:GYD14 HHZ12:HHZ14 HRV12:HRV14 IBR12:IBR14 ILN12:ILN14 IVJ12:IVJ14 JFF12:JFF14 JPB12:JPB14 JYX12:JYX14 KIT12:KIT14 KSP12:KSP14 LCL12:LCL14 LMH12:LMH14 LWD12:LWD14 MFZ12:MFZ14 MPV12:MPV14 MZR12:MZR14 NJN12:NJN14 NTJ12:NTJ14 ODF12:ODF14 ONB12:ONB14 OWX12:OWX14 PGT12:PGT14 PQP12:PQP14 QAL12:QAL14 QKH12:QKH14 QUD12:QUD14 RDZ12:RDZ14 RNV12:RNV14 RXR12:RXR14 SHN12:SHN14 SRJ12:SRJ14 TBF12:TBF14 TLB12:TLB14 TUX12:TUX14 UET12:UET14 UOP12:UOP14 UYL12:UYL14 VIH12:VIH14 VSD12:VSD14 WBZ12:WBZ14 WLV12:WLV14 WVR12:WVR14 J65548:J65550 JF65548:JF65550 TB65548:TB65550 ACX65548:ACX65550 AMT65548:AMT65550 AWP65548:AWP65550 BGL65548:BGL65550 BQH65548:BQH65550 CAD65548:CAD65550 CJZ65548:CJZ65550 CTV65548:CTV65550 DDR65548:DDR65550 DNN65548:DNN65550 DXJ65548:DXJ65550 EHF65548:EHF65550 ERB65548:ERB65550 FAX65548:FAX65550 FKT65548:FKT65550 FUP65548:FUP65550 GEL65548:GEL65550 GOH65548:GOH65550 GYD65548:GYD65550 HHZ65548:HHZ65550 HRV65548:HRV65550 IBR65548:IBR65550 ILN65548:ILN65550 IVJ65548:IVJ65550 JFF65548:JFF65550 JPB65548:JPB65550 JYX65548:JYX65550 KIT65548:KIT65550 KSP65548:KSP65550 LCL65548:LCL65550 LMH65548:LMH65550 LWD65548:LWD65550 MFZ65548:MFZ65550 MPV65548:MPV65550 MZR65548:MZR65550 NJN65548:NJN65550 NTJ65548:NTJ65550 ODF65548:ODF65550 ONB65548:ONB65550 OWX65548:OWX65550 PGT65548:PGT65550 PQP65548:PQP65550 QAL65548:QAL65550 QKH65548:QKH65550 QUD65548:QUD65550 RDZ65548:RDZ65550 RNV65548:RNV65550 RXR65548:RXR65550 SHN65548:SHN65550 SRJ65548:SRJ65550 TBF65548:TBF65550 TLB65548:TLB65550 TUX65548:TUX65550 UET65548:UET65550 UOP65548:UOP65550 UYL65548:UYL65550 VIH65548:VIH65550 VSD65548:VSD65550 WBZ65548:WBZ65550 WLV65548:WLV65550 WVR65548:WVR65550 J131084:J131086 JF131084:JF131086 TB131084:TB131086 ACX131084:ACX131086 AMT131084:AMT131086 AWP131084:AWP131086 BGL131084:BGL131086 BQH131084:BQH131086 CAD131084:CAD131086 CJZ131084:CJZ131086 CTV131084:CTV131086 DDR131084:DDR131086 DNN131084:DNN131086 DXJ131084:DXJ131086 EHF131084:EHF131086 ERB131084:ERB131086 FAX131084:FAX131086 FKT131084:FKT131086 FUP131084:FUP131086 GEL131084:GEL131086 GOH131084:GOH131086 GYD131084:GYD131086 HHZ131084:HHZ131086 HRV131084:HRV131086 IBR131084:IBR131086 ILN131084:ILN131086 IVJ131084:IVJ131086 JFF131084:JFF131086 JPB131084:JPB131086 JYX131084:JYX131086 KIT131084:KIT131086 KSP131084:KSP131086 LCL131084:LCL131086 LMH131084:LMH131086 LWD131084:LWD131086 MFZ131084:MFZ131086 MPV131084:MPV131086 MZR131084:MZR131086 NJN131084:NJN131086 NTJ131084:NTJ131086 ODF131084:ODF131086 ONB131084:ONB131086 OWX131084:OWX131086 PGT131084:PGT131086 PQP131084:PQP131086 QAL131084:QAL131086 QKH131084:QKH131086 QUD131084:QUD131086 RDZ131084:RDZ131086 RNV131084:RNV131086 RXR131084:RXR131086 SHN131084:SHN131086 SRJ131084:SRJ131086 TBF131084:TBF131086 TLB131084:TLB131086 TUX131084:TUX131086 UET131084:UET131086 UOP131084:UOP131086 UYL131084:UYL131086 VIH131084:VIH131086 VSD131084:VSD131086 WBZ131084:WBZ131086 WLV131084:WLV131086 WVR131084:WVR131086 J196620:J196622 JF196620:JF196622 TB196620:TB196622 ACX196620:ACX196622 AMT196620:AMT196622 AWP196620:AWP196622 BGL196620:BGL196622 BQH196620:BQH196622 CAD196620:CAD196622 CJZ196620:CJZ196622 CTV196620:CTV196622 DDR196620:DDR196622 DNN196620:DNN196622 DXJ196620:DXJ196622 EHF196620:EHF196622 ERB196620:ERB196622 FAX196620:FAX196622 FKT196620:FKT196622 FUP196620:FUP196622 GEL196620:GEL196622 GOH196620:GOH196622 GYD196620:GYD196622 HHZ196620:HHZ196622 HRV196620:HRV196622 IBR196620:IBR196622 ILN196620:ILN196622 IVJ196620:IVJ196622 JFF196620:JFF196622 JPB196620:JPB196622 JYX196620:JYX196622 KIT196620:KIT196622 KSP196620:KSP196622 LCL196620:LCL196622 LMH196620:LMH196622 LWD196620:LWD196622 MFZ196620:MFZ196622 MPV196620:MPV196622 MZR196620:MZR196622 NJN196620:NJN196622 NTJ196620:NTJ196622 ODF196620:ODF196622 ONB196620:ONB196622 OWX196620:OWX196622 PGT196620:PGT196622 PQP196620:PQP196622 QAL196620:QAL196622 QKH196620:QKH196622 QUD196620:QUD196622 RDZ196620:RDZ196622 RNV196620:RNV196622 RXR196620:RXR196622 SHN196620:SHN196622 SRJ196620:SRJ196622 TBF196620:TBF196622 TLB196620:TLB196622 TUX196620:TUX196622 UET196620:UET196622 UOP196620:UOP196622 UYL196620:UYL196622 VIH196620:VIH196622 VSD196620:VSD196622 WBZ196620:WBZ196622 WLV196620:WLV196622 WVR196620:WVR196622 J262156:J262158 JF262156:JF262158 TB262156:TB262158 ACX262156:ACX262158 AMT262156:AMT262158 AWP262156:AWP262158 BGL262156:BGL262158 BQH262156:BQH262158 CAD262156:CAD262158 CJZ262156:CJZ262158 CTV262156:CTV262158 DDR262156:DDR262158 DNN262156:DNN262158 DXJ262156:DXJ262158 EHF262156:EHF262158 ERB262156:ERB262158 FAX262156:FAX262158 FKT262156:FKT262158 FUP262156:FUP262158 GEL262156:GEL262158 GOH262156:GOH262158 GYD262156:GYD262158 HHZ262156:HHZ262158 HRV262156:HRV262158 IBR262156:IBR262158 ILN262156:ILN262158 IVJ262156:IVJ262158 JFF262156:JFF262158 JPB262156:JPB262158 JYX262156:JYX262158 KIT262156:KIT262158 KSP262156:KSP262158 LCL262156:LCL262158 LMH262156:LMH262158 LWD262156:LWD262158 MFZ262156:MFZ262158 MPV262156:MPV262158 MZR262156:MZR262158 NJN262156:NJN262158 NTJ262156:NTJ262158 ODF262156:ODF262158 ONB262156:ONB262158 OWX262156:OWX262158 PGT262156:PGT262158 PQP262156:PQP262158 QAL262156:QAL262158 QKH262156:QKH262158 QUD262156:QUD262158 RDZ262156:RDZ262158 RNV262156:RNV262158 RXR262156:RXR262158 SHN262156:SHN262158 SRJ262156:SRJ262158 TBF262156:TBF262158 TLB262156:TLB262158 TUX262156:TUX262158 UET262156:UET262158 UOP262156:UOP262158 UYL262156:UYL262158 VIH262156:VIH262158 VSD262156:VSD262158 WBZ262156:WBZ262158 WLV262156:WLV262158 WVR262156:WVR262158 J327692:J327694 JF327692:JF327694 TB327692:TB327694 ACX327692:ACX327694 AMT327692:AMT327694 AWP327692:AWP327694 BGL327692:BGL327694 BQH327692:BQH327694 CAD327692:CAD327694 CJZ327692:CJZ327694 CTV327692:CTV327694 DDR327692:DDR327694 DNN327692:DNN327694 DXJ327692:DXJ327694 EHF327692:EHF327694 ERB327692:ERB327694 FAX327692:FAX327694 FKT327692:FKT327694 FUP327692:FUP327694 GEL327692:GEL327694 GOH327692:GOH327694 GYD327692:GYD327694 HHZ327692:HHZ327694 HRV327692:HRV327694 IBR327692:IBR327694 ILN327692:ILN327694 IVJ327692:IVJ327694 JFF327692:JFF327694 JPB327692:JPB327694 JYX327692:JYX327694 KIT327692:KIT327694 KSP327692:KSP327694 LCL327692:LCL327694 LMH327692:LMH327694 LWD327692:LWD327694 MFZ327692:MFZ327694 MPV327692:MPV327694 MZR327692:MZR327694 NJN327692:NJN327694 NTJ327692:NTJ327694 ODF327692:ODF327694 ONB327692:ONB327694 OWX327692:OWX327694 PGT327692:PGT327694 PQP327692:PQP327694 QAL327692:QAL327694 QKH327692:QKH327694 QUD327692:QUD327694 RDZ327692:RDZ327694 RNV327692:RNV327694 RXR327692:RXR327694 SHN327692:SHN327694 SRJ327692:SRJ327694 TBF327692:TBF327694 TLB327692:TLB327694 TUX327692:TUX327694 UET327692:UET327694 UOP327692:UOP327694 UYL327692:UYL327694 VIH327692:VIH327694 VSD327692:VSD327694 WBZ327692:WBZ327694 WLV327692:WLV327694 WVR327692:WVR327694 J393228:J393230 JF393228:JF393230 TB393228:TB393230 ACX393228:ACX393230 AMT393228:AMT393230 AWP393228:AWP393230 BGL393228:BGL393230 BQH393228:BQH393230 CAD393228:CAD393230 CJZ393228:CJZ393230 CTV393228:CTV393230 DDR393228:DDR393230 DNN393228:DNN393230 DXJ393228:DXJ393230 EHF393228:EHF393230 ERB393228:ERB393230 FAX393228:FAX393230 FKT393228:FKT393230 FUP393228:FUP393230 GEL393228:GEL393230 GOH393228:GOH393230 GYD393228:GYD393230 HHZ393228:HHZ393230 HRV393228:HRV393230 IBR393228:IBR393230 ILN393228:ILN393230 IVJ393228:IVJ393230 JFF393228:JFF393230 JPB393228:JPB393230 JYX393228:JYX393230 KIT393228:KIT393230 KSP393228:KSP393230 LCL393228:LCL393230 LMH393228:LMH393230 LWD393228:LWD393230 MFZ393228:MFZ393230 MPV393228:MPV393230 MZR393228:MZR393230 NJN393228:NJN393230 NTJ393228:NTJ393230 ODF393228:ODF393230 ONB393228:ONB393230 OWX393228:OWX393230 PGT393228:PGT393230 PQP393228:PQP393230 QAL393228:QAL393230 QKH393228:QKH393230 QUD393228:QUD393230 RDZ393228:RDZ393230 RNV393228:RNV393230 RXR393228:RXR393230 SHN393228:SHN393230 SRJ393228:SRJ393230 TBF393228:TBF393230 TLB393228:TLB393230 TUX393228:TUX393230 UET393228:UET393230 UOP393228:UOP393230 UYL393228:UYL393230 VIH393228:VIH393230 VSD393228:VSD393230 WBZ393228:WBZ393230 WLV393228:WLV393230 WVR393228:WVR393230 J458764:J458766 JF458764:JF458766 TB458764:TB458766 ACX458764:ACX458766 AMT458764:AMT458766 AWP458764:AWP458766 BGL458764:BGL458766 BQH458764:BQH458766 CAD458764:CAD458766 CJZ458764:CJZ458766 CTV458764:CTV458766 DDR458764:DDR458766 DNN458764:DNN458766 DXJ458764:DXJ458766 EHF458764:EHF458766 ERB458764:ERB458766 FAX458764:FAX458766 FKT458764:FKT458766 FUP458764:FUP458766 GEL458764:GEL458766 GOH458764:GOH458766 GYD458764:GYD458766 HHZ458764:HHZ458766 HRV458764:HRV458766 IBR458764:IBR458766 ILN458764:ILN458766 IVJ458764:IVJ458766 JFF458764:JFF458766 JPB458764:JPB458766 JYX458764:JYX458766 KIT458764:KIT458766 KSP458764:KSP458766 LCL458764:LCL458766 LMH458764:LMH458766 LWD458764:LWD458766 MFZ458764:MFZ458766 MPV458764:MPV458766 MZR458764:MZR458766 NJN458764:NJN458766 NTJ458764:NTJ458766 ODF458764:ODF458766 ONB458764:ONB458766 OWX458764:OWX458766 PGT458764:PGT458766 PQP458764:PQP458766 QAL458764:QAL458766 QKH458764:QKH458766 QUD458764:QUD458766 RDZ458764:RDZ458766 RNV458764:RNV458766 RXR458764:RXR458766 SHN458764:SHN458766 SRJ458764:SRJ458766 TBF458764:TBF458766 TLB458764:TLB458766 TUX458764:TUX458766 UET458764:UET458766 UOP458764:UOP458766 UYL458764:UYL458766 VIH458764:VIH458766 VSD458764:VSD458766 WBZ458764:WBZ458766 WLV458764:WLV458766 WVR458764:WVR458766 J524300:J524302 JF524300:JF524302 TB524300:TB524302 ACX524300:ACX524302 AMT524300:AMT524302 AWP524300:AWP524302 BGL524300:BGL524302 BQH524300:BQH524302 CAD524300:CAD524302 CJZ524300:CJZ524302 CTV524300:CTV524302 DDR524300:DDR524302 DNN524300:DNN524302 DXJ524300:DXJ524302 EHF524300:EHF524302 ERB524300:ERB524302 FAX524300:FAX524302 FKT524300:FKT524302 FUP524300:FUP524302 GEL524300:GEL524302 GOH524300:GOH524302 GYD524300:GYD524302 HHZ524300:HHZ524302 HRV524300:HRV524302 IBR524300:IBR524302 ILN524300:ILN524302 IVJ524300:IVJ524302 JFF524300:JFF524302 JPB524300:JPB524302 JYX524300:JYX524302 KIT524300:KIT524302 KSP524300:KSP524302 LCL524300:LCL524302 LMH524300:LMH524302 LWD524300:LWD524302 MFZ524300:MFZ524302 MPV524300:MPV524302 MZR524300:MZR524302 NJN524300:NJN524302 NTJ524300:NTJ524302 ODF524300:ODF524302 ONB524300:ONB524302 OWX524300:OWX524302 PGT524300:PGT524302 PQP524300:PQP524302 QAL524300:QAL524302 QKH524300:QKH524302 QUD524300:QUD524302 RDZ524300:RDZ524302 RNV524300:RNV524302 RXR524300:RXR524302 SHN524300:SHN524302 SRJ524300:SRJ524302 TBF524300:TBF524302 TLB524300:TLB524302 TUX524300:TUX524302 UET524300:UET524302 UOP524300:UOP524302 UYL524300:UYL524302 VIH524300:VIH524302 VSD524300:VSD524302 WBZ524300:WBZ524302 WLV524300:WLV524302 WVR524300:WVR524302 J589836:J589838 JF589836:JF589838 TB589836:TB589838 ACX589836:ACX589838 AMT589836:AMT589838 AWP589836:AWP589838 BGL589836:BGL589838 BQH589836:BQH589838 CAD589836:CAD589838 CJZ589836:CJZ589838 CTV589836:CTV589838 DDR589836:DDR589838 DNN589836:DNN589838 DXJ589836:DXJ589838 EHF589836:EHF589838 ERB589836:ERB589838 FAX589836:FAX589838 FKT589836:FKT589838 FUP589836:FUP589838 GEL589836:GEL589838 GOH589836:GOH589838 GYD589836:GYD589838 HHZ589836:HHZ589838 HRV589836:HRV589838 IBR589836:IBR589838 ILN589836:ILN589838 IVJ589836:IVJ589838 JFF589836:JFF589838 JPB589836:JPB589838 JYX589836:JYX589838 KIT589836:KIT589838 KSP589836:KSP589838 LCL589836:LCL589838 LMH589836:LMH589838 LWD589836:LWD589838 MFZ589836:MFZ589838 MPV589836:MPV589838 MZR589836:MZR589838 NJN589836:NJN589838 NTJ589836:NTJ589838 ODF589836:ODF589838 ONB589836:ONB589838 OWX589836:OWX589838 PGT589836:PGT589838 PQP589836:PQP589838 QAL589836:QAL589838 QKH589836:QKH589838 QUD589836:QUD589838 RDZ589836:RDZ589838 RNV589836:RNV589838 RXR589836:RXR589838 SHN589836:SHN589838 SRJ589836:SRJ589838 TBF589836:TBF589838 TLB589836:TLB589838 TUX589836:TUX589838 UET589836:UET589838 UOP589836:UOP589838 UYL589836:UYL589838 VIH589836:VIH589838 VSD589836:VSD589838 WBZ589836:WBZ589838 WLV589836:WLV589838 WVR589836:WVR589838 J655372:J655374 JF655372:JF655374 TB655372:TB655374 ACX655372:ACX655374 AMT655372:AMT655374 AWP655372:AWP655374 BGL655372:BGL655374 BQH655372:BQH655374 CAD655372:CAD655374 CJZ655372:CJZ655374 CTV655372:CTV655374 DDR655372:DDR655374 DNN655372:DNN655374 DXJ655372:DXJ655374 EHF655372:EHF655374 ERB655372:ERB655374 FAX655372:FAX655374 FKT655372:FKT655374 FUP655372:FUP655374 GEL655372:GEL655374 GOH655372:GOH655374 GYD655372:GYD655374 HHZ655372:HHZ655374 HRV655372:HRV655374 IBR655372:IBR655374 ILN655372:ILN655374 IVJ655372:IVJ655374 JFF655372:JFF655374 JPB655372:JPB655374 JYX655372:JYX655374 KIT655372:KIT655374 KSP655372:KSP655374 LCL655372:LCL655374 LMH655372:LMH655374 LWD655372:LWD655374 MFZ655372:MFZ655374 MPV655372:MPV655374 MZR655372:MZR655374 NJN655372:NJN655374 NTJ655372:NTJ655374 ODF655372:ODF655374 ONB655372:ONB655374 OWX655372:OWX655374 PGT655372:PGT655374 PQP655372:PQP655374 QAL655372:QAL655374 QKH655372:QKH655374 QUD655372:QUD655374 RDZ655372:RDZ655374 RNV655372:RNV655374 RXR655372:RXR655374 SHN655372:SHN655374 SRJ655372:SRJ655374 TBF655372:TBF655374 TLB655372:TLB655374 TUX655372:TUX655374 UET655372:UET655374 UOP655372:UOP655374 UYL655372:UYL655374 VIH655372:VIH655374 VSD655372:VSD655374 WBZ655372:WBZ655374 WLV655372:WLV655374 WVR655372:WVR655374 J720908:J720910 JF720908:JF720910 TB720908:TB720910 ACX720908:ACX720910 AMT720908:AMT720910 AWP720908:AWP720910 BGL720908:BGL720910 BQH720908:BQH720910 CAD720908:CAD720910 CJZ720908:CJZ720910 CTV720908:CTV720910 DDR720908:DDR720910 DNN720908:DNN720910 DXJ720908:DXJ720910 EHF720908:EHF720910 ERB720908:ERB720910 FAX720908:FAX720910 FKT720908:FKT720910 FUP720908:FUP720910 GEL720908:GEL720910 GOH720908:GOH720910 GYD720908:GYD720910 HHZ720908:HHZ720910 HRV720908:HRV720910 IBR720908:IBR720910 ILN720908:ILN720910 IVJ720908:IVJ720910 JFF720908:JFF720910 JPB720908:JPB720910 JYX720908:JYX720910 KIT720908:KIT720910 KSP720908:KSP720910 LCL720908:LCL720910 LMH720908:LMH720910 LWD720908:LWD720910 MFZ720908:MFZ720910 MPV720908:MPV720910 MZR720908:MZR720910 NJN720908:NJN720910 NTJ720908:NTJ720910 ODF720908:ODF720910 ONB720908:ONB720910 OWX720908:OWX720910 PGT720908:PGT720910 PQP720908:PQP720910 QAL720908:QAL720910 QKH720908:QKH720910 QUD720908:QUD720910 RDZ720908:RDZ720910 RNV720908:RNV720910 RXR720908:RXR720910 SHN720908:SHN720910 SRJ720908:SRJ720910 TBF720908:TBF720910 TLB720908:TLB720910 TUX720908:TUX720910 UET720908:UET720910 UOP720908:UOP720910 UYL720908:UYL720910 VIH720908:VIH720910 VSD720908:VSD720910 WBZ720908:WBZ720910 WLV720908:WLV720910 WVR720908:WVR720910 J786444:J786446 JF786444:JF786446 TB786444:TB786446 ACX786444:ACX786446 AMT786444:AMT786446 AWP786444:AWP786446 BGL786444:BGL786446 BQH786444:BQH786446 CAD786444:CAD786446 CJZ786444:CJZ786446 CTV786444:CTV786446 DDR786444:DDR786446 DNN786444:DNN786446 DXJ786444:DXJ786446 EHF786444:EHF786446 ERB786444:ERB786446 FAX786444:FAX786446 FKT786444:FKT786446 FUP786444:FUP786446 GEL786444:GEL786446 GOH786444:GOH786446 GYD786444:GYD786446 HHZ786444:HHZ786446 HRV786444:HRV786446 IBR786444:IBR786446 ILN786444:ILN786446 IVJ786444:IVJ786446 JFF786444:JFF786446 JPB786444:JPB786446 JYX786444:JYX786446 KIT786444:KIT786446 KSP786444:KSP786446 LCL786444:LCL786446 LMH786444:LMH786446 LWD786444:LWD786446 MFZ786444:MFZ786446 MPV786444:MPV786446 MZR786444:MZR786446 NJN786444:NJN786446 NTJ786444:NTJ786446 ODF786444:ODF786446 ONB786444:ONB786446 OWX786444:OWX786446 PGT786444:PGT786446 PQP786444:PQP786446 QAL786444:QAL786446 QKH786444:QKH786446 QUD786444:QUD786446 RDZ786444:RDZ786446 RNV786444:RNV786446 RXR786444:RXR786446 SHN786444:SHN786446 SRJ786444:SRJ786446 TBF786444:TBF786446 TLB786444:TLB786446 TUX786444:TUX786446 UET786444:UET786446 UOP786444:UOP786446 UYL786444:UYL786446 VIH786444:VIH786446 VSD786444:VSD786446 WBZ786444:WBZ786446 WLV786444:WLV786446 WVR786444:WVR786446 J851980:J851982 JF851980:JF851982 TB851980:TB851982 ACX851980:ACX851982 AMT851980:AMT851982 AWP851980:AWP851982 BGL851980:BGL851982 BQH851980:BQH851982 CAD851980:CAD851982 CJZ851980:CJZ851982 CTV851980:CTV851982 DDR851980:DDR851982 DNN851980:DNN851982 DXJ851980:DXJ851982 EHF851980:EHF851982 ERB851980:ERB851982 FAX851980:FAX851982 FKT851980:FKT851982 FUP851980:FUP851982 GEL851980:GEL851982 GOH851980:GOH851982 GYD851980:GYD851982 HHZ851980:HHZ851982 HRV851980:HRV851982 IBR851980:IBR851982 ILN851980:ILN851982 IVJ851980:IVJ851982 JFF851980:JFF851982 JPB851980:JPB851982 JYX851980:JYX851982 KIT851980:KIT851982 KSP851980:KSP851982 LCL851980:LCL851982 LMH851980:LMH851982 LWD851980:LWD851982 MFZ851980:MFZ851982 MPV851980:MPV851982 MZR851980:MZR851982 NJN851980:NJN851982 NTJ851980:NTJ851982 ODF851980:ODF851982 ONB851980:ONB851982 OWX851980:OWX851982 PGT851980:PGT851982 PQP851980:PQP851982 QAL851980:QAL851982 QKH851980:QKH851982 QUD851980:QUD851982 RDZ851980:RDZ851982 RNV851980:RNV851982 RXR851980:RXR851982 SHN851980:SHN851982 SRJ851980:SRJ851982 TBF851980:TBF851982 TLB851980:TLB851982 TUX851980:TUX851982 UET851980:UET851982 UOP851980:UOP851982 UYL851980:UYL851982 VIH851980:VIH851982 VSD851980:VSD851982 WBZ851980:WBZ851982 WLV851980:WLV851982 WVR851980:WVR851982 J917516:J917518 JF917516:JF917518 TB917516:TB917518 ACX917516:ACX917518 AMT917516:AMT917518 AWP917516:AWP917518 BGL917516:BGL917518 BQH917516:BQH917518 CAD917516:CAD917518 CJZ917516:CJZ917518 CTV917516:CTV917518 DDR917516:DDR917518 DNN917516:DNN917518 DXJ917516:DXJ917518 EHF917516:EHF917518 ERB917516:ERB917518 FAX917516:FAX917518 FKT917516:FKT917518 FUP917516:FUP917518 GEL917516:GEL917518 GOH917516:GOH917518 GYD917516:GYD917518 HHZ917516:HHZ917518 HRV917516:HRV917518 IBR917516:IBR917518 ILN917516:ILN917518 IVJ917516:IVJ917518 JFF917516:JFF917518 JPB917516:JPB917518 JYX917516:JYX917518 KIT917516:KIT917518 KSP917516:KSP917518 LCL917516:LCL917518 LMH917516:LMH917518 LWD917516:LWD917518 MFZ917516:MFZ917518 MPV917516:MPV917518 MZR917516:MZR917518 NJN917516:NJN917518 NTJ917516:NTJ917518 ODF917516:ODF917518 ONB917516:ONB917518 OWX917516:OWX917518 PGT917516:PGT917518 PQP917516:PQP917518 QAL917516:QAL917518 QKH917516:QKH917518 QUD917516:QUD917518 RDZ917516:RDZ917518 RNV917516:RNV917518 RXR917516:RXR917518 SHN917516:SHN917518 SRJ917516:SRJ917518 TBF917516:TBF917518 TLB917516:TLB917518 TUX917516:TUX917518 UET917516:UET917518 UOP917516:UOP917518 UYL917516:UYL917518 VIH917516:VIH917518 VSD917516:VSD917518 WBZ917516:WBZ917518 WLV917516:WLV917518 WVR917516:WVR917518 J983052:J983054 JF983052:JF983054 TB983052:TB983054 ACX983052:ACX983054 AMT983052:AMT983054 AWP983052:AWP983054 BGL983052:BGL983054 BQH983052:BQH983054 CAD983052:CAD983054 CJZ983052:CJZ983054 CTV983052:CTV983054 DDR983052:DDR983054 DNN983052:DNN983054 DXJ983052:DXJ983054 EHF983052:EHF983054 ERB983052:ERB983054 FAX983052:FAX983054 FKT983052:FKT983054 FUP983052:FUP983054 GEL983052:GEL983054 GOH983052:GOH983054 GYD983052:GYD983054 HHZ983052:HHZ983054 HRV983052:HRV983054 IBR983052:IBR983054 ILN983052:ILN983054 IVJ983052:IVJ983054 JFF983052:JFF983054 JPB983052:JPB983054 JYX983052:JYX983054 KIT983052:KIT983054 KSP983052:KSP983054 LCL983052:LCL983054 LMH983052:LMH983054 LWD983052:LWD983054 MFZ983052:MFZ983054 MPV983052:MPV983054 MZR983052:MZR983054 NJN983052:NJN983054 NTJ983052:NTJ983054 ODF983052:ODF983054 ONB983052:ONB983054 OWX983052:OWX983054 PGT983052:PGT983054 PQP983052:PQP983054 QAL983052:QAL983054 QKH983052:QKH983054 QUD983052:QUD983054 RDZ983052:RDZ983054 RNV983052:RNV983054 RXR983052:RXR983054 SHN983052:SHN983054 SRJ983052:SRJ983054 TBF983052:TBF983054 TLB983052:TLB983054 TUX983052:TUX983054 UET983052:UET983054 UOP983052:UOP983054 UYL983052:UYL983054 VIH983052:VIH983054 VSD983052:VSD983054 WBZ983052:WBZ983054 WLV983052:WLV983054 WVR983052:WVR983054 J16 JF16 TB16 ACX16 AMT16 AWP16 BGL16 BQH16 CAD16 CJZ16 CTV16 DDR16 DNN16 DXJ16 EHF16 ERB16 FAX16 FKT16 FUP16 GEL16 GOH16 GYD16 HHZ16 HRV16 IBR16 ILN16 IVJ16 JFF16 JPB16 JYX16 KIT16 KSP16 LCL16 LMH16 LWD16 MFZ16 MPV16 MZR16 NJN16 NTJ16 ODF16 ONB16 OWX16 PGT16 PQP16 QAL16 QKH16 QUD16 RDZ16 RNV16 RXR16 SHN16 SRJ16 TBF16 TLB16 TUX16 UET16 UOP16 UYL16 VIH16 VSD16 WBZ16 WLV16 WVR16 J65552 JF65552 TB65552 ACX65552 AMT65552 AWP65552 BGL65552 BQH65552 CAD65552 CJZ65552 CTV65552 DDR65552 DNN65552 DXJ65552 EHF65552 ERB65552 FAX65552 FKT65552 FUP65552 GEL65552 GOH65552 GYD65552 HHZ65552 HRV65552 IBR65552 ILN65552 IVJ65552 JFF65552 JPB65552 JYX65552 KIT65552 KSP65552 LCL65552 LMH65552 LWD65552 MFZ65552 MPV65552 MZR65552 NJN65552 NTJ65552 ODF65552 ONB65552 OWX65552 PGT65552 PQP65552 QAL65552 QKH65552 QUD65552 RDZ65552 RNV65552 RXR65552 SHN65552 SRJ65552 TBF65552 TLB65552 TUX65552 UET65552 UOP65552 UYL65552 VIH65552 VSD65552 WBZ65552 WLV65552 WVR65552 J131088 JF131088 TB131088 ACX131088 AMT131088 AWP131088 BGL131088 BQH131088 CAD131088 CJZ131088 CTV131088 DDR131088 DNN131088 DXJ131088 EHF131088 ERB131088 FAX131088 FKT131088 FUP131088 GEL131088 GOH131088 GYD131088 HHZ131088 HRV131088 IBR131088 ILN131088 IVJ131088 JFF131088 JPB131088 JYX131088 KIT131088 KSP131088 LCL131088 LMH131088 LWD131088 MFZ131088 MPV131088 MZR131088 NJN131088 NTJ131088 ODF131088 ONB131088 OWX131088 PGT131088 PQP131088 QAL131088 QKH131088 QUD131088 RDZ131088 RNV131088 RXR131088 SHN131088 SRJ131088 TBF131088 TLB131088 TUX131088 UET131088 UOP131088 UYL131088 VIH131088 VSD131088 WBZ131088 WLV131088 WVR131088 J196624 JF196624 TB196624 ACX196624 AMT196624 AWP196624 BGL196624 BQH196624 CAD196624 CJZ196624 CTV196624 DDR196624 DNN196624 DXJ196624 EHF196624 ERB196624 FAX196624 FKT196624 FUP196624 GEL196624 GOH196624 GYD196624 HHZ196624 HRV196624 IBR196624 ILN196624 IVJ196624 JFF196624 JPB196624 JYX196624 KIT196624 KSP196624 LCL196624 LMH196624 LWD196624 MFZ196624 MPV196624 MZR196624 NJN196624 NTJ196624 ODF196624 ONB196624 OWX196624 PGT196624 PQP196624 QAL196624 QKH196624 QUD196624 RDZ196624 RNV196624 RXR196624 SHN196624 SRJ196624 TBF196624 TLB196624 TUX196624 UET196624 UOP196624 UYL196624 VIH196624 VSD196624 WBZ196624 WLV196624 WVR196624 J262160 JF262160 TB262160 ACX262160 AMT262160 AWP262160 BGL262160 BQH262160 CAD262160 CJZ262160 CTV262160 DDR262160 DNN262160 DXJ262160 EHF262160 ERB262160 FAX262160 FKT262160 FUP262160 GEL262160 GOH262160 GYD262160 HHZ262160 HRV262160 IBR262160 ILN262160 IVJ262160 JFF262160 JPB262160 JYX262160 KIT262160 KSP262160 LCL262160 LMH262160 LWD262160 MFZ262160 MPV262160 MZR262160 NJN262160 NTJ262160 ODF262160 ONB262160 OWX262160 PGT262160 PQP262160 QAL262160 QKH262160 QUD262160 RDZ262160 RNV262160 RXR262160 SHN262160 SRJ262160 TBF262160 TLB262160 TUX262160 UET262160 UOP262160 UYL262160 VIH262160 VSD262160 WBZ262160 WLV262160 WVR262160 J327696 JF327696 TB327696 ACX327696 AMT327696 AWP327696 BGL327696 BQH327696 CAD327696 CJZ327696 CTV327696 DDR327696 DNN327696 DXJ327696 EHF327696 ERB327696 FAX327696 FKT327696 FUP327696 GEL327696 GOH327696 GYD327696 HHZ327696 HRV327696 IBR327696 ILN327696 IVJ327696 JFF327696 JPB327696 JYX327696 KIT327696 KSP327696 LCL327696 LMH327696 LWD327696 MFZ327696 MPV327696 MZR327696 NJN327696 NTJ327696 ODF327696 ONB327696 OWX327696 PGT327696 PQP327696 QAL327696 QKH327696 QUD327696 RDZ327696 RNV327696 RXR327696 SHN327696 SRJ327696 TBF327696 TLB327696 TUX327696 UET327696 UOP327696 UYL327696 VIH327696 VSD327696 WBZ327696 WLV327696 WVR327696 J393232 JF393232 TB393232 ACX393232 AMT393232 AWP393232 BGL393232 BQH393232 CAD393232 CJZ393232 CTV393232 DDR393232 DNN393232 DXJ393232 EHF393232 ERB393232 FAX393232 FKT393232 FUP393232 GEL393232 GOH393232 GYD393232 HHZ393232 HRV393232 IBR393232 ILN393232 IVJ393232 JFF393232 JPB393232 JYX393232 KIT393232 KSP393232 LCL393232 LMH393232 LWD393232 MFZ393232 MPV393232 MZR393232 NJN393232 NTJ393232 ODF393232 ONB393232 OWX393232 PGT393232 PQP393232 QAL393232 QKH393232 QUD393232 RDZ393232 RNV393232 RXR393232 SHN393232 SRJ393232 TBF393232 TLB393232 TUX393232 UET393232 UOP393232 UYL393232 VIH393232 VSD393232 WBZ393232 WLV393232 WVR393232 J458768 JF458768 TB458768 ACX458768 AMT458768 AWP458768 BGL458768 BQH458768 CAD458768 CJZ458768 CTV458768 DDR458768 DNN458768 DXJ458768 EHF458768 ERB458768 FAX458768 FKT458768 FUP458768 GEL458768 GOH458768 GYD458768 HHZ458768 HRV458768 IBR458768 ILN458768 IVJ458768 JFF458768 JPB458768 JYX458768 KIT458768 KSP458768 LCL458768 LMH458768 LWD458768 MFZ458768 MPV458768 MZR458768 NJN458768 NTJ458768 ODF458768 ONB458768 OWX458768 PGT458768 PQP458768 QAL458768 QKH458768 QUD458768 RDZ458768 RNV458768 RXR458768 SHN458768 SRJ458768 TBF458768 TLB458768 TUX458768 UET458768 UOP458768 UYL458768 VIH458768 VSD458768 WBZ458768 WLV458768 WVR458768 J524304 JF524304 TB524304 ACX524304 AMT524304 AWP524304 BGL524304 BQH524304 CAD524304 CJZ524304 CTV524304 DDR524304 DNN524304 DXJ524304 EHF524304 ERB524304 FAX524304 FKT524304 FUP524304 GEL524304 GOH524304 GYD524304 HHZ524304 HRV524304 IBR524304 ILN524304 IVJ524304 JFF524304 JPB524304 JYX524304 KIT524304 KSP524304 LCL524304 LMH524304 LWD524304 MFZ524304 MPV524304 MZR524304 NJN524304 NTJ524304 ODF524304 ONB524304 OWX524304 PGT524304 PQP524304 QAL524304 QKH524304 QUD524304 RDZ524304 RNV524304 RXR524304 SHN524304 SRJ524304 TBF524304 TLB524304 TUX524304 UET524304 UOP524304 UYL524304 VIH524304 VSD524304 WBZ524304 WLV524304 WVR524304 J589840 JF589840 TB589840 ACX589840 AMT589840 AWP589840 BGL589840 BQH589840 CAD589840 CJZ589840 CTV589840 DDR589840 DNN589840 DXJ589840 EHF589840 ERB589840 FAX589840 FKT589840 FUP589840 GEL589840 GOH589840 GYD589840 HHZ589840 HRV589840 IBR589840 ILN589840 IVJ589840 JFF589840 JPB589840 JYX589840 KIT589840 KSP589840 LCL589840 LMH589840 LWD589840 MFZ589840 MPV589840 MZR589840 NJN589840 NTJ589840 ODF589840 ONB589840 OWX589840 PGT589840 PQP589840 QAL589840 QKH589840 QUD589840 RDZ589840 RNV589840 RXR589840 SHN589840 SRJ589840 TBF589840 TLB589840 TUX589840 UET589840 UOP589840 UYL589840 VIH589840 VSD589840 WBZ589840 WLV589840 WVR589840 J655376 JF655376 TB655376 ACX655376 AMT655376 AWP655376 BGL655376 BQH655376 CAD655376 CJZ655376 CTV655376 DDR655376 DNN655376 DXJ655376 EHF655376 ERB655376 FAX655376 FKT655376 FUP655376 GEL655376 GOH655376 GYD655376 HHZ655376 HRV655376 IBR655376 ILN655376 IVJ655376 JFF655376 JPB655376 JYX655376 KIT655376 KSP655376 LCL655376 LMH655376 LWD655376 MFZ655376 MPV655376 MZR655376 NJN655376 NTJ655376 ODF655376 ONB655376 OWX655376 PGT655376 PQP655376 QAL655376 QKH655376 QUD655376 RDZ655376 RNV655376 RXR655376 SHN655376 SRJ655376 TBF655376 TLB655376 TUX655376 UET655376 UOP655376 UYL655376 VIH655376 VSD655376 WBZ655376 WLV655376 WVR655376 J720912 JF720912 TB720912 ACX720912 AMT720912 AWP720912 BGL720912 BQH720912 CAD720912 CJZ720912 CTV720912 DDR720912 DNN720912 DXJ720912 EHF720912 ERB720912 FAX720912 FKT720912 FUP720912 GEL720912 GOH720912 GYD720912 HHZ720912 HRV720912 IBR720912 ILN720912 IVJ720912 JFF720912 JPB720912 JYX720912 KIT720912 KSP720912 LCL720912 LMH720912 LWD720912 MFZ720912 MPV720912 MZR720912 NJN720912 NTJ720912 ODF720912 ONB720912 OWX720912 PGT720912 PQP720912 QAL720912 QKH720912 QUD720912 RDZ720912 RNV720912 RXR720912 SHN720912 SRJ720912 TBF720912 TLB720912 TUX720912 UET720912 UOP720912 UYL720912 VIH720912 VSD720912 WBZ720912 WLV720912 WVR720912 J786448 JF786448 TB786448 ACX786448 AMT786448 AWP786448 BGL786448 BQH786448 CAD786448 CJZ786448 CTV786448 DDR786448 DNN786448 DXJ786448 EHF786448 ERB786448 FAX786448 FKT786448 FUP786448 GEL786448 GOH786448 GYD786448 HHZ786448 HRV786448 IBR786448 ILN786448 IVJ786448 JFF786448 JPB786448 JYX786448 KIT786448 KSP786448 LCL786448 LMH786448 LWD786448 MFZ786448 MPV786448 MZR786448 NJN786448 NTJ786448 ODF786448 ONB786448 OWX786448 PGT786448 PQP786448 QAL786448 QKH786448 QUD786448 RDZ786448 RNV786448 RXR786448 SHN786448 SRJ786448 TBF786448 TLB786448 TUX786448 UET786448 UOP786448 UYL786448 VIH786448 VSD786448 WBZ786448 WLV786448 WVR786448 J851984 JF851984 TB851984 ACX851984 AMT851984 AWP851984 BGL851984 BQH851984 CAD851984 CJZ851984 CTV851984 DDR851984 DNN851984 DXJ851984 EHF851984 ERB851984 FAX851984 FKT851984 FUP851984 GEL851984 GOH851984 GYD851984 HHZ851984 HRV851984 IBR851984 ILN851984 IVJ851984 JFF851984 JPB851984 JYX851984 KIT851984 KSP851984 LCL851984 LMH851984 LWD851984 MFZ851984 MPV851984 MZR851984 NJN851984 NTJ851984 ODF851984 ONB851984 OWX851984 PGT851984 PQP851984 QAL851984 QKH851984 QUD851984 RDZ851984 RNV851984 RXR851984 SHN851984 SRJ851984 TBF851984 TLB851984 TUX851984 UET851984 UOP851984 UYL851984 VIH851984 VSD851984 WBZ851984 WLV851984 WVR851984 J917520 JF917520 TB917520 ACX917520 AMT917520 AWP917520 BGL917520 BQH917520 CAD917520 CJZ917520 CTV917520 DDR917520 DNN917520 DXJ917520 EHF917520 ERB917520 FAX917520 FKT917520 FUP917520 GEL917520 GOH917520 GYD917520 HHZ917520 HRV917520 IBR917520 ILN917520 IVJ917520 JFF917520 JPB917520 JYX917520 KIT917520 KSP917520 LCL917520 LMH917520 LWD917520 MFZ917520 MPV917520 MZR917520 NJN917520 NTJ917520 ODF917520 ONB917520 OWX917520 PGT917520 PQP917520 QAL917520 QKH917520 QUD917520 RDZ917520 RNV917520 RXR917520 SHN917520 SRJ917520 TBF917520 TLB917520 TUX917520 UET917520 UOP917520 UYL917520 VIH917520 VSD917520 WBZ917520 WLV917520 WVR917520 J983056 JF983056 TB983056 ACX983056 AMT983056 AWP983056 BGL983056 BQH983056 CAD983056 CJZ983056 CTV983056 DDR983056 DNN983056 DXJ983056 EHF983056 ERB983056 FAX983056 FKT983056 FUP983056 GEL983056 GOH983056 GYD983056 HHZ983056 HRV983056 IBR983056 ILN983056 IVJ983056 JFF983056 JPB983056 JYX983056 KIT983056 KSP983056 LCL983056 LMH983056 LWD983056 MFZ983056 MPV983056 MZR983056 NJN983056 NTJ983056 ODF983056 ONB983056 OWX983056 PGT983056 PQP983056 QAL983056 QKH983056 QUD983056 RDZ983056 RNV983056 RXR983056 SHN983056 SRJ983056 TBF983056 TLB983056 TUX983056 UET983056 UOP983056 UYL983056 VIH983056 VSD983056 WBZ983056 WLV983056 WVR983056 J19:J22 JF19:JF22 TB19:TB22 ACX19:ACX22 AMT19:AMT22 AWP19:AWP22 BGL19:BGL22 BQH19:BQH22 CAD19:CAD22 CJZ19:CJZ22 CTV19:CTV22 DDR19:DDR22 DNN19:DNN22 DXJ19:DXJ22 EHF19:EHF22 ERB19:ERB22 FAX19:FAX22 FKT19:FKT22 FUP19:FUP22 GEL19:GEL22 GOH19:GOH22 GYD19:GYD22 HHZ19:HHZ22 HRV19:HRV22 IBR19:IBR22 ILN19:ILN22 IVJ19:IVJ22 JFF19:JFF22 JPB19:JPB22 JYX19:JYX22 KIT19:KIT22 KSP19:KSP22 LCL19:LCL22 LMH19:LMH22 LWD19:LWD22 MFZ19:MFZ22 MPV19:MPV22 MZR19:MZR22 NJN19:NJN22 NTJ19:NTJ22 ODF19:ODF22 ONB19:ONB22 OWX19:OWX22 PGT19:PGT22 PQP19:PQP22 QAL19:QAL22 QKH19:QKH22 QUD19:QUD22 RDZ19:RDZ22 RNV19:RNV22 RXR19:RXR22 SHN19:SHN22 SRJ19:SRJ22 TBF19:TBF22 TLB19:TLB22 TUX19:TUX22 UET19:UET22 UOP19:UOP22 UYL19:UYL22 VIH19:VIH22 VSD19:VSD22 WBZ19:WBZ22 WLV19:WLV22 WVR19:WVR22 J65555:J65558 JF65555:JF65558 TB65555:TB65558 ACX65555:ACX65558 AMT65555:AMT65558 AWP65555:AWP65558 BGL65555:BGL65558 BQH65555:BQH65558 CAD65555:CAD65558 CJZ65555:CJZ65558 CTV65555:CTV65558 DDR65555:DDR65558 DNN65555:DNN65558 DXJ65555:DXJ65558 EHF65555:EHF65558 ERB65555:ERB65558 FAX65555:FAX65558 FKT65555:FKT65558 FUP65555:FUP65558 GEL65555:GEL65558 GOH65555:GOH65558 GYD65555:GYD65558 HHZ65555:HHZ65558 HRV65555:HRV65558 IBR65555:IBR65558 ILN65555:ILN65558 IVJ65555:IVJ65558 JFF65555:JFF65558 JPB65555:JPB65558 JYX65555:JYX65558 KIT65555:KIT65558 KSP65555:KSP65558 LCL65555:LCL65558 LMH65555:LMH65558 LWD65555:LWD65558 MFZ65555:MFZ65558 MPV65555:MPV65558 MZR65555:MZR65558 NJN65555:NJN65558 NTJ65555:NTJ65558 ODF65555:ODF65558 ONB65555:ONB65558 OWX65555:OWX65558 PGT65555:PGT65558 PQP65555:PQP65558 QAL65555:QAL65558 QKH65555:QKH65558 QUD65555:QUD65558 RDZ65555:RDZ65558 RNV65555:RNV65558 RXR65555:RXR65558 SHN65555:SHN65558 SRJ65555:SRJ65558 TBF65555:TBF65558 TLB65555:TLB65558 TUX65555:TUX65558 UET65555:UET65558 UOP65555:UOP65558 UYL65555:UYL65558 VIH65555:VIH65558 VSD65555:VSD65558 WBZ65555:WBZ65558 WLV65555:WLV65558 WVR65555:WVR65558 J131091:J131094 JF131091:JF131094 TB131091:TB131094 ACX131091:ACX131094 AMT131091:AMT131094 AWP131091:AWP131094 BGL131091:BGL131094 BQH131091:BQH131094 CAD131091:CAD131094 CJZ131091:CJZ131094 CTV131091:CTV131094 DDR131091:DDR131094 DNN131091:DNN131094 DXJ131091:DXJ131094 EHF131091:EHF131094 ERB131091:ERB131094 FAX131091:FAX131094 FKT131091:FKT131094 FUP131091:FUP131094 GEL131091:GEL131094 GOH131091:GOH131094 GYD131091:GYD131094 HHZ131091:HHZ131094 HRV131091:HRV131094 IBR131091:IBR131094 ILN131091:ILN131094 IVJ131091:IVJ131094 JFF131091:JFF131094 JPB131091:JPB131094 JYX131091:JYX131094 KIT131091:KIT131094 KSP131091:KSP131094 LCL131091:LCL131094 LMH131091:LMH131094 LWD131091:LWD131094 MFZ131091:MFZ131094 MPV131091:MPV131094 MZR131091:MZR131094 NJN131091:NJN131094 NTJ131091:NTJ131094 ODF131091:ODF131094 ONB131091:ONB131094 OWX131091:OWX131094 PGT131091:PGT131094 PQP131091:PQP131094 QAL131091:QAL131094 QKH131091:QKH131094 QUD131091:QUD131094 RDZ131091:RDZ131094 RNV131091:RNV131094 RXR131091:RXR131094 SHN131091:SHN131094 SRJ131091:SRJ131094 TBF131091:TBF131094 TLB131091:TLB131094 TUX131091:TUX131094 UET131091:UET131094 UOP131091:UOP131094 UYL131091:UYL131094 VIH131091:VIH131094 VSD131091:VSD131094 WBZ131091:WBZ131094 WLV131091:WLV131094 WVR131091:WVR131094 J196627:J196630 JF196627:JF196630 TB196627:TB196630 ACX196627:ACX196630 AMT196627:AMT196630 AWP196627:AWP196630 BGL196627:BGL196630 BQH196627:BQH196630 CAD196627:CAD196630 CJZ196627:CJZ196630 CTV196627:CTV196630 DDR196627:DDR196630 DNN196627:DNN196630 DXJ196627:DXJ196630 EHF196627:EHF196630 ERB196627:ERB196630 FAX196627:FAX196630 FKT196627:FKT196630 FUP196627:FUP196630 GEL196627:GEL196630 GOH196627:GOH196630 GYD196627:GYD196630 HHZ196627:HHZ196630 HRV196627:HRV196630 IBR196627:IBR196630 ILN196627:ILN196630 IVJ196627:IVJ196630 JFF196627:JFF196630 JPB196627:JPB196630 JYX196627:JYX196630 KIT196627:KIT196630 KSP196627:KSP196630 LCL196627:LCL196630 LMH196627:LMH196630 LWD196627:LWD196630 MFZ196627:MFZ196630 MPV196627:MPV196630 MZR196627:MZR196630 NJN196627:NJN196630 NTJ196627:NTJ196630 ODF196627:ODF196630 ONB196627:ONB196630 OWX196627:OWX196630 PGT196627:PGT196630 PQP196627:PQP196630 QAL196627:QAL196630 QKH196627:QKH196630 QUD196627:QUD196630 RDZ196627:RDZ196630 RNV196627:RNV196630 RXR196627:RXR196630 SHN196627:SHN196630 SRJ196627:SRJ196630 TBF196627:TBF196630 TLB196627:TLB196630 TUX196627:TUX196630 UET196627:UET196630 UOP196627:UOP196630 UYL196627:UYL196630 VIH196627:VIH196630 VSD196627:VSD196630 WBZ196627:WBZ196630 WLV196627:WLV196630 WVR196627:WVR196630 J262163:J262166 JF262163:JF262166 TB262163:TB262166 ACX262163:ACX262166 AMT262163:AMT262166 AWP262163:AWP262166 BGL262163:BGL262166 BQH262163:BQH262166 CAD262163:CAD262166 CJZ262163:CJZ262166 CTV262163:CTV262166 DDR262163:DDR262166 DNN262163:DNN262166 DXJ262163:DXJ262166 EHF262163:EHF262166 ERB262163:ERB262166 FAX262163:FAX262166 FKT262163:FKT262166 FUP262163:FUP262166 GEL262163:GEL262166 GOH262163:GOH262166 GYD262163:GYD262166 HHZ262163:HHZ262166 HRV262163:HRV262166 IBR262163:IBR262166 ILN262163:ILN262166 IVJ262163:IVJ262166 JFF262163:JFF262166 JPB262163:JPB262166 JYX262163:JYX262166 KIT262163:KIT262166 KSP262163:KSP262166 LCL262163:LCL262166 LMH262163:LMH262166 LWD262163:LWD262166 MFZ262163:MFZ262166 MPV262163:MPV262166 MZR262163:MZR262166 NJN262163:NJN262166 NTJ262163:NTJ262166 ODF262163:ODF262166 ONB262163:ONB262166 OWX262163:OWX262166 PGT262163:PGT262166 PQP262163:PQP262166 QAL262163:QAL262166 QKH262163:QKH262166 QUD262163:QUD262166 RDZ262163:RDZ262166 RNV262163:RNV262166 RXR262163:RXR262166 SHN262163:SHN262166 SRJ262163:SRJ262166 TBF262163:TBF262166 TLB262163:TLB262166 TUX262163:TUX262166 UET262163:UET262166 UOP262163:UOP262166 UYL262163:UYL262166 VIH262163:VIH262166 VSD262163:VSD262166 WBZ262163:WBZ262166 WLV262163:WLV262166 WVR262163:WVR262166 J327699:J327702 JF327699:JF327702 TB327699:TB327702 ACX327699:ACX327702 AMT327699:AMT327702 AWP327699:AWP327702 BGL327699:BGL327702 BQH327699:BQH327702 CAD327699:CAD327702 CJZ327699:CJZ327702 CTV327699:CTV327702 DDR327699:DDR327702 DNN327699:DNN327702 DXJ327699:DXJ327702 EHF327699:EHF327702 ERB327699:ERB327702 FAX327699:FAX327702 FKT327699:FKT327702 FUP327699:FUP327702 GEL327699:GEL327702 GOH327699:GOH327702 GYD327699:GYD327702 HHZ327699:HHZ327702 HRV327699:HRV327702 IBR327699:IBR327702 ILN327699:ILN327702 IVJ327699:IVJ327702 JFF327699:JFF327702 JPB327699:JPB327702 JYX327699:JYX327702 KIT327699:KIT327702 KSP327699:KSP327702 LCL327699:LCL327702 LMH327699:LMH327702 LWD327699:LWD327702 MFZ327699:MFZ327702 MPV327699:MPV327702 MZR327699:MZR327702 NJN327699:NJN327702 NTJ327699:NTJ327702 ODF327699:ODF327702 ONB327699:ONB327702 OWX327699:OWX327702 PGT327699:PGT327702 PQP327699:PQP327702 QAL327699:QAL327702 QKH327699:QKH327702 QUD327699:QUD327702 RDZ327699:RDZ327702 RNV327699:RNV327702 RXR327699:RXR327702 SHN327699:SHN327702 SRJ327699:SRJ327702 TBF327699:TBF327702 TLB327699:TLB327702 TUX327699:TUX327702 UET327699:UET327702 UOP327699:UOP327702 UYL327699:UYL327702 VIH327699:VIH327702 VSD327699:VSD327702 WBZ327699:WBZ327702 WLV327699:WLV327702 WVR327699:WVR327702 J393235:J393238 JF393235:JF393238 TB393235:TB393238 ACX393235:ACX393238 AMT393235:AMT393238 AWP393235:AWP393238 BGL393235:BGL393238 BQH393235:BQH393238 CAD393235:CAD393238 CJZ393235:CJZ393238 CTV393235:CTV393238 DDR393235:DDR393238 DNN393235:DNN393238 DXJ393235:DXJ393238 EHF393235:EHF393238 ERB393235:ERB393238 FAX393235:FAX393238 FKT393235:FKT393238 FUP393235:FUP393238 GEL393235:GEL393238 GOH393235:GOH393238 GYD393235:GYD393238 HHZ393235:HHZ393238 HRV393235:HRV393238 IBR393235:IBR393238 ILN393235:ILN393238 IVJ393235:IVJ393238 JFF393235:JFF393238 JPB393235:JPB393238 JYX393235:JYX393238 KIT393235:KIT393238 KSP393235:KSP393238 LCL393235:LCL393238 LMH393235:LMH393238 LWD393235:LWD393238 MFZ393235:MFZ393238 MPV393235:MPV393238 MZR393235:MZR393238 NJN393235:NJN393238 NTJ393235:NTJ393238 ODF393235:ODF393238 ONB393235:ONB393238 OWX393235:OWX393238 PGT393235:PGT393238 PQP393235:PQP393238 QAL393235:QAL393238 QKH393235:QKH393238 QUD393235:QUD393238 RDZ393235:RDZ393238 RNV393235:RNV393238 RXR393235:RXR393238 SHN393235:SHN393238 SRJ393235:SRJ393238 TBF393235:TBF393238 TLB393235:TLB393238 TUX393235:TUX393238 UET393235:UET393238 UOP393235:UOP393238 UYL393235:UYL393238 VIH393235:VIH393238 VSD393235:VSD393238 WBZ393235:WBZ393238 WLV393235:WLV393238 WVR393235:WVR393238 J458771:J458774 JF458771:JF458774 TB458771:TB458774 ACX458771:ACX458774 AMT458771:AMT458774 AWP458771:AWP458774 BGL458771:BGL458774 BQH458771:BQH458774 CAD458771:CAD458774 CJZ458771:CJZ458774 CTV458771:CTV458774 DDR458771:DDR458774 DNN458771:DNN458774 DXJ458771:DXJ458774 EHF458771:EHF458774 ERB458771:ERB458774 FAX458771:FAX458774 FKT458771:FKT458774 FUP458771:FUP458774 GEL458771:GEL458774 GOH458771:GOH458774 GYD458771:GYD458774 HHZ458771:HHZ458774 HRV458771:HRV458774 IBR458771:IBR458774 ILN458771:ILN458774 IVJ458771:IVJ458774 JFF458771:JFF458774 JPB458771:JPB458774 JYX458771:JYX458774 KIT458771:KIT458774 KSP458771:KSP458774 LCL458771:LCL458774 LMH458771:LMH458774 LWD458771:LWD458774 MFZ458771:MFZ458774 MPV458771:MPV458774 MZR458771:MZR458774 NJN458771:NJN458774 NTJ458771:NTJ458774 ODF458771:ODF458774 ONB458771:ONB458774 OWX458771:OWX458774 PGT458771:PGT458774 PQP458771:PQP458774 QAL458771:QAL458774 QKH458771:QKH458774 QUD458771:QUD458774 RDZ458771:RDZ458774 RNV458771:RNV458774 RXR458771:RXR458774 SHN458771:SHN458774 SRJ458771:SRJ458774 TBF458771:TBF458774 TLB458771:TLB458774 TUX458771:TUX458774 UET458771:UET458774 UOP458771:UOP458774 UYL458771:UYL458774 VIH458771:VIH458774 VSD458771:VSD458774 WBZ458771:WBZ458774 WLV458771:WLV458774 WVR458771:WVR458774 J524307:J524310 JF524307:JF524310 TB524307:TB524310 ACX524307:ACX524310 AMT524307:AMT524310 AWP524307:AWP524310 BGL524307:BGL524310 BQH524307:BQH524310 CAD524307:CAD524310 CJZ524307:CJZ524310 CTV524307:CTV524310 DDR524307:DDR524310 DNN524307:DNN524310 DXJ524307:DXJ524310 EHF524307:EHF524310 ERB524307:ERB524310 FAX524307:FAX524310 FKT524307:FKT524310 FUP524307:FUP524310 GEL524307:GEL524310 GOH524307:GOH524310 GYD524307:GYD524310 HHZ524307:HHZ524310 HRV524307:HRV524310 IBR524307:IBR524310 ILN524307:ILN524310 IVJ524307:IVJ524310 JFF524307:JFF524310 JPB524307:JPB524310 JYX524307:JYX524310 KIT524307:KIT524310 KSP524307:KSP524310 LCL524307:LCL524310 LMH524307:LMH524310 LWD524307:LWD524310 MFZ524307:MFZ524310 MPV524307:MPV524310 MZR524307:MZR524310 NJN524307:NJN524310 NTJ524307:NTJ524310 ODF524307:ODF524310 ONB524307:ONB524310 OWX524307:OWX524310 PGT524307:PGT524310 PQP524307:PQP524310 QAL524307:QAL524310 QKH524307:QKH524310 QUD524307:QUD524310 RDZ524307:RDZ524310 RNV524307:RNV524310 RXR524307:RXR524310 SHN524307:SHN524310 SRJ524307:SRJ524310 TBF524307:TBF524310 TLB524307:TLB524310 TUX524307:TUX524310 UET524307:UET524310 UOP524307:UOP524310 UYL524307:UYL524310 VIH524307:VIH524310 VSD524307:VSD524310 WBZ524307:WBZ524310 WLV524307:WLV524310 WVR524307:WVR524310 J589843:J589846 JF589843:JF589846 TB589843:TB589846 ACX589843:ACX589846 AMT589843:AMT589846 AWP589843:AWP589846 BGL589843:BGL589846 BQH589843:BQH589846 CAD589843:CAD589846 CJZ589843:CJZ589846 CTV589843:CTV589846 DDR589843:DDR589846 DNN589843:DNN589846 DXJ589843:DXJ589846 EHF589843:EHF589846 ERB589843:ERB589846 FAX589843:FAX589846 FKT589843:FKT589846 FUP589843:FUP589846 GEL589843:GEL589846 GOH589843:GOH589846 GYD589843:GYD589846 HHZ589843:HHZ589846 HRV589843:HRV589846 IBR589843:IBR589846 ILN589843:ILN589846 IVJ589843:IVJ589846 JFF589843:JFF589846 JPB589843:JPB589846 JYX589843:JYX589846 KIT589843:KIT589846 KSP589843:KSP589846 LCL589843:LCL589846 LMH589843:LMH589846 LWD589843:LWD589846 MFZ589843:MFZ589846 MPV589843:MPV589846 MZR589843:MZR589846 NJN589843:NJN589846 NTJ589843:NTJ589846 ODF589843:ODF589846 ONB589843:ONB589846 OWX589843:OWX589846 PGT589843:PGT589846 PQP589843:PQP589846 QAL589843:QAL589846 QKH589843:QKH589846 QUD589843:QUD589846 RDZ589843:RDZ589846 RNV589843:RNV589846 RXR589843:RXR589846 SHN589843:SHN589846 SRJ589843:SRJ589846 TBF589843:TBF589846 TLB589843:TLB589846 TUX589843:TUX589846 UET589843:UET589846 UOP589843:UOP589846 UYL589843:UYL589846 VIH589843:VIH589846 VSD589843:VSD589846 WBZ589843:WBZ589846 WLV589843:WLV589846 WVR589843:WVR589846 J655379:J655382 JF655379:JF655382 TB655379:TB655382 ACX655379:ACX655382 AMT655379:AMT655382 AWP655379:AWP655382 BGL655379:BGL655382 BQH655379:BQH655382 CAD655379:CAD655382 CJZ655379:CJZ655382 CTV655379:CTV655382 DDR655379:DDR655382 DNN655379:DNN655382 DXJ655379:DXJ655382 EHF655379:EHF655382 ERB655379:ERB655382 FAX655379:FAX655382 FKT655379:FKT655382 FUP655379:FUP655382 GEL655379:GEL655382 GOH655379:GOH655382 GYD655379:GYD655382 HHZ655379:HHZ655382 HRV655379:HRV655382 IBR655379:IBR655382 ILN655379:ILN655382 IVJ655379:IVJ655382 JFF655379:JFF655382 JPB655379:JPB655382 JYX655379:JYX655382 KIT655379:KIT655382 KSP655379:KSP655382 LCL655379:LCL655382 LMH655379:LMH655382 LWD655379:LWD655382 MFZ655379:MFZ655382 MPV655379:MPV655382 MZR655379:MZR655382 NJN655379:NJN655382 NTJ655379:NTJ655382 ODF655379:ODF655382 ONB655379:ONB655382 OWX655379:OWX655382 PGT655379:PGT655382 PQP655379:PQP655382 QAL655379:QAL655382 QKH655379:QKH655382 QUD655379:QUD655382 RDZ655379:RDZ655382 RNV655379:RNV655382 RXR655379:RXR655382 SHN655379:SHN655382 SRJ655379:SRJ655382 TBF655379:TBF655382 TLB655379:TLB655382 TUX655379:TUX655382 UET655379:UET655382 UOP655379:UOP655382 UYL655379:UYL655382 VIH655379:VIH655382 VSD655379:VSD655382 WBZ655379:WBZ655382 WLV655379:WLV655382 WVR655379:WVR655382 J720915:J720918 JF720915:JF720918 TB720915:TB720918 ACX720915:ACX720918 AMT720915:AMT720918 AWP720915:AWP720918 BGL720915:BGL720918 BQH720915:BQH720918 CAD720915:CAD720918 CJZ720915:CJZ720918 CTV720915:CTV720918 DDR720915:DDR720918 DNN720915:DNN720918 DXJ720915:DXJ720918 EHF720915:EHF720918 ERB720915:ERB720918 FAX720915:FAX720918 FKT720915:FKT720918 FUP720915:FUP720918 GEL720915:GEL720918 GOH720915:GOH720918 GYD720915:GYD720918 HHZ720915:HHZ720918 HRV720915:HRV720918 IBR720915:IBR720918 ILN720915:ILN720918 IVJ720915:IVJ720918 JFF720915:JFF720918 JPB720915:JPB720918 JYX720915:JYX720918 KIT720915:KIT720918 KSP720915:KSP720918 LCL720915:LCL720918 LMH720915:LMH720918 LWD720915:LWD720918 MFZ720915:MFZ720918 MPV720915:MPV720918 MZR720915:MZR720918 NJN720915:NJN720918 NTJ720915:NTJ720918 ODF720915:ODF720918 ONB720915:ONB720918 OWX720915:OWX720918 PGT720915:PGT720918 PQP720915:PQP720918 QAL720915:QAL720918 QKH720915:QKH720918 QUD720915:QUD720918 RDZ720915:RDZ720918 RNV720915:RNV720918 RXR720915:RXR720918 SHN720915:SHN720918 SRJ720915:SRJ720918 TBF720915:TBF720918 TLB720915:TLB720918 TUX720915:TUX720918 UET720915:UET720918 UOP720915:UOP720918 UYL720915:UYL720918 VIH720915:VIH720918 VSD720915:VSD720918 WBZ720915:WBZ720918 WLV720915:WLV720918 WVR720915:WVR720918 J786451:J786454 JF786451:JF786454 TB786451:TB786454 ACX786451:ACX786454 AMT786451:AMT786454 AWP786451:AWP786454 BGL786451:BGL786454 BQH786451:BQH786454 CAD786451:CAD786454 CJZ786451:CJZ786454 CTV786451:CTV786454 DDR786451:DDR786454 DNN786451:DNN786454 DXJ786451:DXJ786454 EHF786451:EHF786454 ERB786451:ERB786454 FAX786451:FAX786454 FKT786451:FKT786454 FUP786451:FUP786454 GEL786451:GEL786454 GOH786451:GOH786454 GYD786451:GYD786454 HHZ786451:HHZ786454 HRV786451:HRV786454 IBR786451:IBR786454 ILN786451:ILN786454 IVJ786451:IVJ786454 JFF786451:JFF786454 JPB786451:JPB786454 JYX786451:JYX786454 KIT786451:KIT786454 KSP786451:KSP786454 LCL786451:LCL786454 LMH786451:LMH786454 LWD786451:LWD786454 MFZ786451:MFZ786454 MPV786451:MPV786454 MZR786451:MZR786454 NJN786451:NJN786454 NTJ786451:NTJ786454 ODF786451:ODF786454 ONB786451:ONB786454 OWX786451:OWX786454 PGT786451:PGT786454 PQP786451:PQP786454 QAL786451:QAL786454 QKH786451:QKH786454 QUD786451:QUD786454 RDZ786451:RDZ786454 RNV786451:RNV786454 RXR786451:RXR786454 SHN786451:SHN786454 SRJ786451:SRJ786454 TBF786451:TBF786454 TLB786451:TLB786454 TUX786451:TUX786454 UET786451:UET786454 UOP786451:UOP786454 UYL786451:UYL786454 VIH786451:VIH786454 VSD786451:VSD786454 WBZ786451:WBZ786454 WLV786451:WLV786454 WVR786451:WVR786454 J851987:J851990 JF851987:JF851990 TB851987:TB851990 ACX851987:ACX851990 AMT851987:AMT851990 AWP851987:AWP851990 BGL851987:BGL851990 BQH851987:BQH851990 CAD851987:CAD851990 CJZ851987:CJZ851990 CTV851987:CTV851990 DDR851987:DDR851990 DNN851987:DNN851990 DXJ851987:DXJ851990 EHF851987:EHF851990 ERB851987:ERB851990 FAX851987:FAX851990 FKT851987:FKT851990 FUP851987:FUP851990 GEL851987:GEL851990 GOH851987:GOH851990 GYD851987:GYD851990 HHZ851987:HHZ851990 HRV851987:HRV851990 IBR851987:IBR851990 ILN851987:ILN851990 IVJ851987:IVJ851990 JFF851987:JFF851990 JPB851987:JPB851990 JYX851987:JYX851990 KIT851987:KIT851990 KSP851987:KSP851990 LCL851987:LCL851990 LMH851987:LMH851990 LWD851987:LWD851990 MFZ851987:MFZ851990 MPV851987:MPV851990 MZR851987:MZR851990 NJN851987:NJN851990 NTJ851987:NTJ851990 ODF851987:ODF851990 ONB851987:ONB851990 OWX851987:OWX851990 PGT851987:PGT851990 PQP851987:PQP851990 QAL851987:QAL851990 QKH851987:QKH851990 QUD851987:QUD851990 RDZ851987:RDZ851990 RNV851987:RNV851990 RXR851987:RXR851990 SHN851987:SHN851990 SRJ851987:SRJ851990 TBF851987:TBF851990 TLB851987:TLB851990 TUX851987:TUX851990 UET851987:UET851990 UOP851987:UOP851990 UYL851987:UYL851990 VIH851987:VIH851990 VSD851987:VSD851990 WBZ851987:WBZ851990 WLV851987:WLV851990 WVR851987:WVR851990 J917523:J917526 JF917523:JF917526 TB917523:TB917526 ACX917523:ACX917526 AMT917523:AMT917526 AWP917523:AWP917526 BGL917523:BGL917526 BQH917523:BQH917526 CAD917523:CAD917526 CJZ917523:CJZ917526 CTV917523:CTV917526 DDR917523:DDR917526 DNN917523:DNN917526 DXJ917523:DXJ917526 EHF917523:EHF917526 ERB917523:ERB917526 FAX917523:FAX917526 FKT917523:FKT917526 FUP917523:FUP917526 GEL917523:GEL917526 GOH917523:GOH917526 GYD917523:GYD917526 HHZ917523:HHZ917526 HRV917523:HRV917526 IBR917523:IBR917526 ILN917523:ILN917526 IVJ917523:IVJ917526 JFF917523:JFF917526 JPB917523:JPB917526 JYX917523:JYX917526 KIT917523:KIT917526 KSP917523:KSP917526 LCL917523:LCL917526 LMH917523:LMH917526 LWD917523:LWD917526 MFZ917523:MFZ917526 MPV917523:MPV917526 MZR917523:MZR917526 NJN917523:NJN917526 NTJ917523:NTJ917526 ODF917523:ODF917526 ONB917523:ONB917526 OWX917523:OWX917526 PGT917523:PGT917526 PQP917523:PQP917526 QAL917523:QAL917526 QKH917523:QKH917526 QUD917523:QUD917526 RDZ917523:RDZ917526 RNV917523:RNV917526 RXR917523:RXR917526 SHN917523:SHN917526 SRJ917523:SRJ917526 TBF917523:TBF917526 TLB917523:TLB917526 TUX917523:TUX917526 UET917523:UET917526 UOP917523:UOP917526 UYL917523:UYL917526 VIH917523:VIH917526 VSD917523:VSD917526 WBZ917523:WBZ917526 WLV917523:WLV917526 WVR917523:WVR917526 J983059:J983062 JF983059:JF983062 TB983059:TB983062 ACX983059:ACX983062 AMT983059:AMT983062 AWP983059:AWP983062 BGL983059:BGL983062 BQH983059:BQH983062 CAD983059:CAD983062 CJZ983059:CJZ983062 CTV983059:CTV983062 DDR983059:DDR983062 DNN983059:DNN983062 DXJ983059:DXJ983062 EHF983059:EHF983062 ERB983059:ERB983062 FAX983059:FAX983062 FKT983059:FKT983062 FUP983059:FUP983062 GEL983059:GEL983062 GOH983059:GOH983062 GYD983059:GYD983062 HHZ983059:HHZ983062 HRV983059:HRV983062 IBR983059:IBR983062 ILN983059:ILN983062 IVJ983059:IVJ983062 JFF983059:JFF983062 JPB983059:JPB983062 JYX983059:JYX983062 KIT983059:KIT983062 KSP983059:KSP983062 LCL983059:LCL983062 LMH983059:LMH983062 LWD983059:LWD983062 MFZ983059:MFZ983062 MPV983059:MPV983062 MZR983059:MZR983062 NJN983059:NJN983062 NTJ983059:NTJ983062 ODF983059:ODF983062 ONB983059:ONB983062 OWX983059:OWX983062 PGT983059:PGT983062 PQP983059:PQP983062 QAL983059:QAL983062 QKH983059:QKH983062 QUD983059:QUD983062 RDZ983059:RDZ983062 RNV983059:RNV983062 RXR983059:RXR983062 SHN983059:SHN983062 SRJ983059:SRJ983062 TBF983059:TBF983062 TLB983059:TLB983062 TUX983059:TUX983062 UET983059:UET983062 UOP983059:UOP983062 UYL983059:UYL983062 VIH983059:VIH983062 VSD983059:VSD983062 WBZ983059:WBZ983062 WLV983059:WLV983062 WVR983059:WVR983062">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J10 JF9:JF10 TB9:TB10 ACX9:ACX10 AMT9:AMT10 AWP9:AWP10 BGL9:BGL10 BQH9:BQH10 CAD9:CAD10 CJZ9:CJZ10 CTV9:CTV10 DDR9:DDR10 DNN9:DNN10 DXJ9:DXJ10 EHF9:EHF10 ERB9:ERB10 FAX9:FAX10 FKT9:FKT10 FUP9:FUP10 GEL9:GEL10 GOH9:GOH10 GYD9:GYD10 HHZ9:HHZ10 HRV9:HRV10 IBR9:IBR10 ILN9:ILN10 IVJ9:IVJ10 JFF9:JFF10 JPB9:JPB10 JYX9:JYX10 KIT9:KIT10 KSP9:KSP10 LCL9:LCL10 LMH9:LMH10 LWD9:LWD10 MFZ9:MFZ10 MPV9:MPV10 MZR9:MZR10 NJN9:NJN10 NTJ9:NTJ10 ODF9:ODF10 ONB9:ONB10 OWX9:OWX10 PGT9:PGT10 PQP9:PQP10 QAL9:QAL10 QKH9:QKH10 QUD9:QUD10 RDZ9:RDZ10 RNV9:RNV10 RXR9:RXR10 SHN9:SHN10 SRJ9:SRJ10 TBF9:TBF10 TLB9:TLB10 TUX9:TUX10 UET9:UET10 UOP9:UOP10 UYL9:UYL10 VIH9:VIH10 VSD9:VSD10 WBZ9:WBZ10 WLV9:WLV10 WVR9:WVR10 J65545:J65546 JF65545:JF65546 TB65545:TB65546 ACX65545:ACX65546 AMT65545:AMT65546 AWP65545:AWP65546 BGL65545:BGL65546 BQH65545:BQH65546 CAD65545:CAD65546 CJZ65545:CJZ65546 CTV65545:CTV65546 DDR65545:DDR65546 DNN65545:DNN65546 DXJ65545:DXJ65546 EHF65545:EHF65546 ERB65545:ERB65546 FAX65545:FAX65546 FKT65545:FKT65546 FUP65545:FUP65546 GEL65545:GEL65546 GOH65545:GOH65546 GYD65545:GYD65546 HHZ65545:HHZ65546 HRV65545:HRV65546 IBR65545:IBR65546 ILN65545:ILN65546 IVJ65545:IVJ65546 JFF65545:JFF65546 JPB65545:JPB65546 JYX65545:JYX65546 KIT65545:KIT65546 KSP65545:KSP65546 LCL65545:LCL65546 LMH65545:LMH65546 LWD65545:LWD65546 MFZ65545:MFZ65546 MPV65545:MPV65546 MZR65545:MZR65546 NJN65545:NJN65546 NTJ65545:NTJ65546 ODF65545:ODF65546 ONB65545:ONB65546 OWX65545:OWX65546 PGT65545:PGT65546 PQP65545:PQP65546 QAL65545:QAL65546 QKH65545:QKH65546 QUD65545:QUD65546 RDZ65545:RDZ65546 RNV65545:RNV65546 RXR65545:RXR65546 SHN65545:SHN65546 SRJ65545:SRJ65546 TBF65545:TBF65546 TLB65545:TLB65546 TUX65545:TUX65546 UET65545:UET65546 UOP65545:UOP65546 UYL65545:UYL65546 VIH65545:VIH65546 VSD65545:VSD65546 WBZ65545:WBZ65546 WLV65545:WLV65546 WVR65545:WVR65546 J131081:J131082 JF131081:JF131082 TB131081:TB131082 ACX131081:ACX131082 AMT131081:AMT131082 AWP131081:AWP131082 BGL131081:BGL131082 BQH131081:BQH131082 CAD131081:CAD131082 CJZ131081:CJZ131082 CTV131081:CTV131082 DDR131081:DDR131082 DNN131081:DNN131082 DXJ131081:DXJ131082 EHF131081:EHF131082 ERB131081:ERB131082 FAX131081:FAX131082 FKT131081:FKT131082 FUP131081:FUP131082 GEL131081:GEL131082 GOH131081:GOH131082 GYD131081:GYD131082 HHZ131081:HHZ131082 HRV131081:HRV131082 IBR131081:IBR131082 ILN131081:ILN131082 IVJ131081:IVJ131082 JFF131081:JFF131082 JPB131081:JPB131082 JYX131081:JYX131082 KIT131081:KIT131082 KSP131081:KSP131082 LCL131081:LCL131082 LMH131081:LMH131082 LWD131081:LWD131082 MFZ131081:MFZ131082 MPV131081:MPV131082 MZR131081:MZR131082 NJN131081:NJN131082 NTJ131081:NTJ131082 ODF131081:ODF131082 ONB131081:ONB131082 OWX131081:OWX131082 PGT131081:PGT131082 PQP131081:PQP131082 QAL131081:QAL131082 QKH131081:QKH131082 QUD131081:QUD131082 RDZ131081:RDZ131082 RNV131081:RNV131082 RXR131081:RXR131082 SHN131081:SHN131082 SRJ131081:SRJ131082 TBF131081:TBF131082 TLB131081:TLB131082 TUX131081:TUX131082 UET131081:UET131082 UOP131081:UOP131082 UYL131081:UYL131082 VIH131081:VIH131082 VSD131081:VSD131082 WBZ131081:WBZ131082 WLV131081:WLV131082 WVR131081:WVR131082 J196617:J196618 JF196617:JF196618 TB196617:TB196618 ACX196617:ACX196618 AMT196617:AMT196618 AWP196617:AWP196618 BGL196617:BGL196618 BQH196617:BQH196618 CAD196617:CAD196618 CJZ196617:CJZ196618 CTV196617:CTV196618 DDR196617:DDR196618 DNN196617:DNN196618 DXJ196617:DXJ196618 EHF196617:EHF196618 ERB196617:ERB196618 FAX196617:FAX196618 FKT196617:FKT196618 FUP196617:FUP196618 GEL196617:GEL196618 GOH196617:GOH196618 GYD196617:GYD196618 HHZ196617:HHZ196618 HRV196617:HRV196618 IBR196617:IBR196618 ILN196617:ILN196618 IVJ196617:IVJ196618 JFF196617:JFF196618 JPB196617:JPB196618 JYX196617:JYX196618 KIT196617:KIT196618 KSP196617:KSP196618 LCL196617:LCL196618 LMH196617:LMH196618 LWD196617:LWD196618 MFZ196617:MFZ196618 MPV196617:MPV196618 MZR196617:MZR196618 NJN196617:NJN196618 NTJ196617:NTJ196618 ODF196617:ODF196618 ONB196617:ONB196618 OWX196617:OWX196618 PGT196617:PGT196618 PQP196617:PQP196618 QAL196617:QAL196618 QKH196617:QKH196618 QUD196617:QUD196618 RDZ196617:RDZ196618 RNV196617:RNV196618 RXR196617:RXR196618 SHN196617:SHN196618 SRJ196617:SRJ196618 TBF196617:TBF196618 TLB196617:TLB196618 TUX196617:TUX196618 UET196617:UET196618 UOP196617:UOP196618 UYL196617:UYL196618 VIH196617:VIH196618 VSD196617:VSD196618 WBZ196617:WBZ196618 WLV196617:WLV196618 WVR196617:WVR196618 J262153:J262154 JF262153:JF262154 TB262153:TB262154 ACX262153:ACX262154 AMT262153:AMT262154 AWP262153:AWP262154 BGL262153:BGL262154 BQH262153:BQH262154 CAD262153:CAD262154 CJZ262153:CJZ262154 CTV262153:CTV262154 DDR262153:DDR262154 DNN262153:DNN262154 DXJ262153:DXJ262154 EHF262153:EHF262154 ERB262153:ERB262154 FAX262153:FAX262154 FKT262153:FKT262154 FUP262153:FUP262154 GEL262153:GEL262154 GOH262153:GOH262154 GYD262153:GYD262154 HHZ262153:HHZ262154 HRV262153:HRV262154 IBR262153:IBR262154 ILN262153:ILN262154 IVJ262153:IVJ262154 JFF262153:JFF262154 JPB262153:JPB262154 JYX262153:JYX262154 KIT262153:KIT262154 KSP262153:KSP262154 LCL262153:LCL262154 LMH262153:LMH262154 LWD262153:LWD262154 MFZ262153:MFZ262154 MPV262153:MPV262154 MZR262153:MZR262154 NJN262153:NJN262154 NTJ262153:NTJ262154 ODF262153:ODF262154 ONB262153:ONB262154 OWX262153:OWX262154 PGT262153:PGT262154 PQP262153:PQP262154 QAL262153:QAL262154 QKH262153:QKH262154 QUD262153:QUD262154 RDZ262153:RDZ262154 RNV262153:RNV262154 RXR262153:RXR262154 SHN262153:SHN262154 SRJ262153:SRJ262154 TBF262153:TBF262154 TLB262153:TLB262154 TUX262153:TUX262154 UET262153:UET262154 UOP262153:UOP262154 UYL262153:UYL262154 VIH262153:VIH262154 VSD262153:VSD262154 WBZ262153:WBZ262154 WLV262153:WLV262154 WVR262153:WVR262154 J327689:J327690 JF327689:JF327690 TB327689:TB327690 ACX327689:ACX327690 AMT327689:AMT327690 AWP327689:AWP327690 BGL327689:BGL327690 BQH327689:BQH327690 CAD327689:CAD327690 CJZ327689:CJZ327690 CTV327689:CTV327690 DDR327689:DDR327690 DNN327689:DNN327690 DXJ327689:DXJ327690 EHF327689:EHF327690 ERB327689:ERB327690 FAX327689:FAX327690 FKT327689:FKT327690 FUP327689:FUP327690 GEL327689:GEL327690 GOH327689:GOH327690 GYD327689:GYD327690 HHZ327689:HHZ327690 HRV327689:HRV327690 IBR327689:IBR327690 ILN327689:ILN327690 IVJ327689:IVJ327690 JFF327689:JFF327690 JPB327689:JPB327690 JYX327689:JYX327690 KIT327689:KIT327690 KSP327689:KSP327690 LCL327689:LCL327690 LMH327689:LMH327690 LWD327689:LWD327690 MFZ327689:MFZ327690 MPV327689:MPV327690 MZR327689:MZR327690 NJN327689:NJN327690 NTJ327689:NTJ327690 ODF327689:ODF327690 ONB327689:ONB327690 OWX327689:OWX327690 PGT327689:PGT327690 PQP327689:PQP327690 QAL327689:QAL327690 QKH327689:QKH327690 QUD327689:QUD327690 RDZ327689:RDZ327690 RNV327689:RNV327690 RXR327689:RXR327690 SHN327689:SHN327690 SRJ327689:SRJ327690 TBF327689:TBF327690 TLB327689:TLB327690 TUX327689:TUX327690 UET327689:UET327690 UOP327689:UOP327690 UYL327689:UYL327690 VIH327689:VIH327690 VSD327689:VSD327690 WBZ327689:WBZ327690 WLV327689:WLV327690 WVR327689:WVR327690 J393225:J393226 JF393225:JF393226 TB393225:TB393226 ACX393225:ACX393226 AMT393225:AMT393226 AWP393225:AWP393226 BGL393225:BGL393226 BQH393225:BQH393226 CAD393225:CAD393226 CJZ393225:CJZ393226 CTV393225:CTV393226 DDR393225:DDR393226 DNN393225:DNN393226 DXJ393225:DXJ393226 EHF393225:EHF393226 ERB393225:ERB393226 FAX393225:FAX393226 FKT393225:FKT393226 FUP393225:FUP393226 GEL393225:GEL393226 GOH393225:GOH393226 GYD393225:GYD393226 HHZ393225:HHZ393226 HRV393225:HRV393226 IBR393225:IBR393226 ILN393225:ILN393226 IVJ393225:IVJ393226 JFF393225:JFF393226 JPB393225:JPB393226 JYX393225:JYX393226 KIT393225:KIT393226 KSP393225:KSP393226 LCL393225:LCL393226 LMH393225:LMH393226 LWD393225:LWD393226 MFZ393225:MFZ393226 MPV393225:MPV393226 MZR393225:MZR393226 NJN393225:NJN393226 NTJ393225:NTJ393226 ODF393225:ODF393226 ONB393225:ONB393226 OWX393225:OWX393226 PGT393225:PGT393226 PQP393225:PQP393226 QAL393225:QAL393226 QKH393225:QKH393226 QUD393225:QUD393226 RDZ393225:RDZ393226 RNV393225:RNV393226 RXR393225:RXR393226 SHN393225:SHN393226 SRJ393225:SRJ393226 TBF393225:TBF393226 TLB393225:TLB393226 TUX393225:TUX393226 UET393225:UET393226 UOP393225:UOP393226 UYL393225:UYL393226 VIH393225:VIH393226 VSD393225:VSD393226 WBZ393225:WBZ393226 WLV393225:WLV393226 WVR393225:WVR393226 J458761:J458762 JF458761:JF458762 TB458761:TB458762 ACX458761:ACX458762 AMT458761:AMT458762 AWP458761:AWP458762 BGL458761:BGL458762 BQH458761:BQH458762 CAD458761:CAD458762 CJZ458761:CJZ458762 CTV458761:CTV458762 DDR458761:DDR458762 DNN458761:DNN458762 DXJ458761:DXJ458762 EHF458761:EHF458762 ERB458761:ERB458762 FAX458761:FAX458762 FKT458761:FKT458762 FUP458761:FUP458762 GEL458761:GEL458762 GOH458761:GOH458762 GYD458761:GYD458762 HHZ458761:HHZ458762 HRV458761:HRV458762 IBR458761:IBR458762 ILN458761:ILN458762 IVJ458761:IVJ458762 JFF458761:JFF458762 JPB458761:JPB458762 JYX458761:JYX458762 KIT458761:KIT458762 KSP458761:KSP458762 LCL458761:LCL458762 LMH458761:LMH458762 LWD458761:LWD458762 MFZ458761:MFZ458762 MPV458761:MPV458762 MZR458761:MZR458762 NJN458761:NJN458762 NTJ458761:NTJ458762 ODF458761:ODF458762 ONB458761:ONB458762 OWX458761:OWX458762 PGT458761:PGT458762 PQP458761:PQP458762 QAL458761:QAL458762 QKH458761:QKH458762 QUD458761:QUD458762 RDZ458761:RDZ458762 RNV458761:RNV458762 RXR458761:RXR458762 SHN458761:SHN458762 SRJ458761:SRJ458762 TBF458761:TBF458762 TLB458761:TLB458762 TUX458761:TUX458762 UET458761:UET458762 UOP458761:UOP458762 UYL458761:UYL458762 VIH458761:VIH458762 VSD458761:VSD458762 WBZ458761:WBZ458762 WLV458761:WLV458762 WVR458761:WVR458762 J524297:J524298 JF524297:JF524298 TB524297:TB524298 ACX524297:ACX524298 AMT524297:AMT524298 AWP524297:AWP524298 BGL524297:BGL524298 BQH524297:BQH524298 CAD524297:CAD524298 CJZ524297:CJZ524298 CTV524297:CTV524298 DDR524297:DDR524298 DNN524297:DNN524298 DXJ524297:DXJ524298 EHF524297:EHF524298 ERB524297:ERB524298 FAX524297:FAX524298 FKT524297:FKT524298 FUP524297:FUP524298 GEL524297:GEL524298 GOH524297:GOH524298 GYD524297:GYD524298 HHZ524297:HHZ524298 HRV524297:HRV524298 IBR524297:IBR524298 ILN524297:ILN524298 IVJ524297:IVJ524298 JFF524297:JFF524298 JPB524297:JPB524298 JYX524297:JYX524298 KIT524297:KIT524298 KSP524297:KSP524298 LCL524297:LCL524298 LMH524297:LMH524298 LWD524297:LWD524298 MFZ524297:MFZ524298 MPV524297:MPV524298 MZR524297:MZR524298 NJN524297:NJN524298 NTJ524297:NTJ524298 ODF524297:ODF524298 ONB524297:ONB524298 OWX524297:OWX524298 PGT524297:PGT524298 PQP524297:PQP524298 QAL524297:QAL524298 QKH524297:QKH524298 QUD524297:QUD524298 RDZ524297:RDZ524298 RNV524297:RNV524298 RXR524297:RXR524298 SHN524297:SHN524298 SRJ524297:SRJ524298 TBF524297:TBF524298 TLB524297:TLB524298 TUX524297:TUX524298 UET524297:UET524298 UOP524297:UOP524298 UYL524297:UYL524298 VIH524297:VIH524298 VSD524297:VSD524298 WBZ524297:WBZ524298 WLV524297:WLV524298 WVR524297:WVR524298 J589833:J589834 JF589833:JF589834 TB589833:TB589834 ACX589833:ACX589834 AMT589833:AMT589834 AWP589833:AWP589834 BGL589833:BGL589834 BQH589833:BQH589834 CAD589833:CAD589834 CJZ589833:CJZ589834 CTV589833:CTV589834 DDR589833:DDR589834 DNN589833:DNN589834 DXJ589833:DXJ589834 EHF589833:EHF589834 ERB589833:ERB589834 FAX589833:FAX589834 FKT589833:FKT589834 FUP589833:FUP589834 GEL589833:GEL589834 GOH589833:GOH589834 GYD589833:GYD589834 HHZ589833:HHZ589834 HRV589833:HRV589834 IBR589833:IBR589834 ILN589833:ILN589834 IVJ589833:IVJ589834 JFF589833:JFF589834 JPB589833:JPB589834 JYX589833:JYX589834 KIT589833:KIT589834 KSP589833:KSP589834 LCL589833:LCL589834 LMH589833:LMH589834 LWD589833:LWD589834 MFZ589833:MFZ589834 MPV589833:MPV589834 MZR589833:MZR589834 NJN589833:NJN589834 NTJ589833:NTJ589834 ODF589833:ODF589834 ONB589833:ONB589834 OWX589833:OWX589834 PGT589833:PGT589834 PQP589833:PQP589834 QAL589833:QAL589834 QKH589833:QKH589834 QUD589833:QUD589834 RDZ589833:RDZ589834 RNV589833:RNV589834 RXR589833:RXR589834 SHN589833:SHN589834 SRJ589833:SRJ589834 TBF589833:TBF589834 TLB589833:TLB589834 TUX589833:TUX589834 UET589833:UET589834 UOP589833:UOP589834 UYL589833:UYL589834 VIH589833:VIH589834 VSD589833:VSD589834 WBZ589833:WBZ589834 WLV589833:WLV589834 WVR589833:WVR589834 J655369:J655370 JF655369:JF655370 TB655369:TB655370 ACX655369:ACX655370 AMT655369:AMT655370 AWP655369:AWP655370 BGL655369:BGL655370 BQH655369:BQH655370 CAD655369:CAD655370 CJZ655369:CJZ655370 CTV655369:CTV655370 DDR655369:DDR655370 DNN655369:DNN655370 DXJ655369:DXJ655370 EHF655369:EHF655370 ERB655369:ERB655370 FAX655369:FAX655370 FKT655369:FKT655370 FUP655369:FUP655370 GEL655369:GEL655370 GOH655369:GOH655370 GYD655369:GYD655370 HHZ655369:HHZ655370 HRV655369:HRV655370 IBR655369:IBR655370 ILN655369:ILN655370 IVJ655369:IVJ655370 JFF655369:JFF655370 JPB655369:JPB655370 JYX655369:JYX655370 KIT655369:KIT655370 KSP655369:KSP655370 LCL655369:LCL655370 LMH655369:LMH655370 LWD655369:LWD655370 MFZ655369:MFZ655370 MPV655369:MPV655370 MZR655369:MZR655370 NJN655369:NJN655370 NTJ655369:NTJ655370 ODF655369:ODF655370 ONB655369:ONB655370 OWX655369:OWX655370 PGT655369:PGT655370 PQP655369:PQP655370 QAL655369:QAL655370 QKH655369:QKH655370 QUD655369:QUD655370 RDZ655369:RDZ655370 RNV655369:RNV655370 RXR655369:RXR655370 SHN655369:SHN655370 SRJ655369:SRJ655370 TBF655369:TBF655370 TLB655369:TLB655370 TUX655369:TUX655370 UET655369:UET655370 UOP655369:UOP655370 UYL655369:UYL655370 VIH655369:VIH655370 VSD655369:VSD655370 WBZ655369:WBZ655370 WLV655369:WLV655370 WVR655369:WVR655370 J720905:J720906 JF720905:JF720906 TB720905:TB720906 ACX720905:ACX720906 AMT720905:AMT720906 AWP720905:AWP720906 BGL720905:BGL720906 BQH720905:BQH720906 CAD720905:CAD720906 CJZ720905:CJZ720906 CTV720905:CTV720906 DDR720905:DDR720906 DNN720905:DNN720906 DXJ720905:DXJ720906 EHF720905:EHF720906 ERB720905:ERB720906 FAX720905:FAX720906 FKT720905:FKT720906 FUP720905:FUP720906 GEL720905:GEL720906 GOH720905:GOH720906 GYD720905:GYD720906 HHZ720905:HHZ720906 HRV720905:HRV720906 IBR720905:IBR720906 ILN720905:ILN720906 IVJ720905:IVJ720906 JFF720905:JFF720906 JPB720905:JPB720906 JYX720905:JYX720906 KIT720905:KIT720906 KSP720905:KSP720906 LCL720905:LCL720906 LMH720905:LMH720906 LWD720905:LWD720906 MFZ720905:MFZ720906 MPV720905:MPV720906 MZR720905:MZR720906 NJN720905:NJN720906 NTJ720905:NTJ720906 ODF720905:ODF720906 ONB720905:ONB720906 OWX720905:OWX720906 PGT720905:PGT720906 PQP720905:PQP720906 QAL720905:QAL720906 QKH720905:QKH720906 QUD720905:QUD720906 RDZ720905:RDZ720906 RNV720905:RNV720906 RXR720905:RXR720906 SHN720905:SHN720906 SRJ720905:SRJ720906 TBF720905:TBF720906 TLB720905:TLB720906 TUX720905:TUX720906 UET720905:UET720906 UOP720905:UOP720906 UYL720905:UYL720906 VIH720905:VIH720906 VSD720905:VSD720906 WBZ720905:WBZ720906 WLV720905:WLV720906 WVR720905:WVR720906 J786441:J786442 JF786441:JF786442 TB786441:TB786442 ACX786441:ACX786442 AMT786441:AMT786442 AWP786441:AWP786442 BGL786441:BGL786442 BQH786441:BQH786442 CAD786441:CAD786442 CJZ786441:CJZ786442 CTV786441:CTV786442 DDR786441:DDR786442 DNN786441:DNN786442 DXJ786441:DXJ786442 EHF786441:EHF786442 ERB786441:ERB786442 FAX786441:FAX786442 FKT786441:FKT786442 FUP786441:FUP786442 GEL786441:GEL786442 GOH786441:GOH786442 GYD786441:GYD786442 HHZ786441:HHZ786442 HRV786441:HRV786442 IBR786441:IBR786442 ILN786441:ILN786442 IVJ786441:IVJ786442 JFF786441:JFF786442 JPB786441:JPB786442 JYX786441:JYX786442 KIT786441:KIT786442 KSP786441:KSP786442 LCL786441:LCL786442 LMH786441:LMH786442 LWD786441:LWD786442 MFZ786441:MFZ786442 MPV786441:MPV786442 MZR786441:MZR786442 NJN786441:NJN786442 NTJ786441:NTJ786442 ODF786441:ODF786442 ONB786441:ONB786442 OWX786441:OWX786442 PGT786441:PGT786442 PQP786441:PQP786442 QAL786441:QAL786442 QKH786441:QKH786442 QUD786441:QUD786442 RDZ786441:RDZ786442 RNV786441:RNV786442 RXR786441:RXR786442 SHN786441:SHN786442 SRJ786441:SRJ786442 TBF786441:TBF786442 TLB786441:TLB786442 TUX786441:TUX786442 UET786441:UET786442 UOP786441:UOP786442 UYL786441:UYL786442 VIH786441:VIH786442 VSD786441:VSD786442 WBZ786441:WBZ786442 WLV786441:WLV786442 WVR786441:WVR786442 J851977:J851978 JF851977:JF851978 TB851977:TB851978 ACX851977:ACX851978 AMT851977:AMT851978 AWP851977:AWP851978 BGL851977:BGL851978 BQH851977:BQH851978 CAD851977:CAD851978 CJZ851977:CJZ851978 CTV851977:CTV851978 DDR851977:DDR851978 DNN851977:DNN851978 DXJ851977:DXJ851978 EHF851977:EHF851978 ERB851977:ERB851978 FAX851977:FAX851978 FKT851977:FKT851978 FUP851977:FUP851978 GEL851977:GEL851978 GOH851977:GOH851978 GYD851977:GYD851978 HHZ851977:HHZ851978 HRV851977:HRV851978 IBR851977:IBR851978 ILN851977:ILN851978 IVJ851977:IVJ851978 JFF851977:JFF851978 JPB851977:JPB851978 JYX851977:JYX851978 KIT851977:KIT851978 KSP851977:KSP851978 LCL851977:LCL851978 LMH851977:LMH851978 LWD851977:LWD851978 MFZ851977:MFZ851978 MPV851977:MPV851978 MZR851977:MZR851978 NJN851977:NJN851978 NTJ851977:NTJ851978 ODF851977:ODF851978 ONB851977:ONB851978 OWX851977:OWX851978 PGT851977:PGT851978 PQP851977:PQP851978 QAL851977:QAL851978 QKH851977:QKH851978 QUD851977:QUD851978 RDZ851977:RDZ851978 RNV851977:RNV851978 RXR851977:RXR851978 SHN851977:SHN851978 SRJ851977:SRJ851978 TBF851977:TBF851978 TLB851977:TLB851978 TUX851977:TUX851978 UET851977:UET851978 UOP851977:UOP851978 UYL851977:UYL851978 VIH851977:VIH851978 VSD851977:VSD851978 WBZ851977:WBZ851978 WLV851977:WLV851978 WVR851977:WVR851978 J917513:J917514 JF917513:JF917514 TB917513:TB917514 ACX917513:ACX917514 AMT917513:AMT917514 AWP917513:AWP917514 BGL917513:BGL917514 BQH917513:BQH917514 CAD917513:CAD917514 CJZ917513:CJZ917514 CTV917513:CTV917514 DDR917513:DDR917514 DNN917513:DNN917514 DXJ917513:DXJ917514 EHF917513:EHF917514 ERB917513:ERB917514 FAX917513:FAX917514 FKT917513:FKT917514 FUP917513:FUP917514 GEL917513:GEL917514 GOH917513:GOH917514 GYD917513:GYD917514 HHZ917513:HHZ917514 HRV917513:HRV917514 IBR917513:IBR917514 ILN917513:ILN917514 IVJ917513:IVJ917514 JFF917513:JFF917514 JPB917513:JPB917514 JYX917513:JYX917514 KIT917513:KIT917514 KSP917513:KSP917514 LCL917513:LCL917514 LMH917513:LMH917514 LWD917513:LWD917514 MFZ917513:MFZ917514 MPV917513:MPV917514 MZR917513:MZR917514 NJN917513:NJN917514 NTJ917513:NTJ917514 ODF917513:ODF917514 ONB917513:ONB917514 OWX917513:OWX917514 PGT917513:PGT917514 PQP917513:PQP917514 QAL917513:QAL917514 QKH917513:QKH917514 QUD917513:QUD917514 RDZ917513:RDZ917514 RNV917513:RNV917514 RXR917513:RXR917514 SHN917513:SHN917514 SRJ917513:SRJ917514 TBF917513:TBF917514 TLB917513:TLB917514 TUX917513:TUX917514 UET917513:UET917514 UOP917513:UOP917514 UYL917513:UYL917514 VIH917513:VIH917514 VSD917513:VSD917514 WBZ917513:WBZ917514 WLV917513:WLV917514 WVR917513:WVR917514 J983049:J983050 JF983049:JF983050 TB983049:TB983050 ACX983049:ACX983050 AMT983049:AMT983050 AWP983049:AWP983050 BGL983049:BGL983050 BQH983049:BQH983050 CAD983049:CAD983050 CJZ983049:CJZ983050 CTV983049:CTV983050 DDR983049:DDR983050 DNN983049:DNN983050 DXJ983049:DXJ983050 EHF983049:EHF983050 ERB983049:ERB983050 FAX983049:FAX983050 FKT983049:FKT983050 FUP983049:FUP983050 GEL983049:GEL983050 GOH983049:GOH983050 GYD983049:GYD983050 HHZ983049:HHZ983050 HRV983049:HRV983050 IBR983049:IBR983050 ILN983049:ILN983050 IVJ983049:IVJ983050 JFF983049:JFF983050 JPB983049:JPB983050 JYX983049:JYX983050 KIT983049:KIT983050 KSP983049:KSP983050 LCL983049:LCL983050 LMH983049:LMH983050 LWD983049:LWD983050 MFZ983049:MFZ983050 MPV983049:MPV983050 MZR983049:MZR983050 NJN983049:NJN983050 NTJ983049:NTJ983050 ODF983049:ODF983050 ONB983049:ONB983050 OWX983049:OWX983050 PGT983049:PGT983050 PQP983049:PQP983050 QAL983049:QAL983050 QKH983049:QKH983050 QUD983049:QUD983050 RDZ983049:RDZ983050 RNV983049:RNV983050 RXR983049:RXR983050 SHN983049:SHN983050 SRJ983049:SRJ983050 TBF983049:TBF983050 TLB983049:TLB983050 TUX983049:TUX983050 UET983049:UET983050 UOP983049:UOP983050 UYL983049:UYL983050 VIH983049:VIH983050 VSD983049:VSD983050 WBZ983049:WBZ983050 WLV983049:WLV983050 WVR983049:WVR983050 J12:J14 JF12:JF14 TB12:TB14 ACX12:ACX14 AMT12:AMT14 AWP12:AWP14 BGL12:BGL14 BQH12:BQH14 CAD12:CAD14 CJZ12:CJZ14 CTV12:CTV14 DDR12:DDR14 DNN12:DNN14 DXJ12:DXJ14 EHF12:EHF14 ERB12:ERB14 FAX12:FAX14 FKT12:FKT14 FUP12:FUP14 GEL12:GEL14 GOH12:GOH14 GYD12:GYD14 HHZ12:HHZ14 HRV12:HRV14 IBR12:IBR14 ILN12:ILN14 IVJ12:IVJ14 JFF12:JFF14 JPB12:JPB14 JYX12:JYX14 KIT12:KIT14 KSP12:KSP14 LCL12:LCL14 LMH12:LMH14 LWD12:LWD14 MFZ12:MFZ14 MPV12:MPV14 MZR12:MZR14 NJN12:NJN14 NTJ12:NTJ14 ODF12:ODF14 ONB12:ONB14 OWX12:OWX14 PGT12:PGT14 PQP12:PQP14 QAL12:QAL14 QKH12:QKH14 QUD12:QUD14 RDZ12:RDZ14 RNV12:RNV14 RXR12:RXR14 SHN12:SHN14 SRJ12:SRJ14 TBF12:TBF14 TLB12:TLB14 TUX12:TUX14 UET12:UET14 UOP12:UOP14 UYL12:UYL14 VIH12:VIH14 VSD12:VSD14 WBZ12:WBZ14 WLV12:WLV14 WVR12:WVR14 J65548:J65550 JF65548:JF65550 TB65548:TB65550 ACX65548:ACX65550 AMT65548:AMT65550 AWP65548:AWP65550 BGL65548:BGL65550 BQH65548:BQH65550 CAD65548:CAD65550 CJZ65548:CJZ65550 CTV65548:CTV65550 DDR65548:DDR65550 DNN65548:DNN65550 DXJ65548:DXJ65550 EHF65548:EHF65550 ERB65548:ERB65550 FAX65548:FAX65550 FKT65548:FKT65550 FUP65548:FUP65550 GEL65548:GEL65550 GOH65548:GOH65550 GYD65548:GYD65550 HHZ65548:HHZ65550 HRV65548:HRV65550 IBR65548:IBR65550 ILN65548:ILN65550 IVJ65548:IVJ65550 JFF65548:JFF65550 JPB65548:JPB65550 JYX65548:JYX65550 KIT65548:KIT65550 KSP65548:KSP65550 LCL65548:LCL65550 LMH65548:LMH65550 LWD65548:LWD65550 MFZ65548:MFZ65550 MPV65548:MPV65550 MZR65548:MZR65550 NJN65548:NJN65550 NTJ65548:NTJ65550 ODF65548:ODF65550 ONB65548:ONB65550 OWX65548:OWX65550 PGT65548:PGT65550 PQP65548:PQP65550 QAL65548:QAL65550 QKH65548:QKH65550 QUD65548:QUD65550 RDZ65548:RDZ65550 RNV65548:RNV65550 RXR65548:RXR65550 SHN65548:SHN65550 SRJ65548:SRJ65550 TBF65548:TBF65550 TLB65548:TLB65550 TUX65548:TUX65550 UET65548:UET65550 UOP65548:UOP65550 UYL65548:UYL65550 VIH65548:VIH65550 VSD65548:VSD65550 WBZ65548:WBZ65550 WLV65548:WLV65550 WVR65548:WVR65550 J131084:J131086 JF131084:JF131086 TB131084:TB131086 ACX131084:ACX131086 AMT131084:AMT131086 AWP131084:AWP131086 BGL131084:BGL131086 BQH131084:BQH131086 CAD131084:CAD131086 CJZ131084:CJZ131086 CTV131084:CTV131086 DDR131084:DDR131086 DNN131084:DNN131086 DXJ131084:DXJ131086 EHF131084:EHF131086 ERB131084:ERB131086 FAX131084:FAX131086 FKT131084:FKT131086 FUP131084:FUP131086 GEL131084:GEL131086 GOH131084:GOH131086 GYD131084:GYD131086 HHZ131084:HHZ131086 HRV131084:HRV131086 IBR131084:IBR131086 ILN131084:ILN131086 IVJ131084:IVJ131086 JFF131084:JFF131086 JPB131084:JPB131086 JYX131084:JYX131086 KIT131084:KIT131086 KSP131084:KSP131086 LCL131084:LCL131086 LMH131084:LMH131086 LWD131084:LWD131086 MFZ131084:MFZ131086 MPV131084:MPV131086 MZR131084:MZR131086 NJN131084:NJN131086 NTJ131084:NTJ131086 ODF131084:ODF131086 ONB131084:ONB131086 OWX131084:OWX131086 PGT131084:PGT131086 PQP131084:PQP131086 QAL131084:QAL131086 QKH131084:QKH131086 QUD131084:QUD131086 RDZ131084:RDZ131086 RNV131084:RNV131086 RXR131084:RXR131086 SHN131084:SHN131086 SRJ131084:SRJ131086 TBF131084:TBF131086 TLB131084:TLB131086 TUX131084:TUX131086 UET131084:UET131086 UOP131084:UOP131086 UYL131084:UYL131086 VIH131084:VIH131086 VSD131084:VSD131086 WBZ131084:WBZ131086 WLV131084:WLV131086 WVR131084:WVR131086 J196620:J196622 JF196620:JF196622 TB196620:TB196622 ACX196620:ACX196622 AMT196620:AMT196622 AWP196620:AWP196622 BGL196620:BGL196622 BQH196620:BQH196622 CAD196620:CAD196622 CJZ196620:CJZ196622 CTV196620:CTV196622 DDR196620:DDR196622 DNN196620:DNN196622 DXJ196620:DXJ196622 EHF196620:EHF196622 ERB196620:ERB196622 FAX196620:FAX196622 FKT196620:FKT196622 FUP196620:FUP196622 GEL196620:GEL196622 GOH196620:GOH196622 GYD196620:GYD196622 HHZ196620:HHZ196622 HRV196620:HRV196622 IBR196620:IBR196622 ILN196620:ILN196622 IVJ196620:IVJ196622 JFF196620:JFF196622 JPB196620:JPB196622 JYX196620:JYX196622 KIT196620:KIT196622 KSP196620:KSP196622 LCL196620:LCL196622 LMH196620:LMH196622 LWD196620:LWD196622 MFZ196620:MFZ196622 MPV196620:MPV196622 MZR196620:MZR196622 NJN196620:NJN196622 NTJ196620:NTJ196622 ODF196620:ODF196622 ONB196620:ONB196622 OWX196620:OWX196622 PGT196620:PGT196622 PQP196620:PQP196622 QAL196620:QAL196622 QKH196620:QKH196622 QUD196620:QUD196622 RDZ196620:RDZ196622 RNV196620:RNV196622 RXR196620:RXR196622 SHN196620:SHN196622 SRJ196620:SRJ196622 TBF196620:TBF196622 TLB196620:TLB196622 TUX196620:TUX196622 UET196620:UET196622 UOP196620:UOP196622 UYL196620:UYL196622 VIH196620:VIH196622 VSD196620:VSD196622 WBZ196620:WBZ196622 WLV196620:WLV196622 WVR196620:WVR196622 J262156:J262158 JF262156:JF262158 TB262156:TB262158 ACX262156:ACX262158 AMT262156:AMT262158 AWP262156:AWP262158 BGL262156:BGL262158 BQH262156:BQH262158 CAD262156:CAD262158 CJZ262156:CJZ262158 CTV262156:CTV262158 DDR262156:DDR262158 DNN262156:DNN262158 DXJ262156:DXJ262158 EHF262156:EHF262158 ERB262156:ERB262158 FAX262156:FAX262158 FKT262156:FKT262158 FUP262156:FUP262158 GEL262156:GEL262158 GOH262156:GOH262158 GYD262156:GYD262158 HHZ262156:HHZ262158 HRV262156:HRV262158 IBR262156:IBR262158 ILN262156:ILN262158 IVJ262156:IVJ262158 JFF262156:JFF262158 JPB262156:JPB262158 JYX262156:JYX262158 KIT262156:KIT262158 KSP262156:KSP262158 LCL262156:LCL262158 LMH262156:LMH262158 LWD262156:LWD262158 MFZ262156:MFZ262158 MPV262156:MPV262158 MZR262156:MZR262158 NJN262156:NJN262158 NTJ262156:NTJ262158 ODF262156:ODF262158 ONB262156:ONB262158 OWX262156:OWX262158 PGT262156:PGT262158 PQP262156:PQP262158 QAL262156:QAL262158 QKH262156:QKH262158 QUD262156:QUD262158 RDZ262156:RDZ262158 RNV262156:RNV262158 RXR262156:RXR262158 SHN262156:SHN262158 SRJ262156:SRJ262158 TBF262156:TBF262158 TLB262156:TLB262158 TUX262156:TUX262158 UET262156:UET262158 UOP262156:UOP262158 UYL262156:UYL262158 VIH262156:VIH262158 VSD262156:VSD262158 WBZ262156:WBZ262158 WLV262156:WLV262158 WVR262156:WVR262158 J327692:J327694 JF327692:JF327694 TB327692:TB327694 ACX327692:ACX327694 AMT327692:AMT327694 AWP327692:AWP327694 BGL327692:BGL327694 BQH327692:BQH327694 CAD327692:CAD327694 CJZ327692:CJZ327694 CTV327692:CTV327694 DDR327692:DDR327694 DNN327692:DNN327694 DXJ327692:DXJ327694 EHF327692:EHF327694 ERB327692:ERB327694 FAX327692:FAX327694 FKT327692:FKT327694 FUP327692:FUP327694 GEL327692:GEL327694 GOH327692:GOH327694 GYD327692:GYD327694 HHZ327692:HHZ327694 HRV327692:HRV327694 IBR327692:IBR327694 ILN327692:ILN327694 IVJ327692:IVJ327694 JFF327692:JFF327694 JPB327692:JPB327694 JYX327692:JYX327694 KIT327692:KIT327694 KSP327692:KSP327694 LCL327692:LCL327694 LMH327692:LMH327694 LWD327692:LWD327694 MFZ327692:MFZ327694 MPV327692:MPV327694 MZR327692:MZR327694 NJN327692:NJN327694 NTJ327692:NTJ327694 ODF327692:ODF327694 ONB327692:ONB327694 OWX327692:OWX327694 PGT327692:PGT327694 PQP327692:PQP327694 QAL327692:QAL327694 QKH327692:QKH327694 QUD327692:QUD327694 RDZ327692:RDZ327694 RNV327692:RNV327694 RXR327692:RXR327694 SHN327692:SHN327694 SRJ327692:SRJ327694 TBF327692:TBF327694 TLB327692:TLB327694 TUX327692:TUX327694 UET327692:UET327694 UOP327692:UOP327694 UYL327692:UYL327694 VIH327692:VIH327694 VSD327692:VSD327694 WBZ327692:WBZ327694 WLV327692:WLV327694 WVR327692:WVR327694 J393228:J393230 JF393228:JF393230 TB393228:TB393230 ACX393228:ACX393230 AMT393228:AMT393230 AWP393228:AWP393230 BGL393228:BGL393230 BQH393228:BQH393230 CAD393228:CAD393230 CJZ393228:CJZ393230 CTV393228:CTV393230 DDR393228:DDR393230 DNN393228:DNN393230 DXJ393228:DXJ393230 EHF393228:EHF393230 ERB393228:ERB393230 FAX393228:FAX393230 FKT393228:FKT393230 FUP393228:FUP393230 GEL393228:GEL393230 GOH393228:GOH393230 GYD393228:GYD393230 HHZ393228:HHZ393230 HRV393228:HRV393230 IBR393228:IBR393230 ILN393228:ILN393230 IVJ393228:IVJ393230 JFF393228:JFF393230 JPB393228:JPB393230 JYX393228:JYX393230 KIT393228:KIT393230 KSP393228:KSP393230 LCL393228:LCL393230 LMH393228:LMH393230 LWD393228:LWD393230 MFZ393228:MFZ393230 MPV393228:MPV393230 MZR393228:MZR393230 NJN393228:NJN393230 NTJ393228:NTJ393230 ODF393228:ODF393230 ONB393228:ONB393230 OWX393228:OWX393230 PGT393228:PGT393230 PQP393228:PQP393230 QAL393228:QAL393230 QKH393228:QKH393230 QUD393228:QUD393230 RDZ393228:RDZ393230 RNV393228:RNV393230 RXR393228:RXR393230 SHN393228:SHN393230 SRJ393228:SRJ393230 TBF393228:TBF393230 TLB393228:TLB393230 TUX393228:TUX393230 UET393228:UET393230 UOP393228:UOP393230 UYL393228:UYL393230 VIH393228:VIH393230 VSD393228:VSD393230 WBZ393228:WBZ393230 WLV393228:WLV393230 WVR393228:WVR393230 J458764:J458766 JF458764:JF458766 TB458764:TB458766 ACX458764:ACX458766 AMT458764:AMT458766 AWP458764:AWP458766 BGL458764:BGL458766 BQH458764:BQH458766 CAD458764:CAD458766 CJZ458764:CJZ458766 CTV458764:CTV458766 DDR458764:DDR458766 DNN458764:DNN458766 DXJ458764:DXJ458766 EHF458764:EHF458766 ERB458764:ERB458766 FAX458764:FAX458766 FKT458764:FKT458766 FUP458764:FUP458766 GEL458764:GEL458766 GOH458764:GOH458766 GYD458764:GYD458766 HHZ458764:HHZ458766 HRV458764:HRV458766 IBR458764:IBR458766 ILN458764:ILN458766 IVJ458764:IVJ458766 JFF458764:JFF458766 JPB458764:JPB458766 JYX458764:JYX458766 KIT458764:KIT458766 KSP458764:KSP458766 LCL458764:LCL458766 LMH458764:LMH458766 LWD458764:LWD458766 MFZ458764:MFZ458766 MPV458764:MPV458766 MZR458764:MZR458766 NJN458764:NJN458766 NTJ458764:NTJ458766 ODF458764:ODF458766 ONB458764:ONB458766 OWX458764:OWX458766 PGT458764:PGT458766 PQP458764:PQP458766 QAL458764:QAL458766 QKH458764:QKH458766 QUD458764:QUD458766 RDZ458764:RDZ458766 RNV458764:RNV458766 RXR458764:RXR458766 SHN458764:SHN458766 SRJ458764:SRJ458766 TBF458764:TBF458766 TLB458764:TLB458766 TUX458764:TUX458766 UET458764:UET458766 UOP458764:UOP458766 UYL458764:UYL458766 VIH458764:VIH458766 VSD458764:VSD458766 WBZ458764:WBZ458766 WLV458764:WLV458766 WVR458764:WVR458766 J524300:J524302 JF524300:JF524302 TB524300:TB524302 ACX524300:ACX524302 AMT524300:AMT524302 AWP524300:AWP524302 BGL524300:BGL524302 BQH524300:BQH524302 CAD524300:CAD524302 CJZ524300:CJZ524302 CTV524300:CTV524302 DDR524300:DDR524302 DNN524300:DNN524302 DXJ524300:DXJ524302 EHF524300:EHF524302 ERB524300:ERB524302 FAX524300:FAX524302 FKT524300:FKT524302 FUP524300:FUP524302 GEL524300:GEL524302 GOH524300:GOH524302 GYD524300:GYD524302 HHZ524300:HHZ524302 HRV524300:HRV524302 IBR524300:IBR524302 ILN524300:ILN524302 IVJ524300:IVJ524302 JFF524300:JFF524302 JPB524300:JPB524302 JYX524300:JYX524302 KIT524300:KIT524302 KSP524300:KSP524302 LCL524300:LCL524302 LMH524300:LMH524302 LWD524300:LWD524302 MFZ524300:MFZ524302 MPV524300:MPV524302 MZR524300:MZR524302 NJN524300:NJN524302 NTJ524300:NTJ524302 ODF524300:ODF524302 ONB524300:ONB524302 OWX524300:OWX524302 PGT524300:PGT524302 PQP524300:PQP524302 QAL524300:QAL524302 QKH524300:QKH524302 QUD524300:QUD524302 RDZ524300:RDZ524302 RNV524300:RNV524302 RXR524300:RXR524302 SHN524300:SHN524302 SRJ524300:SRJ524302 TBF524300:TBF524302 TLB524300:TLB524302 TUX524300:TUX524302 UET524300:UET524302 UOP524300:UOP524302 UYL524300:UYL524302 VIH524300:VIH524302 VSD524300:VSD524302 WBZ524300:WBZ524302 WLV524300:WLV524302 WVR524300:WVR524302 J589836:J589838 JF589836:JF589838 TB589836:TB589838 ACX589836:ACX589838 AMT589836:AMT589838 AWP589836:AWP589838 BGL589836:BGL589838 BQH589836:BQH589838 CAD589836:CAD589838 CJZ589836:CJZ589838 CTV589836:CTV589838 DDR589836:DDR589838 DNN589836:DNN589838 DXJ589836:DXJ589838 EHF589836:EHF589838 ERB589836:ERB589838 FAX589836:FAX589838 FKT589836:FKT589838 FUP589836:FUP589838 GEL589836:GEL589838 GOH589836:GOH589838 GYD589836:GYD589838 HHZ589836:HHZ589838 HRV589836:HRV589838 IBR589836:IBR589838 ILN589836:ILN589838 IVJ589836:IVJ589838 JFF589836:JFF589838 JPB589836:JPB589838 JYX589836:JYX589838 KIT589836:KIT589838 KSP589836:KSP589838 LCL589836:LCL589838 LMH589836:LMH589838 LWD589836:LWD589838 MFZ589836:MFZ589838 MPV589836:MPV589838 MZR589836:MZR589838 NJN589836:NJN589838 NTJ589836:NTJ589838 ODF589836:ODF589838 ONB589836:ONB589838 OWX589836:OWX589838 PGT589836:PGT589838 PQP589836:PQP589838 QAL589836:QAL589838 QKH589836:QKH589838 QUD589836:QUD589838 RDZ589836:RDZ589838 RNV589836:RNV589838 RXR589836:RXR589838 SHN589836:SHN589838 SRJ589836:SRJ589838 TBF589836:TBF589838 TLB589836:TLB589838 TUX589836:TUX589838 UET589836:UET589838 UOP589836:UOP589838 UYL589836:UYL589838 VIH589836:VIH589838 VSD589836:VSD589838 WBZ589836:WBZ589838 WLV589836:WLV589838 WVR589836:WVR589838 J655372:J655374 JF655372:JF655374 TB655372:TB655374 ACX655372:ACX655374 AMT655372:AMT655374 AWP655372:AWP655374 BGL655372:BGL655374 BQH655372:BQH655374 CAD655372:CAD655374 CJZ655372:CJZ655374 CTV655372:CTV655374 DDR655372:DDR655374 DNN655372:DNN655374 DXJ655372:DXJ655374 EHF655372:EHF655374 ERB655372:ERB655374 FAX655372:FAX655374 FKT655372:FKT655374 FUP655372:FUP655374 GEL655372:GEL655374 GOH655372:GOH655374 GYD655372:GYD655374 HHZ655372:HHZ655374 HRV655372:HRV655374 IBR655372:IBR655374 ILN655372:ILN655374 IVJ655372:IVJ655374 JFF655372:JFF655374 JPB655372:JPB655374 JYX655372:JYX655374 KIT655372:KIT655374 KSP655372:KSP655374 LCL655372:LCL655374 LMH655372:LMH655374 LWD655372:LWD655374 MFZ655372:MFZ655374 MPV655372:MPV655374 MZR655372:MZR655374 NJN655372:NJN655374 NTJ655372:NTJ655374 ODF655372:ODF655374 ONB655372:ONB655374 OWX655372:OWX655374 PGT655372:PGT655374 PQP655372:PQP655374 QAL655372:QAL655374 QKH655372:QKH655374 QUD655372:QUD655374 RDZ655372:RDZ655374 RNV655372:RNV655374 RXR655372:RXR655374 SHN655372:SHN655374 SRJ655372:SRJ655374 TBF655372:TBF655374 TLB655372:TLB655374 TUX655372:TUX655374 UET655372:UET655374 UOP655372:UOP655374 UYL655372:UYL655374 VIH655372:VIH655374 VSD655372:VSD655374 WBZ655372:WBZ655374 WLV655372:WLV655374 WVR655372:WVR655374 J720908:J720910 JF720908:JF720910 TB720908:TB720910 ACX720908:ACX720910 AMT720908:AMT720910 AWP720908:AWP720910 BGL720908:BGL720910 BQH720908:BQH720910 CAD720908:CAD720910 CJZ720908:CJZ720910 CTV720908:CTV720910 DDR720908:DDR720910 DNN720908:DNN720910 DXJ720908:DXJ720910 EHF720908:EHF720910 ERB720908:ERB720910 FAX720908:FAX720910 FKT720908:FKT720910 FUP720908:FUP720910 GEL720908:GEL720910 GOH720908:GOH720910 GYD720908:GYD720910 HHZ720908:HHZ720910 HRV720908:HRV720910 IBR720908:IBR720910 ILN720908:ILN720910 IVJ720908:IVJ720910 JFF720908:JFF720910 JPB720908:JPB720910 JYX720908:JYX720910 KIT720908:KIT720910 KSP720908:KSP720910 LCL720908:LCL720910 LMH720908:LMH720910 LWD720908:LWD720910 MFZ720908:MFZ720910 MPV720908:MPV720910 MZR720908:MZR720910 NJN720908:NJN720910 NTJ720908:NTJ720910 ODF720908:ODF720910 ONB720908:ONB720910 OWX720908:OWX720910 PGT720908:PGT720910 PQP720908:PQP720910 QAL720908:QAL720910 QKH720908:QKH720910 QUD720908:QUD720910 RDZ720908:RDZ720910 RNV720908:RNV720910 RXR720908:RXR720910 SHN720908:SHN720910 SRJ720908:SRJ720910 TBF720908:TBF720910 TLB720908:TLB720910 TUX720908:TUX720910 UET720908:UET720910 UOP720908:UOP720910 UYL720908:UYL720910 VIH720908:VIH720910 VSD720908:VSD720910 WBZ720908:WBZ720910 WLV720908:WLV720910 WVR720908:WVR720910 J786444:J786446 JF786444:JF786446 TB786444:TB786446 ACX786444:ACX786446 AMT786444:AMT786446 AWP786444:AWP786446 BGL786444:BGL786446 BQH786444:BQH786446 CAD786444:CAD786446 CJZ786444:CJZ786446 CTV786444:CTV786446 DDR786444:DDR786446 DNN786444:DNN786446 DXJ786444:DXJ786446 EHF786444:EHF786446 ERB786444:ERB786446 FAX786444:FAX786446 FKT786444:FKT786446 FUP786444:FUP786446 GEL786444:GEL786446 GOH786444:GOH786446 GYD786444:GYD786446 HHZ786444:HHZ786446 HRV786444:HRV786446 IBR786444:IBR786446 ILN786444:ILN786446 IVJ786444:IVJ786446 JFF786444:JFF786446 JPB786444:JPB786446 JYX786444:JYX786446 KIT786444:KIT786446 KSP786444:KSP786446 LCL786444:LCL786446 LMH786444:LMH786446 LWD786444:LWD786446 MFZ786444:MFZ786446 MPV786444:MPV786446 MZR786444:MZR786446 NJN786444:NJN786446 NTJ786444:NTJ786446 ODF786444:ODF786446 ONB786444:ONB786446 OWX786444:OWX786446 PGT786444:PGT786446 PQP786444:PQP786446 QAL786444:QAL786446 QKH786444:QKH786446 QUD786444:QUD786446 RDZ786444:RDZ786446 RNV786444:RNV786446 RXR786444:RXR786446 SHN786444:SHN786446 SRJ786444:SRJ786446 TBF786444:TBF786446 TLB786444:TLB786446 TUX786444:TUX786446 UET786444:UET786446 UOP786444:UOP786446 UYL786444:UYL786446 VIH786444:VIH786446 VSD786444:VSD786446 WBZ786444:WBZ786446 WLV786444:WLV786446 WVR786444:WVR786446 J851980:J851982 JF851980:JF851982 TB851980:TB851982 ACX851980:ACX851982 AMT851980:AMT851982 AWP851980:AWP851982 BGL851980:BGL851982 BQH851980:BQH851982 CAD851980:CAD851982 CJZ851980:CJZ851982 CTV851980:CTV851982 DDR851980:DDR851982 DNN851980:DNN851982 DXJ851980:DXJ851982 EHF851980:EHF851982 ERB851980:ERB851982 FAX851980:FAX851982 FKT851980:FKT851982 FUP851980:FUP851982 GEL851980:GEL851982 GOH851980:GOH851982 GYD851980:GYD851982 HHZ851980:HHZ851982 HRV851980:HRV851982 IBR851980:IBR851982 ILN851980:ILN851982 IVJ851980:IVJ851982 JFF851980:JFF851982 JPB851980:JPB851982 JYX851980:JYX851982 KIT851980:KIT851982 KSP851980:KSP851982 LCL851980:LCL851982 LMH851980:LMH851982 LWD851980:LWD851982 MFZ851980:MFZ851982 MPV851980:MPV851982 MZR851980:MZR851982 NJN851980:NJN851982 NTJ851980:NTJ851982 ODF851980:ODF851982 ONB851980:ONB851982 OWX851980:OWX851982 PGT851980:PGT851982 PQP851980:PQP851982 QAL851980:QAL851982 QKH851980:QKH851982 QUD851980:QUD851982 RDZ851980:RDZ851982 RNV851980:RNV851982 RXR851980:RXR851982 SHN851980:SHN851982 SRJ851980:SRJ851982 TBF851980:TBF851982 TLB851980:TLB851982 TUX851980:TUX851982 UET851980:UET851982 UOP851980:UOP851982 UYL851980:UYL851982 VIH851980:VIH851982 VSD851980:VSD851982 WBZ851980:WBZ851982 WLV851980:WLV851982 WVR851980:WVR851982 J917516:J917518 JF917516:JF917518 TB917516:TB917518 ACX917516:ACX917518 AMT917516:AMT917518 AWP917516:AWP917518 BGL917516:BGL917518 BQH917516:BQH917518 CAD917516:CAD917518 CJZ917516:CJZ917518 CTV917516:CTV917518 DDR917516:DDR917518 DNN917516:DNN917518 DXJ917516:DXJ917518 EHF917516:EHF917518 ERB917516:ERB917518 FAX917516:FAX917518 FKT917516:FKT917518 FUP917516:FUP917518 GEL917516:GEL917518 GOH917516:GOH917518 GYD917516:GYD917518 HHZ917516:HHZ917518 HRV917516:HRV917518 IBR917516:IBR917518 ILN917516:ILN917518 IVJ917516:IVJ917518 JFF917516:JFF917518 JPB917516:JPB917518 JYX917516:JYX917518 KIT917516:KIT917518 KSP917516:KSP917518 LCL917516:LCL917518 LMH917516:LMH917518 LWD917516:LWD917518 MFZ917516:MFZ917518 MPV917516:MPV917518 MZR917516:MZR917518 NJN917516:NJN917518 NTJ917516:NTJ917518 ODF917516:ODF917518 ONB917516:ONB917518 OWX917516:OWX917518 PGT917516:PGT917518 PQP917516:PQP917518 QAL917516:QAL917518 QKH917516:QKH917518 QUD917516:QUD917518 RDZ917516:RDZ917518 RNV917516:RNV917518 RXR917516:RXR917518 SHN917516:SHN917518 SRJ917516:SRJ917518 TBF917516:TBF917518 TLB917516:TLB917518 TUX917516:TUX917518 UET917516:UET917518 UOP917516:UOP917518 UYL917516:UYL917518 VIH917516:VIH917518 VSD917516:VSD917518 WBZ917516:WBZ917518 WLV917516:WLV917518 WVR917516:WVR917518 J983052:J983054 JF983052:JF983054 TB983052:TB983054 ACX983052:ACX983054 AMT983052:AMT983054 AWP983052:AWP983054 BGL983052:BGL983054 BQH983052:BQH983054 CAD983052:CAD983054 CJZ983052:CJZ983054 CTV983052:CTV983054 DDR983052:DDR983054 DNN983052:DNN983054 DXJ983052:DXJ983054 EHF983052:EHF983054 ERB983052:ERB983054 FAX983052:FAX983054 FKT983052:FKT983054 FUP983052:FUP983054 GEL983052:GEL983054 GOH983052:GOH983054 GYD983052:GYD983054 HHZ983052:HHZ983054 HRV983052:HRV983054 IBR983052:IBR983054 ILN983052:ILN983054 IVJ983052:IVJ983054 JFF983052:JFF983054 JPB983052:JPB983054 JYX983052:JYX983054 KIT983052:KIT983054 KSP983052:KSP983054 LCL983052:LCL983054 LMH983052:LMH983054 LWD983052:LWD983054 MFZ983052:MFZ983054 MPV983052:MPV983054 MZR983052:MZR983054 NJN983052:NJN983054 NTJ983052:NTJ983054 ODF983052:ODF983054 ONB983052:ONB983054 OWX983052:OWX983054 PGT983052:PGT983054 PQP983052:PQP983054 QAL983052:QAL983054 QKH983052:QKH983054 QUD983052:QUD983054 RDZ983052:RDZ983054 RNV983052:RNV983054 RXR983052:RXR983054 SHN983052:SHN983054 SRJ983052:SRJ983054 TBF983052:TBF983054 TLB983052:TLB983054 TUX983052:TUX983054 UET983052:UET983054 UOP983052:UOP983054 UYL983052:UYL983054 VIH983052:VIH983054 VSD983052:VSD983054 WBZ983052:WBZ983054 WLV983052:WLV983054 WVR983052:WVR983054 J16 JF16 TB16 ACX16 AMT16 AWP16 BGL16 BQH16 CAD16 CJZ16 CTV16 DDR16 DNN16 DXJ16 EHF16 ERB16 FAX16 FKT16 FUP16 GEL16 GOH16 GYD16 HHZ16 HRV16 IBR16 ILN16 IVJ16 JFF16 JPB16 JYX16 KIT16 KSP16 LCL16 LMH16 LWD16 MFZ16 MPV16 MZR16 NJN16 NTJ16 ODF16 ONB16 OWX16 PGT16 PQP16 QAL16 QKH16 QUD16 RDZ16 RNV16 RXR16 SHN16 SRJ16 TBF16 TLB16 TUX16 UET16 UOP16 UYL16 VIH16 VSD16 WBZ16 WLV16 WVR16 J65552 JF65552 TB65552 ACX65552 AMT65552 AWP65552 BGL65552 BQH65552 CAD65552 CJZ65552 CTV65552 DDR65552 DNN65552 DXJ65552 EHF65552 ERB65552 FAX65552 FKT65552 FUP65552 GEL65552 GOH65552 GYD65552 HHZ65552 HRV65552 IBR65552 ILN65552 IVJ65552 JFF65552 JPB65552 JYX65552 KIT65552 KSP65552 LCL65552 LMH65552 LWD65552 MFZ65552 MPV65552 MZR65552 NJN65552 NTJ65552 ODF65552 ONB65552 OWX65552 PGT65552 PQP65552 QAL65552 QKH65552 QUD65552 RDZ65552 RNV65552 RXR65552 SHN65552 SRJ65552 TBF65552 TLB65552 TUX65552 UET65552 UOP65552 UYL65552 VIH65552 VSD65552 WBZ65552 WLV65552 WVR65552 J131088 JF131088 TB131088 ACX131088 AMT131088 AWP131088 BGL131088 BQH131088 CAD131088 CJZ131088 CTV131088 DDR131088 DNN131088 DXJ131088 EHF131088 ERB131088 FAX131088 FKT131088 FUP131088 GEL131088 GOH131088 GYD131088 HHZ131088 HRV131088 IBR131088 ILN131088 IVJ131088 JFF131088 JPB131088 JYX131088 KIT131088 KSP131088 LCL131088 LMH131088 LWD131088 MFZ131088 MPV131088 MZR131088 NJN131088 NTJ131088 ODF131088 ONB131088 OWX131088 PGT131088 PQP131088 QAL131088 QKH131088 QUD131088 RDZ131088 RNV131088 RXR131088 SHN131088 SRJ131088 TBF131088 TLB131088 TUX131088 UET131088 UOP131088 UYL131088 VIH131088 VSD131088 WBZ131088 WLV131088 WVR131088 J196624 JF196624 TB196624 ACX196624 AMT196624 AWP196624 BGL196624 BQH196624 CAD196624 CJZ196624 CTV196624 DDR196624 DNN196624 DXJ196624 EHF196624 ERB196624 FAX196624 FKT196624 FUP196624 GEL196624 GOH196624 GYD196624 HHZ196624 HRV196624 IBR196624 ILN196624 IVJ196624 JFF196624 JPB196624 JYX196624 KIT196624 KSP196624 LCL196624 LMH196624 LWD196624 MFZ196624 MPV196624 MZR196624 NJN196624 NTJ196624 ODF196624 ONB196624 OWX196624 PGT196624 PQP196624 QAL196624 QKH196624 QUD196624 RDZ196624 RNV196624 RXR196624 SHN196624 SRJ196624 TBF196624 TLB196624 TUX196624 UET196624 UOP196624 UYL196624 VIH196624 VSD196624 WBZ196624 WLV196624 WVR196624 J262160 JF262160 TB262160 ACX262160 AMT262160 AWP262160 BGL262160 BQH262160 CAD262160 CJZ262160 CTV262160 DDR262160 DNN262160 DXJ262160 EHF262160 ERB262160 FAX262160 FKT262160 FUP262160 GEL262160 GOH262160 GYD262160 HHZ262160 HRV262160 IBR262160 ILN262160 IVJ262160 JFF262160 JPB262160 JYX262160 KIT262160 KSP262160 LCL262160 LMH262160 LWD262160 MFZ262160 MPV262160 MZR262160 NJN262160 NTJ262160 ODF262160 ONB262160 OWX262160 PGT262160 PQP262160 QAL262160 QKH262160 QUD262160 RDZ262160 RNV262160 RXR262160 SHN262160 SRJ262160 TBF262160 TLB262160 TUX262160 UET262160 UOP262160 UYL262160 VIH262160 VSD262160 WBZ262160 WLV262160 WVR262160 J327696 JF327696 TB327696 ACX327696 AMT327696 AWP327696 BGL327696 BQH327696 CAD327696 CJZ327696 CTV327696 DDR327696 DNN327696 DXJ327696 EHF327696 ERB327696 FAX327696 FKT327696 FUP327696 GEL327696 GOH327696 GYD327696 HHZ327696 HRV327696 IBR327696 ILN327696 IVJ327696 JFF327696 JPB327696 JYX327696 KIT327696 KSP327696 LCL327696 LMH327696 LWD327696 MFZ327696 MPV327696 MZR327696 NJN327696 NTJ327696 ODF327696 ONB327696 OWX327696 PGT327696 PQP327696 QAL327696 QKH327696 QUD327696 RDZ327696 RNV327696 RXR327696 SHN327696 SRJ327696 TBF327696 TLB327696 TUX327696 UET327696 UOP327696 UYL327696 VIH327696 VSD327696 WBZ327696 WLV327696 WVR327696 J393232 JF393232 TB393232 ACX393232 AMT393232 AWP393232 BGL393232 BQH393232 CAD393232 CJZ393232 CTV393232 DDR393232 DNN393232 DXJ393232 EHF393232 ERB393232 FAX393232 FKT393232 FUP393232 GEL393232 GOH393232 GYD393232 HHZ393232 HRV393232 IBR393232 ILN393232 IVJ393232 JFF393232 JPB393232 JYX393232 KIT393232 KSP393232 LCL393232 LMH393232 LWD393232 MFZ393232 MPV393232 MZR393232 NJN393232 NTJ393232 ODF393232 ONB393232 OWX393232 PGT393232 PQP393232 QAL393232 QKH393232 QUD393232 RDZ393232 RNV393232 RXR393232 SHN393232 SRJ393232 TBF393232 TLB393232 TUX393232 UET393232 UOP393232 UYL393232 VIH393232 VSD393232 WBZ393232 WLV393232 WVR393232 J458768 JF458768 TB458768 ACX458768 AMT458768 AWP458768 BGL458768 BQH458768 CAD458768 CJZ458768 CTV458768 DDR458768 DNN458768 DXJ458768 EHF458768 ERB458768 FAX458768 FKT458768 FUP458768 GEL458768 GOH458768 GYD458768 HHZ458768 HRV458768 IBR458768 ILN458768 IVJ458768 JFF458768 JPB458768 JYX458768 KIT458768 KSP458768 LCL458768 LMH458768 LWD458768 MFZ458768 MPV458768 MZR458768 NJN458768 NTJ458768 ODF458768 ONB458768 OWX458768 PGT458768 PQP458768 QAL458768 QKH458768 QUD458768 RDZ458768 RNV458768 RXR458768 SHN458768 SRJ458768 TBF458768 TLB458768 TUX458768 UET458768 UOP458768 UYL458768 VIH458768 VSD458768 WBZ458768 WLV458768 WVR458768 J524304 JF524304 TB524304 ACX524304 AMT524304 AWP524304 BGL524304 BQH524304 CAD524304 CJZ524304 CTV524304 DDR524304 DNN524304 DXJ524304 EHF524304 ERB524304 FAX524304 FKT524304 FUP524304 GEL524304 GOH524304 GYD524304 HHZ524304 HRV524304 IBR524304 ILN524304 IVJ524304 JFF524304 JPB524304 JYX524304 KIT524304 KSP524304 LCL524304 LMH524304 LWD524304 MFZ524304 MPV524304 MZR524304 NJN524304 NTJ524304 ODF524304 ONB524304 OWX524304 PGT524304 PQP524304 QAL524304 QKH524304 QUD524304 RDZ524304 RNV524304 RXR524304 SHN524304 SRJ524304 TBF524304 TLB524304 TUX524304 UET524304 UOP524304 UYL524304 VIH524304 VSD524304 WBZ524304 WLV524304 WVR524304 J589840 JF589840 TB589840 ACX589840 AMT589840 AWP589840 BGL589840 BQH589840 CAD589840 CJZ589840 CTV589840 DDR589840 DNN589840 DXJ589840 EHF589840 ERB589840 FAX589840 FKT589840 FUP589840 GEL589840 GOH589840 GYD589840 HHZ589840 HRV589840 IBR589840 ILN589840 IVJ589840 JFF589840 JPB589840 JYX589840 KIT589840 KSP589840 LCL589840 LMH589840 LWD589840 MFZ589840 MPV589840 MZR589840 NJN589840 NTJ589840 ODF589840 ONB589840 OWX589840 PGT589840 PQP589840 QAL589840 QKH589840 QUD589840 RDZ589840 RNV589840 RXR589840 SHN589840 SRJ589840 TBF589840 TLB589840 TUX589840 UET589840 UOP589840 UYL589840 VIH589840 VSD589840 WBZ589840 WLV589840 WVR589840 J655376 JF655376 TB655376 ACX655376 AMT655376 AWP655376 BGL655376 BQH655376 CAD655376 CJZ655376 CTV655376 DDR655376 DNN655376 DXJ655376 EHF655376 ERB655376 FAX655376 FKT655376 FUP655376 GEL655376 GOH655376 GYD655376 HHZ655376 HRV655376 IBR655376 ILN655376 IVJ655376 JFF655376 JPB655376 JYX655376 KIT655376 KSP655376 LCL655376 LMH655376 LWD655376 MFZ655376 MPV655376 MZR655376 NJN655376 NTJ655376 ODF655376 ONB655376 OWX655376 PGT655376 PQP655376 QAL655376 QKH655376 QUD655376 RDZ655376 RNV655376 RXR655376 SHN655376 SRJ655376 TBF655376 TLB655376 TUX655376 UET655376 UOP655376 UYL655376 VIH655376 VSD655376 WBZ655376 WLV655376 WVR655376 J720912 JF720912 TB720912 ACX720912 AMT720912 AWP720912 BGL720912 BQH720912 CAD720912 CJZ720912 CTV720912 DDR720912 DNN720912 DXJ720912 EHF720912 ERB720912 FAX720912 FKT720912 FUP720912 GEL720912 GOH720912 GYD720912 HHZ720912 HRV720912 IBR720912 ILN720912 IVJ720912 JFF720912 JPB720912 JYX720912 KIT720912 KSP720912 LCL720912 LMH720912 LWD720912 MFZ720912 MPV720912 MZR720912 NJN720912 NTJ720912 ODF720912 ONB720912 OWX720912 PGT720912 PQP720912 QAL720912 QKH720912 QUD720912 RDZ720912 RNV720912 RXR720912 SHN720912 SRJ720912 TBF720912 TLB720912 TUX720912 UET720912 UOP720912 UYL720912 VIH720912 VSD720912 WBZ720912 WLV720912 WVR720912 J786448 JF786448 TB786448 ACX786448 AMT786448 AWP786448 BGL786448 BQH786448 CAD786448 CJZ786448 CTV786448 DDR786448 DNN786448 DXJ786448 EHF786448 ERB786448 FAX786448 FKT786448 FUP786448 GEL786448 GOH786448 GYD786448 HHZ786448 HRV786448 IBR786448 ILN786448 IVJ786448 JFF786448 JPB786448 JYX786448 KIT786448 KSP786448 LCL786448 LMH786448 LWD786448 MFZ786448 MPV786448 MZR786448 NJN786448 NTJ786448 ODF786448 ONB786448 OWX786448 PGT786448 PQP786448 QAL786448 QKH786448 QUD786448 RDZ786448 RNV786448 RXR786448 SHN786448 SRJ786448 TBF786448 TLB786448 TUX786448 UET786448 UOP786448 UYL786448 VIH786448 VSD786448 WBZ786448 WLV786448 WVR786448 J851984 JF851984 TB851984 ACX851984 AMT851984 AWP851984 BGL851984 BQH851984 CAD851984 CJZ851984 CTV851984 DDR851984 DNN851984 DXJ851984 EHF851984 ERB851984 FAX851984 FKT851984 FUP851984 GEL851984 GOH851984 GYD851984 HHZ851984 HRV851984 IBR851984 ILN851984 IVJ851984 JFF851984 JPB851984 JYX851984 KIT851984 KSP851984 LCL851984 LMH851984 LWD851984 MFZ851984 MPV851984 MZR851984 NJN851984 NTJ851984 ODF851984 ONB851984 OWX851984 PGT851984 PQP851984 QAL851984 QKH851984 QUD851984 RDZ851984 RNV851984 RXR851984 SHN851984 SRJ851984 TBF851984 TLB851984 TUX851984 UET851984 UOP851984 UYL851984 VIH851984 VSD851984 WBZ851984 WLV851984 WVR851984 J917520 JF917520 TB917520 ACX917520 AMT917520 AWP917520 BGL917520 BQH917520 CAD917520 CJZ917520 CTV917520 DDR917520 DNN917520 DXJ917520 EHF917520 ERB917520 FAX917520 FKT917520 FUP917520 GEL917520 GOH917520 GYD917520 HHZ917520 HRV917520 IBR917520 ILN917520 IVJ917520 JFF917520 JPB917520 JYX917520 KIT917520 KSP917520 LCL917520 LMH917520 LWD917520 MFZ917520 MPV917520 MZR917520 NJN917520 NTJ917520 ODF917520 ONB917520 OWX917520 PGT917520 PQP917520 QAL917520 QKH917520 QUD917520 RDZ917520 RNV917520 RXR917520 SHN917520 SRJ917520 TBF917520 TLB917520 TUX917520 UET917520 UOP917520 UYL917520 VIH917520 VSD917520 WBZ917520 WLV917520 WVR917520 J983056 JF983056 TB983056 ACX983056 AMT983056 AWP983056 BGL983056 BQH983056 CAD983056 CJZ983056 CTV983056 DDR983056 DNN983056 DXJ983056 EHF983056 ERB983056 FAX983056 FKT983056 FUP983056 GEL983056 GOH983056 GYD983056 HHZ983056 HRV983056 IBR983056 ILN983056 IVJ983056 JFF983056 JPB983056 JYX983056 KIT983056 KSP983056 LCL983056 LMH983056 LWD983056 MFZ983056 MPV983056 MZR983056 NJN983056 NTJ983056 ODF983056 ONB983056 OWX983056 PGT983056 PQP983056 QAL983056 QKH983056 QUD983056 RDZ983056 RNV983056 RXR983056 SHN983056 SRJ983056 TBF983056 TLB983056 TUX983056 UET983056 UOP983056 UYL983056 VIH983056 VSD983056 WBZ983056 WLV983056 WVR983056 J19:J22 JF19:JF22 TB19:TB22 ACX19:ACX22 AMT19:AMT22 AWP19:AWP22 BGL19:BGL22 BQH19:BQH22 CAD19:CAD22 CJZ19:CJZ22 CTV19:CTV22 DDR19:DDR22 DNN19:DNN22 DXJ19:DXJ22 EHF19:EHF22 ERB19:ERB22 FAX19:FAX22 FKT19:FKT22 FUP19:FUP22 GEL19:GEL22 GOH19:GOH22 GYD19:GYD22 HHZ19:HHZ22 HRV19:HRV22 IBR19:IBR22 ILN19:ILN22 IVJ19:IVJ22 JFF19:JFF22 JPB19:JPB22 JYX19:JYX22 KIT19:KIT22 KSP19:KSP22 LCL19:LCL22 LMH19:LMH22 LWD19:LWD22 MFZ19:MFZ22 MPV19:MPV22 MZR19:MZR22 NJN19:NJN22 NTJ19:NTJ22 ODF19:ODF22 ONB19:ONB22 OWX19:OWX22 PGT19:PGT22 PQP19:PQP22 QAL19:QAL22 QKH19:QKH22 QUD19:QUD22 RDZ19:RDZ22 RNV19:RNV22 RXR19:RXR22 SHN19:SHN22 SRJ19:SRJ22 TBF19:TBF22 TLB19:TLB22 TUX19:TUX22 UET19:UET22 UOP19:UOP22 UYL19:UYL22 VIH19:VIH22 VSD19:VSD22 WBZ19:WBZ22 WLV19:WLV22 WVR19:WVR22 J65555:J65558 JF65555:JF65558 TB65555:TB65558 ACX65555:ACX65558 AMT65555:AMT65558 AWP65555:AWP65558 BGL65555:BGL65558 BQH65555:BQH65558 CAD65555:CAD65558 CJZ65555:CJZ65558 CTV65555:CTV65558 DDR65555:DDR65558 DNN65555:DNN65558 DXJ65555:DXJ65558 EHF65555:EHF65558 ERB65555:ERB65558 FAX65555:FAX65558 FKT65555:FKT65558 FUP65555:FUP65558 GEL65555:GEL65558 GOH65555:GOH65558 GYD65555:GYD65558 HHZ65555:HHZ65558 HRV65555:HRV65558 IBR65555:IBR65558 ILN65555:ILN65558 IVJ65555:IVJ65558 JFF65555:JFF65558 JPB65555:JPB65558 JYX65555:JYX65558 KIT65555:KIT65558 KSP65555:KSP65558 LCL65555:LCL65558 LMH65555:LMH65558 LWD65555:LWD65558 MFZ65555:MFZ65558 MPV65555:MPV65558 MZR65555:MZR65558 NJN65555:NJN65558 NTJ65555:NTJ65558 ODF65555:ODF65558 ONB65555:ONB65558 OWX65555:OWX65558 PGT65555:PGT65558 PQP65555:PQP65558 QAL65555:QAL65558 QKH65555:QKH65558 QUD65555:QUD65558 RDZ65555:RDZ65558 RNV65555:RNV65558 RXR65555:RXR65558 SHN65555:SHN65558 SRJ65555:SRJ65558 TBF65555:TBF65558 TLB65555:TLB65558 TUX65555:TUX65558 UET65555:UET65558 UOP65555:UOP65558 UYL65555:UYL65558 VIH65555:VIH65558 VSD65555:VSD65558 WBZ65555:WBZ65558 WLV65555:WLV65558 WVR65555:WVR65558 J131091:J131094 JF131091:JF131094 TB131091:TB131094 ACX131091:ACX131094 AMT131091:AMT131094 AWP131091:AWP131094 BGL131091:BGL131094 BQH131091:BQH131094 CAD131091:CAD131094 CJZ131091:CJZ131094 CTV131091:CTV131094 DDR131091:DDR131094 DNN131091:DNN131094 DXJ131091:DXJ131094 EHF131091:EHF131094 ERB131091:ERB131094 FAX131091:FAX131094 FKT131091:FKT131094 FUP131091:FUP131094 GEL131091:GEL131094 GOH131091:GOH131094 GYD131091:GYD131094 HHZ131091:HHZ131094 HRV131091:HRV131094 IBR131091:IBR131094 ILN131091:ILN131094 IVJ131091:IVJ131094 JFF131091:JFF131094 JPB131091:JPB131094 JYX131091:JYX131094 KIT131091:KIT131094 KSP131091:KSP131094 LCL131091:LCL131094 LMH131091:LMH131094 LWD131091:LWD131094 MFZ131091:MFZ131094 MPV131091:MPV131094 MZR131091:MZR131094 NJN131091:NJN131094 NTJ131091:NTJ131094 ODF131091:ODF131094 ONB131091:ONB131094 OWX131091:OWX131094 PGT131091:PGT131094 PQP131091:PQP131094 QAL131091:QAL131094 QKH131091:QKH131094 QUD131091:QUD131094 RDZ131091:RDZ131094 RNV131091:RNV131094 RXR131091:RXR131094 SHN131091:SHN131094 SRJ131091:SRJ131094 TBF131091:TBF131094 TLB131091:TLB131094 TUX131091:TUX131094 UET131091:UET131094 UOP131091:UOP131094 UYL131091:UYL131094 VIH131091:VIH131094 VSD131091:VSD131094 WBZ131091:WBZ131094 WLV131091:WLV131094 WVR131091:WVR131094 J196627:J196630 JF196627:JF196630 TB196627:TB196630 ACX196627:ACX196630 AMT196627:AMT196630 AWP196627:AWP196630 BGL196627:BGL196630 BQH196627:BQH196630 CAD196627:CAD196630 CJZ196627:CJZ196630 CTV196627:CTV196630 DDR196627:DDR196630 DNN196627:DNN196630 DXJ196627:DXJ196630 EHF196627:EHF196630 ERB196627:ERB196630 FAX196627:FAX196630 FKT196627:FKT196630 FUP196627:FUP196630 GEL196627:GEL196630 GOH196627:GOH196630 GYD196627:GYD196630 HHZ196627:HHZ196630 HRV196627:HRV196630 IBR196627:IBR196630 ILN196627:ILN196630 IVJ196627:IVJ196630 JFF196627:JFF196630 JPB196627:JPB196630 JYX196627:JYX196630 KIT196627:KIT196630 KSP196627:KSP196630 LCL196627:LCL196630 LMH196627:LMH196630 LWD196627:LWD196630 MFZ196627:MFZ196630 MPV196627:MPV196630 MZR196627:MZR196630 NJN196627:NJN196630 NTJ196627:NTJ196630 ODF196627:ODF196630 ONB196627:ONB196630 OWX196627:OWX196630 PGT196627:PGT196630 PQP196627:PQP196630 QAL196627:QAL196630 QKH196627:QKH196630 QUD196627:QUD196630 RDZ196627:RDZ196630 RNV196627:RNV196630 RXR196627:RXR196630 SHN196627:SHN196630 SRJ196627:SRJ196630 TBF196627:TBF196630 TLB196627:TLB196630 TUX196627:TUX196630 UET196627:UET196630 UOP196627:UOP196630 UYL196627:UYL196630 VIH196627:VIH196630 VSD196627:VSD196630 WBZ196627:WBZ196630 WLV196627:WLV196630 WVR196627:WVR196630 J262163:J262166 JF262163:JF262166 TB262163:TB262166 ACX262163:ACX262166 AMT262163:AMT262166 AWP262163:AWP262166 BGL262163:BGL262166 BQH262163:BQH262166 CAD262163:CAD262166 CJZ262163:CJZ262166 CTV262163:CTV262166 DDR262163:DDR262166 DNN262163:DNN262166 DXJ262163:DXJ262166 EHF262163:EHF262166 ERB262163:ERB262166 FAX262163:FAX262166 FKT262163:FKT262166 FUP262163:FUP262166 GEL262163:GEL262166 GOH262163:GOH262166 GYD262163:GYD262166 HHZ262163:HHZ262166 HRV262163:HRV262166 IBR262163:IBR262166 ILN262163:ILN262166 IVJ262163:IVJ262166 JFF262163:JFF262166 JPB262163:JPB262166 JYX262163:JYX262166 KIT262163:KIT262166 KSP262163:KSP262166 LCL262163:LCL262166 LMH262163:LMH262166 LWD262163:LWD262166 MFZ262163:MFZ262166 MPV262163:MPV262166 MZR262163:MZR262166 NJN262163:NJN262166 NTJ262163:NTJ262166 ODF262163:ODF262166 ONB262163:ONB262166 OWX262163:OWX262166 PGT262163:PGT262166 PQP262163:PQP262166 QAL262163:QAL262166 QKH262163:QKH262166 QUD262163:QUD262166 RDZ262163:RDZ262166 RNV262163:RNV262166 RXR262163:RXR262166 SHN262163:SHN262166 SRJ262163:SRJ262166 TBF262163:TBF262166 TLB262163:TLB262166 TUX262163:TUX262166 UET262163:UET262166 UOP262163:UOP262166 UYL262163:UYL262166 VIH262163:VIH262166 VSD262163:VSD262166 WBZ262163:WBZ262166 WLV262163:WLV262166 WVR262163:WVR262166 J327699:J327702 JF327699:JF327702 TB327699:TB327702 ACX327699:ACX327702 AMT327699:AMT327702 AWP327699:AWP327702 BGL327699:BGL327702 BQH327699:BQH327702 CAD327699:CAD327702 CJZ327699:CJZ327702 CTV327699:CTV327702 DDR327699:DDR327702 DNN327699:DNN327702 DXJ327699:DXJ327702 EHF327699:EHF327702 ERB327699:ERB327702 FAX327699:FAX327702 FKT327699:FKT327702 FUP327699:FUP327702 GEL327699:GEL327702 GOH327699:GOH327702 GYD327699:GYD327702 HHZ327699:HHZ327702 HRV327699:HRV327702 IBR327699:IBR327702 ILN327699:ILN327702 IVJ327699:IVJ327702 JFF327699:JFF327702 JPB327699:JPB327702 JYX327699:JYX327702 KIT327699:KIT327702 KSP327699:KSP327702 LCL327699:LCL327702 LMH327699:LMH327702 LWD327699:LWD327702 MFZ327699:MFZ327702 MPV327699:MPV327702 MZR327699:MZR327702 NJN327699:NJN327702 NTJ327699:NTJ327702 ODF327699:ODF327702 ONB327699:ONB327702 OWX327699:OWX327702 PGT327699:PGT327702 PQP327699:PQP327702 QAL327699:QAL327702 QKH327699:QKH327702 QUD327699:QUD327702 RDZ327699:RDZ327702 RNV327699:RNV327702 RXR327699:RXR327702 SHN327699:SHN327702 SRJ327699:SRJ327702 TBF327699:TBF327702 TLB327699:TLB327702 TUX327699:TUX327702 UET327699:UET327702 UOP327699:UOP327702 UYL327699:UYL327702 VIH327699:VIH327702 VSD327699:VSD327702 WBZ327699:WBZ327702 WLV327699:WLV327702 WVR327699:WVR327702 J393235:J393238 JF393235:JF393238 TB393235:TB393238 ACX393235:ACX393238 AMT393235:AMT393238 AWP393235:AWP393238 BGL393235:BGL393238 BQH393235:BQH393238 CAD393235:CAD393238 CJZ393235:CJZ393238 CTV393235:CTV393238 DDR393235:DDR393238 DNN393235:DNN393238 DXJ393235:DXJ393238 EHF393235:EHF393238 ERB393235:ERB393238 FAX393235:FAX393238 FKT393235:FKT393238 FUP393235:FUP393238 GEL393235:GEL393238 GOH393235:GOH393238 GYD393235:GYD393238 HHZ393235:HHZ393238 HRV393235:HRV393238 IBR393235:IBR393238 ILN393235:ILN393238 IVJ393235:IVJ393238 JFF393235:JFF393238 JPB393235:JPB393238 JYX393235:JYX393238 KIT393235:KIT393238 KSP393235:KSP393238 LCL393235:LCL393238 LMH393235:LMH393238 LWD393235:LWD393238 MFZ393235:MFZ393238 MPV393235:MPV393238 MZR393235:MZR393238 NJN393235:NJN393238 NTJ393235:NTJ393238 ODF393235:ODF393238 ONB393235:ONB393238 OWX393235:OWX393238 PGT393235:PGT393238 PQP393235:PQP393238 QAL393235:QAL393238 QKH393235:QKH393238 QUD393235:QUD393238 RDZ393235:RDZ393238 RNV393235:RNV393238 RXR393235:RXR393238 SHN393235:SHN393238 SRJ393235:SRJ393238 TBF393235:TBF393238 TLB393235:TLB393238 TUX393235:TUX393238 UET393235:UET393238 UOP393235:UOP393238 UYL393235:UYL393238 VIH393235:VIH393238 VSD393235:VSD393238 WBZ393235:WBZ393238 WLV393235:WLV393238 WVR393235:WVR393238 J458771:J458774 JF458771:JF458774 TB458771:TB458774 ACX458771:ACX458774 AMT458771:AMT458774 AWP458771:AWP458774 BGL458771:BGL458774 BQH458771:BQH458774 CAD458771:CAD458774 CJZ458771:CJZ458774 CTV458771:CTV458774 DDR458771:DDR458774 DNN458771:DNN458774 DXJ458771:DXJ458774 EHF458771:EHF458774 ERB458771:ERB458774 FAX458771:FAX458774 FKT458771:FKT458774 FUP458771:FUP458774 GEL458771:GEL458774 GOH458771:GOH458774 GYD458771:GYD458774 HHZ458771:HHZ458774 HRV458771:HRV458774 IBR458771:IBR458774 ILN458771:ILN458774 IVJ458771:IVJ458774 JFF458771:JFF458774 JPB458771:JPB458774 JYX458771:JYX458774 KIT458771:KIT458774 KSP458771:KSP458774 LCL458771:LCL458774 LMH458771:LMH458774 LWD458771:LWD458774 MFZ458771:MFZ458774 MPV458771:MPV458774 MZR458771:MZR458774 NJN458771:NJN458774 NTJ458771:NTJ458774 ODF458771:ODF458774 ONB458771:ONB458774 OWX458771:OWX458774 PGT458771:PGT458774 PQP458771:PQP458774 QAL458771:QAL458774 QKH458771:QKH458774 QUD458771:QUD458774 RDZ458771:RDZ458774 RNV458771:RNV458774 RXR458771:RXR458774 SHN458771:SHN458774 SRJ458771:SRJ458774 TBF458771:TBF458774 TLB458771:TLB458774 TUX458771:TUX458774 UET458771:UET458774 UOP458771:UOP458774 UYL458771:UYL458774 VIH458771:VIH458774 VSD458771:VSD458774 WBZ458771:WBZ458774 WLV458771:WLV458774 WVR458771:WVR458774 J524307:J524310 JF524307:JF524310 TB524307:TB524310 ACX524307:ACX524310 AMT524307:AMT524310 AWP524307:AWP524310 BGL524307:BGL524310 BQH524307:BQH524310 CAD524307:CAD524310 CJZ524307:CJZ524310 CTV524307:CTV524310 DDR524307:DDR524310 DNN524307:DNN524310 DXJ524307:DXJ524310 EHF524307:EHF524310 ERB524307:ERB524310 FAX524307:FAX524310 FKT524307:FKT524310 FUP524307:FUP524310 GEL524307:GEL524310 GOH524307:GOH524310 GYD524307:GYD524310 HHZ524307:HHZ524310 HRV524307:HRV524310 IBR524307:IBR524310 ILN524307:ILN524310 IVJ524307:IVJ524310 JFF524307:JFF524310 JPB524307:JPB524310 JYX524307:JYX524310 KIT524307:KIT524310 KSP524307:KSP524310 LCL524307:LCL524310 LMH524307:LMH524310 LWD524307:LWD524310 MFZ524307:MFZ524310 MPV524307:MPV524310 MZR524307:MZR524310 NJN524307:NJN524310 NTJ524307:NTJ524310 ODF524307:ODF524310 ONB524307:ONB524310 OWX524307:OWX524310 PGT524307:PGT524310 PQP524307:PQP524310 QAL524307:QAL524310 QKH524307:QKH524310 QUD524307:QUD524310 RDZ524307:RDZ524310 RNV524307:RNV524310 RXR524307:RXR524310 SHN524307:SHN524310 SRJ524307:SRJ524310 TBF524307:TBF524310 TLB524307:TLB524310 TUX524307:TUX524310 UET524307:UET524310 UOP524307:UOP524310 UYL524307:UYL524310 VIH524307:VIH524310 VSD524307:VSD524310 WBZ524307:WBZ524310 WLV524307:WLV524310 WVR524307:WVR524310 J589843:J589846 JF589843:JF589846 TB589843:TB589846 ACX589843:ACX589846 AMT589843:AMT589846 AWP589843:AWP589846 BGL589843:BGL589846 BQH589843:BQH589846 CAD589843:CAD589846 CJZ589843:CJZ589846 CTV589843:CTV589846 DDR589843:DDR589846 DNN589843:DNN589846 DXJ589843:DXJ589846 EHF589843:EHF589846 ERB589843:ERB589846 FAX589843:FAX589846 FKT589843:FKT589846 FUP589843:FUP589846 GEL589843:GEL589846 GOH589843:GOH589846 GYD589843:GYD589846 HHZ589843:HHZ589846 HRV589843:HRV589846 IBR589843:IBR589846 ILN589843:ILN589846 IVJ589843:IVJ589846 JFF589843:JFF589846 JPB589843:JPB589846 JYX589843:JYX589846 KIT589843:KIT589846 KSP589843:KSP589846 LCL589843:LCL589846 LMH589843:LMH589846 LWD589843:LWD589846 MFZ589843:MFZ589846 MPV589843:MPV589846 MZR589843:MZR589846 NJN589843:NJN589846 NTJ589843:NTJ589846 ODF589843:ODF589846 ONB589843:ONB589846 OWX589843:OWX589846 PGT589843:PGT589846 PQP589843:PQP589846 QAL589843:QAL589846 QKH589843:QKH589846 QUD589843:QUD589846 RDZ589843:RDZ589846 RNV589843:RNV589846 RXR589843:RXR589846 SHN589843:SHN589846 SRJ589843:SRJ589846 TBF589843:TBF589846 TLB589843:TLB589846 TUX589843:TUX589846 UET589843:UET589846 UOP589843:UOP589846 UYL589843:UYL589846 VIH589843:VIH589846 VSD589843:VSD589846 WBZ589843:WBZ589846 WLV589843:WLV589846 WVR589843:WVR589846 J655379:J655382 JF655379:JF655382 TB655379:TB655382 ACX655379:ACX655382 AMT655379:AMT655382 AWP655379:AWP655382 BGL655379:BGL655382 BQH655379:BQH655382 CAD655379:CAD655382 CJZ655379:CJZ655382 CTV655379:CTV655382 DDR655379:DDR655382 DNN655379:DNN655382 DXJ655379:DXJ655382 EHF655379:EHF655382 ERB655379:ERB655382 FAX655379:FAX655382 FKT655379:FKT655382 FUP655379:FUP655382 GEL655379:GEL655382 GOH655379:GOH655382 GYD655379:GYD655382 HHZ655379:HHZ655382 HRV655379:HRV655382 IBR655379:IBR655382 ILN655379:ILN655382 IVJ655379:IVJ655382 JFF655379:JFF655382 JPB655379:JPB655382 JYX655379:JYX655382 KIT655379:KIT655382 KSP655379:KSP655382 LCL655379:LCL655382 LMH655379:LMH655382 LWD655379:LWD655382 MFZ655379:MFZ655382 MPV655379:MPV655382 MZR655379:MZR655382 NJN655379:NJN655382 NTJ655379:NTJ655382 ODF655379:ODF655382 ONB655379:ONB655382 OWX655379:OWX655382 PGT655379:PGT655382 PQP655379:PQP655382 QAL655379:QAL655382 QKH655379:QKH655382 QUD655379:QUD655382 RDZ655379:RDZ655382 RNV655379:RNV655382 RXR655379:RXR655382 SHN655379:SHN655382 SRJ655379:SRJ655382 TBF655379:TBF655382 TLB655379:TLB655382 TUX655379:TUX655382 UET655379:UET655382 UOP655379:UOP655382 UYL655379:UYL655382 VIH655379:VIH655382 VSD655379:VSD655382 WBZ655379:WBZ655382 WLV655379:WLV655382 WVR655379:WVR655382 J720915:J720918 JF720915:JF720918 TB720915:TB720918 ACX720915:ACX720918 AMT720915:AMT720918 AWP720915:AWP720918 BGL720915:BGL720918 BQH720915:BQH720918 CAD720915:CAD720918 CJZ720915:CJZ720918 CTV720915:CTV720918 DDR720915:DDR720918 DNN720915:DNN720918 DXJ720915:DXJ720918 EHF720915:EHF720918 ERB720915:ERB720918 FAX720915:FAX720918 FKT720915:FKT720918 FUP720915:FUP720918 GEL720915:GEL720918 GOH720915:GOH720918 GYD720915:GYD720918 HHZ720915:HHZ720918 HRV720915:HRV720918 IBR720915:IBR720918 ILN720915:ILN720918 IVJ720915:IVJ720918 JFF720915:JFF720918 JPB720915:JPB720918 JYX720915:JYX720918 KIT720915:KIT720918 KSP720915:KSP720918 LCL720915:LCL720918 LMH720915:LMH720918 LWD720915:LWD720918 MFZ720915:MFZ720918 MPV720915:MPV720918 MZR720915:MZR720918 NJN720915:NJN720918 NTJ720915:NTJ720918 ODF720915:ODF720918 ONB720915:ONB720918 OWX720915:OWX720918 PGT720915:PGT720918 PQP720915:PQP720918 QAL720915:QAL720918 QKH720915:QKH720918 QUD720915:QUD720918 RDZ720915:RDZ720918 RNV720915:RNV720918 RXR720915:RXR720918 SHN720915:SHN720918 SRJ720915:SRJ720918 TBF720915:TBF720918 TLB720915:TLB720918 TUX720915:TUX720918 UET720915:UET720918 UOP720915:UOP720918 UYL720915:UYL720918 VIH720915:VIH720918 VSD720915:VSD720918 WBZ720915:WBZ720918 WLV720915:WLV720918 WVR720915:WVR720918 J786451:J786454 JF786451:JF786454 TB786451:TB786454 ACX786451:ACX786454 AMT786451:AMT786454 AWP786451:AWP786454 BGL786451:BGL786454 BQH786451:BQH786454 CAD786451:CAD786454 CJZ786451:CJZ786454 CTV786451:CTV786454 DDR786451:DDR786454 DNN786451:DNN786454 DXJ786451:DXJ786454 EHF786451:EHF786454 ERB786451:ERB786454 FAX786451:FAX786454 FKT786451:FKT786454 FUP786451:FUP786454 GEL786451:GEL786454 GOH786451:GOH786454 GYD786451:GYD786454 HHZ786451:HHZ786454 HRV786451:HRV786454 IBR786451:IBR786454 ILN786451:ILN786454 IVJ786451:IVJ786454 JFF786451:JFF786454 JPB786451:JPB786454 JYX786451:JYX786454 KIT786451:KIT786454 KSP786451:KSP786454 LCL786451:LCL786454 LMH786451:LMH786454 LWD786451:LWD786454 MFZ786451:MFZ786454 MPV786451:MPV786454 MZR786451:MZR786454 NJN786451:NJN786454 NTJ786451:NTJ786454 ODF786451:ODF786454 ONB786451:ONB786454 OWX786451:OWX786454 PGT786451:PGT786454 PQP786451:PQP786454 QAL786451:QAL786454 QKH786451:QKH786454 QUD786451:QUD786454 RDZ786451:RDZ786454 RNV786451:RNV786454 RXR786451:RXR786454 SHN786451:SHN786454 SRJ786451:SRJ786454 TBF786451:TBF786454 TLB786451:TLB786454 TUX786451:TUX786454 UET786451:UET786454 UOP786451:UOP786454 UYL786451:UYL786454 VIH786451:VIH786454 VSD786451:VSD786454 WBZ786451:WBZ786454 WLV786451:WLV786454 WVR786451:WVR786454 J851987:J851990 JF851987:JF851990 TB851987:TB851990 ACX851987:ACX851990 AMT851987:AMT851990 AWP851987:AWP851990 BGL851987:BGL851990 BQH851987:BQH851990 CAD851987:CAD851990 CJZ851987:CJZ851990 CTV851987:CTV851990 DDR851987:DDR851990 DNN851987:DNN851990 DXJ851987:DXJ851990 EHF851987:EHF851990 ERB851987:ERB851990 FAX851987:FAX851990 FKT851987:FKT851990 FUP851987:FUP851990 GEL851987:GEL851990 GOH851987:GOH851990 GYD851987:GYD851990 HHZ851987:HHZ851990 HRV851987:HRV851990 IBR851987:IBR851990 ILN851987:ILN851990 IVJ851987:IVJ851990 JFF851987:JFF851990 JPB851987:JPB851990 JYX851987:JYX851990 KIT851987:KIT851990 KSP851987:KSP851990 LCL851987:LCL851990 LMH851987:LMH851990 LWD851987:LWD851990 MFZ851987:MFZ851990 MPV851987:MPV851990 MZR851987:MZR851990 NJN851987:NJN851990 NTJ851987:NTJ851990 ODF851987:ODF851990 ONB851987:ONB851990 OWX851987:OWX851990 PGT851987:PGT851990 PQP851987:PQP851990 QAL851987:QAL851990 QKH851987:QKH851990 QUD851987:QUD851990 RDZ851987:RDZ851990 RNV851987:RNV851990 RXR851987:RXR851990 SHN851987:SHN851990 SRJ851987:SRJ851990 TBF851987:TBF851990 TLB851987:TLB851990 TUX851987:TUX851990 UET851987:UET851990 UOP851987:UOP851990 UYL851987:UYL851990 VIH851987:VIH851990 VSD851987:VSD851990 WBZ851987:WBZ851990 WLV851987:WLV851990 WVR851987:WVR851990 J917523:J917526 JF917523:JF917526 TB917523:TB917526 ACX917523:ACX917526 AMT917523:AMT917526 AWP917523:AWP917526 BGL917523:BGL917526 BQH917523:BQH917526 CAD917523:CAD917526 CJZ917523:CJZ917526 CTV917523:CTV917526 DDR917523:DDR917526 DNN917523:DNN917526 DXJ917523:DXJ917526 EHF917523:EHF917526 ERB917523:ERB917526 FAX917523:FAX917526 FKT917523:FKT917526 FUP917523:FUP917526 GEL917523:GEL917526 GOH917523:GOH917526 GYD917523:GYD917526 HHZ917523:HHZ917526 HRV917523:HRV917526 IBR917523:IBR917526 ILN917523:ILN917526 IVJ917523:IVJ917526 JFF917523:JFF917526 JPB917523:JPB917526 JYX917523:JYX917526 KIT917523:KIT917526 KSP917523:KSP917526 LCL917523:LCL917526 LMH917523:LMH917526 LWD917523:LWD917526 MFZ917523:MFZ917526 MPV917523:MPV917526 MZR917523:MZR917526 NJN917523:NJN917526 NTJ917523:NTJ917526 ODF917523:ODF917526 ONB917523:ONB917526 OWX917523:OWX917526 PGT917523:PGT917526 PQP917523:PQP917526 QAL917523:QAL917526 QKH917523:QKH917526 QUD917523:QUD917526 RDZ917523:RDZ917526 RNV917523:RNV917526 RXR917523:RXR917526 SHN917523:SHN917526 SRJ917523:SRJ917526 TBF917523:TBF917526 TLB917523:TLB917526 TUX917523:TUX917526 UET917523:UET917526 UOP917523:UOP917526 UYL917523:UYL917526 VIH917523:VIH917526 VSD917523:VSD917526 WBZ917523:WBZ917526 WLV917523:WLV917526 WVR917523:WVR917526 J983059:J983062 JF983059:JF983062 TB983059:TB983062 ACX983059:ACX983062 AMT983059:AMT983062 AWP983059:AWP983062 BGL983059:BGL983062 BQH983059:BQH983062 CAD983059:CAD983062 CJZ983059:CJZ983062 CTV983059:CTV983062 DDR983059:DDR983062 DNN983059:DNN983062 DXJ983059:DXJ983062 EHF983059:EHF983062 ERB983059:ERB983062 FAX983059:FAX983062 FKT983059:FKT983062 FUP983059:FUP983062 GEL983059:GEL983062 GOH983059:GOH983062 GYD983059:GYD983062 HHZ983059:HHZ983062 HRV983059:HRV983062 IBR983059:IBR983062 ILN983059:ILN983062 IVJ983059:IVJ983062 JFF983059:JFF983062 JPB983059:JPB983062 JYX983059:JYX983062 KIT983059:KIT983062 KSP983059:KSP983062 LCL983059:LCL983062 LMH983059:LMH983062 LWD983059:LWD983062 MFZ983059:MFZ983062 MPV983059:MPV983062 MZR983059:MZR983062 NJN983059:NJN983062 NTJ983059:NTJ983062 ODF983059:ODF983062 ONB983059:ONB983062 OWX983059:OWX983062 PGT983059:PGT983062 PQP983059:PQP983062 QAL983059:QAL983062 QKH983059:QKH983062 QUD983059:QUD983062 RDZ983059:RDZ983062 RNV983059:RNV983062 RXR983059:RXR983062 SHN983059:SHN983062 SRJ983059:SRJ983062 TBF983059:TBF983062 TLB983059:TLB983062 TUX983059:TUX983062 UET983059:UET983062 UOP983059:UOP983062 UYL983059:UYL983062 VIH983059:VIH983062 VSD983059:VSD983062 WBZ983059:WBZ983062 WLV983059:WLV983062 WVR983059:WVR983062" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>NA</formula1>
     </dataValidation>
   </dataValidations>
@@ -6951,12 +6990,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AQ338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6985,7 +7022,7 @@
       <c r="L1" s="65"/>
       <c r="M1" s="66"/>
       <c r="O1" s="68" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P1" s="69"/>
       <c r="Q1" s="69"/>
@@ -7286,7 +7323,7 @@
         <v>108</v>
       </c>
       <c r="AQ9" s="82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7298,19 +7335,19 @@
       <c r="E10" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="450" t="str">
+      <c r="F10" s="440" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="450"/>
+      <c r="G10" s="440"/>
       <c r="J10" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="450" t="str">
+      <c r="K10" s="440" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="450"/>
+      <c r="L10" s="440"/>
       <c r="M10" s="117"/>
       <c r="O10" s="77"/>
       <c r="Q10" s="83" t="s">
@@ -7374,19 +7411,19 @@
       <c r="E11" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="452" t="str">
+      <c r="F11" s="441" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="452"/>
+      <c r="G11" s="441"/>
       <c r="J11" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="K11" s="450" t="str">
+      <c r="K11" s="440" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="450"/>
+      <c r="L11" s="440"/>
       <c r="M11" s="117"/>
       <c r="O11" s="77"/>
       <c r="Q11" s="83" t="s">
@@ -7450,19 +7487,19 @@
       <c r="E12" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="452" t="str">
+      <c r="F12" s="441" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="452"/>
+      <c r="G12" s="441"/>
       <c r="J12" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="451" t="str">
+      <c r="K12" s="442" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="451"/>
+      <c r="L12" s="442"/>
       <c r="M12" s="117"/>
       <c r="O12" s="77"/>
       <c r="Q12" s="83" t="s">
@@ -7526,19 +7563,19 @@
       <c r="E13" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="452" t="str">
+      <c r="F13" s="441" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="452"/>
+      <c r="G13" s="441"/>
       <c r="J13" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="450" t="str">
+      <c r="K13" s="440" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="450"/>
+      <c r="L13" s="440"/>
       <c r="M13" s="117"/>
       <c r="O13" s="77"/>
       <c r="Q13" s="83" t="s">
@@ -7709,19 +7746,19 @@
       <c r="E16" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="450" t="str">
+      <c r="F16" s="440" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="450"/>
+      <c r="G16" s="440"/>
       <c r="J16" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="451" t="str">
+      <c r="K16" s="442" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="451"/>
+      <c r="L16" s="442"/>
       <c r="M16" s="117"/>
       <c r="O16" s="77"/>
       <c r="P16" s="124" t="s">
@@ -7772,19 +7809,19 @@
       <c r="E17" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="450" t="str">
+      <c r="F17" s="440" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="450"/>
+      <c r="G17" s="440"/>
       <c r="J17" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="450" t="str">
+      <c r="K17" s="440" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="450"/>
+      <c r="L17" s="440"/>
       <c r="M17" s="117"/>
       <c r="O17" s="77"/>
       <c r="Q17" s="83" t="s">
@@ -7848,19 +7885,19 @@
       <c r="E18" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="450" t="str">
+      <c r="F18" s="440" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="450"/>
+      <c r="G18" s="440"/>
       <c r="J18" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="450" t="str">
+      <c r="K18" s="440" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="450"/>
+      <c r="L18" s="440"/>
       <c r="M18" s="117"/>
       <c r="O18" s="77"/>
       <c r="Q18" s="83" t="s">
@@ -8023,19 +8060,19 @@
       <c r="E21" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="450" t="str">
+      <c r="F21" s="440" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="450"/>
+      <c r="G21" s="440"/>
       <c r="J21" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="450" t="str">
+      <c r="K21" s="440" t="str">
         <f>IF(V21="","",V21)</f>
         <v>Mo</v>
       </c>
-      <c r="L21" s="450"/>
+      <c r="L21" s="440"/>
       <c r="M21" s="117"/>
       <c r="O21" s="77"/>
       <c r="P21" s="124" t="s">
@@ -8096,17 +8133,17 @@
       <c r="E22" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="451" t="str">
+      <c r="F22" s="442" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="451"/>
+      <c r="G22" s="442"/>
       <c r="J22" s="83"/>
-      <c r="K22" s="450" t="str">
+      <c r="K22" s="440" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="450"/>
+      <c r="L22" s="440"/>
       <c r="M22" s="117"/>
       <c r="O22" s="77"/>
       <c r="Q22" s="83" t="s">
@@ -8170,11 +8207,11 @@
       <c r="J23" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="450" t="str">
+      <c r="K23" s="440" t="str">
         <f>IF(V24="","",V24)</f>
         <v>Mo</v>
       </c>
-      <c r="L23" s="450"/>
+      <c r="L23" s="440"/>
       <c r="M23" s="117"/>
       <c r="O23" s="77"/>
       <c r="Q23" s="83" t="s">
@@ -8232,16 +8269,16 @@
       <c r="E24" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="450" t="str">
+      <c r="F24" s="440" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="450"/>
-      <c r="K24" s="450" t="str">
+      <c r="G24" s="440"/>
+      <c r="K24" s="440" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="450"/>
+      <c r="L24" s="440"/>
       <c r="M24" s="117"/>
       <c r="O24" s="77"/>
       <c r="P24" s="124" t="s">
@@ -8302,11 +8339,11 @@
       <c r="E25" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="450" t="str">
+      <c r="F25" s="440" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="450"/>
+      <c r="G25" s="440"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
       <c r="L25" s="74"/>
@@ -8370,11 +8407,11 @@
       <c r="E26" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="450" t="str">
+      <c r="F26" s="440" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="450"/>
+      <c r="G26" s="440"/>
       <c r="I26" s="124" t="s">
         <v>133</v>
       </c>
@@ -8441,11 +8478,11 @@
       <c r="J27" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="450" t="str">
+      <c r="K27" s="440" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="450"/>
+      <c r="L27" s="440"/>
       <c r="M27" s="117"/>
       <c r="O27" s="77"/>
       <c r="Q27" s="83" t="s">
@@ -8473,20 +8510,20 @@
       <c r="E28" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="450" t="str">
+      <c r="F28" s="440" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="450"/>
+      <c r="G28" s="440"/>
       <c r="I28" s="74"/>
       <c r="J28" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="K28" s="450" t="str">
+      <c r="K28" s="440" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="450"/>
+      <c r="L28" s="440"/>
       <c r="M28" s="117"/>
       <c r="O28" s="77"/>
       <c r="P28" s="124" t="s">
@@ -8523,22 +8560,22 @@
       <c r="E29" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="450" t="str">
+      <c r="F29" s="440" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="450"/>
+      <c r="G29" s="440"/>
       <c r="I29" s="124" t="s">
         <v>137</v>
       </c>
       <c r="J29" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="K29" s="450" t="str">
+      <c r="K29" s="440" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="450"/>
+      <c r="L29" s="440"/>
       <c r="M29" s="117"/>
       <c r="O29" s="77"/>
       <c r="Q29" s="83" t="s">
@@ -8590,19 +8627,19 @@
       <c r="E30" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="450" t="str">
+      <c r="F30" s="440" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="450"/>
+      <c r="G30" s="440"/>
       <c r="J30" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="K30" s="450" t="str">
+      <c r="K30" s="440" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="450"/>
+      <c r="L30" s="440"/>
       <c r="M30" s="117"/>
       <c r="O30" s="77"/>
       <c r="Q30" s="83" t="s">
@@ -8818,21 +8855,21 @@
       <c r="C35" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="448" t="s">
+      <c r="D35" s="443" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="448"/>
-      <c r="F35" s="448"/>
-      <c r="G35" s="448" t="s">
+      <c r="E35" s="443"/>
+      <c r="F35" s="443"/>
+      <c r="G35" s="443" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="448"/>
-      <c r="I35" s="448"/>
-      <c r="J35" s="448" t="s">
+      <c r="H35" s="443"/>
+      <c r="I35" s="443"/>
+      <c r="J35" s="443" t="s">
         <v>144</v>
       </c>
-      <c r="K35" s="448"/>
-      <c r="L35" s="448"/>
+      <c r="K35" s="443"/>
+      <c r="L35" s="443"/>
       <c r="M35" s="117"/>
       <c r="O35" s="88"/>
       <c r="P35" s="89"/>
@@ -8879,11 +8916,11 @@
       <c r="D36" s="133"/>
       <c r="E36" s="134"/>
       <c r="F36" s="135"/>
-      <c r="G36" s="447" t="s">
+      <c r="G36" s="444" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="447"/>
-      <c r="I36" s="447"/>
+      <c r="H36" s="444"/>
+      <c r="I36" s="444"/>
       <c r="J36" s="133"/>
       <c r="K36" s="134"/>
       <c r="L36" s="135"/>
@@ -9174,7 +9211,7 @@
       <c r="M40" s="117"/>
       <c r="O40" s="147"/>
       <c r="P40" s="84" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Y40" s="79"/>
       <c r="AA40" s="83" t="s">
@@ -9332,10 +9369,10 @@
       <c r="C44" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="L44" s="449" t="s">
+      <c r="L44" s="445" t="s">
         <v>166</v>
       </c>
-      <c r="M44" s="449"/>
+      <c r="M44" s="445"/>
       <c r="O44" s="77"/>
       <c r="Y44" s="79"/>
       <c r="AA44" s="124" t="s">
@@ -9396,10 +9433,10 @@
       </c>
       <c r="B46" s="115"/>
       <c r="C46" s="156" t="s">
-        <v>169</v>
+        <v>506</v>
       </c>
       <c r="E46" s="84" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L46" s="157" t="str">
         <f>IF(O40="","TBD",IF(O40=1,"YES",IF(O40=3,"NA","")))</f>
@@ -9411,11 +9448,11 @@
       </c>
       <c r="O46" s="147"/>
       <c r="P46" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y46" s="79"/>
       <c r="AA46" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB46" s="113"/>
       <c r="AD46" s="114" t="str">
@@ -9439,7 +9476,7 @@
       </c>
       <c r="B47" s="115"/>
       <c r="C47" s="156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E47" s="84" t="s">
         <v>160</v>
@@ -9454,11 +9491,11 @@
       </c>
       <c r="O47" s="147"/>
       <c r="P47" s="116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y47" s="79"/>
       <c r="AA47" s="83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB47" s="113"/>
       <c r="AD47" s="114" t="str">
@@ -9494,11 +9531,11 @@
       </c>
       <c r="O48" s="147"/>
       <c r="P48" s="116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y48" s="79"/>
       <c r="AA48" s="83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB48" s="113"/>
       <c r="AD48" s="114" t="str">
@@ -9534,11 +9571,11 @@
       </c>
       <c r="O49" s="147"/>
       <c r="P49" s="116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y49" s="79"/>
       <c r="AA49" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB49" s="113"/>
       <c r="AD49" s="114" t="str">
@@ -9567,11 +9604,11 @@
       <c r="M50" s="117"/>
       <c r="O50" s="147"/>
       <c r="P50" s="116" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y50" s="79"/>
       <c r="AA50" s="83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB50" s="113"/>
       <c r="AD50" s="114" t="str">
@@ -9595,7 +9632,7 @@
       </c>
       <c r="B51" s="115"/>
       <c r="E51" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L51" s="157" t="str">
         <f t="shared" ref="L51:L62" si="6">IF(O46="","TBD",IF(O46=1,"YES",IF(O46=3,"NA","")))</f>
@@ -9607,11 +9644,11 @@
       </c>
       <c r="O51" s="147"/>
       <c r="P51" s="116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y51" s="79"/>
       <c r="AA51" s="83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB51" s="113"/>
       <c r="AD51" s="114" t="str">
@@ -9635,7 +9672,7 @@
       </c>
       <c r="B52" s="115"/>
       <c r="E52" s="116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L52" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9649,11 +9686,11 @@
         <v>1</v>
       </c>
       <c r="P52" s="116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y52" s="79"/>
       <c r="AA52" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB52" s="113"/>
       <c r="AD52" s="114" t="str">
@@ -9677,7 +9714,7 @@
       </c>
       <c r="B53" s="115"/>
       <c r="E53" s="116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L53" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9689,11 +9726,11 @@
       </c>
       <c r="O53" s="147"/>
       <c r="P53" s="116" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y53" s="79"/>
       <c r="AA53" s="83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB53" s="113"/>
       <c r="AD53" s="114" t="str">
@@ -9717,7 +9754,7 @@
       </c>
       <c r="B54" s="115"/>
       <c r="E54" s="116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L54" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9729,11 +9766,11 @@
       </c>
       <c r="O54" s="147"/>
       <c r="P54" s="116" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y54" s="79"/>
       <c r="AA54" s="83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB54" s="113"/>
       <c r="AD54" s="114" t="str">
@@ -9757,7 +9794,7 @@
       </c>
       <c r="B55" s="115"/>
       <c r="E55" s="116" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L55" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9769,11 +9806,11 @@
       </c>
       <c r="O55" s="147"/>
       <c r="P55" s="116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y55" s="79"/>
       <c r="AA55" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB55" s="113"/>
       <c r="AD55" s="114" t="str">
@@ -9797,7 +9834,7 @@
       </c>
       <c r="B56" s="115"/>
       <c r="E56" s="116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L56" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9809,11 +9846,11 @@
       </c>
       <c r="O56" s="147"/>
       <c r="P56" s="116" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y56" s="79"/>
       <c r="AA56" s="83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB56" s="113"/>
       <c r="AD56" s="114"/>
@@ -9834,7 +9871,7 @@
       </c>
       <c r="B57" s="115"/>
       <c r="E57" s="116" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L57" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9846,11 +9883,11 @@
       </c>
       <c r="O57" s="147"/>
       <c r="P57" s="116" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y57" s="79"/>
       <c r="AA57" s="83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB57" s="113"/>
       <c r="AD57" s="114"/>
@@ -9871,7 +9908,7 @@
       </c>
       <c r="B58" s="115"/>
       <c r="E58" s="116" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L58" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9884,7 +9921,7 @@
       <c r="O58" s="77"/>
       <c r="Y58" s="79"/>
       <c r="AA58" s="91" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH58" s="152"/>
       <c r="AI58" s="152"/>
@@ -9903,7 +9940,7 @@
       </c>
       <c r="B59" s="115"/>
       <c r="E59" s="116" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L59" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9916,7 +9953,7 @@
       <c r="O59" s="77"/>
       <c r="Y59" s="79"/>
       <c r="AA59" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB59" s="113"/>
       <c r="AD59" s="114" t="str">
@@ -9940,7 +9977,7 @@
       </c>
       <c r="B60" s="115"/>
       <c r="E60" s="116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L60" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9952,11 +9989,11 @@
       </c>
       <c r="O60" s="77"/>
       <c r="T60" s="102" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y60" s="79"/>
       <c r="AA60" s="83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB60" s="113"/>
       <c r="AD60" s="114" t="str">
@@ -9980,7 +10017,7 @@
       </c>
       <c r="B61" s="115"/>
       <c r="E61" s="116" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L61" s="157" t="str">
         <f t="shared" si="6"/>
@@ -9992,11 +10029,11 @@
       </c>
       <c r="O61" s="147"/>
       <c r="P61" s="67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y61" s="79"/>
       <c r="AA61" s="83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB61" s="113"/>
       <c r="AD61" s="114" t="str">
@@ -10020,7 +10057,7 @@
       </c>
       <c r="B62" s="115"/>
       <c r="E62" s="116" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L62" s="157" t="str">
         <f t="shared" si="6"/>
@@ -10032,11 +10069,11 @@
       </c>
       <c r="O62" s="147"/>
       <c r="P62" s="67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y62" s="79"/>
       <c r="AA62" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB62" s="113"/>
       <c r="AD62" s="114" t="str">
@@ -10065,11 +10102,11 @@
         <v>3</v>
       </c>
       <c r="P63" s="67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y63" s="79"/>
       <c r="AA63" s="83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB63" s="113"/>
       <c r="AD63" s="114" t="str">
@@ -10096,11 +10133,11 @@
       <c r="M64" s="158"/>
       <c r="O64" s="147"/>
       <c r="P64" s="67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y64" s="79"/>
       <c r="AA64" s="83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB64" s="113"/>
       <c r="AD64" s="114" t="str">
@@ -10129,11 +10166,11 @@
         <v>3</v>
       </c>
       <c r="P65" s="67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y65" s="79"/>
       <c r="AA65" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB65" s="113"/>
       <c r="AD65" s="114" t="str">
@@ -10169,11 +10206,11 @@
       <c r="M66" s="161"/>
       <c r="O66" s="147"/>
       <c r="P66" s="67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y66" s="79"/>
       <c r="AA66" s="83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB66" s="113"/>
       <c r="AD66" s="114" t="str">
@@ -10220,11 +10257,11 @@
         <v>3</v>
       </c>
       <c r="P67" s="67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y67" s="79"/>
       <c r="AA67" s="83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB67" s="113"/>
       <c r="AD67" s="114" t="str">
@@ -10247,7 +10284,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="165" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -10271,11 +10308,11 @@
         <v>3</v>
       </c>
       <c r="P68" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y68" s="79"/>
       <c r="AA68" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB68" s="113"/>
       <c r="AD68" s="114" t="str">
@@ -10305,11 +10342,11 @@
         <v>3</v>
       </c>
       <c r="P69" s="67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y69" s="79"/>
       <c r="AA69" s="83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB69" s="113"/>
       <c r="AD69" s="114" t="str">
@@ -10330,11 +10367,11 @@
       </c>
       <c r="O70" s="147"/>
       <c r="P70" s="67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y70" s="79"/>
       <c r="AA70" s="83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB70" s="113"/>
       <c r="AD70" s="114" t="str">
@@ -10355,7 +10392,7 @@
       <c r="F71" s="107"/>
       <c r="G71" s="107"/>
       <c r="H71" s="169" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I71" s="107"/>
       <c r="J71" s="107"/>
@@ -10364,7 +10401,7 @@
       <c r="M71" s="109"/>
       <c r="O71" s="147"/>
       <c r="P71" s="67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y71" s="79"/>
       <c r="AA71" s="91" t="s">
@@ -10377,10 +10414,10 @@
       </c>
       <c r="B72" s="115"/>
       <c r="C72" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" s="67" t="s">
         <v>201</v>
-      </c>
-      <c r="E72" s="67" t="s">
-        <v>202</v>
       </c>
       <c r="L72" s="157" t="str">
         <f t="shared" ref="L72:L103" si="8">IF(O61="","TBD",IF(O61=1,"YES",IF(O61=3,"NA","")))</f>
@@ -10392,11 +10429,11 @@
       </c>
       <c r="O72" s="147"/>
       <c r="P72" s="67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y72" s="79"/>
       <c r="AA72" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB72" s="113"/>
       <c r="AD72" s="114" t="str">
@@ -10410,10 +10447,10 @@
       </c>
       <c r="B73" s="115"/>
       <c r="C73" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="67" t="s">
         <v>204</v>
-      </c>
-      <c r="E73" s="67" t="s">
-        <v>205</v>
       </c>
       <c r="L73" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10425,11 +10462,11 @@
       </c>
       <c r="O73" s="147"/>
       <c r="P73" s="67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y73" s="79"/>
       <c r="AA73" s="83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB73" s="113"/>
       <c r="AD73" s="114" t="str">
@@ -10443,10 +10480,10 @@
       </c>
       <c r="B74" s="115"/>
       <c r="C74" s="67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E74" s="67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L74" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10458,11 +10495,11 @@
       </c>
       <c r="O74" s="147"/>
       <c r="P74" s="67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y74" s="79"/>
       <c r="AA74" s="83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB74" s="113"/>
       <c r="AD74" s="114" t="str">
@@ -10476,10 +10513,10 @@
       </c>
       <c r="B75" s="115"/>
       <c r="C75" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="E75" s="67" t="s">
         <v>209</v>
-      </c>
-      <c r="E75" s="67" t="s">
-        <v>210</v>
       </c>
       <c r="L75" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10491,11 +10528,11 @@
       </c>
       <c r="O75" s="147"/>
       <c r="P75" s="67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y75" s="79"/>
       <c r="AA75" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB75" s="113"/>
       <c r="AD75" s="114" t="str">
@@ -10509,10 +10546,10 @@
       </c>
       <c r="B76" s="115"/>
       <c r="C76" s="67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E76" s="67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L76" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10524,11 +10561,11 @@
       </c>
       <c r="O76" s="147"/>
       <c r="P76" s="67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y76" s="79"/>
       <c r="AA76" s="83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB76" s="113"/>
       <c r="AD76" s="114" t="str">
@@ -10542,10 +10579,10 @@
       </c>
       <c r="B77" s="115"/>
       <c r="C77" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" s="67" t="s">
         <v>214</v>
-      </c>
-      <c r="E77" s="67" t="s">
-        <v>215</v>
       </c>
       <c r="L77" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10557,11 +10594,11 @@
       </c>
       <c r="O77" s="147"/>
       <c r="P77" s="67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y77" s="79"/>
       <c r="AA77" s="83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB77" s="113"/>
       <c r="AD77" s="114" t="str">
@@ -10575,10 +10612,10 @@
       </c>
       <c r="B78" s="115"/>
       <c r="C78" s="67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E78" s="67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L78" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10590,11 +10627,11 @@
       </c>
       <c r="O78" s="147"/>
       <c r="P78" s="67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y78" s="79"/>
       <c r="AA78" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB78" s="113"/>
       <c r="AD78" s="114" t="str">
@@ -10608,10 +10645,10 @@
       </c>
       <c r="B79" s="115"/>
       <c r="C79" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="E79" s="67" t="s">
         <v>219</v>
-      </c>
-      <c r="E79" s="67" t="s">
-        <v>220</v>
       </c>
       <c r="L79" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10623,11 +10660,11 @@
       </c>
       <c r="O79" s="147"/>
       <c r="P79" s="67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Y79" s="79"/>
       <c r="AA79" s="83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB79" s="113"/>
       <c r="AD79" s="114" t="str">
@@ -10641,10 +10678,10 @@
       </c>
       <c r="B80" s="115"/>
       <c r="C80" s="67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E80" s="67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L80" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10656,11 +10693,11 @@
       </c>
       <c r="O80" s="147"/>
       <c r="P80" s="67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Y80" s="79"/>
       <c r="AA80" s="83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB80" s="113"/>
       <c r="AD80" s="114" t="str">
@@ -10674,10 +10711,10 @@
       </c>
       <c r="B81" s="115"/>
       <c r="C81" s="67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E81" s="67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L81" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10689,11 +10726,11 @@
       </c>
       <c r="O81" s="147"/>
       <c r="P81" s="67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Y81" s="79"/>
       <c r="AA81" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB81" s="113"/>
       <c r="AD81" s="114" t="str">
@@ -10707,10 +10744,10 @@
       </c>
       <c r="B82" s="115"/>
       <c r="C82" s="67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E82" s="67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L82" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10722,11 +10759,11 @@
       </c>
       <c r="O82" s="147"/>
       <c r="P82" s="67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Y82" s="79"/>
       <c r="AA82" s="83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB82" s="113"/>
       <c r="AD82" s="114" t="str">
@@ -10740,10 +10777,10 @@
       </c>
       <c r="B83" s="115"/>
       <c r="C83" s="67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E83" s="67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L83" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10757,11 +10794,11 @@
         <v>3</v>
       </c>
       <c r="P83" s="67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y83" s="79"/>
       <c r="AA83" s="83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB83" s="113"/>
       <c r="AD83" s="114" t="str">
@@ -10775,10 +10812,10 @@
       </c>
       <c r="B84" s="115"/>
       <c r="C84" s="67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E84" s="67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L84" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10792,7 +10829,7 @@
         <v>3</v>
       </c>
       <c r="P84" s="67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y84" s="79"/>
     </row>
@@ -10803,7 +10840,7 @@
       <c r="B85" s="115"/>
       <c r="C85" s="74"/>
       <c r="E85" s="67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L85" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10817,11 +10854,11 @@
         <v>3</v>
       </c>
       <c r="P85" s="67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y85" s="79"/>
       <c r="AA85" s="83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB85" s="113"/>
       <c r="AD85" s="170" t="e">
@@ -10835,10 +10872,10 @@
       </c>
       <c r="B86" s="115"/>
       <c r="C86" s="67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E86" s="67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L86" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10852,11 +10889,11 @@
         <v>3</v>
       </c>
       <c r="P86" s="67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y86" s="79"/>
       <c r="AA86" s="83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AB86" s="113"/>
       <c r="AD86" s="171" t="str">
@@ -10870,10 +10907,10 @@
       </c>
       <c r="B87" s="115"/>
       <c r="C87" s="67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E87" s="67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L87" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10885,11 +10922,11 @@
       </c>
       <c r="O87" s="147"/>
       <c r="P87" s="67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y87" s="79"/>
       <c r="AA87" s="83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB87" s="113"/>
       <c r="AD87" s="170" t="str">
@@ -10903,10 +10940,10 @@
       </c>
       <c r="B88" s="115"/>
       <c r="C88" s="67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E88" s="67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L88" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10920,11 +10957,11 @@
         <v>3</v>
       </c>
       <c r="P88" s="67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y88" s="79"/>
       <c r="AA88" s="83" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AB88" s="113"/>
       <c r="AD88" s="170" t="str">
@@ -10938,10 +10975,10 @@
       </c>
       <c r="B89" s="115"/>
       <c r="C89" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" s="67" t="s">
         <v>242</v>
-      </c>
-      <c r="E89" s="67" t="s">
-        <v>243</v>
       </c>
       <c r="L89" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10955,11 +10992,11 @@
         <v>3</v>
       </c>
       <c r="P89" s="67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y89" s="79"/>
       <c r="AA89" s="83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB89" s="113"/>
       <c r="AD89" s="170" t="str">
@@ -10973,10 +11010,10 @@
       </c>
       <c r="B90" s="115"/>
       <c r="C90" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="E90" s="67" t="s">
         <v>246</v>
-      </c>
-      <c r="E90" s="67" t="s">
-        <v>247</v>
       </c>
       <c r="L90" s="157" t="str">
         <f t="shared" si="8"/>
@@ -10990,11 +11027,11 @@
         <v>3</v>
       </c>
       <c r="P90" s="67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y90" s="79"/>
       <c r="AA90" s="83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AB90" s="113"/>
       <c r="AD90" s="170" t="str">
@@ -11008,10 +11045,10 @@
       </c>
       <c r="B91" s="115"/>
       <c r="C91" s="67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E91" s="67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L91" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11023,11 +11060,11 @@
       </c>
       <c r="O91" s="147"/>
       <c r="P91" s="67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y91" s="79"/>
       <c r="AA91" s="83" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AB91" s="113"/>
       <c r="AD91" s="170" t="str">
@@ -11041,10 +11078,10 @@
       </c>
       <c r="B92" s="115"/>
       <c r="C92" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E92" s="67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L92" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11056,7 +11093,7 @@
       </c>
       <c r="O92" s="147"/>
       <c r="P92" s="67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y92" s="79"/>
       <c r="AA92" s="74"/>
@@ -11070,10 +11107,10 @@
       </c>
       <c r="B93" s="115"/>
       <c r="C93" s="67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E93" s="67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L93" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11095,7 +11132,7 @@
       <c r="X93" s="89"/>
       <c r="Y93" s="90"/>
       <c r="AA93" s="124" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11104,10 +11141,10 @@
       </c>
       <c r="B94" s="115"/>
       <c r="C94" s="67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E94" s="67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L94" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11118,7 +11155,7 @@
         <v/>
       </c>
       <c r="AA94" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB94" s="113"/>
       <c r="AD94" s="114">
@@ -11132,10 +11169,10 @@
       </c>
       <c r="B95" s="115"/>
       <c r="C95" s="67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E95" s="67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L95" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11146,10 +11183,10 @@
         <v/>
       </c>
       <c r="T95" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA95" s="83" t="s">
         <v>260</v>
-      </c>
-      <c r="AA95" s="83" t="s">
-        <v>261</v>
       </c>
       <c r="AB95" s="113"/>
       <c r="AD95" s="114">
@@ -11164,7 +11201,7 @@
       <c r="B96" s="115"/>
       <c r="C96" s="74"/>
       <c r="E96" s="67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L96" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11186,7 +11223,7 @@
       <c r="X96" s="69"/>
       <c r="Y96" s="70"/>
       <c r="AA96" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB96" s="113"/>
       <c r="AD96" s="114">
@@ -11200,7 +11237,7 @@
       </c>
       <c r="B97" s="115"/>
       <c r="E97" s="67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L97" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11213,24 +11250,24 @@
       <c r="O97" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="P97" s="448" t="s">
+      <c r="P97" s="443" t="s">
         <v>142</v>
       </c>
-      <c r="Q97" s="448"/>
-      <c r="R97" s="448"/>
-      <c r="S97" s="448" t="s">
+      <c r="Q97" s="443"/>
+      <c r="R97" s="443"/>
+      <c r="S97" s="443" t="s">
         <v>143</v>
       </c>
-      <c r="T97" s="448"/>
-      <c r="U97" s="448"/>
-      <c r="V97" s="448" t="s">
+      <c r="T97" s="443"/>
+      <c r="U97" s="443"/>
+      <c r="V97" s="443" t="s">
         <v>144</v>
       </c>
-      <c r="W97" s="448"/>
-      <c r="X97" s="448"/>
+      <c r="W97" s="443"/>
+      <c r="X97" s="443"/>
       <c r="Y97" s="79"/>
       <c r="AA97" s="83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB97" s="113"/>
       <c r="AD97" s="114" t="str">
@@ -11244,10 +11281,10 @@
       </c>
       <c r="B98" s="115"/>
       <c r="C98" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E98" s="67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L98" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11263,17 +11300,17 @@
       <c r="P98" s="133"/>
       <c r="Q98" s="134"/>
       <c r="R98" s="135"/>
-      <c r="S98" s="447" t="s">
+      <c r="S98" s="444" t="s">
         <v>146</v>
       </c>
-      <c r="T98" s="447"/>
-      <c r="U98" s="447"/>
+      <c r="T98" s="444"/>
+      <c r="U98" s="444"/>
       <c r="V98" s="133"/>
       <c r="W98" s="134"/>
       <c r="X98" s="135"/>
       <c r="Y98" s="79"/>
       <c r="AA98" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AB98" s="113"/>
       <c r="AD98" s="114" t="str">
@@ -11287,10 +11324,10 @@
       </c>
       <c r="B99" s="115"/>
       <c r="C99" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L99" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11332,7 +11369,7 @@
       </c>
       <c r="Y99" s="79"/>
       <c r="AA99" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB99" s="113"/>
       <c r="AD99" s="114" t="str">
@@ -11346,10 +11383,10 @@
       </c>
       <c r="B100" s="115"/>
       <c r="C100" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="E100" s="67" t="s">
         <v>268</v>
-      </c>
-      <c r="E100" s="67" t="s">
-        <v>269</v>
       </c>
       <c r="L100" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11400,7 +11437,7 @@
       </c>
       <c r="Y100" s="79"/>
       <c r="AA100" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB100" s="113"/>
       <c r="AD100" s="114" t="str">
@@ -11414,10 +11451,10 @@
       </c>
       <c r="B101" s="115"/>
       <c r="C101" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E101" s="67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L101" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11468,7 +11505,7 @@
       </c>
       <c r="Y101" s="79"/>
       <c r="AA101" s="83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB101" s="113"/>
       <c r="AD101" s="114" t="str">
@@ -11482,10 +11519,10 @@
       </c>
       <c r="B102" s="115"/>
       <c r="C102" s="67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E102" s="67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L102" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11536,7 +11573,7 @@
       </c>
       <c r="Y102" s="79"/>
       <c r="AA102" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB102" s="113"/>
       <c r="AD102" s="114">
@@ -11550,10 +11587,10 @@
       </c>
       <c r="B103" s="115"/>
       <c r="C103" s="67" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E103" s="67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L103" s="157" t="str">
         <f t="shared" si="8"/>
@@ -11604,7 +11641,7 @@
       </c>
       <c r="Y103" s="79"/>
       <c r="AA103" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB103" s="113"/>
       <c r="AD103" s="114">
@@ -11631,7 +11668,7 @@
       <c r="O104" s="77"/>
       <c r="Y104" s="79"/>
       <c r="AA104" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB104" s="113"/>
       <c r="AD104" s="114">
@@ -11646,24 +11683,24 @@
       <c r="O105" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="P105" s="448" t="s">
+      <c r="P105" s="443" t="s">
         <v>142</v>
       </c>
-      <c r="Q105" s="448"/>
-      <c r="R105" s="448"/>
-      <c r="S105" s="448" t="s">
+      <c r="Q105" s="443"/>
+      <c r="R105" s="443"/>
+      <c r="S105" s="443" t="s">
         <v>143</v>
       </c>
-      <c r="T105" s="448"/>
-      <c r="U105" s="448"/>
-      <c r="V105" s="448" t="s">
+      <c r="T105" s="443"/>
+      <c r="U105" s="443"/>
+      <c r="V105" s="443" t="s">
         <v>144</v>
       </c>
-      <c r="W105" s="448"/>
-      <c r="X105" s="448"/>
+      <c r="W105" s="443"/>
+      <c r="X105" s="443"/>
       <c r="Y105" s="79"/>
       <c r="AA105" s="83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB105" s="113"/>
       <c r="AD105" s="114" t="str">
@@ -11681,17 +11718,17 @@
       <c r="P106" s="133"/>
       <c r="Q106" s="134"/>
       <c r="R106" s="135"/>
-      <c r="S106" s="447" t="s">
+      <c r="S106" s="444" t="s">
         <v>146</v>
       </c>
-      <c r="T106" s="447"/>
-      <c r="U106" s="447"/>
+      <c r="T106" s="444"/>
+      <c r="U106" s="444"/>
       <c r="V106" s="133"/>
       <c r="W106" s="134"/>
       <c r="X106" s="135"/>
       <c r="Y106" s="79"/>
       <c r="AA106" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AB106" s="113"/>
       <c r="AD106" s="114" t="str">
@@ -11735,7 +11772,7 @@
       </c>
       <c r="Y107" s="79"/>
       <c r="AA107" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB107" s="113"/>
       <c r="AD107" s="114" t="str">
@@ -11762,7 +11799,7 @@
       <c r="X108" s="183"/>
       <c r="Y108" s="79"/>
       <c r="AA108" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB108" s="113"/>
       <c r="AD108" s="114" t="str">
@@ -11789,7 +11826,7 @@
       <c r="X109" s="186"/>
       <c r="Y109" s="79"/>
       <c r="AA109" s="83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB109" s="113"/>
       <c r="AD109" s="114" t="str">
@@ -11860,7 +11897,7 @@
         <v>150</v>
       </c>
       <c r="AA113" s="91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB113" s="96"/>
       <c r="AC113" s="97" t="str">
@@ -11878,7 +11915,7 @@
       </c>
       <c r="E114" s="74"/>
       <c r="O114" s="191" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P114" s="69"/>
       <c r="Q114" s="69"/>
@@ -11901,16 +11938,16 @@
       <c r="E115" s="74"/>
       <c r="O115" s="77"/>
       <c r="Q115" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="R115" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="R115" s="67" t="s">
+      <c r="S115" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="S115" s="67" t="s">
+      <c r="T115" s="67" t="s">
         <v>279</v>
-      </c>
-      <c r="T115" s="67" t="s">
-        <v>280</v>
       </c>
       <c r="Y115" s="79"/>
       <c r="AA115" s="83"/>
@@ -11931,7 +11968,7 @@
       <c r="E116" s="74"/>
       <c r="O116" s="77"/>
       <c r="P116" s="67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q116" s="192"/>
       <c r="R116" s="192"/>
@@ -11949,7 +11986,7 @@
       <c r="E117" s="74"/>
       <c r="O117" s="77"/>
       <c r="P117" s="67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q117" s="192"/>
       <c r="R117" s="192"/>
@@ -11974,10 +12011,10 @@
       <c r="E118" s="74"/>
       <c r="O118" s="77"/>
       <c r="P118" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q118" s="74" t="s">
         <v>283</v>
-      </c>
-      <c r="Q118" s="74" t="s">
-        <v>284</v>
       </c>
       <c r="Y118" s="79"/>
       <c r="AA118" s="83"/>
@@ -11992,7 +12029,7 @@
       <c r="O119" s="77"/>
       <c r="P119" s="74"/>
       <c r="Q119" s="74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y119" s="79"/>
       <c r="AA119" s="83"/>
@@ -12023,7 +12060,7 @@
       </c>
       <c r="E121" s="74"/>
       <c r="O121" s="193" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y121" s="79"/>
       <c r="AA121" s="83"/>
@@ -12044,13 +12081,13 @@
       <c r="E122" s="74"/>
       <c r="O122" s="77"/>
       <c r="P122" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q122" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="R122" s="82" t="s">
         <v>287</v>
-      </c>
-      <c r="Q122" s="82" t="s">
-        <v>277</v>
-      </c>
-      <c r="R122" s="82" t="s">
-        <v>288</v>
       </c>
       <c r="Y122" s="79"/>
       <c r="AA122" s="83"/>
@@ -12115,7 +12152,7 @@
         <v/>
       </c>
       <c r="S125" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T125" s="196" t="str">
         <f>IF(OR(Q125="",Q126="",Q127="",Q128=""),"",AVERAGE(Q125:Q128))</f>
@@ -12147,7 +12184,7 @@
         <v/>
       </c>
       <c r="S126" s="83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T126" s="197" t="str">
         <f>IF(OR(Q125="",Q126="",Q127="",Q128=""),"",STDEV(Q125:Q128))</f>
@@ -12184,10 +12221,10 @@
         <v/>
       </c>
       <c r="T128" s="162" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U128" s="74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y128" s="79"/>
     </row>
@@ -12234,14 +12271,14 @@
       </c>
       <c r="O132" s="147"/>
       <c r="P132" s="67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S132" s="198" t="str">
         <f>IF(R123="","",IF(OR(R123&gt;0.2,R124&gt;0.2,R125&gt;0.2,R126&gt;0.2,R127&gt;0.2,R128&gt;0.2,R129&gt;0.2,R130&gt;0.2),"Fail","Pass"))</f>
         <v/>
       </c>
       <c r="T132" s="84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y132" s="79"/>
     </row>
@@ -12262,7 +12299,7 @@
       <c r="M133" s="74"/>
       <c r="O133" s="147"/>
       <c r="P133" s="67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y133" s="79"/>
     </row>
@@ -12311,7 +12348,7 @@
         <v>Eugene Mah</v>
       </c>
       <c r="O135" s="193" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R135" s="116"/>
       <c r="Y135" s="79"/>
@@ -12322,7 +12359,7 @@
       </c>
       <c r="B136" s="74"/>
       <c r="C136" s="162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D136" s="165" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -12346,7 +12383,7 @@
       <c r="P136" s="83"/>
       <c r="Q136" s="152"/>
       <c r="R136" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S136" s="192">
         <v>28</v>
@@ -12370,7 +12407,7 @@
         <v>130</v>
       </c>
       <c r="R137" s="83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S137" s="192"/>
       <c r="T137" s="152"/>
@@ -12395,7 +12432,7 @@
         <v>130</v>
       </c>
       <c r="R138" s="83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S138" s="192"/>
       <c r="T138" s="152"/>
@@ -12407,7 +12444,7 @@
       </c>
       <c r="B139" s="106"/>
       <c r="C139" s="108" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D139" s="107"/>
       <c r="E139" s="107"/>
@@ -12421,13 +12458,13 @@
       <c r="M139" s="109"/>
       <c r="O139" s="77"/>
       <c r="P139" s="83" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q139" s="118" t="s">
         <v>298</v>
       </c>
-      <c r="Q139" s="118" t="s">
+      <c r="R139" s="83" t="s">
         <v>299</v>
-      </c>
-      <c r="R139" s="83" t="s">
-        <v>300</v>
       </c>
       <c r="S139" s="192"/>
       <c r="T139" s="152"/>
@@ -12439,16 +12476,16 @@
       </c>
       <c r="B140" s="115"/>
       <c r="E140" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="F140" s="67" t="s">
+      <c r="G140" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="G140" s="67" t="s">
+      <c r="H140" s="82" t="s">
         <v>279</v>
-      </c>
-      <c r="H140" s="82" t="s">
-        <v>280</v>
       </c>
       <c r="M140" s="117"/>
       <c r="O140" s="77"/>
@@ -12465,7 +12502,7 @@
       </c>
       <c r="B141" s="115"/>
       <c r="D141" s="67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E141" s="118" t="str">
         <f t="shared" ref="E141:H142" si="13">IF(Q116="","",Q116)</f>
@@ -12504,7 +12541,7 @@
       </c>
       <c r="B142" s="115"/>
       <c r="D142" s="67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E142" s="118" t="str">
         <f t="shared" si="13"/>
@@ -12523,7 +12560,7 @@
         <v/>
       </c>
       <c r="J142" s="83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K142" s="200" t="str">
         <f>IF(OR(F141="",F142=""),"",IF(AND(F141&gt;25,F142&lt;=45),"Pass","Fail"))</f>
@@ -12532,7 +12569,7 @@
       <c r="M142" s="117"/>
       <c r="O142" s="77"/>
       <c r="P142" s="201" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q142" s="202"/>
       <c r="R142" s="203"/>
@@ -12550,15 +12587,15 @@
       </c>
       <c r="B143" s="115"/>
       <c r="D143" s="167" t="s">
+        <v>282</v>
+      </c>
+      <c r="E143" s="74" t="s">
         <v>283</v>
-      </c>
-      <c r="E143" s="74" t="s">
-        <v>284</v>
       </c>
       <c r="M143" s="117"/>
       <c r="O143" s="77"/>
       <c r="P143" s="162" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q143" s="204"/>
       <c r="R143" s="203"/>
@@ -12577,7 +12614,7 @@
       <c r="B144" s="115"/>
       <c r="D144" s="74"/>
       <c r="E144" s="74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M144" s="117"/>
       <c r="O144" s="88"/>
@@ -12599,7 +12636,7 @@
       <c r="B145" s="115"/>
       <c r="M145" s="117"/>
       <c r="O145" s="193" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y145" s="79"/>
     </row>
@@ -12609,14 +12646,14 @@
       </c>
       <c r="B146" s="115"/>
       <c r="C146" s="205" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M146" s="117"/>
       <c r="O146" s="147">
         <v>65</v>
       </c>
       <c r="P146" s="67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U146" s="82"/>
       <c r="Y146" s="79"/>
@@ -12627,17 +12664,17 @@
       </c>
       <c r="B147" s="115"/>
       <c r="D147" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="E147" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="F147" s="82" t="s">
         <v>287</v>
-      </c>
-      <c r="E147" s="82" t="s">
-        <v>277</v>
-      </c>
-      <c r="F147" s="82" t="s">
-        <v>288</v>
       </c>
       <c r="I147" s="74"/>
       <c r="J147" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K147" s="206" t="str">
         <f>IF(O132="","TBD",IF(O132=1,"YES",IF(O132=3,"NA","")))</f>
@@ -12650,7 +12687,7 @@
       <c r="M147" s="117"/>
       <c r="O147" s="77"/>
       <c r="P147" s="74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q147" s="152"/>
       <c r="R147" s="152"/>
@@ -12680,7 +12717,7 @@
       </c>
       <c r="I148" s="74"/>
       <c r="J148" s="83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K148" s="206" t="str">
         <f>IF(O133="","TBD",IF(O133=1,"YES",IF(O133=3,"NA","")))</f>
@@ -12693,7 +12730,7 @@
       <c r="M148" s="117"/>
       <c r="O148" s="77"/>
       <c r="R148" s="82" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S148" s="152"/>
       <c r="T148" s="152"/>
@@ -12720,7 +12757,7 @@
         <v/>
       </c>
       <c r="J149" s="83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K149" s="206" t="str">
         <f>IF(S132="","TBD",S132)</f>
@@ -12729,7 +12766,7 @@
       <c r="M149" s="117"/>
       <c r="O149" s="77"/>
       <c r="P149" s="83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q149" s="208"/>
       <c r="R149" s="209" t="str">
@@ -12761,7 +12798,7 @@
         <v/>
       </c>
       <c r="G150" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H150" s="196" t="str">
         <f>IF(T125="","",T125)</f>
@@ -12770,7 +12807,7 @@
       <c r="M150" s="117"/>
       <c r="O150" s="77"/>
       <c r="P150" s="83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q150" s="212"/>
       <c r="R150" s="213" t="str">
@@ -12802,7 +12839,7 @@
         <v/>
       </c>
       <c r="G151" s="83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H151" s="197" t="str">
         <f>IF(T126="","",T126)</f>
@@ -12811,7 +12848,7 @@
       <c r="M151" s="117"/>
       <c r="O151" s="77"/>
       <c r="P151" s="83" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q151" s="212"/>
       <c r="R151" s="213" t="str">
@@ -12843,15 +12880,15 @@
         <v/>
       </c>
       <c r="G152" s="162" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H152" s="74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M152" s="117"/>
       <c r="O152" s="77"/>
       <c r="P152" s="83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q152" s="214"/>
       <c r="R152" s="215" t="str">
@@ -12916,10 +12953,10 @@
       <c r="M154" s="117"/>
       <c r="O154" s="77"/>
       <c r="P154" s="162" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q154" s="74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U154" s="116"/>
       <c r="V154" s="116"/>
@@ -12946,7 +12983,7 @@
       <c r="M155" s="117"/>
       <c r="O155" s="77"/>
       <c r="Q155" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U155" s="116"/>
       <c r="V155" s="116"/>
@@ -12972,7 +13009,7 @@
       <c r="M156" s="218"/>
       <c r="O156" s="147"/>
       <c r="P156" s="156" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q156" s="74"/>
       <c r="Y156" s="79"/>
@@ -12983,7 +13020,7 @@
       </c>
       <c r="B157" s="115"/>
       <c r="C157" s="205" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M157" s="117"/>
       <c r="O157" s="77"/>
@@ -13002,16 +13039,16 @@
       <c r="H158" s="152"/>
       <c r="M158" s="117"/>
       <c r="O158" s="193" t="s">
-        <v>316</v>
-      </c>
-      <c r="R158" s="444">
+        <v>315</v>
+      </c>
+      <c r="R158" s="446">
         <v>512</v>
       </c>
-      <c r="S158" s="444"/>
-      <c r="T158" s="444">
+      <c r="S158" s="446"/>
+      <c r="T158" s="446">
         <v>1024</v>
       </c>
-      <c r="U158" s="444"/>
+      <c r="U158" s="446"/>
       <c r="Y158" s="79"/>
     </row>
     <row r="159" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13034,16 +13071,16 @@
       <c r="P159" s="74"/>
       <c r="Q159" s="83"/>
       <c r="R159" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="S159" s="118" t="s">
         <v>317</v>
       </c>
-      <c r="S159" s="118" t="s">
-        <v>318</v>
-      </c>
       <c r="T159" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="U159" s="118" t="s">
         <v>317</v>
-      </c>
-      <c r="U159" s="118" t="s">
-        <v>318</v>
       </c>
       <c r="Y159" s="79"/>
     </row>
@@ -13067,10 +13104,10 @@
         <v>28</v>
       </c>
       <c r="P160" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q160" s="83" t="s">
         <v>319</v>
-      </c>
-      <c r="Q160" s="83" t="s">
-        <v>320</v>
       </c>
       <c r="R160" s="192"/>
       <c r="S160" s="192"/>
@@ -13084,7 +13121,7 @@
       </c>
       <c r="B161" s="115"/>
       <c r="D161" s="83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E161" s="118" t="str">
         <f>IF(Q139="","",Q139)</f>
@@ -13101,7 +13138,7 @@
         <v>149</v>
       </c>
       <c r="Q161" s="83" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R161" s="219" t="str">
         <f>IF(AB88="","",AB88)</f>
@@ -13127,7 +13164,7 @@
       </c>
       <c r="B162" s="115"/>
       <c r="D162" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E162" s="118">
         <f>IF(S136="","",S136)</f>
@@ -13140,7 +13177,7 @@
       <c r="O162" s="77"/>
       <c r="P162" s="74"/>
       <c r="Q162" s="83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R162" s="118" t="str">
         <f>IF(OR(R160="",R161=""),"",IF(R160&gt;=R161,"Pass","Fail"))</f>
@@ -13166,7 +13203,7 @@
       </c>
       <c r="B163" s="115"/>
       <c r="D163" s="83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E163" s="118" t="str">
         <f>IF(S137="","",S137)</f>
@@ -13179,10 +13216,10 @@
       <c r="O163" s="77"/>
       <c r="P163" s="74"/>
       <c r="Q163" s="220" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R163" s="221" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S163" s="74"/>
       <c r="Y163" s="79"/>
@@ -13193,7 +13230,7 @@
       </c>
       <c r="B164" s="115"/>
       <c r="D164" s="83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E164" s="118" t="str">
         <f>IF(S138="","",S138)</f>
@@ -13221,7 +13258,7 @@
       </c>
       <c r="B165" s="115"/>
       <c r="D165" s="83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E165" s="118" t="str">
         <f>IF(S139="","",S139)</f>
@@ -13232,7 +13269,7 @@
       <c r="H165" s="152"/>
       <c r="M165" s="117"/>
       <c r="O165" s="193" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y165" s="79"/>
     </row>
@@ -13242,20 +13279,20 @@
       </c>
       <c r="B166" s="115"/>
       <c r="D166" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E166" s="74" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M166" s="117"/>
       <c r="O166" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="P166" s="194" t="s">
         <v>325</v>
       </c>
-      <c r="P166" s="194" t="s">
+      <c r="R166" s="83" t="s">
         <v>326</v>
-      </c>
-      <c r="R166" s="83" t="s">
-        <v>327</v>
       </c>
       <c r="S166" s="194"/>
       <c r="U166" s="83"/>
@@ -13288,7 +13325,7 @@
         <v>147</v>
       </c>
       <c r="U167" s="82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W167" s="74"/>
       <c r="Y167" s="79"/>
@@ -13313,25 +13350,25 @@
       <c r="M168" s="225"/>
       <c r="O168" s="77"/>
       <c r="P168" s="82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q168" s="82" t="s">
         <v>104</v>
       </c>
       <c r="R168" s="82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S168" s="82" t="s">
         <v>149</v>
       </c>
       <c r="T168" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="U168" s="82" t="s">
         <v>330</v>
       </c>
-      <c r="U168" s="82" t="s">
+      <c r="V168" s="82" t="s">
         <v>331</v>
-      </c>
-      <c r="V168" s="82" t="s">
-        <v>332</v>
       </c>
       <c r="W168" s="74"/>
       <c r="Y168" s="79"/>
@@ -13408,7 +13445,7 @@
       </c>
       <c r="B171" s="115"/>
       <c r="C171" s="124" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M171" s="117"/>
       <c r="O171" s="77"/>
@@ -13474,7 +13511,7 @@
       <c r="B173" s="115"/>
       <c r="C173" s="74"/>
       <c r="D173" s="82" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E173" s="234"/>
       <c r="F173" s="234"/>
@@ -13510,7 +13547,7 @@
       </c>
       <c r="B174" s="115"/>
       <c r="C174" s="83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D174" s="235" t="str">
         <f>IF(R149="","",R149)</f>
@@ -13522,7 +13559,7 @@
         <v/>
       </c>
       <c r="G174" s="116" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I174" s="237"/>
       <c r="J174" s="237"/>
@@ -13549,7 +13586,7 @@
       </c>
       <c r="B175" s="115"/>
       <c r="C175" s="83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D175" s="235" t="str">
         <f>IF(R150="","",R150)</f>
@@ -13557,10 +13594,10 @@
       </c>
       <c r="E175" s="74"/>
       <c r="F175" s="162" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G175" s="74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M175" s="117"/>
       <c r="O175" s="77"/>
@@ -13585,7 +13622,7 @@
       </c>
       <c r="B176" s="115"/>
       <c r="C176" s="83" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D176" s="235" t="str">
         <f>IF(R151="","",R151)</f>
@@ -13593,7 +13630,7 @@
       </c>
       <c r="E176" s="116"/>
       <c r="G176" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H176" s="116"/>
       <c r="I176" s="116"/>
@@ -13603,7 +13640,7 @@
       <c r="M176" s="117"/>
       <c r="O176" s="77"/>
       <c r="S176" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T176" s="238" t="str">
         <f>IF(T169="","",AVERAGE(T169:T175))</f>
@@ -13618,7 +13655,7 @@
       </c>
       <c r="B177" s="115"/>
       <c r="C177" s="83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D177" s="235" t="str">
         <f>IF(R152="","",R152)</f>
@@ -13629,10 +13666,10 @@
       <c r="M177" s="117"/>
       <c r="O177" s="77"/>
       <c r="P177" s="162" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q177" s="74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S177" s="83"/>
       <c r="T177" s="153"/>
@@ -13645,7 +13682,7 @@
       </c>
       <c r="B178" s="115"/>
       <c r="C178" s="152" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D178" s="408" t="str">
         <f>IF(R153="","",R153)</f>
@@ -13665,16 +13702,16 @@
       </c>
       <c r="B179" s="115"/>
       <c r="C179" s="124" t="s">
-        <v>316</v>
-      </c>
-      <c r="E179" s="444">
+        <v>315</v>
+      </c>
+      <c r="E179" s="446">
         <v>512</v>
       </c>
-      <c r="F179" s="444"/>
-      <c r="G179" s="444">
+      <c r="F179" s="446"/>
+      <c r="G179" s="446">
         <v>1024</v>
       </c>
-      <c r="H179" s="444"/>
+      <c r="H179" s="446"/>
       <c r="M179" s="117"/>
       <c r="O179" s="77"/>
       <c r="Y179" s="79"/>
@@ -13686,20 +13723,20 @@
       <c r="B180" s="115"/>
       <c r="D180" s="83"/>
       <c r="E180" s="118" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F180" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="G180" s="118" t="s">
         <v>317</v>
       </c>
-      <c r="G180" s="118" t="s">
-        <v>318</v>
-      </c>
       <c r="H180" s="118" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M180" s="117"/>
       <c r="O180" s="193" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y180" s="79"/>
     </row>
@@ -13709,7 +13746,7 @@
       </c>
       <c r="B181" s="115"/>
       <c r="D181" s="83" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E181" s="118" t="str">
         <f>IF(R160="","",R160)</f>
@@ -13728,7 +13765,7 @@
         <v/>
       </c>
       <c r="I181" s="83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J181" s="200" t="str">
         <f>IF(AND(R162="",S162=""),"",IF(OR(R162="Fail",S162="Fail"),"Fail","Pass"))</f>
@@ -13736,21 +13773,21 @@
       </c>
       <c r="M181" s="117"/>
       <c r="O181" s="77" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P181" s="195" t="str">
         <f>P166</f>
         <v>Auto-time</v>
       </c>
       <c r="R181" s="83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S181" s="195">
         <f>S166</f>
         <v>0</v>
       </c>
       <c r="T181" s="82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="U181" s="74"/>
       <c r="Y181" s="79"/>
@@ -13762,7 +13799,7 @@
       <c r="B182" s="217"/>
       <c r="C182" s="89"/>
       <c r="D182" s="239" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E182" s="240" t="str">
         <f>R163</f>
@@ -13778,29 +13815,29 @@
       <c r="M182" s="218"/>
       <c r="O182" s="77"/>
       <c r="P182" s="82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q182" s="82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R182" s="82" t="s">
         <v>149</v>
       </c>
       <c r="S182" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="T182" s="82" t="s">
         <v>330</v>
       </c>
-      <c r="T182" s="82" t="s">
-        <v>331</v>
-      </c>
       <c r="U182" s="82" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V182" s="74"/>
       <c r="X182" s="82" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y182" s="241" t="s">
         <v>337</v>
-      </c>
-      <c r="Y182" s="241" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="183" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13809,7 +13846,7 @@
       </c>
       <c r="B183" s="115"/>
       <c r="C183" s="124" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="74"/>
@@ -13841,14 +13878,14 @@
       </c>
       <c r="B184" s="73"/>
       <c r="C184" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D184" s="195">
         <f>IF(Q194="","",Q194)</f>
         <v>28</v>
       </c>
       <c r="E184" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F184" s="195">
         <f>IF(Q195="","",Q195)</f>
@@ -13888,16 +13925,16 @@
       <c r="B185" s="115"/>
       <c r="C185" s="248"/>
       <c r="D185" s="249" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E185" s="249" t="s">
+        <v>339</v>
+      </c>
+      <c r="F185" s="249" t="s">
         <v>340</v>
       </c>
-      <c r="F185" s="249" t="s">
-        <v>341</v>
-      </c>
       <c r="G185" s="249" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H185" s="74"/>
       <c r="I185" s="74"/>
@@ -13931,7 +13968,7 @@
       </c>
       <c r="B186" s="115"/>
       <c r="C186" s="251" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D186" s="252" t="str">
         <f t="shared" ref="D186:F190" si="18">IF(Q197="","",Q197)</f>
@@ -13980,7 +14017,7 @@
       </c>
       <c r="B187" s="115"/>
       <c r="C187" s="254" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D187" s="255" t="str">
         <f t="shared" si="18"/>
@@ -14026,7 +14063,7 @@
       </c>
       <c r="B188" s="115"/>
       <c r="C188" s="254" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D188" s="255" t="str">
         <f t="shared" si="18"/>
@@ -14072,7 +14109,7 @@
       </c>
       <c r="B189" s="115"/>
       <c r="C189" s="254" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D189" s="255" t="str">
         <f t="shared" si="18"/>
@@ -14117,7 +14154,7 @@
       </c>
       <c r="B190" s="115"/>
       <c r="C190" s="254" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D190" s="255" t="str">
         <f t="shared" si="18"/>
@@ -14162,7 +14199,7 @@
       </c>
       <c r="B191" s="115"/>
       <c r="C191" s="254" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D191" s="261" t="str">
         <f>IF(Q202="","",Q202)</f>
@@ -14177,10 +14214,10 @@
       <c r="M191" s="117"/>
       <c r="O191" s="77"/>
       <c r="P191" s="220" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q191" s="221" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R191" s="74"/>
       <c r="S191" s="74"/>
@@ -14195,7 +14232,7 @@
       </c>
       <c r="B192" s="115"/>
       <c r="C192" s="254" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D192" s="262" t="str">
         <f>IF(Q203="","",Q203)</f>
@@ -14234,7 +14271,7 @@
       </c>
       <c r="M193" s="117"/>
       <c r="O193" s="264" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P193" s="265"/>
       <c r="Q193" s="265"/>
@@ -14253,10 +14290,10 @@
       </c>
       <c r="B194" s="115"/>
       <c r="C194" s="266" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D194" s="267" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E194" s="74"/>
       <c r="F194" s="74"/>
@@ -14269,7 +14306,7 @@
       <c r="M194" s="117"/>
       <c r="O194" s="268"/>
       <c r="P194" s="269" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q194" s="415">
         <f>S136</f>
@@ -14302,7 +14339,7 @@
       <c r="M195" s="76"/>
       <c r="O195" s="268"/>
       <c r="P195" s="269" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q195" s="415">
         <f>S137</f>
@@ -14336,16 +14373,16 @@
       <c r="O196" s="268"/>
       <c r="P196" s="248"/>
       <c r="Q196" s="249" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R196" s="249" t="s">
+        <v>339</v>
+      </c>
+      <c r="S196" s="249" t="s">
         <v>340</v>
       </c>
-      <c r="S196" s="249" t="s">
-        <v>341</v>
-      </c>
       <c r="T196" s="249" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U196" s="116"/>
       <c r="V196" s="116"/>
@@ -14371,7 +14408,7 @@
       <c r="M197" s="76"/>
       <c r="O197" s="268"/>
       <c r="P197" s="251" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q197" s="270"/>
       <c r="R197" s="270"/>
@@ -14404,7 +14441,7 @@
       <c r="M198" s="76"/>
       <c r="O198" s="268"/>
       <c r="P198" s="254" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q198" s="271"/>
       <c r="R198" s="271"/>
@@ -14440,7 +14477,7 @@
       <c r="M199" s="76"/>
       <c r="O199" s="268"/>
       <c r="P199" s="254" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q199" s="271"/>
       <c r="R199" s="271"/>
@@ -14476,7 +14513,7 @@
       <c r="M200" s="76"/>
       <c r="O200" s="268"/>
       <c r="P200" s="254" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q200" s="271"/>
       <c r="R200" s="271"/>
@@ -14512,7 +14549,7 @@
       <c r="M201" s="76"/>
       <c r="O201" s="268"/>
       <c r="P201" s="254" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q201" s="271"/>
       <c r="R201" s="271"/>
@@ -14548,7 +14585,7 @@
       <c r="M202" s="87"/>
       <c r="O202" s="268"/>
       <c r="P202" s="254" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q202" s="261" t="str">
         <f>IF(Q197="","",AVERAGE(Q197:Q201))</f>
@@ -14593,7 +14630,7 @@
       </c>
       <c r="O203" s="268"/>
       <c r="P203" s="254" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q203" s="262" t="str">
         <f>IF(Q197="","",STDEV(Q197:Q201))</f>
@@ -14616,7 +14653,7 @@
         <v>68</v>
       </c>
       <c r="C204" s="162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D204" s="165" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -14661,10 +14698,10 @@
       </c>
       <c r="O205" s="272"/>
       <c r="P205" s="266" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q205" s="273" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R205" s="221"/>
       <c r="S205" s="221"/>
@@ -14704,7 +14741,7 @@
       </c>
       <c r="B207" s="106"/>
       <c r="C207" s="108" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D207" s="107"/>
       <c r="E207" s="107"/>
@@ -14734,14 +14771,14 @@
       </c>
       <c r="B208" s="115"/>
       <c r="C208" s="83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D208" s="276" t="str">
         <f>IF(P166="","",P166)</f>
         <v>Auto-time</v>
       </c>
       <c r="F208" s="83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G208" s="276" t="str">
         <f>IF(S166="","",S166)</f>
@@ -14772,12 +14809,12 @@
         <v>147</v>
       </c>
       <c r="I209" s="82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K209" s="74"/>
       <c r="M209" s="117"/>
       <c r="O209" s="191" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P209" s="69"/>
       <c r="Q209" s="69"/>
@@ -14799,35 +14836,35 @@
       </c>
       <c r="B210" s="115"/>
       <c r="D210" s="82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E210" s="82" t="s">
         <v>104</v>
       </c>
       <c r="F210" s="82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G210" s="82" t="s">
         <v>149</v>
       </c>
       <c r="H210" s="82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I210" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="J210" s="82" t="s">
         <v>331</v>
-      </c>
-      <c r="J210" s="82" t="s">
-        <v>332</v>
       </c>
       <c r="K210" s="74"/>
       <c r="M210" s="117"/>
       <c r="O210" s="77"/>
       <c r="P210" s="83" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q210" s="194"/>
       <c r="S210" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T210" s="194">
         <v>28</v>
@@ -14876,13 +14913,13 @@
       <c r="M211" s="117"/>
       <c r="O211" s="77"/>
       <c r="P211" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q211" s="194" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S211" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T211" s="194"/>
       <c r="Y211" s="79"/>
@@ -14927,10 +14964,10 @@
       <c r="M212" s="117"/>
       <c r="O212" s="77"/>
       <c r="S212" s="82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="U212" s="67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Y212" s="79"/>
       <c r="AA212" s="82"/>
@@ -14977,19 +15014,19 @@
         <v>149</v>
       </c>
       <c r="R213" s="82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S213" s="82" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T213" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="U213" s="82" t="s">
         <v>355</v>
       </c>
-      <c r="U213" s="82" t="s">
+      <c r="W213" s="83" t="s">
         <v>356</v>
-      </c>
-      <c r="W213" s="83" t="s">
-        <v>357</v>
       </c>
       <c r="X213" s="196" t="str">
         <f>IF(T210="","",VLOOKUP(T210,Tables!B75:C78,2))</f>
@@ -15048,7 +15085,7 @@
         <v/>
       </c>
       <c r="W214" s="83" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X214" s="196" t="str">
         <f>IF(U218="","",Q218*($T$210^2*Tables!$D$70+Tables!$D$71))</f>
@@ -15107,7 +15144,7 @@
         <v/>
       </c>
       <c r="W215" s="83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X215" s="281" t="e">
         <f>IF(Q211="","",HLOOKUP(Q211,Tables!A83:E84,2))</f>
@@ -15166,7 +15203,7 @@
         <v/>
       </c>
       <c r="W216" s="83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X216" s="196" t="e">
         <f>IF(OR(X214="",X215=""),"",(X215*(X214/8.76))/100)</f>
@@ -15225,7 +15262,7 @@
         <v/>
       </c>
       <c r="W217" s="83" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X217" s="282" t="str">
         <f>IF(AB85="","",AB85)</f>
@@ -15242,7 +15279,7 @@
       <c r="E218" s="152"/>
       <c r="F218" s="152"/>
       <c r="G218" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H218" s="366" t="str">
         <f>IF(T176="","",T176)</f>
@@ -15254,7 +15291,7 @@
       <c r="M218" s="117"/>
       <c r="O218" s="275"/>
       <c r="P218" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q218" s="119" t="str">
         <f>IF(OR(Q214="",Q215="",Q216="",Q217=""),"",AVERAGE(Q214:Q217))</f>
@@ -15277,7 +15314,7 @@
         <v/>
       </c>
       <c r="W218" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="X218" s="284" t="e">
         <f>IF(OR(X216="",X217=""),"",(X216-X217)/X217)</f>
@@ -15296,7 +15333,7 @@
       <c r="M219" s="117"/>
       <c r="O219" s="275"/>
       <c r="P219" s="83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q219" s="235" t="str">
         <f>IF(Q218="","",STDEV(Q214:Q217)/Q218)</f>
@@ -15328,10 +15365,10 @@
       </c>
       <c r="B220" s="115"/>
       <c r="D220" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E220" s="74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M220" s="117"/>
       <c r="O220" s="77"/>
@@ -15351,13 +15388,13 @@
       <c r="M221" s="117"/>
       <c r="O221" s="77"/>
       <c r="P221" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q221" s="413" t="s">
+        <v>363</v>
+      </c>
+      <c r="W221" s="83" t="s">
         <v>364</v>
-      </c>
-      <c r="W221" s="83" t="s">
-        <v>365</v>
       </c>
       <c r="X221" s="284" t="e">
         <f>IF(OR(S214="",X216=""),"",(X216-AVERAGE(S214:S217))/AVERAGE(S214:S217))</f>
@@ -15371,17 +15408,17 @@
       </c>
       <c r="B222" s="115"/>
       <c r="C222" s="124" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I222" s="82"/>
       <c r="M222" s="117"/>
       <c r="O222" s="77"/>
       <c r="P222" s="74"/>
       <c r="Q222" s="413" t="s">
+        <v>365</v>
+      </c>
+      <c r="W222" s="83" t="s">
         <v>366</v>
-      </c>
-      <c r="W222" s="83" t="s">
-        <v>367</v>
       </c>
       <c r="X222" s="281" t="e">
         <f>IF(OR(X216="",Q218=""),"",3/(X216/Q218))</f>
@@ -15395,14 +15432,14 @@
       </c>
       <c r="B223" s="115"/>
       <c r="C223" s="83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D223" s="276" t="str">
         <f>IF(P181="","",P181)</f>
         <v>Auto-time</v>
       </c>
       <c r="F223" s="83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G223" s="198">
         <f>IF(S181="","",S181)</f>
@@ -15410,7 +15447,7 @@
       </c>
       <c r="H223" s="82"/>
       <c r="I223" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J223" s="198" t="str">
         <f>IF(Q183="","",Q183)</f>
@@ -15438,13 +15475,13 @@
       <c r="E224" s="74"/>
       <c r="F224" s="74"/>
       <c r="G224" s="82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H224" s="74"/>
       <c r="J224" s="74"/>
       <c r="M224" s="117"/>
       <c r="O224" s="191" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P224" s="286"/>
       <c r="Q224" s="286"/>
@@ -15463,34 +15500,34 @@
       </c>
       <c r="B225" s="115"/>
       <c r="D225" s="242" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E225" s="279" t="s">
         <v>149</v>
       </c>
       <c r="F225" s="279" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G225" s="279" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H225" s="279" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I225" s="287" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J225" s="74"/>
       <c r="M225" s="117"/>
       <c r="O225" s="77" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P225" s="194"/>
       <c r="R225" s="83" t="s">
-        <v>371</v>
-      </c>
-      <c r="S225" s="445"/>
-      <c r="T225" s="445"/>
+        <v>370</v>
+      </c>
+      <c r="S225" s="447"/>
+      <c r="T225" s="447"/>
       <c r="Y225" s="79"/>
     </row>
     <row r="226" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15525,14 +15562,14 @@
       <c r="J226" s="74"/>
       <c r="M226" s="117"/>
       <c r="O226" s="77" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P226" s="289"/>
       <c r="R226" s="83" t="s">
-        <v>373</v>
-      </c>
-      <c r="S226" s="445"/>
-      <c r="T226" s="445"/>
+        <v>372</v>
+      </c>
+      <c r="S226" s="447"/>
+      <c r="T226" s="447"/>
       <c r="Y226" s="79"/>
     </row>
     <row r="227" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15601,13 +15638,13 @@
       <c r="J228" s="74"/>
       <c r="M228" s="117"/>
       <c r="O228" s="77"/>
-      <c r="T228" s="444" t="s">
-        <v>374</v>
-      </c>
-      <c r="U228" s="444"/>
-      <c r="V228" s="444"/>
-      <c r="W228" s="444"/>
-      <c r="X228" s="444"/>
+      <c r="T228" s="446" t="s">
+        <v>373</v>
+      </c>
+      <c r="U228" s="446"/>
+      <c r="V228" s="446"/>
+      <c r="W228" s="446"/>
+      <c r="X228" s="446"/>
       <c r="Y228" s="79"/>
     </row>
     <row r="229" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15646,7 +15683,7 @@
         <v>104</v>
       </c>
       <c r="R229" s="82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S229" s="82" t="s">
         <v>149</v>
@@ -15661,10 +15698,10 @@
         <v>107</v>
       </c>
       <c r="W229" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="X229" s="82" t="s">
         <v>375</v>
-      </c>
-      <c r="X229" s="82" t="s">
-        <v>376</v>
       </c>
       <c r="Y229" s="79"/>
     </row>
@@ -15954,10 +15991,10 @@
       </c>
       <c r="B234" s="115"/>
       <c r="D234" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E234" s="221" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M234" s="117"/>
       <c r="O234" s="77"/>
@@ -16060,7 +16097,7 @@
       </c>
       <c r="B236" s="115"/>
       <c r="C236" s="124" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M236" s="117"/>
       <c r="O236" s="77"/>
@@ -16108,14 +16145,14 @@
       </c>
       <c r="B237" s="115"/>
       <c r="D237" s="83" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E237" s="198" t="str">
         <f>IF(Q210="","",Q210)</f>
         <v/>
       </c>
       <c r="F237" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G237" s="198">
         <f>IF(T210="","",T210)</f>
@@ -16141,14 +16178,14 @@
       </c>
       <c r="B238" s="115"/>
       <c r="D238" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E238" s="198" t="str">
         <f>IF(Q211="","",Q211)</f>
         <v>Mo/Mo</v>
       </c>
       <c r="F238" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G238" s="198" t="str">
         <f>IF(T211="","",T211)</f>
@@ -16157,10 +16194,10 @@
       <c r="M238" s="117"/>
       <c r="O238" s="77"/>
       <c r="P238" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q238" s="74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S238" s="83"/>
       <c r="T238" s="82"/>
@@ -16177,14 +16214,14 @@
       </c>
       <c r="B239" s="115"/>
       <c r="G239" s="82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I239" s="67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M239" s="117"/>
       <c r="O239" s="191" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P239" s="69"/>
       <c r="Q239" s="69"/>
@@ -16208,19 +16245,19 @@
         <v>149</v>
       </c>
       <c r="F240" s="82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G240" s="82" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H240" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="I240" s="82" t="s">
         <v>355</v>
       </c>
-      <c r="I240" s="82" t="s">
+      <c r="K240" s="83" t="s">
         <v>356</v>
-      </c>
-      <c r="K240" s="83" t="s">
-        <v>357</v>
       </c>
       <c r="L240" s="196" t="str">
         <f t="shared" ref="L240:L245" si="25">IF(X213="","",X213)</f>
@@ -16258,7 +16295,7 @@
         <v/>
       </c>
       <c r="K241" s="83" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L241" s="197" t="str">
         <f t="shared" si="25"/>
@@ -16267,13 +16304,13 @@
       <c r="M241" s="117"/>
       <c r="O241" s="77"/>
       <c r="S241" s="83"/>
-      <c r="T241" s="444" t="s">
-        <v>374</v>
-      </c>
-      <c r="U241" s="444"/>
-      <c r="V241" s="444"/>
-      <c r="W241" s="444"/>
-      <c r="X241" s="444"/>
+      <c r="T241" s="446" t="s">
+        <v>373</v>
+      </c>
+      <c r="U241" s="446"/>
+      <c r="V241" s="446"/>
+      <c r="W241" s="446"/>
+      <c r="X241" s="446"/>
       <c r="Y241" s="79"/>
     </row>
     <row r="242" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16302,7 +16339,7 @@
         <v/>
       </c>
       <c r="K242" s="83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L242" s="300" t="e">
         <f t="shared" si="25"/>
@@ -16317,7 +16354,7 @@
         <v>104</v>
       </c>
       <c r="R242" s="82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S242" s="82" t="s">
         <v>149</v>
@@ -16332,10 +16369,10 @@
         <v>107</v>
       </c>
       <c r="W242" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="X242" s="82" t="s">
         <v>375</v>
-      </c>
-      <c r="X242" s="82" t="s">
-        <v>376</v>
       </c>
       <c r="Y242" s="79"/>
     </row>
@@ -16365,7 +16402,7 @@
         <v/>
       </c>
       <c r="K243" s="83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L243" s="197" t="e">
         <f t="shared" si="25"/>
@@ -16437,7 +16474,7 @@
         <v/>
       </c>
       <c r="K244" s="83" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L244" s="197" t="str">
         <f t="shared" si="25"/>
@@ -16489,7 +16526,7 @@
       </c>
       <c r="B245" s="115"/>
       <c r="D245" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E245" s="299" t="str">
         <f t="shared" si="26"/>
@@ -16512,7 +16549,7 @@
         <v/>
       </c>
       <c r="K245" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L245" s="303" t="e">
         <f t="shared" si="25"/>
@@ -16564,7 +16601,7 @@
       </c>
       <c r="B246" s="115"/>
       <c r="D246" s="83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E246" s="304" t="str">
         <f t="shared" si="26"/>
@@ -16632,13 +16669,13 @@
       </c>
       <c r="B247" s="115"/>
       <c r="D247" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E247" s="74" t="s">
+        <v>363</v>
+      </c>
+      <c r="K247" s="83" t="s">
         <v>364</v>
-      </c>
-      <c r="K247" s="83" t="s">
-        <v>365</v>
       </c>
       <c r="L247" s="284" t="e">
         <f>IF(X221="","",X221)</f>
@@ -16647,7 +16684,7 @@
       <c r="M247" s="117"/>
       <c r="O247" s="77"/>
       <c r="S247" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T247" s="120" t="str">
         <f>IF(OR(T243="",T244="",T245="",T246=""),"",AVERAGE(T243:T246))</f>
@@ -16677,10 +16714,10 @@
       </c>
       <c r="B248" s="115"/>
       <c r="E248" s="74" t="s">
+        <v>365</v>
+      </c>
+      <c r="K248" s="83" t="s">
         <v>366</v>
-      </c>
-      <c r="K248" s="83" t="s">
-        <v>367</v>
       </c>
       <c r="L248" s="281" t="e">
         <f>IF(X222="","",X222)</f>
@@ -16689,7 +16726,7 @@
       <c r="M248" s="117"/>
       <c r="O248" s="193"/>
       <c r="S248" s="83" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T248" s="120" t="str">
         <f>IF(OR(T243="",T244="",T245="",T246=""),"",STDEV(T243:T246))</f>
@@ -16731,7 +16768,7 @@
       <c r="M249" s="218"/>
       <c r="O249" s="77"/>
       <c r="S249" s="83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T249" s="235" t="str">
         <f>IF(OR(T247="",T248=""),"",T248/T247)</f>
@@ -16761,12 +16798,12 @@
       </c>
       <c r="B250" s="115"/>
       <c r="C250" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M250" s="117"/>
       <c r="O250" s="77"/>
       <c r="S250" s="83" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T250" s="152"/>
       <c r="U250" s="152"/>
@@ -16787,28 +16824,28 @@
       </c>
       <c r="B251" s="115"/>
       <c r="D251" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E251" s="195"/>
       <c r="H251" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="I251" s="67" t="s">
         <v>381</v>
       </c>
-      <c r="I251" s="67" t="s">
-        <v>382</v>
-      </c>
       <c r="J251" s="67" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K251" s="67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M251" s="117"/>
       <c r="O251" s="77"/>
       <c r="P251" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q251" s="74" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Y251" s="79"/>
     </row>
@@ -16818,11 +16855,11 @@
       </c>
       <c r="B252" s="115"/>
       <c r="D252" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E252" s="357"/>
       <c r="G252" s="83" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H252" s="307"/>
       <c r="I252" s="118"/>
@@ -16831,7 +16868,7 @@
       <c r="M252" s="117"/>
       <c r="O252" s="77"/>
       <c r="Q252" s="74" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Y252" s="79"/>
     </row>
@@ -16845,7 +16882,7 @@
       </c>
       <c r="E253" s="357"/>
       <c r="G253" s="83" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H253" s="307"/>
       <c r="I253" s="118"/>
@@ -16875,7 +16912,7 @@
       <c r="E254" s="357"/>
       <c r="M254" s="117"/>
       <c r="O254" s="191" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P254" s="69"/>
       <c r="Q254" s="69"/>
@@ -16894,20 +16931,20 @@
       </c>
       <c r="B255" s="115"/>
       <c r="D255" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E255" s="221" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M255" s="117"/>
       <c r="O255" s="77"/>
-      <c r="T255" s="444" t="s">
-        <v>374</v>
-      </c>
-      <c r="U255" s="444"/>
-      <c r="V255" s="444"/>
-      <c r="W255" s="444"/>
-      <c r="X255" s="444"/>
+      <c r="T255" s="446" t="s">
+        <v>373</v>
+      </c>
+      <c r="U255" s="446"/>
+      <c r="V255" s="446"/>
+      <c r="W255" s="446"/>
+      <c r="X255" s="446"/>
       <c r="Y255" s="79"/>
     </row>
     <row r="256" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16916,7 +16953,7 @@
       </c>
       <c r="B256" s="115"/>
       <c r="E256" s="74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M256" s="117"/>
       <c r="O256" s="77"/>
@@ -16927,7 +16964,7 @@
         <v>104</v>
       </c>
       <c r="R256" s="82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S256" s="82" t="s">
         <v>149</v>
@@ -16942,10 +16979,10 @@
         <v>107</v>
       </c>
       <c r="W256" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="X256" s="82" t="s">
         <v>375</v>
-      </c>
-      <c r="X256" s="82" t="s">
-        <v>376</v>
       </c>
       <c r="Y256" s="79"/>
     </row>
@@ -17010,7 +17047,7 @@
       </c>
       <c r="B258" s="115"/>
       <c r="C258" s="124" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M258" s="117"/>
       <c r="O258" s="77"/>
@@ -17057,14 +17094,14 @@
         <v>55</v>
       </c>
       <c r="B259" s="115"/>
-      <c r="D259" s="440"/>
-      <c r="E259" s="440"/>
+      <c r="D259" s="448"/>
+      <c r="E259" s="448"/>
       <c r="F259" s="74"/>
       <c r="G259" s="74"/>
       <c r="H259" s="74"/>
       <c r="K259" s="74"/>
-      <c r="L259" s="446"/>
-      <c r="M259" s="446"/>
+      <c r="L259" s="449"/>
+      <c r="M259" s="449"/>
       <c r="O259" s="77"/>
       <c r="P259" s="118" t="str">
         <f>IF(AK20="","",AK20)</f>
@@ -17111,10 +17148,10 @@
       <c r="B260" s="115"/>
       <c r="C260" s="74"/>
       <c r="D260" s="74"/>
-      <c r="E260" s="440" t="s">
-        <v>391</v>
-      </c>
-      <c r="F260" s="440"/>
+      <c r="E260" s="448" t="s">
+        <v>390</v>
+      </c>
+      <c r="F260" s="448"/>
       <c r="G260" s="74"/>
       <c r="H260" s="74"/>
       <c r="I260" s="82"/>
@@ -17167,7 +17204,7 @@
       <c r="B261" s="115"/>
       <c r="C261" s="74"/>
       <c r="E261" s="82" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F261" s="74"/>
       <c r="G261" s="74"/>
@@ -17178,13 +17215,13 @@
       <c r="M261" s="310"/>
       <c r="O261" s="77"/>
       <c r="P261" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q261" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="V261" s="83" t="s">
         <v>393</v>
-      </c>
-      <c r="V261" s="83" t="s">
-        <v>394</v>
       </c>
       <c r="W261" s="235" t="str">
         <f>IF(OR(W257="",W258="",W259="",W260=""),"",(MAX(W257:W260)-MIN(W257:W260))/(MAX(W257:W260)+MIN(W257:W260)))</f>
@@ -17199,7 +17236,7 @@
       <c r="B262" s="115"/>
       <c r="C262" s="74"/>
       <c r="D262" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E262" s="226">
         <f t="shared" ref="E262:E267" si="30">IF(Q285="","",Q285)</f>
@@ -17222,7 +17259,7 @@
       <c r="B263" s="115"/>
       <c r="C263" s="74"/>
       <c r="D263" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E263" s="230">
         <f t="shared" si="30"/>
@@ -17240,7 +17277,7 @@
         <v/>
       </c>
       <c r="P263" s="67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y263" s="79"/>
     </row>
@@ -17251,7 +17288,7 @@
       <c r="B264" s="115"/>
       <c r="C264" s="74"/>
       <c r="D264" s="83" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E264" s="230">
         <f t="shared" si="30"/>
@@ -17283,7 +17320,7 @@
       <c r="B265" s="115"/>
       <c r="C265" s="74"/>
       <c r="D265" s="83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E265" s="230" t="str">
         <f t="shared" si="30"/>
@@ -17297,7 +17334,7 @@
       <c r="L265" s="83"/>
       <c r="M265" s="310"/>
       <c r="O265" s="191" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P265" s="69"/>
       <c r="Q265" s="69"/>
@@ -17316,7 +17353,7 @@
       </c>
       <c r="B266" s="115"/>
       <c r="D266" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E266" s="230" t="str">
         <f t="shared" si="30"/>
@@ -17364,7 +17401,7 @@
       </c>
       <c r="B267" s="115"/>
       <c r="D267" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E267" s="312" t="str">
         <f t="shared" si="30"/>
@@ -17375,7 +17412,7 @@
       <c r="M267" s="309"/>
       <c r="O267" s="77"/>
       <c r="P267" s="118" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q267" s="118">
         <v>24</v>
@@ -17415,14 +17452,14 @@
       <c r="M268" s="76"/>
       <c r="O268" s="77"/>
       <c r="P268" s="152" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q268" s="450" t="s">
         <v>398</v>
       </c>
-      <c r="Q268" s="441" t="s">
-        <v>399</v>
-      </c>
-      <c r="R268" s="441"/>
-      <c r="S268" s="441"/>
-      <c r="T268" s="441"/>
+      <c r="R268" s="450"/>
+      <c r="S268" s="450"/>
+      <c r="T268" s="450"/>
       <c r="U268" s="313"/>
       <c r="V268" s="313"/>
       <c r="W268" s="313"/>
@@ -17548,7 +17585,7 @@
         <v>68</v>
       </c>
       <c r="C272" s="162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D272" s="165" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -17650,14 +17687,14 @@
       </c>
       <c r="B275" s="106"/>
       <c r="C275" s="323" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D275" s="324" t="str">
         <f>IF(P225="","",P225)</f>
         <v/>
       </c>
       <c r="E275" s="323" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F275" s="324" t="str">
         <f>IF(P226="","",P226)</f>
@@ -17665,19 +17702,19 @@
       </c>
       <c r="G275" s="107"/>
       <c r="H275" s="323" t="s">
-        <v>371</v>
-      </c>
-      <c r="I275" s="442" t="str">
+        <v>370</v>
+      </c>
+      <c r="I275" s="451" t="str">
         <f>IF(S225="","",S225)</f>
         <v/>
       </c>
-      <c r="J275" s="442"/>
+      <c r="J275" s="451"/>
       <c r="K275" s="107"/>
       <c r="L275" s="107"/>
       <c r="M275" s="109"/>
       <c r="O275" s="77"/>
       <c r="P275" s="242" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q275" s="325" t="str">
         <f>IF(AQ10="","",AVERAGE(AQ10:AQ11))</f>
@@ -17715,18 +17752,18 @@
       <c r="F276" s="74"/>
       <c r="G276" s="74"/>
       <c r="H276" s="269" t="s">
-        <v>373</v>
-      </c>
-      <c r="I276" s="443" t="str">
+        <v>372</v>
+      </c>
+      <c r="I276" s="452" t="str">
         <f>IF(S226="","",S226)</f>
         <v/>
       </c>
-      <c r="J276" s="443"/>
+      <c r="J276" s="452"/>
       <c r="K276" s="74"/>
       <c r="M276" s="117"/>
       <c r="O276" s="77"/>
       <c r="P276" s="257" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q276" s="305" t="str">
         <f>IF(OR(Q269="",Q274=""),"",ABS(Q274-Q269)/Q269)</f>
@@ -17759,19 +17796,19 @@
       </c>
       <c r="B277" s="115"/>
       <c r="C277" s="205" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D277" s="116"/>
       <c r="E277" s="116"/>
       <c r="F277" s="116"/>
       <c r="G277" s="116"/>
       <c r="H277" s="124" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M277" s="117"/>
       <c r="O277" s="77"/>
       <c r="P277" s="242" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q277" s="326">
         <f>Q267/100</f>
@@ -17834,7 +17871,7 @@
       <c r="M278" s="117"/>
       <c r="O278" s="77"/>
       <c r="P278" s="328" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q278" s="329">
         <f>Q267/100+0.12</f>
@@ -17867,14 +17904,14 @@
       </c>
       <c r="B279" s="115"/>
       <c r="C279" s="83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D279" s="198">
         <f>IF(S230="","",S230)</f>
         <v>50</v>
       </c>
       <c r="H279" s="83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I279" s="198">
         <f>IF(S243="","",S243)</f>
@@ -17914,17 +17951,17 @@
       </c>
       <c r="B280" s="115"/>
       <c r="C280" s="331" t="s">
+        <v>276</v>
+      </c>
+      <c r="D280" s="331" t="s">
         <v>277</v>
-      </c>
-      <c r="D280" s="331" t="s">
-        <v>278</v>
       </c>
       <c r="E280" s="331"/>
       <c r="H280" s="331" t="s">
+        <v>276</v>
+      </c>
+      <c r="I280" s="331" t="s">
         <v>277</v>
-      </c>
-      <c r="I280" s="331" t="s">
-        <v>278</v>
       </c>
       <c r="J280" s="82"/>
       <c r="K280" s="82"/>
@@ -17932,10 +17969,10 @@
       <c r="M280" s="117"/>
       <c r="O280" s="77"/>
       <c r="P280" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q280" s="74" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R280" s="74"/>
       <c r="S280" s="74"/>
@@ -17958,7 +17995,7 @@
         <v>105</v>
       </c>
       <c r="E281" s="332" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H281" s="332" t="s">
         <v>105</v>
@@ -17970,10 +18007,10 @@
         <v>34</v>
       </c>
       <c r="K281" s="332" t="s">
+        <v>374</v>
+      </c>
+      <c r="L281" s="332" t="s">
         <v>375</v>
-      </c>
-      <c r="L281" s="332" t="s">
-        <v>376</v>
       </c>
       <c r="M281" s="117"/>
       <c r="O281" s="88"/>
@@ -18027,7 +18064,7 @@
       </c>
       <c r="M282" s="117"/>
       <c r="O282" s="191" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P282" s="69"/>
       <c r="Q282" s="69"/>
@@ -18075,18 +18112,18 @@
       </c>
       <c r="M283" s="117"/>
       <c r="O283" s="334" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q283" s="194">
         <v>1</v>
       </c>
       <c r="R283" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="U283" s="444" t="s">
-        <v>382</v>
-      </c>
-      <c r="V283" s="444"/>
+        <v>409</v>
+      </c>
+      <c r="U283" s="446" t="s">
+        <v>381</v>
+      </c>
+      <c r="V283" s="446"/>
       <c r="Y283" s="79"/>
     </row>
     <row r="284" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18176,7 +18213,7 @@
       <c r="M285" s="117"/>
       <c r="O285" s="77"/>
       <c r="P285" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q285" s="118">
         <f>T210</f>
@@ -18215,7 +18252,7 @@
         <v/>
       </c>
       <c r="H286" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I286" s="120" t="str">
         <f t="shared" si="34"/>
@@ -18236,7 +18273,7 @@
       <c r="M286" s="117"/>
       <c r="O286" s="77"/>
       <c r="P286" s="83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q286" s="118">
         <f>Q217</f>
@@ -18274,7 +18311,7 @@
         <v/>
       </c>
       <c r="H287" s="83" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I287" s="120" t="str">
         <f t="shared" si="34"/>
@@ -18295,7 +18332,7 @@
       <c r="M287" s="117"/>
       <c r="O287" s="77"/>
       <c r="P287" s="83" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q287" s="118">
         <f>R217</f>
@@ -18334,7 +18371,7 @@
         <v/>
       </c>
       <c r="H288" s="83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I288" s="235" t="str">
         <f t="shared" si="34"/>
@@ -18355,7 +18392,7 @@
       <c r="M288" s="117"/>
       <c r="O288" s="77"/>
       <c r="P288" s="83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q288" s="192"/>
       <c r="R288" s="192"/>
@@ -18377,14 +18414,14 @@
       <c r="B289" s="115"/>
       <c r="C289" s="414"/>
       <c r="D289" s="336" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E289" s="337" t="str">
         <f>IF(E282="","",IF(AND(ABS(MAX(E282:E288))&lt;=0.05,ABS(MIN(E282:E288))&lt;=0.05),"YES","NO"))</f>
         <v/>
       </c>
       <c r="H289" s="83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I289" s="200" t="str">
         <f>IF(I288="","",IF(ABS(I288)&lt;=0.02,"YES","NO"))</f>
@@ -18405,7 +18442,7 @@
       <c r="M289" s="117"/>
       <c r="O289" s="77"/>
       <c r="P289" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q289" s="192"/>
       <c r="R289" s="192"/>
@@ -18426,16 +18463,16 @@
       </c>
       <c r="B290" s="115"/>
       <c r="H290" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I290" s="74" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J290" s="74"/>
       <c r="M290" s="117"/>
       <c r="O290" s="77"/>
       <c r="P290" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q290" s="192"/>
       <c r="R290" s="192"/>
@@ -18458,13 +18495,13 @@
       <c r="D291" s="74"/>
       <c r="E291" s="74"/>
       <c r="I291" s="74" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J291" s="74"/>
       <c r="M291" s="117"/>
       <c r="O291" s="77"/>
       <c r="P291" s="83" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q291" s="192"/>
       <c r="R291" s="192"/>
@@ -18488,20 +18525,20 @@
       </c>
       <c r="B292" s="115"/>
       <c r="D292" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E292" s="74" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H292" s="116"/>
       <c r="I292" s="221" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J292" s="74"/>
       <c r="M292" s="117"/>
       <c r="O292" s="77"/>
       <c r="P292" s="83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q292" s="192"/>
       <c r="R292" s="192"/>
@@ -18529,7 +18566,7 @@
       <c r="M293" s="117"/>
       <c r="O293" s="88"/>
       <c r="P293" s="239" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q293" s="240" t="str">
         <f>IF(Q283=1,"Must see at least 3 fibers, 3 specks, 2.5 masses","Must see at least 5 fibers, 4 specks, 3.5 masses")</f>
@@ -18550,7 +18587,7 @@
       </c>
       <c r="B294" s="115"/>
       <c r="C294" s="124" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M294" s="117"/>
       <c r="O294" s="338"/>
@@ -18558,7 +18595,7 @@
       <c r="Q294" s="286"/>
       <c r="R294" s="286"/>
       <c r="S294" s="339" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T294" s="286"/>
       <c r="U294" s="286"/>
@@ -18613,7 +18650,7 @@
       <c r="M296" s="117"/>
       <c r="O296" s="275"/>
       <c r="P296" s="344" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q296" s="223"/>
       <c r="R296" s="345">
@@ -18623,7 +18660,7 @@
       <c r="S296" s="224"/>
       <c r="T296" s="224"/>
       <c r="U296" s="346" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V296" s="224"/>
       <c r="W296" s="224"/>
@@ -18636,7 +18673,7 @@
       </c>
       <c r="B297" s="115"/>
       <c r="C297" s="332" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D297" s="332" t="s">
         <v>105</v>
@@ -18645,15 +18682,15 @@
         <v>34</v>
       </c>
       <c r="F297" s="332" t="s">
+        <v>374</v>
+      </c>
+      <c r="G297" s="332" t="s">
         <v>375</v>
-      </c>
-      <c r="G297" s="332" t="s">
-        <v>376</v>
       </c>
       <c r="M297" s="117"/>
       <c r="O297" s="275"/>
       <c r="P297" s="162" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q297" s="341"/>
       <c r="R297" s="342"/>
@@ -18696,7 +18733,7 @@
       <c r="M298" s="117"/>
       <c r="O298" s="275"/>
       <c r="P298" s="344" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q298" s="223"/>
       <c r="R298" s="345">
@@ -18706,7 +18743,7 @@
       <c r="S298" s="224"/>
       <c r="T298" s="224"/>
       <c r="U298" s="346" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V298" s="224"/>
       <c r="W298" s="224"/>
@@ -18741,7 +18778,7 @@
       <c r="M299" s="117"/>
       <c r="O299" s="275"/>
       <c r="P299" s="162" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q299" s="341"/>
       <c r="R299" s="342"/>
@@ -18784,7 +18821,7 @@
       <c r="M300" s="117"/>
       <c r="O300" s="275"/>
       <c r="P300" s="344" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q300" s="223"/>
       <c r="R300" s="345">
@@ -18794,7 +18831,7 @@
       <c r="S300" s="224"/>
       <c r="T300" s="224"/>
       <c r="U300" s="346" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="V300" s="224"/>
       <c r="W300" s="224"/>
@@ -18829,7 +18866,7 @@
       <c r="M301" s="117"/>
       <c r="O301" s="275"/>
       <c r="P301" s="162" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q301" s="341"/>
       <c r="R301" s="342"/>
@@ -18850,7 +18887,7 @@
       </c>
       <c r="B302" s="115"/>
       <c r="E302" s="83" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F302" s="216" t="str">
         <f>IF(W261="","",W261)</f>
@@ -18859,7 +18896,7 @@
       <c r="M302" s="117"/>
       <c r="O302" s="275"/>
       <c r="P302" s="344" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q302" s="223"/>
       <c r="R302" s="345">
@@ -18869,7 +18906,7 @@
       <c r="S302" s="224"/>
       <c r="T302" s="224"/>
       <c r="U302" s="346" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="V302" s="224"/>
       <c r="W302" s="224"/>
@@ -18882,15 +18919,15 @@
       </c>
       <c r="B303" s="115"/>
       <c r="D303" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E303" s="74" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M303" s="117"/>
       <c r="O303" s="275"/>
       <c r="P303" s="162" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q303" s="341"/>
       <c r="R303" s="342"/>
@@ -18913,7 +18950,7 @@
       <c r="M304" s="117"/>
       <c r="O304" s="275"/>
       <c r="P304" s="344" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q304" s="223"/>
       <c r="R304" s="345">
@@ -18923,7 +18960,7 @@
       <c r="S304" s="224"/>
       <c r="T304" s="224"/>
       <c r="U304" s="346" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="V304" s="224"/>
       <c r="W304" s="224"/>
@@ -18936,12 +18973,12 @@
       </c>
       <c r="B305" s="115"/>
       <c r="C305" s="124" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M305" s="117"/>
       <c r="O305" s="275"/>
       <c r="P305" s="162" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q305" s="341"/>
       <c r="R305" s="342"/>
@@ -18987,7 +19024,7 @@
       <c r="M306" s="117"/>
       <c r="O306" s="275"/>
       <c r="P306" s="344" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q306" s="223"/>
       <c r="R306" s="345">
@@ -19008,7 +19045,7 @@
       </c>
       <c r="B307" s="115"/>
       <c r="C307" s="118" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D307" s="118">
         <v>24</v>
@@ -19029,7 +19066,7 @@
       <c r="M307" s="117"/>
       <c r="O307" s="275"/>
       <c r="P307" s="162" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q307" s="341"/>
       <c r="R307" s="342"/>
@@ -19050,7 +19087,7 @@
       </c>
       <c r="B308" s="115"/>
       <c r="C308" s="242" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D308" s="325" t="str">
         <f t="shared" ref="D308:G309" si="40">IF(Q275="","",Q275)</f>
@@ -19075,7 +19112,7 @@
       <c r="M308" s="117"/>
       <c r="O308" s="275"/>
       <c r="P308" s="344" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q308" s="223"/>
       <c r="R308" s="345">
@@ -19096,7 +19133,7 @@
       </c>
       <c r="B309" s="115"/>
       <c r="C309" s="257" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D309" s="305" t="str">
         <f t="shared" si="40"/>
@@ -19137,7 +19174,7 @@
       </c>
       <c r="B310" s="115"/>
       <c r="C310" s="242" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D310" s="325">
         <f t="shared" ref="D310:G312" si="41">Q277</f>
@@ -19178,7 +19215,7 @@
       </c>
       <c r="B311" s="115"/>
       <c r="C311" s="257" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D311" s="292">
         <f t="shared" si="41"/>
@@ -19219,7 +19256,7 @@
       </c>
       <c r="B312" s="115"/>
       <c r="C312" s="83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D312" s="347" t="str">
         <f t="shared" si="41"/>
@@ -19260,10 +19297,10 @@
       </c>
       <c r="B313" s="115"/>
       <c r="D313" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E313" s="74" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M313" s="117"/>
       <c r="O313" s="74"/>
@@ -19302,7 +19339,7 @@
       </c>
       <c r="B315" s="115"/>
       <c r="H315" s="102" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M315" s="117"/>
       <c r="O315" s="74"/>
@@ -20010,7 +20047,7 @@
         <v>66</v>
       </c>
       <c r="C338" s="162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D338" s="165" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -20059,65 +20096,65 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="59">
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="Q268:T268"/>
+    <mergeCell ref="I275:J275"/>
+    <mergeCell ref="I276:J276"/>
+    <mergeCell ref="U283:V283"/>
+    <mergeCell ref="S226:T226"/>
+    <mergeCell ref="T228:X228"/>
+    <mergeCell ref="T241:X241"/>
+    <mergeCell ref="T255:X255"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="R158:S158"/>
+    <mergeCell ref="T158:U158"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="S225:T225"/>
+    <mergeCell ref="S98:U98"/>
+    <mergeCell ref="P105:R105"/>
+    <mergeCell ref="S105:U105"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="S106:U106"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P97:R97"/>
+    <mergeCell ref="S97:U97"/>
+    <mergeCell ref="V97:X97"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P97:R97"/>
-    <mergeCell ref="S97:U97"/>
-    <mergeCell ref="V97:X97"/>
-    <mergeCell ref="S98:U98"/>
-    <mergeCell ref="P105:R105"/>
-    <mergeCell ref="S105:U105"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="S106:U106"/>
-    <mergeCell ref="R158:S158"/>
-    <mergeCell ref="T158:U158"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="S225:T225"/>
-    <mergeCell ref="S226:T226"/>
-    <mergeCell ref="T228:X228"/>
-    <mergeCell ref="T241:X241"/>
-    <mergeCell ref="T255:X255"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="Q268:T268"/>
-    <mergeCell ref="I275:J275"/>
-    <mergeCell ref="I276:J276"/>
-    <mergeCell ref="U283:V283"/>
   </mergeCells>
   <conditionalFormatting sqref="L45:L49 L51:L62 L72:L103">
     <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
@@ -20248,7 +20285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -20262,56 +20299,56 @@
   <sheetData>
     <row r="1" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="456" t="s">
+      <c r="B2" s="453" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="456"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="456"/>
-      <c r="F2" s="456"/>
-      <c r="G2" s="456"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="456"/>
-      <c r="J2" s="456"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="453"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="453"/>
+      <c r="H2" s="453"/>
+      <c r="I2" s="453"/>
+      <c r="J2" s="453"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="456" t="s">
+      <c r="L2" s="453" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="456"/>
-      <c r="N2" s="456"/>
-      <c r="O2" s="456"/>
-      <c r="P2" s="456"/>
-      <c r="Q2" s="456"/>
-      <c r="R2" s="456"/>
-      <c r="S2" s="456"/>
-      <c r="T2" s="456"/>
+      <c r="M2" s="453"/>
+      <c r="N2" s="453"/>
+      <c r="O2" s="453"/>
+      <c r="P2" s="453"/>
+      <c r="Q2" s="453"/>
+      <c r="R2" s="453"/>
+      <c r="S2" s="453"/>
+      <c r="T2" s="453"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="456" t="s">
+      <c r="V2" s="453" t="s">
         <v>105</v>
       </c>
-      <c r="W2" s="456"/>
-      <c r="X2" s="456"/>
-      <c r="Y2" s="456"/>
-      <c r="Z2" s="456"/>
-      <c r="AA2" s="456"/>
-      <c r="AB2" s="456"/>
-      <c r="AC2" s="456"/>
-      <c r="AD2" s="456"/>
+      <c r="W2" s="453"/>
+      <c r="X2" s="453"/>
+      <c r="Y2" s="453"/>
+      <c r="Z2" s="453"/>
+      <c r="AA2" s="453"/>
+      <c r="AB2" s="453"/>
+      <c r="AC2" s="453"/>
+      <c r="AD2" s="453"/>
     </row>
     <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B3" s="5">
         <v>23</v>
@@ -20341,7 +20378,7 @@
         <v>31</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L3" s="5">
         <v>23</v>
@@ -20371,7 +20408,7 @@
         <v>31</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="V3" s="5">
         <v>23</v>
@@ -21759,48 +21796,48 @@
     </row>
     <row r="25" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="457" t="s">
+      <c r="B26" s="454" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="457"/>
-      <c r="D26" s="457"/>
-      <c r="E26" s="457"/>
-      <c r="F26" s="457"/>
-      <c r="G26" s="457"/>
-      <c r="H26" s="457"/>
-      <c r="I26" s="457"/>
-      <c r="J26" s="457"/>
-      <c r="K26" s="457"/>
-      <c r="L26" s="457"/>
+      <c r="C26" s="454"/>
+      <c r="D26" s="454"/>
+      <c r="E26" s="454"/>
+      <c r="F26" s="454"/>
+      <c r="G26" s="454"/>
+      <c r="H26" s="454"/>
+      <c r="I26" s="454"/>
+      <c r="J26" s="454"/>
+      <c r="K26" s="454"/>
+      <c r="L26" s="454"/>
       <c r="M26" s="10"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="456" t="s">
+      <c r="O26" s="453" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="456"/>
-      <c r="Q26" s="456"/>
-      <c r="R26" s="456"/>
-      <c r="S26" s="456"/>
-      <c r="T26" s="456"/>
-      <c r="U26" s="456"/>
-      <c r="V26" s="456"/>
-      <c r="W26" s="456"/>
-      <c r="X26" s="456"/>
-      <c r="Y26" s="456"/>
-      <c r="Z26" s="456"/>
-      <c r="AA26" s="456"/>
+      <c r="P26" s="453"/>
+      <c r="Q26" s="453"/>
+      <c r="R26" s="453"/>
+      <c r="S26" s="453"/>
+      <c r="T26" s="453"/>
+      <c r="U26" s="453"/>
+      <c r="V26" s="453"/>
+      <c r="W26" s="453"/>
+      <c r="X26" s="453"/>
+      <c r="Y26" s="453"/>
+      <c r="Z26" s="453"/>
+      <c r="AA26" s="453"/>
     </row>
     <row r="27" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -21839,7 +21876,7 @@
         <v>33</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O27" s="5">
         <v>27</v>
@@ -23626,7 +23663,7 @@
     </row>
     <row r="50" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -23641,27 +23678,27 @@
     </row>
     <row r="51" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
-      <c r="B51" s="453" t="s">
+      <c r="B51" s="455" t="s">
+        <v>431</v>
+      </c>
+      <c r="C51" s="455" t="s">
         <v>432</v>
       </c>
-      <c r="C51" s="453" t="s">
+      <c r="D51" s="456" t="s">
         <v>433</v>
       </c>
-      <c r="D51" s="454" t="s">
-        <v>434</v>
-      </c>
-      <c r="E51" s="454"/>
-      <c r="F51" s="454"/>
-      <c r="G51" s="454"/>
-      <c r="H51" s="454"/>
-      <c r="I51" s="454"/>
-      <c r="J51" s="454"/>
-      <c r="K51" s="454"/>
+      <c r="E51" s="456"/>
+      <c r="F51" s="456"/>
+      <c r="G51" s="456"/>
+      <c r="H51" s="456"/>
+      <c r="I51" s="456"/>
+      <c r="J51" s="456"/>
+      <c r="K51" s="456"/>
     </row>
     <row r="52" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
-      <c r="B52" s="453"/>
-      <c r="C52" s="453"/>
+      <c r="B52" s="455"/>
+      <c r="C52" s="455"/>
       <c r="D52" s="14">
         <v>0.25</v>
       </c>
@@ -23687,15 +23724,15 @@
         <v>0.6</v>
       </c>
       <c r="L52" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="M52" s="13" t="s">
         <v>435</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B53" s="18">
         <v>45</v>
@@ -23738,7 +23775,7 @@
     </row>
     <row r="54" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B54" s="22">
         <v>45</v>
@@ -23779,7 +23816,7 @@
     </row>
     <row r="55" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B55" s="22">
         <v>50</v>
@@ -23822,7 +23859,7 @@
     </row>
     <row r="56" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B56" s="25">
         <v>50</v>
@@ -23865,18 +23902,18 @@
     <row r="58" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C58" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>439</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="59" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B59" s="32">
         <v>1</v>
@@ -23891,13 +23928,13 @@
     <row r="60" spans="1:19" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="N61" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23905,16 +23942,16 @@
         <v>103</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D62" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="E62" s="36" t="s">
         <v>375</v>
-      </c>
-      <c r="E62" s="36" t="s">
-        <v>376</v>
       </c>
       <c r="G62" s="35"/>
       <c r="H62" s="36"/>
@@ -23922,15 +23959,15 @@
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="N62"/>
-      <c r="O62" s="455" t="s">
+      <c r="O62" s="457" t="s">
+        <v>445</v>
+      </c>
+      <c r="P62" s="457"/>
+      <c r="Q62" s="457" t="s">
         <v>446</v>
       </c>
-      <c r="P62" s="455"/>
-      <c r="Q62" s="455" t="s">
-        <v>447</v>
-      </c>
-      <c r="R62" s="455"/>
-      <c r="S62" s="455"/>
+      <c r="R62" s="457"/>
+      <c r="S62" s="457"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="str">
@@ -23959,22 +23996,22 @@
       <c r="J63" s="37"/>
       <c r="K63" s="38"/>
       <c r="N63" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O63" s="39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P63" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q63" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="R63" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="S63" s="39" t="s">
         <v>448</v>
-      </c>
-      <c r="Q63" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="R63" s="39" t="s">
-        <v>448</v>
-      </c>
-      <c r="S63" s="39" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -24270,7 +24307,7 @@
     </row>
     <row r="70" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D70" s="1" t="e">
         <f>SLOPE(D63:D69,$C$63:$C$69)</f>
@@ -24308,7 +24345,7 @@
     </row>
     <row r="71" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D71" s="1" t="e">
         <f>INTERCEPT(D63:D69,$C$63:$C$69)</f>
@@ -24371,7 +24408,7 @@
     </row>
     <row r="73" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N73" s="39" t="e">
         <f>IF(Sheet1!#REF!="","",Sheet1!#REF!)</f>
@@ -24403,10 +24440,10 @@
         <v>103</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="36"/>
@@ -24418,7 +24455,7 @@
         <v>104</v>
       </c>
       <c r="J74" s="44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N74" s="39" t="e">
         <f>IF(Sheet1!#REF!="","",Sheet1!#REF!)</f>
@@ -24514,7 +24551,7 @@
         <v>130</v>
       </c>
       <c r="I76" s="46" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J76" s="47">
         <v>0.19</v>
@@ -24561,10 +24598,10 @@
       <c r="E77" s="36"/>
       <c r="F77" s="38"/>
       <c r="H77" s="48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I77" s="49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J77" s="50">
         <v>0.22</v>
@@ -24606,10 +24643,10 @@
       <c r="E78" s="36"/>
       <c r="F78" s="38"/>
       <c r="H78" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="I78" s="51" t="s">
         <v>454</v>
-      </c>
-      <c r="I78" s="51" t="s">
-        <v>455</v>
       </c>
       <c r="J78" s="51"/>
       <c r="N78" s="39" t="str">
@@ -24639,7 +24676,7 @@
     </row>
     <row r="79" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C79" s="36" t="e">
         <f>SLOPE(C75:C78,B75:B78)</f>
@@ -24649,7 +24686,7 @@
       <c r="F79" s="36"/>
       <c r="H79" s="51"/>
       <c r="I79" s="51" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J79" s="51"/>
       <c r="N79" s="39" t="str">
@@ -24679,7 +24716,7 @@
     </row>
     <row r="80" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C80" s="36" t="e">
         <f>INTERCEPT(C75:C78,B75:B78)</f>
@@ -24689,7 +24726,7 @@
       <c r="F80" s="36"/>
       <c r="H80" s="51"/>
       <c r="I80" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J80" s="51"/>
       <c r="N80" s="39" t="str">
@@ -24745,7 +24782,7 @@
     </row>
     <row r="82" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B82" s="13" t="e">
         <f>"DGN values (mrad/R) for "&amp;Sheet1!$T$210&amp;" kV and HVL="&amp;ROUND(Sheet1!$X$213,2)&amp;" mm Al"</f>
@@ -24778,22 +24815,22 @@
     </row>
     <row r="83" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B83" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>458</v>
+      </c>
+      <c r="D83" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="C83" s="52" t="s">
-        <v>459</v>
-      </c>
-      <c r="D83" s="52" t="s">
-        <v>440</v>
-      </c>
       <c r="E83" s="52" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N83" s="39" t="str">
         <f>IF(Sheet1!AM29="","",Sheet1!AM29)</f>
@@ -24898,7 +24935,7 @@
     </row>
     <row r="86" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N86" s="39" t="str">
         <f>IF(Sheet1!AM20="","",Sheet1!AM20)</f>
@@ -24928,29 +24965,29 @@
     <row r="87" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87" s="55" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C87"/>
       <c r="D87" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="E87" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="E87" s="56" t="s">
+      <c r="F87" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="G87" s="56" t="s">
         <v>462</v>
       </c>
-      <c r="F87" s="56" t="s">
-        <v>445</v>
-      </c>
-      <c r="G87" s="56" t="s">
+      <c r="H87" s="56" t="s">
         <v>463</v>
       </c>
-      <c r="H87" s="56" t="s">
+      <c r="I87" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="I87" s="56" t="s">
+      <c r="J87" s="56" t="s">
         <v>465</v>
-      </c>
-      <c r="J87" s="56" t="s">
-        <v>466</v>
       </c>
       <c r="N87" s="39" t="str">
         <f>IF(Sheet1!AM21="","",Sheet1!AM21)</f>
@@ -24979,10 +25016,10 @@
     </row>
     <row r="88" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C88" s="57">
         <v>27.585999999999999</v>
@@ -25035,7 +25072,7 @@
     </row>
     <row r="89" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C89" s="56">
         <v>27.585999999999999</v>
@@ -25090,7 +25127,7 @@
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
@@ -25128,7 +25165,7 @@
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -25165,29 +25202,29 @@
     <row r="92" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92" s="55" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C92"/>
       <c r="D92" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="E92" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="E92" s="56" t="s">
+      <c r="F92" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="G92" s="56" t="s">
         <v>462</v>
       </c>
-      <c r="F92" s="56" t="s">
-        <v>445</v>
-      </c>
-      <c r="G92" s="56" t="s">
+      <c r="H92" s="56" t="s">
         <v>463</v>
       </c>
-      <c r="H92" s="56" t="s">
+      <c r="I92" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="I92" s="56" t="s">
+      <c r="J92" s="56" t="s">
         <v>465</v>
-      </c>
-      <c r="J92" s="56" t="s">
-        <v>466</v>
       </c>
       <c r="N92" s="39" t="str">
         <f>IF(Sheet1!AM38="","",Sheet1!AM38)</f>
@@ -25216,10 +25253,10 @@
     </row>
     <row r="93" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C93" s="57">
         <v>30.1</v>
@@ -25272,7 +25309,7 @@
     </row>
     <row r="94" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C94" s="56">
         <v>30.1</v>
@@ -25327,7 +25364,7 @@
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N95" s="39" t="str">
         <f>IF(Sheet1!AM25="","",Sheet1!AM25)</f>
@@ -25358,7 +25395,7 @@
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N96" s="39" t="str">
         <f>IF(Sheet1!AM26="","",Sheet1!AM26)</f>
@@ -25414,7 +25451,7 @@
     </row>
     <row r="98" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B98"/>
       <c r="N98" s="39" t="str">
@@ -25445,23 +25482,23 @@
     <row r="99" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99" s="55" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C99"/>
       <c r="D99" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="E99" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="E99" s="56" t="s">
+      <c r="F99" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="G99" s="56" t="s">
         <v>462</v>
       </c>
-      <c r="F99" s="56" t="s">
-        <v>445</v>
-      </c>
-      <c r="G99" s="56" t="s">
+      <c r="H99" s="56" t="s">
         <v>463</v>
-      </c>
-      <c r="H99" s="56" t="s">
-        <v>464</v>
       </c>
       <c r="N99" s="39" t="str">
         <f>IF(Sheet1!AM45="","",Sheet1!AM45)</f>
@@ -25490,10 +25527,10 @@
     </row>
     <row r="100" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C100" s="57">
         <v>26.9</v>
@@ -25538,7 +25575,7 @@
     </row>
     <row r="101" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C101" s="56">
         <v>26.9</v>
@@ -25612,26 +25649,26 @@
     </row>
     <row r="103" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B103" s="55" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C103"/>
       <c r="D103" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="E103" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="E103" s="56" t="s">
+      <c r="F103" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="G103" s="56" t="s">
         <v>462</v>
       </c>
-      <c r="F103" s="56" t="s">
-        <v>445</v>
-      </c>
-      <c r="G103" s="56" t="s">
+      <c r="H103" s="56" t="s">
         <v>463</v>
-      </c>
-      <c r="H103" s="56" t="s">
-        <v>464</v>
       </c>
       <c r="N103" s="39" t="str">
         <f>IF(Sheet1!AM49="","",Sheet1!AM49)</f>
@@ -25660,7 +25697,7 @@
     </row>
     <row r="104" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="55" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C104" s="57">
         <v>28.7</v>
@@ -25705,7 +25742,7 @@
     </row>
     <row r="105" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C105" s="56">
         <v>28.7</v>
@@ -25773,24 +25810,24 @@
     </row>
     <row r="107" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="E107" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="E107" s="56" t="s">
+      <c r="F107" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="G107" s="56" t="s">
         <v>462</v>
       </c>
-      <c r="F107" s="56" t="s">
-        <v>445</v>
-      </c>
-      <c r="G107" s="56" t="s">
+      <c r="H107" s="56" t="s">
         <v>463</v>
-      </c>
-      <c r="H107" s="56" t="s">
-        <v>464</v>
       </c>
       <c r="N107" s="39" t="str">
         <f>IF(Sheet1!AM53="","",Sheet1!AM53)</f>
@@ -25819,7 +25856,7 @@
     </row>
     <row r="108" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="55" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C108" s="57">
         <v>28.7</v>
@@ -25863,7 +25900,7 @@
     <row r="109" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="55"/>
       <c r="C109" s="59" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D109" s="57">
         <v>-24.875</v>
@@ -25901,7 +25938,7 @@
     </row>
     <row r="110" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C110" s="56">
         <v>30.1</v>
@@ -26264,16 +26301,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="10">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:S62"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="V2:AD2"/>
     <mergeCell ref="B26:L26"/>
     <mergeCell ref="O26:AA26"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:S62"/>
   </mergeCells>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.85069444444444398" bottom="1.0472222222222201" header="0.75208333333333299" footer="0.75208333333333299"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -26286,7 +26323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -26300,10 +26337,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" t="s">
         <v>424</v>
-      </c>
-      <c r="B1" t="s">
-        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -26326,7 +26363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
@@ -26340,57 +26377,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="60"/>
       <c r="B9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="60"/>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>482</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -26404,27 +26441,27 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="60"/>
       <c r="B15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="60"/>
       <c r="B16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>482</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -26603,7 +26640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26618,42 +26655,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="370" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="367" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="367" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="370" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="367" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="367" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="367" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="369" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
